--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$122</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="357">
   <si>
     <t>Nombre</t>
   </si>
@@ -1020,13 +1020,91 @@
   </si>
   <si>
     <t>Faros De Lupa Led Focos Strobe Ojos De Demonio Rojo 14000lm 100w</t>
+  </si>
+  <si>
+    <t>Coches De Juguete Carros Escala Ford Raptor Con Luz Sonido 1:24 Rovtop</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/coches-de-juguete-carros-escala-ford-raptor-con-luz-sonido-124-rovtop/p/MLM48495413?pdp_filters=item_id:MLM2285016459</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_884154-MLA86087373437_062025-F.webp</t>
+  </si>
+  <si>
+    <t>Pista Lanzamiento Car Juguetes Niños 4 Coches Sonido Y Luz</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3196926034-pista-lanzamiento-car-juguetes-ninos-4-coches-sonido-y-luz-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_877427-CBT80013107518_102024-F-pista-lanzamiento-car-juguetes-ninos-4-coches-sonido-y-luz.webp</t>
+  </si>
+  <si>
+    <t>Juguetes Bloques Construcción Rosa Autos Deportivos 1299pc</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2026927253-juguetes-bloques-construccion-rosa-autos-deportivos-1299pc-_JM?pdp_filters=adult_content:yes%7Cseller_id:1197614201#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_907933-MLM76095040802_052024-F-juguetes-bloques-construccion-rosa-autos-deportivos-1299pc.webp</t>
+  </si>
+  <si>
+    <t>Juego De Bloques De Construcción De Ramo De Flores 548pcs</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3536104642-juego-de-bloques-de-construccion-de-ramo-de-flores-548pcs-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_697053-CBT82013320683_012025-F-juego-de-bloques-de-construccion-de-ramo-de-flores-548pcs.webp</t>
+  </si>
+  <si>
+    <t>Bloques Magnéticos Construcción Pistas Juguete Ninos 213pzs</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3348857050-bloques-magneticos-construccion-pistas-juguete-ninos-213pzs-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_987832-CBT81014124783_112024-F-bloques-magneticos-construccion-pistas-juguete-ninos-213pzs.webp</t>
+  </si>
+  <si>
+    <t>Juguete De Bloques De Construcción Para Hot Dog Van Le&amp;go</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_653193-CBT76506312273_052024-N.jpg</t>
+  </si>
+  <si>
+    <t>Juguete De Bloques De Construcción Para Icecream Truck Le,go</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_918402-CBT76507055283_052024-N.jpg</t>
+  </si>
+  <si>
+    <t>Edificio De La Noria Bloques Construccion Caja De Música+led</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_904919-CBT76975044461_062024-F-edificio-de-la-noria-bloques-construccion-caja-de-musicaled.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2850516506-edificio-de-la-noria-bloques-construccion-caja-de-musicaled-_JM?quantity=1&amp;variation_id=181626606761#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Kit De Construcción Esquina Librería Bloques Lego Compatible</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_752686-CBT78710677456_092024-N.jpg</t>
+  </si>
+  <si>
+    <t>Bloques Juguetes Construcción Educativo Para Ninos Castañas</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_693557-MLM73064142556_112023-N.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,8 +1128,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,6 +1155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1084,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1107,12 +1198,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1126,15 +1232,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1150,17 +1247,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G112" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G122" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G122"/>
   <sortState ref="A2:G111">
     <sortCondition descending="1" ref="G1:G111"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Precio" dataDxfId="3"/>
-    <tableColumn id="4" name="PrecioRebaja" dataDxfId="2"/>
-    <tableColumn id="5" name="ImagenURL" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" name="Precio" dataDxfId="2"/>
+    <tableColumn id="4" name="PrecioRebaja" dataDxfId="1"/>
+    <tableColumn id="5" name="ImagenURL" dataDxfId="0" dataCellStyle="Hipervínculo"/>
     <tableColumn id="6" name="LinkCompra" dataCellStyle="Hipervínculo"/>
     <tableColumn id="7" name="Caja"/>
   </tableColumns>
@@ -1431,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,260 +1568,266 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="13">
+        <v>375</v>
+      </c>
+      <c r="D2" s="13">
+        <v>260</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="13">
+        <v>400</v>
+      </c>
+      <c r="D3" s="13">
+        <v>250</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="13">
+        <v>270</v>
+      </c>
+      <c r="D4" s="13">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="13">
+        <v>455</v>
+      </c>
+      <c r="D5" s="13">
+        <v>290</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="13">
+        <v>150</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="13">
+        <v>150</v>
+      </c>
+      <c r="D7" s="13">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="13">
+        <v>375</v>
+      </c>
+      <c r="D8" s="13">
+        <v>250</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="13">
+        <v>150</v>
+      </c>
+      <c r="D9" s="13">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="13">
+        <v>250</v>
+      </c>
+      <c r="D10" s="13">
+        <v>200</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="13">
+        <v>260</v>
+      </c>
+      <c r="D11" s="13">
+        <v>250</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C12" s="4">
         <v>2300</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D12" s="4">
         <v>1800</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="4">
-        <v>665</v>
-      </c>
-      <c r="D3" s="4">
-        <v>450</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="4">
-        <v>170.73</v>
-      </c>
-      <c r="D4" s="4">
-        <v>140</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="4">
-        <v>133</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="4">
-        <v>299</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="4">
-        <v>259</v>
-      </c>
-      <c r="D7" s="4">
-        <v>150</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="4">
-        <v>279</v>
-      </c>
-      <c r="D8" s="4">
-        <v>180</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="4">
-        <v>212</v>
-      </c>
-      <c r="D9" s="4">
-        <v>120</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="4">
-        <v>178.03</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="4">
-        <v>200</v>
-      </c>
-      <c r="D11" s="4">
-        <v>150</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="4">
-        <v>193.7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>150</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>255</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="4">
-        <v>106</v>
+        <v>665</v>
       </c>
       <c r="D13" s="4">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G13" t="s">
         <v>255</v>
@@ -1732,19 +1835,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>209</v>
       </c>
       <c r="C14" s="4">
-        <v>150</v>
+        <v>170.73</v>
+      </c>
+      <c r="D14" s="4">
+        <v>140</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
         <v>255</v>
@@ -1752,22 +1858,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>209</v>
       </c>
       <c r="C15" s="4">
-        <v>248.02</v>
-      </c>
-      <c r="D15" s="4">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
         <v>255</v>
@@ -1775,19 +1878,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>209</v>
       </c>
       <c r="C16" s="4">
-        <v>120</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>103</v>
+        <v>299</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>255</v>
@@ -1795,22 +1895,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="4">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D17" s="4">
-        <v>165</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>182</v>
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
         <v>255</v>
@@ -1818,19 +1918,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="4">
-        <v>315.24</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>183</v>
+        <v>279</v>
+      </c>
+      <c r="D18" s="4">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
         <v>255</v>
@@ -1838,19 +1941,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>209</v>
       </c>
       <c r="C19" s="4">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="D19" s="4">
+        <v>120</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
         <v>255</v>
@@ -1858,22 +1964,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="4">
-        <v>119.4</v>
+        <v>178.03</v>
       </c>
       <c r="D20" s="4">
         <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
         <v>255</v>
@@ -1881,22 +1987,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>209</v>
       </c>
       <c r="C21" s="4">
-        <v>102.22</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>255</v>
@@ -1904,22 +2010,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="4">
-        <v>210</v>
+        <v>193.7</v>
       </c>
       <c r="D22" s="4">
         <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>255</v>
@@ -1927,22 +2033,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="4">
-        <v>166.93</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>255</v>
@@ -1950,22 +2053,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>209</v>
       </c>
       <c r="C24" s="4">
-        <v>99</v>
-      </c>
-      <c r="D24" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
         <v>255</v>
@@ -1973,22 +2073,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>209</v>
       </c>
       <c r="C25" s="4">
-        <v>1072.6500000000001</v>
+        <v>248.02</v>
       </c>
       <c r="D25" s="4">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
         <v>255</v>
@@ -1996,22 +2096,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>209</v>
       </c>
       <c r="C26" s="4">
-        <v>393.2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
         <v>255</v>
@@ -2019,22 +2116,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>209</v>
       </c>
       <c r="C27" s="4">
-        <v>342.66</v>
+        <v>269</v>
       </c>
       <c r="D27" s="4">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>255</v>
@@ -2042,22 +2139,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>209</v>
       </c>
       <c r="C28" s="4">
-        <v>323.66000000000003</v>
-      </c>
-      <c r="D28" s="4">
-        <v>270</v>
+        <v>315.24</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
         <v>255</v>
@@ -2065,22 +2159,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>209</v>
       </c>
       <c r="C29" s="4">
-        <v>237.76</v>
-      </c>
-      <c r="D29" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
         <v>255</v>
@@ -2088,22 +2179,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>209</v>
       </c>
       <c r="C30" s="4">
-        <v>359</v>
+        <v>119.4</v>
       </c>
       <c r="D30" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G30" t="s">
         <v>255</v>
@@ -2111,22 +2202,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="4">
-        <v>210</v>
+        <v>102.22</v>
       </c>
       <c r="D31" s="4">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>255</v>
@@ -2134,19 +2225,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>209</v>
       </c>
       <c r="C32" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G32" t="s">
         <v>255</v>
@@ -2154,19 +2248,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>209</v>
       </c>
       <c r="C33" s="4">
-        <v>160</v>
+        <v>166.93</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G33" t="s">
         <v>255</v>
@@ -2174,22 +2271,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>209</v>
       </c>
       <c r="C34" s="4">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
         <v>255</v>
@@ -2197,22 +2294,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>209</v>
       </c>
       <c r="C35" s="4">
-        <v>266.95999999999998</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D35" s="4">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
         <v>255</v>
@@ -2220,22 +2317,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="4">
-        <v>495.99</v>
+        <v>393.2</v>
       </c>
       <c r="D36" s="4">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
         <v>255</v>
@@ -2243,22 +2340,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>209</v>
       </c>
       <c r="C37" s="4">
-        <v>633.91</v>
+        <v>342.66</v>
       </c>
       <c r="D37" s="4">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="G37" t="s">
         <v>255</v>
@@ -2266,22 +2363,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="4">
-        <v>1064.8800000000001</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D38" s="4">
-        <v>1025</v>
+        <v>270</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
         <v>255</v>
@@ -2289,22 +2386,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s">
         <v>209</v>
       </c>
       <c r="C39" s="4">
-        <v>758.9</v>
+        <v>237.76</v>
       </c>
       <c r="D39" s="4">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
         <v>255</v>
@@ -2312,19 +2409,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>209</v>
       </c>
       <c r="C40" s="4">
-        <v>400</v>
+        <v>359</v>
+      </c>
+      <c r="D40" s="4">
+        <v>200</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
         <v>255</v>
@@ -2332,22 +2432,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="4">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D41" s="4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" t="s">
-        <v>132</v>
+        <v>208</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G41" t="s">
         <v>255</v>
@@ -2355,22 +2455,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="4">
-        <v>1899</v>
+        <v>160</v>
       </c>
       <c r="D42" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="G42" t="s">
         <v>255</v>
@@ -2378,19 +2475,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="4">
-        <v>166.88</v>
+        <v>160</v>
       </c>
       <c r="D43" s="4">
         <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
         <v>255</v>
@@ -2398,19 +2495,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>209</v>
       </c>
       <c r="C44" s="4">
-        <v>149.99</v>
+        <v>120</v>
       </c>
       <c r="D44" s="4">
         <v>100</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G44" t="s">
         <v>255</v>
@@ -2418,22 +2518,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="4">
-        <v>2100</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D45" s="4">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G45" t="s">
         <v>255</v>
@@ -2441,22 +2541,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
         <v>209</v>
       </c>
       <c r="C46" s="4">
-        <v>325.32</v>
+        <v>495.99</v>
       </c>
       <c r="D46" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
         <v>255</v>
@@ -2464,22 +2564,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="4">
-        <v>589.4</v>
+        <v>633.91</v>
       </c>
       <c r="D47" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
         <v>255</v>
@@ -2487,19 +2587,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>209</v>
       </c>
       <c r="C48" s="4">
-        <v>289</v>
+        <v>1064.8800000000001</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1025</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
         <v>255</v>
@@ -2507,22 +2610,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="4">
-        <v>411.67</v>
+        <v>758.9</v>
       </c>
       <c r="D49" s="4">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G49" t="s">
         <v>255</v>
@@ -2530,16 +2633,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>209</v>
       </c>
       <c r="C50" s="4">
-        <v>322.36</v>
+        <v>400</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G50" t="s">
         <v>255</v>
@@ -2547,22 +2653,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="4">
-        <v>689.2</v>
+        <v>268</v>
       </c>
       <c r="D51" s="4">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>138</v>
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
+        <v>132</v>
       </c>
       <c r="G51" t="s">
         <v>255</v>
@@ -2570,19 +2676,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="4">
-        <v>238.39</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>228</v>
+        <v>1899</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
         <v>255</v>
@@ -2590,19 +2699,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="4">
-        <v>270</v>
+        <v>166.88</v>
+      </c>
+      <c r="D53" s="4">
+        <v>100</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="G53" t="s">
         <v>255</v>
@@ -2610,16 +2719,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>209</v>
       </c>
       <c r="C54" s="4">
-        <v>250</v>
+        <v>149.99</v>
+      </c>
+      <c r="D54" s="4">
+        <v>100</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="G54" t="s">
         <v>255</v>
@@ -2627,16 +2739,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>209</v>
       </c>
       <c r="C55" s="4">
-        <v>200</v>
+        <v>2100</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1600</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>253</v>
+        <v>218</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G55" t="s">
         <v>255</v>
@@ -2644,22 +2762,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>209</v>
       </c>
       <c r="C56" s="4">
-        <v>374.7</v>
+        <v>325.32</v>
       </c>
       <c r="D56" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G56" t="s">
         <v>255</v>
@@ -2667,22 +2785,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>209</v>
       </c>
       <c r="C57" s="4">
-        <v>399</v>
+        <v>589.4</v>
       </c>
       <c r="D57" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
         <v>255</v>
@@ -2690,22 +2808,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="4">
-        <v>499</v>
-      </c>
-      <c r="D58" s="4">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
         <v>255</v>
@@ -2713,19 +2828,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
         <v>209</v>
       </c>
       <c r="C59" s="4">
-        <v>98.62</v>
+        <v>411.67</v>
+      </c>
+      <c r="D59" s="4">
+        <v>289</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>144</v>
+        <v>224</v>
+      </c>
+      <c r="F59" t="s">
+        <v>225</v>
       </c>
       <c r="G59" t="s">
         <v>255</v>
@@ -2733,22 +2851,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>209</v>
       </c>
       <c r="C60" s="4">
-        <v>322</v>
-      </c>
-      <c r="D60" s="4">
-        <v>270</v>
+        <v>322.36</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="G60" t="s">
         <v>255</v>
@@ -2756,22 +2868,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="4">
-        <v>126.85</v>
+        <v>689.2</v>
       </c>
       <c r="D61" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G61" t="s">
         <v>255</v>
@@ -2779,19 +2891,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>209</v>
       </c>
       <c r="C62" s="4">
-        <v>159.38999999999999</v>
+        <v>238.39</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G62" t="s">
         <v>255</v>
@@ -2799,22 +2911,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>209</v>
       </c>
       <c r="C63" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D63" s="4">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
         <v>255</v>
@@ -2822,40 +2931,33 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="4">
-        <v>175</v>
-      </c>
-      <c r="D64" s="4">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>252</v>
+      </c>
       <c r="G64" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4">
-        <v>219.5</v>
-      </c>
-      <c r="D65" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G65" t="s">
         <v>255</v>
@@ -2863,19 +2965,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>209</v>
       </c>
       <c r="C66" s="4">
-        <v>200</v>
+        <v>374.7</v>
+      </c>
+      <c r="D66" s="4">
+        <v>150</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G66" t="s">
         <v>255</v>
@@ -2883,19 +2988,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
         <v>209</v>
       </c>
       <c r="C67" s="4">
-        <v>230</v>
+        <v>399</v>
+      </c>
+      <c r="D67" s="4">
+        <v>200</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G67" t="s">
         <v>255</v>
@@ -2903,22 +3011,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>209</v>
       </c>
       <c r="C68" s="4">
-        <v>226.52</v>
+        <v>499</v>
       </c>
       <c r="D68" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G68" t="s">
         <v>255</v>
@@ -2926,22 +3034,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>209</v>
       </c>
       <c r="C69" s="4">
-        <v>310</v>
-      </c>
-      <c r="D69" s="4">
-        <v>150</v>
+        <v>98.62</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G69" t="s">
         <v>255</v>
@@ -2949,22 +3054,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>209</v>
       </c>
       <c r="C70" s="4">
-        <v>98.26</v>
+        <v>322</v>
       </c>
       <c r="D70" s="4">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G70" t="s">
         <v>255</v>
@@ -2972,22 +3077,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>209</v>
       </c>
       <c r="C71" s="4">
-        <v>299.01</v>
+        <v>126.85</v>
       </c>
       <c r="D71" s="4">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
         <v>255</v>
@@ -2995,19 +3100,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
         <v>209</v>
       </c>
       <c r="C72" s="4">
-        <v>95.52</v>
+        <v>159.38999999999999</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
         <v>255</v>
@@ -3015,22 +3120,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4">
-        <v>899</v>
+        <v>238.9</v>
       </c>
       <c r="D73" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G73" t="s">
         <v>255</v>
@@ -3038,306 +3143,307 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
         <v>209</v>
       </c>
       <c r="C74" s="4">
-        <v>103.9</v>
+        <v>175</v>
       </c>
       <c r="D74" s="4">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F74" s="1"/>
       <c r="G74" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="4">
-        <v>142</v>
+        <v>219.5</v>
       </c>
       <c r="D75" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="G75" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>5</v>
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="3">
-        <v>459.07</v>
-      </c>
-      <c r="D76" s="3">
-        <v>425</v>
+      <c r="C76" s="4">
+        <v>200</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="8">
-        <v>2</v>
+        <v>149</v>
+      </c>
+      <c r="G76" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D77" s="3">
-        <v>235</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>162</v>
+      <c r="C77" s="4">
+        <v>230</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="8">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="G77" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>209</v>
       </c>
       <c r="C78" s="4">
-        <v>469.53</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>169</v>
+        <v>226.52</v>
+      </c>
+      <c r="D78" s="4">
+        <v>200</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" s="8">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="G78" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>209</v>
       </c>
       <c r="C79" s="4">
-        <v>170.87</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>170</v>
+        <v>310</v>
+      </c>
+      <c r="D79" s="4">
+        <v>150</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G79" s="8">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="G79" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>209</v>
       </c>
       <c r="C80" s="4">
-        <v>185</v>
+        <v>98.26</v>
+      </c>
+      <c r="D80" s="4">
+        <v>50</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="8">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="G80" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>209</v>
       </c>
       <c r="C81" s="4">
-        <v>298</v>
+        <v>299.01</v>
       </c>
       <c r="D81" s="4">
-        <v>180</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="8">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="G81" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D82" s="4">
-        <v>150</v>
+        <v>95.52</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" s="8">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="G82" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>32</v>
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>209</v>
       </c>
       <c r="C83" s="4">
-        <v>439</v>
+        <v>899</v>
       </c>
       <c r="D83" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" s="8">
-        <v>2</v>
+        <v>156</v>
+      </c>
+      <c r="G83" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>33</v>
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>209</v>
       </c>
       <c r="C84" s="4">
-        <v>183.99</v>
+        <v>103.9</v>
+      </c>
+      <c r="D84" s="4">
+        <v>85</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G84" s="8">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="G84" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>321</v>
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>209</v>
       </c>
       <c r="C85" s="4">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="D85" s="4">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G85" s="8">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="G85" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>320</v>
+      <c r="A86" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B86" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D86" s="4">
-        <v>170</v>
+      <c r="C86" s="3">
+        <v>459.07</v>
+      </c>
+      <c r="D86" s="3">
+        <v>425</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G86" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>34</v>
+      <c r="A87" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="4">
-        <v>149.4</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>194</v>
+      <c r="C87" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D87" s="3">
+        <v>235</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="G87" s="8">
         <v>2</v>
@@ -3345,19 +3451,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>209</v>
       </c>
       <c r="C88" s="4">
-        <v>125.88</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>195</v>
+        <v>469.53</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G88" s="8">
         <v>2</v>
@@ -3365,19 +3471,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="C89" s="4">
-        <v>299</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>196</v>
+        <v>170.87</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="G89" s="8">
         <v>2</v>
@@ -3385,19 +3491,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s">
         <v>209</v>
       </c>
       <c r="C90" s="4">
-        <v>170.2</v>
+        <v>185</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G90" s="8">
         <v>2</v>
@@ -3405,42 +3511,45 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s">
         <v>209</v>
       </c>
       <c r="C91" s="4">
-        <v>199</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>198</v>
+        <v>298</v>
+      </c>
+      <c r="D91" s="4">
+        <v>180</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G91" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>324</v>
+      <c r="A92" t="s">
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
       </c>
       <c r="C92" s="4">
-        <v>130</v>
+        <v>194.36</v>
       </c>
       <c r="D92" s="4">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>326</v>
+        <v>165</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="G92" s="8">
         <v>2</v>
@@ -3448,315 +3557,300 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
         <v>209</v>
       </c>
       <c r="C93" s="4">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="D93" s="4">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>314</v>
+        <v>190</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G93" s="7">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G93" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>310</v>
+      <c r="A94" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
       </c>
       <c r="C94" s="4">
-        <v>138</v>
-      </c>
-      <c r="D94" s="4">
-        <v>100</v>
+        <v>183.99</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G94" s="7">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G94" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s">
         <v>209</v>
       </c>
       <c r="C95" s="4">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="D95" s="4">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G95" s="7">
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="G95" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>304</v>
+      <c r="A96" t="s">
+        <v>320</v>
       </c>
       <c r="B96" t="s">
         <v>209</v>
       </c>
       <c r="C96" s="4">
-        <v>150</v>
+        <v>189.99</v>
+      </c>
+      <c r="D96" s="4">
+        <v>170</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G96" s="7">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>303</v>
+      <c r="A97" t="s">
+        <v>34</v>
       </c>
       <c r="B97" t="s">
         <v>209</v>
       </c>
       <c r="C97" s="4">
-        <v>135</v>
-      </c>
-      <c r="D97" s="4">
-        <v>100</v>
+        <v>149.4</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G97" s="7">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="C98" s="4">
-        <v>135</v>
-      </c>
-      <c r="D98" s="4">
-        <v>100</v>
+        <v>125.88</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G98" s="7">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="G98" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="C99" s="4">
-        <v>120</v>
-      </c>
-      <c r="D99" s="4">
-        <v>50</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F99" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99" s="7">
-        <v>1</v>
+        <v>299</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
         <v>209</v>
       </c>
       <c r="C100" s="4">
-        <v>200</v>
-      </c>
-      <c r="D100" s="4">
-        <v>150</v>
+        <v>170.2</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G100" s="7">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
         <v>209</v>
       </c>
       <c r="C101" s="4">
-        <v>150</v>
-      </c>
-      <c r="D101" s="4">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" t="s">
-        <v>292</v>
-      </c>
-      <c r="G101" s="7">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>289</v>
+      <c r="A102" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B102" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="4">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D102" s="4">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G102" s="7">
-        <v>1</v>
+        <v>325</v>
+      </c>
+      <c r="G102" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="4">
-        <v>569</v>
+        <v>389</v>
       </c>
       <c r="D103" s="4">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>281</v>
+      <c r="A104" t="s">
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="C104" s="4">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="D104" s="4">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G104" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>277</v>
+      <c r="A105" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="4">
-        <v>300</v>
+        <v>135</v>
       </c>
       <c r="D105" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G105" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>274</v>
+      <c r="A106" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B106" t="s">
         <v>209</v>
       </c>
       <c r="C106" s="4">
-        <v>498</v>
-      </c>
-      <c r="D106" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G106" s="7">
         <v>1</v>
@@ -3764,91 +3858,88 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
       </c>
       <c r="C107" s="4">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D107" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G107" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>268</v>
+      <c r="A108" t="s">
+        <v>297</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="C108" s="4">
-        <v>719</v>
+        <v>135</v>
       </c>
       <c r="D108" s="4">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G108" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>265</v>
+      <c r="A109" t="s">
+        <v>296</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="C109" s="4">
-        <v>348</v>
+        <v>120</v>
       </c>
       <c r="D109" s="4">
-        <v>218</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>266</v>
+        <v>50</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" t="s">
+        <v>292</v>
       </c>
       <c r="G109" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>264</v>
+      <c r="A110" t="s">
+        <v>294</v>
       </c>
       <c r="B110" t="s">
         <v>209</v>
       </c>
       <c r="C110" s="4">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="D110" s="4">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G110" s="7">
         <v>1</v>
@@ -3856,252 +3947,498 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="B111" t="s">
         <v>209</v>
       </c>
       <c r="C111" s="4">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="D111" s="4">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
+      </c>
+      <c r="F111" t="s">
+        <v>292</v>
       </c>
       <c r="G111" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>256</v>
+      <c r="A112" t="s">
+        <v>289</v>
       </c>
       <c r="B112" t="s">
         <v>209</v>
       </c>
       <c r="C112" s="4">
-        <v>500</v>
+        <v>160</v>
+      </c>
+      <c r="D112" s="4">
+        <v>130</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G112" s="7">
         <v>1</v>
       </c>
     </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="4">
+        <v>569</v>
+      </c>
+      <c r="D113" s="4">
+        <v>389</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="4">
+        <v>298</v>
+      </c>
+      <c r="D114" s="4">
+        <v>235</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G114" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="4">
+        <v>300</v>
+      </c>
+      <c r="D115" s="4">
+        <v>150</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>274</v>
+      </c>
+      <c r="B116" t="s">
+        <v>209</v>
+      </c>
+      <c r="C116" s="4">
+        <v>498</v>
+      </c>
+      <c r="D116" s="4">
+        <v>240</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G116" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="4">
+        <v>179</v>
+      </c>
+      <c r="D117" s="4">
+        <v>140</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="4">
+        <v>719</v>
+      </c>
+      <c r="D118" s="4">
+        <v>230</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G118" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="4">
+        <v>348</v>
+      </c>
+      <c r="D119" s="4">
+        <v>218</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="4">
+        <v>347</v>
+      </c>
+      <c r="D120" s="4">
+        <v>220</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G120" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="4">
+        <v>353</v>
+      </c>
+      <c r="D121" s="4">
+        <v>290</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" s="4">
+        <v>500</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G122" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F75" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F74" r:id="rId1"/>
-    <hyperlink ref="F72" r:id="rId2"/>
-    <hyperlink ref="F73" r:id="rId3"/>
-    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F70" r:id="rId4"/>
-    <hyperlink ref="F69" r:id="rId5"/>
-    <hyperlink ref="F68" r:id="rId6"/>
-    <hyperlink ref="F67" r:id="rId7"/>
-    <hyperlink ref="F66" r:id="rId8"/>
-    <hyperlink ref="F63" r:id="rId9"/>
-    <hyperlink ref="F59" r:id="rId10"/>
-    <hyperlink ref="F58" r:id="rId11"/>
-    <hyperlink ref="F62" r:id="rId12"/>
-    <hyperlink ref="F61" r:id="rId13"/>
-    <hyperlink ref="F60" r:id="rId14"/>
-    <hyperlink ref="F57" r:id="rId15"/>
-    <hyperlink ref="F56" r:id="rId16"/>
-    <hyperlink ref="F53" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F52" r:id="rId17"/>
-    <hyperlink ref="F51" r:id="rId18"/>
-    <hyperlink ref="F48" r:id="rId19"/>
-    <hyperlink ref="F47" r:id="rId20"/>
-    <hyperlink ref="F46" r:id="rId21"/>
-    <hyperlink ref="F45" r:id="rId22"/>
-    <hyperlink ref="F42" r:id="rId23"/>
-    <hyperlink ref="F40" r:id="rId24"/>
-    <hyperlink ref="F39" r:id="rId25"/>
-    <hyperlink ref="F38" r:id="rId26"/>
-    <hyperlink ref="F37" r:id="rId27"/>
-    <hyperlink ref="F36" r:id="rId28"/>
-    <hyperlink ref="F35" r:id="rId29"/>
-    <hyperlink ref="F34" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F30" r:id="rId31"/>
-    <hyperlink ref="F29" r:id="rId32"/>
-    <hyperlink ref="F28" r:id="rId33"/>
-    <hyperlink ref="F26" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F25" r:id="rId34"/>
-    <hyperlink ref="F91" r:id="rId35"/>
-    <hyperlink ref="F90" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F89" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F84" r:id="rId36"/>
-    <hyperlink ref="F86" r:id="rId37"/>
-    <hyperlink ref="F88" r:id="rId38"/>
-    <hyperlink ref="F83" r:id="rId39"/>
-    <hyperlink ref="F24" r:id="rId40"/>
-    <hyperlink ref="F23" r:id="rId41"/>
-    <hyperlink ref="F22" r:id="rId42"/>
-    <hyperlink ref="F21" r:id="rId43"/>
-    <hyperlink ref="F20" r:id="rId44"/>
-    <hyperlink ref="F19" r:id="rId45"/>
-    <hyperlink ref="F18" r:id="rId46"/>
-    <hyperlink ref="F17" r:id="rId47"/>
-    <hyperlink ref="F16" r:id="rId48"/>
-    <hyperlink ref="F15" r:id="rId49"/>
-    <hyperlink ref="F12" r:id="rId50"/>
-    <hyperlink ref="F14" r:id="rId51"/>
-    <hyperlink ref="F11" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F10" r:id="rId52"/>
-    <hyperlink ref="F9" r:id="rId53"/>
-    <hyperlink ref="F7" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F8" r:id="rId54"/>
-    <hyperlink ref="F4" r:id="rId55"/>
-    <hyperlink ref="F5" r:id="rId56"/>
-    <hyperlink ref="F3" r:id="rId57"/>
-    <hyperlink ref="F81" r:id="rId58"/>
-    <hyperlink ref="F80" r:id="rId59"/>
-    <hyperlink ref="F82" r:id="rId60"/>
-    <hyperlink ref="F79" r:id="rId61"/>
-    <hyperlink ref="F78" r:id="rId62"/>
-    <hyperlink ref="F77" r:id="rId63"/>
-    <hyperlink ref="F76" r:id="rId64"/>
-    <hyperlink ref="E76" r:id="rId65"/>
-    <hyperlink ref="E80" r:id="rId66"/>
-    <hyperlink ref="E82" r:id="rId67"/>
-    <hyperlink ref="E3" r:id="rId68"/>
-    <hyperlink ref="E4" r:id="rId69"/>
-    <hyperlink ref="E5" r:id="rId70"/>
-    <hyperlink ref="E7" r:id="rId71"/>
-    <hyperlink ref="E8" r:id="rId72"/>
-    <hyperlink ref="E9" r:id="rId73"/>
-    <hyperlink ref="E10" r:id="rId74"/>
-    <hyperlink ref="E12" r:id="rId75"/>
-    <hyperlink ref="E11" r:id="rId76"/>
-    <hyperlink ref="E13" r:id="rId77"/>
-    <hyperlink ref="E14" r:id="rId78"/>
-    <hyperlink ref="E15" r:id="rId79"/>
-    <hyperlink ref="E16" r:id="rId80"/>
-    <hyperlink ref="E17" r:id="rId81"/>
-    <hyperlink ref="E18" r:id="rId82"/>
-    <hyperlink ref="E19" r:id="rId83"/>
-    <hyperlink ref="E20" r:id="rId84"/>
-    <hyperlink ref="E21" r:id="rId85"/>
-    <hyperlink ref="E22" r:id="rId86"/>
-    <hyperlink ref="E23" r:id="rId87"/>
-    <hyperlink ref="E24" r:id="rId88"/>
-    <hyperlink ref="E83" r:id="rId89"/>
-    <hyperlink ref="E84" r:id="rId90"/>
-    <hyperlink ref="E86" r:id="rId91"/>
-    <hyperlink ref="E87" r:id="rId92"/>
-    <hyperlink ref="E88" r:id="rId93"/>
-    <hyperlink ref="E89" r:id="rId94"/>
-    <hyperlink ref="E90" r:id="rId95"/>
-    <hyperlink ref="E91" r:id="rId96"/>
-    <hyperlink ref="E25" r:id="rId97"/>
-    <hyperlink ref="E26" r:id="rId98"/>
-    <hyperlink ref="E27" r:id="rId99"/>
-    <hyperlink ref="F27" r:id="rId100"/>
-    <hyperlink ref="E28" r:id="rId101"/>
-    <hyperlink ref="E29" r:id="rId102"/>
-    <hyperlink ref="E30" r:id="rId103"/>
-    <hyperlink ref="E32" r:id="rId104"/>
-    <hyperlink ref="E33" r:id="rId105"/>
-    <hyperlink ref="E31" r:id="rId106"/>
-    <hyperlink ref="E34" r:id="rId107"/>
-    <hyperlink ref="E35" r:id="rId108"/>
-    <hyperlink ref="E36" r:id="rId109"/>
-    <hyperlink ref="E37" r:id="rId110"/>
-    <hyperlink ref="E38" r:id="rId111"/>
-    <hyperlink ref="E39" r:id="rId112"/>
-    <hyperlink ref="E40" r:id="rId113"/>
-    <hyperlink ref="E41" r:id="rId114"/>
-    <hyperlink ref="E45" r:id="rId115"/>
-    <hyperlink ref="E44" r:id="rId116"/>
-    <hyperlink ref="E43" r:id="rId117"/>
-    <hyperlink ref="E46" r:id="rId118"/>
-    <hyperlink ref="E47" r:id="rId119"/>
-    <hyperlink ref="E48" r:id="rId120"/>
-    <hyperlink ref="E49" r:id="rId121"/>
-    <hyperlink ref="E50" r:id="rId122"/>
-    <hyperlink ref="E51" r:id="rId123"/>
-    <hyperlink ref="E52" r:id="rId124"/>
-    <hyperlink ref="E53" r:id="rId125"/>
-    <hyperlink ref="E56" r:id="rId126"/>
-    <hyperlink ref="E57" r:id="rId127"/>
-    <hyperlink ref="E58" r:id="rId128"/>
-    <hyperlink ref="E59" r:id="rId129"/>
-    <hyperlink ref="E60" r:id="rId130"/>
-    <hyperlink ref="E61" r:id="rId131"/>
-    <hyperlink ref="E62" r:id="rId132"/>
-    <hyperlink ref="E63" r:id="rId133"/>
-    <hyperlink ref="E42" r:id="rId134"/>
-    <hyperlink ref="E66" r:id="rId135"/>
-    <hyperlink ref="E67" r:id="rId136"/>
-    <hyperlink ref="E68" r:id="rId137"/>
-    <hyperlink ref="E69" r:id="rId138"/>
-    <hyperlink ref="E70" r:id="rId139"/>
-    <hyperlink ref="E71" r:id="rId140"/>
-    <hyperlink ref="E72" r:id="rId141"/>
-    <hyperlink ref="E73" r:id="rId142"/>
-    <hyperlink ref="E74" r:id="rId143"/>
-    <hyperlink ref="E75" r:id="rId144"/>
-    <hyperlink ref="E64" r:id="rId145"/>
-    <hyperlink ref="E65" r:id="rId146"/>
-    <hyperlink ref="E54" r:id="rId147"/>
-    <hyperlink ref="E55" r:id="rId148"/>
-    <hyperlink ref="F112" r:id="rId149"/>
-    <hyperlink ref="E112" r:id="rId150"/>
-    <hyperlink ref="F111" r:id="rId151"/>
-    <hyperlink ref="E111" r:id="rId152"/>
-    <hyperlink ref="F110" r:id="rId153"/>
-    <hyperlink ref="E110" r:id="rId154"/>
-    <hyperlink ref="F109" r:id="rId155"/>
-    <hyperlink ref="E109" r:id="rId156"/>
-    <hyperlink ref="F108" r:id="rId157"/>
-    <hyperlink ref="E108" r:id="rId158"/>
-    <hyperlink ref="F107" r:id="rId159"/>
-    <hyperlink ref="E107" r:id="rId160"/>
-    <hyperlink ref="F106"/>
-    <hyperlink ref="E106" r:id="rId161"/>
-    <hyperlink ref="F105" r:id="rId162"/>
-    <hyperlink ref="E105" r:id="rId163"/>
-    <hyperlink ref="E104" r:id="rId164"/>
-    <hyperlink ref="F104" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F103" r:id="rId166"/>
-    <hyperlink ref="E103" r:id="rId167"/>
-    <hyperlink ref="F102" r:id="rId168"/>
-    <hyperlink ref="E102" r:id="rId169"/>
-    <hyperlink ref="E101" r:id="rId170"/>
-    <hyperlink ref="E100" r:id="rId171"/>
-    <hyperlink ref="E98" r:id="rId172"/>
-    <hyperlink ref="F98"/>
-    <hyperlink ref="F97" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E97" r:id="rId174"/>
-    <hyperlink ref="F96" r:id="rId175"/>
-    <hyperlink ref="E96" r:id="rId176"/>
-    <hyperlink ref="F95" r:id="rId177"/>
-    <hyperlink ref="E95" r:id="rId178"/>
-    <hyperlink ref="E94" r:id="rId179"/>
-    <hyperlink ref="F94" r:id="rId180"/>
-    <hyperlink ref="E93" r:id="rId181"/>
-    <hyperlink ref="F93" r:id="rId182"/>
-    <hyperlink ref="E85" r:id="rId183"/>
-    <hyperlink ref="F85" r:id="rId184"/>
-    <hyperlink ref="F92" r:id="rId185"/>
-    <hyperlink ref="E92" r:id="rId186"/>
-    <hyperlink ref="E2" r:id="rId187"/>
+    <hyperlink ref="F85" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F84" r:id="rId1"/>
+    <hyperlink ref="F82" r:id="rId2"/>
+    <hyperlink ref="F83" r:id="rId3"/>
+    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F80" r:id="rId4"/>
+    <hyperlink ref="F79" r:id="rId5"/>
+    <hyperlink ref="F78" r:id="rId6"/>
+    <hyperlink ref="F77" r:id="rId7"/>
+    <hyperlink ref="F76" r:id="rId8"/>
+    <hyperlink ref="F73" r:id="rId9"/>
+    <hyperlink ref="F69" r:id="rId10"/>
+    <hyperlink ref="F68" r:id="rId11"/>
+    <hyperlink ref="F72" r:id="rId12"/>
+    <hyperlink ref="F71" r:id="rId13"/>
+    <hyperlink ref="F70" r:id="rId14"/>
+    <hyperlink ref="F67" r:id="rId15"/>
+    <hyperlink ref="F66" r:id="rId16"/>
+    <hyperlink ref="F63" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F62" r:id="rId17"/>
+    <hyperlink ref="F61" r:id="rId18"/>
+    <hyperlink ref="F58" r:id="rId19"/>
+    <hyperlink ref="F57" r:id="rId20"/>
+    <hyperlink ref="F56" r:id="rId21"/>
+    <hyperlink ref="F55" r:id="rId22"/>
+    <hyperlink ref="F52" r:id="rId23"/>
+    <hyperlink ref="F50" r:id="rId24"/>
+    <hyperlink ref="F49" r:id="rId25"/>
+    <hyperlink ref="F48" r:id="rId26"/>
+    <hyperlink ref="F47" r:id="rId27"/>
+    <hyperlink ref="F46" r:id="rId28"/>
+    <hyperlink ref="F45" r:id="rId29"/>
+    <hyperlink ref="F44" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F41" r:id="rId30"/>
+    <hyperlink ref="F40" r:id="rId31"/>
+    <hyperlink ref="F39" r:id="rId32"/>
+    <hyperlink ref="F38" r:id="rId33"/>
+    <hyperlink ref="F36" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F101" r:id="rId35"/>
+    <hyperlink ref="F100" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F99" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F94" r:id="rId36"/>
+    <hyperlink ref="F96" r:id="rId37"/>
+    <hyperlink ref="F98" r:id="rId38"/>
+    <hyperlink ref="F93" r:id="rId39"/>
+    <hyperlink ref="F34" r:id="rId40"/>
+    <hyperlink ref="F33" r:id="rId41"/>
+    <hyperlink ref="F32" r:id="rId42"/>
+    <hyperlink ref="F31" r:id="rId43"/>
+    <hyperlink ref="F30" r:id="rId44"/>
+    <hyperlink ref="F29" r:id="rId45"/>
+    <hyperlink ref="F28" r:id="rId46"/>
+    <hyperlink ref="F27" r:id="rId47"/>
+    <hyperlink ref="F26" r:id="rId48"/>
+    <hyperlink ref="F25" r:id="rId49"/>
+    <hyperlink ref="F22" r:id="rId50"/>
+    <hyperlink ref="F24" r:id="rId51"/>
+    <hyperlink ref="F21" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F20" r:id="rId52"/>
+    <hyperlink ref="F19" r:id="rId53"/>
+    <hyperlink ref="F17" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F18" r:id="rId54"/>
+    <hyperlink ref="F14" r:id="rId55"/>
+    <hyperlink ref="F15" r:id="rId56"/>
+    <hyperlink ref="F13" r:id="rId57"/>
+    <hyperlink ref="F91" r:id="rId58"/>
+    <hyperlink ref="F90" r:id="rId59"/>
+    <hyperlink ref="F92" r:id="rId60"/>
+    <hyperlink ref="F89" r:id="rId61"/>
+    <hyperlink ref="F88" r:id="rId62"/>
+    <hyperlink ref="F87" r:id="rId63"/>
+    <hyperlink ref="F86" r:id="rId64"/>
+    <hyperlink ref="E86" r:id="rId65"/>
+    <hyperlink ref="E90" r:id="rId66"/>
+    <hyperlink ref="E92" r:id="rId67"/>
+    <hyperlink ref="E13" r:id="rId68"/>
+    <hyperlink ref="E14" r:id="rId69"/>
+    <hyperlink ref="E15" r:id="rId70"/>
+    <hyperlink ref="E17" r:id="rId71"/>
+    <hyperlink ref="E18" r:id="rId72"/>
+    <hyperlink ref="E19" r:id="rId73"/>
+    <hyperlink ref="E20" r:id="rId74"/>
+    <hyperlink ref="E22" r:id="rId75"/>
+    <hyperlink ref="E21" r:id="rId76"/>
+    <hyperlink ref="E23" r:id="rId77"/>
+    <hyperlink ref="E24" r:id="rId78"/>
+    <hyperlink ref="E25" r:id="rId79"/>
+    <hyperlink ref="E26" r:id="rId80"/>
+    <hyperlink ref="E27" r:id="rId81"/>
+    <hyperlink ref="E28" r:id="rId82"/>
+    <hyperlink ref="E29" r:id="rId83"/>
+    <hyperlink ref="E30" r:id="rId84"/>
+    <hyperlink ref="E31" r:id="rId85"/>
+    <hyperlink ref="E32" r:id="rId86"/>
+    <hyperlink ref="E33" r:id="rId87"/>
+    <hyperlink ref="E34" r:id="rId88"/>
+    <hyperlink ref="E93" r:id="rId89"/>
+    <hyperlink ref="E94" r:id="rId90"/>
+    <hyperlink ref="E96" r:id="rId91"/>
+    <hyperlink ref="E97" r:id="rId92"/>
+    <hyperlink ref="E98" r:id="rId93"/>
+    <hyperlink ref="E99" r:id="rId94"/>
+    <hyperlink ref="E100" r:id="rId95"/>
+    <hyperlink ref="E101" r:id="rId96"/>
+    <hyperlink ref="E35" r:id="rId97"/>
+    <hyperlink ref="E36" r:id="rId98"/>
+    <hyperlink ref="E37" r:id="rId99"/>
+    <hyperlink ref="F37" r:id="rId100"/>
+    <hyperlink ref="E38" r:id="rId101"/>
+    <hyperlink ref="E39" r:id="rId102"/>
+    <hyperlink ref="E40" r:id="rId103"/>
+    <hyperlink ref="E42" r:id="rId104"/>
+    <hyperlink ref="E43" r:id="rId105"/>
+    <hyperlink ref="E41" r:id="rId106"/>
+    <hyperlink ref="E44" r:id="rId107"/>
+    <hyperlink ref="E45" r:id="rId108"/>
+    <hyperlink ref="E46" r:id="rId109"/>
+    <hyperlink ref="E47" r:id="rId110"/>
+    <hyperlink ref="E48" r:id="rId111"/>
+    <hyperlink ref="E49" r:id="rId112"/>
+    <hyperlink ref="E50" r:id="rId113"/>
+    <hyperlink ref="E51" r:id="rId114"/>
+    <hyperlink ref="E55" r:id="rId115"/>
+    <hyperlink ref="E54" r:id="rId116"/>
+    <hyperlink ref="E53" r:id="rId117"/>
+    <hyperlink ref="E56" r:id="rId118"/>
+    <hyperlink ref="E57" r:id="rId119"/>
+    <hyperlink ref="E58" r:id="rId120"/>
+    <hyperlink ref="E59" r:id="rId121"/>
+    <hyperlink ref="E60" r:id="rId122"/>
+    <hyperlink ref="E61" r:id="rId123"/>
+    <hyperlink ref="E62" r:id="rId124"/>
+    <hyperlink ref="E63" r:id="rId125"/>
+    <hyperlink ref="E66" r:id="rId126"/>
+    <hyperlink ref="E67" r:id="rId127"/>
+    <hyperlink ref="E68" r:id="rId128"/>
+    <hyperlink ref="E69" r:id="rId129"/>
+    <hyperlink ref="E70" r:id="rId130"/>
+    <hyperlink ref="E71" r:id="rId131"/>
+    <hyperlink ref="E72" r:id="rId132"/>
+    <hyperlink ref="E73" r:id="rId133"/>
+    <hyperlink ref="E52" r:id="rId134"/>
+    <hyperlink ref="E76" r:id="rId135"/>
+    <hyperlink ref="E77" r:id="rId136"/>
+    <hyperlink ref="E78" r:id="rId137"/>
+    <hyperlink ref="E79" r:id="rId138"/>
+    <hyperlink ref="E80" r:id="rId139"/>
+    <hyperlink ref="E81" r:id="rId140"/>
+    <hyperlink ref="E82" r:id="rId141"/>
+    <hyperlink ref="E83" r:id="rId142"/>
+    <hyperlink ref="E84" r:id="rId143"/>
+    <hyperlink ref="E85" r:id="rId144"/>
+    <hyperlink ref="E74" r:id="rId145"/>
+    <hyperlink ref="E75" r:id="rId146"/>
+    <hyperlink ref="E64" r:id="rId147"/>
+    <hyperlink ref="E65" r:id="rId148"/>
+    <hyperlink ref="F122" r:id="rId149"/>
+    <hyperlink ref="E122" r:id="rId150"/>
+    <hyperlink ref="F121" r:id="rId151"/>
+    <hyperlink ref="E121" r:id="rId152"/>
+    <hyperlink ref="F120" r:id="rId153"/>
+    <hyperlink ref="E120" r:id="rId154"/>
+    <hyperlink ref="F119" r:id="rId155"/>
+    <hyperlink ref="E119" r:id="rId156"/>
+    <hyperlink ref="F118" r:id="rId157"/>
+    <hyperlink ref="E118" r:id="rId158"/>
+    <hyperlink ref="F117" r:id="rId159"/>
+    <hyperlink ref="E117" r:id="rId160"/>
+    <hyperlink ref="F116" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E116" r:id="rId161"/>
+    <hyperlink ref="F115" r:id="rId162"/>
+    <hyperlink ref="E115" r:id="rId163"/>
+    <hyperlink ref="E114" r:id="rId164"/>
+    <hyperlink ref="F114" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F113" r:id="rId166"/>
+    <hyperlink ref="E113" r:id="rId167"/>
+    <hyperlink ref="F112" r:id="rId168"/>
+    <hyperlink ref="E112" r:id="rId169"/>
+    <hyperlink ref="E111" r:id="rId170"/>
+    <hyperlink ref="E110" r:id="rId171"/>
+    <hyperlink ref="E108" r:id="rId172"/>
+    <hyperlink ref="F108" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F107" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E107" r:id="rId174"/>
+    <hyperlink ref="F106" r:id="rId175"/>
+    <hyperlink ref="E106" r:id="rId176"/>
+    <hyperlink ref="F105" r:id="rId177"/>
+    <hyperlink ref="E105" r:id="rId178"/>
+    <hyperlink ref="E104" r:id="rId179"/>
+    <hyperlink ref="F104" r:id="rId180"/>
+    <hyperlink ref="E103" r:id="rId181"/>
+    <hyperlink ref="F103" r:id="rId182"/>
+    <hyperlink ref="E95" r:id="rId183"/>
+    <hyperlink ref="F95" r:id="rId184"/>
+    <hyperlink ref="F102" r:id="rId185"/>
+    <hyperlink ref="E102" r:id="rId186"/>
+    <hyperlink ref="E12" r:id="rId187"/>
+    <hyperlink ref="F2" r:id="rId188"/>
+    <hyperlink ref="E2" r:id="rId189"/>
+    <hyperlink ref="F11" r:id="rId190"/>
+    <hyperlink ref="E11" r:id="rId191"/>
+    <hyperlink ref="F3" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E3" r:id="rId193"/>
+    <hyperlink ref="F4" r:id="rId194"/>
+    <hyperlink ref="E4" r:id="rId195"/>
+    <hyperlink ref="F5" r:id="rId196"/>
+    <hyperlink ref="E5" r:id="rId197"/>
+    <hyperlink ref="E6" r:id="rId198"/>
+    <hyperlink ref="E7" r:id="rId199"/>
+    <hyperlink ref="E8" r:id="rId200"/>
+    <hyperlink ref="F8" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E10" r:id="rId202"/>
+    <hyperlink ref="E9" r:id="rId203"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId188"/>
+  <pageSetup orientation="portrait" r:id="rId204"/>
   <tableParts count="1">
-    <tablePart r:id="rId189"/>
+    <tablePart r:id="rId205"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="381">
   <si>
     <t>Nombre</t>
   </si>
@@ -1098,13 +1098,85 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_693557-MLM73064142556_112023-N.jpg</t>
+  </si>
+  <si>
+    <t>Bloques Guanghan Moon Palace [820pcs] - Lunar Palace Building Blocks</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_776885-CBT82573318597_022025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/guanghan-moon-palace-820pcs-lunar-palace-building-blocks/p/MLM2008962975</t>
+  </si>
+  <si>
+    <t>Bloques Loz Street Mini 1219 Shaved Ice Shop</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_785355-MLM76658066687_052024-F-loz-street-mini-1219-shaved-ice-shop.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2072325157-loz-street-mini-1219-shaved-ice-shop-_JM#origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1673108936-juguetes-de-dinosaurios-12pzs-huevos-de-pascua-para-ninos-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_609240-MLM53533859474_012023-F-juguetes-de-dinosaurios-12pzs-huevos-de-pascua-para-ninos.webp</t>
+  </si>
+  <si>
+    <t>Juguetes De Dinosaurios 12pzs Huevos De Pascua Para Niños, bloques</t>
+  </si>
+  <si>
+    <t>Juguete De Auto 20 Pcs A Presión Con Caja De Almacenamiento</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_708046-MLM81559997140_012025-F-juguete-de-auto-20-pcs-a-presion-con-caja-de-almacenamiento.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3479217310-juguete-de-auto-20-pcs-a-presion-con-caja-de-almacenamiento-_JM?quantity=1&amp;variation_id=182332793440</t>
+  </si>
+  <si>
+    <t>Carpeta De Tarjetas Pokemon 900 Bolsillos Album Tarjetas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1998430747-carpeta-de-tarjetas-pokemon-900-bolsillos-album-tarjetas-_JM?quantity=1&amp;variation_id=181206837097</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_805500-MLM75015725841_032024-N.jpg</t>
+  </si>
+  <si>
+    <t>Natacion, Máscara Snorkel 180° Panorámica Con Soporte Para Cámara</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1410050092-gafas-natacion-proteccion-uv-antivaho-sin-fugas-adulto-5en1-_JM?quantity=1&amp;variation_id=174431476590</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_661126-CBT49733859466_042022-F-gafas-natacion-proteccion-uv-antivaho-sin-fugas-adulto-5en1.webp</t>
+  </si>
+  <si>
+    <t>Natacion Gafas Protección Uv Antivaho Sin Fugas, Adulto 5 en 1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/dp/B0BF96DJJW?ref=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;ref_=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;social_share=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;previewDohEventScheduleTesting=C</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71MTPBFGNGL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>Bloques apilables suaves para bebé Montessori juguetes sensoriales de baño para bebés Toddlee niños pequeños de 6 a 9 meses, 1 a 2 años</t>
+  </si>
+  <si>
+    <t>Prismáticos Profesionales De Visión Nocturna Hd 60x60, Binoculares</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_710335-MLM78371990119_082024-F-prismaticos-profesionales-de-vision-nocturna-hd-60x60.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,8 +1207,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1161,8 +1240,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1170,12 +1255,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1204,6 +1302,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1247,8 +1346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G122" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G131" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G131"/>
   <sortState ref="A2:G111">
     <sortCondition descending="1" ref="G1:G111"/>
   </sortState>
@@ -1528,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,136 +1690,132 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>337</v>
+      <c r="A3" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="B3" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="13">
-        <v>400</v>
-      </c>
-      <c r="D3" s="13">
-        <v>250</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="6" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>338</v>
+        <v>142</v>
       </c>
       <c r="G3" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>340</v>
+      <c r="A4" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="B4" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="13">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="D4" s="13">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="G4" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>343</v>
+      <c r="A5" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="B5" t="s">
         <v>209</v>
       </c>
       <c r="C5" s="13">
-        <v>455</v>
+        <v>279</v>
       </c>
       <c r="D5" s="13">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>344</v>
+        <v>96</v>
       </c>
       <c r="G5" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>346</v>
+      <c r="A6" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>209</v>
       </c>
       <c r="C6" s="13">
+        <v>249</v>
+      </c>
+      <c r="D6" s="13">
         <v>150</v>
       </c>
-      <c r="D6" s="13">
-        <v>100</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="G6" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>348</v>
+      <c r="A7" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="B7" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="13">
-        <v>150</v>
-      </c>
-      <c r="D7" s="13">
-        <v>100</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="G7" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="13">
-        <v>375</v>
-      </c>
-      <c r="D8" s="13">
         <v>250</v>
       </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="6" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="G8" s="14">
         <v>4</v>
@@ -1728,7 +1823,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
         <v>209</v>
@@ -1736,296 +1831,297 @@
       <c r="C9" s="13">
         <v>150</v>
       </c>
-      <c r="D9" s="13">
-        <v>100</v>
-      </c>
+      <c r="D9" s="13"/>
       <c r="E9" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>367</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="G9" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>209</v>
       </c>
       <c r="C10" s="13">
+        <v>400</v>
+      </c>
+      <c r="D10" s="13">
         <v>250</v>
       </c>
-      <c r="D10" s="13">
-        <v>200</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>339</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="G10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>334</v>
+      <c r="A11" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="B11" t="s">
         <v>209</v>
       </c>
       <c r="C11" s="13">
-        <v>260</v>
-      </c>
-      <c r="D11" s="13">
         <v>250</v>
       </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="6" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="G11" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="13">
+        <v>250</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="13">
+        <v>270</v>
+      </c>
+      <c r="D13" s="13">
+        <v>200</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="13">
+        <v>455</v>
+      </c>
+      <c r="D14" s="13">
+        <v>290</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="13">
+        <v>150</v>
+      </c>
+      <c r="D15" s="13">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="13">
+        <v>150</v>
+      </c>
+      <c r="D16" s="13">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="13">
+        <v>375</v>
+      </c>
+      <c r="D17" s="13">
+        <v>250</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="13">
+        <v>150</v>
+      </c>
+      <c r="D18" s="13">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="13">
+        <v>250</v>
+      </c>
+      <c r="D19" s="13">
+        <v>200</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="13">
+        <v>260</v>
+      </c>
+      <c r="D20" s="13">
+        <v>250</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B21" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C21" s="4">
         <v>2300</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D21" s="4">
         <v>1800</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="4">
-        <v>665</v>
-      </c>
-      <c r="D13" s="4">
-        <v>450</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="4">
-        <v>170.73</v>
-      </c>
-      <c r="D14" s="4">
-        <v>140</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="4">
-        <v>133</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="4">
-        <v>299</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="4">
-        <v>259</v>
-      </c>
-      <c r="D17" s="4">
-        <v>150</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="4">
-        <v>279</v>
-      </c>
-      <c r="D18" s="4">
-        <v>180</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="4">
-        <v>212</v>
-      </c>
-      <c r="D19" s="4">
-        <v>120</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="4">
-        <v>178.03</v>
-      </c>
-      <c r="D20" s="4">
-        <v>100</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" s="4">
-        <v>200</v>
-      </c>
-      <c r="D21" s="4">
-        <v>150</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>255</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="4">
-        <v>193.7</v>
+        <v>665</v>
       </c>
       <c r="D22" s="4">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
         <v>255</v>
@@ -2033,19 +2129,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="4">
-        <v>106</v>
+        <v>170.73</v>
       </c>
       <c r="D23" s="4">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G23" t="s">
         <v>255</v>
@@ -2053,19 +2152,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>209</v>
       </c>
       <c r="C24" s="4">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>255</v>
@@ -2073,22 +2172,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>209</v>
       </c>
       <c r="C25" s="4">
-        <v>248.02</v>
-      </c>
-      <c r="D25" s="4">
-        <v>180</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>299</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="G25" t="s">
         <v>255</v>
@@ -2096,19 +2189,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>209</v>
       </c>
       <c r="C26" s="4">
-        <v>120</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>181</v>
+        <v>259</v>
+      </c>
+      <c r="D26" s="4">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
         <v>255</v>
@@ -2116,22 +2212,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>209</v>
       </c>
       <c r="C27" s="4">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D27" s="4">
-        <v>165</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
         <v>255</v>
@@ -2139,19 +2235,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>209</v>
       </c>
       <c r="C28" s="4">
-        <v>315.24</v>
+        <v>212</v>
+      </c>
+      <c r="D28" s="4">
+        <v>120</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
         <v>255</v>
@@ -2159,19 +2258,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>209</v>
       </c>
       <c r="C29" s="4">
-        <v>210</v>
+        <v>178.03</v>
+      </c>
+      <c r="D29" s="4">
+        <v>100</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
         <v>255</v>
@@ -2179,22 +2281,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>209</v>
       </c>
       <c r="C30" s="4">
-        <v>119.4</v>
+        <v>200</v>
       </c>
       <c r="D30" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
         <v>255</v>
@@ -2202,22 +2304,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="4">
-        <v>102.22</v>
+        <v>193.7</v>
       </c>
       <c r="D31" s="4">
+        <v>150</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G31" t="s">
         <v>255</v>
@@ -2225,22 +2327,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>209</v>
       </c>
       <c r="C32" s="4">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="G32" t="s">
         <v>255</v>
@@ -2248,22 +2347,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>209</v>
       </c>
       <c r="C33" s="4">
-        <v>166.93</v>
-      </c>
-      <c r="D33" s="4">
         <v>150</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
         <v>255</v>
@@ -2271,22 +2367,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>209</v>
       </c>
       <c r="C34" s="4">
-        <v>99</v>
+        <v>248.02</v>
       </c>
       <c r="D34" s="4">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
         <v>255</v>
@@ -2294,22 +2390,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
         <v>209</v>
       </c>
       <c r="C35" s="4">
-        <v>1072.6500000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
         <v>255</v>
@@ -2317,22 +2410,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>209</v>
       </c>
       <c r="C36" s="4">
-        <v>393.2</v>
+        <v>269</v>
       </c>
       <c r="D36" s="4">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
         <v>255</v>
@@ -2340,22 +2433,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>209</v>
       </c>
       <c r="C37" s="4">
-        <v>342.66</v>
-      </c>
-      <c r="D37" s="4">
-        <v>170</v>
+        <v>315.24</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
         <v>255</v>
@@ -2363,22 +2453,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="4">
-        <v>323.66000000000003</v>
-      </c>
-      <c r="D38" s="4">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
         <v>255</v>
@@ -2386,22 +2473,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>209</v>
       </c>
       <c r="C39" s="4">
-        <v>237.76</v>
+        <v>119.4</v>
       </c>
       <c r="D39" s="4">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>255</v>
@@ -2409,22 +2496,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>209</v>
       </c>
       <c r="C40" s="4">
-        <v>359</v>
+        <v>102.22</v>
       </c>
       <c r="D40" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>255</v>
@@ -2432,7 +2519,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>209</v>
@@ -2441,13 +2528,13 @@
         <v>210</v>
       </c>
       <c r="D41" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>255</v>
@@ -2455,19 +2542,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="4">
-        <v>160</v>
+        <v>166.93</v>
       </c>
       <c r="D42" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>206</v>
+        <v>188</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G42" t="s">
         <v>255</v>
@@ -2475,19 +2565,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="4">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>207</v>
+        <v>189</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G43" t="s">
         <v>255</v>
@@ -2495,22 +2588,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>209</v>
       </c>
       <c r="C44" s="4">
-        <v>120</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D44" s="4">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
         <v>255</v>
@@ -2518,22 +2611,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="4">
-        <v>266.95999999999998</v>
+        <v>393.2</v>
       </c>
       <c r="D45" s="4">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
         <v>255</v>
@@ -2541,22 +2634,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>209</v>
       </c>
       <c r="C46" s="4">
-        <v>495.99</v>
+        <v>342.66</v>
       </c>
       <c r="D46" s="4">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="G46" t="s">
         <v>255</v>
@@ -2564,22 +2657,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="4">
-        <v>633.91</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D47" s="4">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
         <v>255</v>
@@ -2587,22 +2680,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s">
         <v>209</v>
       </c>
       <c r="C48" s="4">
-        <v>1064.8800000000001</v>
+        <v>237.76</v>
       </c>
       <c r="D48" s="4">
-        <v>1025</v>
+        <v>180</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
         <v>255</v>
@@ -2610,22 +2703,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="4">
-        <v>758.9</v>
+        <v>359</v>
       </c>
       <c r="D49" s="4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G49" t="s">
         <v>255</v>
@@ -2633,19 +2726,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>209</v>
       </c>
       <c r="C50" s="4">
-        <v>400</v>
+        <v>210</v>
+      </c>
+      <c r="D50" s="4">
+        <v>170</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
         <v>255</v>
@@ -2653,22 +2749,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="4">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F51" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="G51" t="s">
         <v>255</v>
@@ -2676,22 +2769,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="4">
-        <v>1899</v>
+        <v>160</v>
       </c>
       <c r="D52" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="G52" t="s">
         <v>255</v>
@@ -2699,19 +2789,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="4">
-        <v>166.88</v>
+        <v>120</v>
       </c>
       <c r="D53" s="4">
         <v>100</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G53" t="s">
         <v>255</v>
@@ -2719,19 +2812,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>209</v>
       </c>
       <c r="C54" s="4">
-        <v>149.99</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D54" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G54" t="s">
         <v>255</v>
@@ -2739,22 +2835,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>209</v>
       </c>
       <c r="C55" s="4">
-        <v>2100</v>
+        <v>495.99</v>
       </c>
       <c r="D55" s="4">
-        <v>1600</v>
+        <v>350</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
         <v>255</v>
@@ -2762,22 +2858,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>209</v>
       </c>
       <c r="C56" s="4">
-        <v>325.32</v>
+        <v>633.91</v>
       </c>
       <c r="D56" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
         <v>255</v>
@@ -2785,22 +2881,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>209</v>
       </c>
       <c r="C57" s="4">
-        <v>589.4</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D57" s="4">
-        <v>400</v>
+        <v>1025</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
         <v>255</v>
@@ -2808,19 +2904,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="4">
-        <v>289</v>
+        <v>758.9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>700</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
         <v>255</v>
@@ -2828,22 +2927,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>209</v>
       </c>
       <c r="C59" s="4">
-        <v>411.67</v>
-      </c>
-      <c r="D59" s="4">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G59" t="s">
         <v>255</v>
@@ -2851,16 +2947,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>209</v>
       </c>
       <c r="C60" s="4">
-        <v>322.36</v>
+        <v>268</v>
+      </c>
+      <c r="D60" s="4">
+        <v>150</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="F60" t="s">
+        <v>132</v>
       </c>
       <c r="G60" t="s">
         <v>255</v>
@@ -2868,22 +2970,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="4">
-        <v>689.2</v>
+        <v>1899</v>
       </c>
       <c r="D61" s="4">
-        <v>500</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>227</v>
+        <v>1500</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G61" t="s">
         <v>255</v>
@@ -2891,19 +2993,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>209</v>
       </c>
       <c r="C62" s="4">
-        <v>238.39</v>
+        <v>166.88</v>
+      </c>
+      <c r="D62" s="4">
+        <v>100</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="G62" t="s">
         <v>255</v>
@@ -2911,19 +3013,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>209</v>
       </c>
       <c r="C63" s="4">
-        <v>270</v>
+        <v>149.99</v>
+      </c>
+      <c r="D63" s="4">
+        <v>100</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="G63" t="s">
         <v>255</v>
@@ -2931,16 +3033,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="4">
-        <v>250</v>
+        <v>2100</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1600</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>252</v>
+        <v>218</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G64" t="s">
         <v>255</v>
@@ -2948,16 +3056,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="4">
-        <v>200</v>
+        <v>325.32</v>
+      </c>
+      <c r="D65" s="4">
+        <v>250</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G65" t="s">
         <v>255</v>
@@ -2965,22 +3079,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
         <v>209</v>
       </c>
       <c r="C66" s="4">
-        <v>374.7</v>
+        <v>589.4</v>
       </c>
       <c r="D66" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
         <v>255</v>
@@ -2988,22 +3102,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
         <v>209</v>
       </c>
       <c r="C67" s="4">
-        <v>399</v>
-      </c>
-      <c r="D67" s="4">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G67" t="s">
         <v>255</v>
@@ -3011,22 +3122,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
         <v>209</v>
       </c>
       <c r="C68" s="4">
-        <v>499</v>
+        <v>411.67</v>
       </c>
       <c r="D68" s="4">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
+      </c>
+      <c r="F68" t="s">
+        <v>225</v>
       </c>
       <c r="G68" t="s">
         <v>255</v>
@@ -3034,19 +3145,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
         <v>209</v>
       </c>
       <c r="C69" s="4">
-        <v>98.62</v>
+        <v>322.36</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="G69" t="s">
         <v>255</v>
@@ -3054,22 +3162,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
         <v>209</v>
       </c>
       <c r="C70" s="4">
-        <v>322</v>
+        <v>689.2</v>
       </c>
       <c r="D70" s="4">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G70" t="s">
         <v>255</v>
@@ -3077,22 +3185,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
         <v>209</v>
       </c>
       <c r="C71" s="4">
-        <v>126.85</v>
-      </c>
-      <c r="D71" s="4">
-        <v>100</v>
+        <v>238.39</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G71" t="s">
         <v>255</v>
@@ -3100,19 +3205,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
         <v>209</v>
       </c>
       <c r="C72" s="4">
-        <v>159.38999999999999</v>
+        <v>270</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
         <v>255</v>
@@ -3120,22 +3225,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
         <v>209</v>
       </c>
       <c r="C73" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D73" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="G73" t="s">
         <v>255</v>
@@ -3143,40 +3242,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
         <v>209</v>
       </c>
       <c r="C74" s="4">
-        <v>175</v>
-      </c>
-      <c r="D74" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>253</v>
+      </c>
       <c r="G74" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
         <v>209</v>
       </c>
       <c r="C75" s="4">
-        <v>219.5</v>
+        <v>374.7</v>
       </c>
       <c r="D75" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>251</v>
+        <v>230</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G75" t="s">
         <v>255</v>
@@ -3184,19 +3282,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
         <v>209</v>
       </c>
       <c r="C76" s="4">
+        <v>399</v>
+      </c>
+      <c r="D76" s="4">
         <v>200</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G76" t="s">
         <v>255</v>
@@ -3204,19 +3305,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
         <v>209</v>
       </c>
       <c r="C77" s="4">
-        <v>230</v>
+        <v>499</v>
+      </c>
+      <c r="D77" s="4">
+        <v>150</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G77" t="s">
         <v>255</v>
@@ -3224,68 +3328,65 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
         <v>209</v>
       </c>
       <c r="C78" s="4">
-        <v>226.52</v>
-      </c>
-      <c r="D78" s="4">
-        <v>200</v>
+        <v>98.62</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G78" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
         <v>209</v>
       </c>
       <c r="C79" s="4">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D79" s="4">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G79" t="s">
-        <v>255</v>
+        <v>145</v>
+      </c>
+      <c r="G79" s="16">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
         <v>209</v>
       </c>
       <c r="C80" s="4">
-        <v>98.26</v>
+        <v>126.85</v>
       </c>
       <c r="D80" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G80" t="s">
         <v>255</v>
@@ -3293,22 +3394,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
         <v>209</v>
       </c>
       <c r="C81" s="4">
-        <v>299.01</v>
-      </c>
-      <c r="D81" s="4">
-        <v>175</v>
+        <v>159.38999999999999</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
         <v>255</v>
@@ -3316,19 +3414,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
         <v>209</v>
       </c>
       <c r="C82" s="4">
-        <v>95.52</v>
+        <v>238.9</v>
+      </c>
+      <c r="D82" s="4">
+        <v>100</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G82" t="s">
         <v>255</v>
@@ -3336,45 +3437,40 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
         <v>209</v>
       </c>
       <c r="C83" s="4">
-        <v>899</v>
+        <v>175</v>
       </c>
       <c r="D83" s="4">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
         <v>209</v>
       </c>
       <c r="C84" s="4">
-        <v>103.9</v>
+        <v>219.5</v>
       </c>
       <c r="D84" s="4">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="G84" t="s">
         <v>255</v>
@@ -3382,263 +3478,266 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
         <v>209</v>
       </c>
       <c r="C85" s="4">
-        <v>142</v>
-      </c>
-      <c r="D85" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>5</v>
+      <c r="A86" t="s">
+        <v>77</v>
       </c>
       <c r="B86" t="s">
         <v>209</v>
       </c>
-      <c r="C86" s="3">
-        <v>459.07</v>
-      </c>
-      <c r="D86" s="3">
-        <v>425</v>
+      <c r="C86" s="4">
+        <v>230</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="8">
-        <v>2</v>
+        <v>150</v>
+      </c>
+      <c r="G86" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>6</v>
+      <c r="A87" t="s">
+        <v>78</v>
       </c>
       <c r="B87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D87" s="3">
-        <v>235</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>162</v>
+      <c r="C87" s="4">
+        <v>226.52</v>
+      </c>
+      <c r="D87" s="4">
+        <v>200</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
         <v>209</v>
       </c>
       <c r="C88" s="4">
-        <v>469.53</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
+      </c>
+      <c r="D88" s="4">
+        <v>150</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" s="8">
-        <v>2</v>
+        <v>152</v>
+      </c>
+      <c r="G88" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="4">
-        <v>170.87</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>170</v>
+        <v>98.26</v>
+      </c>
+      <c r="D89" s="4">
+        <v>50</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G89" s="8">
-        <v>2</v>
+        <v>153</v>
+      </c>
+      <c r="G89" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
         <v>209</v>
       </c>
       <c r="C90" s="4">
-        <v>185</v>
+        <v>299.01</v>
+      </c>
+      <c r="D90" s="4">
+        <v>175</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G90" s="8">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="G90" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
         <v>209</v>
       </c>
       <c r="C91" s="4">
-        <v>298</v>
-      </c>
-      <c r="D91" s="4">
-        <v>180</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>171</v>
+        <v>95.52</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" s="8">
-        <v>2</v>
+        <v>155</v>
+      </c>
+      <c r="G91" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
         <v>209</v>
       </c>
       <c r="C92" s="4">
-        <v>194.36</v>
+        <v>899</v>
       </c>
       <c r="D92" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>32</v>
+        <v>156</v>
+      </c>
+      <c r="G92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>84</v>
       </c>
       <c r="B93" t="s">
         <v>209</v>
       </c>
       <c r="C93" s="4">
-        <v>439</v>
+        <v>103.9</v>
       </c>
       <c r="D93" s="4">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" s="8">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="G93" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>33</v>
+      <c r="A94" t="s">
+        <v>85</v>
       </c>
       <c r="B94" t="s">
         <v>209</v>
       </c>
       <c r="C94" s="4">
-        <v>183.99</v>
+        <v>142</v>
+      </c>
+      <c r="D94" s="4">
+        <v>50</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="8">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="G94" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>321</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="4">
-        <v>230</v>
-      </c>
-      <c r="D95" s="4">
-        <v>212</v>
+      <c r="C95" s="3">
+        <v>459.07</v>
+      </c>
+      <c r="D95" s="3">
+        <v>425</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="G95" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>320</v>
+      <c r="A96" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B96" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D96" s="4">
-        <v>170</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>192</v>
+      <c r="C96" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D96" s="3">
+        <v>235</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G96" s="8">
         <v>2</v>
@@ -3646,19 +3745,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>209</v>
       </c>
       <c r="C97" s="4">
-        <v>149.4</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>194</v>
+        <v>469.53</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="G97" s="8">
         <v>2</v>
@@ -3666,19 +3765,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>209</v>
       </c>
       <c r="C98" s="4">
-        <v>125.88</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>195</v>
+        <v>170.87</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="G98" s="8">
         <v>2</v>
@@ -3686,19 +3785,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="C99" s="4">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G99" s="8">
         <v>2</v>
@@ -3706,19 +3805,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
         <v>209</v>
       </c>
       <c r="C100" s="4">
-        <v>170.2</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>197</v>
+        <v>298</v>
+      </c>
+      <c r="D100" s="4">
+        <v>180</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G100" s="8">
         <v>2</v>
@@ -3726,19 +3828,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>209</v>
       </c>
       <c r="C101" s="4">
-        <v>199</v>
+        <v>194.36</v>
+      </c>
+      <c r="D101" s="4">
+        <v>150</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G101" s="8">
         <v>2</v>
@@ -3746,22 +3851,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="4">
-        <v>130</v>
+        <v>439</v>
       </c>
       <c r="D102" s="4">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="G102" s="8">
         <v>2</v>
@@ -3769,246 +3874,234 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
         <v>209</v>
       </c>
       <c r="C103" s="4">
-        <v>389</v>
-      </c>
-      <c r="D103" s="4">
-        <v>280</v>
+        <v>183.99</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G103" s="7">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>310</v>
+      <c r="A104" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="B104" t="s">
         <v>209</v>
       </c>
       <c r="C104" s="4">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="D104" s="4">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G104" s="7">
-        <v>1</v>
+        <v>323</v>
+      </c>
+      <c r="G104" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>307</v>
+      <c r="A105" t="s">
+        <v>320</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
       </c>
       <c r="C105" s="4">
-        <v>135</v>
+        <v>189.99</v>
       </c>
       <c r="D105" s="4">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>309</v>
+        <v>192</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G105" s="7">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="G105" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>304</v>
+      <c r="A106" t="s">
+        <v>34</v>
       </c>
       <c r="B106" t="s">
         <v>209</v>
       </c>
       <c r="C106" s="4">
-        <v>150</v>
+        <v>149.4</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G106" s="7">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="G106" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>303</v>
+      <c r="A107" t="s">
+        <v>35</v>
       </c>
       <c r="B107" t="s">
         <v>209</v>
       </c>
       <c r="C107" s="4">
-        <v>135</v>
-      </c>
-      <c r="D107" s="4">
-        <v>100</v>
+        <v>125.88</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G107" s="7">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="G107" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C108" s="4">
-        <v>135</v>
-      </c>
-      <c r="D108" s="4">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G108" s="7">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="G108" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>296</v>
+        <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="C109" s="4">
-        <v>120</v>
-      </c>
-      <c r="D109" s="4">
-        <v>50</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F109" t="s">
-        <v>292</v>
-      </c>
-      <c r="G109" s="7">
-        <v>1</v>
+        <v>170.2</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G109" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="B110" t="s">
         <v>209</v>
       </c>
       <c r="C110" s="4">
-        <v>200</v>
-      </c>
-      <c r="D110" s="4">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G110" s="7">
-        <v>1</v>
+        <v>198</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>290</v>
+      <c r="A111" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B111" t="s">
         <v>209</v>
       </c>
       <c r="C111" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D111" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F111" t="s">
-        <v>292</v>
-      </c>
-      <c r="G111" s="7">
-        <v>1</v>
+        <v>326</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G111" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>289</v>
+      <c r="A112" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B112" t="s">
         <v>209</v>
       </c>
       <c r="C112" s="4">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="D112" s="4">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="G112" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>284</v>
+      <c r="A113" t="s">
+        <v>310</v>
       </c>
       <c r="B113" t="s">
         <v>209</v>
       </c>
       <c r="C113" s="4">
-        <v>569</v>
+        <v>138</v>
       </c>
       <c r="D113" s="4">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G113" s="7">
         <v>1</v>
@@ -4016,160 +4109,154 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="C114" s="4">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="D114" s="4">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="G114" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>277</v>
+      <c r="A115" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B115" t="s">
         <v>209</v>
       </c>
       <c r="C115" s="4">
-        <v>300</v>
-      </c>
-      <c r="D115" s="4">
         <v>150</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G115" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>274</v>
+      <c r="A116" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B116" t="s">
         <v>209</v>
       </c>
       <c r="C116" s="4">
-        <v>498</v>
+        <v>135</v>
       </c>
       <c r="D116" s="4">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G116" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>271</v>
+      <c r="A117" t="s">
+        <v>297</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="C117" s="4">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D117" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G117" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>268</v>
+      <c r="A118" t="s">
+        <v>296</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="C118" s="4">
-        <v>719</v>
+        <v>120</v>
       </c>
       <c r="D118" s="4">
-        <v>230</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>269</v>
+        <v>50</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F118" t="s">
+        <v>292</v>
       </c>
       <c r="G118" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>265</v>
+      <c r="A119" t="s">
+        <v>294</v>
       </c>
       <c r="B119" t="s">
         <v>209</v>
       </c>
       <c r="C119" s="4">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="D119" s="4">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G119" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>264</v>
+      <c r="A120" t="s">
+        <v>290</v>
       </c>
       <c r="B120" t="s">
         <v>209</v>
       </c>
       <c r="C120" s="4">
-        <v>347</v>
+        <v>150</v>
       </c>
       <c r="D120" s="4">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>262</v>
+        <v>291</v>
+      </c>
+      <c r="F120" t="s">
+        <v>292</v>
       </c>
       <c r="G120" s="7">
         <v>1</v>
@@ -4177,22 +4264,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B121" t="s">
         <v>209</v>
       </c>
       <c r="C121" s="4">
-        <v>353</v>
+        <v>160</v>
       </c>
       <c r="D121" s="4">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G121" s="7">
         <v>1</v>
@@ -4200,245 +4287,470 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B122" t="s">
         <v>209</v>
       </c>
       <c r="C122" s="4">
-        <v>500</v>
+        <v>569</v>
+      </c>
+      <c r="D122" s="4">
+        <v>389</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="G122" s="7">
         <v>1</v>
       </c>
     </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" s="4">
+        <v>298</v>
+      </c>
+      <c r="D123" s="4">
+        <v>235</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" t="s">
+        <v>209</v>
+      </c>
+      <c r="C124" s="4">
+        <v>300</v>
+      </c>
+      <c r="D124" s="4">
+        <v>150</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>209</v>
+      </c>
+      <c r="C125" s="4">
+        <v>498</v>
+      </c>
+      <c r="D125" s="4">
+        <v>240</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" t="s">
+        <v>209</v>
+      </c>
+      <c r="C126" s="4">
+        <v>179</v>
+      </c>
+      <c r="D126" s="4">
+        <v>140</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="4">
+        <v>719</v>
+      </c>
+      <c r="D127" s="4">
+        <v>230</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" t="s">
+        <v>209</v>
+      </c>
+      <c r="C128" s="4">
+        <v>348</v>
+      </c>
+      <c r="D128" s="4">
+        <v>218</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+      <c r="C129" s="4">
+        <v>347</v>
+      </c>
+      <c r="D129" s="4">
+        <v>220</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="4">
+        <v>353</v>
+      </c>
+      <c r="D130" s="4">
+        <v>290</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" s="4">
+        <v>500</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G131" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F85" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F84" r:id="rId1"/>
-    <hyperlink ref="F82" r:id="rId2"/>
-    <hyperlink ref="F83" r:id="rId3"/>
-    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F80" r:id="rId4"/>
-    <hyperlink ref="F79" r:id="rId5"/>
-    <hyperlink ref="F78" r:id="rId6"/>
-    <hyperlink ref="F77" r:id="rId7"/>
-    <hyperlink ref="F76" r:id="rId8"/>
-    <hyperlink ref="F73" r:id="rId9"/>
-    <hyperlink ref="F69" r:id="rId10"/>
-    <hyperlink ref="F68" r:id="rId11"/>
-    <hyperlink ref="F72" r:id="rId12"/>
-    <hyperlink ref="F71" r:id="rId13"/>
-    <hyperlink ref="F70" r:id="rId14"/>
-    <hyperlink ref="F67" r:id="rId15"/>
-    <hyperlink ref="F66" r:id="rId16"/>
-    <hyperlink ref="F63" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F62" r:id="rId17"/>
-    <hyperlink ref="F61" r:id="rId18"/>
-    <hyperlink ref="F58" r:id="rId19"/>
-    <hyperlink ref="F57" r:id="rId20"/>
-    <hyperlink ref="F56" r:id="rId21"/>
-    <hyperlink ref="F55" r:id="rId22"/>
-    <hyperlink ref="F52" r:id="rId23"/>
-    <hyperlink ref="F50" r:id="rId24"/>
-    <hyperlink ref="F49" r:id="rId25"/>
-    <hyperlink ref="F48" r:id="rId26"/>
-    <hyperlink ref="F47" r:id="rId27"/>
-    <hyperlink ref="F46" r:id="rId28"/>
-    <hyperlink ref="F45" r:id="rId29"/>
-    <hyperlink ref="F44" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F41" r:id="rId30"/>
-    <hyperlink ref="F40" r:id="rId31"/>
-    <hyperlink ref="F39" r:id="rId32"/>
-    <hyperlink ref="F38" r:id="rId33"/>
-    <hyperlink ref="F36" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F101" r:id="rId35"/>
-    <hyperlink ref="F100" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F99" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F94" r:id="rId36"/>
-    <hyperlink ref="F96" r:id="rId37"/>
-    <hyperlink ref="F98" r:id="rId38"/>
-    <hyperlink ref="F93" r:id="rId39"/>
-    <hyperlink ref="F34" r:id="rId40"/>
-    <hyperlink ref="F33" r:id="rId41"/>
-    <hyperlink ref="F32" r:id="rId42"/>
-    <hyperlink ref="F31" r:id="rId43"/>
-    <hyperlink ref="F30" r:id="rId44"/>
-    <hyperlink ref="F29" r:id="rId45"/>
-    <hyperlink ref="F28" r:id="rId46"/>
-    <hyperlink ref="F27" r:id="rId47"/>
-    <hyperlink ref="F26" r:id="rId48"/>
-    <hyperlink ref="F25" r:id="rId49"/>
-    <hyperlink ref="F22" r:id="rId50"/>
-    <hyperlink ref="F24" r:id="rId51"/>
-    <hyperlink ref="F21" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F20" r:id="rId52"/>
-    <hyperlink ref="F19" r:id="rId53"/>
-    <hyperlink ref="F17" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F18" r:id="rId54"/>
-    <hyperlink ref="F14" r:id="rId55"/>
-    <hyperlink ref="F15" r:id="rId56"/>
-    <hyperlink ref="F13" r:id="rId57"/>
-    <hyperlink ref="F91" r:id="rId58"/>
-    <hyperlink ref="F90" r:id="rId59"/>
-    <hyperlink ref="F92" r:id="rId60"/>
-    <hyperlink ref="F89" r:id="rId61"/>
-    <hyperlink ref="F88" r:id="rId62"/>
-    <hyperlink ref="F87" r:id="rId63"/>
-    <hyperlink ref="F86" r:id="rId64"/>
-    <hyperlink ref="E86" r:id="rId65"/>
-    <hyperlink ref="E90" r:id="rId66"/>
-    <hyperlink ref="E92" r:id="rId67"/>
-    <hyperlink ref="E13" r:id="rId68"/>
-    <hyperlink ref="E14" r:id="rId69"/>
-    <hyperlink ref="E15" r:id="rId70"/>
-    <hyperlink ref="E17" r:id="rId71"/>
-    <hyperlink ref="E18" r:id="rId72"/>
-    <hyperlink ref="E19" r:id="rId73"/>
-    <hyperlink ref="E20" r:id="rId74"/>
-    <hyperlink ref="E22" r:id="rId75"/>
-    <hyperlink ref="E21" r:id="rId76"/>
-    <hyperlink ref="E23" r:id="rId77"/>
-    <hyperlink ref="E24" r:id="rId78"/>
-    <hyperlink ref="E25" r:id="rId79"/>
-    <hyperlink ref="E26" r:id="rId80"/>
-    <hyperlink ref="E27" r:id="rId81"/>
-    <hyperlink ref="E28" r:id="rId82"/>
-    <hyperlink ref="E29" r:id="rId83"/>
-    <hyperlink ref="E30" r:id="rId84"/>
-    <hyperlink ref="E31" r:id="rId85"/>
-    <hyperlink ref="E32" r:id="rId86"/>
-    <hyperlink ref="E33" r:id="rId87"/>
-    <hyperlink ref="E34" r:id="rId88"/>
-    <hyperlink ref="E93" r:id="rId89"/>
-    <hyperlink ref="E94" r:id="rId90"/>
-    <hyperlink ref="E96" r:id="rId91"/>
-    <hyperlink ref="E97" r:id="rId92"/>
-    <hyperlink ref="E98" r:id="rId93"/>
-    <hyperlink ref="E99" r:id="rId94"/>
-    <hyperlink ref="E100" r:id="rId95"/>
-    <hyperlink ref="E101" r:id="rId96"/>
-    <hyperlink ref="E35" r:id="rId97"/>
-    <hyperlink ref="E36" r:id="rId98"/>
-    <hyperlink ref="E37" r:id="rId99"/>
-    <hyperlink ref="F37" r:id="rId100"/>
-    <hyperlink ref="E38" r:id="rId101"/>
-    <hyperlink ref="E39" r:id="rId102"/>
-    <hyperlink ref="E40" r:id="rId103"/>
-    <hyperlink ref="E42" r:id="rId104"/>
-    <hyperlink ref="E43" r:id="rId105"/>
-    <hyperlink ref="E41" r:id="rId106"/>
-    <hyperlink ref="E44" r:id="rId107"/>
-    <hyperlink ref="E45" r:id="rId108"/>
-    <hyperlink ref="E46" r:id="rId109"/>
-    <hyperlink ref="E47" r:id="rId110"/>
-    <hyperlink ref="E48" r:id="rId111"/>
-    <hyperlink ref="E49" r:id="rId112"/>
-    <hyperlink ref="E50" r:id="rId113"/>
-    <hyperlink ref="E51" r:id="rId114"/>
-    <hyperlink ref="E55" r:id="rId115"/>
-    <hyperlink ref="E54" r:id="rId116"/>
-    <hyperlink ref="E53" r:id="rId117"/>
-    <hyperlink ref="E56" r:id="rId118"/>
-    <hyperlink ref="E57" r:id="rId119"/>
-    <hyperlink ref="E58" r:id="rId120"/>
-    <hyperlink ref="E59" r:id="rId121"/>
-    <hyperlink ref="E60" r:id="rId122"/>
-    <hyperlink ref="E61" r:id="rId123"/>
-    <hyperlink ref="E62" r:id="rId124"/>
-    <hyperlink ref="E63" r:id="rId125"/>
-    <hyperlink ref="E66" r:id="rId126"/>
-    <hyperlink ref="E67" r:id="rId127"/>
-    <hyperlink ref="E68" r:id="rId128"/>
-    <hyperlink ref="E69" r:id="rId129"/>
-    <hyperlink ref="E70" r:id="rId130"/>
-    <hyperlink ref="E71" r:id="rId131"/>
-    <hyperlink ref="E72" r:id="rId132"/>
-    <hyperlink ref="E73" r:id="rId133"/>
-    <hyperlink ref="E52" r:id="rId134"/>
-    <hyperlink ref="E76" r:id="rId135"/>
-    <hyperlink ref="E77" r:id="rId136"/>
-    <hyperlink ref="E78" r:id="rId137"/>
-    <hyperlink ref="E79" r:id="rId138"/>
-    <hyperlink ref="E80" r:id="rId139"/>
-    <hyperlink ref="E81" r:id="rId140"/>
-    <hyperlink ref="E82" r:id="rId141"/>
-    <hyperlink ref="E83" r:id="rId142"/>
-    <hyperlink ref="E84" r:id="rId143"/>
-    <hyperlink ref="E85" r:id="rId144"/>
-    <hyperlink ref="E74" r:id="rId145"/>
-    <hyperlink ref="E75" r:id="rId146"/>
-    <hyperlink ref="E64" r:id="rId147"/>
-    <hyperlink ref="E65" r:id="rId148"/>
-    <hyperlink ref="F122" r:id="rId149"/>
-    <hyperlink ref="E122" r:id="rId150"/>
-    <hyperlink ref="F121" r:id="rId151"/>
-    <hyperlink ref="E121" r:id="rId152"/>
-    <hyperlink ref="F120" r:id="rId153"/>
-    <hyperlink ref="E120" r:id="rId154"/>
-    <hyperlink ref="F119" r:id="rId155"/>
-    <hyperlink ref="E119" r:id="rId156"/>
-    <hyperlink ref="F118" r:id="rId157"/>
-    <hyperlink ref="E118" r:id="rId158"/>
-    <hyperlink ref="F117" r:id="rId159"/>
-    <hyperlink ref="E117" r:id="rId160"/>
-    <hyperlink ref="F116" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E116" r:id="rId161"/>
-    <hyperlink ref="F115" r:id="rId162"/>
-    <hyperlink ref="E115" r:id="rId163"/>
-    <hyperlink ref="E114" r:id="rId164"/>
-    <hyperlink ref="F114" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F113" r:id="rId166"/>
-    <hyperlink ref="E113" r:id="rId167"/>
-    <hyperlink ref="F112" r:id="rId168"/>
-    <hyperlink ref="E112" r:id="rId169"/>
-    <hyperlink ref="E111" r:id="rId170"/>
-    <hyperlink ref="E110" r:id="rId171"/>
-    <hyperlink ref="E108" r:id="rId172"/>
-    <hyperlink ref="F108" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F107" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E107" r:id="rId174"/>
-    <hyperlink ref="F106" r:id="rId175"/>
-    <hyperlink ref="E106" r:id="rId176"/>
-    <hyperlink ref="F105" r:id="rId177"/>
-    <hyperlink ref="E105" r:id="rId178"/>
-    <hyperlink ref="E104" r:id="rId179"/>
-    <hyperlink ref="F104" r:id="rId180"/>
-    <hyperlink ref="E103" r:id="rId181"/>
-    <hyperlink ref="F103" r:id="rId182"/>
-    <hyperlink ref="E95" r:id="rId183"/>
-    <hyperlink ref="F95" r:id="rId184"/>
-    <hyperlink ref="F102" r:id="rId185"/>
-    <hyperlink ref="E102" r:id="rId186"/>
-    <hyperlink ref="E12" r:id="rId187"/>
+    <hyperlink ref="F94" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F93" r:id="rId1"/>
+    <hyperlink ref="F91" r:id="rId2"/>
+    <hyperlink ref="F92" r:id="rId3"/>
+    <hyperlink ref="F90" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F89" r:id="rId4"/>
+    <hyperlink ref="F88" r:id="rId5"/>
+    <hyperlink ref="F87" r:id="rId6"/>
+    <hyperlink ref="F86" r:id="rId7"/>
+    <hyperlink ref="F85" r:id="rId8"/>
+    <hyperlink ref="F82" r:id="rId9"/>
+    <hyperlink ref="F78" r:id="rId10"/>
+    <hyperlink ref="F77" r:id="rId11"/>
+    <hyperlink ref="F81" r:id="rId12"/>
+    <hyperlink ref="F80" r:id="rId13"/>
+    <hyperlink ref="F79" r:id="rId14"/>
+    <hyperlink ref="F76" r:id="rId15"/>
+    <hyperlink ref="F75" r:id="rId16"/>
+    <hyperlink ref="F72" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F71" r:id="rId17"/>
+    <hyperlink ref="F70" r:id="rId18"/>
+    <hyperlink ref="F67" r:id="rId19"/>
+    <hyperlink ref="F66" r:id="rId20"/>
+    <hyperlink ref="F65" r:id="rId21"/>
+    <hyperlink ref="F64" r:id="rId22"/>
+    <hyperlink ref="F61" r:id="rId23"/>
+    <hyperlink ref="F59" r:id="rId24"/>
+    <hyperlink ref="F58" r:id="rId25"/>
+    <hyperlink ref="F57" r:id="rId26"/>
+    <hyperlink ref="F56" r:id="rId27"/>
+    <hyperlink ref="F55" r:id="rId28"/>
+    <hyperlink ref="F54" r:id="rId29"/>
+    <hyperlink ref="F53" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F50" r:id="rId30"/>
+    <hyperlink ref="F49" r:id="rId31"/>
+    <hyperlink ref="F48" r:id="rId32"/>
+    <hyperlink ref="F47" r:id="rId33"/>
+    <hyperlink ref="F45" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F44" r:id="rId34"/>
+    <hyperlink ref="F110" r:id="rId35"/>
+    <hyperlink ref="F109" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F108" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F103" r:id="rId36"/>
+    <hyperlink ref="F105" r:id="rId37"/>
+    <hyperlink ref="F107" r:id="rId38"/>
+    <hyperlink ref="F102" r:id="rId39"/>
+    <hyperlink ref="F43" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F41" r:id="rId42"/>
+    <hyperlink ref="F40" r:id="rId43"/>
+    <hyperlink ref="F39" r:id="rId44"/>
+    <hyperlink ref="F38" r:id="rId45"/>
+    <hyperlink ref="F37" r:id="rId46"/>
+    <hyperlink ref="F36" r:id="rId47"/>
+    <hyperlink ref="F35" r:id="rId48"/>
+    <hyperlink ref="F34" r:id="rId49"/>
+    <hyperlink ref="F31" r:id="rId50"/>
+    <hyperlink ref="F33" r:id="rId51"/>
+    <hyperlink ref="F30" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F29" r:id="rId52"/>
+    <hyperlink ref="F28" r:id="rId53"/>
+    <hyperlink ref="F26" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F27" r:id="rId54"/>
+    <hyperlink ref="F23" r:id="rId55"/>
+    <hyperlink ref="F24" r:id="rId56"/>
+    <hyperlink ref="F22" r:id="rId57"/>
+    <hyperlink ref="F100" r:id="rId58"/>
+    <hyperlink ref="F99" r:id="rId59"/>
+    <hyperlink ref="F101" r:id="rId60"/>
+    <hyperlink ref="F98" r:id="rId61"/>
+    <hyperlink ref="F97" r:id="rId62"/>
+    <hyperlink ref="F96" r:id="rId63"/>
+    <hyperlink ref="F95" r:id="rId64"/>
+    <hyperlink ref="E95" r:id="rId65"/>
+    <hyperlink ref="E99" r:id="rId66"/>
+    <hyperlink ref="E101" r:id="rId67"/>
+    <hyperlink ref="E22" r:id="rId68"/>
+    <hyperlink ref="E23" r:id="rId69"/>
+    <hyperlink ref="E24" r:id="rId70"/>
+    <hyperlink ref="E26" r:id="rId71"/>
+    <hyperlink ref="E27" r:id="rId72"/>
+    <hyperlink ref="E28" r:id="rId73"/>
+    <hyperlink ref="E29" r:id="rId74"/>
+    <hyperlink ref="E31" r:id="rId75"/>
+    <hyperlink ref="E30" r:id="rId76"/>
+    <hyperlink ref="E32" r:id="rId77"/>
+    <hyperlink ref="E33" r:id="rId78"/>
+    <hyperlink ref="E34" r:id="rId79"/>
+    <hyperlink ref="E35" r:id="rId80"/>
+    <hyperlink ref="E36" r:id="rId81"/>
+    <hyperlink ref="E37" r:id="rId82"/>
+    <hyperlink ref="E38" r:id="rId83"/>
+    <hyperlink ref="E39" r:id="rId84"/>
+    <hyperlink ref="E40" r:id="rId85"/>
+    <hyperlink ref="E41" r:id="rId86"/>
+    <hyperlink ref="E42" r:id="rId87"/>
+    <hyperlink ref="E43" r:id="rId88"/>
+    <hyperlink ref="E102" r:id="rId89"/>
+    <hyperlink ref="E103" r:id="rId90"/>
+    <hyperlink ref="E105" r:id="rId91"/>
+    <hyperlink ref="E106" r:id="rId92"/>
+    <hyperlink ref="E107" r:id="rId93"/>
+    <hyperlink ref="E108" r:id="rId94"/>
+    <hyperlink ref="E109" r:id="rId95"/>
+    <hyperlink ref="E110" r:id="rId96"/>
+    <hyperlink ref="E44" r:id="rId97"/>
+    <hyperlink ref="E45" r:id="rId98"/>
+    <hyperlink ref="E46" r:id="rId99"/>
+    <hyperlink ref="F46" r:id="rId100"/>
+    <hyperlink ref="E47" r:id="rId101"/>
+    <hyperlink ref="E48" r:id="rId102"/>
+    <hyperlink ref="E49" r:id="rId103"/>
+    <hyperlink ref="E51" r:id="rId104"/>
+    <hyperlink ref="E52" r:id="rId105"/>
+    <hyperlink ref="E50" r:id="rId106"/>
+    <hyperlink ref="E53" r:id="rId107"/>
+    <hyperlink ref="E54" r:id="rId108"/>
+    <hyperlink ref="E55" r:id="rId109"/>
+    <hyperlink ref="E56" r:id="rId110"/>
+    <hyperlink ref="E57" r:id="rId111"/>
+    <hyperlink ref="E58" r:id="rId112"/>
+    <hyperlink ref="E59" r:id="rId113"/>
+    <hyperlink ref="E60" r:id="rId114"/>
+    <hyperlink ref="E64" r:id="rId115"/>
+    <hyperlink ref="E63" r:id="rId116"/>
+    <hyperlink ref="E62" r:id="rId117"/>
+    <hyperlink ref="E65" r:id="rId118"/>
+    <hyperlink ref="E66" r:id="rId119"/>
+    <hyperlink ref="E67" r:id="rId120"/>
+    <hyperlink ref="E68" r:id="rId121"/>
+    <hyperlink ref="E69" r:id="rId122"/>
+    <hyperlink ref="E70" r:id="rId123"/>
+    <hyperlink ref="E71" r:id="rId124"/>
+    <hyperlink ref="E72" r:id="rId125"/>
+    <hyperlink ref="E75" r:id="rId126"/>
+    <hyperlink ref="E76" r:id="rId127"/>
+    <hyperlink ref="E77" r:id="rId128"/>
+    <hyperlink ref="E78" r:id="rId129"/>
+    <hyperlink ref="E79" r:id="rId130"/>
+    <hyperlink ref="E80" r:id="rId131"/>
+    <hyperlink ref="E81" r:id="rId132"/>
+    <hyperlink ref="E82" r:id="rId133"/>
+    <hyperlink ref="E61" r:id="rId134"/>
+    <hyperlink ref="E85" r:id="rId135"/>
+    <hyperlink ref="E86" r:id="rId136"/>
+    <hyperlink ref="E87" r:id="rId137"/>
+    <hyperlink ref="E88" r:id="rId138"/>
+    <hyperlink ref="E89" r:id="rId139"/>
+    <hyperlink ref="E90" r:id="rId140"/>
+    <hyperlink ref="E91" r:id="rId141"/>
+    <hyperlink ref="E92" r:id="rId142"/>
+    <hyperlink ref="E93" r:id="rId143"/>
+    <hyperlink ref="E94" r:id="rId144"/>
+    <hyperlink ref="E83" r:id="rId145"/>
+    <hyperlink ref="E84" r:id="rId146"/>
+    <hyperlink ref="E73" r:id="rId147"/>
+    <hyperlink ref="E74" r:id="rId148"/>
+    <hyperlink ref="F131" r:id="rId149"/>
+    <hyperlink ref="E131" r:id="rId150"/>
+    <hyperlink ref="F130" r:id="rId151"/>
+    <hyperlink ref="E130" r:id="rId152"/>
+    <hyperlink ref="F129" r:id="rId153"/>
+    <hyperlink ref="E129" r:id="rId154"/>
+    <hyperlink ref="F128" r:id="rId155"/>
+    <hyperlink ref="E128" r:id="rId156"/>
+    <hyperlink ref="F127" r:id="rId157"/>
+    <hyperlink ref="E127" r:id="rId158"/>
+    <hyperlink ref="F126" r:id="rId159"/>
+    <hyperlink ref="E126" r:id="rId160"/>
+    <hyperlink ref="F125" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E125" r:id="rId161"/>
+    <hyperlink ref="F124" r:id="rId162"/>
+    <hyperlink ref="E124" r:id="rId163"/>
+    <hyperlink ref="E123" r:id="rId164"/>
+    <hyperlink ref="F123" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F122" r:id="rId166"/>
+    <hyperlink ref="E122" r:id="rId167"/>
+    <hyperlink ref="F121" r:id="rId168"/>
+    <hyperlink ref="E121" r:id="rId169"/>
+    <hyperlink ref="E120" r:id="rId170"/>
+    <hyperlink ref="E119" r:id="rId171"/>
+    <hyperlink ref="E117" r:id="rId172"/>
+    <hyperlink ref="F117" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F116" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E116" r:id="rId174"/>
+    <hyperlink ref="F115" r:id="rId175"/>
+    <hyperlink ref="E115" r:id="rId176"/>
+    <hyperlink ref="F114" r:id="rId177"/>
+    <hyperlink ref="E114" r:id="rId178"/>
+    <hyperlink ref="E113" r:id="rId179"/>
+    <hyperlink ref="F113" r:id="rId180"/>
+    <hyperlink ref="E112" r:id="rId181"/>
+    <hyperlink ref="F112" r:id="rId182"/>
+    <hyperlink ref="E104" r:id="rId183"/>
+    <hyperlink ref="F104" r:id="rId184"/>
+    <hyperlink ref="F111" r:id="rId185"/>
+    <hyperlink ref="E111" r:id="rId186"/>
+    <hyperlink ref="E21" r:id="rId187"/>
     <hyperlink ref="F2" r:id="rId188"/>
     <hyperlink ref="E2" r:id="rId189"/>
-    <hyperlink ref="F11" r:id="rId190"/>
-    <hyperlink ref="E11" r:id="rId191"/>
-    <hyperlink ref="F3" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E3" r:id="rId193"/>
-    <hyperlink ref="F4" r:id="rId194"/>
-    <hyperlink ref="E4" r:id="rId195"/>
-    <hyperlink ref="F5" r:id="rId196"/>
-    <hyperlink ref="E5" r:id="rId197"/>
-    <hyperlink ref="E6" r:id="rId198"/>
-    <hyperlink ref="E7" r:id="rId199"/>
-    <hyperlink ref="E8" r:id="rId200"/>
-    <hyperlink ref="F8" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E10" r:id="rId202"/>
-    <hyperlink ref="E9" r:id="rId203"/>
+    <hyperlink ref="F20" r:id="rId190"/>
+    <hyperlink ref="E20" r:id="rId191"/>
+    <hyperlink ref="F10" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E10" r:id="rId193"/>
+    <hyperlink ref="F13" r:id="rId194"/>
+    <hyperlink ref="E13" r:id="rId195"/>
+    <hyperlink ref="F14" r:id="rId196"/>
+    <hyperlink ref="E14" r:id="rId197"/>
+    <hyperlink ref="E15" r:id="rId198"/>
+    <hyperlink ref="E16" r:id="rId199"/>
+    <hyperlink ref="E17" r:id="rId200"/>
+    <hyperlink ref="F17" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E19" r:id="rId202"/>
+    <hyperlink ref="E18" r:id="rId203"/>
+    <hyperlink ref="E11" r:id="rId204"/>
+    <hyperlink ref="F11" r:id="rId205"/>
+    <hyperlink ref="E12" r:id="rId206"/>
+    <hyperlink ref="F12" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F8" r:id="rId208"/>
+    <hyperlink ref="E8" r:id="rId209"/>
+    <hyperlink ref="E9" r:id="rId210"/>
+    <hyperlink ref="F9" r:id="rId211"/>
+    <hyperlink ref="F4" r:id="rId212"/>
+    <hyperlink ref="E4" r:id="rId213"/>
+    <hyperlink ref="E5" r:id="rId214"/>
+    <hyperlink ref="F5" r:id="rId215"/>
+    <hyperlink ref="F6" r:id="rId216"/>
+    <hyperlink ref="E6" r:id="rId217"/>
+    <hyperlink ref="F7" r:id="rId218"/>
+    <hyperlink ref="E7" r:id="rId219"/>
+    <hyperlink ref="F3" r:id="rId220"/>
+    <hyperlink ref="E3" r:id="rId221"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId204"/>
+  <pageSetup orientation="portrait" r:id="rId222"/>
   <tableParts count="1">
-    <tablePart r:id="rId205"/>
+    <tablePart r:id="rId223"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lpz_p\Desktop\Catalogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lpz_p\Desktop\Mi Proyecto Gib\Catalogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="384">
   <si>
     <t>Nombre</t>
   </si>
@@ -95,15 +95,9 @@
     <t>Kit De Protección Coderas De Rodilla Muñeca Ajustable 6pcs</t>
   </si>
   <si>
-    <t>Rodillera Elástica Deportiva De Compresión Para Gimnasios</t>
-  </si>
-  <si>
     <t>Impermeable Portátil Poncho De Lluvia Unisex 2 Piezas</t>
   </si>
   <si>
-    <t>Gorro De Satín Para Dormir De Seda Sombrero Banda Ajustable</t>
-  </si>
-  <si>
     <t>Body Siluet Fajas Moldeadoras Colombianas Mujer Body Shaper M</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Cinturón Hernia Hombre Compresión Ingle Soporte Ajustable</t>
   </si>
   <si>
-    <t>Pijamas De Animales Disfraz Pikachu Adulto De Cosplay Regalo</t>
-  </si>
-  <si>
     <t>Peluche Soothing Doll Sleep Toys 32 Cm - Gris</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>Control Inalámbrico Compatible Switch Wireless Transparencia</t>
   </si>
   <si>
-    <t>Lámparas One Piece Group Para Niños Regalo De Cumpleaños</t>
-  </si>
-  <si>
     <t>6-in-1 Docking Station Para Steam Deck Hdmi 4k@60hz 100w Pd</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>20 Pares De Pestañas Postizas 3d Mixtas De Visón Natural</t>
   </si>
   <si>
-    <t>Flores Rosas Eternas Y Collar Cuatro Tréboles Regalo Mujeres</t>
-  </si>
-  <si>
     <t>Luz De Vídeo Portátil Rgb De Relleno 3000k-7000k Con Soporte</t>
   </si>
   <si>
@@ -737,9 +722,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_701669-MLM77830724924_072024-O-base-para-aire-soporte-condensador-compresor-minisplit-4-pzs.webp</t>
   </si>
   <si>
-    <t>Llavero De Acrílico De Fotos Diy Para Bricolaje Regalo 45pcs</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_890778-CBT50429403878_062022-O-removedor-de-espinillalimpiador-de-poros-electrico4-sondas.webp</t>
   </si>
   <si>
@@ -833,9 +815,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_879384-MLM69766743426_062023-F-mochila-bolsa-mujer-mochilas-bolsas-lapicera-set-5-pzs.webp</t>
   </si>
   <si>
-    <t>Mochila De Cámara Impermeable De Fotografía Multifuncional</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1356600715-mochila-de-camara-impermeable-de-fotografia-multifuncional-_JM?quantity=1</t>
   </si>
   <si>
@@ -938,9 +917,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_672333-MLA84960729705_052025-O.webp</t>
   </si>
   <si>
-    <t>Carteras Monedero Tarjetero Mujer Botón De Presión En Caja, brillosa</t>
-  </si>
-  <si>
     <t>Carteras Caballero Luffy Anime Alta Calidad Cuero Hombre</t>
   </si>
   <si>
@@ -1170,6 +1146,39 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_710335-MLM78371990119_082024-F-prismaticos-profesionales-de-vision-nocturna-hd-60x60.webp</t>
+  </si>
+  <si>
+    <t>Pijamas De Animales Disfraz Pikachu Adulto De Cosplay</t>
+  </si>
+  <si>
+    <t>Talla L</t>
+  </si>
+  <si>
+    <t>Talla #8</t>
+  </si>
+  <si>
+    <t>Talla #8.5</t>
+  </si>
+  <si>
+    <t>Carteras Monedero Tarjetero Mujer Botón De Presión</t>
+  </si>
+  <si>
+    <t>Gorro De Satín Para Dormir De Seda Sombrero</t>
+  </si>
+  <si>
+    <t>Flores Rosas Eternas Y Collar Cuatro Tréboles para Mujeres</t>
+  </si>
+  <si>
+    <t>Llavero De Acrílico De Fotos Diy Para Bricolaje 45pcs</t>
+  </si>
+  <si>
+    <t>Lámparas One Piece Group Para Niños</t>
+  </si>
+  <si>
+    <t>Mochila De Cámara Impermeable Multifuncional</t>
+  </si>
+  <si>
+    <t>Rodillera Elástica Deportiva De Compresión</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1302,7 +1311,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1348,8 +1358,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G131" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G131"/>
-  <sortState ref="A2:G111">
-    <sortCondition descending="1" ref="G1:G111"/>
+  <sortState ref="A2:G131">
+    <sortCondition ref="G1:G131"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre"/>
@@ -1629,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -1663,3094 +1673,3095 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4">
+        <v>389</v>
+      </c>
+      <c r="D2" s="4">
+        <v>280</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="4">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4">
+        <v>135</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="4">
+        <v>150</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="4">
+        <v>135</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="4">
+        <v>135</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="4">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="4">
+        <v>200</v>
+      </c>
+      <c r="D9" s="4">
+        <v>150</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4">
+        <v>150</v>
+      </c>
+      <c r="D10" s="4">
+        <v>80</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="4">
+        <v>160</v>
+      </c>
+      <c r="D11" s="4">
+        <v>130</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="4">
+        <v>569</v>
+      </c>
+      <c r="D12" s="4">
+        <v>390</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="4">
+        <v>298</v>
+      </c>
+      <c r="D13" s="4">
+        <v>235</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="4">
+        <v>300</v>
+      </c>
+      <c r="D14" s="4">
+        <v>150</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="4">
+        <v>498</v>
+      </c>
+      <c r="D15" s="4">
+        <v>240</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="4">
+        <v>179</v>
+      </c>
+      <c r="D16" s="4">
+        <v>140</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="4">
+        <v>719</v>
+      </c>
+      <c r="D17" s="4">
+        <v>230</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="4">
+        <v>348</v>
+      </c>
+      <c r="D18" s="4">
+        <v>218</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="4">
+        <v>347</v>
+      </c>
+      <c r="D19" s="4">
+        <v>220</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="4">
+        <v>353</v>
+      </c>
+      <c r="D20" s="4">
+        <v>290</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="13">
-        <v>375</v>
-      </c>
-      <c r="D2" s="13">
-        <v>260</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="13">
-        <v>200</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="13">
-        <v>295</v>
-      </c>
-      <c r="D4" s="13">
-        <v>150</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="13">
-        <v>279</v>
-      </c>
-      <c r="D5" s="13">
-        <v>150</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="13">
-        <v>249</v>
-      </c>
-      <c r="D6" s="13">
-        <v>150</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="13">
-        <v>300</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G7" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="13">
-        <v>150</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="13">
-        <v>400</v>
-      </c>
-      <c r="D10" s="13">
-        <v>250</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G10" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="13">
-        <v>250</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G11" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="13">
-        <v>250</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G12" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="13">
-        <v>270</v>
-      </c>
-      <c r="D13" s="13">
-        <v>200</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G13" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="13">
-        <v>455</v>
-      </c>
-      <c r="D14" s="13">
-        <v>290</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="13">
-        <v>150</v>
-      </c>
-      <c r="D15" s="13">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" s="13">
-        <v>150</v>
-      </c>
-      <c r="D16" s="13">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="13">
-        <v>375</v>
-      </c>
-      <c r="D17" s="13">
-        <v>250</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="13">
-        <v>150</v>
-      </c>
-      <c r="D18" s="13">
-        <v>100</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="13">
-        <v>250</v>
-      </c>
-      <c r="D19" s="13">
-        <v>200</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="13">
-        <v>260</v>
-      </c>
-      <c r="D20" s="13">
-        <v>250</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G20" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4">
-        <v>2300</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
+      <c r="A22" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" s="4">
-        <v>665</v>
-      </c>
-      <c r="D22" s="4">
-        <v>450</v>
+        <v>204</v>
+      </c>
+      <c r="C22" s="3">
+        <v>459.07</v>
+      </c>
+      <c r="D22" s="3">
+        <v>425</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>255</v>
+        <v>81</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
+      <c r="A23" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="4">
-        <v>170.73</v>
-      </c>
-      <c r="D23" s="4">
-        <v>140</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>167</v>
+        <v>204</v>
+      </c>
+      <c r="C23" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>235</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>255</v>
+        <v>82</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="C24" s="4">
-        <v>133</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>168</v>
+        <v>470</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>255</v>
+        <v>83</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="C25" s="4">
-        <v>299</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" t="s">
-        <v>255</v>
+        <v>170</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="C26" s="4">
-        <v>259</v>
-      </c>
-      <c r="D26" s="4">
-        <v>150</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>255</v>
+        <v>84</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="C27" s="4">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="D27" s="4">
         <v>180</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>255</v>
+        <v>85</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C28" s="4">
-        <v>212</v>
+        <v>194.36</v>
       </c>
       <c r="D28" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>255</v>
+        <v>86</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
+      <c r="A29" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>374</v>
       </c>
       <c r="C29" s="4">
-        <v>178.03</v>
+        <v>439</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>255</v>
+        <v>107</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
+      <c r="A30" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" s="4">
-        <v>200</v>
-      </c>
-      <c r="D30" s="4">
-        <v>150</v>
+        <v>183.99</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>255</v>
+        <v>108</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>19</v>
+      <c r="A31" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C31" s="4">
-        <v>193.7</v>
+        <v>230</v>
       </c>
       <c r="D31" s="4">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>176</v>
+        <v>314</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>255</v>
+        <v>315</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C32" s="4">
-        <v>106</v>
+        <v>189.99</v>
       </c>
       <c r="D32" s="4">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" t="s">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C33" s="4">
         <v>150</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" t="s">
-        <v>255</v>
+        <v>188</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C34" s="4">
-        <v>248.02</v>
-      </c>
-      <c r="D34" s="4">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" t="s">
-        <v>255</v>
+        <v>110</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="C35" s="4">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>255</v>
+        <v>111</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C36" s="4">
-        <v>269</v>
-      </c>
-      <c r="D36" s="4">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" t="s">
-        <v>255</v>
+        <v>112</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4">
-        <v>315.24</v>
+        <v>200</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" t="s">
-        <v>255</v>
+        <v>113</v>
+      </c>
+      <c r="G37" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>26</v>
+      <c r="A38" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C38" s="4">
-        <v>210</v>
+        <v>130</v>
+      </c>
+      <c r="D38" s="4">
+        <v>90</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>184</v>
+        <v>318</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>27</v>
+        <v>317</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="D39" s="4">
+        <v>204</v>
+      </c>
+      <c r="C39" s="13">
+        <v>375</v>
+      </c>
+      <c r="D39" s="13">
+        <v>260</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="13">
+        <v>200</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="13">
+        <v>295</v>
+      </c>
+      <c r="D41" s="13">
+        <v>150</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="13">
+        <v>279</v>
+      </c>
+      <c r="D42" s="13">
+        <v>150</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="13">
+        <v>249</v>
+      </c>
+      <c r="D43" s="13">
+        <v>150</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="13">
+        <v>300</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="13">
+        <v>250</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="13">
+        <v>150</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="13">
+        <v>400</v>
+      </c>
+      <c r="D47" s="13">
+        <v>250</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="13">
+        <v>250</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="13">
+        <v>250</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="13">
+        <v>270</v>
+      </c>
+      <c r="D50" s="13">
+        <v>200</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="13">
+        <v>455</v>
+      </c>
+      <c r="D51" s="13">
+        <v>290</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="13">
+        <v>150</v>
+      </c>
+      <c r="D52" s="13">
         <v>100</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="4">
-        <v>102.22</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="E52" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="13">
+        <v>150</v>
+      </c>
+      <c r="D53" s="13">
         <v>100</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="4">
-        <v>210</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="E53" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="13">
+        <v>375</v>
+      </c>
+      <c r="D54" s="13">
+        <v>250</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="13">
         <v>150</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="4">
-        <v>166.93</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="D55" s="13">
+        <v>100</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="13">
+        <v>250</v>
+      </c>
+      <c r="D56" s="13">
+        <v>200</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="13">
+        <v>260</v>
+      </c>
+      <c r="D57" s="13">
+        <v>250</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="4">
+        <v>322</v>
+      </c>
+      <c r="D58" s="4">
+        <v>270</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="4">
+        <v>310</v>
+      </c>
+      <c r="D59" s="4">
         <v>150</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="4">
-        <v>99</v>
-      </c>
-      <c r="D43" s="4">
-        <v>50</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1072.6500000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>900</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="4">
-        <v>393.2</v>
-      </c>
-      <c r="D45" s="4">
-        <v>280</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="4">
-        <v>342.66</v>
-      </c>
-      <c r="D46" s="4">
-        <v>170</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="4">
-        <v>323.66000000000003</v>
-      </c>
-      <c r="D47" s="4">
-        <v>270</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="4">
-        <v>237.76</v>
-      </c>
-      <c r="D48" s="4">
-        <v>180</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="4">
-        <v>359</v>
-      </c>
-      <c r="D49" s="4">
-        <v>200</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="4">
-        <v>210</v>
-      </c>
-      <c r="D50" s="4">
-        <v>170</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="4">
-        <v>160</v>
-      </c>
-      <c r="D51" s="4">
-        <v>100</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G51" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="4">
-        <v>160</v>
-      </c>
-      <c r="D52" s="4">
-        <v>100</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="4">
-        <v>120</v>
-      </c>
-      <c r="D53" s="4">
-        <v>100</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="4">
-        <v>266.95999999999998</v>
-      </c>
-      <c r="D54" s="4">
-        <v>250</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="4">
-        <v>495.99</v>
-      </c>
-      <c r="D55" s="4">
-        <v>350</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="4">
-        <v>633.91</v>
-      </c>
-      <c r="D56" s="4">
-        <v>600</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1064.8800000000001</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1025</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="4">
-        <v>758.9</v>
-      </c>
-      <c r="D58" s="4">
-        <v>700</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="4">
-        <v>400</v>
-      </c>
       <c r="E59" s="6" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G59" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C60" s="4">
-        <v>268</v>
+        <v>103.9</v>
       </c>
       <c r="D60" s="4">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G60" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C61" s="4">
-        <v>1899</v>
+        <v>665</v>
       </c>
       <c r="D61" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>238</v>
+        <v>450</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C62" s="4">
-        <v>166.88</v>
+        <v>170.73</v>
       </c>
       <c r="D62" s="4">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>219</v>
+        <v>162</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C63" s="4">
-        <v>149.99</v>
-      </c>
-      <c r="D63" s="4">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>220</v>
+        <v>163</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C64" s="4">
-        <v>2100</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1600</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>134</v>
+        <v>299</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G64" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C65" s="4">
-        <v>325.32</v>
+        <v>259</v>
       </c>
       <c r="D65" s="4">
-        <v>250</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>221</v>
+        <v>150</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C66" s="4">
-        <v>589.4</v>
+        <v>279</v>
       </c>
       <c r="D66" s="4">
-        <v>400</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>222</v>
+        <v>180</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C67" s="4">
-        <v>289</v>
+        <v>212</v>
+      </c>
+      <c r="D67" s="4">
+        <v>120</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C68" s="4">
-        <v>411.67</v>
+        <v>178.03</v>
       </c>
       <c r="D68" s="4">
-        <v>289</v>
+        <v>100</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F68" t="s">
-        <v>225</v>
+        <v>170</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C69" s="4">
-        <v>322.36</v>
+        <v>200</v>
+      </c>
+      <c r="D69" s="4">
+        <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4">
-        <v>689.2</v>
+        <v>193.7</v>
       </c>
       <c r="D70" s="4">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C71" s="4">
-        <v>238.39</v>
+        <v>106</v>
+      </c>
+      <c r="D71" s="4">
+        <v>80</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G71" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C72" s="4">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C73" s="4">
-        <v>250</v>
+        <v>248.02</v>
+      </c>
+      <c r="D73" s="4">
+        <v>180</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>252</v>
+        <v>175</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C74" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>253</v>
+        <v>176</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C75" s="4">
-        <v>374.7</v>
+        <v>269</v>
       </c>
       <c r="D75" s="4">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G75" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C76" s="4">
-        <v>399</v>
-      </c>
-      <c r="D76" s="4">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4">
-        <v>499</v>
-      </c>
-      <c r="D77" s="4">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4">
-        <v>98.62</v>
+        <v>119.4</v>
+      </c>
+      <c r="D78" s="4">
+        <v>100</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G78" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C79" s="4">
-        <v>322</v>
+        <v>102.22</v>
       </c>
       <c r="D79" s="4">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G79" s="16">
-        <v>4</v>
+        <v>103</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C80" s="4">
-        <v>126.85</v>
+        <v>210</v>
       </c>
       <c r="D80" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G80" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C81" s="4">
-        <v>159.38999999999999</v>
+        <v>166.93</v>
+      </c>
+      <c r="D81" s="4">
+        <v>150</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C82" s="4">
-        <v>238.9</v>
+        <v>99</v>
       </c>
       <c r="D82" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C83" s="4">
-        <v>175</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D83" s="4">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C84" s="4">
-        <v>219.5</v>
+        <v>393.2</v>
       </c>
       <c r="D84" s="4">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>251</v>
+        <v>195</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C85" s="4">
-        <v>200</v>
+        <v>342.66</v>
+      </c>
+      <c r="D85" s="4">
+        <v>170</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="G85" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C86" s="4">
-        <v>230</v>
+        <v>323.66000000000003</v>
+      </c>
+      <c r="D86" s="4">
+        <v>270</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="4">
-        <v>226.52</v>
+        <v>237.76</v>
       </c>
       <c r="D87" s="4">
+        <v>180</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="4">
+        <v>359</v>
+      </c>
+      <c r="D88" s="4">
         <v>200</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" s="4">
-        <v>310</v>
-      </c>
-      <c r="D88" s="4">
-        <v>150</v>
-      </c>
       <c r="E88" s="6" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G88" s="14">
-        <v>4</v>
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C89" s="4">
-        <v>98.26</v>
+        <v>210</v>
       </c>
       <c r="D89" s="4">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C90" s="4">
-        <v>299.01</v>
+        <v>160</v>
       </c>
       <c r="D90" s="4">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="G90" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C91" s="4">
-        <v>95.52</v>
+        <v>160</v>
+      </c>
+      <c r="D91" s="4">
+        <v>100</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C92" s="4">
-        <v>899</v>
+        <v>120</v>
       </c>
       <c r="D92" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C93" s="4">
-        <v>103.9</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D93" s="4">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G93" s="14">
-        <v>4</v>
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="4">
+        <v>495.99</v>
+      </c>
+      <c r="D94" s="4">
+        <v>350</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="4">
+        <v>633.91</v>
+      </c>
+      <c r="D95" s="4">
+        <v>600</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1064.8800000000001</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="4">
-        <v>142</v>
-      </c>
-      <c r="D94" s="4">
-        <v>50</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>209</v>
-      </c>
-      <c r="C95" s="3">
-        <v>459.07</v>
-      </c>
-      <c r="D95" s="3">
-        <v>425</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>209</v>
-      </c>
-      <c r="C96" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D96" s="3">
-        <v>235</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G96" s="8">
-        <v>2</v>
+        <v>124</v>
+      </c>
+      <c r="G96" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C97" s="4">
-        <v>469.53</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>169</v>
+        <v>758.9</v>
+      </c>
+      <c r="D97" s="4">
+        <v>700</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G97" s="8">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C98" s="4">
-        <v>170.87</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>400</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G98" s="8">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="G98" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C99" s="4">
-        <v>185</v>
+        <v>268</v>
+      </c>
+      <c r="D99" s="4">
+        <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G99" s="8">
-        <v>2</v>
+        <v>212</v>
+      </c>
+      <c r="F99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C100" s="4">
-        <v>298</v>
+        <v>1899</v>
       </c>
       <c r="D100" s="4">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" s="8">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="G100" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C101" s="4">
-        <v>194.36</v>
+        <v>166.88</v>
       </c>
       <c r="D101" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G101" s="8">
-        <v>2</v>
+        <v>214</v>
+      </c>
+      <c r="G101" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>32</v>
+      <c r="A102" t="s">
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C102" s="4">
-        <v>439</v>
+        <v>149.99</v>
       </c>
       <c r="D102" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" s="8">
-        <v>2</v>
+        <v>215</v>
+      </c>
+      <c r="G102" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>33</v>
+      <c r="A103" t="s">
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C103" s="4">
-        <v>183.99</v>
+        <v>2100</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1600</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" s="8">
-        <v>2</v>
+        <v>129</v>
+      </c>
+      <c r="G103" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>321</v>
+      <c r="A104" t="s">
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C104" s="4">
-        <v>230</v>
+        <v>325.32</v>
       </c>
       <c r="D104" s="4">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>322</v>
+        <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G104" s="8">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="G104" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>320</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C105" s="4">
-        <v>189.99</v>
+        <v>589.4</v>
       </c>
       <c r="D105" s="4">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" s="8">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="G105" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C106" s="4">
-        <v>149.4</v>
+        <v>289</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G106" s="8">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C107" s="4">
-        <v>125.88</v>
+        <v>411.67</v>
+      </c>
+      <c r="D107" s="4">
+        <v>289</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" s="8">
-        <v>2</v>
+        <v>219</v>
+      </c>
+      <c r="F107" t="s">
+        <v>220</v>
+      </c>
+      <c r="G107" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="C108" s="4">
-        <v>299</v>
+        <v>322.36</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" s="8">
-        <v>2</v>
+        <v>221</v>
+      </c>
+      <c r="G108" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C109" s="4">
-        <v>170.2</v>
+        <v>689.2</v>
+      </c>
+      <c r="D109" s="4">
+        <v>500</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G109" s="8">
-        <v>2</v>
+        <v>133</v>
+      </c>
+      <c r="G109" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C110" s="4">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" s="8">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="G110" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>324</v>
+      <c r="A111" t="s">
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C111" s="4">
-        <v>130</v>
-      </c>
-      <c r="D111" s="4">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G111" s="8">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="G111" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>315</v>
+      <c r="A112" t="s">
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C112" s="4">
-        <v>389</v>
-      </c>
-      <c r="D112" s="4">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G112" s="7">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="G112" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C113" s="4">
+        <v>200</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="4">
+        <v>374.7</v>
+      </c>
+      <c r="D114" s="4">
+        <v>150</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="4">
+        <v>399</v>
+      </c>
+      <c r="D115" s="4">
+        <v>200</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" s="4">
+        <v>499</v>
+      </c>
+      <c r="D116" s="4">
+        <v>150</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D113" s="4">
-        <v>100</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B114" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" s="4">
-        <v>135</v>
-      </c>
-      <c r="D114" s="4">
-        <v>100</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B115" t="s">
-        <v>209</v>
-      </c>
-      <c r="C115" s="4">
-        <v>150</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G115" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B116" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" s="4">
-        <v>135</v>
-      </c>
-      <c r="D116" s="4">
-        <v>100</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G116" s="7">
-        <v>1</v>
+      <c r="G116" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="C117" s="4">
-        <v>135</v>
-      </c>
-      <c r="D117" s="4">
         <v>100</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G117" s="7">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="G117" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="C118" s="4">
-        <v>120</v>
+        <v>126.85</v>
       </c>
       <c r="D118" s="4">
-        <v>50</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F118" t="s">
-        <v>292</v>
-      </c>
-      <c r="G118" s="7">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G118" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="B119" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C119" s="4">
-        <v>200</v>
-      </c>
-      <c r="D119" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G119" s="7">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G119" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C120" s="4">
-        <v>150</v>
+        <v>238.9</v>
       </c>
       <c r="D120" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F120" t="s">
-        <v>292</v>
-      </c>
-      <c r="G120" s="7">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C121" s="4">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D121" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G121" s="7">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>284</v>
+      <c r="A122" t="s">
+        <v>71</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C122" s="4">
-        <v>569</v>
+        <v>219.5</v>
       </c>
       <c r="D122" s="4">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G122" s="7">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="G122" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>281</v>
+      <c r="A123" t="s">
+        <v>379</v>
       </c>
       <c r="B123" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="C123" s="4">
-        <v>298</v>
-      </c>
-      <c r="D123" s="4">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G123" s="7">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="G123" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C124" s="4">
-        <v>300</v>
-      </c>
-      <c r="D124" s="4">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G124" s="7">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="G124" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="B125" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C125" s="4">
-        <v>498</v>
+        <v>226.52</v>
       </c>
       <c r="D125" s="4">
+        <v>200</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" s="4">
+        <v>98.26</v>
+      </c>
+      <c r="D126" s="4">
+        <v>50</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="4">
+        <v>299.01</v>
+      </c>
+      <c r="D127" s="4">
+        <v>175</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" s="4">
+        <v>95.52</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="4">
+        <v>899</v>
+      </c>
+      <c r="D129" s="4">
+        <v>400</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G125" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" t="s">
-        <v>209</v>
-      </c>
-      <c r="C126" s="4">
-        <v>179</v>
-      </c>
-      <c r="D126" s="4">
-        <v>140</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G126" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B127" t="s">
-        <v>209</v>
-      </c>
-      <c r="C127" s="4">
-        <v>719</v>
-      </c>
-      <c r="D127" s="4">
-        <v>230</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G127" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B128" t="s">
-        <v>209</v>
-      </c>
-      <c r="C128" s="4">
-        <v>348</v>
-      </c>
-      <c r="D128" s="4">
-        <v>218</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G128" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B129" t="s">
-        <v>209</v>
-      </c>
-      <c r="C129" s="4">
-        <v>347</v>
-      </c>
-      <c r="D129" s="4">
-        <v>220</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G129" s="7">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="G129" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C130" s="4">
-        <v>353</v>
+        <v>142</v>
       </c>
       <c r="D130" s="4">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G130" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="C131" s="4">
-        <v>500</v>
+        <v>2300</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1800</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G131" s="7">
-        <v>1</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F94" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F93" r:id="rId1"/>
-    <hyperlink ref="F91" r:id="rId2"/>
-    <hyperlink ref="F92" r:id="rId3"/>
-    <hyperlink ref="F90" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F89" r:id="rId4"/>
-    <hyperlink ref="F88" r:id="rId5"/>
-    <hyperlink ref="F87" r:id="rId6"/>
-    <hyperlink ref="F86" r:id="rId7"/>
-    <hyperlink ref="F85" r:id="rId8"/>
-    <hyperlink ref="F82" r:id="rId9"/>
-    <hyperlink ref="F78" r:id="rId10"/>
-    <hyperlink ref="F77" r:id="rId11"/>
-    <hyperlink ref="F81" r:id="rId12"/>
-    <hyperlink ref="F80" r:id="rId13"/>
-    <hyperlink ref="F79" r:id="rId14"/>
-    <hyperlink ref="F76" r:id="rId15"/>
-    <hyperlink ref="F75" r:id="rId16"/>
-    <hyperlink ref="F72" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F71" r:id="rId17"/>
-    <hyperlink ref="F70" r:id="rId18"/>
-    <hyperlink ref="F67" r:id="rId19"/>
-    <hyperlink ref="F66" r:id="rId20"/>
-    <hyperlink ref="F65" r:id="rId21"/>
-    <hyperlink ref="F64" r:id="rId22"/>
-    <hyperlink ref="F61" r:id="rId23"/>
-    <hyperlink ref="F59" r:id="rId24"/>
-    <hyperlink ref="F58" r:id="rId25"/>
-    <hyperlink ref="F57" r:id="rId26"/>
-    <hyperlink ref="F56" r:id="rId27"/>
-    <hyperlink ref="F55" r:id="rId28"/>
-    <hyperlink ref="F54" r:id="rId29"/>
-    <hyperlink ref="F53" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F50" r:id="rId30"/>
-    <hyperlink ref="F49" r:id="rId31"/>
-    <hyperlink ref="F48" r:id="rId32"/>
-    <hyperlink ref="F47" r:id="rId33"/>
-    <hyperlink ref="F45" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F44" r:id="rId34"/>
-    <hyperlink ref="F110" r:id="rId35"/>
-    <hyperlink ref="F109" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F108" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F103" r:id="rId36"/>
-    <hyperlink ref="F105" r:id="rId37"/>
-    <hyperlink ref="F107" r:id="rId38"/>
-    <hyperlink ref="F102" r:id="rId39"/>
-    <hyperlink ref="F43" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F41" r:id="rId42"/>
-    <hyperlink ref="F40" r:id="rId43"/>
-    <hyperlink ref="F39" r:id="rId44"/>
-    <hyperlink ref="F38" r:id="rId45"/>
-    <hyperlink ref="F37" r:id="rId46"/>
-    <hyperlink ref="F36" r:id="rId47"/>
-    <hyperlink ref="F35" r:id="rId48"/>
-    <hyperlink ref="F34" r:id="rId49"/>
-    <hyperlink ref="F31" r:id="rId50"/>
-    <hyperlink ref="F33" r:id="rId51"/>
-    <hyperlink ref="F30" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F29" r:id="rId52"/>
-    <hyperlink ref="F28" r:id="rId53"/>
-    <hyperlink ref="F26" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F27" r:id="rId54"/>
-    <hyperlink ref="F23" r:id="rId55"/>
-    <hyperlink ref="F24" r:id="rId56"/>
-    <hyperlink ref="F22" r:id="rId57"/>
-    <hyperlink ref="F100" r:id="rId58"/>
-    <hyperlink ref="F99" r:id="rId59"/>
-    <hyperlink ref="F101" r:id="rId60"/>
-    <hyperlink ref="F98" r:id="rId61"/>
-    <hyperlink ref="F97" r:id="rId62"/>
-    <hyperlink ref="F96" r:id="rId63"/>
-    <hyperlink ref="F95" r:id="rId64"/>
-    <hyperlink ref="E95" r:id="rId65"/>
-    <hyperlink ref="E99" r:id="rId66"/>
-    <hyperlink ref="E101" r:id="rId67"/>
-    <hyperlink ref="E22" r:id="rId68"/>
-    <hyperlink ref="E23" r:id="rId69"/>
-    <hyperlink ref="E24" r:id="rId70"/>
-    <hyperlink ref="E26" r:id="rId71"/>
-    <hyperlink ref="E27" r:id="rId72"/>
-    <hyperlink ref="E28" r:id="rId73"/>
-    <hyperlink ref="E29" r:id="rId74"/>
-    <hyperlink ref="E31" r:id="rId75"/>
-    <hyperlink ref="E30" r:id="rId76"/>
-    <hyperlink ref="E32" r:id="rId77"/>
-    <hyperlink ref="E33" r:id="rId78"/>
-    <hyperlink ref="E34" r:id="rId79"/>
-    <hyperlink ref="E35" r:id="rId80"/>
-    <hyperlink ref="E36" r:id="rId81"/>
-    <hyperlink ref="E37" r:id="rId82"/>
-    <hyperlink ref="E38" r:id="rId83"/>
-    <hyperlink ref="E39" r:id="rId84"/>
-    <hyperlink ref="E40" r:id="rId85"/>
-    <hyperlink ref="E41" r:id="rId86"/>
-    <hyperlink ref="E42" r:id="rId87"/>
-    <hyperlink ref="E43" r:id="rId88"/>
-    <hyperlink ref="E102" r:id="rId89"/>
-    <hyperlink ref="E103" r:id="rId90"/>
-    <hyperlink ref="E105" r:id="rId91"/>
-    <hyperlink ref="E106" r:id="rId92"/>
-    <hyperlink ref="E107" r:id="rId93"/>
-    <hyperlink ref="E108" r:id="rId94"/>
-    <hyperlink ref="E109" r:id="rId95"/>
-    <hyperlink ref="E110" r:id="rId96"/>
-    <hyperlink ref="E44" r:id="rId97"/>
-    <hyperlink ref="E45" r:id="rId98"/>
-    <hyperlink ref="E46" r:id="rId99"/>
-    <hyperlink ref="F46" r:id="rId100"/>
-    <hyperlink ref="E47" r:id="rId101"/>
-    <hyperlink ref="E48" r:id="rId102"/>
-    <hyperlink ref="E49" r:id="rId103"/>
-    <hyperlink ref="E51" r:id="rId104"/>
-    <hyperlink ref="E52" r:id="rId105"/>
-    <hyperlink ref="E50" r:id="rId106"/>
-    <hyperlink ref="E53" r:id="rId107"/>
-    <hyperlink ref="E54" r:id="rId108"/>
-    <hyperlink ref="E55" r:id="rId109"/>
-    <hyperlink ref="E56" r:id="rId110"/>
-    <hyperlink ref="E57" r:id="rId111"/>
-    <hyperlink ref="E58" r:id="rId112"/>
-    <hyperlink ref="E59" r:id="rId113"/>
-    <hyperlink ref="E60" r:id="rId114"/>
-    <hyperlink ref="E64" r:id="rId115"/>
-    <hyperlink ref="E63" r:id="rId116"/>
-    <hyperlink ref="E62" r:id="rId117"/>
-    <hyperlink ref="E65" r:id="rId118"/>
-    <hyperlink ref="E66" r:id="rId119"/>
-    <hyperlink ref="E67" r:id="rId120"/>
-    <hyperlink ref="E68" r:id="rId121"/>
-    <hyperlink ref="E69" r:id="rId122"/>
-    <hyperlink ref="E70" r:id="rId123"/>
-    <hyperlink ref="E71" r:id="rId124"/>
-    <hyperlink ref="E72" r:id="rId125"/>
-    <hyperlink ref="E75" r:id="rId126"/>
-    <hyperlink ref="E76" r:id="rId127"/>
-    <hyperlink ref="E77" r:id="rId128"/>
-    <hyperlink ref="E78" r:id="rId129"/>
-    <hyperlink ref="E79" r:id="rId130"/>
-    <hyperlink ref="E80" r:id="rId131"/>
-    <hyperlink ref="E81" r:id="rId132"/>
-    <hyperlink ref="E82" r:id="rId133"/>
-    <hyperlink ref="E61" r:id="rId134"/>
-    <hyperlink ref="E85" r:id="rId135"/>
-    <hyperlink ref="E86" r:id="rId136"/>
-    <hyperlink ref="E87" r:id="rId137"/>
-    <hyperlink ref="E88" r:id="rId138"/>
-    <hyperlink ref="E89" r:id="rId139"/>
-    <hyperlink ref="E90" r:id="rId140"/>
-    <hyperlink ref="E91" r:id="rId141"/>
-    <hyperlink ref="E92" r:id="rId142"/>
-    <hyperlink ref="E93" r:id="rId143"/>
-    <hyperlink ref="E94" r:id="rId144"/>
-    <hyperlink ref="E83" r:id="rId145"/>
-    <hyperlink ref="E84" r:id="rId146"/>
-    <hyperlink ref="E73" r:id="rId147"/>
-    <hyperlink ref="E74" r:id="rId148"/>
-    <hyperlink ref="F131" r:id="rId149"/>
-    <hyperlink ref="E131" r:id="rId150"/>
-    <hyperlink ref="F130" r:id="rId151"/>
-    <hyperlink ref="E130" r:id="rId152"/>
-    <hyperlink ref="F129" r:id="rId153"/>
-    <hyperlink ref="E129" r:id="rId154"/>
-    <hyperlink ref="F128" r:id="rId155"/>
-    <hyperlink ref="E128" r:id="rId156"/>
-    <hyperlink ref="F127" r:id="rId157"/>
-    <hyperlink ref="E127" r:id="rId158"/>
-    <hyperlink ref="F126" r:id="rId159"/>
-    <hyperlink ref="E126" r:id="rId160"/>
-    <hyperlink ref="F125" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E125" r:id="rId161"/>
-    <hyperlink ref="F124" r:id="rId162"/>
-    <hyperlink ref="E124" r:id="rId163"/>
-    <hyperlink ref="E123" r:id="rId164"/>
-    <hyperlink ref="F123" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F122" r:id="rId166"/>
-    <hyperlink ref="E122" r:id="rId167"/>
-    <hyperlink ref="F121" r:id="rId168"/>
-    <hyperlink ref="E121" r:id="rId169"/>
-    <hyperlink ref="E120" r:id="rId170"/>
-    <hyperlink ref="E119" r:id="rId171"/>
-    <hyperlink ref="E117" r:id="rId172"/>
-    <hyperlink ref="F117" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F116" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E116" r:id="rId174"/>
-    <hyperlink ref="F115" r:id="rId175"/>
-    <hyperlink ref="E115" r:id="rId176"/>
-    <hyperlink ref="F114" r:id="rId177"/>
-    <hyperlink ref="E114" r:id="rId178"/>
-    <hyperlink ref="E113" r:id="rId179"/>
-    <hyperlink ref="F113" r:id="rId180"/>
-    <hyperlink ref="E112" r:id="rId181"/>
-    <hyperlink ref="F112" r:id="rId182"/>
-    <hyperlink ref="E104" r:id="rId183"/>
-    <hyperlink ref="F104" r:id="rId184"/>
-    <hyperlink ref="F111" r:id="rId185"/>
-    <hyperlink ref="E111" r:id="rId186"/>
-    <hyperlink ref="E21" r:id="rId187"/>
-    <hyperlink ref="F2" r:id="rId188"/>
-    <hyperlink ref="E2" r:id="rId189"/>
-    <hyperlink ref="F20" r:id="rId190"/>
-    <hyperlink ref="E20" r:id="rId191"/>
-    <hyperlink ref="F10" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E10" r:id="rId193"/>
-    <hyperlink ref="F13" r:id="rId194"/>
-    <hyperlink ref="E13" r:id="rId195"/>
-    <hyperlink ref="F14" r:id="rId196"/>
-    <hyperlink ref="E14" r:id="rId197"/>
-    <hyperlink ref="E15" r:id="rId198"/>
-    <hyperlink ref="E16" r:id="rId199"/>
-    <hyperlink ref="E17" r:id="rId200"/>
-    <hyperlink ref="F17" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E19" r:id="rId202"/>
-    <hyperlink ref="E18" r:id="rId203"/>
-    <hyperlink ref="E11" r:id="rId204"/>
-    <hyperlink ref="F11" r:id="rId205"/>
-    <hyperlink ref="E12" r:id="rId206"/>
-    <hyperlink ref="F12" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F8" r:id="rId208"/>
-    <hyperlink ref="E8" r:id="rId209"/>
-    <hyperlink ref="E9" r:id="rId210"/>
-    <hyperlink ref="F9" r:id="rId211"/>
-    <hyperlink ref="F4" r:id="rId212"/>
-    <hyperlink ref="E4" r:id="rId213"/>
-    <hyperlink ref="E5" r:id="rId214"/>
-    <hyperlink ref="F5" r:id="rId215"/>
-    <hyperlink ref="F6" r:id="rId216"/>
-    <hyperlink ref="E6" r:id="rId217"/>
-    <hyperlink ref="F7" r:id="rId218"/>
-    <hyperlink ref="E7" r:id="rId219"/>
-    <hyperlink ref="F3" r:id="rId220"/>
-    <hyperlink ref="E3" r:id="rId221"/>
+    <hyperlink ref="F130" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F60" r:id="rId1"/>
+    <hyperlink ref="F128" r:id="rId2"/>
+    <hyperlink ref="F129" r:id="rId3"/>
+    <hyperlink ref="F127" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F126" r:id="rId4"/>
+    <hyperlink ref="F59" r:id="rId5"/>
+    <hyperlink ref="F125" r:id="rId6"/>
+    <hyperlink ref="F124" r:id="rId7"/>
+    <hyperlink ref="F123" r:id="rId8"/>
+    <hyperlink ref="F120" r:id="rId9"/>
+    <hyperlink ref="F117" r:id="rId10"/>
+    <hyperlink ref="F116" r:id="rId11"/>
+    <hyperlink ref="F119" r:id="rId12"/>
+    <hyperlink ref="F118" r:id="rId13"/>
+    <hyperlink ref="F58" r:id="rId14"/>
+    <hyperlink ref="F115" r:id="rId15"/>
+    <hyperlink ref="F114" r:id="rId16"/>
+    <hyperlink ref="F111" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F110" r:id="rId17"/>
+    <hyperlink ref="F109" r:id="rId18"/>
+    <hyperlink ref="F106" r:id="rId19"/>
+    <hyperlink ref="F105" r:id="rId20"/>
+    <hyperlink ref="F104" r:id="rId21"/>
+    <hyperlink ref="F103" r:id="rId22"/>
+    <hyperlink ref="F100" r:id="rId23"/>
+    <hyperlink ref="F98" r:id="rId24"/>
+    <hyperlink ref="F97" r:id="rId25"/>
+    <hyperlink ref="F96" r:id="rId26"/>
+    <hyperlink ref="F95" r:id="rId27"/>
+    <hyperlink ref="F94" r:id="rId28"/>
+    <hyperlink ref="F93" r:id="rId29"/>
+    <hyperlink ref="F92" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F89" r:id="rId30"/>
+    <hyperlink ref="F88" r:id="rId31"/>
+    <hyperlink ref="F87" r:id="rId32"/>
+    <hyperlink ref="F86" r:id="rId33"/>
+    <hyperlink ref="F84" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F83" r:id="rId34"/>
+    <hyperlink ref="F37" r:id="rId35"/>
+    <hyperlink ref="F36" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F35" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F30" r:id="rId36"/>
+    <hyperlink ref="F32" r:id="rId37"/>
+    <hyperlink ref="F34" r:id="rId38"/>
+    <hyperlink ref="F29" r:id="rId39"/>
+    <hyperlink ref="F82" r:id="rId40"/>
+    <hyperlink ref="F81" r:id="rId41"/>
+    <hyperlink ref="F80" r:id="rId42"/>
+    <hyperlink ref="F79" r:id="rId43"/>
+    <hyperlink ref="F78" r:id="rId44"/>
+    <hyperlink ref="F77" r:id="rId45"/>
+    <hyperlink ref="F76" r:id="rId46"/>
+    <hyperlink ref="F75" r:id="rId47"/>
+    <hyperlink ref="F74" r:id="rId48"/>
+    <hyperlink ref="F73" r:id="rId49"/>
+    <hyperlink ref="F70" r:id="rId50"/>
+    <hyperlink ref="F72" r:id="rId51"/>
+    <hyperlink ref="F69" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F68" r:id="rId52"/>
+    <hyperlink ref="F67" r:id="rId53"/>
+    <hyperlink ref="F65" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F66" r:id="rId54"/>
+    <hyperlink ref="F62" r:id="rId55"/>
+    <hyperlink ref="F63" r:id="rId56"/>
+    <hyperlink ref="F61" r:id="rId57"/>
+    <hyperlink ref="F27" r:id="rId58"/>
+    <hyperlink ref="F26" r:id="rId59"/>
+    <hyperlink ref="F28" r:id="rId60"/>
+    <hyperlink ref="F25" r:id="rId61"/>
+    <hyperlink ref="F24" r:id="rId62"/>
+    <hyperlink ref="F23" r:id="rId63"/>
+    <hyperlink ref="F22" r:id="rId64"/>
+    <hyperlink ref="E22" r:id="rId65"/>
+    <hyperlink ref="E26" r:id="rId66"/>
+    <hyperlink ref="E28" r:id="rId67"/>
+    <hyperlink ref="E61" r:id="rId68"/>
+    <hyperlink ref="E62" r:id="rId69"/>
+    <hyperlink ref="E63" r:id="rId70"/>
+    <hyperlink ref="E65" r:id="rId71"/>
+    <hyperlink ref="E66" r:id="rId72"/>
+    <hyperlink ref="E67" r:id="rId73"/>
+    <hyperlink ref="E68" r:id="rId74"/>
+    <hyperlink ref="E70" r:id="rId75"/>
+    <hyperlink ref="E69" r:id="rId76"/>
+    <hyperlink ref="E71" r:id="rId77"/>
+    <hyperlink ref="E72" r:id="rId78"/>
+    <hyperlink ref="E73" r:id="rId79"/>
+    <hyperlink ref="E74" r:id="rId80"/>
+    <hyperlink ref="E75" r:id="rId81"/>
+    <hyperlink ref="E76" r:id="rId82"/>
+    <hyperlink ref="E77" r:id="rId83"/>
+    <hyperlink ref="E78" r:id="rId84"/>
+    <hyperlink ref="E79" r:id="rId85"/>
+    <hyperlink ref="E80" r:id="rId86"/>
+    <hyperlink ref="E81" r:id="rId87"/>
+    <hyperlink ref="E82" r:id="rId88"/>
+    <hyperlink ref="E29" r:id="rId89"/>
+    <hyperlink ref="E30" r:id="rId90"/>
+    <hyperlink ref="E32" r:id="rId91"/>
+    <hyperlink ref="E33" r:id="rId92"/>
+    <hyperlink ref="E34" r:id="rId93"/>
+    <hyperlink ref="E35" r:id="rId94"/>
+    <hyperlink ref="E36" r:id="rId95"/>
+    <hyperlink ref="E37" r:id="rId96"/>
+    <hyperlink ref="E83" r:id="rId97"/>
+    <hyperlink ref="E84" r:id="rId98"/>
+    <hyperlink ref="E85" r:id="rId99"/>
+    <hyperlink ref="F85" r:id="rId100"/>
+    <hyperlink ref="E86" r:id="rId101"/>
+    <hyperlink ref="E87" r:id="rId102"/>
+    <hyperlink ref="E88" r:id="rId103"/>
+    <hyperlink ref="E90" r:id="rId104"/>
+    <hyperlink ref="E91" r:id="rId105"/>
+    <hyperlink ref="E89" r:id="rId106"/>
+    <hyperlink ref="E92" r:id="rId107"/>
+    <hyperlink ref="E93" r:id="rId108"/>
+    <hyperlink ref="E94" r:id="rId109"/>
+    <hyperlink ref="E95" r:id="rId110"/>
+    <hyperlink ref="E96" r:id="rId111"/>
+    <hyperlink ref="E97" r:id="rId112"/>
+    <hyperlink ref="E98" r:id="rId113"/>
+    <hyperlink ref="E99" r:id="rId114"/>
+    <hyperlink ref="E103" r:id="rId115"/>
+    <hyperlink ref="E102" r:id="rId116"/>
+    <hyperlink ref="E101" r:id="rId117"/>
+    <hyperlink ref="E104" r:id="rId118"/>
+    <hyperlink ref="E105" r:id="rId119"/>
+    <hyperlink ref="E106" r:id="rId120"/>
+    <hyperlink ref="E107" r:id="rId121"/>
+    <hyperlink ref="E108" r:id="rId122"/>
+    <hyperlink ref="E109" r:id="rId123"/>
+    <hyperlink ref="E110" r:id="rId124"/>
+    <hyperlink ref="E111" r:id="rId125"/>
+    <hyperlink ref="E114" r:id="rId126"/>
+    <hyperlink ref="E115" r:id="rId127"/>
+    <hyperlink ref="E116" r:id="rId128"/>
+    <hyperlink ref="E117" r:id="rId129"/>
+    <hyperlink ref="E58" r:id="rId130"/>
+    <hyperlink ref="E118" r:id="rId131"/>
+    <hyperlink ref="E119" r:id="rId132"/>
+    <hyperlink ref="E120" r:id="rId133"/>
+    <hyperlink ref="E100" r:id="rId134"/>
+    <hyperlink ref="E123" r:id="rId135"/>
+    <hyperlink ref="E124" r:id="rId136"/>
+    <hyperlink ref="E125" r:id="rId137"/>
+    <hyperlink ref="E59" r:id="rId138"/>
+    <hyperlink ref="E126" r:id="rId139"/>
+    <hyperlink ref="E127" r:id="rId140"/>
+    <hyperlink ref="E128" r:id="rId141"/>
+    <hyperlink ref="E129" r:id="rId142"/>
+    <hyperlink ref="E60" r:id="rId143"/>
+    <hyperlink ref="E130" r:id="rId144"/>
+    <hyperlink ref="E121" r:id="rId145"/>
+    <hyperlink ref="E122" r:id="rId146"/>
+    <hyperlink ref="E112" r:id="rId147"/>
+    <hyperlink ref="E113" r:id="rId148"/>
+    <hyperlink ref="F21" r:id="rId149"/>
+    <hyperlink ref="E21" r:id="rId150"/>
+    <hyperlink ref="F20" r:id="rId151"/>
+    <hyperlink ref="E20" r:id="rId152"/>
+    <hyperlink ref="F19" r:id="rId153"/>
+    <hyperlink ref="E19" r:id="rId154"/>
+    <hyperlink ref="F18" r:id="rId155"/>
+    <hyperlink ref="E18" r:id="rId156"/>
+    <hyperlink ref="F17" r:id="rId157"/>
+    <hyperlink ref="E17" r:id="rId158"/>
+    <hyperlink ref="F16" r:id="rId159"/>
+    <hyperlink ref="E16" r:id="rId160"/>
+    <hyperlink ref="F15" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E15" r:id="rId161"/>
+    <hyperlink ref="F14" r:id="rId162"/>
+    <hyperlink ref="E14" r:id="rId163"/>
+    <hyperlink ref="E13" r:id="rId164"/>
+    <hyperlink ref="F13" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F12" r:id="rId166"/>
+    <hyperlink ref="E12" r:id="rId167"/>
+    <hyperlink ref="F11" r:id="rId168"/>
+    <hyperlink ref="E11" r:id="rId169"/>
+    <hyperlink ref="E10" r:id="rId170"/>
+    <hyperlink ref="E9" r:id="rId171"/>
+    <hyperlink ref="E7" r:id="rId172"/>
+    <hyperlink ref="F7" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F6" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E6" r:id="rId174"/>
+    <hyperlink ref="F5" r:id="rId175"/>
+    <hyperlink ref="E5" r:id="rId176"/>
+    <hyperlink ref="F4" r:id="rId177"/>
+    <hyperlink ref="E4" r:id="rId178"/>
+    <hyperlink ref="E3" r:id="rId179"/>
+    <hyperlink ref="F3" r:id="rId180"/>
+    <hyperlink ref="E2" r:id="rId181"/>
+    <hyperlink ref="F2" r:id="rId182"/>
+    <hyperlink ref="E31" r:id="rId183"/>
+    <hyperlink ref="F31" r:id="rId184"/>
+    <hyperlink ref="F38" r:id="rId185"/>
+    <hyperlink ref="E38" r:id="rId186"/>
+    <hyperlink ref="E131" r:id="rId187"/>
+    <hyperlink ref="F39" r:id="rId188"/>
+    <hyperlink ref="E39" r:id="rId189"/>
+    <hyperlink ref="F57" r:id="rId190"/>
+    <hyperlink ref="E57" r:id="rId191"/>
+    <hyperlink ref="F47" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E47" r:id="rId193"/>
+    <hyperlink ref="F50" r:id="rId194"/>
+    <hyperlink ref="E50" r:id="rId195"/>
+    <hyperlink ref="F51" r:id="rId196"/>
+    <hyperlink ref="E51" r:id="rId197"/>
+    <hyperlink ref="E52" r:id="rId198"/>
+    <hyperlink ref="E53" r:id="rId199"/>
+    <hyperlink ref="E54" r:id="rId200"/>
+    <hyperlink ref="F54" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E56" r:id="rId202"/>
+    <hyperlink ref="E55" r:id="rId203"/>
+    <hyperlink ref="E48" r:id="rId204"/>
+    <hyperlink ref="F48" r:id="rId205"/>
+    <hyperlink ref="E49" r:id="rId206"/>
+    <hyperlink ref="F49" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F45" r:id="rId208"/>
+    <hyperlink ref="E45" r:id="rId209"/>
+    <hyperlink ref="E46" r:id="rId210"/>
+    <hyperlink ref="F46" r:id="rId211"/>
+    <hyperlink ref="F41" r:id="rId212"/>
+    <hyperlink ref="E41" r:id="rId213"/>
+    <hyperlink ref="E42" r:id="rId214"/>
+    <hyperlink ref="F42" r:id="rId215"/>
+    <hyperlink ref="F43" r:id="rId216"/>
+    <hyperlink ref="E43" r:id="rId217"/>
+    <hyperlink ref="F44" r:id="rId218"/>
+    <hyperlink ref="E44" r:id="rId219"/>
+    <hyperlink ref="F40" r:id="rId220"/>
+    <hyperlink ref="E40" r:id="rId221"/>
+    <hyperlink ref="E25" r:id="rId222"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId222"/>
+  <pageSetup orientation="portrait" r:id="rId223"/>
   <tableParts count="1">
-    <tablePart r:id="rId223"/>
+    <tablePart r:id="rId224"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1185,7 +1185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,8 +1223,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,8 +1262,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1277,12 +1290,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1313,6 +1341,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1357,7 +1386,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G131" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G131"/>
+  <autoFilter ref="A1:G131">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tenis Plataforma Hombre Air Original Tendencia Alta Hip Hop"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:G131">
     <sortCondition ref="G1:G131"/>
   </sortState>
@@ -1639,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1711,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>307</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -1722,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>296</v>
       </c>
@@ -1765,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>377</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -1834,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>283</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>277</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>274</v>
       </c>
@@ -1946,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -1992,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
@@ -2015,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>382</v>
       </c>
@@ -2038,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>259</v>
       </c>
@@ -2061,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>258</v>
       </c>
@@ -2084,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>253</v>
       </c>
@@ -2107,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>250</v>
       </c>
@@ -2127,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2154,8 +2189,8 @@
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
-        <v>204</v>
+      <c r="B23" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="C23" s="3">
         <v>419.19</v>
@@ -2173,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -2233,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>309</v>
       </c>
@@ -2256,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>373</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2322,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>313</v>
       </c>
@@ -2345,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>312</v>
       </c>
@@ -2368,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2388,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2448,7 +2483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>316</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>323</v>
       </c>
@@ -2514,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>371</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>361</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>364</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>367</v>
       </c>
@@ -2604,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>370</v>
       </c>
@@ -2625,7 +2660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>357</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>358</v>
       </c>
@@ -2667,7 +2702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>329</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>349</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>352</v>
       </c>
@@ -2732,7 +2767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>332</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>335</v>
       </c>
@@ -2778,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>338</v>
       </c>
@@ -2801,7 +2836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>340</v>
       </c>
@@ -2822,7 +2857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>342</v>
       </c>
@@ -2845,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>347</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>345</v>
       </c>
@@ -2887,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>326</v>
       </c>
@@ -2910,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -2933,7 +2968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2956,7 +2991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2979,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +3037,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3060,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +3080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3085,7 +3120,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3143,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3166,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -3200,7 +3235,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -3240,7 +3275,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>383</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -3283,7 +3318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>378</v>
       </c>
@@ -3306,7 +3341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3326,7 +3361,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3369,7 +3404,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -3392,7 +3427,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -3438,7 +3473,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -3461,7 +3496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -3484,7 +3519,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3542,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -3530,7 +3565,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -3553,7 +3588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>322</v>
       </c>
@@ -3576,7 +3611,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -3599,7 +3634,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3622,7 +3657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -3642,7 +3677,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -3662,7 +3697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +3720,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -3708,7 +3743,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -3731,7 +3766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -3754,7 +3789,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3812,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -3800,7 +3835,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -3820,7 +3855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -3843,7 +3878,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -3866,7 +3901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -3886,7 +3921,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>53</v>
       </c>
@@ -3906,7 +3941,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>54</v>
       </c>
@@ -3929,7 +3964,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>55</v>
       </c>
@@ -3952,7 +3987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>56</v>
       </c>
@@ -3975,7 +4010,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>57</v>
       </c>
@@ -3995,7 +4030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>58</v>
       </c>
@@ -4018,7 +4053,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>381</v>
       </c>
@@ -4035,7 +4070,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -4058,7 +4093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -4078,7 +4113,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -4098,7 +4133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -4115,7 +4150,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -4132,7 +4167,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>64</v>
       </c>
@@ -4155,7 +4190,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>65</v>
       </c>
@@ -4178,7 +4213,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -4201,7 +4236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>67</v>
       </c>
@@ -4221,7 +4256,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>69</v>
       </c>
@@ -4244,7 +4279,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>380</v>
       </c>
@@ -4264,7 +4299,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>70</v>
       </c>
@@ -4287,7 +4322,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>243</v>
       </c>
@@ -4308,7 +4343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>71</v>
       </c>
@@ -4328,7 +4363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>379</v>
       </c>
@@ -4348,7 +4383,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>72</v>
       </c>
@@ -4368,7 +4403,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -4391,7 +4426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -4414,7 +4449,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>76</v>
       </c>
@@ -4437,7 +4472,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -4457,7 +4492,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>78</v>
       </c>
@@ -4480,7 +4515,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>80</v>
       </c>
@@ -4503,7 +4538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>320</v>
       </c>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="424">
   <si>
     <t>Nombre</t>
   </si>
@@ -1290,6 +1290,15 @@
   </si>
   <si>
     <t>Ventilador Cuello Portátil 5 Modos Usb Recargable Silencioso</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2198847593-ventilador-cuello-portatil-5-modos-usb-recargable-silencioso-_JM?quantity=1&amp;variation_id=186278346493</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_685542-MLM83342993232_042025-N.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_998777-MLM54133192046_032023-F-mini-aire-acondicionado-portatil-enfriador-clima-escritorio.webp</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1791,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1937,9 @@
       <c r="D7" s="4">
         <v>150</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>419</v>
       </c>
@@ -1963,8 +1974,12 @@
       <c r="D9" s="4">
         <v>180</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5164,11 +5179,14 @@
     <hyperlink ref="F15"/>
     <hyperlink ref="E15" r:id="rId243"/>
     <hyperlink ref="F7" r:id="rId244"/>
+    <hyperlink ref="F9" r:id="rId245"/>
+    <hyperlink ref="E9" r:id="rId246"/>
+    <hyperlink ref="E7" r:id="rId247"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId245"/>
+  <pageSetup orientation="portrait" r:id="rId248"/>
   <tableParts count="1">
-    <tablePart r:id="rId246"/>
+    <tablePart r:id="rId249"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1274,9 +1274,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_852898-MLM83287644689_032025-F-purificador-de-aire-gcz-filtro-hepa-wifi-casaoficina-blanco.webp</t>
   </si>
   <si>
-    <t>Lámparas De Techo Con Ventilador, Apto Para E26/e27, 40w Con Mando A Distancia, Ventilador De Techo Con Luz De Cristal De 52cm Para Dormitorio, Salón, Estudio, Comedor, Oficina, Garaje</t>
-  </si>
-  <si>
     <t>https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2310533321#&amp;gid=1&amp;pid=1</t>
   </si>
   <si>
@@ -1299,6 +1296,9 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_998777-MLM54133192046_032023-F-mini-aire-acondicionado-portatil-enfriador-clima-escritorio.webp</t>
+  </si>
+  <si>
+    <t>Lámparas De Techo Con Ventilador, Apto Para E26/e27, 40w Con Mando A Distancia</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1791,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>204</v>
@@ -1938,10 +1938,10 @@
         <v>150</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="4">
         <v>398</v>
@@ -1975,10 +1975,10 @@
         <v>180</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,6 +2031,9 @@
       <c r="C12" s="4">
         <v>690</v>
       </c>
+      <c r="D12" s="4">
+        <v>500</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>407</v>
       </c>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
         <v>204</v>
@@ -2092,10 +2095,10 @@
         <v>350</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,7 +5179,7 @@
     <hyperlink ref="E13" r:id="rId240"/>
     <hyperlink ref="F14" r:id="rId241"/>
     <hyperlink ref="E14" r:id="rId242"/>
-    <hyperlink ref="F15"/>
+    <hyperlink ref="F15" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
     <hyperlink ref="E15" r:id="rId243"/>
     <hyperlink ref="F7" r:id="rId244"/>
     <hyperlink ref="F9" r:id="rId245"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$148</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="438">
   <si>
     <t>Nombre</t>
   </si>
@@ -992,9 +992,6 @@
     <t>Pantalla Smart Tv 24 Pulgadas Hikers Android Dled Hd Dolby</t>
   </si>
   <si>
-    <t>Usada como nueva</t>
-  </si>
-  <si>
     <t>Faros De Lupa Led Focos Strobe Ojos De Demonio Rojo 14000lm 100w</t>
   </si>
   <si>
@@ -1299,6 +1296,51 @@
   </si>
   <si>
     <t>Lámparas De Techo Con Ventilador, Apto Para E26/e27, 40w Con Mando A Distancia</t>
+  </si>
+  <si>
+    <t>Smarphone Doogee S Punk Pro, celular Uso Rudo</t>
+  </si>
+  <si>
+    <t>20 GB de RAM (8 GB+hasta 12GB), 512 GB</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/doogee-s-punk-pro-telefonos-moviles-resistentes-66-fhd-ips-90hz-20gb-ram-512gb-rom-con-altavoz-de-128-dbdesbloqueo-facialnfc/p/MLM45646339?pdp_filters=item_id:MLM3576990660</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_766941-MLA81788846980_012025-F.webp</t>
+  </si>
+  <si>
+    <t>Celular Tecno Spark 20 Pro, Smarphone</t>
+  </si>
+  <si>
+    <t>256gb Dual Sim Dorado 8gb Ram</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2824983104-celular-tecno-spark-20-pro-256gb-dual-sim-dorado-8gb-ram-camara-108mp-120hz-fhd-de-678-con-isla-dinamica-_JM?quantity=1&amp;variation_id=181503067147#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_711619-CBT79533515543_092024-F-celular-tecno-spark-20-pro-256gb-dual-sim-dorado-8gb-ram-camara-108mp-120hz-fhd-de-678-con-isla-dinamica.webp</t>
+  </si>
+  <si>
+    <t>Smartphone Doogee S200 5G celulares</t>
+  </si>
+  <si>
+    <t>Doble Sim Gris 256 Gb Rom 32 Gb</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_936483-MLA86470942032_062025-F.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_959106-MLA81273413048_122024-F.webp</t>
+  </si>
+  <si>
+    <t>Hikers Android Smart TV LED 43 Pulgadas Led Fhd Con Dolby/ Aac</t>
+  </si>
+  <si>
+    <t>43 Pulgadas, Full HD</t>
+  </si>
+  <si>
+    <t>24 Pulgadas, Full HD</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G144" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G148" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G148"/>
   <sortState ref="A2:G131">
     <sortCondition descending="1" ref="G1:G131"/>
   </sortState>
@@ -1788,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,356 +1894,353 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>436</v>
       </c>
       <c r="C3" s="4">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="D3" s="4">
-        <v>750</v>
+        <v>3550</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>432</v>
       </c>
       <c r="C4" s="4">
-        <v>300</v>
+        <v>11200</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6500</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>428</v>
       </c>
       <c r="C5" s="4">
-        <v>650</v>
+        <v>5500</v>
       </c>
       <c r="D5" s="4">
-        <v>450</v>
+        <v>4700</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="C6" s="4">
-        <v>200</v>
+        <v>9700</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5500</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
         <v>204</v>
       </c>
       <c r="C7" s="4">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="4">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>204</v>
       </c>
       <c r="C8" s="4">
-        <v>550</v>
-      </c>
-      <c r="D8" s="4">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>419</v>
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
       </c>
       <c r="C9" s="4">
-        <v>398</v>
+        <v>650</v>
       </c>
       <c r="D9" s="4">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="4">
-        <v>220</v>
-      </c>
-      <c r="D10" s="4">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>204</v>
       </c>
       <c r="C11" s="4">
-        <v>660</v>
+        <v>250</v>
       </c>
       <c r="D11" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
         <v>204</v>
       </c>
       <c r="C12" s="4">
-        <v>690</v>
+        <v>550</v>
       </c>
       <c r="D12" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C13" s="4">
-        <v>637</v>
+        <v>398</v>
       </c>
       <c r="D13" s="4">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
         <v>204</v>
       </c>
       <c r="C14" s="4">
-        <v>1775</v>
+        <v>220</v>
       </c>
       <c r="D14" s="4">
-        <v>1200</v>
+        <v>175</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>204</v>
       </c>
       <c r="C15" s="4">
-        <v>499</v>
+        <v>660</v>
       </c>
       <c r="D15" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="B16" t="s">
         <v>204</v>
       </c>
       <c r="C16" s="4">
-        <v>170.73</v>
+        <v>690</v>
       </c>
       <c r="D16" s="4">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4">
-        <v>133</v>
+        <v>637</v>
+      </c>
+      <c r="D17" s="4">
+        <v>300</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>204</v>
       </c>
       <c r="C18" s="4">
-        <v>299</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" t="s">
-        <v>249</v>
+        <v>1775</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>204</v>
       </c>
       <c r="C19" s="4">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="D19" s="4">
-        <v>150</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>168</v>
+        <v>350</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>204</v>
       </c>
       <c r="C20" s="4">
-        <v>279</v>
+        <v>170.73</v>
       </c>
       <c r="D20" s="4">
-        <v>180</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
         <v>249</v>
@@ -2209,22 +2248,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>204</v>
       </c>
       <c r="C21" s="4">
-        <v>212</v>
-      </c>
-      <c r="D21" s="4">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>249</v>
@@ -2232,22 +2268,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>204</v>
       </c>
       <c r="C22" s="4">
-        <v>178.03</v>
-      </c>
-      <c r="D22" s="4">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>299</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G22" t="s">
         <v>249</v>
@@ -2255,22 +2285,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>204</v>
       </c>
       <c r="C23" s="4">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="D23" s="4">
         <v>150</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>172</v>
+      <c r="E23" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
         <v>249</v>
@@ -2278,22 +2308,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>204</v>
       </c>
       <c r="C24" s="4">
-        <v>193.7</v>
+        <v>279</v>
       </c>
       <c r="D24" s="4">
-        <v>150</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>249</v>
@@ -2301,19 +2331,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>204</v>
       </c>
       <c r="C25" s="4">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="D25" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G25" t="s">
         <v>249</v>
@@ -2321,19 +2354,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>204</v>
       </c>
       <c r="C26" s="4">
-        <v>150</v>
+        <v>178.03</v>
+      </c>
+      <c r="D26" s="4">
+        <v>100</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
         <v>249</v>
@@ -2341,22 +2377,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>204</v>
       </c>
       <c r="C27" s="4">
-        <v>248.02</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
         <v>249</v>
@@ -2364,19 +2400,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="4">
-        <v>120</v>
+        <v>193.7</v>
+      </c>
+      <c r="D28" s="4">
+        <v>150</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
         <v>249</v>
@@ -2384,22 +2423,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>204</v>
       </c>
       <c r="C29" s="4">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
         <v>249</v>
@@ -2407,19 +2443,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>204</v>
       </c>
       <c r="C30" s="4">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G30" t="s">
         <v>249</v>
@@ -2427,19 +2463,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="B31" t="s">
         <v>204</v>
       </c>
       <c r="C31" s="4">
-        <v>210</v>
+        <v>248.02</v>
+      </c>
+      <c r="D31" s="4">
+        <v>180</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
         <v>249</v>
@@ -2447,22 +2486,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
         <v>249</v>
@@ -2470,45 +2506,42 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="B33" t="s">
         <v>204</v>
       </c>
       <c r="C33" s="4">
-        <v>102.22</v>
+        <v>269</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
         <v>204</v>
       </c>
       <c r="C34" s="4">
-        <v>210</v>
-      </c>
-      <c r="D34" s="4">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
         <v>249</v>
@@ -2516,22 +2549,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="4">
-        <v>166.93</v>
-      </c>
-      <c r="D35" s="4">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
         <v>249</v>
@@ -2539,22 +2569,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
         <v>204</v>
       </c>
       <c r="C36" s="4">
-        <v>99</v>
+        <v>119.4</v>
       </c>
       <c r="D36" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
         <v>249</v>
@@ -2562,45 +2592,45 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>204</v>
       </c>
       <c r="C37" s="4">
-        <v>1072.6500000000001</v>
+        <v>102.22</v>
       </c>
       <c r="D37" s="4">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>204</v>
       </c>
       <c r="C38" s="4">
-        <v>393.2</v>
+        <v>210</v>
       </c>
       <c r="D38" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
         <v>249</v>
@@ -2608,22 +2638,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>204</v>
       </c>
       <c r="C39" s="4">
-        <v>342.66</v>
+        <v>166.93</v>
       </c>
       <c r="D39" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
         <v>249</v>
@@ -2631,22 +2661,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C40" s="4">
-        <v>323.66000000000003</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
         <v>249</v>
@@ -2654,22 +2684,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>204</v>
       </c>
       <c r="C41" s="4">
-        <v>237.76</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D41" s="4">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
         <v>249</v>
@@ -2677,22 +2707,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="4">
-        <v>359</v>
+        <v>393.2</v>
       </c>
       <c r="D42" s="4">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G42" t="s">
         <v>249</v>
@@ -2700,22 +2730,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>204</v>
       </c>
       <c r="C43" s="4">
-        <v>210</v>
+        <v>342.66</v>
       </c>
       <c r="D43" s="4">
         <v>170</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>249</v>
@@ -2723,19 +2753,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>204</v>
       </c>
       <c r="C44" s="4">
-        <v>160</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D44" s="4">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G44" t="s">
         <v>249</v>
@@ -2743,19 +2776,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s">
         <v>204</v>
       </c>
       <c r="C45" s="4">
-        <v>160</v>
+        <v>237.76</v>
       </c>
       <c r="D45" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G45" t="s">
         <v>249</v>
@@ -2763,22 +2799,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
         <v>204</v>
       </c>
       <c r="C46" s="4">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="D46" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G46" t="s">
         <v>249</v>
@@ -2786,22 +2822,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
         <v>204</v>
       </c>
       <c r="C47" s="4">
-        <v>266.95999999999998</v>
+        <v>210</v>
       </c>
       <c r="D47" s="4">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
         <v>249</v>
@@ -2809,22 +2845,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>204</v>
       </c>
       <c r="C48" s="4">
-        <v>495.99</v>
+        <v>160</v>
       </c>
       <c r="D48" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="G48" t="s">
         <v>249</v>
@@ -2832,22 +2865,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>204</v>
       </c>
       <c r="C49" s="4">
-        <v>633.91</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
         <v>249</v>
@@ -2855,22 +2885,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="4">
-        <v>1064.8800000000001</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4">
-        <v>1025</v>
+        <v>100</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
         <v>249</v>
@@ -2878,22 +2908,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="4">
-        <v>758.9</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D51" s="4">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
         <v>249</v>
@@ -2901,19 +2931,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>204</v>
       </c>
       <c r="C52" s="4">
-        <v>400</v>
+        <v>495.99</v>
+      </c>
+      <c r="D52" s="4">
+        <v>350</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G52" t="s">
         <v>249</v>
@@ -2921,22 +2954,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>204</v>
       </c>
       <c r="C53" s="4">
-        <v>268</v>
+        <v>633.91</v>
       </c>
       <c r="D53" s="4">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F53" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G53" t="s">
         <v>249</v>
@@ -2944,22 +2977,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>204</v>
       </c>
       <c r="C54" s="4">
-        <v>1899</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D54" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>232</v>
+        <v>1025</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G54" t="s">
         <v>249</v>
@@ -2967,19 +3000,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>204</v>
       </c>
       <c r="C55" s="4">
-        <v>166.88</v>
+        <v>758.9</v>
       </c>
       <c r="D55" s="4">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G55" t="s">
         <v>249</v>
@@ -2987,19 +3023,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>204</v>
       </c>
       <c r="C56" s="4">
-        <v>149.99</v>
-      </c>
-      <c r="D56" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G56" t="s">
         <v>249</v>
@@ -3007,22 +3043,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>204</v>
       </c>
       <c r="C57" s="4">
-        <v>2100</v>
+        <v>268</v>
       </c>
       <c r="D57" s="4">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>129</v>
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
       </c>
       <c r="G57" t="s">
         <v>249</v>
@@ -3030,22 +3066,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>204</v>
       </c>
       <c r="C58" s="4">
-        <v>325.32</v>
+        <v>1899</v>
       </c>
       <c r="D58" s="4">
-        <v>250</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>216</v>
+        <v>1500</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
         <v>249</v>
@@ -3053,22 +3089,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>204</v>
       </c>
       <c r="C59" s="4">
-        <v>589.4</v>
+        <v>166.88</v>
       </c>
       <c r="D59" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="G59" t="s">
         <v>249</v>
@@ -3076,19 +3109,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>204</v>
       </c>
       <c r="C60" s="4">
-        <v>289</v>
+        <v>149.99</v>
+      </c>
+      <c r="D60" s="4">
+        <v>100</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
         <v>249</v>
@@ -3096,22 +3129,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>204</v>
       </c>
       <c r="C61" s="4">
-        <v>411.67</v>
+        <v>2100</v>
       </c>
       <c r="D61" s="4">
-        <v>289</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F61" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="G61" t="s">
         <v>249</v>
@@ -3119,16 +3152,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>204</v>
       </c>
       <c r="C62" s="4">
-        <v>322.36</v>
+        <v>325.32</v>
+      </c>
+      <c r="D62" s="4">
+        <v>250</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G62" t="s">
         <v>249</v>
@@ -3136,22 +3175,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>204</v>
       </c>
       <c r="C63" s="4">
-        <v>689.2</v>
+        <v>589.4</v>
       </c>
       <c r="D63" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
         <v>249</v>
@@ -3159,19 +3198,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>204</v>
       </c>
       <c r="C64" s="4">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G64" t="s">
         <v>249</v>
@@ -3179,19 +3218,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>204</v>
       </c>
       <c r="C65" s="4">
-        <v>270</v>
+        <v>411.67</v>
+      </c>
+      <c r="D65" s="4">
+        <v>289</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>219</v>
+      </c>
+      <c r="F65" t="s">
+        <v>220</v>
       </c>
       <c r="G65" t="s">
         <v>249</v>
@@ -3199,16 +3241,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s">
         <v>204</v>
       </c>
       <c r="C66" s="4">
-        <v>250</v>
+        <v>322.36</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s">
         <v>249</v>
@@ -3216,16 +3258,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
         <v>204</v>
       </c>
       <c r="C67" s="4">
-        <v>200</v>
+        <v>689.2</v>
+      </c>
+      <c r="D67" s="4">
+        <v>500</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G67" t="s">
         <v>249</v>
@@ -3233,22 +3281,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
         <v>204</v>
       </c>
       <c r="C68" s="4">
-        <v>374.7</v>
-      </c>
-      <c r="D68" s="4">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>249</v>
@@ -3256,22 +3301,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>204</v>
       </c>
       <c r="C69" s="4">
-        <v>399</v>
-      </c>
-      <c r="D69" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G69" t="s">
         <v>249</v>
@@ -3279,22 +3321,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
         <v>204</v>
       </c>
       <c r="C70" s="4">
-        <v>499</v>
-      </c>
-      <c r="D70" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="G70" t="s">
         <v>249</v>
@@ -3302,19 +3338,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
         <v>204</v>
       </c>
       <c r="C71" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="G71" t="s">
         <v>249</v>
@@ -3322,22 +3355,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
         <v>204</v>
       </c>
       <c r="C72" s="4">
-        <v>126.85</v>
+        <v>374.7</v>
       </c>
       <c r="D72" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
         <v>249</v>
@@ -3345,19 +3378,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
         <v>204</v>
       </c>
       <c r="C73" s="4">
-        <v>160</v>
+        <v>399</v>
+      </c>
+      <c r="D73" s="4">
+        <v>200</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G73" t="s">
         <v>249</v>
@@ -3365,22 +3401,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
         <v>204</v>
       </c>
       <c r="C74" s="4">
-        <v>238.9</v>
+        <v>499</v>
       </c>
       <c r="D74" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G74" t="s">
         <v>249</v>
@@ -3388,40 +3424,42 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
         <v>204</v>
       </c>
       <c r="C75" s="4">
-        <v>175</v>
-      </c>
-      <c r="D75" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G75" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
         <v>204</v>
       </c>
       <c r="C76" s="4">
-        <v>219.5</v>
+        <v>126.85</v>
       </c>
       <c r="D76" s="4">
         <v>100</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>245</v>
+        <v>230</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G76" t="s">
         <v>249</v>
@@ -3435,13 +3473,13 @@
         <v>204</v>
       </c>
       <c r="C77" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" t="s">
         <v>249</v>
@@ -3449,19 +3487,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
         <v>204</v>
       </c>
       <c r="C78" s="4">
-        <v>230</v>
+        <v>238.9</v>
+      </c>
+      <c r="D78" s="4">
+        <v>100</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G78" t="s">
         <v>249</v>
@@ -3469,45 +3510,40 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
         <v>204</v>
       </c>
       <c r="C79" s="4">
-        <v>226.52</v>
+        <v>175</v>
       </c>
       <c r="D79" s="4">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
         <v>204</v>
       </c>
       <c r="C80" s="4">
-        <v>98.26</v>
+        <v>219.5</v>
       </c>
       <c r="D80" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>148</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
         <v>249</v>
@@ -3515,22 +3551,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="B81" t="s">
         <v>204</v>
       </c>
       <c r="C81" s="4">
-        <v>299.01</v>
-      </c>
-      <c r="D81" s="4">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G81" t="s">
         <v>249</v>
@@ -3538,19 +3571,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
         <v>204</v>
       </c>
       <c r="C82" s="4">
-        <v>95.52</v>
+        <v>230</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G82" t="s">
         <v>249</v>
@@ -3558,22 +3591,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
         <v>204</v>
       </c>
       <c r="C83" s="4">
-        <v>899</v>
+        <v>226.52</v>
       </c>
       <c r="D83" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G83" t="s">
         <v>249</v>
@@ -3581,135 +3614,134 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
         <v>204</v>
       </c>
       <c r="C84" s="4">
-        <v>142</v>
+        <v>98.26</v>
       </c>
       <c r="D84" s="4">
         <v>50</v>
       </c>
       <c r="E84" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="4">
+        <v>299.01</v>
+      </c>
+      <c r="D85" s="4">
+        <v>175</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="4">
+        <v>95.52</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="4">
+        <v>899</v>
+      </c>
+      <c r="D87" s="4">
+        <v>400</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="4">
+        <v>142</v>
+      </c>
+      <c r="D88" s="4">
+        <v>50</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="13">
-        <v>375</v>
-      </c>
-      <c r="D85" s="13">
-        <v>260</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G85" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B86" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" s="13">
-        <v>200</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G86" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C87" s="13">
-        <v>295</v>
-      </c>
-      <c r="D87" s="13">
-        <v>150</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G87" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B88" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="13">
-        <v>279</v>
-      </c>
-      <c r="D88" s="13">
-        <v>150</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="14">
-        <v>4</v>
+      <c r="G88" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="13">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="D89" s="13">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="G89" s="14">
         <v>4</v>
@@ -3723,100 +3755,104 @@
         <v>204</v>
       </c>
       <c r="C90" s="13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>368</v>
+        <v>137</v>
       </c>
       <c r="G90" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
-        <v>357</v>
+      <c r="A91" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="B91" t="s">
         <v>204</v>
       </c>
       <c r="C91" s="13">
-        <v>250</v>
-      </c>
-      <c r="D91" s="13"/>
+        <v>295</v>
+      </c>
+      <c r="D91" s="13">
+        <v>150</v>
+      </c>
       <c r="E91" s="6" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G91" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>358</v>
+      <c r="A92" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
       </c>
       <c r="C92" s="13">
+        <v>279</v>
+      </c>
+      <c r="D92" s="13">
         <v>150</v>
       </c>
-      <c r="D92" s="13"/>
       <c r="E92" s="6" t="s">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G92" s="20">
+        <v>91</v>
+      </c>
+      <c r="G92" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
-        <v>329</v>
+      <c r="A93" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="B93" t="s">
         <v>204</v>
       </c>
       <c r="C93" s="13">
-        <v>400</v>
+        <v>249</v>
       </c>
       <c r="D93" s="13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G93" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
-        <v>349</v>
+      <c r="A94" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="B94" t="s">
         <v>204</v>
       </c>
       <c r="C94" s="13">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="6" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G94" s="14">
         <v>4</v>
@@ -3824,7 +3860,7 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B95" t="s">
         <v>204</v>
@@ -3834,7 +3870,7 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>354</v>
@@ -3845,45 +3881,43 @@
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
         <v>204</v>
       </c>
       <c r="C96" s="13">
-        <v>270</v>
-      </c>
-      <c r="D96" s="13">
-        <v>200</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="6" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G96" s="14">
+        <v>359</v>
+      </c>
+      <c r="G96" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
         <v>204</v>
       </c>
       <c r="C97" s="13">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="D97" s="13">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
@@ -3891,22 +3925,20 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B98" t="s">
         <v>204</v>
       </c>
       <c r="C98" s="13">
-        <v>150</v>
-      </c>
-      <c r="D98" s="13">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D98" s="13"/>
       <c r="E98" s="6" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="G98" s="14">
         <v>4</v>
@@ -3914,43 +3946,43 @@
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s">
         <v>204</v>
       </c>
       <c r="C99" s="13">
-        <v>150</v>
-      </c>
-      <c r="D99" s="13">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D99" s="13"/>
       <c r="E99" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F99" s="1"/>
+        <v>352</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="G99" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
         <v>204</v>
       </c>
       <c r="C100" s="13">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="D100" s="13">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G100" s="14">
         <v>4</v>
@@ -3958,262 +3990,269 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="13">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="D101" s="13">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F101" s="1"/>
+        <v>336</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="G101" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
         <v>204</v>
       </c>
       <c r="C102" s="13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D102" s="13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F102" s="1"/>
+        <v>338</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="G102" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>326</v>
+      <c r="A103" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="B103" t="s">
         <v>204</v>
       </c>
       <c r="C103" s="13">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="D103" s="13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>327</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F103" s="1"/>
       <c r="G103" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>68</v>
+      <c r="A104" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="B104" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="4">
-        <v>322</v>
-      </c>
-      <c r="D104" s="4">
-        <v>270</v>
+      <c r="C104" s="13">
+        <v>375</v>
+      </c>
+      <c r="D104" s="13">
+        <v>250</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G104" s="16">
+        <v>343</v>
+      </c>
+      <c r="G104" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>74</v>
+      <c r="A105" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="B105" t="s">
         <v>204</v>
       </c>
-      <c r="C105" s="4">
-        <v>310</v>
-      </c>
-      <c r="D105" s="4">
+      <c r="C105" s="13">
         <v>150</v>
       </c>
+      <c r="D105" s="13">
+        <v>100</v>
+      </c>
       <c r="E105" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="F105" s="1"/>
       <c r="G105" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>79</v>
+      <c r="A106" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="B106" t="s">
         <v>204</v>
       </c>
-      <c r="C106" s="4">
-        <v>103.9</v>
-      </c>
-      <c r="D106" s="4">
-        <v>85</v>
+      <c r="C106" s="13">
+        <v>250</v>
+      </c>
+      <c r="D106" s="13">
+        <v>200</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F106" s="1"/>
       <c r="G106" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="13">
+        <v>260</v>
+      </c>
+      <c r="D107" s="13">
+        <v>250</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G107" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="4">
+        <v>322</v>
+      </c>
+      <c r="D108" s="4">
+        <v>270</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="4">
+        <v>310</v>
+      </c>
+      <c r="D109" s="4">
+        <v>150</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>204</v>
+      </c>
+      <c r="C110" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="D110" s="4">
+        <v>85</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B107" t="s">
-        <v>204</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="B111" t="s">
+        <v>204</v>
+      </c>
+      <c r="C111" s="3">
         <v>459.07</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D111" s="3">
         <v>425</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G107" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="C108" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D108" s="3">
-        <v>235</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G108" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>376</v>
-      </c>
-      <c r="C109" s="4">
-        <v>470</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G109" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="4">
-        <v>170</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>308</v>
-      </c>
-      <c r="B111" t="s">
-        <v>376</v>
-      </c>
-      <c r="C111" s="4">
-        <v>185</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G111" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>309</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="A112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="C112" s="4">
-        <v>298</v>
-      </c>
-      <c r="D112" s="4">
-        <v>180</v>
+      <c r="C112" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D112" s="3">
+        <v>235</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G112" s="8">
         <v>2</v>
@@ -4221,88 +4260,82 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="C113" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D113" s="4">
-        <v>150</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>160</v>
+        <v>470</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G113" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>373</v>
+      <c r="A114" t="s">
+        <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C114" s="4">
-        <v>439</v>
-      </c>
-      <c r="D114" s="4">
-        <v>200</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="G114" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>30</v>
+      <c r="A115" t="s">
+        <v>308</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="C115" s="4">
-        <v>183.99</v>
+        <v>185</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G115" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>313</v>
+      <c r="A116" t="s">
+        <v>309</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="C116" s="4">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="D116" s="4">
-        <v>210</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>314</v>
+        <v>180</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="G116" s="8">
         <v>2</v>
@@ -4310,82 +4343,88 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>204</v>
       </c>
       <c r="C117" s="4">
-        <v>189.99</v>
+        <v>194.36</v>
       </c>
       <c r="D117" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G117" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>31</v>
+      <c r="A118" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>373</v>
       </c>
       <c r="C118" s="4">
-        <v>150</v>
+        <v>439</v>
+      </c>
+      <c r="D118" s="4">
+        <v>200</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="G118" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>32</v>
+      <c r="A119" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B119" t="s">
         <v>204</v>
       </c>
       <c r="C119" s="4">
-        <v>125</v>
+        <v>183.99</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G119" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>310</v>
+      <c r="A120" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="C120" s="4">
-        <v>300</v>
+        <v>230</v>
+      </c>
+      <c r="D120" s="4">
+        <v>210</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>191</v>
+        <v>314</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="G120" s="8">
         <v>2</v>
@@ -4393,19 +4432,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="B121" t="s">
         <v>204</v>
       </c>
       <c r="C121" s="4">
+        <v>189.99</v>
+      </c>
+      <c r="D121" s="4">
         <v>170</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G121" s="8">
         <v>2</v>
@@ -4413,154 +4455,145 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
         <v>204</v>
       </c>
       <c r="C122" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="G122" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>316</v>
+      <c r="A123" t="s">
+        <v>32</v>
       </c>
       <c r="B123" t="s">
         <v>204</v>
       </c>
       <c r="C123" s="4">
-        <v>130</v>
-      </c>
-      <c r="D123" s="4">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>317</v>
+        <v>110</v>
       </c>
       <c r="G123" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>307</v>
+      <c r="A124" t="s">
+        <v>310</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="C124" s="4">
-        <v>389</v>
-      </c>
-      <c r="D124" s="4">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G124" s="7">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="G124" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="B125" t="s">
         <v>204</v>
       </c>
       <c r="C125" s="4">
-        <v>138</v>
-      </c>
-      <c r="D125" s="4">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G125" s="7">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G125" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>299</v>
+      <c r="A126" t="s">
+        <v>34</v>
       </c>
       <c r="B126" t="s">
         <v>204</v>
       </c>
       <c r="C126" s="4">
-        <v>135</v>
-      </c>
-      <c r="D126" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G126" s="7">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G126" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
         <v>204</v>
       </c>
       <c r="C127" s="4">
-        <v>150</v>
+        <v>130</v>
+      </c>
+      <c r="D127" s="4">
+        <v>90</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G127" s="7">
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="G127" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="B128" t="s">
         <v>204</v>
       </c>
       <c r="C128" s="4">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="D128" s="4">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G128" s="7">
         <v>1</v>
@@ -4568,88 +4601,88 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="C129" s="4">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D129" s="4">
         <v>100</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G129" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>289</v>
+      <c r="A130" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="C130" s="4">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D130" s="4">
-        <v>50</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" t="s">
-        <v>285</v>
+        <v>100</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="G130" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>287</v>
+      <c r="A131" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B131" t="s">
         <v>204</v>
       </c>
       <c r="C131" s="4">
-        <v>200</v>
-      </c>
-      <c r="D131" s="4">
         <v>150</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="G131" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>283</v>
+      <c r="A132" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="B132" t="s">
         <v>204</v>
       </c>
       <c r="C132" s="4">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D132" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F132" t="s">
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="G132" s="7">
         <v>1</v>
@@ -4657,68 +4690,65 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="C133" s="4">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D133" s="4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G133" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>277</v>
+      <c r="A134" t="s">
+        <v>289</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="C134" s="4">
-        <v>569</v>
+        <v>120</v>
       </c>
       <c r="D134" s="4">
-        <v>390</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>279</v>
+        <v>50</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F134" t="s">
+        <v>285</v>
       </c>
       <c r="G134" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>274</v>
+      <c r="A135" t="s">
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="C135" s="4">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D135" s="4">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G135" s="7">
         <v>1</v>
@@ -4726,22 +4756,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B136" t="s">
         <v>204</v>
       </c>
       <c r="C136" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D136" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
+      </c>
+      <c r="F136" t="s">
+        <v>285</v>
       </c>
       <c r="G136" s="7">
         <v>1</v>
@@ -4749,22 +4779,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B137" t="s">
         <v>204</v>
       </c>
       <c r="C137" s="4">
-        <v>498</v>
+        <v>160</v>
       </c>
       <c r="D137" s="4">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
@@ -4772,22 +4802,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
         <v>204</v>
       </c>
       <c r="C138" s="4">
-        <v>179</v>
+        <v>569</v>
       </c>
       <c r="D138" s="4">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
@@ -4795,91 +4825,91 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="C139" s="4">
-        <v>719</v>
+        <v>298</v>
       </c>
       <c r="D139" s="4">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>259</v>
+      <c r="A140" t="s">
+        <v>270</v>
       </c>
       <c r="B140" t="s">
         <v>204</v>
       </c>
       <c r="C140" s="4">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="D140" s="4">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>258</v>
+      <c r="A141" t="s">
+        <v>267</v>
       </c>
       <c r="B141" t="s">
         <v>204</v>
       </c>
       <c r="C141" s="4">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="D141" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>253</v>
+      <c r="A142" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B142" t="s">
         <v>204</v>
       </c>
       <c r="C142" s="4">
-        <v>353</v>
+        <v>179</v>
       </c>
       <c r="D142" s="4">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -4887,309 +4917,409 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="B143" t="s">
         <v>204</v>
       </c>
       <c r="C143" s="4">
-        <v>500</v>
+        <v>719</v>
+      </c>
+      <c r="D143" s="4">
+        <v>230</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" t="s">
+        <v>204</v>
+      </c>
+      <c r="C144" s="4">
+        <v>348</v>
+      </c>
+      <c r="D144" s="4">
+        <v>218</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>204</v>
+      </c>
+      <c r="C145" s="4">
+        <v>347</v>
+      </c>
+      <c r="D145" s="4">
+        <v>220</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B146" t="s">
+        <v>204</v>
+      </c>
+      <c r="C146" s="4">
+        <v>353</v>
+      </c>
+      <c r="D146" s="4">
+        <v>290</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B147" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="4">
+        <v>500</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B144" t="s">
-        <v>321</v>
-      </c>
-      <c r="C144" s="4">
+      <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" s="4">
         <v>2300</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D148" s="4">
         <v>1800</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E148" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="9"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F84" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F106" r:id="rId1"/>
-    <hyperlink ref="F82" r:id="rId2"/>
-    <hyperlink ref="F83" r:id="rId3"/>
-    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F80" r:id="rId4"/>
-    <hyperlink ref="F105" r:id="rId5"/>
-    <hyperlink ref="F79" r:id="rId6"/>
-    <hyperlink ref="F78" r:id="rId7"/>
-    <hyperlink ref="F77" r:id="rId8"/>
-    <hyperlink ref="F74" r:id="rId9"/>
-    <hyperlink ref="F71" r:id="rId10"/>
-    <hyperlink ref="F70" r:id="rId11"/>
-    <hyperlink ref="F73" r:id="rId12"/>
-    <hyperlink ref="F72" r:id="rId13"/>
-    <hyperlink ref="F104" r:id="rId14"/>
-    <hyperlink ref="F69" r:id="rId15"/>
-    <hyperlink ref="F68" r:id="rId16"/>
-    <hyperlink ref="F65" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F64" r:id="rId17"/>
-    <hyperlink ref="F63" r:id="rId18"/>
-    <hyperlink ref="F60" r:id="rId19"/>
-    <hyperlink ref="F59" r:id="rId20"/>
-    <hyperlink ref="F58" r:id="rId21"/>
-    <hyperlink ref="F57" r:id="rId22"/>
-    <hyperlink ref="F54" r:id="rId23"/>
-    <hyperlink ref="F52" r:id="rId24"/>
-    <hyperlink ref="F51" r:id="rId25"/>
-    <hyperlink ref="F50" r:id="rId26"/>
-    <hyperlink ref="F49" r:id="rId27"/>
-    <hyperlink ref="F48" r:id="rId28"/>
-    <hyperlink ref="F47" r:id="rId29"/>
-    <hyperlink ref="F46" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F43" r:id="rId30"/>
-    <hyperlink ref="F42" r:id="rId31"/>
-    <hyperlink ref="F41" r:id="rId32"/>
-    <hyperlink ref="F40" r:id="rId33"/>
-    <hyperlink ref="F38" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F37" r:id="rId34"/>
-    <hyperlink ref="F122" r:id="rId35"/>
-    <hyperlink ref="F121" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F120" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F115" r:id="rId36"/>
-    <hyperlink ref="F117" r:id="rId37"/>
-    <hyperlink ref="F119" r:id="rId38"/>
-    <hyperlink ref="F114" r:id="rId39"/>
-    <hyperlink ref="F36" r:id="rId40"/>
-    <hyperlink ref="F35" r:id="rId41"/>
-    <hyperlink ref="F34" r:id="rId42"/>
-    <hyperlink ref="F33" r:id="rId43"/>
-    <hyperlink ref="F32" r:id="rId44"/>
-    <hyperlink ref="F31" r:id="rId45"/>
-    <hyperlink ref="F30" r:id="rId46"/>
-    <hyperlink ref="F29" r:id="rId47"/>
-    <hyperlink ref="F28" r:id="rId48"/>
-    <hyperlink ref="F27" r:id="rId49"/>
-    <hyperlink ref="F24" r:id="rId50"/>
-    <hyperlink ref="F26" r:id="rId51"/>
-    <hyperlink ref="F23" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F22" r:id="rId52"/>
-    <hyperlink ref="F21" r:id="rId53"/>
-    <hyperlink ref="F19" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F20" r:id="rId54"/>
-    <hyperlink ref="F16" r:id="rId55"/>
-    <hyperlink ref="F17" r:id="rId56"/>
+    <hyperlink ref="F88" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F110" r:id="rId1"/>
+    <hyperlink ref="F86" r:id="rId2"/>
+    <hyperlink ref="F87" r:id="rId3"/>
+    <hyperlink ref="F85" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F84" r:id="rId4"/>
+    <hyperlink ref="F109" r:id="rId5"/>
+    <hyperlink ref="F83" r:id="rId6"/>
+    <hyperlink ref="F82" r:id="rId7"/>
+    <hyperlink ref="F81" r:id="rId8"/>
+    <hyperlink ref="F78" r:id="rId9"/>
+    <hyperlink ref="F75" r:id="rId10"/>
+    <hyperlink ref="F74" r:id="rId11"/>
+    <hyperlink ref="F77" r:id="rId12"/>
+    <hyperlink ref="F76" r:id="rId13"/>
+    <hyperlink ref="F108" r:id="rId14"/>
+    <hyperlink ref="F73" r:id="rId15"/>
+    <hyperlink ref="F72" r:id="rId16"/>
+    <hyperlink ref="F69" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F68" r:id="rId17"/>
+    <hyperlink ref="F67" r:id="rId18"/>
+    <hyperlink ref="F64" r:id="rId19"/>
+    <hyperlink ref="F63" r:id="rId20"/>
+    <hyperlink ref="F62" r:id="rId21"/>
+    <hyperlink ref="F61" r:id="rId22"/>
+    <hyperlink ref="F58" r:id="rId23"/>
+    <hyperlink ref="F56" r:id="rId24"/>
+    <hyperlink ref="F55" r:id="rId25"/>
+    <hyperlink ref="F54" r:id="rId26"/>
+    <hyperlink ref="F53" r:id="rId27"/>
+    <hyperlink ref="F52" r:id="rId28"/>
+    <hyperlink ref="F51" r:id="rId29"/>
+    <hyperlink ref="F50" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F47" r:id="rId30"/>
+    <hyperlink ref="F46" r:id="rId31"/>
+    <hyperlink ref="F45" r:id="rId32"/>
+    <hyperlink ref="F44" r:id="rId33"/>
+    <hyperlink ref="F42" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F41" r:id="rId34"/>
+    <hyperlink ref="F126" r:id="rId35"/>
+    <hyperlink ref="F125" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F124" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F119" r:id="rId36"/>
+    <hyperlink ref="F121" r:id="rId37"/>
+    <hyperlink ref="F123" r:id="rId38"/>
+    <hyperlink ref="F118" r:id="rId39"/>
+    <hyperlink ref="F40" r:id="rId40"/>
+    <hyperlink ref="F39" r:id="rId41"/>
+    <hyperlink ref="F38" r:id="rId42"/>
+    <hyperlink ref="F37" r:id="rId43"/>
+    <hyperlink ref="F36" r:id="rId44"/>
+    <hyperlink ref="F35" r:id="rId45"/>
+    <hyperlink ref="F34" r:id="rId46"/>
+    <hyperlink ref="F33" r:id="rId47"/>
+    <hyperlink ref="F32" r:id="rId48"/>
+    <hyperlink ref="F31" r:id="rId49"/>
+    <hyperlink ref="F28" r:id="rId50"/>
+    <hyperlink ref="F30" r:id="rId51"/>
+    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F26" r:id="rId52"/>
+    <hyperlink ref="F25" r:id="rId53"/>
+    <hyperlink ref="F23" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F24" r:id="rId54"/>
+    <hyperlink ref="F20" r:id="rId55"/>
+    <hyperlink ref="F21" r:id="rId56"/>
     <hyperlink ref="F2" r:id="rId57"/>
-    <hyperlink ref="F112" r:id="rId58"/>
-    <hyperlink ref="F111" r:id="rId59"/>
-    <hyperlink ref="F113" r:id="rId60"/>
-    <hyperlink ref="F110" r:id="rId61"/>
-    <hyperlink ref="F109" r:id="rId62"/>
-    <hyperlink ref="F108" r:id="rId63"/>
-    <hyperlink ref="F107" r:id="rId64"/>
-    <hyperlink ref="E107" r:id="rId65"/>
-    <hyperlink ref="E111" r:id="rId66"/>
-    <hyperlink ref="E113" r:id="rId67"/>
+    <hyperlink ref="F116" r:id="rId58"/>
+    <hyperlink ref="F115" r:id="rId59"/>
+    <hyperlink ref="F117" r:id="rId60"/>
+    <hyperlink ref="F114" r:id="rId61"/>
+    <hyperlink ref="F113" r:id="rId62"/>
+    <hyperlink ref="F112" r:id="rId63"/>
+    <hyperlink ref="F111" r:id="rId64"/>
+    <hyperlink ref="E111" r:id="rId65"/>
+    <hyperlink ref="E115" r:id="rId66"/>
+    <hyperlink ref="E117" r:id="rId67"/>
     <hyperlink ref="E2" r:id="rId68"/>
-    <hyperlink ref="E16" r:id="rId69"/>
-    <hyperlink ref="E17" r:id="rId70"/>
-    <hyperlink ref="E19" r:id="rId71"/>
-    <hyperlink ref="E20" r:id="rId72"/>
-    <hyperlink ref="E21" r:id="rId73"/>
-    <hyperlink ref="E22" r:id="rId74"/>
-    <hyperlink ref="E24" r:id="rId75"/>
-    <hyperlink ref="E23" r:id="rId76"/>
-    <hyperlink ref="E25" r:id="rId77"/>
-    <hyperlink ref="E26" r:id="rId78"/>
-    <hyperlink ref="E27" r:id="rId79"/>
-    <hyperlink ref="E28" r:id="rId80"/>
-    <hyperlink ref="E29" r:id="rId81"/>
-    <hyperlink ref="E30" r:id="rId82"/>
-    <hyperlink ref="E31" r:id="rId83"/>
-    <hyperlink ref="E32" r:id="rId84"/>
-    <hyperlink ref="E33" r:id="rId85"/>
-    <hyperlink ref="E34" r:id="rId86"/>
-    <hyperlink ref="E35" r:id="rId87"/>
-    <hyperlink ref="E36" r:id="rId88"/>
-    <hyperlink ref="E114" r:id="rId89"/>
-    <hyperlink ref="E115" r:id="rId90"/>
-    <hyperlink ref="E117" r:id="rId91"/>
-    <hyperlink ref="E118" r:id="rId92"/>
-    <hyperlink ref="E119" r:id="rId93"/>
-    <hyperlink ref="E120" r:id="rId94"/>
-    <hyperlink ref="E121" r:id="rId95"/>
-    <hyperlink ref="E122" r:id="rId96"/>
-    <hyperlink ref="E37" r:id="rId97"/>
-    <hyperlink ref="E38" r:id="rId98"/>
-    <hyperlink ref="E39" r:id="rId99"/>
-    <hyperlink ref="F39" r:id="rId100"/>
-    <hyperlink ref="E40" r:id="rId101"/>
-    <hyperlink ref="E41" r:id="rId102"/>
-    <hyperlink ref="E42" r:id="rId103"/>
-    <hyperlink ref="E44" r:id="rId104"/>
-    <hyperlink ref="E45" r:id="rId105"/>
-    <hyperlink ref="E43" r:id="rId106"/>
-    <hyperlink ref="E46" r:id="rId107"/>
-    <hyperlink ref="E47" r:id="rId108"/>
-    <hyperlink ref="E48" r:id="rId109"/>
-    <hyperlink ref="E49" r:id="rId110"/>
-    <hyperlink ref="E50" r:id="rId111"/>
-    <hyperlink ref="E51" r:id="rId112"/>
-    <hyperlink ref="E52" r:id="rId113"/>
-    <hyperlink ref="E53" r:id="rId114"/>
-    <hyperlink ref="E57" r:id="rId115"/>
-    <hyperlink ref="E56" r:id="rId116"/>
-    <hyperlink ref="E55" r:id="rId117"/>
-    <hyperlink ref="E58" r:id="rId118"/>
-    <hyperlink ref="E59" r:id="rId119"/>
-    <hyperlink ref="E60" r:id="rId120"/>
-    <hyperlink ref="E61" r:id="rId121"/>
-    <hyperlink ref="E62" r:id="rId122"/>
-    <hyperlink ref="E63" r:id="rId123"/>
-    <hyperlink ref="E64" r:id="rId124"/>
-    <hyperlink ref="E65" r:id="rId125"/>
-    <hyperlink ref="E68" r:id="rId126"/>
-    <hyperlink ref="E69" r:id="rId127"/>
-    <hyperlink ref="E70" r:id="rId128"/>
-    <hyperlink ref="E71" r:id="rId129"/>
-    <hyperlink ref="E104" r:id="rId130"/>
-    <hyperlink ref="E72" r:id="rId131"/>
-    <hyperlink ref="E73" r:id="rId132"/>
-    <hyperlink ref="E74" r:id="rId133"/>
-    <hyperlink ref="E54" r:id="rId134"/>
-    <hyperlink ref="E77" r:id="rId135"/>
-    <hyperlink ref="E78" r:id="rId136"/>
-    <hyperlink ref="E79" r:id="rId137"/>
-    <hyperlink ref="E105" r:id="rId138"/>
-    <hyperlink ref="E80" r:id="rId139"/>
-    <hyperlink ref="E81" r:id="rId140"/>
-    <hyperlink ref="E82" r:id="rId141"/>
-    <hyperlink ref="E83" r:id="rId142"/>
-    <hyperlink ref="E106" r:id="rId143"/>
-    <hyperlink ref="E84" r:id="rId144"/>
-    <hyperlink ref="E75" r:id="rId145"/>
-    <hyperlink ref="E76" r:id="rId146"/>
-    <hyperlink ref="E66" r:id="rId147"/>
-    <hyperlink ref="E67" r:id="rId148"/>
-    <hyperlink ref="F143" r:id="rId149"/>
-    <hyperlink ref="E143" r:id="rId150"/>
-    <hyperlink ref="F142" r:id="rId151"/>
-    <hyperlink ref="E142" r:id="rId152"/>
-    <hyperlink ref="F141" r:id="rId153"/>
-    <hyperlink ref="E141" r:id="rId154"/>
-    <hyperlink ref="F140" r:id="rId155"/>
-    <hyperlink ref="E140" r:id="rId156"/>
-    <hyperlink ref="F139" r:id="rId157"/>
-    <hyperlink ref="E139" r:id="rId158"/>
-    <hyperlink ref="F138" r:id="rId159"/>
-    <hyperlink ref="E138" r:id="rId160"/>
-    <hyperlink ref="F137" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E137" r:id="rId161"/>
-    <hyperlink ref="F136" r:id="rId162"/>
-    <hyperlink ref="E136" r:id="rId163"/>
-    <hyperlink ref="E135" r:id="rId164"/>
-    <hyperlink ref="F135" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F134" r:id="rId166"/>
-    <hyperlink ref="E134" r:id="rId167"/>
-    <hyperlink ref="F133" r:id="rId168"/>
-    <hyperlink ref="E133" r:id="rId169"/>
-    <hyperlink ref="E132" r:id="rId170"/>
-    <hyperlink ref="E131" r:id="rId171"/>
-    <hyperlink ref="E129" r:id="rId172"/>
-    <hyperlink ref="F129" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F128" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E128" r:id="rId174"/>
-    <hyperlink ref="F127" r:id="rId175"/>
-    <hyperlink ref="E127" r:id="rId176"/>
-    <hyperlink ref="F126" r:id="rId177"/>
-    <hyperlink ref="E126" r:id="rId178"/>
-    <hyperlink ref="E125" r:id="rId179"/>
-    <hyperlink ref="F125" r:id="rId180"/>
-    <hyperlink ref="E124" r:id="rId181"/>
-    <hyperlink ref="F124" r:id="rId182"/>
-    <hyperlink ref="E116" r:id="rId183"/>
-    <hyperlink ref="F116" r:id="rId184"/>
-    <hyperlink ref="F123" r:id="rId185"/>
-    <hyperlink ref="E123" r:id="rId186"/>
-    <hyperlink ref="E144" r:id="rId187"/>
-    <hyperlink ref="F85" r:id="rId188"/>
-    <hyperlink ref="E85" r:id="rId189"/>
-    <hyperlink ref="F103" r:id="rId190"/>
-    <hyperlink ref="E103" r:id="rId191"/>
-    <hyperlink ref="F93" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E93" r:id="rId193"/>
-    <hyperlink ref="F96" r:id="rId194"/>
-    <hyperlink ref="E96" r:id="rId195"/>
-    <hyperlink ref="F97" r:id="rId196"/>
-    <hyperlink ref="E97" r:id="rId197"/>
-    <hyperlink ref="E98" r:id="rId198"/>
-    <hyperlink ref="E99" r:id="rId199"/>
-    <hyperlink ref="E100" r:id="rId200"/>
-    <hyperlink ref="F100" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E102" r:id="rId202"/>
-    <hyperlink ref="E101" r:id="rId203"/>
-    <hyperlink ref="E94" r:id="rId204"/>
-    <hyperlink ref="F94" r:id="rId205"/>
-    <hyperlink ref="E95" r:id="rId206"/>
-    <hyperlink ref="F95" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F91" r:id="rId208"/>
-    <hyperlink ref="E91" r:id="rId209"/>
-    <hyperlink ref="E92" r:id="rId210"/>
-    <hyperlink ref="F92" r:id="rId211"/>
-    <hyperlink ref="F87" r:id="rId212"/>
-    <hyperlink ref="E87" r:id="rId213"/>
-    <hyperlink ref="E88" r:id="rId214"/>
-    <hyperlink ref="F88" r:id="rId215"/>
-    <hyperlink ref="F89" r:id="rId216"/>
-    <hyperlink ref="E89" r:id="rId217"/>
-    <hyperlink ref="F90" r:id="rId218"/>
-    <hyperlink ref="E90" r:id="rId219"/>
-    <hyperlink ref="F86" r:id="rId220"/>
-    <hyperlink ref="E86" r:id="rId221"/>
-    <hyperlink ref="E110" r:id="rId222"/>
-    <hyperlink ref="F3" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E3" r:id="rId224"/>
-    <hyperlink ref="F4" r:id="rId225"/>
-    <hyperlink ref="E4" r:id="rId226"/>
-    <hyperlink ref="F5" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E5" r:id="rId228"/>
-    <hyperlink ref="F6" r:id="rId229"/>
-    <hyperlink ref="E6" r:id="rId230"/>
-    <hyperlink ref="F8" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E8" r:id="rId232"/>
-    <hyperlink ref="F10" r:id="rId233"/>
-    <hyperlink ref="E10" r:id="rId234"/>
-    <hyperlink ref="F11" r:id="rId235"/>
-    <hyperlink ref="E11" r:id="rId236"/>
-    <hyperlink ref="F12" r:id="rId237"/>
-    <hyperlink ref="E12" r:id="rId238"/>
-    <hyperlink ref="F13" r:id="rId239"/>
-    <hyperlink ref="E13" r:id="rId240"/>
-    <hyperlink ref="F14" r:id="rId241"/>
-    <hyperlink ref="E14" r:id="rId242"/>
-    <hyperlink ref="F15" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E15" r:id="rId243"/>
-    <hyperlink ref="F7" r:id="rId244"/>
-    <hyperlink ref="F9" r:id="rId245"/>
-    <hyperlink ref="E9" r:id="rId246"/>
-    <hyperlink ref="E7" r:id="rId247"/>
+    <hyperlink ref="E20" r:id="rId69"/>
+    <hyperlink ref="E21" r:id="rId70"/>
+    <hyperlink ref="E23" r:id="rId71"/>
+    <hyperlink ref="E24" r:id="rId72"/>
+    <hyperlink ref="E25" r:id="rId73"/>
+    <hyperlink ref="E26" r:id="rId74"/>
+    <hyperlink ref="E28" r:id="rId75"/>
+    <hyperlink ref="E27" r:id="rId76"/>
+    <hyperlink ref="E29" r:id="rId77"/>
+    <hyperlink ref="E30" r:id="rId78"/>
+    <hyperlink ref="E31" r:id="rId79"/>
+    <hyperlink ref="E32" r:id="rId80"/>
+    <hyperlink ref="E33" r:id="rId81"/>
+    <hyperlink ref="E34" r:id="rId82"/>
+    <hyperlink ref="E35" r:id="rId83"/>
+    <hyperlink ref="E36" r:id="rId84"/>
+    <hyperlink ref="E37" r:id="rId85"/>
+    <hyperlink ref="E38" r:id="rId86"/>
+    <hyperlink ref="E39" r:id="rId87"/>
+    <hyperlink ref="E40" r:id="rId88"/>
+    <hyperlink ref="E118" r:id="rId89"/>
+    <hyperlink ref="E119" r:id="rId90"/>
+    <hyperlink ref="E121" r:id="rId91"/>
+    <hyperlink ref="E122" r:id="rId92"/>
+    <hyperlink ref="E123" r:id="rId93"/>
+    <hyperlink ref="E124" r:id="rId94"/>
+    <hyperlink ref="E125" r:id="rId95"/>
+    <hyperlink ref="E126" r:id="rId96"/>
+    <hyperlink ref="E41" r:id="rId97"/>
+    <hyperlink ref="E42" r:id="rId98"/>
+    <hyperlink ref="E43" r:id="rId99"/>
+    <hyperlink ref="F43" r:id="rId100"/>
+    <hyperlink ref="E44" r:id="rId101"/>
+    <hyperlink ref="E45" r:id="rId102"/>
+    <hyperlink ref="E46" r:id="rId103"/>
+    <hyperlink ref="E48" r:id="rId104"/>
+    <hyperlink ref="E49" r:id="rId105"/>
+    <hyperlink ref="E47" r:id="rId106"/>
+    <hyperlink ref="E50" r:id="rId107"/>
+    <hyperlink ref="E51" r:id="rId108"/>
+    <hyperlink ref="E52" r:id="rId109"/>
+    <hyperlink ref="E53" r:id="rId110"/>
+    <hyperlink ref="E54" r:id="rId111"/>
+    <hyperlink ref="E55" r:id="rId112"/>
+    <hyperlink ref="E56" r:id="rId113"/>
+    <hyperlink ref="E57" r:id="rId114"/>
+    <hyperlink ref="E61" r:id="rId115"/>
+    <hyperlink ref="E60" r:id="rId116"/>
+    <hyperlink ref="E59" r:id="rId117"/>
+    <hyperlink ref="E62" r:id="rId118"/>
+    <hyperlink ref="E63" r:id="rId119"/>
+    <hyperlink ref="E64" r:id="rId120"/>
+    <hyperlink ref="E65" r:id="rId121"/>
+    <hyperlink ref="E66" r:id="rId122"/>
+    <hyperlink ref="E67" r:id="rId123"/>
+    <hyperlink ref="E68" r:id="rId124"/>
+    <hyperlink ref="E69" r:id="rId125"/>
+    <hyperlink ref="E72" r:id="rId126"/>
+    <hyperlink ref="E73" r:id="rId127"/>
+    <hyperlink ref="E74" r:id="rId128"/>
+    <hyperlink ref="E75" r:id="rId129"/>
+    <hyperlink ref="E108" r:id="rId130"/>
+    <hyperlink ref="E76" r:id="rId131"/>
+    <hyperlink ref="E77" r:id="rId132"/>
+    <hyperlink ref="E78" r:id="rId133"/>
+    <hyperlink ref="E58" r:id="rId134"/>
+    <hyperlink ref="E81" r:id="rId135"/>
+    <hyperlink ref="E82" r:id="rId136"/>
+    <hyperlink ref="E83" r:id="rId137"/>
+    <hyperlink ref="E109" r:id="rId138"/>
+    <hyperlink ref="E84" r:id="rId139"/>
+    <hyperlink ref="E85" r:id="rId140"/>
+    <hyperlink ref="E86" r:id="rId141"/>
+    <hyperlink ref="E87" r:id="rId142"/>
+    <hyperlink ref="E110" r:id="rId143"/>
+    <hyperlink ref="E88" r:id="rId144"/>
+    <hyperlink ref="E79" r:id="rId145"/>
+    <hyperlink ref="E80" r:id="rId146"/>
+    <hyperlink ref="E70" r:id="rId147"/>
+    <hyperlink ref="E71" r:id="rId148"/>
+    <hyperlink ref="F147" r:id="rId149"/>
+    <hyperlink ref="E147" r:id="rId150"/>
+    <hyperlink ref="F146" r:id="rId151"/>
+    <hyperlink ref="E146" r:id="rId152"/>
+    <hyperlink ref="F145" r:id="rId153"/>
+    <hyperlink ref="E145" r:id="rId154"/>
+    <hyperlink ref="F144" r:id="rId155"/>
+    <hyperlink ref="E144" r:id="rId156"/>
+    <hyperlink ref="F143" r:id="rId157"/>
+    <hyperlink ref="E143" r:id="rId158"/>
+    <hyperlink ref="F142" r:id="rId159"/>
+    <hyperlink ref="E142" r:id="rId160"/>
+    <hyperlink ref="F141" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E141" r:id="rId161"/>
+    <hyperlink ref="F140" r:id="rId162"/>
+    <hyperlink ref="E140" r:id="rId163"/>
+    <hyperlink ref="E139" r:id="rId164"/>
+    <hyperlink ref="F139" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F138" r:id="rId166"/>
+    <hyperlink ref="E138" r:id="rId167"/>
+    <hyperlink ref="F137" r:id="rId168"/>
+    <hyperlink ref="E137" r:id="rId169"/>
+    <hyperlink ref="E136" r:id="rId170"/>
+    <hyperlink ref="E135" r:id="rId171"/>
+    <hyperlink ref="E133" r:id="rId172"/>
+    <hyperlink ref="F133" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F132" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E132" r:id="rId174"/>
+    <hyperlink ref="F131" r:id="rId175"/>
+    <hyperlink ref="E131" r:id="rId176"/>
+    <hyperlink ref="F130" r:id="rId177"/>
+    <hyperlink ref="E130" r:id="rId178"/>
+    <hyperlink ref="E129" r:id="rId179"/>
+    <hyperlink ref="F129" r:id="rId180"/>
+    <hyperlink ref="E128" r:id="rId181"/>
+    <hyperlink ref="F128" r:id="rId182"/>
+    <hyperlink ref="E120" r:id="rId183"/>
+    <hyperlink ref="F120" r:id="rId184"/>
+    <hyperlink ref="F127" r:id="rId185"/>
+    <hyperlink ref="E127" r:id="rId186"/>
+    <hyperlink ref="E148" r:id="rId187"/>
+    <hyperlink ref="F89" r:id="rId188"/>
+    <hyperlink ref="E89" r:id="rId189"/>
+    <hyperlink ref="F107" r:id="rId190"/>
+    <hyperlink ref="E107" r:id="rId191"/>
+    <hyperlink ref="F97" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E97" r:id="rId193"/>
+    <hyperlink ref="F100" r:id="rId194"/>
+    <hyperlink ref="E100" r:id="rId195"/>
+    <hyperlink ref="F101" r:id="rId196"/>
+    <hyperlink ref="E101" r:id="rId197"/>
+    <hyperlink ref="E102" r:id="rId198"/>
+    <hyperlink ref="E103" r:id="rId199"/>
+    <hyperlink ref="E104" r:id="rId200"/>
+    <hyperlink ref="F104" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E106" r:id="rId202"/>
+    <hyperlink ref="E105" r:id="rId203"/>
+    <hyperlink ref="E98" r:id="rId204"/>
+    <hyperlink ref="F98" r:id="rId205"/>
+    <hyperlink ref="E99" r:id="rId206"/>
+    <hyperlink ref="F99" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F95" r:id="rId208"/>
+    <hyperlink ref="E95" r:id="rId209"/>
+    <hyperlink ref="E96" r:id="rId210"/>
+    <hyperlink ref="F96" r:id="rId211"/>
+    <hyperlink ref="F91" r:id="rId212"/>
+    <hyperlink ref="E91" r:id="rId213"/>
+    <hyperlink ref="E92" r:id="rId214"/>
+    <hyperlink ref="F92" r:id="rId215"/>
+    <hyperlink ref="F93" r:id="rId216"/>
+    <hyperlink ref="E93" r:id="rId217"/>
+    <hyperlink ref="F94" r:id="rId218"/>
+    <hyperlink ref="E94" r:id="rId219"/>
+    <hyperlink ref="F90" r:id="rId220"/>
+    <hyperlink ref="E90" r:id="rId221"/>
+    <hyperlink ref="E114" r:id="rId222"/>
+    <hyperlink ref="F7" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E7" r:id="rId224"/>
+    <hyperlink ref="F8" r:id="rId225"/>
+    <hyperlink ref="E8" r:id="rId226"/>
+    <hyperlink ref="F9" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E9" r:id="rId228"/>
+    <hyperlink ref="F10" r:id="rId229"/>
+    <hyperlink ref="E10" r:id="rId230"/>
+    <hyperlink ref="F12" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E12" r:id="rId232"/>
+    <hyperlink ref="F14" r:id="rId233"/>
+    <hyperlink ref="E14" r:id="rId234"/>
+    <hyperlink ref="F15" r:id="rId235"/>
+    <hyperlink ref="E15" r:id="rId236"/>
+    <hyperlink ref="F16" r:id="rId237"/>
+    <hyperlink ref="E16" r:id="rId238"/>
+    <hyperlink ref="F17" r:id="rId239"/>
+    <hyperlink ref="E17" r:id="rId240"/>
+    <hyperlink ref="F18" r:id="rId241"/>
+    <hyperlink ref="E18" r:id="rId242"/>
+    <hyperlink ref="F19" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E19" r:id="rId243"/>
+    <hyperlink ref="F11" r:id="rId244"/>
+    <hyperlink ref="F13" r:id="rId245"/>
+    <hyperlink ref="E13" r:id="rId246"/>
+    <hyperlink ref="E11" r:id="rId247"/>
+    <hyperlink ref="F6" r:id="rId248"/>
+    <hyperlink ref="E6" r:id="rId249"/>
+    <hyperlink ref="F5" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E5" r:id="rId251"/>
+    <hyperlink ref="F4" r:id="rId252"/>
+    <hyperlink ref="E4" r:id="rId253"/>
+    <hyperlink ref="F3" r:id="rId254"/>
+    <hyperlink ref="E3" r:id="rId255"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId248"/>
+  <pageSetup orientation="portrait" r:id="rId256"/>
   <tableParts count="1">
-    <tablePart r:id="rId249"/>
+    <tablePart r:id="rId257"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$169</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="509">
   <si>
     <t>Nombre</t>
   </si>
@@ -209,9 +209,6 @@
     <t>6-in-1 Docking Station Para Steam Deck Hdmi 4k@60hz 100w Pd</t>
   </si>
   <si>
-    <t>Auricular Gamer Ku133 Negro Con Luz Led</t>
-  </si>
-  <si>
     <t>Kuiiyer Auriculares Bluetooth Auriculares Inalámbricos Conexión Ultrarrápida</t>
   </si>
   <si>
@@ -1341,6 +1338,222 @@
   </si>
   <si>
     <t>24 Pulgadas, Full HD</t>
+  </si>
+  <si>
+    <t>Marcadores 168 Colores Plumones Punta Pincel Doble Punta</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/iforu-marcadores-168-colores-plumones-punta-pincel-doble-punta/p/MLM29804861?pdp_filters=item_id:MLM2107943123</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_908852-MLA74173688325_012024-F.webp</t>
+  </si>
+  <si>
+    <t>168 pzas</t>
+  </si>
+  <si>
+    <t>80 Colores Marcador Acrílico Plumones Punta Fina Ligutec Blanco</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_694026-MLA86339728188_062025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/80-colores-marcador-acrilico-plumones-punta-fina-ligutec-blanco-rotuladores-para-colorear-madera-piedra-vidrio-plastico-metal-caucho-lienzo-superficies/p/MLM50006040?pdp_filters=item_id:MLM2310677737#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Marcadores  Super Markers 50 Colores Plumones Punta Rotuladores De Dibujo</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/marcadores-iforu-super-markers-50-colores-plumones-punta-rotuladores-de-dibujo/p/MLM39013983?pdp_filters=item_id:MLM3638655412</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_752330-MLA83841160497_042025-F.webp</t>
+  </si>
+  <si>
+    <t>50 pzas</t>
+  </si>
+  <si>
+    <t>80 pzas</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_884455-MLA84634046481_052025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/audifonos-gamer-alambricos-kuiiyer-audifonos-diadema-rgb-montado-en-la-cabeza-cinta-envolvente-estereoscopica-35-mm-cable-de-audio-y-microfono-para-xbox-ps4-pc/p/MLM49839579?pdp_filters=item_id:MLM3689436992#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Auriculares Bluetooth Auriculares Inalámbricos Conexión Ultrarrápida Y Estable</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_674190-MLA82152449404_022025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2265969077#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproductor Música BFQ-1 Mp3 Mp4 Player Bluetooth 5.0 4 </t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_989590-MLA86301814959_062025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/moximx-reproductor-musica-bfq-1-mp3-mp4-player-bluetooth50-4-mas-64gb-hifi-con-audifonos-portatil-30-pantalla-tactil-versatil-color-negro/p/MLM51350055?pdp_filters=item_id:MLM2356741563#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Reproductor De Música Mp3 Mp4 Wifi Bluetooth Spotify Táctil</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2093733032-reproductor-de-musica-mp3-mp4-wifi-bluetooth-spotify-tactil-_JM?quantity=1&amp;variation_id=177854522111</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_993599-CBT70506813730_072023-F-reproductor-de-musica-mp3-mp4-wifi-bluetooth-spotify-tactil.webp</t>
+  </si>
+  <si>
+    <t>Bocina Bluetooth Portátil Inalambrica Altavoces Recargables</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1469564814-bocina-bluetooth-portatil-inalambrica-altavoces-recargables-_JM?quantity=1&amp;variation_id=174913018285</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_984524-CBT52033749275_102022-F-bocina-bluetooth-portatil-inalambrica-altavoces-recargables.webp</t>
+  </si>
+  <si>
+    <t>Reproductor De Cd Bluetooth De Música Portátil Reproductor</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_936782-CBT51925751086_102022-F-reproductor-de-cd-bluetooth-de-musica-portatil-reproductor.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1397131851-reproductor-de-cd-bluetooth-de-musica-portatil-reproductor-_JM?quantity=1#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Tiras De Led Tira Led Neón Flex Unicolor Decorativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 Metros</t>
+  </si>
+  <si>
+    <t>3 Metros</t>
+  </si>
+  <si>
+    <t>Tira De led Luz Manguera Neón Rgb Bluetooth 3m Ip68</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_648350-CBT53137290935_012023-N.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_941587-MLM73495874875_122023-N.jpg</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1549195070-tiras-de-led-tira-led-neon-flex-unicolor-decorativa-5-metros-_JM?quantity=1&amp;variation_id=175520170998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lazyrosy Tiras De Luces Led Rgb Bluetooth 34m Ip20 Luz Led Para Cuarto Tv </t>
+  </si>
+  <si>
+    <t>34 Metros</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM2249210041</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_641254-MLA84809503986_052025-F.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tira De Luces Led App Bluetooth Control Rgb </t>
+  </si>
+  <si>
+    <t>30 Metros (2x15m)</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_991108-CBT76260188010_052024-F-tira-de-luces-led-app-bluetooth-control-rgb-30m-2x15m.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2737315202-tira-de-luces-led-app-bluetooth-control-rgb-30m-2x15m-_JM?quantity=1&amp;variation_id=180959189877#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Tira De Luces Led Bluetooth 10m Rgb Tiras Led Para Tv</t>
+  </si>
+  <si>
+    <t>Tira De Luces Led Rgb Bluetooth De 10m Controlada Por App P</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-961832304-tira-de-luces-led-rgb-bluetooth-de-10m-controlada-por-app-_JM?quantity=1&amp;variation_id=95223597232#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_973239-CBT73372984126_122023-F-tira-de-luces-led-rgb-bluetooth-de-10m-controlada-por-app.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2838296814-tira-de-luces-led-bluetooth-10m-rgb-tiras-led-para-tv-_JM?quantity=1#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_720021-CBT78179382597_082024-F-tira-de-luces-led-bluetooth-10m-rgb-tiras-led-para-tv.webp</t>
+  </si>
+  <si>
+    <t>10 Metros</t>
+  </si>
+  <si>
+    <t>Bomba Para Inflar Globos Eléctricos Doble Inflador/fiestas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1924188831-bomba-para-inflar-globos-electricos-doble-infladorfiestas-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_904485-MLM81749442742_012025-F-bomba-para-inflar-globos-electricos-doble-infladorfiestas.webp</t>
+  </si>
+  <si>
+    <t>Tablet 10''hd Ips Android 14 22+128gb Rom 5gwifi Con Teclado</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3732467408-tablet-10hd-ips-android-14-22128gb-rom-5gwifi-con-teclado-_JM?quantity=1&amp;variation_id=188276988757</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_764697-MLM86319405295_062025-F-tablet-10hd-ips-android-14-22128gb-rom-5gwifi-con-teclado.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (6 GB de RAM + 16 GB de RAM ampliable), 128 GB de ROM</t>
+  </si>
+  <si>
+    <t>Bocina Bluetooth Portatil Ourlife G63 Recargable Con Luz Rgb</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-443df2e12dd9</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_844698-CBT85318393785_052025-F-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1975032305-auriculares-inalambricos-pro5-compatibles-con-iphone-android-_JM?quantity=1&amp;variation_id=180562089607</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_872488-MLM77455163951_072024-F-auriculares-inalambricos-pro5-compatibles-con-iphone-android.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2370788256-audifonos-inalambricos-digital-pantalla-reduccion-ipx4-ruido-_JM?quantity=1&amp;variation_id=178330256442</t>
+  </si>
+  <si>
+    <t>AIR-41 Audifonos Bluetooth Mvpsmart Con Luz Rgb Para iPhone Android</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_774475-MLM76958213921_062024-F-audifonos-inalambricos-digital-pantalla-reduccion-ipx4-ruido.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3172723780-audifonos-inalambricos-mvpsmart-air41f-con-luz-led-rgb-_JM?quantity=1&amp;variation_id=180859059534</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_873345-MLM78317051906_082024-F-audifonos-inalambricos-mvpsmart-air41f-con-luz-led-rgb.webp</t>
+  </si>
+  <si>
+    <t>AK47 Audifonos Inalámbricos Digital Pantalla Reducción Ipx4 Ruido</t>
+  </si>
+  <si>
+    <t>HG20 Audifonos Auriculares Inalámbricos Compatibles Con iPhone Android</t>
+  </si>
+  <si>
+    <t>Audifonos Auricular Gamer Ku133 Negro Con Luz Led</t>
+  </si>
+  <si>
+    <t>Audfifonos Auricular Gamer Ku133 Negro Con Luz Led</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1606,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1428,6 +1641,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1472,7 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1505,7 +1724,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1549,10 +1770,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G148" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G148"/>
-  <sortState ref="A2:G131">
-    <sortCondition descending="1" ref="G1:G131"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G169" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G169"/>
+  <sortState ref="A2:G169">
+    <sortCondition descending="1" ref="G1:G169"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre"/>
@@ -1830,16 +2051,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection sqref="A1:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="36" style="5" customWidth="1"/>
@@ -1857,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -1866,7 +2087,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1874,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4">
         <v>665</v>
@@ -1883,2106 +2104,2150 @@
         <v>450</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>203</v>
       </c>
       <c r="C3" s="4">
-        <v>4500</v>
+        <v>170.73</v>
       </c>
       <c r="D3" s="4">
-        <v>3550</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>433</v>
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4">
-        <v>11200</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6500</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>433</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>430</v>
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4700</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>429</v>
+        <v>299</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4">
-        <v>9700</v>
+        <v>259</v>
       </c>
       <c r="D6" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>426</v>
+        <v>150</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>425</v>
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4">
-        <v>1100</v>
+        <v>279</v>
       </c>
       <c r="D7" s="4">
-        <v>750</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>385</v>
+        <v>180</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>384</v>
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="4">
-        <v>300</v>
+        <v>212</v>
+      </c>
+      <c r="D8" s="4">
+        <v>120</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>388</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>387</v>
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="4">
-        <v>650</v>
+        <v>178.03</v>
       </c>
       <c r="D9" s="4">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>390</v>
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4">
         <v>200</v>
       </c>
+      <c r="D10" s="4">
+        <v>150</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>394</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>393</v>
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="4">
-        <v>250</v>
+        <v>193.7</v>
       </c>
       <c r="D11" s="4">
         <v>150</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>421</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>417</v>
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="4">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>396</v>
+        <v>172</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
       </c>
       <c r="C13" s="4">
-        <v>398</v>
-      </c>
-      <c r="D13" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>420</v>
+        <v>173</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>419</v>
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="4">
-        <v>220</v>
+        <v>248.02</v>
       </c>
       <c r="D14" s="4">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>400</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>399</v>
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4">
-        <v>660</v>
-      </c>
-      <c r="D15" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>402</v>
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="4">
-        <v>690</v>
+        <v>269</v>
       </c>
       <c r="D16" s="4">
-        <v>500</v>
+        <v>165</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>405</v>
+        <v>98</v>
+      </c>
+      <c r="G16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="C17" s="4">
-        <v>637</v>
-      </c>
-      <c r="D17" s="4">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>409</v>
+        <v>177</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>408</v>
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="4">
-        <v>1775</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1200</v>
+        <v>210</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>412</v>
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="4">
-        <v>499</v>
+        <v>119.4</v>
       </c>
       <c r="D19" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>415</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>414</v>
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4">
-        <v>170.73</v>
+        <v>102.22</v>
       </c>
       <c r="D20" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>249</v>
+        <v>102</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="4">
-        <v>133</v>
+        <v>210</v>
+      </c>
+      <c r="D21" s="4">
+        <v>150</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="4">
-        <v>299</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>154</v>
+        <v>166.93</v>
+      </c>
+      <c r="D22" s="4">
+        <v>150</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>204</v>
+        <v>29</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="C23" s="4">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
-        <v>150</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>168</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4">
-        <v>279</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>180</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>900</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="4">
-        <v>212</v>
+        <v>393.2</v>
       </c>
       <c r="D25" s="4">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="4">
-        <v>178.03</v>
+        <v>342.66</v>
       </c>
       <c r="D26" s="4">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="4">
-        <v>200</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D27" s="4">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4">
-        <v>193.7</v>
+        <v>237.76</v>
       </c>
       <c r="D28" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="D29" s="4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>173</v>
+        <v>199</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="4">
-        <v>150</v>
+        <v>210</v>
+      </c>
+      <c r="D30" s="4">
+        <v>170</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4">
-        <v>248.02</v>
+        <v>160</v>
       </c>
       <c r="D31" s="4">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4">
-        <v>120</v>
+        <v>160</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="4">
+        <v>120</v>
+      </c>
+      <c r="D33" s="4">
+        <v>100</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="4">
-        <v>269</v>
-      </c>
-      <c r="D33" s="4">
-        <v>165</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="4">
-        <v>315</v>
+        <v>266.95999999999998</v>
+      </c>
+      <c r="D34" s="4">
+        <v>250</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="4">
-        <v>210</v>
+        <v>495.99</v>
+      </c>
+      <c r="D35" s="4">
+        <v>350</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" t="s">
-        <v>249</v>
+        <v>121</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="4">
-        <v>119.4</v>
+        <v>633.91</v>
       </c>
       <c r="D36" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="4">
-        <v>102.22</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D37" s="4">
-        <v>100</v>
+        <v>1025</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>249</v>
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="4">
-        <v>210</v>
+        <v>758.9</v>
       </c>
       <c r="D38" s="4">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="4">
-        <v>166.93</v>
-      </c>
-      <c r="D39" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>204</v>
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>203</v>
       </c>
       <c r="C40" s="4">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="D40" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>106</v>
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="4">
-        <v>1072.6500000000001</v>
+        <v>1899</v>
       </c>
       <c r="D41" s="4">
-        <v>900</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>194</v>
+        <v>1500</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="4">
-        <v>393.2</v>
+        <v>166.88</v>
       </c>
       <c r="D42" s="4">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="G42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="4">
-        <v>342.66</v>
+        <v>149.99</v>
       </c>
       <c r="D43" s="4">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="4">
-        <v>323.66000000000003</v>
+        <v>2100</v>
       </c>
       <c r="D44" s="4">
-        <v>270</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="4">
-        <v>237.76</v>
+        <v>325.32</v>
       </c>
       <c r="D45" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="4">
-        <v>359</v>
+        <v>589.4</v>
       </c>
       <c r="D46" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="4">
-        <v>210</v>
-      </c>
-      <c r="D47" s="4">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="4">
-        <v>160</v>
+        <v>411.67</v>
       </c>
       <c r="D48" s="4">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>201</v>
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>219</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="4">
-        <v>160</v>
-      </c>
-      <c r="D49" s="4">
-        <v>100</v>
+        <v>322.36</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50" s="4">
-        <v>120</v>
+        <v>689.2</v>
       </c>
       <c r="D50" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51" s="4">
-        <v>266.95999999999998</v>
-      </c>
-      <c r="D51" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="4">
-        <v>495.99</v>
-      </c>
-      <c r="D52" s="4">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53" s="4">
-        <v>633.91</v>
-      </c>
-      <c r="D53" s="4">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54" s="4">
-        <v>1064.8800000000001</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1025</v>
+        <v>200</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="G54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" s="4">
-        <v>758.9</v>
+        <v>374.7</v>
       </c>
       <c r="D55" s="4">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" s="4">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="D56" s="4">
+        <v>200</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="4">
-        <v>268</v>
+        <v>499</v>
       </c>
       <c r="D57" s="4">
         <v>150</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F57" t="s">
-        <v>127</v>
+        <v>226</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="4">
-        <v>1899</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>232</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="4">
-        <v>166.88</v>
+        <v>126.85</v>
       </c>
       <c r="D59" s="4">
         <v>100</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="4">
-        <v>149.99</v>
-      </c>
-      <c r="D60" s="4">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>215</v>
+        <v>229</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>204</v>
+        <v>69</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="C61" s="4">
-        <v>2100</v>
+        <v>238.9</v>
       </c>
       <c r="D61" s="4">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C62" s="4">
-        <v>325.32</v>
+        <v>175</v>
       </c>
       <c r="D62" s="4">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C63" s="4">
-        <v>589.4</v>
+        <v>219.5</v>
       </c>
       <c r="D63" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="G63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="4">
-        <v>411.67</v>
-      </c>
-      <c r="D65" s="4">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F65" t="s">
-        <v>220</v>
+        <v>233</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>380</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C66" s="4">
-        <v>322.36</v>
+        <v>226.52</v>
+      </c>
+      <c r="D66" s="4">
+        <v>200</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="4">
-        <v>689.2</v>
+        <v>98.26</v>
       </c>
       <c r="D67" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" s="4">
-        <v>240</v>
+        <v>299.01</v>
+      </c>
+      <c r="D68" s="4">
+        <v>175</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4">
-        <v>270</v>
+        <v>95.52</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="4">
-        <v>250</v>
+        <v>899</v>
+      </c>
+      <c r="D70" s="4">
+        <v>400</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="4">
-        <v>200</v>
+        <v>142</v>
+      </c>
+      <c r="D71" s="4">
+        <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" t="s">
-        <v>204</v>
+        <v>506</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="C72" s="4">
-        <v>374.7</v>
-      </c>
-      <c r="D72" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>225</v>
+        <v>499</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" t="s">
-        <v>249</v>
+        <v>498</v>
+      </c>
+      <c r="G72" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" s="4">
-        <v>399</v>
-      </c>
-      <c r="D73" s="4">
         <v>200</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>226</v>
+        <v>502</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" t="s">
-        <v>249</v>
+        <v>500</v>
+      </c>
+      <c r="G73" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4">
-        <v>499</v>
-      </c>
-      <c r="D74" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>227</v>
+        <v>504</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G74" t="s">
-        <v>249</v>
+        <v>503</v>
+      </c>
+      <c r="G74" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>494</v>
       </c>
       <c r="C75" s="4">
-        <v>100</v>
+        <v>2600</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1800</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>228</v>
+        <v>493</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G75" t="s">
-        <v>249</v>
+        <v>492</v>
+      </c>
+      <c r="G75" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="C76" s="4">
-        <v>126.85</v>
-      </c>
-      <c r="D76" s="4">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" t="s">
-        <v>249</v>
+        <v>438</v>
+      </c>
+      <c r="G76" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>448</v>
       </c>
       <c r="C77" s="4">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G77" t="s">
-        <v>249</v>
+        <v>443</v>
+      </c>
+      <c r="G77" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
       <c r="C78" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D78" s="4">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>231</v>
+        <v>446</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" t="s">
-        <v>249</v>
+        <v>445</v>
+      </c>
+      <c r="G78" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="4">
-        <v>175</v>
-      </c>
-      <c r="D79" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" t="s">
-        <v>249</v>
+        <v>497</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G79" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C80" s="4">
-        <v>219.5</v>
+        <v>352</v>
       </c>
       <c r="D80" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G80" t="s">
-        <v>249</v>
+        <v>449</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G80" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="4">
-        <v>200</v>
+        <v>389</v>
+      </c>
+      <c r="D81" s="4">
+        <v>260</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>233</v>
+        <v>452</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G81" t="s">
-        <v>249</v>
+        <v>453</v>
+      </c>
+      <c r="G81" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="4">
-        <v>230</v>
+        <v>999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>500</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G82" t="s">
-        <v>249</v>
+        <v>456</v>
+      </c>
+      <c r="G82" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4">
-        <v>226.52</v>
+        <v>1552</v>
       </c>
       <c r="D83" s="4">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>235</v>
+        <v>459</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G83" t="s">
-        <v>249</v>
+        <v>458</v>
+      </c>
+      <c r="G83" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="4">
-        <v>98.26</v>
+        <v>292</v>
       </c>
       <c r="D84" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>237</v>
+        <v>462</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G84" t="s">
-        <v>249</v>
+        <v>461</v>
+      </c>
+      <c r="G84" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C85" s="4">
-        <v>299.01</v>
+        <v>1500</v>
       </c>
       <c r="D85" s="4">
-        <v>175</v>
+        <v>600</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>238</v>
+        <v>464</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G85" t="s">
-        <v>249</v>
+        <v>465</v>
+      </c>
+      <c r="G85" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>468</v>
       </c>
       <c r="C86" s="4">
-        <v>95.52</v>
+        <v>445</v>
+      </c>
+      <c r="D86" s="4">
+        <v>200</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" t="s">
-        <v>249</v>
+        <v>284</v>
+      </c>
+      <c r="G86" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="C87" s="4">
-        <v>899</v>
+        <v>144</v>
       </c>
       <c r="D87" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>240</v>
+        <v>471</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" t="s">
-        <v>249</v>
+        <v>472</v>
+      </c>
+      <c r="G87" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>474</v>
       </c>
       <c r="C88" s="4">
-        <v>142</v>
+        <v>350</v>
       </c>
       <c r="D88" s="4">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>242</v>
+        <v>476</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="G88" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>477</v>
+      </c>
+      <c r="B89" t="s">
+        <v>478</v>
+      </c>
+      <c r="C89" s="4">
+        <v>325</v>
+      </c>
+      <c r="D89" s="4">
+        <v>180</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G89" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>482</v>
+      </c>
+      <c r="B90" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="4">
+        <v>270</v>
+      </c>
+      <c r="D90" s="4">
+        <v>150</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G90" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" t="s">
+        <v>487</v>
+      </c>
+      <c r="C91" s="4">
+        <v>250</v>
+      </c>
+      <c r="D91" s="4">
+        <v>150</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G91" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>488</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="4">
+        <v>250</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G92" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" t="s">
+        <v>431</v>
+      </c>
+      <c r="C93" s="4">
+        <v>11200</v>
+      </c>
+      <c r="D93" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G93" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>422</v>
+      </c>
+      <c r="B94" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9700</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G94" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="13">
+        <v>375</v>
+      </c>
+      <c r="D95" s="13">
+        <v>260</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="13">
-        <v>375</v>
-      </c>
-      <c r="D89" s="13">
-        <v>260</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G89" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B90" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="13">
-        <v>200</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G90" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="13">
-        <v>295</v>
-      </c>
-      <c r="D91" s="13">
-        <v>150</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G91" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B92" t="s">
-        <v>204</v>
-      </c>
-      <c r="C92" s="13">
-        <v>279</v>
-      </c>
-      <c r="D92" s="13">
-        <v>150</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B93" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="13">
-        <v>249</v>
-      </c>
-      <c r="D93" s="13">
-        <v>150</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G93" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B94" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" s="13">
-        <v>300</v>
-      </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G94" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B95" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" s="13">
-        <v>250</v>
-      </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="G95" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
-        <v>357</v>
+      <c r="A96" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" s="13">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="G96" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
-        <v>328</v>
-      </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97" s="13">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="D97" s="13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>348</v>
+      <c r="A98" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C98" s="13">
-        <v>250</v>
-      </c>
-      <c r="D98" s="13"/>
+        <v>279</v>
+      </c>
+      <c r="D98" s="13">
+        <v>150</v>
+      </c>
       <c r="E98" s="6" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="G98" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>351</v>
+      <c r="A99" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C99" s="13">
-        <v>250</v>
-      </c>
-      <c r="D99" s="13"/>
+        <v>249</v>
+      </c>
+      <c r="D99" s="13">
+        <v>150</v>
+      </c>
       <c r="E99" s="6" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>331</v>
+      <c r="A100" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" s="13">
-        <v>270</v>
-      </c>
-      <c r="D100" s="13">
-        <v>200</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="6" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="G100" s="14">
         <v>4</v>
@@ -3990,22 +4255,20 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C101" s="13">
-        <v>455</v>
-      </c>
-      <c r="D101" s="13">
-        <v>290</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D101" s="13"/>
       <c r="E101" s="6" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="G101" s="14">
         <v>4</v>
@@ -4013,66 +4276,64 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C102" s="13">
         <v>150</v>
       </c>
-      <c r="D102" s="13">
-        <v>100</v>
-      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="6" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G102" s="14">
+        <v>358</v>
+      </c>
+      <c r="G102" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" s="13">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D103" s="13">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F103" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="G103" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="13">
-        <v>375</v>
-      </c>
-      <c r="D104" s="13">
         <v>250</v>
       </c>
+      <c r="D104" s="13"/>
       <c r="E104" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G104" s="14">
         <v>4</v>
@@ -4080,351 +4341,353 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" s="13">
-        <v>150</v>
-      </c>
-      <c r="D105" s="13">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D105" s="13"/>
       <c r="E105" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F105" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="G105" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C106" s="13">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="D106" s="13">
         <v>200</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F106" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="G106" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>325</v>
+      <c r="A107" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" s="13">
-        <v>260</v>
+        <v>455</v>
       </c>
       <c r="D107" s="13">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G107" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>68</v>
+      <c r="A108" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
-      </c>
-      <c r="C108" s="4">
-        <v>322</v>
-      </c>
-      <c r="D108" s="4">
-        <v>270</v>
+        <v>203</v>
+      </c>
+      <c r="C108" s="13">
+        <v>150</v>
+      </c>
+      <c r="D108" s="13">
+        <v>100</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G108" s="16">
+        <v>284</v>
+      </c>
+      <c r="G108" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>74</v>
+      <c r="A109" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="B109" t="s">
-        <v>204</v>
-      </c>
-      <c r="C109" s="4">
-        <v>310</v>
-      </c>
-      <c r="D109" s="4">
+        <v>203</v>
+      </c>
+      <c r="C109" s="13">
         <v>150</v>
       </c>
+      <c r="D109" s="13">
+        <v>100</v>
+      </c>
       <c r="E109" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F109" s="1"/>
       <c r="G109" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>79</v>
+      <c r="A110" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
-      </c>
-      <c r="C110" s="4">
-        <v>103.9</v>
-      </c>
-      <c r="D110" s="4">
-        <v>85</v>
+        <v>203</v>
+      </c>
+      <c r="C110" s="13">
+        <v>375</v>
+      </c>
+      <c r="D110" s="13">
+        <v>250</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="G110" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="13">
+        <v>150</v>
+      </c>
+      <c r="D111" s="13">
+        <v>100</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="13">
+        <v>250</v>
+      </c>
+      <c r="D112" s="13">
+        <v>200</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="13">
+        <v>260</v>
+      </c>
+      <c r="D113" s="13">
+        <v>250</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G113" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="4">
+        <v>322</v>
+      </c>
+      <c r="D114" s="4">
+        <v>270</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G114" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="4">
+        <v>310</v>
+      </c>
+      <c r="D115" s="4">
+        <v>150</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G115" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="D116" s="4">
+        <v>85</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G116" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B111" t="s">
-        <v>204</v>
-      </c>
-      <c r="C111" s="3">
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="3">
         <v>459.07</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D117" s="3">
         <v>425</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G111" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C112" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D112" s="3">
-        <v>235</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G112" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="4">
-        <v>470</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" t="s">
-        <v>375</v>
-      </c>
-      <c r="C114" s="4">
-        <v>170</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G114" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>308</v>
-      </c>
-      <c r="B115" t="s">
-        <v>375</v>
-      </c>
-      <c r="C115" s="4">
-        <v>185</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G115" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>309</v>
-      </c>
-      <c r="B116" t="s">
-        <v>374</v>
-      </c>
-      <c r="C116" s="4">
-        <v>298</v>
-      </c>
-      <c r="D116" s="4">
-        <v>180</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G116" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D117" s="4">
-        <v>150</v>
-      </c>
       <c r="E117" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G117" s="8">
+        <v>80</v>
+      </c>
+      <c r="G117" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B118" t="s">
-        <v>373</v>
-      </c>
-      <c r="C118" s="4">
-        <v>439</v>
-      </c>
-      <c r="D118" s="4">
-        <v>200</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>185</v>
+        <v>6</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C118" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D118" s="3">
+        <v>235</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G118" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>30</v>
+      <c r="A119" t="s">
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="C119" s="4">
-        <v>183.99</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>186</v>
+        <v>470</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G119" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>313</v>
+      <c r="A120" t="s">
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="C120" s="4">
-        <v>230</v>
-      </c>
-      <c r="D120" s="4">
-        <v>210</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>314</v>
+        <v>170</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>315</v>
+        <v>157</v>
       </c>
       <c r="G120" s="8">
         <v>2</v>
@@ -4432,22 +4695,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="C121" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D121" s="4">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G121" s="8">
         <v>2</v>
@@ -4455,19 +4715,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>373</v>
       </c>
       <c r="C122" s="4">
-        <v>150</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>189</v>
+        <v>298</v>
+      </c>
+      <c r="D122" s="4">
+        <v>180</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="G122" s="8">
         <v>2</v>
@@ -4475,260 +4738,257 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="4">
-        <v>125</v>
+        <v>194.36</v>
+      </c>
+      <c r="D123" s="4">
+        <v>150</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G123" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>310</v>
+      <c r="A124" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="C124" s="4">
-        <v>300</v>
+        <v>439</v>
+      </c>
+      <c r="D124" s="4">
+        <v>200</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>33</v>
+      <c r="A125" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="4">
-        <v>170</v>
+        <v>183.99</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G125" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>34</v>
+      <c r="A126" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" s="4">
-        <v>200</v>
+        <v>230</v>
+      </c>
+      <c r="D126" s="4">
+        <v>210</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="G126" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>316</v>
+      <c r="A127" t="s">
+        <v>311</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="4">
-        <v>130</v>
+        <v>189.99</v>
       </c>
       <c r="D127" s="4">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>307</v>
+      <c r="A128" t="s">
+        <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="4">
-        <v>389</v>
-      </c>
-      <c r="D128" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G128" s="7">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="G128" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" s="4">
-        <v>138</v>
-      </c>
-      <c r="D129" s="4">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G129" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="4">
+        <v>300</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G130" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
+      </c>
+      <c r="C131" s="4">
+        <v>170</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G131" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="4">
+        <v>200</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G132" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="4">
+        <v>130</v>
+      </c>
+      <c r="D133" s="4">
+        <v>90</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B134" t="s">
+        <v>203</v>
+      </c>
+      <c r="C134" s="4">
+        <v>389</v>
+      </c>
+      <c r="D134" s="4">
+        <v>280</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="G129" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B130" t="s">
-        <v>204</v>
-      </c>
-      <c r="C130" s="4">
-        <v>135</v>
-      </c>
-      <c r="D130" s="4">
-        <v>100</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G130" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B131" t="s">
-        <v>204</v>
-      </c>
-      <c r="C131" s="4">
-        <v>150</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G131" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B132" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" s="4">
-        <v>135</v>
-      </c>
-      <c r="D132" s="4">
-        <v>100</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G132" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>290</v>
-      </c>
-      <c r="B133" t="s">
-        <v>291</v>
-      </c>
-      <c r="C133" s="4">
-        <v>135</v>
-      </c>
-      <c r="D133" s="4">
-        <v>100</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G133" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>289</v>
-      </c>
-      <c r="B134" t="s">
-        <v>288</v>
-      </c>
-      <c r="C134" s="4">
-        <v>120</v>
-      </c>
-      <c r="D134" s="4">
-        <v>50</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F134" t="s">
-        <v>285</v>
       </c>
       <c r="G134" s="7">
         <v>1</v>
@@ -4736,65 +4996,65 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C135" s="4">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="D135" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>286</v>
+        <v>302</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="G135" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>283</v>
+      <c r="A136" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" s="4">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D136" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F136" t="s">
-        <v>285</v>
+        <v>300</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="G136" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>282</v>
+      <c r="A137" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C137" s="4">
-        <v>160</v>
-      </c>
-      <c r="D137" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
@@ -4802,45 +5062,45 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" s="4">
-        <v>569</v>
+        <v>135</v>
       </c>
       <c r="D138" s="4">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>274</v>
+      <c r="A139" t="s">
+        <v>289</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C139" s="4">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="D139" s="4">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
@@ -4848,22 +5108,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="C140" s="4">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="D140" s="4">
-        <v>150</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>271</v>
+        <v>50</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F140" t="s">
+        <v>284</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
@@ -4871,68 +5131,65 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" s="4">
-        <v>498</v>
+        <v>200</v>
       </c>
       <c r="D141" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>264</v>
+      <c r="A142" t="s">
+        <v>282</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C142" s="4">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D142" s="4">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="F142" t="s">
+        <v>284</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>381</v>
+      <c r="A143" t="s">
+        <v>281</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" s="4">
-        <v>719</v>
+        <v>160</v>
       </c>
       <c r="D143" s="4">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
@@ -4940,22 +5197,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C144" s="4">
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="D144" s="4">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
@@ -4963,22 +5220,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="C145" s="4">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="D145" s="4">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
@@ -4986,340 +5243,810 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C146" s="4">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="D146" s="4">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>250</v>
+      <c r="A147" t="s">
+        <v>266</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" s="4">
-        <v>500</v>
+        <v>498</v>
+      </c>
+      <c r="D147" s="4">
+        <v>240</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
-        <v>437</v>
+        <v>203</v>
       </c>
       <c r="C148" s="4">
+        <v>179</v>
+      </c>
+      <c r="D148" s="4">
+        <v>140</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="4">
+        <v>719</v>
+      </c>
+      <c r="D149" s="4">
+        <v>230</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B150" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" s="4">
+        <v>348</v>
+      </c>
+      <c r="D150" s="4">
+        <v>218</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" t="s">
+        <v>203</v>
+      </c>
+      <c r="C151" s="4">
+        <v>347</v>
+      </c>
+      <c r="D151" s="4">
+        <v>220</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G151" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C152" s="4">
+        <v>353</v>
+      </c>
+      <c r="D152" s="4">
+        <v>290</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G152" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="4">
+        <v>500</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G153" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>434</v>
+      </c>
+      <c r="B154" t="s">
+        <v>435</v>
+      </c>
+      <c r="C154" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D154" s="4">
+        <v>3550</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" t="s">
+        <v>427</v>
+      </c>
+      <c r="C155" s="4">
+        <v>5500</v>
+      </c>
+      <c r="D155" s="4">
+        <v>4700</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>382</v>
+      </c>
+      <c r="B156" t="s">
+        <v>203</v>
+      </c>
+      <c r="C156" s="4">
+        <v>1100</v>
+      </c>
+      <c r="D156" s="4">
+        <v>750</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>385</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="4">
+        <v>300</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="4">
+        <v>650</v>
+      </c>
+      <c r="D158" s="4">
+        <v>450</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>391</v>
+      </c>
+      <c r="B159" t="s">
+        <v>203</v>
+      </c>
+      <c r="C159" s="4">
+        <v>200</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>415</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="4">
+        <v>250</v>
+      </c>
+      <c r="D160" s="4">
+        <v>150</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>203</v>
+      </c>
+      <c r="C161" s="4">
+        <v>550</v>
+      </c>
+      <c r="D161" s="4">
+        <v>350</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" s="4">
+        <v>398</v>
+      </c>
+      <c r="D162" s="4">
+        <v>180</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>397</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="C163" s="4">
+        <v>220</v>
+      </c>
+      <c r="D163" s="4">
+        <v>175</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="4">
+        <v>660</v>
+      </c>
+      <c r="D164" s="4">
+        <v>200</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="4">
+        <v>690</v>
+      </c>
+      <c r="D165" s="4">
+        <v>500</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>406</v>
+      </c>
+      <c r="B166" t="s">
+        <v>409</v>
+      </c>
+      <c r="C166" s="4">
+        <v>637</v>
+      </c>
+      <c r="D166" s="4">
+        <v>300</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>410</v>
+      </c>
+      <c r="B167" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="4">
+        <v>1775</v>
+      </c>
+      <c r="D167" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>421</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="4">
+        <v>499</v>
+      </c>
+      <c r="D168" s="4">
+        <v>350</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B169" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" s="4">
         <v>2300</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D169" s="4">
         <v>1800</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="9"/>
+      <c r="E169" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F88" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F110" r:id="rId1"/>
-    <hyperlink ref="F86" r:id="rId2"/>
-    <hyperlink ref="F87" r:id="rId3"/>
-    <hyperlink ref="F85" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F84" r:id="rId4"/>
-    <hyperlink ref="F109" r:id="rId5"/>
-    <hyperlink ref="F83" r:id="rId6"/>
-    <hyperlink ref="F82" r:id="rId7"/>
-    <hyperlink ref="F81" r:id="rId8"/>
-    <hyperlink ref="F78" r:id="rId9"/>
-    <hyperlink ref="F75" r:id="rId10"/>
-    <hyperlink ref="F74" r:id="rId11"/>
-    <hyperlink ref="F77" r:id="rId12"/>
-    <hyperlink ref="F76" r:id="rId13"/>
-    <hyperlink ref="F108" r:id="rId14"/>
-    <hyperlink ref="F73" r:id="rId15"/>
-    <hyperlink ref="F72" r:id="rId16"/>
-    <hyperlink ref="F69" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F68" r:id="rId17"/>
-    <hyperlink ref="F67" r:id="rId18"/>
-    <hyperlink ref="F64" r:id="rId19"/>
-    <hyperlink ref="F63" r:id="rId20"/>
-    <hyperlink ref="F62" r:id="rId21"/>
-    <hyperlink ref="F61" r:id="rId22"/>
-    <hyperlink ref="F58" r:id="rId23"/>
-    <hyperlink ref="F56" r:id="rId24"/>
-    <hyperlink ref="F55" r:id="rId25"/>
-    <hyperlink ref="F54" r:id="rId26"/>
-    <hyperlink ref="F53" r:id="rId27"/>
-    <hyperlink ref="F52" r:id="rId28"/>
-    <hyperlink ref="F51" r:id="rId29"/>
-    <hyperlink ref="F50" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F47" r:id="rId30"/>
-    <hyperlink ref="F46" r:id="rId31"/>
-    <hyperlink ref="F45" r:id="rId32"/>
-    <hyperlink ref="F44" r:id="rId33"/>
-    <hyperlink ref="F42" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F41" r:id="rId34"/>
-    <hyperlink ref="F126" r:id="rId35"/>
-    <hyperlink ref="F125" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F124" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F119" r:id="rId36"/>
-    <hyperlink ref="F121" r:id="rId37"/>
-    <hyperlink ref="F123" r:id="rId38"/>
-    <hyperlink ref="F118" r:id="rId39"/>
-    <hyperlink ref="F40" r:id="rId40"/>
-    <hyperlink ref="F39" r:id="rId41"/>
-    <hyperlink ref="F38" r:id="rId42"/>
-    <hyperlink ref="F37" r:id="rId43"/>
-    <hyperlink ref="F36" r:id="rId44"/>
-    <hyperlink ref="F35" r:id="rId45"/>
-    <hyperlink ref="F34" r:id="rId46"/>
-    <hyperlink ref="F33" r:id="rId47"/>
-    <hyperlink ref="F32" r:id="rId48"/>
-    <hyperlink ref="F31" r:id="rId49"/>
-    <hyperlink ref="F28" r:id="rId50"/>
-    <hyperlink ref="F30" r:id="rId51"/>
-    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F26" r:id="rId52"/>
-    <hyperlink ref="F25" r:id="rId53"/>
-    <hyperlink ref="F23" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F24" r:id="rId54"/>
-    <hyperlink ref="F20" r:id="rId55"/>
-    <hyperlink ref="F21" r:id="rId56"/>
+    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F116" r:id="rId1"/>
+    <hyperlink ref="F69" r:id="rId2"/>
+    <hyperlink ref="F70" r:id="rId3"/>
+    <hyperlink ref="F68" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F67" r:id="rId4"/>
+    <hyperlink ref="F115" r:id="rId5"/>
+    <hyperlink ref="F66" r:id="rId6"/>
+    <hyperlink ref="F65" r:id="rId7"/>
+    <hyperlink ref="F64" r:id="rId8"/>
+    <hyperlink ref="F61" r:id="rId9"/>
+    <hyperlink ref="F58" r:id="rId10"/>
+    <hyperlink ref="F57" r:id="rId11"/>
+    <hyperlink ref="F60" r:id="rId12"/>
+    <hyperlink ref="F59" r:id="rId13"/>
+    <hyperlink ref="F114" r:id="rId14"/>
+    <hyperlink ref="F56" r:id="rId15"/>
+    <hyperlink ref="F55" r:id="rId16"/>
+    <hyperlink ref="F52" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F51" r:id="rId17"/>
+    <hyperlink ref="F50" r:id="rId18"/>
+    <hyperlink ref="F47" r:id="rId19"/>
+    <hyperlink ref="F46" r:id="rId20"/>
+    <hyperlink ref="F45" r:id="rId21"/>
+    <hyperlink ref="F44" r:id="rId22"/>
+    <hyperlink ref="F41" r:id="rId23"/>
+    <hyperlink ref="F39" r:id="rId24"/>
+    <hyperlink ref="F38" r:id="rId25"/>
+    <hyperlink ref="F37" r:id="rId26"/>
+    <hyperlink ref="F36" r:id="rId27"/>
+    <hyperlink ref="F35" r:id="rId28"/>
+    <hyperlink ref="F34" r:id="rId29"/>
+    <hyperlink ref="F33" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F30" r:id="rId30"/>
+    <hyperlink ref="F29" r:id="rId31"/>
+    <hyperlink ref="F28" r:id="rId32"/>
+    <hyperlink ref="F27" r:id="rId33"/>
+    <hyperlink ref="F25" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F24" r:id="rId34"/>
+    <hyperlink ref="F132" r:id="rId35"/>
+    <hyperlink ref="F131" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F130" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F125" r:id="rId36"/>
+    <hyperlink ref="F127" r:id="rId37"/>
+    <hyperlink ref="F129" r:id="rId38"/>
+    <hyperlink ref="F124" r:id="rId39"/>
+    <hyperlink ref="F23" r:id="rId40"/>
+    <hyperlink ref="F22" r:id="rId41"/>
+    <hyperlink ref="F21" r:id="rId42"/>
+    <hyperlink ref="F20" r:id="rId43"/>
+    <hyperlink ref="F19" r:id="rId44"/>
+    <hyperlink ref="F18" r:id="rId45"/>
+    <hyperlink ref="F17" r:id="rId46"/>
+    <hyperlink ref="F16" r:id="rId47"/>
+    <hyperlink ref="F15" r:id="rId48"/>
+    <hyperlink ref="F14" r:id="rId49"/>
+    <hyperlink ref="F11" r:id="rId50"/>
+    <hyperlink ref="F13" r:id="rId51"/>
+    <hyperlink ref="F10" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F9" r:id="rId52"/>
+    <hyperlink ref="F8" r:id="rId53"/>
+    <hyperlink ref="F6" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F7" r:id="rId54"/>
+    <hyperlink ref="F3" r:id="rId55"/>
+    <hyperlink ref="F4" r:id="rId56"/>
     <hyperlink ref="F2" r:id="rId57"/>
-    <hyperlink ref="F116" r:id="rId58"/>
-    <hyperlink ref="F115" r:id="rId59"/>
-    <hyperlink ref="F117" r:id="rId60"/>
-    <hyperlink ref="F114" r:id="rId61"/>
-    <hyperlink ref="F113" r:id="rId62"/>
-    <hyperlink ref="F112" r:id="rId63"/>
-    <hyperlink ref="F111" r:id="rId64"/>
-    <hyperlink ref="E111" r:id="rId65"/>
-    <hyperlink ref="E115" r:id="rId66"/>
-    <hyperlink ref="E117" r:id="rId67"/>
+    <hyperlink ref="F122" r:id="rId58"/>
+    <hyperlink ref="F121" r:id="rId59"/>
+    <hyperlink ref="F123" r:id="rId60"/>
+    <hyperlink ref="F120" r:id="rId61"/>
+    <hyperlink ref="F119" r:id="rId62"/>
+    <hyperlink ref="F118" r:id="rId63"/>
+    <hyperlink ref="F117" r:id="rId64"/>
+    <hyperlink ref="E117" r:id="rId65"/>
+    <hyperlink ref="E121" r:id="rId66"/>
+    <hyperlink ref="E123" r:id="rId67"/>
     <hyperlink ref="E2" r:id="rId68"/>
-    <hyperlink ref="E20" r:id="rId69"/>
-    <hyperlink ref="E21" r:id="rId70"/>
-    <hyperlink ref="E23" r:id="rId71"/>
-    <hyperlink ref="E24" r:id="rId72"/>
-    <hyperlink ref="E25" r:id="rId73"/>
-    <hyperlink ref="E26" r:id="rId74"/>
-    <hyperlink ref="E28" r:id="rId75"/>
-    <hyperlink ref="E27" r:id="rId76"/>
-    <hyperlink ref="E29" r:id="rId77"/>
-    <hyperlink ref="E30" r:id="rId78"/>
-    <hyperlink ref="E31" r:id="rId79"/>
-    <hyperlink ref="E32" r:id="rId80"/>
-    <hyperlink ref="E33" r:id="rId81"/>
-    <hyperlink ref="E34" r:id="rId82"/>
-    <hyperlink ref="E35" r:id="rId83"/>
-    <hyperlink ref="E36" r:id="rId84"/>
-    <hyperlink ref="E37" r:id="rId85"/>
-    <hyperlink ref="E38" r:id="rId86"/>
-    <hyperlink ref="E39" r:id="rId87"/>
-    <hyperlink ref="E40" r:id="rId88"/>
-    <hyperlink ref="E118" r:id="rId89"/>
-    <hyperlink ref="E119" r:id="rId90"/>
-    <hyperlink ref="E121" r:id="rId91"/>
-    <hyperlink ref="E122" r:id="rId92"/>
-    <hyperlink ref="E123" r:id="rId93"/>
-    <hyperlink ref="E124" r:id="rId94"/>
-    <hyperlink ref="E125" r:id="rId95"/>
-    <hyperlink ref="E126" r:id="rId96"/>
-    <hyperlink ref="E41" r:id="rId97"/>
-    <hyperlink ref="E42" r:id="rId98"/>
-    <hyperlink ref="E43" r:id="rId99"/>
-    <hyperlink ref="F43" r:id="rId100"/>
-    <hyperlink ref="E44" r:id="rId101"/>
-    <hyperlink ref="E45" r:id="rId102"/>
-    <hyperlink ref="E46" r:id="rId103"/>
-    <hyperlink ref="E48" r:id="rId104"/>
-    <hyperlink ref="E49" r:id="rId105"/>
-    <hyperlink ref="E47" r:id="rId106"/>
-    <hyperlink ref="E50" r:id="rId107"/>
-    <hyperlink ref="E51" r:id="rId108"/>
-    <hyperlink ref="E52" r:id="rId109"/>
-    <hyperlink ref="E53" r:id="rId110"/>
-    <hyperlink ref="E54" r:id="rId111"/>
-    <hyperlink ref="E55" r:id="rId112"/>
-    <hyperlink ref="E56" r:id="rId113"/>
-    <hyperlink ref="E57" r:id="rId114"/>
-    <hyperlink ref="E61" r:id="rId115"/>
-    <hyperlink ref="E60" r:id="rId116"/>
-    <hyperlink ref="E59" r:id="rId117"/>
-    <hyperlink ref="E62" r:id="rId118"/>
-    <hyperlink ref="E63" r:id="rId119"/>
-    <hyperlink ref="E64" r:id="rId120"/>
-    <hyperlink ref="E65" r:id="rId121"/>
-    <hyperlink ref="E66" r:id="rId122"/>
-    <hyperlink ref="E67" r:id="rId123"/>
-    <hyperlink ref="E68" r:id="rId124"/>
-    <hyperlink ref="E69" r:id="rId125"/>
-    <hyperlink ref="E72" r:id="rId126"/>
-    <hyperlink ref="E73" r:id="rId127"/>
-    <hyperlink ref="E74" r:id="rId128"/>
-    <hyperlink ref="E75" r:id="rId129"/>
-    <hyperlink ref="E108" r:id="rId130"/>
-    <hyperlink ref="E76" r:id="rId131"/>
-    <hyperlink ref="E77" r:id="rId132"/>
-    <hyperlink ref="E78" r:id="rId133"/>
-    <hyperlink ref="E58" r:id="rId134"/>
-    <hyperlink ref="E81" r:id="rId135"/>
-    <hyperlink ref="E82" r:id="rId136"/>
-    <hyperlink ref="E83" r:id="rId137"/>
-    <hyperlink ref="E109" r:id="rId138"/>
-    <hyperlink ref="E84" r:id="rId139"/>
-    <hyperlink ref="E85" r:id="rId140"/>
-    <hyperlink ref="E86" r:id="rId141"/>
-    <hyperlink ref="E87" r:id="rId142"/>
-    <hyperlink ref="E110" r:id="rId143"/>
-    <hyperlink ref="E88" r:id="rId144"/>
-    <hyperlink ref="E79" r:id="rId145"/>
-    <hyperlink ref="E80" r:id="rId146"/>
-    <hyperlink ref="E70" r:id="rId147"/>
-    <hyperlink ref="E71" r:id="rId148"/>
-    <hyperlink ref="F147" r:id="rId149"/>
-    <hyperlink ref="E147" r:id="rId150"/>
-    <hyperlink ref="F146" r:id="rId151"/>
-    <hyperlink ref="E146" r:id="rId152"/>
-    <hyperlink ref="F145" r:id="rId153"/>
-    <hyperlink ref="E145" r:id="rId154"/>
-    <hyperlink ref="F144" r:id="rId155"/>
-    <hyperlink ref="E144" r:id="rId156"/>
-    <hyperlink ref="F143" r:id="rId157"/>
-    <hyperlink ref="E143" r:id="rId158"/>
-    <hyperlink ref="F142" r:id="rId159"/>
-    <hyperlink ref="E142" r:id="rId160"/>
-    <hyperlink ref="F141" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E141" r:id="rId161"/>
-    <hyperlink ref="F140" r:id="rId162"/>
-    <hyperlink ref="E140" r:id="rId163"/>
-    <hyperlink ref="E139" r:id="rId164"/>
-    <hyperlink ref="F139" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F138" r:id="rId166"/>
-    <hyperlink ref="E138" r:id="rId167"/>
-    <hyperlink ref="F137" r:id="rId168"/>
-    <hyperlink ref="E137" r:id="rId169"/>
-    <hyperlink ref="E136" r:id="rId170"/>
-    <hyperlink ref="E135" r:id="rId171"/>
-    <hyperlink ref="E133" r:id="rId172"/>
-    <hyperlink ref="F133" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F132" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E132" r:id="rId174"/>
-    <hyperlink ref="F131" r:id="rId175"/>
-    <hyperlink ref="E131" r:id="rId176"/>
-    <hyperlink ref="F130" r:id="rId177"/>
-    <hyperlink ref="E130" r:id="rId178"/>
-    <hyperlink ref="E129" r:id="rId179"/>
-    <hyperlink ref="F129" r:id="rId180"/>
-    <hyperlink ref="E128" r:id="rId181"/>
-    <hyperlink ref="F128" r:id="rId182"/>
-    <hyperlink ref="E120" r:id="rId183"/>
-    <hyperlink ref="F120" r:id="rId184"/>
-    <hyperlink ref="F127" r:id="rId185"/>
-    <hyperlink ref="E127" r:id="rId186"/>
-    <hyperlink ref="E148" r:id="rId187"/>
-    <hyperlink ref="F89" r:id="rId188"/>
-    <hyperlink ref="E89" r:id="rId189"/>
-    <hyperlink ref="F107" r:id="rId190"/>
-    <hyperlink ref="E107" r:id="rId191"/>
-    <hyperlink ref="F97" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E97" r:id="rId193"/>
-    <hyperlink ref="F100" r:id="rId194"/>
-    <hyperlink ref="E100" r:id="rId195"/>
-    <hyperlink ref="F101" r:id="rId196"/>
-    <hyperlink ref="E101" r:id="rId197"/>
-    <hyperlink ref="E102" r:id="rId198"/>
-    <hyperlink ref="E103" r:id="rId199"/>
-    <hyperlink ref="E104" r:id="rId200"/>
-    <hyperlink ref="F104" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E106" r:id="rId202"/>
-    <hyperlink ref="E105" r:id="rId203"/>
-    <hyperlink ref="E98" r:id="rId204"/>
-    <hyperlink ref="F98" r:id="rId205"/>
-    <hyperlink ref="E99" r:id="rId206"/>
-    <hyperlink ref="F99" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F95" r:id="rId208"/>
-    <hyperlink ref="E95" r:id="rId209"/>
-    <hyperlink ref="E96" r:id="rId210"/>
-    <hyperlink ref="F96" r:id="rId211"/>
-    <hyperlink ref="F91" r:id="rId212"/>
-    <hyperlink ref="E91" r:id="rId213"/>
-    <hyperlink ref="E92" r:id="rId214"/>
-    <hyperlink ref="F92" r:id="rId215"/>
-    <hyperlink ref="F93" r:id="rId216"/>
-    <hyperlink ref="E93" r:id="rId217"/>
-    <hyperlink ref="F94" r:id="rId218"/>
-    <hyperlink ref="E94" r:id="rId219"/>
-    <hyperlink ref="F90" r:id="rId220"/>
-    <hyperlink ref="E90" r:id="rId221"/>
-    <hyperlink ref="E114" r:id="rId222"/>
-    <hyperlink ref="F7" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E7" r:id="rId224"/>
-    <hyperlink ref="F8" r:id="rId225"/>
-    <hyperlink ref="E8" r:id="rId226"/>
-    <hyperlink ref="F9" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E9" r:id="rId228"/>
-    <hyperlink ref="F10" r:id="rId229"/>
-    <hyperlink ref="E10" r:id="rId230"/>
-    <hyperlink ref="F12" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E12" r:id="rId232"/>
-    <hyperlink ref="F14" r:id="rId233"/>
-    <hyperlink ref="E14" r:id="rId234"/>
-    <hyperlink ref="F15" r:id="rId235"/>
-    <hyperlink ref="E15" r:id="rId236"/>
-    <hyperlink ref="F16" r:id="rId237"/>
-    <hyperlink ref="E16" r:id="rId238"/>
-    <hyperlink ref="F17" r:id="rId239"/>
-    <hyperlink ref="E17" r:id="rId240"/>
-    <hyperlink ref="F18" r:id="rId241"/>
-    <hyperlink ref="E18" r:id="rId242"/>
-    <hyperlink ref="F19" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E19" r:id="rId243"/>
-    <hyperlink ref="F11" r:id="rId244"/>
-    <hyperlink ref="F13" r:id="rId245"/>
-    <hyperlink ref="E13" r:id="rId246"/>
-    <hyperlink ref="E11" r:id="rId247"/>
-    <hyperlink ref="F6" r:id="rId248"/>
-    <hyperlink ref="E6" r:id="rId249"/>
-    <hyperlink ref="F5" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E5" r:id="rId251"/>
-    <hyperlink ref="F4" r:id="rId252"/>
-    <hyperlink ref="E4" r:id="rId253"/>
-    <hyperlink ref="F3" r:id="rId254"/>
-    <hyperlink ref="E3" r:id="rId255"/>
+    <hyperlink ref="E3" r:id="rId69"/>
+    <hyperlink ref="E4" r:id="rId70"/>
+    <hyperlink ref="E6" r:id="rId71"/>
+    <hyperlink ref="E7" r:id="rId72"/>
+    <hyperlink ref="E8" r:id="rId73"/>
+    <hyperlink ref="E9" r:id="rId74"/>
+    <hyperlink ref="E11" r:id="rId75"/>
+    <hyperlink ref="E10" r:id="rId76"/>
+    <hyperlink ref="E12" r:id="rId77"/>
+    <hyperlink ref="E13" r:id="rId78"/>
+    <hyperlink ref="E14" r:id="rId79"/>
+    <hyperlink ref="E15" r:id="rId80"/>
+    <hyperlink ref="E16" r:id="rId81"/>
+    <hyperlink ref="E17" r:id="rId82"/>
+    <hyperlink ref="E18" r:id="rId83"/>
+    <hyperlink ref="E19" r:id="rId84"/>
+    <hyperlink ref="E20" r:id="rId85"/>
+    <hyperlink ref="E21" r:id="rId86"/>
+    <hyperlink ref="E22" r:id="rId87"/>
+    <hyperlink ref="E23" r:id="rId88"/>
+    <hyperlink ref="E124" r:id="rId89"/>
+    <hyperlink ref="E125" r:id="rId90"/>
+    <hyperlink ref="E127" r:id="rId91"/>
+    <hyperlink ref="E128" r:id="rId92"/>
+    <hyperlink ref="E129" r:id="rId93"/>
+    <hyperlink ref="E130" r:id="rId94"/>
+    <hyperlink ref="E131" r:id="rId95"/>
+    <hyperlink ref="E132" r:id="rId96"/>
+    <hyperlink ref="E24" r:id="rId97"/>
+    <hyperlink ref="E25" r:id="rId98"/>
+    <hyperlink ref="E26" r:id="rId99"/>
+    <hyperlink ref="F26" r:id="rId100"/>
+    <hyperlink ref="E27" r:id="rId101"/>
+    <hyperlink ref="E28" r:id="rId102"/>
+    <hyperlink ref="E29" r:id="rId103"/>
+    <hyperlink ref="E31" r:id="rId104"/>
+    <hyperlink ref="E32" r:id="rId105"/>
+    <hyperlink ref="E30" r:id="rId106"/>
+    <hyperlink ref="E33" r:id="rId107"/>
+    <hyperlink ref="E34" r:id="rId108"/>
+    <hyperlink ref="E35" r:id="rId109"/>
+    <hyperlink ref="E36" r:id="rId110"/>
+    <hyperlink ref="E37" r:id="rId111"/>
+    <hyperlink ref="E38" r:id="rId112"/>
+    <hyperlink ref="E39" r:id="rId113"/>
+    <hyperlink ref="E40" r:id="rId114"/>
+    <hyperlink ref="E44" r:id="rId115"/>
+    <hyperlink ref="E43" r:id="rId116"/>
+    <hyperlink ref="E42" r:id="rId117"/>
+    <hyperlink ref="E45" r:id="rId118"/>
+    <hyperlink ref="E46" r:id="rId119"/>
+    <hyperlink ref="E47" r:id="rId120"/>
+    <hyperlink ref="E48" r:id="rId121"/>
+    <hyperlink ref="E49" r:id="rId122"/>
+    <hyperlink ref="E50" r:id="rId123"/>
+    <hyperlink ref="E51" r:id="rId124"/>
+    <hyperlink ref="E52" r:id="rId125"/>
+    <hyperlink ref="E55" r:id="rId126"/>
+    <hyperlink ref="E56" r:id="rId127"/>
+    <hyperlink ref="E57" r:id="rId128"/>
+    <hyperlink ref="E58" r:id="rId129"/>
+    <hyperlink ref="E114" r:id="rId130"/>
+    <hyperlink ref="E59" r:id="rId131"/>
+    <hyperlink ref="E60" r:id="rId132"/>
+    <hyperlink ref="E61" r:id="rId133"/>
+    <hyperlink ref="E41" r:id="rId134"/>
+    <hyperlink ref="E64" r:id="rId135"/>
+    <hyperlink ref="E65" r:id="rId136"/>
+    <hyperlink ref="E66" r:id="rId137"/>
+    <hyperlink ref="E115" r:id="rId138"/>
+    <hyperlink ref="E67" r:id="rId139"/>
+    <hyperlink ref="E68" r:id="rId140"/>
+    <hyperlink ref="E69" r:id="rId141"/>
+    <hyperlink ref="E70" r:id="rId142"/>
+    <hyperlink ref="E116" r:id="rId143"/>
+    <hyperlink ref="E71" r:id="rId144"/>
+    <hyperlink ref="E62" r:id="rId145"/>
+    <hyperlink ref="E63" r:id="rId146"/>
+    <hyperlink ref="E53" r:id="rId147"/>
+    <hyperlink ref="E54" r:id="rId148"/>
+    <hyperlink ref="F153" r:id="rId149"/>
+    <hyperlink ref="E153" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="E152" r:id="rId152"/>
+    <hyperlink ref="F151" r:id="rId153"/>
+    <hyperlink ref="E151" r:id="rId154"/>
+    <hyperlink ref="F150" r:id="rId155"/>
+    <hyperlink ref="E150" r:id="rId156"/>
+    <hyperlink ref="F149" r:id="rId157"/>
+    <hyperlink ref="E149" r:id="rId158"/>
+    <hyperlink ref="F148" r:id="rId159"/>
+    <hyperlink ref="E148" r:id="rId160"/>
+    <hyperlink ref="F147" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E147" r:id="rId161"/>
+    <hyperlink ref="F146" r:id="rId162"/>
+    <hyperlink ref="E146" r:id="rId163"/>
+    <hyperlink ref="E145" r:id="rId164"/>
+    <hyperlink ref="F145" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F144" r:id="rId166"/>
+    <hyperlink ref="E144" r:id="rId167"/>
+    <hyperlink ref="F143" r:id="rId168"/>
+    <hyperlink ref="E143" r:id="rId169"/>
+    <hyperlink ref="E142" r:id="rId170"/>
+    <hyperlink ref="E141" r:id="rId171"/>
+    <hyperlink ref="E139" r:id="rId172"/>
+    <hyperlink ref="F139" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F138" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E138" r:id="rId174"/>
+    <hyperlink ref="F137" r:id="rId175"/>
+    <hyperlink ref="E137" r:id="rId176"/>
+    <hyperlink ref="F136" r:id="rId177"/>
+    <hyperlink ref="E136" r:id="rId178"/>
+    <hyperlink ref="E135" r:id="rId179"/>
+    <hyperlink ref="F135" r:id="rId180"/>
+    <hyperlink ref="E134" r:id="rId181"/>
+    <hyperlink ref="F134" r:id="rId182"/>
+    <hyperlink ref="E126" r:id="rId183"/>
+    <hyperlink ref="F126" r:id="rId184"/>
+    <hyperlink ref="F133" r:id="rId185"/>
+    <hyperlink ref="E133" r:id="rId186"/>
+    <hyperlink ref="E169" r:id="rId187"/>
+    <hyperlink ref="F95" r:id="rId188"/>
+    <hyperlink ref="E95" r:id="rId189"/>
+    <hyperlink ref="F113" r:id="rId190"/>
+    <hyperlink ref="E113" r:id="rId191"/>
+    <hyperlink ref="F103" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E103" r:id="rId193"/>
+    <hyperlink ref="F106" r:id="rId194"/>
+    <hyperlink ref="E106" r:id="rId195"/>
+    <hyperlink ref="F107" r:id="rId196"/>
+    <hyperlink ref="E107" r:id="rId197"/>
+    <hyperlink ref="E108" r:id="rId198"/>
+    <hyperlink ref="E109" r:id="rId199"/>
+    <hyperlink ref="E110" r:id="rId200"/>
+    <hyperlink ref="F110" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E112" r:id="rId202"/>
+    <hyperlink ref="E111" r:id="rId203"/>
+    <hyperlink ref="E104" r:id="rId204"/>
+    <hyperlink ref="F104" r:id="rId205"/>
+    <hyperlink ref="E105" r:id="rId206"/>
+    <hyperlink ref="F105" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F101" r:id="rId208"/>
+    <hyperlink ref="E101" r:id="rId209"/>
+    <hyperlink ref="E102" r:id="rId210"/>
+    <hyperlink ref="F102" r:id="rId211"/>
+    <hyperlink ref="F97" r:id="rId212"/>
+    <hyperlink ref="E97" r:id="rId213"/>
+    <hyperlink ref="E98" r:id="rId214"/>
+    <hyperlink ref="F98" r:id="rId215"/>
+    <hyperlink ref="F99" r:id="rId216"/>
+    <hyperlink ref="E99" r:id="rId217"/>
+    <hyperlink ref="F100" r:id="rId218"/>
+    <hyperlink ref="E100" r:id="rId219"/>
+    <hyperlink ref="F96" r:id="rId220"/>
+    <hyperlink ref="E96" r:id="rId221"/>
+    <hyperlink ref="E120" r:id="rId222"/>
+    <hyperlink ref="F156" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E156" r:id="rId224"/>
+    <hyperlink ref="F157" r:id="rId225"/>
+    <hyperlink ref="E157" r:id="rId226"/>
+    <hyperlink ref="F158" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E158" r:id="rId228"/>
+    <hyperlink ref="F159" r:id="rId229"/>
+    <hyperlink ref="E159" r:id="rId230"/>
+    <hyperlink ref="F161" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E161" r:id="rId232"/>
+    <hyperlink ref="F163" r:id="rId233"/>
+    <hyperlink ref="E163" r:id="rId234"/>
+    <hyperlink ref="F164" r:id="rId235"/>
+    <hyperlink ref="E164" r:id="rId236"/>
+    <hyperlink ref="F165" r:id="rId237"/>
+    <hyperlink ref="E165" r:id="rId238"/>
+    <hyperlink ref="F166" r:id="rId239"/>
+    <hyperlink ref="E166" r:id="rId240"/>
+    <hyperlink ref="F167" r:id="rId241"/>
+    <hyperlink ref="E167" r:id="rId242"/>
+    <hyperlink ref="F168" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E168" r:id="rId243"/>
+    <hyperlink ref="F160" r:id="rId244"/>
+    <hyperlink ref="F162" r:id="rId245"/>
+    <hyperlink ref="E162" r:id="rId246"/>
+    <hyperlink ref="E160" r:id="rId247"/>
+    <hyperlink ref="F94" r:id="rId248"/>
+    <hyperlink ref="E94" r:id="rId249"/>
+    <hyperlink ref="F155" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E155" r:id="rId251"/>
+    <hyperlink ref="F93" r:id="rId252"/>
+    <hyperlink ref="E93" r:id="rId253"/>
+    <hyperlink ref="F154" r:id="rId254"/>
+    <hyperlink ref="E154" r:id="rId255"/>
+    <hyperlink ref="F76" r:id="rId256"/>
+    <hyperlink ref="E76" r:id="rId257"/>
+    <hyperlink ref="E77" r:id="rId258"/>
+    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F78" r:id="rId260"/>
+    <hyperlink ref="E78" r:id="rId261"/>
+    <hyperlink ref="E80" r:id="rId262"/>
+    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E81" r:id="rId264"/>
+    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E82" r:id="rId265"/>
+    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F83" r:id="rId267"/>
+    <hyperlink ref="E83" r:id="rId268"/>
+    <hyperlink ref="F84" r:id="rId269"/>
+    <hyperlink ref="E84" r:id="rId270"/>
+    <hyperlink ref="E85" r:id="rId271"/>
+    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E86" r:id="rId273"/>
+    <hyperlink ref="E87" r:id="rId274"/>
+    <hyperlink ref="F87" r:id="rId275"/>
+    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E88" r:id="rId276"/>
+    <hyperlink ref="E89" r:id="rId277"/>
+    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E90" r:id="rId280"/>
+    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E91" r:id="rId282"/>
+    <hyperlink ref="F92" r:id="rId283"/>
+    <hyperlink ref="E92" r:id="rId284"/>
+    <hyperlink ref="F75" r:id="rId285"/>
+    <hyperlink ref="E75" r:id="rId286"/>
+    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E79" r:id="rId287"/>
+    <hyperlink ref="F72" r:id="rId288"/>
+    <hyperlink ref="E72" r:id="rId289"/>
+    <hyperlink ref="F73" r:id="rId290"/>
+    <hyperlink ref="E73" r:id="rId291"/>
+    <hyperlink ref="F74" r:id="rId292"/>
+    <hyperlink ref="E74" r:id="rId293"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId256"/>
+  <pageSetup orientation="portrait" r:id="rId294"/>
   <tableParts count="1">
-    <tablePart r:id="rId257"/>
+    <tablePart r:id="rId295"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$171</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="515">
   <si>
     <t>Nombre</t>
   </si>
@@ -1554,6 +1554,24 @@
   </si>
   <si>
     <t>Audfifonos Auricular Gamer Ku133 Negro Con Luz Led</t>
+  </si>
+  <si>
+    <t>Probador De Baterias Analizador Diagnóstico For Auto 12v 24v</t>
+  </si>
+  <si>
+    <t>Obd2 Scanner Escáner Automotriz Para Autos De Multimarcas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3630356430-probador-de-baterias-analizador-diagnostico-for-auto-12v-24v-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_979005-CBT86061757985_062025-F-probador-de-baterias-analizador-diagnostico-for-auto-12v-24v.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3590835730-obd2-scanner-escaner-automotriz-para-autos-de-multimarcas-_JM?quantity=1#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_925065-CBT86508122752_062025-F-obd2-scanner-escaner-automotriz-para-autos-de-multimarcas.webp</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1788,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G169" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G171" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G171"/>
   <sortState ref="A2:G169">
     <sortCondition descending="1" ref="G1:G169"/>
   </sortState>
@@ -2051,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection sqref="A1:G169"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,61 +2131,70 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
       </c>
       <c r="C3" s="4">
-        <v>170.73</v>
+        <v>385</v>
       </c>
       <c r="D3" s="4">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="G3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
       </c>
       <c r="C4" s="4">
-        <v>133</v>
+        <v>670</v>
+      </c>
+      <c r="D4" s="4">
+        <v>500</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>162</v>
+        <v>512</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>248</v>
+        <v>511</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="4">
-        <v>299</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>153</v>
+        <v>170.73</v>
+      </c>
+      <c r="D5" s="4">
+        <v>140</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>248</v>
@@ -2175,22 +2202,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="4">
-        <v>259</v>
-      </c>
-      <c r="D6" s="4">
-        <v>150</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>248</v>
@@ -2198,22 +2222,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="4">
-        <v>279</v>
-      </c>
-      <c r="D7" s="4">
-        <v>180</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>299</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>248</v>
@@ -2221,22 +2239,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="4">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="D8" s="4">
-        <v>120</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>168</v>
+        <v>150</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>248</v>
@@ -2244,22 +2262,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="4">
-        <v>178.03</v>
+        <v>279</v>
       </c>
       <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>248</v>
@@ -2267,22 +2285,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>203</v>
       </c>
       <c r="C10" s="4">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
         <v>248</v>
@@ -2290,22 +2308,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="4">
-        <v>193.7</v>
+        <v>178.03</v>
       </c>
       <c r="D11" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>248</v>
@@ -2313,19 +2331,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
       <c r="C12" s="4">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="G12" t="s">
         <v>248</v>
@@ -2333,19 +2354,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="4">
+        <v>193.7</v>
+      </c>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>248</v>
@@ -2353,22 +2377,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="4">
-        <v>248.02</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
         <v>248</v>
@@ -2376,19 +2397,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
       </c>
       <c r="C15" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>248</v>
@@ -2396,22 +2417,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="4">
-        <v>269</v>
+        <v>248.02</v>
       </c>
       <c r="D16" s="4">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
         <v>248</v>
@@ -2419,19 +2440,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>203</v>
       </c>
       <c r="C17" s="4">
-        <v>315</v>
+        <v>120</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
         <v>248</v>
@@ -2439,19 +2460,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
       </c>
       <c r="C18" s="4">
-        <v>210</v>
+        <v>269</v>
+      </c>
+      <c r="D18" s="4">
+        <v>165</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
         <v>248</v>
@@ -2459,22 +2483,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
         <v>248</v>
@@ -2482,45 +2503,42 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="4">
-        <v>102.22</v>
-      </c>
-      <c r="D20" s="4">
+        <v>210</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>203</v>
       </c>
       <c r="C21" s="4">
-        <v>210</v>
+        <v>119.4</v>
       </c>
       <c r="D21" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
         <v>248</v>
@@ -2528,45 +2546,45 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="4">
-        <v>166.93</v>
+        <v>102.22</v>
       </c>
       <c r="D22" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="4">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="D23" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
         <v>248</v>
@@ -2574,22 +2592,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="4">
-        <v>1072.6500000000001</v>
+        <v>166.93</v>
       </c>
       <c r="D24" s="4">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
         <v>248</v>
@@ -2597,22 +2615,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="4">
-        <v>393.2</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>248</v>
@@ -2620,22 +2638,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="4">
-        <v>342.66</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D26" s="4">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>248</v>
@@ -2643,22 +2661,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
         <v>203</v>
       </c>
       <c r="C27" s="4">
-        <v>323.66000000000003</v>
+        <v>393.2</v>
       </c>
       <c r="D27" s="4">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
         <v>248</v>
@@ -2666,22 +2684,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>203</v>
       </c>
       <c r="C28" s="4">
-        <v>237.76</v>
+        <v>342.66</v>
       </c>
       <c r="D28" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
         <v>248</v>
@@ -2689,22 +2707,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="4">
-        <v>359</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D29" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
         <v>248</v>
@@ -2712,22 +2730,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="4">
-        <v>210</v>
+        <v>237.76</v>
       </c>
       <c r="D30" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
         <v>248</v>
@@ -2735,19 +2753,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>203</v>
       </c>
       <c r="C31" s="4">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="D31" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="G31" t="s">
         <v>248</v>
@@ -2755,19 +2776,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
       </c>
       <c r="C32" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D32" s="4">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="G32" t="s">
         <v>248</v>
@@ -2775,22 +2799,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>203</v>
       </c>
       <c r="C33" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D33" s="4">
         <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
         <v>248</v>
@@ -2798,22 +2819,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>203</v>
       </c>
       <c r="C34" s="4">
-        <v>266.95999999999998</v>
+        <v>160</v>
       </c>
       <c r="D34" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s">
         <v>248</v>
@@ -2821,45 +2839,45 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="4">
-        <v>495.99</v>
+        <v>120</v>
       </c>
       <c r="D35" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="4">
-        <v>633.91</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D36" s="4">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
         <v>248</v>
@@ -2867,45 +2885,45 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>203</v>
       </c>
       <c r="C37" s="4">
-        <v>1064.8800000000001</v>
+        <v>495.99</v>
       </c>
       <c r="D37" s="4">
-        <v>1025</v>
+        <v>350</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="19" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>203</v>
       </c>
       <c r="C38" s="4">
-        <v>758.9</v>
+        <v>633.91</v>
       </c>
       <c r="D38" s="4">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
         <v>248</v>
@@ -2913,19 +2931,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>203</v>
       </c>
       <c r="C39" s="4">
-        <v>400</v>
+        <v>1064.8800000000001</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1025</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
         <v>248</v>
@@ -2933,22 +2954,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>203</v>
       </c>
       <c r="C40" s="4">
-        <v>268</v>
+        <v>758.9</v>
       </c>
       <c r="D40" s="4">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F40" t="s">
-        <v>126</v>
+        <v>209</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G40" t="s">
         <v>248</v>
@@ -2956,22 +2977,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>203</v>
       </c>
       <c r="C41" s="4">
-        <v>1899</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>231</v>
+        <v>400</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
         <v>248</v>
@@ -2979,19 +2997,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="4">
-        <v>166.88</v>
+        <v>268</v>
       </c>
       <c r="D42" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
       </c>
       <c r="G42" t="s">
         <v>248</v>
@@ -2999,19 +3020,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="4">
-        <v>149.99</v>
+        <v>1899</v>
       </c>
       <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>214</v>
+        <v>1500</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="G43" t="s">
         <v>248</v>
@@ -3019,22 +3043,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="4">
-        <v>2100</v>
+        <v>166.88</v>
       </c>
       <c r="D44" s="4">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
         <v>248</v>
@@ -3042,22 +3063,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="4">
-        <v>325.32</v>
+        <v>149.99</v>
       </c>
       <c r="D45" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
         <v>248</v>
@@ -3065,22 +3083,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>203</v>
       </c>
       <c r="C46" s="4">
-        <v>589.4</v>
+        <v>2100</v>
       </c>
       <c r="D46" s="4">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" t="s">
         <v>248</v>
@@ -3088,19 +3106,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>203</v>
       </c>
       <c r="C47" s="4">
-        <v>289</v>
+        <v>325.32</v>
+      </c>
+      <c r="D47" s="4">
+        <v>250</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
         <v>248</v>
@@ -3108,22 +3129,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>203</v>
       </c>
       <c r="C48" s="4">
-        <v>411.67</v>
+        <v>589.4</v>
       </c>
       <c r="D48" s="4">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="G48" t="s">
         <v>248</v>
@@ -3131,16 +3152,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="4">
-        <v>322.36</v>
+        <v>289</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="G49" t="s">
         <v>248</v>
@@ -3148,22 +3172,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="4">
-        <v>689.2</v>
+        <v>411.67</v>
       </c>
       <c r="D50" s="4">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>132</v>
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>219</v>
       </c>
       <c r="G50" t="s">
         <v>248</v>
@@ -3171,19 +3195,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s">
         <v>203</v>
       </c>
       <c r="C51" s="4">
-        <v>240</v>
+        <v>322.36</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="G51" t="s">
         <v>248</v>
@@ -3191,19 +3212,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
         <v>203</v>
       </c>
       <c r="C52" s="4">
-        <v>270</v>
+        <v>689.2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>500</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G52" t="s">
         <v>248</v>
@@ -3211,16 +3235,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="B53" t="s">
         <v>203</v>
       </c>
       <c r="C53" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>245</v>
+        <v>222</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G53" t="s">
         <v>248</v>
@@ -3228,16 +3255,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>246</v>
+        <v>223</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G54" t="s">
         <v>248</v>
@@ -3245,22 +3275,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>203</v>
       </c>
       <c r="C55" s="4">
-        <v>374.7</v>
-      </c>
-      <c r="D55" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="G55" t="s">
         <v>248</v>
@@ -3268,22 +3292,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="4">
-        <v>399</v>
-      </c>
-      <c r="D56" s="4">
         <v>200</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
         <v>248</v>
@@ -3291,22 +3309,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>203</v>
       </c>
       <c r="C57" s="4">
-        <v>499</v>
+        <v>374.7</v>
       </c>
       <c r="D57" s="4">
         <v>150</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G57" t="s">
         <v>248</v>
@@ -3314,19 +3332,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>203</v>
       </c>
       <c r="C58" s="4">
-        <v>100</v>
+        <v>399</v>
+      </c>
+      <c r="D58" s="4">
+        <v>200</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
         <v>248</v>
@@ -3334,22 +3355,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>203</v>
       </c>
       <c r="C59" s="4">
-        <v>126.85</v>
+        <v>499</v>
       </c>
       <c r="D59" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
         <v>248</v>
@@ -3357,19 +3378,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>203</v>
       </c>
       <c r="C60" s="4">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G60" t="s">
         <v>248</v>
@@ -3377,22 +3398,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
         <v>203</v>
       </c>
       <c r="C61" s="4">
-        <v>238.9</v>
+        <v>126.85</v>
       </c>
       <c r="D61" s="4">
         <v>100</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
         <v>248</v>
@@ -3400,40 +3421,42 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
         <v>203</v>
       </c>
       <c r="C62" s="4">
-        <v>175</v>
-      </c>
-      <c r="D62" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="G62" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C63" s="4">
-        <v>219.5</v>
+        <v>238.9</v>
       </c>
       <c r="D63" s="4">
         <v>100</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G63" t="s">
         <v>248</v>
@@ -3441,39 +3464,40 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>377</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>203</v>
       </c>
       <c r="C64" s="4">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="D64" s="4">
+        <v>140</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>203</v>
       </c>
       <c r="C65" s="4">
-        <v>230</v>
+        <v>219.5</v>
+      </c>
+      <c r="D65" s="4">
+        <v>100</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="G65" t="s">
         <v>248</v>
@@ -3481,22 +3505,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
       </c>
       <c r="C66" s="4">
-        <v>226.52</v>
-      </c>
-      <c r="D66" s="4">
         <v>200</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
         <v>248</v>
@@ -3504,22 +3525,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="4">
-        <v>98.26</v>
-      </c>
-      <c r="D67" s="4">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
         <v>248</v>
@@ -3527,22 +3545,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="4">
-        <v>299.01</v>
+        <v>226.52</v>
       </c>
       <c r="D68" s="4">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
         <v>248</v>
@@ -3550,19 +3568,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>203</v>
       </c>
       <c r="C69" s="4">
-        <v>95.52</v>
+        <v>98.26</v>
+      </c>
+      <c r="D69" s="4">
+        <v>50</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
         <v>248</v>
@@ -3570,22 +3591,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>203</v>
       </c>
       <c r="C70" s="4">
-        <v>899</v>
+        <v>299.01</v>
       </c>
       <c r="D70" s="4">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
         <v>248</v>
@@ -3593,22 +3614,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>203</v>
       </c>
       <c r="C71" s="4">
-        <v>142</v>
-      </c>
-      <c r="D71" s="4">
-        <v>50</v>
+        <v>95.52</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G71" t="s">
         <v>248</v>
@@ -3616,59 +3634,65 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>506</v>
-      </c>
-      <c r="B72" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="4">
-        <v>250</v>
+        <v>899</v>
+      </c>
+      <c r="D72" s="4">
+        <v>400</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>499</v>
+        <v>239</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G72" s="20">
-        <v>5</v>
+        <v>150</v>
+      </c>
+      <c r="G72" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="4">
-        <v>200</v>
+        <v>142</v>
+      </c>
+      <c r="D73" s="4">
+        <v>50</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>502</v>
+        <v>241</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G73" s="20">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="G73" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>501</v>
-      </c>
-      <c r="B74" t="s">
+        <v>506</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>203</v>
       </c>
       <c r="C74" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G74" s="20">
         <v>5</v>
@@ -3676,22 +3700,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>494</v>
+        <v>203</v>
       </c>
       <c r="C75" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G75" s="20">
         <v>5</v>
@@ -3699,19 +3720,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="B76" t="s">
-        <v>440</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="G76" s="20">
         <v>5</v>
@@ -3719,19 +3740,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="C77" s="4">
-        <v>220</v>
+        <v>2600</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1800</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="G77" s="20">
         <v>5</v>
@@ -3739,19 +3763,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C78" s="4">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G78" s="20">
         <v>5</v>
@@ -3759,19 +3783,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>448</v>
       </c>
       <c r="C79" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
       <c r="G79" s="20">
         <v>5</v>
@@ -3779,22 +3803,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>447</v>
       </c>
       <c r="C80" s="4">
-        <v>352</v>
-      </c>
-      <c r="D80" s="4">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G80" s="20">
         <v>5</v>
@@ -3802,22 +3823,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
       </c>
       <c r="C81" s="4">
-        <v>389</v>
-      </c>
-      <c r="D81" s="4">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="G81" s="20">
         <v>5</v>
@@ -3825,22 +3843,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s">
         <v>203</v>
       </c>
       <c r="C82" s="4">
-        <v>999</v>
+        <v>352</v>
       </c>
       <c r="D82" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G82" s="20">
         <v>5</v>
@@ -3848,22 +3866,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
         <v>203</v>
       </c>
       <c r="C83" s="4">
-        <v>1552</v>
+        <v>389</v>
       </c>
       <c r="D83" s="4">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G83" s="20">
         <v>5</v>
@@ -3871,22 +3889,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s">
         <v>203</v>
       </c>
       <c r="C84" s="4">
-        <v>292</v>
+        <v>999</v>
       </c>
       <c r="D84" s="4">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G84" s="20">
         <v>5</v>
@@ -3894,22 +3912,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B85" t="s">
         <v>203</v>
       </c>
       <c r="C85" s="4">
-        <v>1500</v>
+        <v>1552</v>
       </c>
       <c r="D85" s="4">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G85" s="20">
         <v>5</v>
@@ -3917,22 +3935,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B86" t="s">
-        <v>468</v>
+        <v>203</v>
       </c>
       <c r="C86" s="4">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="D86" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="G86" s="20">
         <v>5</v>
@@ -3940,22 +3958,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B87" t="s">
-        <v>467</v>
+        <v>203</v>
       </c>
       <c r="C87" s="4">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="D87" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G87" s="20">
         <v>5</v>
@@ -3963,22 +3981,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B88" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C88" s="4">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D88" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="G88" s="20">
         <v>5</v>
@@ -3986,22 +4004,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B89" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C89" s="4">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c r="D89" s="4">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G89" s="20">
         <v>5</v>
@@ -4009,22 +4027,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B90" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C90" s="4">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="D90" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G90" s="20">
         <v>5</v>
@@ -4032,22 +4050,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C91" s="4">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D91" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G91" s="20">
         <v>5</v>
@@ -4055,19 +4073,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>487</v>
       </c>
       <c r="C92" s="4">
-        <v>250</v>
+        <v>270</v>
+      </c>
+      <c r="D92" s="4">
+        <v>150</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G92" s="20">
         <v>5</v>
@@ -4075,22 +4096,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="C93" s="4">
-        <v>11200</v>
+        <v>250</v>
       </c>
       <c r="D93" s="4">
-        <v>6500</v>
+        <v>150</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G93" s="20">
         <v>5</v>
@@ -4098,89 +4119,88 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>203</v>
       </c>
       <c r="C94" s="4">
-        <v>9700</v>
-      </c>
-      <c r="D94" s="4">
-        <v>5500</v>
+        <v>250</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="G94" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>321</v>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>430</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="13">
-        <v>375</v>
-      </c>
-      <c r="D95" s="13">
-        <v>260</v>
+        <v>431</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11200</v>
+      </c>
+      <c r="D95" s="4">
+        <v>6500</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G95" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>369</v>
+        <v>429</v>
+      </c>
+      <c r="G95" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>422</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="13">
-        <v>200</v>
-      </c>
-      <c r="D96" s="13"/>
+        <v>423</v>
+      </c>
+      <c r="C96" s="4">
+        <v>9700</v>
+      </c>
+      <c r="D96" s="4">
+        <v>5500</v>
+      </c>
       <c r="E96" s="6" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G96" s="14">
-        <v>4</v>
+        <v>424</v>
+      </c>
+      <c r="G96" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="B97" t="s">
         <v>203</v>
       </c>
       <c r="C97" s="13">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="D97" s="13">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
@@ -4188,22 +4208,20 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B98" t="s">
         <v>203</v>
       </c>
       <c r="C98" s="13">
-        <v>279</v>
-      </c>
-      <c r="D98" s="13">
-        <v>150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D98" s="13"/>
       <c r="E98" s="6" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="G98" s="14">
         <v>4</v>
@@ -4211,22 +4229,22 @@
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B99" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="13">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="D99" s="13">
         <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
@@ -4234,85 +4252,87 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
       </c>
       <c r="C100" s="13">
-        <v>300</v>
-      </c>
-      <c r="D100" s="13"/>
+        <v>279</v>
+      </c>
+      <c r="D100" s="13">
+        <v>150</v>
+      </c>
       <c r="E100" s="6" t="s">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>366</v>
+        <v>90</v>
       </c>
       <c r="G100" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>355</v>
+      <c r="A101" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
       </c>
       <c r="C101" s="13">
-        <v>250</v>
-      </c>
-      <c r="D101" s="13"/>
+        <v>249</v>
+      </c>
+      <c r="D101" s="13">
+        <v>150</v>
+      </c>
       <c r="E101" s="6" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G101" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
-        <v>356</v>
+      <c r="A102" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="B102" t="s">
         <v>203</v>
       </c>
       <c r="C102" s="13">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="6" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G102" s="21">
+        <v>366</v>
+      </c>
+      <c r="G102" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
       </c>
       <c r="C103" s="13">
-        <v>400</v>
-      </c>
-      <c r="D103" s="13">
         <v>250</v>
       </c>
+      <c r="D103" s="13"/>
       <c r="E103" s="6" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="G103" s="14">
         <v>4</v>
@@ -4320,41 +4340,43 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
       </c>
       <c r="C104" s="13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G104" s="14">
+        <v>358</v>
+      </c>
+      <c r="G104" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
       <c r="C105" s="13">
+        <v>400</v>
+      </c>
+      <c r="D105" s="13">
         <v>250</v>
       </c>
-      <c r="D105" s="13"/>
       <c r="E105" s="6" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G105" s="14">
         <v>4</v>
@@ -4362,22 +4384,20 @@
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
       </c>
       <c r="C106" s="13">
-        <v>270</v>
-      </c>
-      <c r="D106" s="13">
-        <v>200</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D106" s="13"/>
       <c r="E106" s="6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="G106" s="14">
         <v>4</v>
@@ -4385,22 +4405,20 @@
     </row>
     <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
         <v>203</v>
       </c>
       <c r="C107" s="13">
-        <v>455</v>
-      </c>
-      <c r="D107" s="13">
-        <v>290</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D107" s="13"/>
       <c r="E107" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="G107" s="14">
         <v>4</v>
@@ -4408,22 +4426,22 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s">
         <v>203</v>
       </c>
       <c r="C108" s="13">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D108" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="G108" s="14">
         <v>4</v>
@@ -4431,43 +4449,45 @@
     </row>
     <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="13">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="D109" s="13">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F109" s="1"/>
+        <v>335</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="G109" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s">
         <v>203</v>
       </c>
       <c r="C110" s="13">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="D110" s="13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="G110" s="14">
         <v>4</v>
@@ -4475,7 +4495,7 @@
     </row>
     <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B111" t="s">
         <v>203</v>
@@ -4487,7 +4507,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="14">
@@ -4496,89 +4516,87 @@
     </row>
     <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B112" t="s">
         <v>203</v>
       </c>
       <c r="C112" s="13">
+        <v>375</v>
+      </c>
+      <c r="D112" s="13">
         <v>250</v>
       </c>
-      <c r="D112" s="13">
-        <v>200</v>
-      </c>
       <c r="E112" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F112" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="G112" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>324</v>
+      <c r="A113" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="B113" t="s">
         <v>203</v>
       </c>
       <c r="C113" s="13">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="D113" s="13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F113" s="1"/>
       <c r="G113" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>67</v>
+      <c r="A114" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="B114" t="s">
         <v>203</v>
       </c>
-      <c r="C114" s="4">
-        <v>322</v>
-      </c>
-      <c r="D114" s="4">
-        <v>270</v>
+      <c r="C114" s="13">
+        <v>250</v>
+      </c>
+      <c r="D114" s="13">
+        <v>200</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G114" s="16">
+        <v>344</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>73</v>
+      <c r="A115" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="B115" t="s">
         <v>203</v>
       </c>
-      <c r="C115" s="4">
-        <v>310</v>
-      </c>
-      <c r="D115" s="4">
-        <v>150</v>
+      <c r="C115" s="13">
+        <v>260</v>
+      </c>
+      <c r="D115" s="13">
+        <v>250</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="G115" s="14">
         <v>4</v>
@@ -4586,108 +4604,114 @@
     </row>
     <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="4">
+        <v>322</v>
+      </c>
+      <c r="D116" s="4">
+        <v>270</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G116" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="4">
+        <v>310</v>
+      </c>
+      <c r="D117" s="4">
+        <v>150</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G117" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>78</v>
       </c>
-      <c r="B116" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" s="4">
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="4">
         <v>103.9</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D118" s="4">
         <v>85</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G116" s="14">
+      <c r="G118" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B117" t="s">
-        <v>203</v>
-      </c>
-      <c r="C117" s="3">
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="3">
         <v>459.07</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D119" s="3">
         <v>425</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G117" s="22">
+      <c r="G119" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B120" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C120" s="3">
         <v>419.19</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D120" s="3">
         <v>235</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G118" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" t="s">
-        <v>374</v>
-      </c>
-      <c r="C119" s="4">
-        <v>470</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G119" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" t="s">
-        <v>374</v>
-      </c>
-      <c r="C120" s="4">
-        <v>170</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G120" s="8">
         <v>2</v>
@@ -4695,19 +4719,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
         <v>374</v>
       </c>
       <c r="C121" s="4">
-        <v>185</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>158</v>
+        <v>470</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G121" s="8">
         <v>2</v>
@@ -4715,22 +4739,19 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C122" s="4">
-        <v>298</v>
-      </c>
-      <c r="D122" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="G122" s="8">
         <v>2</v>
@@ -4738,65 +4759,65 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="C123" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D123" s="4">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G123" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>371</v>
+      <c r="A124" t="s">
+        <v>308</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C124" s="4">
-        <v>439</v>
+        <v>298</v>
       </c>
       <c r="D124" s="4">
-        <v>200</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>30</v>
+      <c r="A125" t="s">
+        <v>9</v>
       </c>
       <c r="B125" t="s">
         <v>203</v>
       </c>
       <c r="C125" s="4">
-        <v>183.99</v>
+        <v>194.36</v>
+      </c>
+      <c r="D125" s="4">
+        <v>150</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G125" s="8">
         <v>2</v>
@@ -4804,65 +4825,65 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="C126" s="4">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="D126" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
       <c r="G126" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>311</v>
+      <c r="A127" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B127" t="s">
         <v>203</v>
       </c>
       <c r="C127" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D127" s="4">
-        <v>170</v>
+        <v>183.99</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>31</v>
+      <c r="A128" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
       </c>
       <c r="C128" s="4">
-        <v>150</v>
+        <v>230</v>
+      </c>
+      <c r="D128" s="4">
+        <v>210</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="G128" s="8">
         <v>2</v>
@@ -4870,19 +4891,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="B129" t="s">
         <v>203</v>
       </c>
       <c r="C129" s="4">
-        <v>125</v>
+        <v>189.99</v>
+      </c>
+      <c r="D129" s="4">
+        <v>170</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G129" s="8">
         <v>2</v>
@@ -4890,19 +4914,19 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="C130" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="G130" s="8">
         <v>2</v>
@@ -4910,19 +4934,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
         <v>203</v>
       </c>
       <c r="C131" s="4">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G131" s="8">
         <v>2</v>
@@ -4930,131 +4954,128 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="C132" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G132" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>315</v>
+      <c r="A133" t="s">
+        <v>33</v>
       </c>
       <c r="B133" t="s">
         <v>203</v>
       </c>
       <c r="C133" s="4">
-        <v>130</v>
-      </c>
-      <c r="D133" s="4">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>317</v>
+        <v>191</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="G133" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>306</v>
+      <c r="A134" t="s">
+        <v>34</v>
       </c>
       <c r="B134" t="s">
         <v>203</v>
       </c>
       <c r="C134" s="4">
-        <v>389</v>
-      </c>
-      <c r="D134" s="4">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G134" s="7">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G134" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>301</v>
+      <c r="A135" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B135" t="s">
         <v>203</v>
       </c>
       <c r="C135" s="4">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D135" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G135" s="7">
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="G135" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
       </c>
       <c r="C136" s="4">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="D136" s="4">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G136" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>295</v>
+      <c r="A137" t="s">
+        <v>301</v>
       </c>
       <c r="B137" t="s">
         <v>203</v>
       </c>
       <c r="C137" s="4">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="D137" s="4">
+        <v>100</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
@@ -5062,7 +5083,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="B138" t="s">
         <v>203</v>
@@ -5074,56 +5095,53 @@
         <v>100</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>289</v>
+      <c r="A139" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B139" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="C139" s="4">
-        <v>135</v>
-      </c>
-      <c r="D139" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>288</v>
+      <c r="A140" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B140" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="C140" s="4">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D140" s="4">
-        <v>50</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F140" t="s">
-        <v>284</v>
+        <v>100</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
@@ -5131,19 +5149,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="C141" s="4">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D141" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
@@ -5151,19 +5172,19 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="C142" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D142" s="4">
-        <v>80</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>283</v>
+        <v>50</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="F142" t="s">
         <v>284</v>
@@ -5174,160 +5195,157 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
         <v>203</v>
       </c>
       <c r="C143" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D143" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>276</v>
+      <c r="A144" t="s">
+        <v>282</v>
       </c>
       <c r="B144" t="s">
         <v>203</v>
       </c>
       <c r="C144" s="4">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="D144" s="4">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
+      </c>
+      <c r="F144" t="s">
+        <v>284</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>273</v>
+      <c r="A145" t="s">
+        <v>281</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="C145" s="4">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="D145" s="4">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>269</v>
+      <c r="A146" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B146" t="s">
         <v>203</v>
       </c>
       <c r="C146" s="4">
-        <v>300</v>
+        <v>569</v>
       </c>
       <c r="D146" s="4">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>266</v>
+      <c r="A147" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="C147" s="4">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="D147" s="4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>263</v>
+      <c r="A148" t="s">
+        <v>269</v>
       </c>
       <c r="B148" t="s">
         <v>203</v>
       </c>
       <c r="C148" s="4">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="D148" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G148" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>380</v>
+      <c r="A149" t="s">
+        <v>266</v>
       </c>
       <c r="B149" t="s">
         <v>203</v>
       </c>
       <c r="C149" s="4">
-        <v>719</v>
+        <v>498</v>
       </c>
       <c r="D149" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
@@ -5335,22 +5353,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B150" t="s">
         <v>203</v>
       </c>
       <c r="C150" s="4">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="D150" s="4">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
@@ -5358,45 +5376,45 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="B151" t="s">
         <v>203</v>
       </c>
       <c r="C151" s="4">
-        <v>347</v>
+        <v>719</v>
       </c>
       <c r="D151" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>252</v>
+      <c r="A152" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B152" t="s">
         <v>203</v>
       </c>
       <c r="C152" s="4">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D152" s="4">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
@@ -5404,19 +5422,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B153" t="s">
         <v>203</v>
       </c>
       <c r="C153" s="4">
-        <v>500</v>
+        <v>347</v>
+      </c>
+      <c r="D153" s="4">
+        <v>220</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
@@ -5424,629 +5445,676 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="B154" t="s">
-        <v>435</v>
+        <v>203</v>
       </c>
       <c r="C154" s="4">
-        <v>4500</v>
+        <v>353</v>
       </c>
       <c r="D154" s="4">
-        <v>3550</v>
+        <v>290</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>432</v>
+        <v>253</v>
+      </c>
+      <c r="G154" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>426</v>
+      <c r="A155" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="C155" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D155" s="4">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>429</v>
+        <v>251</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>428</v>
+        <v>250</v>
+      </c>
+      <c r="G155" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="B156" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="C156" s="4">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="D156" s="4">
-        <v>750</v>
+        <v>3550</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="C157" s="4">
-        <v>300</v>
+        <v>5500</v>
+      </c>
+      <c r="D157" s="4">
+        <v>4700</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B158" t="s">
         <v>203</v>
       </c>
       <c r="C158" s="4">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="D158" s="4">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B159" t="s">
         <v>203</v>
       </c>
       <c r="C159" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B160" t="s">
         <v>203</v>
       </c>
       <c r="C160" s="4">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="D160" s="4">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B161" t="s">
         <v>203</v>
       </c>
       <c r="C161" s="4">
-        <v>550</v>
-      </c>
-      <c r="D161" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="B162" t="s">
+        <v>203</v>
       </c>
       <c r="C162" s="4">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D162" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B163" t="s">
         <v>203</v>
       </c>
       <c r="C163" s="4">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D163" s="4">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>400</v>
-      </c>
-      <c r="B164" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
       <c r="C164" s="4">
-        <v>660</v>
+        <v>398</v>
       </c>
       <c r="D164" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B165" t="s">
         <v>203</v>
       </c>
       <c r="C165" s="4">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="D165" s="4">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B166" t="s">
-        <v>409</v>
+        <v>203</v>
       </c>
       <c r="C166" s="4">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="D166" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B167" t="s">
         <v>203</v>
       </c>
       <c r="C167" s="4">
-        <v>1775</v>
+        <v>690</v>
       </c>
       <c r="D167" s="4">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>406</v>
+      </c>
+      <c r="B168" t="s">
+        <v>409</v>
+      </c>
+      <c r="C168" s="4">
+        <v>637</v>
+      </c>
+      <c r="D168" s="4">
+        <v>300</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>410</v>
+      </c>
+      <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1775</v>
+      </c>
+      <c r="D169" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>421</v>
       </c>
-      <c r="B168" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" s="4">
+      <c r="B170" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="4">
         <v>499</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D170" s="4">
         <v>350</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B171" t="s">
         <v>436</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C171" s="4">
         <v>2300</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D171" s="4">
         <v>1800</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="9"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F116" r:id="rId1"/>
-    <hyperlink ref="F69" r:id="rId2"/>
-    <hyperlink ref="F70" r:id="rId3"/>
-    <hyperlink ref="F68" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F67" r:id="rId4"/>
-    <hyperlink ref="F115" r:id="rId5"/>
-    <hyperlink ref="F66" r:id="rId6"/>
-    <hyperlink ref="F65" r:id="rId7"/>
-    <hyperlink ref="F64" r:id="rId8"/>
-    <hyperlink ref="F61" r:id="rId9"/>
-    <hyperlink ref="F58" r:id="rId10"/>
-    <hyperlink ref="F57" r:id="rId11"/>
-    <hyperlink ref="F60" r:id="rId12"/>
-    <hyperlink ref="F59" r:id="rId13"/>
-    <hyperlink ref="F114" r:id="rId14"/>
-    <hyperlink ref="F56" r:id="rId15"/>
-    <hyperlink ref="F55" r:id="rId16"/>
-    <hyperlink ref="F52" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F51" r:id="rId17"/>
-    <hyperlink ref="F50" r:id="rId18"/>
-    <hyperlink ref="F47" r:id="rId19"/>
-    <hyperlink ref="F46" r:id="rId20"/>
-    <hyperlink ref="F45" r:id="rId21"/>
-    <hyperlink ref="F44" r:id="rId22"/>
-    <hyperlink ref="F41" r:id="rId23"/>
-    <hyperlink ref="F39" r:id="rId24"/>
-    <hyperlink ref="F38" r:id="rId25"/>
-    <hyperlink ref="F37" r:id="rId26"/>
-    <hyperlink ref="F36" r:id="rId27"/>
-    <hyperlink ref="F35" r:id="rId28"/>
-    <hyperlink ref="F34" r:id="rId29"/>
-    <hyperlink ref="F33" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F30" r:id="rId30"/>
-    <hyperlink ref="F29" r:id="rId31"/>
-    <hyperlink ref="F28" r:id="rId32"/>
-    <hyperlink ref="F27" r:id="rId33"/>
-    <hyperlink ref="F25" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F24" r:id="rId34"/>
-    <hyperlink ref="F132" r:id="rId35"/>
-    <hyperlink ref="F131" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F130" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F125" r:id="rId36"/>
-    <hyperlink ref="F127" r:id="rId37"/>
-    <hyperlink ref="F129" r:id="rId38"/>
-    <hyperlink ref="F124" r:id="rId39"/>
-    <hyperlink ref="F23" r:id="rId40"/>
-    <hyperlink ref="F22" r:id="rId41"/>
-    <hyperlink ref="F21" r:id="rId42"/>
-    <hyperlink ref="F20" r:id="rId43"/>
-    <hyperlink ref="F19" r:id="rId44"/>
-    <hyperlink ref="F18" r:id="rId45"/>
-    <hyperlink ref="F17" r:id="rId46"/>
-    <hyperlink ref="F16" r:id="rId47"/>
-    <hyperlink ref="F15" r:id="rId48"/>
-    <hyperlink ref="F14" r:id="rId49"/>
-    <hyperlink ref="F11" r:id="rId50"/>
-    <hyperlink ref="F13" r:id="rId51"/>
-    <hyperlink ref="F10" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F9" r:id="rId52"/>
-    <hyperlink ref="F8" r:id="rId53"/>
-    <hyperlink ref="F6" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F7" r:id="rId54"/>
-    <hyperlink ref="F3" r:id="rId55"/>
-    <hyperlink ref="F4" r:id="rId56"/>
+    <hyperlink ref="F73" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F118" r:id="rId1"/>
+    <hyperlink ref="F71" r:id="rId2"/>
+    <hyperlink ref="F72" r:id="rId3"/>
+    <hyperlink ref="F70" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F69" r:id="rId4"/>
+    <hyperlink ref="F117" r:id="rId5"/>
+    <hyperlink ref="F68" r:id="rId6"/>
+    <hyperlink ref="F67" r:id="rId7"/>
+    <hyperlink ref="F66" r:id="rId8"/>
+    <hyperlink ref="F63" r:id="rId9"/>
+    <hyperlink ref="F60" r:id="rId10"/>
+    <hyperlink ref="F59" r:id="rId11"/>
+    <hyperlink ref="F62" r:id="rId12"/>
+    <hyperlink ref="F61" r:id="rId13"/>
+    <hyperlink ref="F116" r:id="rId14"/>
+    <hyperlink ref="F58" r:id="rId15"/>
+    <hyperlink ref="F57" r:id="rId16"/>
+    <hyperlink ref="F54" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F53" r:id="rId17"/>
+    <hyperlink ref="F52" r:id="rId18"/>
+    <hyperlink ref="F49" r:id="rId19"/>
+    <hyperlink ref="F48" r:id="rId20"/>
+    <hyperlink ref="F47" r:id="rId21"/>
+    <hyperlink ref="F46" r:id="rId22"/>
+    <hyperlink ref="F43" r:id="rId23"/>
+    <hyperlink ref="F41" r:id="rId24"/>
+    <hyperlink ref="F40" r:id="rId25"/>
+    <hyperlink ref="F39" r:id="rId26"/>
+    <hyperlink ref="F38" r:id="rId27"/>
+    <hyperlink ref="F37" r:id="rId28"/>
+    <hyperlink ref="F36" r:id="rId29"/>
+    <hyperlink ref="F35" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F31" r:id="rId31"/>
+    <hyperlink ref="F30" r:id="rId32"/>
+    <hyperlink ref="F29" r:id="rId33"/>
+    <hyperlink ref="F27" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F26" r:id="rId34"/>
+    <hyperlink ref="F134" r:id="rId35"/>
+    <hyperlink ref="F133" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F132" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F127" r:id="rId36"/>
+    <hyperlink ref="F129" r:id="rId37"/>
+    <hyperlink ref="F131" r:id="rId38"/>
+    <hyperlink ref="F126" r:id="rId39"/>
+    <hyperlink ref="F25" r:id="rId40"/>
+    <hyperlink ref="F24" r:id="rId41"/>
+    <hyperlink ref="F23" r:id="rId42"/>
+    <hyperlink ref="F22" r:id="rId43"/>
+    <hyperlink ref="F21" r:id="rId44"/>
+    <hyperlink ref="F20" r:id="rId45"/>
+    <hyperlink ref="F19" r:id="rId46"/>
+    <hyperlink ref="F18" r:id="rId47"/>
+    <hyperlink ref="F17" r:id="rId48"/>
+    <hyperlink ref="F16" r:id="rId49"/>
+    <hyperlink ref="F13" r:id="rId50"/>
+    <hyperlink ref="F15" r:id="rId51"/>
+    <hyperlink ref="F12" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F11" r:id="rId52"/>
+    <hyperlink ref="F10" r:id="rId53"/>
+    <hyperlink ref="F8" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F9" r:id="rId54"/>
+    <hyperlink ref="F5" r:id="rId55"/>
+    <hyperlink ref="F6" r:id="rId56"/>
     <hyperlink ref="F2" r:id="rId57"/>
-    <hyperlink ref="F122" r:id="rId58"/>
-    <hyperlink ref="F121" r:id="rId59"/>
-    <hyperlink ref="F123" r:id="rId60"/>
-    <hyperlink ref="F120" r:id="rId61"/>
-    <hyperlink ref="F119" r:id="rId62"/>
-    <hyperlink ref="F118" r:id="rId63"/>
-    <hyperlink ref="F117" r:id="rId64"/>
-    <hyperlink ref="E117" r:id="rId65"/>
-    <hyperlink ref="E121" r:id="rId66"/>
-    <hyperlink ref="E123" r:id="rId67"/>
+    <hyperlink ref="F124" r:id="rId58"/>
+    <hyperlink ref="F123" r:id="rId59"/>
+    <hyperlink ref="F125" r:id="rId60"/>
+    <hyperlink ref="F122" r:id="rId61"/>
+    <hyperlink ref="F121" r:id="rId62"/>
+    <hyperlink ref="F120" r:id="rId63"/>
+    <hyperlink ref="F119" r:id="rId64"/>
+    <hyperlink ref="E119" r:id="rId65"/>
+    <hyperlink ref="E123" r:id="rId66"/>
+    <hyperlink ref="E125" r:id="rId67"/>
     <hyperlink ref="E2" r:id="rId68"/>
-    <hyperlink ref="E3" r:id="rId69"/>
-    <hyperlink ref="E4" r:id="rId70"/>
-    <hyperlink ref="E6" r:id="rId71"/>
-    <hyperlink ref="E7" r:id="rId72"/>
-    <hyperlink ref="E8" r:id="rId73"/>
-    <hyperlink ref="E9" r:id="rId74"/>
-    <hyperlink ref="E11" r:id="rId75"/>
-    <hyperlink ref="E10" r:id="rId76"/>
-    <hyperlink ref="E12" r:id="rId77"/>
-    <hyperlink ref="E13" r:id="rId78"/>
-    <hyperlink ref="E14" r:id="rId79"/>
-    <hyperlink ref="E15" r:id="rId80"/>
-    <hyperlink ref="E16" r:id="rId81"/>
-    <hyperlink ref="E17" r:id="rId82"/>
-    <hyperlink ref="E18" r:id="rId83"/>
-    <hyperlink ref="E19" r:id="rId84"/>
-    <hyperlink ref="E20" r:id="rId85"/>
-    <hyperlink ref="E21" r:id="rId86"/>
-    <hyperlink ref="E22" r:id="rId87"/>
-    <hyperlink ref="E23" r:id="rId88"/>
-    <hyperlink ref="E124" r:id="rId89"/>
-    <hyperlink ref="E125" r:id="rId90"/>
-    <hyperlink ref="E127" r:id="rId91"/>
-    <hyperlink ref="E128" r:id="rId92"/>
-    <hyperlink ref="E129" r:id="rId93"/>
-    <hyperlink ref="E130" r:id="rId94"/>
-    <hyperlink ref="E131" r:id="rId95"/>
-    <hyperlink ref="E132" r:id="rId96"/>
-    <hyperlink ref="E24" r:id="rId97"/>
-    <hyperlink ref="E25" r:id="rId98"/>
-    <hyperlink ref="E26" r:id="rId99"/>
-    <hyperlink ref="F26" r:id="rId100"/>
-    <hyperlink ref="E27" r:id="rId101"/>
-    <hyperlink ref="E28" r:id="rId102"/>
-    <hyperlink ref="E29" r:id="rId103"/>
-    <hyperlink ref="E31" r:id="rId104"/>
-    <hyperlink ref="E32" r:id="rId105"/>
-    <hyperlink ref="E30" r:id="rId106"/>
-    <hyperlink ref="E33" r:id="rId107"/>
-    <hyperlink ref="E34" r:id="rId108"/>
-    <hyperlink ref="E35" r:id="rId109"/>
-    <hyperlink ref="E36" r:id="rId110"/>
-    <hyperlink ref="E37" r:id="rId111"/>
-    <hyperlink ref="E38" r:id="rId112"/>
-    <hyperlink ref="E39" r:id="rId113"/>
-    <hyperlink ref="E40" r:id="rId114"/>
-    <hyperlink ref="E44" r:id="rId115"/>
-    <hyperlink ref="E43" r:id="rId116"/>
-    <hyperlink ref="E42" r:id="rId117"/>
-    <hyperlink ref="E45" r:id="rId118"/>
-    <hyperlink ref="E46" r:id="rId119"/>
-    <hyperlink ref="E47" r:id="rId120"/>
-    <hyperlink ref="E48" r:id="rId121"/>
-    <hyperlink ref="E49" r:id="rId122"/>
-    <hyperlink ref="E50" r:id="rId123"/>
-    <hyperlink ref="E51" r:id="rId124"/>
-    <hyperlink ref="E52" r:id="rId125"/>
-    <hyperlink ref="E55" r:id="rId126"/>
-    <hyperlink ref="E56" r:id="rId127"/>
-    <hyperlink ref="E57" r:id="rId128"/>
-    <hyperlink ref="E58" r:id="rId129"/>
-    <hyperlink ref="E114" r:id="rId130"/>
-    <hyperlink ref="E59" r:id="rId131"/>
-    <hyperlink ref="E60" r:id="rId132"/>
-    <hyperlink ref="E61" r:id="rId133"/>
-    <hyperlink ref="E41" r:id="rId134"/>
-    <hyperlink ref="E64" r:id="rId135"/>
-    <hyperlink ref="E65" r:id="rId136"/>
-    <hyperlink ref="E66" r:id="rId137"/>
-    <hyperlink ref="E115" r:id="rId138"/>
-    <hyperlink ref="E67" r:id="rId139"/>
-    <hyperlink ref="E68" r:id="rId140"/>
-    <hyperlink ref="E69" r:id="rId141"/>
-    <hyperlink ref="E70" r:id="rId142"/>
-    <hyperlink ref="E116" r:id="rId143"/>
-    <hyperlink ref="E71" r:id="rId144"/>
-    <hyperlink ref="E62" r:id="rId145"/>
-    <hyperlink ref="E63" r:id="rId146"/>
-    <hyperlink ref="E53" r:id="rId147"/>
-    <hyperlink ref="E54" r:id="rId148"/>
-    <hyperlink ref="F153" r:id="rId149"/>
-    <hyperlink ref="E153" r:id="rId150"/>
-    <hyperlink ref="F152" r:id="rId151"/>
-    <hyperlink ref="E152" r:id="rId152"/>
-    <hyperlink ref="F151" r:id="rId153"/>
-    <hyperlink ref="E151" r:id="rId154"/>
-    <hyperlink ref="F150" r:id="rId155"/>
-    <hyperlink ref="E150" r:id="rId156"/>
-    <hyperlink ref="F149" r:id="rId157"/>
-    <hyperlink ref="E149" r:id="rId158"/>
-    <hyperlink ref="F148" r:id="rId159"/>
-    <hyperlink ref="E148" r:id="rId160"/>
-    <hyperlink ref="F147" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E147" r:id="rId161"/>
-    <hyperlink ref="F146" r:id="rId162"/>
-    <hyperlink ref="E146" r:id="rId163"/>
-    <hyperlink ref="E145" r:id="rId164"/>
-    <hyperlink ref="F145" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F144" r:id="rId166"/>
-    <hyperlink ref="E144" r:id="rId167"/>
-    <hyperlink ref="F143" r:id="rId168"/>
-    <hyperlink ref="E143" r:id="rId169"/>
-    <hyperlink ref="E142" r:id="rId170"/>
-    <hyperlink ref="E141" r:id="rId171"/>
-    <hyperlink ref="E139" r:id="rId172"/>
-    <hyperlink ref="F139" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F138" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E138" r:id="rId174"/>
-    <hyperlink ref="F137" r:id="rId175"/>
-    <hyperlink ref="E137" r:id="rId176"/>
-    <hyperlink ref="F136" r:id="rId177"/>
-    <hyperlink ref="E136" r:id="rId178"/>
-    <hyperlink ref="E135" r:id="rId179"/>
-    <hyperlink ref="F135" r:id="rId180"/>
-    <hyperlink ref="E134" r:id="rId181"/>
-    <hyperlink ref="F134" r:id="rId182"/>
-    <hyperlink ref="E126" r:id="rId183"/>
-    <hyperlink ref="F126" r:id="rId184"/>
-    <hyperlink ref="F133" r:id="rId185"/>
-    <hyperlink ref="E133" r:id="rId186"/>
-    <hyperlink ref="E169" r:id="rId187"/>
-    <hyperlink ref="F95" r:id="rId188"/>
-    <hyperlink ref="E95" r:id="rId189"/>
-    <hyperlink ref="F113" r:id="rId190"/>
-    <hyperlink ref="E113" r:id="rId191"/>
-    <hyperlink ref="F103" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E103" r:id="rId193"/>
-    <hyperlink ref="F106" r:id="rId194"/>
-    <hyperlink ref="E106" r:id="rId195"/>
-    <hyperlink ref="F107" r:id="rId196"/>
-    <hyperlink ref="E107" r:id="rId197"/>
-    <hyperlink ref="E108" r:id="rId198"/>
-    <hyperlink ref="E109" r:id="rId199"/>
-    <hyperlink ref="E110" r:id="rId200"/>
-    <hyperlink ref="F110" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E112" r:id="rId202"/>
-    <hyperlink ref="E111" r:id="rId203"/>
-    <hyperlink ref="E104" r:id="rId204"/>
-    <hyperlink ref="F104" r:id="rId205"/>
-    <hyperlink ref="E105" r:id="rId206"/>
-    <hyperlink ref="F105" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F101" r:id="rId208"/>
-    <hyperlink ref="E101" r:id="rId209"/>
-    <hyperlink ref="E102" r:id="rId210"/>
-    <hyperlink ref="F102" r:id="rId211"/>
-    <hyperlink ref="F97" r:id="rId212"/>
-    <hyperlink ref="E97" r:id="rId213"/>
-    <hyperlink ref="E98" r:id="rId214"/>
-    <hyperlink ref="F98" r:id="rId215"/>
-    <hyperlink ref="F99" r:id="rId216"/>
-    <hyperlink ref="E99" r:id="rId217"/>
-    <hyperlink ref="F100" r:id="rId218"/>
-    <hyperlink ref="E100" r:id="rId219"/>
-    <hyperlink ref="F96" r:id="rId220"/>
-    <hyperlink ref="E96" r:id="rId221"/>
-    <hyperlink ref="E120" r:id="rId222"/>
-    <hyperlink ref="F156" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E156" r:id="rId224"/>
-    <hyperlink ref="F157" r:id="rId225"/>
-    <hyperlink ref="E157" r:id="rId226"/>
-    <hyperlink ref="F158" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E158" r:id="rId228"/>
-    <hyperlink ref="F159" r:id="rId229"/>
-    <hyperlink ref="E159" r:id="rId230"/>
-    <hyperlink ref="F161" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E161" r:id="rId232"/>
-    <hyperlink ref="F163" r:id="rId233"/>
-    <hyperlink ref="E163" r:id="rId234"/>
-    <hyperlink ref="F164" r:id="rId235"/>
-    <hyperlink ref="E164" r:id="rId236"/>
-    <hyperlink ref="F165" r:id="rId237"/>
-    <hyperlink ref="E165" r:id="rId238"/>
-    <hyperlink ref="F166" r:id="rId239"/>
-    <hyperlink ref="E166" r:id="rId240"/>
-    <hyperlink ref="F167" r:id="rId241"/>
-    <hyperlink ref="E167" r:id="rId242"/>
-    <hyperlink ref="F168" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E168" r:id="rId243"/>
-    <hyperlink ref="F160" r:id="rId244"/>
-    <hyperlink ref="F162" r:id="rId245"/>
-    <hyperlink ref="E162" r:id="rId246"/>
-    <hyperlink ref="E160" r:id="rId247"/>
-    <hyperlink ref="F94" r:id="rId248"/>
-    <hyperlink ref="E94" r:id="rId249"/>
-    <hyperlink ref="F155" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E155" r:id="rId251"/>
-    <hyperlink ref="F93" r:id="rId252"/>
-    <hyperlink ref="E93" r:id="rId253"/>
-    <hyperlink ref="F154" r:id="rId254"/>
-    <hyperlink ref="E154" r:id="rId255"/>
-    <hyperlink ref="F76" r:id="rId256"/>
-    <hyperlink ref="E76" r:id="rId257"/>
-    <hyperlink ref="E77" r:id="rId258"/>
-    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F78" r:id="rId260"/>
-    <hyperlink ref="E78" r:id="rId261"/>
-    <hyperlink ref="E80" r:id="rId262"/>
-    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E81" r:id="rId264"/>
-    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E82" r:id="rId265"/>
-    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F83" r:id="rId267"/>
-    <hyperlink ref="E83" r:id="rId268"/>
-    <hyperlink ref="F84" r:id="rId269"/>
-    <hyperlink ref="E84" r:id="rId270"/>
-    <hyperlink ref="E85" r:id="rId271"/>
-    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E86" r:id="rId273"/>
-    <hyperlink ref="E87" r:id="rId274"/>
-    <hyperlink ref="F87" r:id="rId275"/>
-    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E88" r:id="rId276"/>
-    <hyperlink ref="E89" r:id="rId277"/>
-    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E90" r:id="rId280"/>
-    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E91" r:id="rId282"/>
-    <hyperlink ref="F92" r:id="rId283"/>
-    <hyperlink ref="E92" r:id="rId284"/>
-    <hyperlink ref="F75" r:id="rId285"/>
-    <hyperlink ref="E75" r:id="rId286"/>
-    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E79" r:id="rId287"/>
-    <hyperlink ref="F72" r:id="rId288"/>
-    <hyperlink ref="E72" r:id="rId289"/>
-    <hyperlink ref="F73" r:id="rId290"/>
-    <hyperlink ref="E73" r:id="rId291"/>
-    <hyperlink ref="F74" r:id="rId292"/>
-    <hyperlink ref="E74" r:id="rId293"/>
+    <hyperlink ref="E5" r:id="rId69"/>
+    <hyperlink ref="E6" r:id="rId70"/>
+    <hyperlink ref="E8" r:id="rId71"/>
+    <hyperlink ref="E9" r:id="rId72"/>
+    <hyperlink ref="E10" r:id="rId73"/>
+    <hyperlink ref="E11" r:id="rId74"/>
+    <hyperlink ref="E13" r:id="rId75"/>
+    <hyperlink ref="E12" r:id="rId76"/>
+    <hyperlink ref="E14" r:id="rId77"/>
+    <hyperlink ref="E15" r:id="rId78"/>
+    <hyperlink ref="E16" r:id="rId79"/>
+    <hyperlink ref="E17" r:id="rId80"/>
+    <hyperlink ref="E18" r:id="rId81"/>
+    <hyperlink ref="E19" r:id="rId82"/>
+    <hyperlink ref="E20" r:id="rId83"/>
+    <hyperlink ref="E21" r:id="rId84"/>
+    <hyperlink ref="E22" r:id="rId85"/>
+    <hyperlink ref="E23" r:id="rId86"/>
+    <hyperlink ref="E24" r:id="rId87"/>
+    <hyperlink ref="E25" r:id="rId88"/>
+    <hyperlink ref="E126" r:id="rId89"/>
+    <hyperlink ref="E127" r:id="rId90"/>
+    <hyperlink ref="E129" r:id="rId91"/>
+    <hyperlink ref="E130" r:id="rId92"/>
+    <hyperlink ref="E131" r:id="rId93"/>
+    <hyperlink ref="E132" r:id="rId94"/>
+    <hyperlink ref="E133" r:id="rId95"/>
+    <hyperlink ref="E134" r:id="rId96"/>
+    <hyperlink ref="E26" r:id="rId97"/>
+    <hyperlink ref="E27" r:id="rId98"/>
+    <hyperlink ref="E28" r:id="rId99"/>
+    <hyperlink ref="F28" r:id="rId100"/>
+    <hyperlink ref="E29" r:id="rId101"/>
+    <hyperlink ref="E30" r:id="rId102"/>
+    <hyperlink ref="E31" r:id="rId103"/>
+    <hyperlink ref="E33" r:id="rId104"/>
+    <hyperlink ref="E34" r:id="rId105"/>
+    <hyperlink ref="E32" r:id="rId106"/>
+    <hyperlink ref="E35" r:id="rId107"/>
+    <hyperlink ref="E36" r:id="rId108"/>
+    <hyperlink ref="E37" r:id="rId109"/>
+    <hyperlink ref="E38" r:id="rId110"/>
+    <hyperlink ref="E39" r:id="rId111"/>
+    <hyperlink ref="E40" r:id="rId112"/>
+    <hyperlink ref="E41" r:id="rId113"/>
+    <hyperlink ref="E42" r:id="rId114"/>
+    <hyperlink ref="E46" r:id="rId115"/>
+    <hyperlink ref="E45" r:id="rId116"/>
+    <hyperlink ref="E44" r:id="rId117"/>
+    <hyperlink ref="E47" r:id="rId118"/>
+    <hyperlink ref="E48" r:id="rId119"/>
+    <hyperlink ref="E49" r:id="rId120"/>
+    <hyperlink ref="E50" r:id="rId121"/>
+    <hyperlink ref="E51" r:id="rId122"/>
+    <hyperlink ref="E52" r:id="rId123"/>
+    <hyperlink ref="E53" r:id="rId124"/>
+    <hyperlink ref="E54" r:id="rId125"/>
+    <hyperlink ref="E57" r:id="rId126"/>
+    <hyperlink ref="E58" r:id="rId127"/>
+    <hyperlink ref="E59" r:id="rId128"/>
+    <hyperlink ref="E60" r:id="rId129"/>
+    <hyperlink ref="E116" r:id="rId130"/>
+    <hyperlink ref="E61" r:id="rId131"/>
+    <hyperlink ref="E62" r:id="rId132"/>
+    <hyperlink ref="E63" r:id="rId133"/>
+    <hyperlink ref="E43" r:id="rId134"/>
+    <hyperlink ref="E66" r:id="rId135"/>
+    <hyperlink ref="E67" r:id="rId136"/>
+    <hyperlink ref="E68" r:id="rId137"/>
+    <hyperlink ref="E117" r:id="rId138"/>
+    <hyperlink ref="E69" r:id="rId139"/>
+    <hyperlink ref="E70" r:id="rId140"/>
+    <hyperlink ref="E71" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="E118" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="E64" r:id="rId145"/>
+    <hyperlink ref="E65" r:id="rId146"/>
+    <hyperlink ref="E55" r:id="rId147"/>
+    <hyperlink ref="E56" r:id="rId148"/>
+    <hyperlink ref="F155" r:id="rId149"/>
+    <hyperlink ref="E155" r:id="rId150"/>
+    <hyperlink ref="F154" r:id="rId151"/>
+    <hyperlink ref="E154" r:id="rId152"/>
+    <hyperlink ref="F153" r:id="rId153"/>
+    <hyperlink ref="E153" r:id="rId154"/>
+    <hyperlink ref="F152" r:id="rId155"/>
+    <hyperlink ref="E152" r:id="rId156"/>
+    <hyperlink ref="F151" r:id="rId157"/>
+    <hyperlink ref="E151" r:id="rId158"/>
+    <hyperlink ref="F150" r:id="rId159"/>
+    <hyperlink ref="E150" r:id="rId160"/>
+    <hyperlink ref="F149" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E149" r:id="rId161"/>
+    <hyperlink ref="F148" r:id="rId162"/>
+    <hyperlink ref="E148" r:id="rId163"/>
+    <hyperlink ref="E147" r:id="rId164"/>
+    <hyperlink ref="F147" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F146" r:id="rId166"/>
+    <hyperlink ref="E146" r:id="rId167"/>
+    <hyperlink ref="F145" r:id="rId168"/>
+    <hyperlink ref="E145" r:id="rId169"/>
+    <hyperlink ref="E144" r:id="rId170"/>
+    <hyperlink ref="E143" r:id="rId171"/>
+    <hyperlink ref="E141" r:id="rId172"/>
+    <hyperlink ref="F141" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F140" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E140" r:id="rId174"/>
+    <hyperlink ref="F139" r:id="rId175"/>
+    <hyperlink ref="E139" r:id="rId176"/>
+    <hyperlink ref="F138" r:id="rId177"/>
+    <hyperlink ref="E138" r:id="rId178"/>
+    <hyperlink ref="E137" r:id="rId179"/>
+    <hyperlink ref="F137" r:id="rId180"/>
+    <hyperlink ref="E136" r:id="rId181"/>
+    <hyperlink ref="F136" r:id="rId182"/>
+    <hyperlink ref="E128" r:id="rId183"/>
+    <hyperlink ref="F128" r:id="rId184"/>
+    <hyperlink ref="F135" r:id="rId185"/>
+    <hyperlink ref="E135" r:id="rId186"/>
+    <hyperlink ref="E171" r:id="rId187"/>
+    <hyperlink ref="F97" r:id="rId188"/>
+    <hyperlink ref="E97" r:id="rId189"/>
+    <hyperlink ref="F115" r:id="rId190"/>
+    <hyperlink ref="E115" r:id="rId191"/>
+    <hyperlink ref="F105" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E105" r:id="rId193"/>
+    <hyperlink ref="F108" r:id="rId194"/>
+    <hyperlink ref="E108" r:id="rId195"/>
+    <hyperlink ref="F109" r:id="rId196"/>
+    <hyperlink ref="E109" r:id="rId197"/>
+    <hyperlink ref="E110" r:id="rId198"/>
+    <hyperlink ref="E111" r:id="rId199"/>
+    <hyperlink ref="E112" r:id="rId200"/>
+    <hyperlink ref="F112" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E114" r:id="rId202"/>
+    <hyperlink ref="E113" r:id="rId203"/>
+    <hyperlink ref="E106" r:id="rId204"/>
+    <hyperlink ref="F106" r:id="rId205"/>
+    <hyperlink ref="E107" r:id="rId206"/>
+    <hyperlink ref="F107" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F103" r:id="rId208"/>
+    <hyperlink ref="E103" r:id="rId209"/>
+    <hyperlink ref="E104" r:id="rId210"/>
+    <hyperlink ref="F104" r:id="rId211"/>
+    <hyperlink ref="F99" r:id="rId212"/>
+    <hyperlink ref="E99" r:id="rId213"/>
+    <hyperlink ref="E100" r:id="rId214"/>
+    <hyperlink ref="F100" r:id="rId215"/>
+    <hyperlink ref="F101" r:id="rId216"/>
+    <hyperlink ref="E101" r:id="rId217"/>
+    <hyperlink ref="F102" r:id="rId218"/>
+    <hyperlink ref="E102" r:id="rId219"/>
+    <hyperlink ref="F98" r:id="rId220"/>
+    <hyperlink ref="E98" r:id="rId221"/>
+    <hyperlink ref="E122" r:id="rId222"/>
+    <hyperlink ref="F158" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E158" r:id="rId224"/>
+    <hyperlink ref="F159" r:id="rId225"/>
+    <hyperlink ref="E159" r:id="rId226"/>
+    <hyperlink ref="F160" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E160" r:id="rId228"/>
+    <hyperlink ref="F161" r:id="rId229"/>
+    <hyperlink ref="E161" r:id="rId230"/>
+    <hyperlink ref="F163" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E163" r:id="rId232"/>
+    <hyperlink ref="F165" r:id="rId233"/>
+    <hyperlink ref="E165" r:id="rId234"/>
+    <hyperlink ref="F166" r:id="rId235"/>
+    <hyperlink ref="E166" r:id="rId236"/>
+    <hyperlink ref="F167" r:id="rId237"/>
+    <hyperlink ref="E167" r:id="rId238"/>
+    <hyperlink ref="F168" r:id="rId239"/>
+    <hyperlink ref="E168" r:id="rId240"/>
+    <hyperlink ref="F169" r:id="rId241"/>
+    <hyperlink ref="E169" r:id="rId242"/>
+    <hyperlink ref="F170" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E170" r:id="rId243"/>
+    <hyperlink ref="F162" r:id="rId244"/>
+    <hyperlink ref="F164" r:id="rId245"/>
+    <hyperlink ref="E164" r:id="rId246"/>
+    <hyperlink ref="E162" r:id="rId247"/>
+    <hyperlink ref="F96" r:id="rId248"/>
+    <hyperlink ref="E96" r:id="rId249"/>
+    <hyperlink ref="F157" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E157" r:id="rId251"/>
+    <hyperlink ref="F95" r:id="rId252"/>
+    <hyperlink ref="E95" r:id="rId253"/>
+    <hyperlink ref="F156" r:id="rId254"/>
+    <hyperlink ref="E156" r:id="rId255"/>
+    <hyperlink ref="F78" r:id="rId256"/>
+    <hyperlink ref="E78" r:id="rId257"/>
+    <hyperlink ref="E79" r:id="rId258"/>
+    <hyperlink ref="F79" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F80" r:id="rId260"/>
+    <hyperlink ref="E80" r:id="rId261"/>
+    <hyperlink ref="E82" r:id="rId262"/>
+    <hyperlink ref="F82" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E83" r:id="rId264"/>
+    <hyperlink ref="F83" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E84" r:id="rId265"/>
+    <hyperlink ref="F84" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F85" r:id="rId267"/>
+    <hyperlink ref="E85" r:id="rId268"/>
+    <hyperlink ref="F86" r:id="rId269"/>
+    <hyperlink ref="E86" r:id="rId270"/>
+    <hyperlink ref="E87" r:id="rId271"/>
+    <hyperlink ref="F87" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E88" r:id="rId273"/>
+    <hyperlink ref="E89" r:id="rId274"/>
+    <hyperlink ref="F89" r:id="rId275"/>
+    <hyperlink ref="F90" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E90" r:id="rId276"/>
+    <hyperlink ref="E91" r:id="rId277"/>
+    <hyperlink ref="F91" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F92" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E92" r:id="rId280"/>
+    <hyperlink ref="F93" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E93" r:id="rId282"/>
+    <hyperlink ref="F94" r:id="rId283"/>
+    <hyperlink ref="E94" r:id="rId284"/>
+    <hyperlink ref="F77" r:id="rId285"/>
+    <hyperlink ref="E77" r:id="rId286"/>
+    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E81" r:id="rId287"/>
+    <hyperlink ref="F74" r:id="rId288"/>
+    <hyperlink ref="E74" r:id="rId289"/>
+    <hyperlink ref="F75" r:id="rId290"/>
+    <hyperlink ref="E75" r:id="rId291"/>
+    <hyperlink ref="F76" r:id="rId292"/>
+    <hyperlink ref="E76" r:id="rId293"/>
+    <hyperlink ref="F4" r:id="rId294"/>
+    <hyperlink ref="E4" r:id="rId295"/>
+    <hyperlink ref="F3" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E3" r:id="rId297"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId294"/>
+  <pageSetup orientation="portrait" r:id="rId298"/>
   <tableParts count="1">
-    <tablePart r:id="rId295"/>
+    <tablePart r:id="rId299"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="514">
   <si>
     <t>Nombre</t>
   </si>
@@ -879,9 +879,6 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_931922-CBT71566618075_092023-N.jpg</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_644373-CBT52586714629_112022-F.webp</t>
@@ -2072,7 +2069,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2105,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2131,9 +2128,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>203</v>
@@ -2145,18 +2142,18 @@
         <v>250</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G3" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>203</v>
@@ -2168,16 +2165,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G4" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2217,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2237,7 +2234,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2303,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2375,7 +2372,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2415,9 +2412,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
@@ -2438,7 +2435,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2458,9 +2455,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
         <v>203</v>
@@ -2481,7 +2478,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2498,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2544,7 +2541,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2567,7 +2564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2636,7 +2633,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2728,9 +2725,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s">
         <v>203</v>
@@ -2751,7 +2748,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2774,7 +2771,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2837,7 +2834,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3104,7 +3101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3193,9 +3190,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s">
         <v>203</v>
@@ -3210,7 +3207,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -3233,9 +3230,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B53" t="s">
         <v>203</v>
@@ -3253,7 +3250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3270,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3353,7 +3350,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3396,7 +3393,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -3419,9 +3416,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
         <v>203</v>
@@ -3439,7 +3436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>242</v>
       </c>
@@ -3483,7 +3480,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -3503,9 +3500,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s">
         <v>203</v>
@@ -3523,7 +3520,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -3566,7 +3563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -3612,7 +3609,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -3632,7 +3629,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3678,9 +3675,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>203</v>
@@ -3689,18 +3686,18 @@
         <v>250</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G74" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B75" t="s">
         <v>203</v>
@@ -3709,18 +3706,18 @@
         <v>200</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G75" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" t="s">
         <v>203</v>
@@ -3729,21 +3726,21 @@
         <v>200</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G76" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C77" s="4">
         <v>2600</v>
@@ -3752,78 +3749,78 @@
         <v>1800</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G77" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C78" s="4">
         <v>390</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G78" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" s="4">
         <v>220</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="G79" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C80" s="4">
         <v>170</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G80" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
@@ -3832,18 +3829,18 @@
         <v>200</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G81" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B82" t="s">
         <v>203</v>
@@ -3855,18 +3852,18 @@
         <v>250</v>
       </c>
       <c r="E82" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G82" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
         <v>203</v>
@@ -3878,18 +3875,18 @@
         <v>260</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="G83" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s">
         <v>203</v>
@@ -3901,18 +3898,18 @@
         <v>500</v>
       </c>
       <c r="E84" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="G84" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B85" t="s">
         <v>203</v>
@@ -3924,18 +3921,18 @@
         <v>650</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G85" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B86" t="s">
         <v>203</v>
@@ -3947,18 +3944,18 @@
         <v>150</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G86" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" t="s">
         <v>203</v>
@@ -3970,10 +3967,10 @@
         <v>600</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="G87" s="20">
         <v>5</v>
@@ -3981,10 +3978,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C88" s="4">
         <v>445</v>
@@ -3993,21 +3990,19 @@
         <v>200</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>284</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F88" s="5"/>
       <c r="G88" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" t="s">
         <v>466</v>
-      </c>
-      <c r="B89" t="s">
-        <v>467</v>
       </c>
       <c r="C89" s="4">
         <v>144</v>
@@ -4016,21 +4011,21 @@
         <v>100</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="G89" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>472</v>
+      </c>
+      <c r="B90" t="s">
         <v>473</v>
-      </c>
-      <c r="B90" t="s">
-        <v>474</v>
       </c>
       <c r="C90" s="4">
         <v>350</v>
@@ -4039,21 +4034,21 @@
         <v>180</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G90" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>476</v>
+      </c>
+      <c r="B91" t="s">
         <v>477</v>
-      </c>
-      <c r="B91" t="s">
-        <v>478</v>
       </c>
       <c r="C91" s="4">
         <v>325</v>
@@ -4062,21 +4057,21 @@
         <v>180</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="G91" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C92" s="4">
         <v>270</v>
@@ -4085,21 +4080,21 @@
         <v>150</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G92" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C93" s="4">
         <v>250</v>
@@ -4108,18 +4103,18 @@
         <v>150</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G93" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B94" t="s">
         <v>203</v>
@@ -4128,21 +4123,21 @@
         <v>250</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G94" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>429</v>
+      </c>
+      <c r="B95" t="s">
         <v>430</v>
-      </c>
-      <c r="B95" t="s">
-        <v>431</v>
       </c>
       <c r="C95" s="4">
         <v>11200</v>
@@ -4151,21 +4146,21 @@
         <v>6500</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G95" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>421</v>
+      </c>
+      <c r="B96" t="s">
         <v>422</v>
-      </c>
-      <c r="B96" t="s">
-        <v>423</v>
       </c>
       <c r="C96" s="4">
         <v>9700</v>
@@ -4174,18 +4169,18 @@
         <v>5500</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G96" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s">
         <v>203</v>
@@ -4197,18 +4192,18 @@
         <v>260</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
         <v>203</v>
@@ -4218,7 +4213,7 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>136</v>
@@ -4227,9 +4222,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B99" t="s">
         <v>203</v>
@@ -4241,18 +4236,18 @@
         <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
@@ -4273,9 +4268,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
         <v>203</v>
@@ -4287,18 +4282,18 @@
         <v>150</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G101" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
         <v>203</v>
@@ -4308,18 +4303,18 @@
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G102" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B103" t="s">
         <v>203</v>
@@ -4329,18 +4324,18 @@
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G103" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B104" t="s">
         <v>203</v>
@@ -4350,18 +4345,18 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="G104" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
@@ -4373,18 +4368,18 @@
         <v>250</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G105" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s">
         <v>203</v>
@@ -4394,18 +4389,18 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="G106" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s">
         <v>203</v>
@@ -4415,18 +4410,18 @@
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G107" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B108" t="s">
         <v>203</v>
@@ -4438,18 +4433,18 @@
         <v>200</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G108" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B109" t="s">
         <v>203</v>
@@ -4461,18 +4456,18 @@
         <v>290</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G109" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s">
         <v>203</v>
@@ -4484,18 +4479,16 @@
         <v>100</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>284</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F110" s="1"/>
       <c r="G110" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
         <v>203</v>
@@ -4507,16 +4500,16 @@
         <v>100</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s">
         <v>203</v>
@@ -4528,18 +4521,18 @@
         <v>250</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="G112" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
         <v>203</v>
@@ -4551,16 +4544,16 @@
         <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" t="s">
         <v>203</v>
@@ -4572,16 +4565,16 @@
         <v>200</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B115" t="s">
         <v>203</v>
@@ -4593,16 +4586,16 @@
         <v>250</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G115" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>67</v>
       </c>
@@ -4625,7 +4618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>73</v>
       </c>
@@ -4648,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>78</v>
       </c>
@@ -4671,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -4694,12 +4687,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C120" s="3">
         <v>419.19</v>
@@ -4717,12 +4710,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C121" s="4">
         <v>470</v>
@@ -4737,12 +4730,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C122" s="4">
         <v>170</v>
@@ -4757,12 +4750,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C123" s="4">
         <v>185</v>
@@ -4777,12 +4770,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C124" s="4">
         <v>298</v>
@@ -4800,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4823,12 +4816,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B126" t="s">
         <v>371</v>
-      </c>
-      <c r="B126" t="s">
-        <v>372</v>
       </c>
       <c r="C126" s="4">
         <v>439</v>
@@ -4846,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>30</v>
       </c>
@@ -4866,9 +4859,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B128" t="s">
         <v>203</v>
@@ -4880,18 +4873,18 @@
         <v>210</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G128" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B129" t="s">
         <v>203</v>
@@ -4912,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -4932,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -4952,12 +4945,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>308</v>
+      </c>
+      <c r="B132" t="s">
         <v>309</v>
-      </c>
-      <c r="B132" t="s">
-        <v>310</v>
       </c>
       <c r="C132" s="4">
         <v>300</v>
@@ -4972,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4992,7 +4985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -5012,9 +5005,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B135" t="s">
         <v>203</v>
@@ -5026,18 +5019,18 @@
         <v>90</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G135" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B136" t="s">
         <v>203</v>
@@ -5049,18 +5042,18 @@
         <v>280</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G136" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B137" t="s">
         <v>203</v>
@@ -5072,18 +5065,18 @@
         <v>100</v>
       </c>
       <c r="E137" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="G137" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B138" t="s">
         <v>203</v>
@@ -5095,18 +5088,18 @@
         <v>100</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
         <v>203</v>
@@ -5115,18 +5108,18 @@
         <v>150</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B140" t="s">
         <v>203</v>
@@ -5138,21 +5131,21 @@
         <v>100</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
         <v>289</v>
-      </c>
-      <c r="B141" t="s">
-        <v>290</v>
       </c>
       <c r="C141" s="4">
         <v>135</v>
@@ -5161,21 +5154,21 @@
         <v>100</v>
       </c>
       <c r="E141" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C142" s="4">
         <v>120</v>
@@ -5186,16 +5179,13 @@
       <c r="E142" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F142" t="s">
-        <v>284</v>
-      </c>
       <c r="G142" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B143" t="s">
         <v>203</v>
@@ -5207,13 +5197,13 @@
         <v>150</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>282</v>
       </c>
@@ -5229,14 +5219,11 @@
       <c r="E144" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F144" t="s">
-        <v>284</v>
-      </c>
       <c r="G144" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>281</v>
       </c>
@@ -5259,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>276</v>
       </c>
@@ -5282,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>273</v>
       </c>
@@ -5305,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>269</v>
       </c>
@@ -5328,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -5351,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>263</v>
       </c>
@@ -5374,9 +5361,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B151" t="s">
         <v>203</v>
@@ -5397,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>258</v>
       </c>
@@ -5420,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>257</v>
       </c>
@@ -5443,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>252</v>
       </c>
@@ -5466,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>249</v>
       </c>
@@ -5486,12 +5473,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>433</v>
+      </c>
+      <c r="B156" t="s">
         <v>434</v>
-      </c>
-      <c r="B156" t="s">
-        <v>435</v>
       </c>
       <c r="C156" s="4">
         <v>4500</v>
@@ -5500,18 +5487,18 @@
         <v>3550</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" t="s">
         <v>426</v>
-      </c>
-      <c r="B157" t="s">
-        <v>427</v>
       </c>
       <c r="C157" s="4">
         <v>5500</v>
@@ -5520,15 +5507,15 @@
         <v>4700</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B158" t="s">
         <v>203</v>
@@ -5540,15 +5527,15 @@
         <v>750</v>
       </c>
       <c r="E158" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>384</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>385</v>
       </c>
       <c r="B159" t="s">
         <v>203</v>
@@ -5557,15 +5544,15 @@
         <v>300</v>
       </c>
       <c r="E159" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>387</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>388</v>
       </c>
       <c r="B160" t="s">
         <v>203</v>
@@ -5577,15 +5564,15 @@
         <v>450</v>
       </c>
       <c r="E160" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>390</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>391</v>
       </c>
       <c r="B161" t="s">
         <v>203</v>
@@ -5594,15 +5581,15 @@
         <v>200</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
         <v>203</v>
@@ -5614,15 +5601,15 @@
         <v>150</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B163" t="s">
         <v>203</v>
@@ -5634,15 +5621,15 @@
         <v>350</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" s="4">
         <v>398</v>
@@ -5651,15 +5638,15 @@
         <v>180</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B165" t="s">
         <v>203</v>
@@ -5671,15 +5658,15 @@
         <v>175</v>
       </c>
       <c r="E165" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>399</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>400</v>
       </c>
       <c r="B166" t="s">
         <v>203</v>
@@ -5691,15 +5678,15 @@
         <v>200</v>
       </c>
       <c r="E166" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>402</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>403</v>
       </c>
       <c r="B167" t="s">
         <v>203</v>
@@ -5711,18 +5698,18 @@
         <v>500</v>
       </c>
       <c r="E167" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>405</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>406</v>
-      </c>
       <c r="B168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C168" s="4">
         <v>637</v>
@@ -5731,15 +5718,15 @@
         <v>300</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B169" t="s">
         <v>203</v>
@@ -5751,15 +5738,15 @@
         <v>1200</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B170" t="s">
         <v>203</v>
@@ -5771,18 +5758,18 @@
         <v>350</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C171" s="4">
         <v>2300</v>
@@ -5791,7 +5778,7 @@
         <v>1800</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="9"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$173</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="526">
   <si>
     <t>Nombre</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Manguera De Jardín Expandible De 100 Pies, Manguera De Agua</t>
   </si>
   <si>
-    <t>16 Porta Vasos Inflables Alberca Surtidos Piscinas Inflador</t>
-  </si>
-  <si>
     <t>Decoración Banderín Multicolor Plástico Colores 100m 2tiras</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
     <t>Corrector Postura Espalda Para Hombre Y Mujer Ajustable Faja</t>
   </si>
   <si>
-    <t>Estera De Masaje Antideslizante De Doble Cara Para Baño</t>
-  </si>
-  <si>
-    <t>Cubierta Para Parrilla De Barbacoa De 57 Pulgadas Con Bolsa</t>
-  </si>
-  <si>
     <t>Chaleco De Seguridad Reflejante Industrial Superbrillante</t>
   </si>
   <si>
@@ -98,18 +89,9 @@
     <t>Impermeable Portátil Poncho De Lluvia Unisex 2 Piezas</t>
   </si>
   <si>
-    <t>Body Siluet Fajas Moldeadoras Colombianas Mujer Body Shaper M</t>
-  </si>
-  <si>
     <t>Alberca Para Bebe Chapoteadero Inflable Con Rociador170 Cms</t>
   </si>
   <si>
-    <t>20pcs Filtro Pelo Reutilizable Para Lavadora Bolas Secadora</t>
-  </si>
-  <si>
-    <t>Traje De Baño De Una Pieza Para Mujer Recortado Monokini (M)</t>
-  </si>
-  <si>
     <t>Cortinas Para Sala Cortinas Blackout De Niños 100*130cm Arcoiris</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
     <t>Dispositivo Facial De Microcorriente Masajeador De Cuidado</t>
   </si>
   <si>
-    <t>Masajeador Reductor De Papada Belleza Cuello Antiarrugas.</t>
-  </si>
-  <si>
     <t>Impresora De Etiquetas Bisofice L8</t>
   </si>
   <si>
@@ -254,9 +233,6 @@
     <t>3 In 1 Depilación Cepillo De Vapor Para Gato/perro Mascota</t>
   </si>
   <si>
-    <t>Báscula Digital Gramera Alta Precisión Joyeria 0.01gr 500gr</t>
-  </si>
-  <si>
     <t>Convertidor De Audio Digital Óptico/coaxial A Análogo Rca</t>
   </si>
   <si>
@@ -569,9 +545,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_908426-MLM76849345418_062024-F.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_784231-MLM70207752037_062023-N.jpg</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_906181-MLM80055397675_102024-F-cortinas-para-sala-cortinas-blackout-de-ninos-100130cm.webp</t>
   </si>
   <si>
@@ -1569,6 +1542,69 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_925065-CBT86508122752_062025-F-obd2-scanner-escaner-automotriz-para-autos-de-multimarcas.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mouses Inalámbrico Recargable Con Bluetooth Y Modo 2.4 2U Color Negro</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_978797-MLU76663023994_062024-F.webp</t>
+  </si>
+  <si>
+    <t>Facial Masajeador Reductor De Papada Belleza Cuello Antiarrugas.</t>
+  </si>
+  <si>
+    <t>Funda, Cubierta Para Parrilla De Barbacoa De 57 Pulgadas Con Bolsa</t>
+  </si>
+  <si>
+    <t>Talla M</t>
+  </si>
+  <si>
+    <t>Para niños</t>
+  </si>
+  <si>
+    <t>45 Piezas</t>
+  </si>
+  <si>
+    <t>100 Metros</t>
+  </si>
+  <si>
+    <t>Body Siluet Fajas Colombianas Levanta Gluteo Moldeadoras Mujer Body Shaper</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>16 Porta Vasos Inflables Alberca Surtidos Piscinas Inflador, alberca</t>
+  </si>
+  <si>
+    <t>Tapete Estera De Masaje Antideslizante De Doble Cara Para Baño</t>
+  </si>
+  <si>
+    <t>Traje De Baño De Una Pieza Para Mujer Recortado Monokini</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_991601-MLM85004736082_052025-N.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traje De Baño Bikini Deportivo Dos Piezas Con Bloques </t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_784231-MLM70207752037_062023-F-traje-de-bano-bikini-deportivo-dos-piezas-con-bloques-color.webp</t>
+  </si>
+  <si>
+    <t>20 piezas</t>
+  </si>
+  <si>
+    <t>Filtro Pelo Reutilizable Para Lavadora Bolas Secadora, Quita Pelusa</t>
+  </si>
+  <si>
+    <t>2 Piezas</t>
+  </si>
+  <si>
+    <t>Bascula Digital Gramera Alta Precisión Joyeria 0.01gr 500gr</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1661,6 +1697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1742,6 +1784,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1785,10 +1829,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G171" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G171"/>
-  <sortState ref="A2:G169">
-    <sortCondition descending="1" ref="G1:G169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G173" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G173"/>
+  <sortState ref="A2:G173">
+    <sortCondition descending="1" ref="G1:G173"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre"/>
@@ -2066,10 +2110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2102,274 +2146,278 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4">
-        <v>665</v>
+        <v>112</v>
       </c>
       <c r="D2" s="4">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C3" s="4">
-        <v>385</v>
+        <v>170.73</v>
       </c>
       <c r="D3" s="4">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>513</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G3" s="14">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>513</v>
       </c>
       <c r="C4" s="4">
-        <v>670</v>
+        <v>180</v>
       </c>
       <c r="D4" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>511</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>510</v>
       </c>
-      <c r="G4" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
       <c r="C5" s="4">
-        <v>170.73</v>
+        <v>212</v>
       </c>
       <c r="D5" s="4">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>248</v>
+        <v>83</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="C6" s="4">
-        <v>133</v>
+        <v>178.03</v>
+      </c>
+      <c r="D6" s="4">
+        <v>80</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>248</v>
+        <v>84</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4">
-        <v>299</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" t="s">
-        <v>248</v>
+        <v>200</v>
+      </c>
+      <c r="D7" s="4">
+        <v>150</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4">
-        <v>259</v>
+        <v>193.7</v>
       </c>
       <c r="D8" s="4">
-        <v>150</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" t="s">
-        <v>248</v>
+        <v>86</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4">
-        <v>180</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>248</v>
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>511</v>
       </c>
       <c r="C10" s="4">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D10" s="4">
         <v>120</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
-        <v>248</v>
+        <v>87</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="C11" s="4">
-        <v>178.03</v>
+        <v>248.02</v>
       </c>
       <c r="D11" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s">
-        <v>248</v>
+        <v>88</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>524</v>
       </c>
       <c r="C12" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D12" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>248</v>
+        <v>89</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4">
-        <v>193.7</v>
+        <v>269</v>
       </c>
       <c r="D13" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>248</v>
+        <v>90</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,1198 +2425,1214 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C14" s="4">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="D14" s="4">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" t="s">
-        <v>248</v>
+        <v>170</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>522</v>
       </c>
       <c r="C15" s="4">
-        <v>150</v>
+        <v>119.4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>248</v>
+        <v>93</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="C16" s="4">
-        <v>248.02</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" t="s">
-        <v>248</v>
+        <v>519</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="C17" s="4">
-        <v>120</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>521</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>248</v>
+        <v>94</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" t="s">
-        <v>203</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="C18" s="4">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>248</v>
+        <v>97</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C19" s="4">
-        <v>315</v>
+        <v>374.7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>248</v>
+        <v>127</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C20" s="4">
-        <v>210</v>
+        <v>499</v>
+      </c>
+      <c r="D20" s="4">
+        <v>150</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>248</v>
+        <v>129</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C21" s="4">
-        <v>119.4</v>
+        <v>220</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" t="s">
-        <v>248</v>
+        <v>130</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C22" s="4">
-        <v>102.22</v>
+        <v>126.85</v>
       </c>
       <c r="D22" s="4">
         <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>248</v>
+        <v>132</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>512</v>
       </c>
       <c r="C23" s="4">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="D23" s="4">
         <v>150</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" t="s">
-        <v>248</v>
+        <v>133</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C24" s="4">
-        <v>166.93</v>
+        <v>175</v>
       </c>
       <c r="D24" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>203</v>
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
       </c>
       <c r="C25" s="4">
-        <v>99</v>
+        <v>219.5</v>
       </c>
       <c r="D25" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>248</v>
+        <v>235</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C26" s="4">
-        <v>1072.6500000000001</v>
+        <v>226.52</v>
       </c>
       <c r="D26" s="4">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>248</v>
+        <v>137</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C27" s="4">
-        <v>393.2</v>
+        <v>299.01</v>
       </c>
       <c r="D27" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" t="s">
-        <v>248</v>
+        <v>140</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C28" s="4">
-        <v>342.66</v>
-      </c>
-      <c r="D28" s="4">
-        <v>170</v>
+        <v>95.52</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" t="s">
-        <v>248</v>
+        <v>141</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C29" s="4">
-        <v>323.66000000000003</v>
+        <v>665</v>
       </c>
       <c r="D29" s="4">
-        <v>270</v>
+        <v>450</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>319</v>
+        <v>514</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="C30" s="4">
-        <v>237.76</v>
+        <v>315</v>
       </c>
       <c r="D30" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C31" s="4">
-        <v>359</v>
-      </c>
-      <c r="D31" s="4">
-        <v>200</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>117</v>
+        <v>299</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C32" s="4">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="D32" s="4">
-        <v>170</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>202</v>
+        <v>150</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C33" s="4">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>200</v>
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C34" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>201</v>
+        <v>172</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C35" s="4">
-        <v>120</v>
+        <v>166.93</v>
       </c>
       <c r="D35" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C36" s="4">
-        <v>266.95999999999998</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D36" s="4">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C37" s="4">
-        <v>495.99</v>
+        <v>393.2</v>
       </c>
       <c r="D37" s="4">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>248</v>
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C38" s="4">
-        <v>633.91</v>
+        <v>342.66</v>
       </c>
       <c r="D38" s="4">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C39" s="4">
-        <v>1064.8800000000001</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D39" s="4">
-        <v>1025</v>
+        <v>270</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C40" s="4">
-        <v>758.9</v>
+        <v>237.76</v>
       </c>
       <c r="D40" s="4">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C41" s="4">
-        <v>400</v>
+        <v>359</v>
+      </c>
+      <c r="D41" s="4">
+        <v>200</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C42" s="4">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D42" s="4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
+        <v>193</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C43" s="4">
-        <v>1899</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>231</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G43" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4">
-        <v>166.88</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D44" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C45" s="4">
-        <v>149.99</v>
+        <v>495.99</v>
       </c>
       <c r="D45" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" t="s">
-        <v>248</v>
+        <v>197</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C46" s="4">
-        <v>2100</v>
+        <v>633.91</v>
       </c>
       <c r="D46" s="4">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C47" s="4">
-        <v>325.32</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D47" s="4">
-        <v>250</v>
+        <v>1025</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C48" s="4">
-        <v>589.4</v>
+        <v>758.9</v>
       </c>
       <c r="D48" s="4">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G48" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C49" s="4">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C50" s="4">
-        <v>411.67</v>
+        <v>268</v>
       </c>
       <c r="D50" s="4">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C51" s="4">
-        <v>322.36</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>220</v>
+        <v>1899</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C52" s="4">
-        <v>689.2</v>
+        <v>166.88</v>
       </c>
       <c r="D52" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C53" s="4">
-        <v>240</v>
+        <v>149.99</v>
+      </c>
+      <c r="D53" s="4">
+        <v>100</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="4">
-        <v>270</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C55" s="4">
+        <v>325.32</v>
+      </c>
+      <c r="D55" s="4">
         <v>250</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>245</v>
+        <v>206</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C56" s="4">
-        <v>200</v>
+        <v>589.4</v>
+      </c>
+      <c r="D56" s="4">
+        <v>400</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>246</v>
+        <v>207</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C57" s="4">
-        <v>374.7</v>
-      </c>
-      <c r="D57" s="4">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C58" s="4">
-        <v>399</v>
+        <v>411.67</v>
       </c>
       <c r="D58" s="4">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>136</v>
+        <v>209</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C59" s="4">
-        <v>499</v>
-      </c>
-      <c r="D59" s="4">
-        <v>150</v>
+        <v>322.36</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C60" s="4">
-        <v>100</v>
+        <v>689.2</v>
+      </c>
+      <c r="D60" s="4">
+        <v>500</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>498</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C61" s="4">
-        <v>126.85</v>
-      </c>
-      <c r="D61" s="4">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C62" s="4">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>203</v>
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
       </c>
       <c r="C63" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D63" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C64" s="4">
-        <v>175</v>
-      </c>
-      <c r="D64" s="4">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" t="s">
-        <v>248</v>
+        <v>237</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
+        <v>58</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="C65" s="4">
-        <v>219.5</v>
+        <v>399</v>
       </c>
       <c r="D65" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>244</v>
+        <v>216</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>376</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="C66" s="4">
-        <v>200</v>
+        <v>238.9</v>
+      </c>
+      <c r="D66" s="4">
+        <v>100</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C67" s="4">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4">
-        <v>226.52</v>
-      </c>
-      <c r="D68" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G68" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C69" s="4">
         <v>98.26</v>
@@ -3577,119 +3641,116 @@
         <v>50</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C70" s="4">
-        <v>299.01</v>
+        <v>899</v>
       </c>
       <c r="D70" s="4">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C71" s="4">
-        <v>95.52</v>
+        <v>142</v>
+      </c>
+      <c r="D71" s="4">
+        <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>203</v>
+        <v>496</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="C72" s="4">
-        <v>899</v>
-      </c>
-      <c r="D72" s="4">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>239</v>
+        <v>489</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" t="s">
-        <v>248</v>
+        <v>488</v>
+      </c>
+      <c r="G72" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C73" s="4">
-        <v>142</v>
-      </c>
-      <c r="D73" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>241</v>
+        <v>492</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" t="s">
-        <v>248</v>
+        <v>490</v>
+      </c>
+      <c r="G73" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>505</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>203</v>
+        <v>491</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
       </c>
       <c r="C74" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G74" s="20">
         <v>5</v>
@@ -3697,19 +3758,22 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>484</v>
       </c>
       <c r="C75" s="4">
-        <v>200</v>
+        <v>2600</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1800</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="G75" s="20">
         <v>5</v>
@@ -3717,19 +3781,19 @@
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="C76" s="4">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="G76" s="20">
         <v>5</v>
@@ -3737,22 +3801,19 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="B77" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="C77" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1800</v>
+        <v>220</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="G77" s="20">
         <v>5</v>
@@ -3760,19 +3821,19 @@
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" s="4">
+        <v>170</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B78" t="s">
-        <v>439</v>
-      </c>
-      <c r="C78" s="4">
-        <v>390</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="F78" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G78" s="20">
         <v>5</v>
@@ -3780,19 +3841,19 @@
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>447</v>
+        <v>194</v>
       </c>
       <c r="C79" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="G79" s="20">
         <v>5</v>
@@ -3800,19 +3861,22 @@
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s">
-        <v>446</v>
+        <v>194</v>
       </c>
       <c r="C80" s="4">
-        <v>170</v>
+        <v>352</v>
+      </c>
+      <c r="D80" s="4">
+        <v>250</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G80" s="20">
         <v>5</v>
@@ -3820,19 +3884,22 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C81" s="4">
-        <v>200</v>
+        <v>389</v>
+      </c>
+      <c r="D81" s="4">
+        <v>260</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="G81" s="20">
         <v>5</v>
@@ -3840,22 +3907,22 @@
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C82" s="4">
-        <v>352</v>
+        <v>999</v>
       </c>
       <c r="D82" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G82" s="20">
         <v>5</v>
@@ -3863,22 +3930,22 @@
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C83" s="4">
-        <v>389</v>
+        <v>1552</v>
       </c>
       <c r="D83" s="4">
-        <v>260</v>
+        <v>650</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G83" s="20">
         <v>5</v>
@@ -3886,22 +3953,22 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C84" s="4">
-        <v>999</v>
+        <v>292</v>
       </c>
       <c r="D84" s="4">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G84" s="20">
         <v>5</v>
@@ -3909,22 +3976,22 @@
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C85" s="4">
-        <v>1552</v>
+        <v>1500</v>
       </c>
       <c r="D85" s="4">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G85" s="20">
         <v>5</v>
@@ -3935,109 +4002,109 @@
         <v>459</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>458</v>
       </c>
       <c r="C86" s="4">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="D86" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F86" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="F86" s="5"/>
       <c r="G86" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="4">
+        <v>144</v>
+      </c>
+      <c r="D87" s="4">
+        <v>100</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="B87" t="s">
-        <v>203</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D87" s="4">
-        <v>600</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="G87" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B88" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C88" s="4">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="D88" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F88" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="G88" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C89" s="4">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="D89" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G89" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>472</v>
       </c>
       <c r="B90" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="4">
+        <v>270</v>
+      </c>
+      <c r="D90" s="4">
+        <v>150</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C90" s="4">
-        <v>350</v>
-      </c>
-      <c r="D90" s="4">
-        <v>180</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="G90" s="20">
         <v>5</v>
@@ -4045,22 +4112,22 @@
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B91" t="s">
         <v>477</v>
       </c>
       <c r="C91" s="4">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="D91" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G91" s="20">
         <v>5</v>
@@ -4068,22 +4135,19 @@
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B92" t="s">
-        <v>486</v>
+        <v>194</v>
       </c>
       <c r="C92" s="4">
-        <v>270</v>
-      </c>
-      <c r="D92" s="4">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G92" s="20">
         <v>5</v>
@@ -4091,22 +4155,22 @@
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="B93" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="C93" s="4">
-        <v>250</v>
+        <v>11200</v>
       </c>
       <c r="D93" s="4">
-        <v>150</v>
+        <v>6500</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="G93" s="20">
         <v>5</v>
@@ -4114,19 +4178,22 @@
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>487</v>
+        <v>412</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="C94" s="4">
-        <v>250</v>
+        <v>9700</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5500</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="G94" s="20">
         <v>5</v>
@@ -4134,56 +4201,56 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
       <c r="C95" s="4">
-        <v>11200</v>
+        <v>385</v>
       </c>
       <c r="D95" s="4">
-        <v>6500</v>
+        <v>250</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G95" s="20">
-        <v>5</v>
+        <v>503</v>
+      </c>
+      <c r="G95" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="C96" s="4">
-        <v>9700</v>
+        <v>670</v>
       </c>
       <c r="D96" s="4">
-        <v>5500</v>
+        <v>500</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G96" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="G96" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C97" s="13">
         <v>375</v>
@@ -4192,31 +4259,31 @@
         <v>260</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C98" s="13">
         <v>200</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G98" s="14">
         <v>4</v>
@@ -4224,10 +4291,10 @@
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C99" s="13">
         <v>295</v>
@@ -4236,10 +4303,10 @@
         <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
@@ -4247,10 +4314,10 @@
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C100" s="13">
         <v>279</v>
@@ -4259,10 +4326,10 @@
         <v>150</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G100" s="14">
         <v>4</v>
@@ -4270,10 +4337,10 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C101" s="13">
         <v>249</v>
@@ -4282,10 +4349,10 @@
         <v>150</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G101" s="14">
         <v>4</v>
@@ -4293,20 +4360,20 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C102" s="13">
         <v>300</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G102" s="14">
         <v>4</v>
@@ -4314,20 +4381,20 @@
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C103" s="13">
         <v>250</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G103" s="14">
         <v>4</v>
@@ -4335,20 +4402,20 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C104" s="13">
         <v>150</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G104" s="21">
         <v>4</v>
@@ -4356,10 +4423,10 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C105" s="13">
         <v>400</v>
@@ -4368,10 +4435,10 @@
         <v>250</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G105" s="14">
         <v>4</v>
@@ -4379,20 +4446,20 @@
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C106" s="13">
         <v>250</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G106" s="14">
         <v>4</v>
@@ -4400,20 +4467,20 @@
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C107" s="13">
         <v>250</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G107" s="14">
         <v>4</v>
@@ -4421,10 +4488,10 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C108" s="13">
         <v>270</v>
@@ -4433,10 +4500,10 @@
         <v>200</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G108" s="14">
         <v>4</v>
@@ -4444,10 +4511,10 @@
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C109" s="13">
         <v>455</v>
@@ -4456,10 +4523,10 @@
         <v>290</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G109" s="14">
         <v>4</v>
@@ -4467,10 +4534,10 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C110" s="13">
         <v>150</v>
@@ -4479,7 +4546,7 @@
         <v>100</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="14">
@@ -4488,10 +4555,10 @@
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C111" s="13">
         <v>150</v>
@@ -4500,7 +4567,7 @@
         <v>100</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="14">
@@ -4509,10 +4576,10 @@
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C112" s="13">
         <v>375</v>
@@ -4521,10 +4588,10 @@
         <v>250</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G112" s="14">
         <v>4</v>
@@ -4532,10 +4599,10 @@
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C113" s="13">
         <v>150</v>
@@ -4544,7 +4611,7 @@
         <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="14">
@@ -4553,10 +4620,10 @@
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C114" s="13">
         <v>250</v>
@@ -4565,7 +4632,7 @@
         <v>200</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="14">
@@ -4574,10 +4641,10 @@
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C115" s="13">
         <v>260</v>
@@ -4586,10 +4653,10 @@
         <v>250</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G115" s="14">
         <v>4</v>
@@ -4597,10 +4664,10 @@
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C116" s="4">
         <v>322</v>
@@ -4609,10 +4676,10 @@
         <v>270</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G116" s="16">
         <v>4</v>
@@ -4620,10 +4687,10 @@
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C117" s="4">
         <v>310</v>
@@ -4632,10 +4699,10 @@
         <v>150</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G117" s="14">
         <v>4</v>
@@ -4643,10 +4710,10 @@
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C118" s="4">
         <v>103.9</v>
@@ -4655,96 +4722,96 @@
         <v>85</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G118" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="4">
+        <v>160</v>
+      </c>
+      <c r="D119" s="4">
+        <v>100</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="4">
+        <v>160</v>
+      </c>
+      <c r="D120" s="4">
+        <v>100</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B119" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="3">
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="3">
         <v>459.07</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D121" s="3">
         <v>425</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G119" s="22">
+      <c r="E121" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C120" s="3">
+      <c r="B122" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" s="3">
         <v>419.19</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D122" s="3">
         <v>235</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G120" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" t="s">
-        <v>373</v>
-      </c>
-      <c r="C121" s="4">
-        <v>470</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G121" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" t="s">
-        <v>373</v>
-      </c>
-      <c r="C122" s="4">
-        <v>170</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="G122" s="8">
         <v>2</v>
@@ -4752,19 +4819,19 @@
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C123" s="4">
-        <v>185</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>158</v>
+        <v>470</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G123" s="8">
         <v>2</v>
@@ -4772,22 +4839,19 @@
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C124" s="4">
-        <v>298</v>
-      </c>
-      <c r="D124" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
@@ -4795,65 +4859,65 @@
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="C125" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D125" s="4">
+        <v>185</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="F125" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G125" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>370</v>
+      <c r="A126" t="s">
+        <v>298</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C126" s="4">
-        <v>439</v>
+        <v>298</v>
       </c>
       <c r="D126" s="4">
-        <v>200</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G126" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>30</v>
+      <c r="A127" t="s">
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C127" s="4">
-        <v>183.99</v>
+        <v>194.36</v>
+      </c>
+      <c r="D127" s="4">
+        <v>150</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
@@ -4861,65 +4925,65 @@
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="C128" s="4">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="D128" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="G128" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>310</v>
+      <c r="A129" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C129" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D129" s="4">
-        <v>170</v>
+        <v>183.99</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G129" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>31</v>
+      <c r="A130" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C130" s="4">
-        <v>150</v>
+        <v>230</v>
+      </c>
+      <c r="D130" s="4">
+        <v>210</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="G130" s="8">
         <v>2</v>
@@ -4927,19 +4991,22 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C131" s="4">
-        <v>125</v>
+        <v>189.99</v>
+      </c>
+      <c r="D131" s="4">
+        <v>170</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G131" s="8">
         <v>2</v>
@@ -4947,19 +5014,19 @@
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="C132" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="G132" s="8">
         <v>2</v>
@@ -4967,19 +5034,19 @@
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C133" s="4">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G133" s="8">
         <v>2</v>
@@ -4987,131 +5054,128 @@
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C134" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G134" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>314</v>
+      <c r="A135" t="s">
+        <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C135" s="4">
-        <v>130</v>
-      </c>
-      <c r="D135" s="4">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="G135" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" s="4">
+        <v>200</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G136" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C136" s="4">
-        <v>389</v>
-      </c>
-      <c r="D136" s="4">
-        <v>280</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G136" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>300</v>
-      </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C137" s="4">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D137" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G137" s="7">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="G137" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C138" s="4">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="D138" s="4">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>294</v>
+      <c r="A139" t="s">
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C139" s="4">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="D139" s="4">
+        <v>100</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
@@ -5119,10 +5183,10 @@
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>374</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C140" s="4">
         <v>135</v>
@@ -5131,53 +5195,53 @@
         <v>100</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>288</v>
+      <c r="A141" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B141" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="C141" s="4">
-        <v>135</v>
-      </c>
-      <c r="D141" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>287</v>
+      <c r="A142" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="C142" s="4">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D142" s="4">
-        <v>50</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>153</v>
+        <v>100</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -5185,19 +5249,22 @@
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="C143" s="4">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D143" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
@@ -5205,19 +5272,19 @@
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="C144" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D144" s="4">
-        <v>80</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>283</v>
+        <v>50</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
@@ -5225,160 +5292,154 @@
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C145" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D145" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>276</v>
+      <c r="A146" t="s">
+        <v>273</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C146" s="4">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="D146" s="4">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>273</v>
+      <c r="A147" t="s">
+        <v>272</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="C147" s="4">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="D147" s="4">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" s="4">
+        <v>569</v>
+      </c>
+      <c r="D148" s="4">
+        <v>390</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B148" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="4">
-        <v>300</v>
-      </c>
-      <c r="D148" s="4">
-        <v>150</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G148" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="4">
+        <v>298</v>
+      </c>
+      <c r="D149" s="4">
+        <v>235</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B149" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="4">
-        <v>498</v>
-      </c>
-      <c r="D149" s="4">
-        <v>240</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>263</v>
+      <c r="A150" t="s">
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C150" s="4">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="D150" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>379</v>
+      <c r="A151" t="s">
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C151" s="4">
-        <v>719</v>
+        <v>498</v>
       </c>
       <c r="D151" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
@@ -5386,22 +5447,22 @@
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C152" s="4">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="D152" s="4">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
@@ -5409,45 +5470,45 @@
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C153" s="4">
-        <v>347</v>
+        <v>719</v>
       </c>
       <c r="D153" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>252</v>
+      <c r="A154" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C154" s="4">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D154" s="4">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -5455,19 +5516,22 @@
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C155" s="4">
-        <v>500</v>
+        <v>347</v>
+      </c>
+      <c r="D155" s="4">
+        <v>220</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
@@ -5475,514 +5539,557 @@
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="C156" s="4">
-        <v>4500</v>
+        <v>353</v>
       </c>
       <c r="D156" s="4">
-        <v>3550</v>
+        <v>290</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>432</v>
+        <v>245</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>431</v>
+        <v>244</v>
+      </c>
+      <c r="G156" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>425</v>
+      <c r="A157" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>426</v>
+        <v>194</v>
       </c>
       <c r="C157" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D157" s="4">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>427</v>
+        <v>241</v>
+      </c>
+      <c r="G157" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="C158" s="4">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="D158" s="4">
-        <v>750</v>
+        <v>3550</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>417</v>
       </c>
       <c r="C159" s="4">
-        <v>300</v>
+        <v>5500</v>
+      </c>
+      <c r="D159" s="4">
+        <v>4700</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C160" s="4">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="D160" s="4">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C161" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C162" s="4">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="D162" s="4">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C163" s="4">
-        <v>550</v>
-      </c>
-      <c r="D163" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="B164" t="s">
+        <v>194</v>
       </c>
       <c r="C164" s="4">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D164" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B165" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C165" s="4">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D165" s="4">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>399</v>
-      </c>
-      <c r="B166" t="s">
-        <v>203</v>
+        <v>407</v>
       </c>
       <c r="C166" s="4">
-        <v>660</v>
+        <v>398</v>
       </c>
       <c r="D166" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C167" s="4">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="D167" s="4">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B168" t="s">
-        <v>408</v>
+        <v>194</v>
       </c>
       <c r="C168" s="4">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="D168" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C169" s="4">
-        <v>1775</v>
+        <v>690</v>
       </c>
       <c r="D169" s="4">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>399</v>
       </c>
       <c r="C170" s="4">
+        <v>637</v>
+      </c>
+      <c r="D170" s="4">
+        <v>300</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>400</v>
+      </c>
+      <c r="B171" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171" s="4">
+        <v>1775</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>411</v>
+      </c>
+      <c r="B172" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" s="4">
         <v>499</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D172" s="4">
         <v>350</v>
       </c>
-      <c r="E170" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B171" t="s">
-        <v>435</v>
-      </c>
-      <c r="C171" s="4">
+      <c r="E172" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B173" t="s">
+        <v>426</v>
+      </c>
+      <c r="C173" s="4">
         <v>2300</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D173" s="4">
         <v>1800</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="9"/>
+      <c r="E173" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F73" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
     <hyperlink ref="F118" r:id="rId1"/>
-    <hyperlink ref="F71" r:id="rId2"/>
-    <hyperlink ref="F72" r:id="rId3"/>
-    <hyperlink ref="F70" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F28" r:id="rId2"/>
+    <hyperlink ref="F70" r:id="rId3"/>
+    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
     <hyperlink ref="F69" r:id="rId4"/>
     <hyperlink ref="F117" r:id="rId5"/>
-    <hyperlink ref="F68" r:id="rId6"/>
-    <hyperlink ref="F67" r:id="rId7"/>
-    <hyperlink ref="F66" r:id="rId8"/>
-    <hyperlink ref="F63" r:id="rId9"/>
-    <hyperlink ref="F60" r:id="rId10"/>
-    <hyperlink ref="F59" r:id="rId11"/>
-    <hyperlink ref="F62" r:id="rId12"/>
-    <hyperlink ref="F61" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F68" r:id="rId7"/>
+    <hyperlink ref="F67" r:id="rId8"/>
+    <hyperlink ref="F66" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F20" r:id="rId11"/>
+    <hyperlink ref="F23" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13"/>
     <hyperlink ref="F116" r:id="rId14"/>
-    <hyperlink ref="F58" r:id="rId15"/>
-    <hyperlink ref="F57" r:id="rId16"/>
-    <hyperlink ref="F54" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F53" r:id="rId17"/>
-    <hyperlink ref="F52" r:id="rId18"/>
-    <hyperlink ref="F49" r:id="rId19"/>
-    <hyperlink ref="F48" r:id="rId20"/>
-    <hyperlink ref="F47" r:id="rId21"/>
-    <hyperlink ref="F46" r:id="rId22"/>
-    <hyperlink ref="F43" r:id="rId23"/>
-    <hyperlink ref="F41" r:id="rId24"/>
-    <hyperlink ref="F40" r:id="rId25"/>
-    <hyperlink ref="F39" r:id="rId26"/>
-    <hyperlink ref="F38" r:id="rId27"/>
-    <hyperlink ref="F37" r:id="rId28"/>
-    <hyperlink ref="F36" r:id="rId29"/>
-    <hyperlink ref="F35" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F32" r:id="rId30"/>
-    <hyperlink ref="F31" r:id="rId31"/>
-    <hyperlink ref="F30" r:id="rId32"/>
-    <hyperlink ref="F29" r:id="rId33"/>
-    <hyperlink ref="F27" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F26" r:id="rId34"/>
-    <hyperlink ref="F134" r:id="rId35"/>
-    <hyperlink ref="F133" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F132" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F127" r:id="rId36"/>
-    <hyperlink ref="F129" r:id="rId37"/>
-    <hyperlink ref="F131" r:id="rId38"/>
-    <hyperlink ref="F126" r:id="rId39"/>
-    <hyperlink ref="F25" r:id="rId40"/>
-    <hyperlink ref="F24" r:id="rId41"/>
-    <hyperlink ref="F23" r:id="rId42"/>
-    <hyperlink ref="F22" r:id="rId43"/>
-    <hyperlink ref="F21" r:id="rId44"/>
-    <hyperlink ref="F20" r:id="rId45"/>
-    <hyperlink ref="F19" r:id="rId46"/>
-    <hyperlink ref="F18" r:id="rId47"/>
-    <hyperlink ref="F17" r:id="rId48"/>
-    <hyperlink ref="F16" r:id="rId49"/>
-    <hyperlink ref="F13" r:id="rId50"/>
-    <hyperlink ref="F15" r:id="rId51"/>
-    <hyperlink ref="F12" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F11" r:id="rId52"/>
-    <hyperlink ref="F10" r:id="rId53"/>
-    <hyperlink ref="F8" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F9" r:id="rId54"/>
-    <hyperlink ref="F5" r:id="rId55"/>
-    <hyperlink ref="F6" r:id="rId56"/>
-    <hyperlink ref="F2" r:id="rId57"/>
-    <hyperlink ref="F124" r:id="rId58"/>
-    <hyperlink ref="F123" r:id="rId59"/>
-    <hyperlink ref="F125" r:id="rId60"/>
-    <hyperlink ref="F122" r:id="rId61"/>
-    <hyperlink ref="F121" r:id="rId62"/>
-    <hyperlink ref="F120" r:id="rId63"/>
-    <hyperlink ref="F119" r:id="rId64"/>
-    <hyperlink ref="E119" r:id="rId65"/>
-    <hyperlink ref="E123" r:id="rId66"/>
-    <hyperlink ref="E125" r:id="rId67"/>
-    <hyperlink ref="E2" r:id="rId68"/>
-    <hyperlink ref="E5" r:id="rId69"/>
-    <hyperlink ref="E6" r:id="rId70"/>
-    <hyperlink ref="E8" r:id="rId71"/>
-    <hyperlink ref="E9" r:id="rId72"/>
-    <hyperlink ref="E10" r:id="rId73"/>
-    <hyperlink ref="E11" r:id="rId74"/>
-    <hyperlink ref="E13" r:id="rId75"/>
-    <hyperlink ref="E12" r:id="rId76"/>
-    <hyperlink ref="E14" r:id="rId77"/>
-    <hyperlink ref="E15" r:id="rId78"/>
-    <hyperlink ref="E16" r:id="rId79"/>
-    <hyperlink ref="E17" r:id="rId80"/>
-    <hyperlink ref="E18" r:id="rId81"/>
-    <hyperlink ref="E19" r:id="rId82"/>
-    <hyperlink ref="E20" r:id="rId83"/>
-    <hyperlink ref="E21" r:id="rId84"/>
-    <hyperlink ref="E22" r:id="rId85"/>
-    <hyperlink ref="E23" r:id="rId86"/>
-    <hyperlink ref="E24" r:id="rId87"/>
-    <hyperlink ref="E25" r:id="rId88"/>
-    <hyperlink ref="E126" r:id="rId89"/>
-    <hyperlink ref="E127" r:id="rId90"/>
-    <hyperlink ref="E129" r:id="rId91"/>
-    <hyperlink ref="E130" r:id="rId92"/>
-    <hyperlink ref="E131" r:id="rId93"/>
-    <hyperlink ref="E132" r:id="rId94"/>
-    <hyperlink ref="E133" r:id="rId95"/>
-    <hyperlink ref="E134" r:id="rId96"/>
-    <hyperlink ref="E26" r:id="rId97"/>
-    <hyperlink ref="E27" r:id="rId98"/>
-    <hyperlink ref="E28" r:id="rId99"/>
-    <hyperlink ref="F28" r:id="rId100"/>
-    <hyperlink ref="E29" r:id="rId101"/>
-    <hyperlink ref="E30" r:id="rId102"/>
-    <hyperlink ref="E31" r:id="rId103"/>
-    <hyperlink ref="E33" r:id="rId104"/>
-    <hyperlink ref="E34" r:id="rId105"/>
-    <hyperlink ref="E32" r:id="rId106"/>
-    <hyperlink ref="E35" r:id="rId107"/>
-    <hyperlink ref="E36" r:id="rId108"/>
-    <hyperlink ref="E37" r:id="rId109"/>
-    <hyperlink ref="E38" r:id="rId110"/>
-    <hyperlink ref="E39" r:id="rId111"/>
-    <hyperlink ref="E40" r:id="rId112"/>
-    <hyperlink ref="E41" r:id="rId113"/>
-    <hyperlink ref="E42" r:id="rId114"/>
-    <hyperlink ref="E46" r:id="rId115"/>
-    <hyperlink ref="E45" r:id="rId116"/>
-    <hyperlink ref="E44" r:id="rId117"/>
-    <hyperlink ref="E47" r:id="rId118"/>
-    <hyperlink ref="E48" r:id="rId119"/>
-    <hyperlink ref="E49" r:id="rId120"/>
-    <hyperlink ref="E50" r:id="rId121"/>
-    <hyperlink ref="E51" r:id="rId122"/>
-    <hyperlink ref="E52" r:id="rId123"/>
-    <hyperlink ref="E53" r:id="rId124"/>
-    <hyperlink ref="E54" r:id="rId125"/>
-    <hyperlink ref="E57" r:id="rId126"/>
-    <hyperlink ref="E58" r:id="rId127"/>
-    <hyperlink ref="E59" r:id="rId128"/>
-    <hyperlink ref="E60" r:id="rId129"/>
+    <hyperlink ref="F65" r:id="rId15"/>
+    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F62" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F61" r:id="rId17"/>
+    <hyperlink ref="F60" r:id="rId18"/>
+    <hyperlink ref="F57" r:id="rId19"/>
+    <hyperlink ref="F56" r:id="rId20"/>
+    <hyperlink ref="F55" r:id="rId21"/>
+    <hyperlink ref="F54" r:id="rId22"/>
+    <hyperlink ref="F51" r:id="rId23"/>
+    <hyperlink ref="F49" r:id="rId24"/>
+    <hyperlink ref="F48" r:id="rId25"/>
+    <hyperlink ref="F47" r:id="rId26"/>
+    <hyperlink ref="F46" r:id="rId27"/>
+    <hyperlink ref="F45" r:id="rId28"/>
+    <hyperlink ref="F44" r:id="rId29"/>
+    <hyperlink ref="F43" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F42" r:id="rId30"/>
+    <hyperlink ref="F41" r:id="rId31"/>
+    <hyperlink ref="F40" r:id="rId32"/>
+    <hyperlink ref="F39" r:id="rId33"/>
+    <hyperlink ref="F37" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F136" r:id="rId35"/>
+    <hyperlink ref="F135" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F134" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F129" r:id="rId36"/>
+    <hyperlink ref="F131" r:id="rId37"/>
+    <hyperlink ref="F133" r:id="rId38"/>
+    <hyperlink ref="F128" r:id="rId39"/>
+    <hyperlink ref="F18" r:id="rId40"/>
+    <hyperlink ref="F35" r:id="rId41"/>
+    <hyperlink ref="F34" r:id="rId42"/>
+    <hyperlink ref="F17" r:id="rId43"/>
+    <hyperlink ref="F15" r:id="rId44"/>
+    <hyperlink ref="F14" r:id="rId45"/>
+    <hyperlink ref="F30" r:id="rId46"/>
+    <hyperlink ref="F13" r:id="rId47"/>
+    <hyperlink ref="F12" r:id="rId48"/>
+    <hyperlink ref="F11" r:id="rId49"/>
+    <hyperlink ref="F8" r:id="rId50"/>
+    <hyperlink ref="F10" r:id="rId51"/>
+    <hyperlink ref="F7" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F6" r:id="rId52"/>
+    <hyperlink ref="F5" r:id="rId53"/>
+    <hyperlink ref="F32" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F33" r:id="rId54"/>
+    <hyperlink ref="F3" r:id="rId55"/>
+    <hyperlink ref="F4" r:id="rId56"/>
+    <hyperlink ref="F29" r:id="rId57"/>
+    <hyperlink ref="F126" r:id="rId58"/>
+    <hyperlink ref="F125" r:id="rId59"/>
+    <hyperlink ref="F127" r:id="rId60"/>
+    <hyperlink ref="F124" r:id="rId61"/>
+    <hyperlink ref="F123" r:id="rId62"/>
+    <hyperlink ref="F122" r:id="rId63"/>
+    <hyperlink ref="F121" r:id="rId64"/>
+    <hyperlink ref="E121" r:id="rId65"/>
+    <hyperlink ref="E125" r:id="rId66"/>
+    <hyperlink ref="E127" r:id="rId67"/>
+    <hyperlink ref="E29" r:id="rId68"/>
+    <hyperlink ref="E3" r:id="rId69"/>
+    <hyperlink ref="E4" r:id="rId70"/>
+    <hyperlink ref="E32" r:id="rId71"/>
+    <hyperlink ref="E33" r:id="rId72"/>
+    <hyperlink ref="E5" r:id="rId73"/>
+    <hyperlink ref="E6" r:id="rId74"/>
+    <hyperlink ref="E8" r:id="rId75"/>
+    <hyperlink ref="E7" r:id="rId76"/>
+    <hyperlink ref="E9" r:id="rId77"/>
+    <hyperlink ref="E10" r:id="rId78"/>
+    <hyperlink ref="E11" r:id="rId79"/>
+    <hyperlink ref="E12" r:id="rId80"/>
+    <hyperlink ref="E13" r:id="rId81"/>
+    <hyperlink ref="E30" r:id="rId82"/>
+    <hyperlink ref="E14" r:id="rId83"/>
+    <hyperlink ref="E15" r:id="rId84"/>
+    <hyperlink ref="E17" r:id="rId85"/>
+    <hyperlink ref="E34" r:id="rId86"/>
+    <hyperlink ref="E35" r:id="rId87"/>
+    <hyperlink ref="E18" r:id="rId88"/>
+    <hyperlink ref="E128" r:id="rId89"/>
+    <hyperlink ref="E129" r:id="rId90"/>
+    <hyperlink ref="E131" r:id="rId91"/>
+    <hyperlink ref="E132" r:id="rId92"/>
+    <hyperlink ref="E133" r:id="rId93"/>
+    <hyperlink ref="E134" r:id="rId94"/>
+    <hyperlink ref="E135" r:id="rId95"/>
+    <hyperlink ref="E136" r:id="rId96"/>
+    <hyperlink ref="E36" r:id="rId97"/>
+    <hyperlink ref="E37" r:id="rId98"/>
+    <hyperlink ref="E38" r:id="rId99"/>
+    <hyperlink ref="F38" r:id="rId100"/>
+    <hyperlink ref="E39" r:id="rId101"/>
+    <hyperlink ref="E40" r:id="rId102"/>
+    <hyperlink ref="E41" r:id="rId103"/>
+    <hyperlink ref="E119" r:id="rId104"/>
+    <hyperlink ref="E120" r:id="rId105"/>
+    <hyperlink ref="E42" r:id="rId106"/>
+    <hyperlink ref="E43" r:id="rId107"/>
+    <hyperlink ref="E44" r:id="rId108"/>
+    <hyperlink ref="E45" r:id="rId109"/>
+    <hyperlink ref="E46" r:id="rId110"/>
+    <hyperlink ref="E47" r:id="rId111"/>
+    <hyperlink ref="E48" r:id="rId112"/>
+    <hyperlink ref="E49" r:id="rId113"/>
+    <hyperlink ref="E50" r:id="rId114"/>
+    <hyperlink ref="E54" r:id="rId115"/>
+    <hyperlink ref="E53" r:id="rId116"/>
+    <hyperlink ref="E52" r:id="rId117"/>
+    <hyperlink ref="E55" r:id="rId118"/>
+    <hyperlink ref="E56" r:id="rId119"/>
+    <hyperlink ref="E57" r:id="rId120"/>
+    <hyperlink ref="E58" r:id="rId121"/>
+    <hyperlink ref="E59" r:id="rId122"/>
+    <hyperlink ref="E60" r:id="rId123"/>
+    <hyperlink ref="E61" r:id="rId124"/>
+    <hyperlink ref="E62" r:id="rId125"/>
+    <hyperlink ref="E19" r:id="rId126"/>
+    <hyperlink ref="E65" r:id="rId127"/>
+    <hyperlink ref="E20" r:id="rId128"/>
+    <hyperlink ref="E21" r:id="rId129"/>
     <hyperlink ref="E116" r:id="rId130"/>
-    <hyperlink ref="E61" r:id="rId131"/>
-    <hyperlink ref="E62" r:id="rId132"/>
-    <hyperlink ref="E63" r:id="rId133"/>
-    <hyperlink ref="E43" r:id="rId134"/>
-    <hyperlink ref="E66" r:id="rId135"/>
-    <hyperlink ref="E67" r:id="rId136"/>
-    <hyperlink ref="E68" r:id="rId137"/>
+    <hyperlink ref="E22" r:id="rId131"/>
+    <hyperlink ref="E23" r:id="rId132"/>
+    <hyperlink ref="E66" r:id="rId133"/>
+    <hyperlink ref="E51" r:id="rId134"/>
+    <hyperlink ref="E67" r:id="rId135"/>
+    <hyperlink ref="E68" r:id="rId136"/>
+    <hyperlink ref="E26" r:id="rId137"/>
     <hyperlink ref="E117" r:id="rId138"/>
     <hyperlink ref="E69" r:id="rId139"/>
-    <hyperlink ref="E70" r:id="rId140"/>
-    <hyperlink ref="E71" r:id="rId141"/>
-    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="E27" r:id="rId140"/>
+    <hyperlink ref="E28" r:id="rId141"/>
+    <hyperlink ref="E70" r:id="rId142"/>
     <hyperlink ref="E118" r:id="rId143"/>
-    <hyperlink ref="E73" r:id="rId144"/>
-    <hyperlink ref="E64" r:id="rId145"/>
-    <hyperlink ref="E65" r:id="rId146"/>
-    <hyperlink ref="E55" r:id="rId147"/>
-    <hyperlink ref="E56" r:id="rId148"/>
-    <hyperlink ref="F155" r:id="rId149"/>
-    <hyperlink ref="E155" r:id="rId150"/>
-    <hyperlink ref="F154" r:id="rId151"/>
-    <hyperlink ref="E154" r:id="rId152"/>
-    <hyperlink ref="F153" r:id="rId153"/>
-    <hyperlink ref="E153" r:id="rId154"/>
-    <hyperlink ref="F152" r:id="rId155"/>
-    <hyperlink ref="E152" r:id="rId156"/>
-    <hyperlink ref="F151" r:id="rId157"/>
-    <hyperlink ref="E151" r:id="rId158"/>
-    <hyperlink ref="F150" r:id="rId159"/>
-    <hyperlink ref="E150" r:id="rId160"/>
-    <hyperlink ref="F149" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E149" r:id="rId161"/>
-    <hyperlink ref="F148" r:id="rId162"/>
-    <hyperlink ref="E148" r:id="rId163"/>
-    <hyperlink ref="E147" r:id="rId164"/>
-    <hyperlink ref="F147" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F146" r:id="rId166"/>
-    <hyperlink ref="E146" r:id="rId167"/>
-    <hyperlink ref="F145" r:id="rId168"/>
-    <hyperlink ref="E145" r:id="rId169"/>
-    <hyperlink ref="E144" r:id="rId170"/>
-    <hyperlink ref="E143" r:id="rId171"/>
-    <hyperlink ref="E141" r:id="rId172"/>
-    <hyperlink ref="F141" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F140" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E140" r:id="rId174"/>
-    <hyperlink ref="F139" r:id="rId175"/>
-    <hyperlink ref="E139" r:id="rId176"/>
-    <hyperlink ref="F138" r:id="rId177"/>
-    <hyperlink ref="E138" r:id="rId178"/>
-    <hyperlink ref="E137" r:id="rId179"/>
-    <hyperlink ref="F137" r:id="rId180"/>
-    <hyperlink ref="E136" r:id="rId181"/>
-    <hyperlink ref="F136" r:id="rId182"/>
-    <hyperlink ref="E128" r:id="rId183"/>
-    <hyperlink ref="F128" r:id="rId184"/>
-    <hyperlink ref="F135" r:id="rId185"/>
-    <hyperlink ref="E135" r:id="rId186"/>
-    <hyperlink ref="E171" r:id="rId187"/>
+    <hyperlink ref="E71" r:id="rId144"/>
+    <hyperlink ref="E24" r:id="rId145"/>
+    <hyperlink ref="E25" r:id="rId146"/>
+    <hyperlink ref="E63" r:id="rId147"/>
+    <hyperlink ref="E64" r:id="rId148"/>
+    <hyperlink ref="F157" r:id="rId149"/>
+    <hyperlink ref="E157" r:id="rId150"/>
+    <hyperlink ref="F156" r:id="rId151"/>
+    <hyperlink ref="E156" r:id="rId152"/>
+    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="F154" r:id="rId155"/>
+    <hyperlink ref="E154" r:id="rId156"/>
+    <hyperlink ref="F153" r:id="rId157"/>
+    <hyperlink ref="E153" r:id="rId158"/>
+    <hyperlink ref="F152" r:id="rId159"/>
+    <hyperlink ref="E152" r:id="rId160"/>
+    <hyperlink ref="F151" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E151" r:id="rId161"/>
+    <hyperlink ref="F150" r:id="rId162"/>
+    <hyperlink ref="E150" r:id="rId163"/>
+    <hyperlink ref="E149" r:id="rId164"/>
+    <hyperlink ref="F149" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F148" r:id="rId166"/>
+    <hyperlink ref="E148" r:id="rId167"/>
+    <hyperlink ref="F147" r:id="rId168"/>
+    <hyperlink ref="E147" r:id="rId169"/>
+    <hyperlink ref="E146" r:id="rId170"/>
+    <hyperlink ref="E145" r:id="rId171"/>
+    <hyperlink ref="E143" r:id="rId172"/>
+    <hyperlink ref="F143" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F142" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E142" r:id="rId174"/>
+    <hyperlink ref="F141" r:id="rId175"/>
+    <hyperlink ref="E141" r:id="rId176"/>
+    <hyperlink ref="F140" r:id="rId177"/>
+    <hyperlink ref="E140" r:id="rId178"/>
+    <hyperlink ref="E139" r:id="rId179"/>
+    <hyperlink ref="F139" r:id="rId180"/>
+    <hyperlink ref="E138" r:id="rId181"/>
+    <hyperlink ref="F138" r:id="rId182"/>
+    <hyperlink ref="E130" r:id="rId183"/>
+    <hyperlink ref="F130" r:id="rId184"/>
+    <hyperlink ref="F137" r:id="rId185"/>
+    <hyperlink ref="E137" r:id="rId186"/>
+    <hyperlink ref="E173" r:id="rId187"/>
     <hyperlink ref="F97" r:id="rId188"/>
     <hyperlink ref="E97" r:id="rId189"/>
     <hyperlink ref="F115" r:id="rId190"/>
@@ -6017,91 +6124,93 @@
     <hyperlink ref="E102" r:id="rId219"/>
     <hyperlink ref="F98" r:id="rId220"/>
     <hyperlink ref="E98" r:id="rId221"/>
-    <hyperlink ref="E122" r:id="rId222"/>
-    <hyperlink ref="F158" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E158" r:id="rId224"/>
-    <hyperlink ref="F159" r:id="rId225"/>
-    <hyperlink ref="E159" r:id="rId226"/>
-    <hyperlink ref="F160" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E160" r:id="rId228"/>
-    <hyperlink ref="F161" r:id="rId229"/>
-    <hyperlink ref="E161" r:id="rId230"/>
-    <hyperlink ref="F163" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E163" r:id="rId232"/>
-    <hyperlink ref="F165" r:id="rId233"/>
-    <hyperlink ref="E165" r:id="rId234"/>
-    <hyperlink ref="F166" r:id="rId235"/>
-    <hyperlink ref="E166" r:id="rId236"/>
-    <hyperlink ref="F167" r:id="rId237"/>
-    <hyperlink ref="E167" r:id="rId238"/>
-    <hyperlink ref="F168" r:id="rId239"/>
-    <hyperlink ref="E168" r:id="rId240"/>
-    <hyperlink ref="F169" r:id="rId241"/>
-    <hyperlink ref="E169" r:id="rId242"/>
-    <hyperlink ref="F170" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E170" r:id="rId243"/>
-    <hyperlink ref="F162" r:id="rId244"/>
-    <hyperlink ref="F164" r:id="rId245"/>
-    <hyperlink ref="E164" r:id="rId246"/>
-    <hyperlink ref="E162" r:id="rId247"/>
-    <hyperlink ref="F96" r:id="rId248"/>
-    <hyperlink ref="E96" r:id="rId249"/>
-    <hyperlink ref="F157" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E157" r:id="rId251"/>
-    <hyperlink ref="F95" r:id="rId252"/>
-    <hyperlink ref="E95" r:id="rId253"/>
-    <hyperlink ref="F156" r:id="rId254"/>
-    <hyperlink ref="E156" r:id="rId255"/>
-    <hyperlink ref="F78" r:id="rId256"/>
-    <hyperlink ref="E78" r:id="rId257"/>
-    <hyperlink ref="E79" r:id="rId258"/>
-    <hyperlink ref="F79" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F80" r:id="rId260"/>
-    <hyperlink ref="E80" r:id="rId261"/>
-    <hyperlink ref="E82" r:id="rId262"/>
-    <hyperlink ref="F82" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E83" r:id="rId264"/>
-    <hyperlink ref="F83" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E84" r:id="rId265"/>
-    <hyperlink ref="F84" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F85" r:id="rId267"/>
-    <hyperlink ref="E85" r:id="rId268"/>
-    <hyperlink ref="F86" r:id="rId269"/>
-    <hyperlink ref="E86" r:id="rId270"/>
-    <hyperlink ref="E87" r:id="rId271"/>
-    <hyperlink ref="F87" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E88" r:id="rId273"/>
-    <hyperlink ref="E89" r:id="rId274"/>
-    <hyperlink ref="F89" r:id="rId275"/>
-    <hyperlink ref="F90" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E90" r:id="rId276"/>
-    <hyperlink ref="E91" r:id="rId277"/>
-    <hyperlink ref="F91" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F92" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E92" r:id="rId280"/>
-    <hyperlink ref="F93" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E93" r:id="rId282"/>
-    <hyperlink ref="F94" r:id="rId283"/>
-    <hyperlink ref="E94" r:id="rId284"/>
-    <hyperlink ref="F77" r:id="rId285"/>
-    <hyperlink ref="E77" r:id="rId286"/>
-    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E81" r:id="rId287"/>
-    <hyperlink ref="F74" r:id="rId288"/>
-    <hyperlink ref="E74" r:id="rId289"/>
-    <hyperlink ref="F75" r:id="rId290"/>
-    <hyperlink ref="E75" r:id="rId291"/>
-    <hyperlink ref="F76" r:id="rId292"/>
-    <hyperlink ref="E76" r:id="rId293"/>
-    <hyperlink ref="F4" r:id="rId294"/>
-    <hyperlink ref="E4" r:id="rId295"/>
-    <hyperlink ref="F3" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E3" r:id="rId297"/>
+    <hyperlink ref="E124" r:id="rId222"/>
+    <hyperlink ref="F160" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E160" r:id="rId224"/>
+    <hyperlink ref="F161" r:id="rId225"/>
+    <hyperlink ref="E161" r:id="rId226"/>
+    <hyperlink ref="F162" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E162" r:id="rId228"/>
+    <hyperlink ref="F163" r:id="rId229"/>
+    <hyperlink ref="E163" r:id="rId230"/>
+    <hyperlink ref="F165" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E165" r:id="rId232"/>
+    <hyperlink ref="F167" r:id="rId233"/>
+    <hyperlink ref="E167" r:id="rId234"/>
+    <hyperlink ref="F168" r:id="rId235"/>
+    <hyperlink ref="E168" r:id="rId236"/>
+    <hyperlink ref="F169" r:id="rId237"/>
+    <hyperlink ref="E169" r:id="rId238"/>
+    <hyperlink ref="F170" r:id="rId239"/>
+    <hyperlink ref="E170" r:id="rId240"/>
+    <hyperlink ref="F171" r:id="rId241"/>
+    <hyperlink ref="E171" r:id="rId242"/>
+    <hyperlink ref="F172" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E172" r:id="rId243"/>
+    <hyperlink ref="F164" r:id="rId244"/>
+    <hyperlink ref="F166" r:id="rId245"/>
+    <hyperlink ref="E166" r:id="rId246"/>
+    <hyperlink ref="E164" r:id="rId247"/>
+    <hyperlink ref="F94" r:id="rId248"/>
+    <hyperlink ref="E94" r:id="rId249"/>
+    <hyperlink ref="F159" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E159" r:id="rId251"/>
+    <hyperlink ref="F93" r:id="rId252"/>
+    <hyperlink ref="E93" r:id="rId253"/>
+    <hyperlink ref="F158" r:id="rId254"/>
+    <hyperlink ref="E158" r:id="rId255"/>
+    <hyperlink ref="F76" r:id="rId256"/>
+    <hyperlink ref="E76" r:id="rId257"/>
+    <hyperlink ref="E77" r:id="rId258"/>
+    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F78" r:id="rId260"/>
+    <hyperlink ref="E78" r:id="rId261"/>
+    <hyperlink ref="E80" r:id="rId262"/>
+    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E81" r:id="rId264"/>
+    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E82" r:id="rId265"/>
+    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F83" r:id="rId267"/>
+    <hyperlink ref="E83" r:id="rId268"/>
+    <hyperlink ref="F84" r:id="rId269"/>
+    <hyperlink ref="E84" r:id="rId270"/>
+    <hyperlink ref="E85" r:id="rId271"/>
+    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E86" r:id="rId273"/>
+    <hyperlink ref="E87" r:id="rId274"/>
+    <hyperlink ref="F87" r:id="rId275"/>
+    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E88" r:id="rId276"/>
+    <hyperlink ref="E89" r:id="rId277"/>
+    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E90" r:id="rId280"/>
+    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E91" r:id="rId282"/>
+    <hyperlink ref="F92" r:id="rId283"/>
+    <hyperlink ref="E92" r:id="rId284"/>
+    <hyperlink ref="F75" r:id="rId285"/>
+    <hyperlink ref="E75" r:id="rId286"/>
+    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E79" r:id="rId287"/>
+    <hyperlink ref="F72" r:id="rId288"/>
+    <hyperlink ref="E72" r:id="rId289"/>
+    <hyperlink ref="F73" r:id="rId290"/>
+    <hyperlink ref="E73" r:id="rId291"/>
+    <hyperlink ref="F74" r:id="rId292"/>
+    <hyperlink ref="E74" r:id="rId293"/>
+    <hyperlink ref="F96" r:id="rId294"/>
+    <hyperlink ref="E96" r:id="rId295"/>
+    <hyperlink ref="F95" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E95" r:id="rId297"/>
+    <hyperlink ref="E2" r:id="rId298"/>
+    <hyperlink ref="E16" r:id="rId299"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId298"/>
+  <pageSetup orientation="portrait" r:id="rId300"/>
   <tableParts count="1">
-    <tablePart r:id="rId299"/>
+    <tablePart r:id="rId301"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$175</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="532">
   <si>
     <t>Nombre</t>
   </si>
@@ -1605,6 +1605,24 @@
   </si>
   <si>
     <t>Bascula Digital Gramera Alta Precisión Joyeria 0.01gr 500gr</t>
+  </si>
+  <si>
+    <t>Audifonos Inalambricos Pro 3 Compatible Con Android Xiaomi</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2611642580-audifonos-inalambricos-pro-3-compatible-con-android-xiaomi-_JM?quantity=1&amp;variation_id=178989997120</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_840986-MLM72296741425_102023-O-audifonos-inalambricos-pro-3-compatible-con-android-xiaomi.webp</t>
+  </si>
+  <si>
+    <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3665538778-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col-_JM?quantity=1&amp;variation_id=187746698935</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_833941-MLU78764933573_082024-O-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col.webp</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1675,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +1724,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1748,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1786,6 +1810,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1829,8 +1854,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G173" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G175" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G175"/>
   <sortState ref="A2:G173">
     <sortCondition descending="1" ref="G1:G173"/>
   </sortState>
@@ -2110,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,137 +2197,130 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="4">
+        <v>300</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="4">
+        <v>252</v>
+      </c>
+      <c r="D4" s="4">
+        <v>200</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>516</v>
       </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4">
         <v>170.73</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D5" s="4">
         <v>140</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>513</v>
-      </c>
-      <c r="C4" s="4">
-        <v>180</v>
-      </c>
-      <c r="D4" s="4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="4">
-        <v>212</v>
-      </c>
-      <c r="D5" s="4">
-        <v>120</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C6" s="4">
-        <v>178.03</v>
+        <v>180</v>
       </c>
       <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="C7" s="4">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D7" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="C8" s="4">
-        <v>193.7</v>
+        <v>178.03</v>
       </c>
       <c r="D8" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>506</v>
@@ -2310,42 +2328,45 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="4">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4">
-        <v>220</v>
+        <v>193.7</v>
       </c>
       <c r="D10" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>506</v>
@@ -2353,22 +2374,19 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>194</v>
       </c>
       <c r="C11" s="4">
-        <v>248.02</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>506</v>
@@ -2376,22 +2394,22 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C12" s="4">
+        <v>220</v>
+      </c>
+      <c r="D12" s="4">
         <v>120</v>
       </c>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>506</v>
@@ -2399,22 +2417,22 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="C13" s="4">
-        <v>269</v>
+        <v>248.02</v>
       </c>
       <c r="D13" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>506</v>
@@ -2422,22 +2440,22 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>524</v>
       </c>
       <c r="C14" s="4">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>506</v>
@@ -2445,22 +2463,22 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>194</v>
       </c>
       <c r="C15" s="4">
-        <v>119.4</v>
+        <v>269</v>
       </c>
       <c r="D15" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>506</v>
@@ -2468,112 +2486,112 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>194</v>
       </c>
       <c r="C16" s="4">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="D16" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C17" s="4">
-        <v>149</v>
+        <v>119.4</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>521</v>
+        <v>171</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>194</v>
+        <v>518</v>
+      </c>
+      <c r="B18" t="s">
+        <v>510</v>
       </c>
       <c r="C18" s="4">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D18" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="24" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="C19" s="4">
-        <v>374.7</v>
+        <v>149</v>
       </c>
       <c r="D19" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>215</v>
+        <v>521</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>194</v>
       </c>
       <c r="C20" s="4">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>506</v>
@@ -2581,22 +2599,22 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>508</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>194</v>
       </c>
       <c r="C21" s="4">
-        <v>220</v>
+        <v>374.7</v>
       </c>
       <c r="D21" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>506</v>
@@ -2604,22 +2622,22 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>194</v>
       </c>
       <c r="C22" s="4">
-        <v>126.85</v>
+        <v>499</v>
       </c>
       <c r="D22" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>506</v>
@@ -2627,22 +2645,22 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>508</v>
       </c>
       <c r="B23" t="s">
-        <v>512</v>
+        <v>194</v>
       </c>
       <c r="C23" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D23" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>506</v>
@@ -2650,40 +2668,45 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>194</v>
       </c>
       <c r="C24" s="4">
-        <v>175</v>
+        <v>126.85</v>
       </c>
       <c r="D24" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="G24" s="23" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>368</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>512</v>
       </c>
       <c r="C25" s="4">
-        <v>219.5</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>235</v>
+        <v>220</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>506</v>
@@ -2691,45 +2714,40 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
         <v>194</v>
       </c>
       <c r="C26" s="4">
-        <v>226.52</v>
+        <v>175</v>
       </c>
       <c r="D26" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="23" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>194</v>
       </c>
       <c r="C27" s="4">
-        <v>299.01</v>
+        <v>219.5</v>
       </c>
       <c r="D27" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>506</v>
@@ -2737,19 +2755,22 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>194</v>
       </c>
       <c r="C28" s="4">
-        <v>95.52</v>
+        <v>226.52</v>
+      </c>
+      <c r="D28" s="4">
+        <v>150</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>506</v>
@@ -2757,108 +2778,105 @@
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>525</v>
       </c>
       <c r="B29" t="s">
         <v>194</v>
       </c>
       <c r="C29" s="4">
-        <v>665</v>
+        <v>299.01</v>
       </c>
       <c r="D29" s="4">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>515</v>
+        <v>140</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>514</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>510</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4">
-        <v>315</v>
-      </c>
-      <c r="D30" s="4">
-        <v>250</v>
+        <v>95.52</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" t="s">
-        <v>515</v>
+        <v>141</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="4">
-        <v>299</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>145</v>
+        <v>665</v>
+      </c>
+      <c r="D31" s="4">
+        <v>450</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>514</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="C32" s="4">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="D32" s="4">
-        <v>150</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>159</v>
+        <v>250</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>194</v>
       </c>
       <c r="C33" s="4">
-        <v>279</v>
-      </c>
-      <c r="D33" s="4">
-        <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>299</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G33" t="s">
         <v>239</v>
@@ -2866,22 +2884,22 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>194</v>
       </c>
       <c r="C34" s="4">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="D34" s="4">
         <v>150</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>172</v>
+      <c r="E34" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
         <v>239</v>
@@ -2889,22 +2907,22 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="4">
-        <v>166.93</v>
+        <v>279</v>
       </c>
       <c r="D35" s="4">
-        <v>150</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
         <v>239</v>
@@ -2912,22 +2930,22 @@
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>194</v>
       </c>
       <c r="C36" s="4">
-        <v>1072.6500000000001</v>
+        <v>210</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
         <v>239</v>
@@ -2935,22 +2953,22 @@
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>194</v>
       </c>
       <c r="C37" s="4">
-        <v>393.2</v>
+        <v>166.93</v>
       </c>
       <c r="D37" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>239</v>
@@ -2958,22 +2976,22 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="4">
-        <v>342.66</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D38" s="4">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>239</v>
@@ -2981,22 +2999,22 @@
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="4">
-        <v>323.66000000000003</v>
+        <v>393.2</v>
       </c>
       <c r="D39" s="4">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
         <v>239</v>
@@ -3004,22 +3022,22 @@
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="4">
-        <v>237.76</v>
+        <v>342.66</v>
       </c>
       <c r="D40" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
         <v>239</v>
@@ -3027,22 +3045,22 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>194</v>
       </c>
       <c r="C41" s="4">
-        <v>359</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D41" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
         <v>239</v>
@@ -3050,22 +3068,22 @@
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="4">
-        <v>210</v>
+        <v>237.76</v>
       </c>
       <c r="D42" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>239</v>
@@ -3073,22 +3091,22 @@
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="4">
-        <v>120</v>
+        <v>359</v>
       </c>
       <c r="D43" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G43" t="s">
         <v>239</v>
@@ -3096,22 +3114,22 @@
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
         <v>194</v>
       </c>
       <c r="C44" s="4">
-        <v>266.95999999999998</v>
+        <v>210</v>
       </c>
       <c r="D44" s="4">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
         <v>239</v>
@@ -3119,45 +3137,45 @@
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="4">
-        <v>495.99</v>
+        <v>120</v>
       </c>
       <c r="D45" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>194</v>
       </c>
       <c r="C46" s="4">
-        <v>633.91</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D46" s="4">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>239</v>
@@ -3165,45 +3183,45 @@
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
         <v>194</v>
       </c>
       <c r="C47" s="4">
-        <v>1064.8800000000001</v>
+        <v>495.99</v>
       </c>
       <c r="D47" s="4">
-        <v>1025</v>
+        <v>350</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="19" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>194</v>
       </c>
       <c r="C48" s="4">
-        <v>758.9</v>
+        <v>633.91</v>
       </c>
       <c r="D48" s="4">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G48" t="s">
         <v>239</v>
@@ -3211,19 +3229,22 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="4">
-        <v>400</v>
+        <v>1064.8800000000001</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1025</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G49" t="s">
         <v>239</v>
@@ -3231,22 +3252,22 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>194</v>
       </c>
       <c r="C50" s="4">
-        <v>268</v>
+        <v>758.9</v>
       </c>
       <c r="D50" s="4">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" t="s">
-        <v>118</v>
+        <v>200</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G50" t="s">
         <v>239</v>
@@ -3254,22 +3275,19 @@
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="4">
-        <v>1899</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>222</v>
+        <v>400</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
         <v>239</v>
@@ -3277,19 +3295,22 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="4">
-        <v>166.88</v>
+        <v>268</v>
       </c>
       <c r="D52" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
       </c>
       <c r="G52" t="s">
         <v>239</v>
@@ -3297,19 +3318,22 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>194</v>
       </c>
       <c r="C53" s="4">
-        <v>149.99</v>
+        <v>1899</v>
       </c>
       <c r="D53" s="4">
-        <v>100</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>205</v>
+        <v>1500</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G53" t="s">
         <v>239</v>
@@ -3317,22 +3341,19 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>194</v>
       </c>
       <c r="C54" s="4">
-        <v>2100</v>
+        <v>166.88</v>
       </c>
       <c r="D54" s="4">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="G54" t="s">
         <v>239</v>
@@ -3340,22 +3361,19 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>194</v>
       </c>
       <c r="C55" s="4">
-        <v>325.32</v>
+        <v>149.99</v>
       </c>
       <c r="D55" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="G55" t="s">
         <v>239</v>
@@ -3363,22 +3381,22 @@
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
         <v>194</v>
       </c>
       <c r="C56" s="4">
-        <v>589.4</v>
+        <v>2100</v>
       </c>
       <c r="D56" s="4">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
         <v>239</v>
@@ -3386,19 +3404,22 @@
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>194</v>
       </c>
       <c r="C57" s="4">
-        <v>289</v>
+        <v>325.32</v>
+      </c>
+      <c r="D57" s="4">
+        <v>250</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G57" t="s">
         <v>239</v>
@@ -3406,22 +3427,22 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
         <v>194</v>
       </c>
       <c r="C58" s="4">
-        <v>411.67</v>
+        <v>589.4</v>
       </c>
       <c r="D58" s="4">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G58" t="s">
         <v>239</v>
@@ -3429,16 +3450,19 @@
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>369</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>194</v>
       </c>
       <c r="C59" s="4">
-        <v>322.36</v>
+        <v>289</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="G59" t="s">
         <v>239</v>
@@ -3446,22 +3470,22 @@
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>194</v>
       </c>
       <c r="C60" s="4">
-        <v>689.2</v>
+        <v>411.67</v>
       </c>
       <c r="D60" s="4">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
       </c>
       <c r="G60" t="s">
         <v>239</v>
@@ -3469,19 +3493,16 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>498</v>
+        <v>369</v>
       </c>
       <c r="B61" t="s">
         <v>194</v>
       </c>
       <c r="C61" s="4">
-        <v>240</v>
+        <v>322.36</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
         <v>239</v>
@@ -3489,19 +3510,22 @@
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
         <v>194</v>
       </c>
       <c r="C62" s="4">
-        <v>270</v>
+        <v>689.2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>500</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
         <v>239</v>
@@ -3509,16 +3533,19 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>498</v>
       </c>
       <c r="B63" t="s">
         <v>194</v>
       </c>
       <c r="C63" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G63" t="s">
         <v>239</v>
@@ -3526,39 +3553,36 @@
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G64" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="4">
-        <v>399</v>
-      </c>
-      <c r="D65" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="G65" t="s">
         <v>239</v>
@@ -3566,42 +3590,39 @@
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
         <v>194</v>
       </c>
       <c r="C66" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D66" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="19" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>194</v>
       </c>
       <c r="C67" s="4">
+        <v>399</v>
+      </c>
+      <c r="D67" s="4">
         <v>200</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
         <v>239</v>
@@ -3609,19 +3630,22 @@
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="4">
-        <v>230</v>
+        <v>238.9</v>
+      </c>
+      <c r="D68" s="4">
+        <v>100</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>239</v>
@@ -3629,22 +3653,19 @@
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="B69" t="s">
         <v>194</v>
       </c>
       <c r="C69" s="4">
-        <v>98.26</v>
-      </c>
-      <c r="D69" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G69" t="s">
         <v>239</v>
@@ -3652,22 +3673,19 @@
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
         <v>194</v>
       </c>
       <c r="C70" s="4">
-        <v>899</v>
-      </c>
-      <c r="D70" s="4">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G70" t="s">
         <v>239</v>
@@ -3675,22 +3693,22 @@
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="4">
-        <v>142</v>
+        <v>98.26</v>
       </c>
       <c r="D71" s="4">
         <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G71" t="s">
         <v>239</v>
@@ -3698,59 +3716,65 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>496</v>
-      </c>
-      <c r="B72" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
         <v>194</v>
       </c>
       <c r="C72" s="4">
-        <v>250</v>
+        <v>899</v>
+      </c>
+      <c r="D72" s="4">
+        <v>400</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>489</v>
+        <v>230</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G72" s="20">
-        <v>5</v>
+        <v>142</v>
+      </c>
+      <c r="G72" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>495</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>194</v>
       </c>
       <c r="C73" s="4">
-        <v>200</v>
+        <v>142</v>
+      </c>
+      <c r="D73" s="4">
+        <v>50</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>492</v>
+        <v>232</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G73" s="20">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="G73" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>491</v>
-      </c>
-      <c r="B74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B74" s="19" t="s">
         <v>194</v>
       </c>
       <c r="C74" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G74" s="20">
         <v>5</v>
@@ -3758,22 +3782,19 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>194</v>
       </c>
       <c r="C75" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G75" s="20">
         <v>5</v>
@@ -3781,19 +3802,19 @@
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="B76" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
       <c r="C76" s="4">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G76" s="20">
         <v>5</v>
@@ -3801,19 +3822,22 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="C77" s="4">
-        <v>220</v>
+        <v>2600</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1800</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G77" s="20">
         <v>5</v>
@@ -3821,19 +3845,19 @@
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B78" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C78" s="4">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G78" s="20">
         <v>5</v>
@@ -3841,19 +3865,19 @@
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>438</v>
       </c>
       <c r="C79" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="G79" s="20">
         <v>5</v>
@@ -3861,22 +3885,19 @@
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="C80" s="4">
-        <v>352</v>
-      </c>
-      <c r="D80" s="4">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G80" s="20">
         <v>5</v>
@@ -3884,22 +3905,19 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="4">
-        <v>389</v>
-      </c>
-      <c r="D81" s="4">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="G81" s="20">
         <v>5</v>
@@ -3907,22 +3925,22 @@
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="B82" t="s">
         <v>194</v>
       </c>
       <c r="C82" s="4">
-        <v>999</v>
+        <v>352</v>
       </c>
       <c r="D82" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G82" s="20">
         <v>5</v>
@@ -3930,22 +3948,22 @@
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B83" t="s">
         <v>194</v>
       </c>
       <c r="C83" s="4">
-        <v>1552</v>
+        <v>389</v>
       </c>
       <c r="D83" s="4">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G83" s="20">
         <v>5</v>
@@ -3953,22 +3971,22 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s">
         <v>194</v>
       </c>
       <c r="C84" s="4">
-        <v>292</v>
+        <v>999</v>
       </c>
       <c r="D84" s="4">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G84" s="20">
         <v>5</v>
@@ -3976,22 +3994,22 @@
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B85" t="s">
         <v>194</v>
       </c>
       <c r="C85" s="4">
-        <v>1500</v>
+        <v>1552</v>
       </c>
       <c r="D85" s="4">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="G85" s="20">
         <v>5</v>
@@ -3999,43 +4017,45 @@
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B86" t="s">
-        <v>458</v>
+        <v>194</v>
       </c>
       <c r="C86" s="4">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="D86" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>452</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="G86" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B87" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
       <c r="C87" s="4">
-        <v>144</v>
+        <v>1500</v>
       </c>
       <c r="D87" s="4">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G87" s="20">
         <v>5</v>
@@ -4043,68 +4063,66 @@
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C88" s="4">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="D88" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>465</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="F88" s="5"/>
       <c r="G88" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B89" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C89" s="4">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c r="D89" s="4">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G89" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B90" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C90" s="4">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="D90" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G90" s="20">
         <v>5</v>
@@ -4112,42 +4130,45 @@
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C91" s="4">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D91" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G91" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="C92" s="4">
-        <v>250</v>
+        <v>270</v>
+      </c>
+      <c r="D92" s="4">
+        <v>150</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G92" s="20">
         <v>5</v>
@@ -4155,22 +4176,22 @@
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="C93" s="4">
-        <v>11200</v>
+        <v>250</v>
       </c>
       <c r="D93" s="4">
-        <v>6500</v>
+        <v>150</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="G93" s="20">
         <v>5</v>
@@ -4178,22 +4199,19 @@
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="C94" s="4">
-        <v>9700</v>
-      </c>
-      <c r="D94" s="4">
-        <v>5500</v>
+        <v>250</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="G94" s="20">
         <v>5</v>
@@ -4201,135 +4219,135 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>421</v>
       </c>
       <c r="C95" s="4">
-        <v>385</v>
+        <v>11200</v>
       </c>
       <c r="D95" s="4">
-        <v>250</v>
+        <v>6500</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>504</v>
+        <v>422</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G95" s="14">
-        <v>4</v>
+        <v>419</v>
+      </c>
+      <c r="G95" s="20">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="C96" s="4">
-        <v>670</v>
+        <v>9700</v>
       </c>
       <c r="D96" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G96" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>500</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G96" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="B97" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="13">
-        <v>375</v>
-      </c>
-      <c r="D97" s="13">
-        <v>260</v>
+      <c r="C97" s="4">
+        <v>385</v>
+      </c>
+      <c r="D97" s="4">
+        <v>250</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>312</v>
+        <v>503</v>
       </c>
       <c r="G97" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>359</v>
+      <c r="A98" t="s">
+        <v>499</v>
       </c>
       <c r="B98" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="13">
-        <v>200</v>
-      </c>
-      <c r="D98" s="13"/>
+      <c r="C98" s="4">
+        <v>670</v>
+      </c>
+      <c r="D98" s="4">
+        <v>500</v>
+      </c>
       <c r="E98" s="6" t="s">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>128</v>
+        <v>501</v>
       </c>
       <c r="G98" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
         <v>194</v>
       </c>
       <c r="C99" s="13">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="D99" s="13">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G99" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s">
         <v>194</v>
       </c>
       <c r="C100" s="13">
-        <v>279</v>
-      </c>
-      <c r="D100" s="13">
-        <v>150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="6" t="s">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="G100" s="14">
         <v>4</v>
@@ -4337,22 +4355,22 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B101" t="s">
         <v>194</v>
       </c>
       <c r="C101" s="13">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="D101" s="13">
         <v>150</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G101" s="14">
         <v>4</v>
@@ -4360,85 +4378,87 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B102" t="s">
         <v>194</v>
       </c>
       <c r="C102" s="13">
-        <v>300</v>
-      </c>
-      <c r="D102" s="13"/>
+        <v>279</v>
+      </c>
+      <c r="D102" s="13">
+        <v>150</v>
+      </c>
       <c r="E102" s="6" t="s">
-        <v>357</v>
+        <v>159</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="G102" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
-        <v>345</v>
+      <c r="A103" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="B103" t="s">
         <v>194</v>
       </c>
       <c r="C103" s="13">
-        <v>250</v>
-      </c>
-      <c r="D103" s="13"/>
+        <v>249</v>
+      </c>
+      <c r="D103" s="13">
+        <v>150</v>
+      </c>
       <c r="E103" s="6" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G103" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
-        <v>346</v>
+      <c r="A104" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="B104" t="s">
         <v>194</v>
       </c>
       <c r="C104" s="13">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="6" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G104" s="21">
+        <v>356</v>
+      </c>
+      <c r="G104" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B105" t="s">
         <v>194</v>
       </c>
       <c r="C105" s="13">
-        <v>400</v>
-      </c>
-      <c r="D105" s="13">
         <v>250</v>
       </c>
+      <c r="D105" s="13"/>
       <c r="E105" s="6" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="G105" s="14">
         <v>4</v>
@@ -4446,41 +4466,43 @@
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s">
         <v>194</v>
       </c>
       <c r="C106" s="13">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="6" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G106" s="14">
+        <v>348</v>
+      </c>
+      <c r="G106" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
         <v>194</v>
       </c>
       <c r="C107" s="13">
+        <v>400</v>
+      </c>
+      <c r="D107" s="13">
         <v>250</v>
       </c>
-      <c r="D107" s="13"/>
       <c r="E107" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G107" s="14">
         <v>4</v>
@@ -4488,22 +4510,20 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s">
         <v>194</v>
       </c>
       <c r="C108" s="13">
-        <v>270</v>
-      </c>
-      <c r="D108" s="13">
-        <v>200</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D108" s="13"/>
       <c r="E108" s="6" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="G108" s="14">
         <v>4</v>
@@ -4511,22 +4531,20 @@
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s">
         <v>194</v>
       </c>
       <c r="C109" s="13">
-        <v>455</v>
-      </c>
-      <c r="D109" s="13">
-        <v>290</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D109" s="13"/>
       <c r="E109" s="6" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="G109" s="14">
         <v>4</v>
@@ -4534,72 +4552,74 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
         <v>194</v>
       </c>
       <c r="C110" s="13">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="D110" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F110" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="G110" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B111" t="s">
         <v>194</v>
       </c>
       <c r="C111" s="13">
-        <v>150</v>
+        <v>455</v>
       </c>
       <c r="D111" s="13">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F111" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="G111" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B112" t="s">
         <v>194</v>
       </c>
       <c r="C112" s="13">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="D112" s="13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>332</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F112" s="1"/>
       <c r="G112" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
         <v>194</v>
@@ -4611,7 +4631,7 @@
         <v>100</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="14">
@@ -4620,89 +4640,87 @@
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B114" t="s">
         <v>194</v>
       </c>
       <c r="C114" s="13">
+        <v>375</v>
+      </c>
+      <c r="D114" s="13">
         <v>250</v>
       </c>
-      <c r="D114" s="13">
-        <v>200</v>
-      </c>
       <c r="E114" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F114" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="G114" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>314</v>
+      <c r="A115" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="B115" t="s">
         <v>194</v>
       </c>
       <c r="C115" s="13">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="D115" s="13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F115" s="1"/>
       <c r="G115" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>60</v>
+      <c r="A116" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="B116" t="s">
         <v>194</v>
       </c>
-      <c r="C116" s="4">
-        <v>322</v>
-      </c>
-      <c r="D116" s="4">
-        <v>270</v>
+      <c r="C116" s="13">
+        <v>250</v>
+      </c>
+      <c r="D116" s="13">
+        <v>200</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="16">
+        <v>334</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>66</v>
+      <c r="A117" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="B117" t="s">
         <v>194</v>
       </c>
-      <c r="C117" s="4">
-        <v>310</v>
-      </c>
-      <c r="D117" s="4">
-        <v>150</v>
+      <c r="C117" s="13">
+        <v>260</v>
+      </c>
+      <c r="D117" s="13">
+        <v>250</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="G117" s="14">
         <v>4</v>
@@ -4710,148 +4728,154 @@
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B118" t="s">
         <v>194</v>
       </c>
       <c r="C118" s="4">
-        <v>103.9</v>
+        <v>322</v>
       </c>
       <c r="D118" s="4">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" s="14">
+        <v>131</v>
+      </c>
+      <c r="G118" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
         <v>194</v>
       </c>
       <c r="C119" s="4">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="D119" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G119">
-        <v>3</v>
+        <v>226</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="D120" s="4">
+        <v>85</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="4">
+        <v>160</v>
+      </c>
+      <c r="D121" s="4">
+        <v>100</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>36</v>
       </c>
-      <c r="B120" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="4">
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="4">
         <v>160</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D122" s="4">
         <v>100</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E122" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G120">
+      <c r="G122">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B121" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" s="3">
+      <c r="B123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="3">
         <v>459.07</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D123" s="3">
         <v>425</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E123" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G121" s="22">
+      <c r="G123" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B124" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C124" s="3">
         <v>419.19</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D124" s="3">
         <v>235</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G122" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" t="s">
-        <v>364</v>
-      </c>
-      <c r="C123" s="4">
-        <v>470</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" t="s">
-        <v>364</v>
-      </c>
-      <c r="C124" s="4">
-        <v>170</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
@@ -4859,19 +4883,19 @@
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
         <v>364</v>
       </c>
       <c r="C125" s="4">
-        <v>185</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>150</v>
+        <v>470</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G125" s="8">
         <v>2</v>
@@ -4879,22 +4903,19 @@
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C126" s="4">
-        <v>298</v>
-      </c>
-      <c r="D126" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G126" s="8">
         <v>2</v>
@@ -4902,65 +4923,65 @@
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
       <c r="C127" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D127" s="4">
+        <v>185</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>361</v>
+      <c r="A128" t="s">
+        <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C128" s="4">
-        <v>439</v>
+        <v>298</v>
       </c>
       <c r="D128" s="4">
-        <v>200</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G128" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>24</v>
+      <c r="A129" t="s">
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>194</v>
       </c>
       <c r="C129" s="4">
-        <v>183.99</v>
+        <v>194.36</v>
+      </c>
+      <c r="D129" s="4">
+        <v>150</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G129" s="8">
         <v>2</v>
@@ -4968,65 +4989,65 @@
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="C130" s="4">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="D130" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="G130" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>301</v>
+      <c r="A131" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B131" t="s">
         <v>194</v>
       </c>
       <c r="C131" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D131" s="4">
-        <v>170</v>
+        <v>183.99</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G131" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>25</v>
+      <c r="A132" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B132" t="s">
         <v>194</v>
       </c>
       <c r="C132" s="4">
-        <v>150</v>
+        <v>230</v>
+      </c>
+      <c r="D132" s="4">
+        <v>210</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="G132" s="8">
         <v>2</v>
@@ -5034,19 +5055,22 @@
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s">
         <v>194</v>
       </c>
       <c r="C133" s="4">
-        <v>125</v>
+        <v>189.99</v>
+      </c>
+      <c r="D133" s="4">
+        <v>170</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G133" s="8">
         <v>2</v>
@@ -5054,19 +5078,19 @@
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="C134" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="G134" s="8">
         <v>2</v>
@@ -5074,19 +5098,19 @@
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B135" t="s">
         <v>194</v>
       </c>
       <c r="C135" s="4">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G135" s="8">
         <v>2</v>
@@ -5094,131 +5118,128 @@
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="C136" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G136" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>305</v>
+      <c r="A137" t="s">
+        <v>27</v>
       </c>
       <c r="B137" t="s">
         <v>194</v>
       </c>
       <c r="C137" s="4">
-        <v>130</v>
-      </c>
-      <c r="D137" s="4">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G137" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>296</v>
+      <c r="A138" t="s">
+        <v>28</v>
       </c>
       <c r="B138" t="s">
         <v>194</v>
       </c>
       <c r="C138" s="4">
-        <v>389</v>
-      </c>
-      <c r="D138" s="4">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G138" s="7">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="G138" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>291</v>
+      <c r="A139" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B139" t="s">
         <v>194</v>
       </c>
       <c r="C139" s="4">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D139" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G139" s="7">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="G139" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B140" t="s">
         <v>194</v>
       </c>
       <c r="C140" s="4">
-        <v>135</v>
+        <v>389</v>
       </c>
       <c r="D140" s="4">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>285</v>
+      <c r="A141" t="s">
+        <v>291</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
       </c>
       <c r="C141" s="4">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="D141" s="4">
+        <v>100</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
@@ -5226,7 +5247,7 @@
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>365</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
         <v>194</v>
@@ -5238,53 +5259,53 @@
         <v>100</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>279</v>
+      <c r="A143" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="C143" s="4">
-        <v>135</v>
-      </c>
-      <c r="D143" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>278</v>
+      <c r="A144" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="C144" s="4">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D144" s="4">
-        <v>50</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>145</v>
+        <v>100</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
@@ -5292,19 +5313,22 @@
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="C145" s="4">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="D145" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
@@ -5312,19 +5336,19 @@
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="C146" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D146" s="4">
-        <v>80</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>274</v>
+        <v>50</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
@@ -5332,160 +5356,154 @@
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B147" t="s">
         <v>194</v>
       </c>
       <c r="C147" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D147" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>267</v>
+      <c r="A148" t="s">
+        <v>273</v>
       </c>
       <c r="B148" t="s">
         <v>194</v>
       </c>
       <c r="C148" s="4">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="D148" s="4">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G148" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>264</v>
+      <c r="A149" t="s">
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C149" s="4">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="D149" s="4">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>260</v>
+      <c r="A150" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B150" t="s">
         <v>194</v>
       </c>
       <c r="C150" s="4">
-        <v>300</v>
+        <v>569</v>
       </c>
       <c r="D150" s="4">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>257</v>
+      <c r="A151" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C151" s="4">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="D151" s="4">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>254</v>
+      <c r="A152" t="s">
+        <v>260</v>
       </c>
       <c r="B152" t="s">
         <v>194</v>
       </c>
       <c r="C152" s="4">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="D152" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>370</v>
+      <c r="A153" t="s">
+        <v>257</v>
       </c>
       <c r="B153" t="s">
         <v>194</v>
       </c>
       <c r="C153" s="4">
-        <v>719</v>
+        <v>498</v>
       </c>
       <c r="D153" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
@@ -5493,22 +5511,22 @@
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
         <v>194</v>
       </c>
       <c r="C154" s="4">
-        <v>348</v>
+        <v>179</v>
       </c>
       <c r="D154" s="4">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -5516,45 +5534,45 @@
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s">
         <v>194</v>
       </c>
       <c r="C155" s="4">
-        <v>347</v>
+        <v>719</v>
       </c>
       <c r="D155" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>243</v>
+      <c r="A156" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B156" t="s">
         <v>194</v>
       </c>
       <c r="C156" s="4">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D156" s="4">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G156" s="7">
         <v>1</v>
@@ -5562,19 +5580,22 @@
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
         <v>194</v>
       </c>
       <c r="C157" s="4">
-        <v>500</v>
+        <v>347</v>
+      </c>
+      <c r="D157" s="4">
+        <v>220</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G157" s="7">
         <v>1</v>
@@ -5582,635 +5603,682 @@
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>424</v>
+        <v>243</v>
       </c>
       <c r="B158" t="s">
-        <v>425</v>
+        <v>194</v>
       </c>
       <c r="C158" s="4">
-        <v>4500</v>
+        <v>353</v>
       </c>
       <c r="D158" s="4">
-        <v>3550</v>
+        <v>290</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>422</v>
+        <v>244</v>
+      </c>
+      <c r="G158" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>416</v>
+      <c r="A159" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B159" t="s">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="C159" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D159" s="4">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>419</v>
+        <v>242</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>418</v>
+        <v>241</v>
+      </c>
+      <c r="G159" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>425</v>
       </c>
       <c r="C160" s="4">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="D160" s="4">
-        <v>750</v>
+        <v>3550</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="B161" t="s">
-        <v>194</v>
+        <v>417</v>
       </c>
       <c r="C161" s="4">
-        <v>300</v>
+        <v>5500</v>
+      </c>
+      <c r="D161" s="4">
+        <v>4700</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B162" t="s">
         <v>194</v>
       </c>
       <c r="C162" s="4">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="D162" s="4">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B163" t="s">
         <v>194</v>
       </c>
       <c r="C163" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B164" t="s">
         <v>194</v>
       </c>
       <c r="C164" s="4">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="D164" s="4">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B165" t="s">
         <v>194</v>
       </c>
       <c r="C165" s="4">
-        <v>550</v>
-      </c>
-      <c r="D165" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>407</v>
+        <v>405</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
       </c>
       <c r="C166" s="4">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="D166" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B167" t="s">
         <v>194</v>
       </c>
       <c r="C167" s="4">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="D167" s="4">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>390</v>
-      </c>
-      <c r="B168" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="C168" s="4">
-        <v>660</v>
+        <v>398</v>
       </c>
       <c r="D168" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B169" t="s">
         <v>194</v>
       </c>
       <c r="C169" s="4">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="D169" s="4">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
-        <v>399</v>
+        <v>194</v>
       </c>
       <c r="C170" s="4">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="D170" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B171" t="s">
         <v>194</v>
       </c>
       <c r="C171" s="4">
-        <v>1775</v>
+        <v>690</v>
       </c>
       <c r="D171" s="4">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>396</v>
+      </c>
+      <c r="B172" t="s">
+        <v>399</v>
+      </c>
+      <c r="C172" s="4">
+        <v>637</v>
+      </c>
+      <c r="D172" s="4">
+        <v>300</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" t="s">
+        <v>194</v>
+      </c>
+      <c r="C173" s="4">
+        <v>1775</v>
+      </c>
+      <c r="D173" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>411</v>
       </c>
-      <c r="B172" t="s">
-        <v>194</v>
-      </c>
-      <c r="C172" s="4">
+      <c r="B174" t="s">
+        <v>194</v>
+      </c>
+      <c r="C174" s="4">
         <v>499</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D174" s="4">
         <v>350</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E174" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>426</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C175" s="4">
         <v>2300</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D175" s="4">
         <v>1800</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E175" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="9"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F118" r:id="rId1"/>
-    <hyperlink ref="F28" r:id="rId2"/>
-    <hyperlink ref="F70" r:id="rId3"/>
-    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F69" r:id="rId4"/>
-    <hyperlink ref="F117" r:id="rId5"/>
-    <hyperlink ref="F26" r:id="rId6"/>
-    <hyperlink ref="F68" r:id="rId7"/>
-    <hyperlink ref="F67" r:id="rId8"/>
-    <hyperlink ref="F66" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F20" r:id="rId11"/>
-    <hyperlink ref="F23" r:id="rId12"/>
-    <hyperlink ref="F22" r:id="rId13"/>
-    <hyperlink ref="F116" r:id="rId14"/>
-    <hyperlink ref="F65" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F62" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F61" r:id="rId17"/>
-    <hyperlink ref="F60" r:id="rId18"/>
-    <hyperlink ref="F57" r:id="rId19"/>
-    <hyperlink ref="F56" r:id="rId20"/>
-    <hyperlink ref="F55" r:id="rId21"/>
-    <hyperlink ref="F54" r:id="rId22"/>
-    <hyperlink ref="F51" r:id="rId23"/>
-    <hyperlink ref="F49" r:id="rId24"/>
-    <hyperlink ref="F48" r:id="rId25"/>
-    <hyperlink ref="F47" r:id="rId26"/>
-    <hyperlink ref="F46" r:id="rId27"/>
-    <hyperlink ref="F45" r:id="rId28"/>
-    <hyperlink ref="F44" r:id="rId29"/>
-    <hyperlink ref="F43" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F42" r:id="rId30"/>
-    <hyperlink ref="F41" r:id="rId31"/>
-    <hyperlink ref="F40" r:id="rId32"/>
-    <hyperlink ref="F39" r:id="rId33"/>
-    <hyperlink ref="F37" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F36" r:id="rId34"/>
-    <hyperlink ref="F136" r:id="rId35"/>
-    <hyperlink ref="F135" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F134" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F129" r:id="rId36"/>
-    <hyperlink ref="F131" r:id="rId37"/>
-    <hyperlink ref="F133" r:id="rId38"/>
-    <hyperlink ref="F128" r:id="rId39"/>
-    <hyperlink ref="F18" r:id="rId40"/>
-    <hyperlink ref="F35" r:id="rId41"/>
-    <hyperlink ref="F34" r:id="rId42"/>
-    <hyperlink ref="F17" r:id="rId43"/>
-    <hyperlink ref="F15" r:id="rId44"/>
-    <hyperlink ref="F14" r:id="rId45"/>
-    <hyperlink ref="F30" r:id="rId46"/>
-    <hyperlink ref="F13" r:id="rId47"/>
-    <hyperlink ref="F12" r:id="rId48"/>
-    <hyperlink ref="F11" r:id="rId49"/>
-    <hyperlink ref="F8" r:id="rId50"/>
-    <hyperlink ref="F10" r:id="rId51"/>
-    <hyperlink ref="F7" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F6" r:id="rId52"/>
-    <hyperlink ref="F5" r:id="rId53"/>
-    <hyperlink ref="F32" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F33" r:id="rId54"/>
-    <hyperlink ref="F3" r:id="rId55"/>
-    <hyperlink ref="F4" r:id="rId56"/>
-    <hyperlink ref="F29" r:id="rId57"/>
-    <hyperlink ref="F126" r:id="rId58"/>
-    <hyperlink ref="F125" r:id="rId59"/>
-    <hyperlink ref="F127" r:id="rId60"/>
-    <hyperlink ref="F124" r:id="rId61"/>
-    <hyperlink ref="F123" r:id="rId62"/>
-    <hyperlink ref="F122" r:id="rId63"/>
-    <hyperlink ref="F121" r:id="rId64"/>
-    <hyperlink ref="E121" r:id="rId65"/>
-    <hyperlink ref="E125" r:id="rId66"/>
-    <hyperlink ref="E127" r:id="rId67"/>
-    <hyperlink ref="E29" r:id="rId68"/>
-    <hyperlink ref="E3" r:id="rId69"/>
-    <hyperlink ref="E4" r:id="rId70"/>
-    <hyperlink ref="E32" r:id="rId71"/>
-    <hyperlink ref="E33" r:id="rId72"/>
-    <hyperlink ref="E5" r:id="rId73"/>
-    <hyperlink ref="E6" r:id="rId74"/>
-    <hyperlink ref="E8" r:id="rId75"/>
-    <hyperlink ref="E7" r:id="rId76"/>
-    <hyperlink ref="E9" r:id="rId77"/>
-    <hyperlink ref="E10" r:id="rId78"/>
-    <hyperlink ref="E11" r:id="rId79"/>
-    <hyperlink ref="E12" r:id="rId80"/>
-    <hyperlink ref="E13" r:id="rId81"/>
-    <hyperlink ref="E30" r:id="rId82"/>
-    <hyperlink ref="E14" r:id="rId83"/>
-    <hyperlink ref="E15" r:id="rId84"/>
-    <hyperlink ref="E17" r:id="rId85"/>
-    <hyperlink ref="E34" r:id="rId86"/>
-    <hyperlink ref="E35" r:id="rId87"/>
-    <hyperlink ref="E18" r:id="rId88"/>
-    <hyperlink ref="E128" r:id="rId89"/>
-    <hyperlink ref="E129" r:id="rId90"/>
-    <hyperlink ref="E131" r:id="rId91"/>
-    <hyperlink ref="E132" r:id="rId92"/>
-    <hyperlink ref="E133" r:id="rId93"/>
-    <hyperlink ref="E134" r:id="rId94"/>
-    <hyperlink ref="E135" r:id="rId95"/>
-    <hyperlink ref="E136" r:id="rId96"/>
-    <hyperlink ref="E36" r:id="rId97"/>
-    <hyperlink ref="E37" r:id="rId98"/>
-    <hyperlink ref="E38" r:id="rId99"/>
-    <hyperlink ref="F38" r:id="rId100"/>
-    <hyperlink ref="E39" r:id="rId101"/>
-    <hyperlink ref="E40" r:id="rId102"/>
-    <hyperlink ref="E41" r:id="rId103"/>
-    <hyperlink ref="E119" r:id="rId104"/>
-    <hyperlink ref="E120" r:id="rId105"/>
-    <hyperlink ref="E42" r:id="rId106"/>
-    <hyperlink ref="E43" r:id="rId107"/>
-    <hyperlink ref="E44" r:id="rId108"/>
-    <hyperlink ref="E45" r:id="rId109"/>
-    <hyperlink ref="E46" r:id="rId110"/>
-    <hyperlink ref="E47" r:id="rId111"/>
-    <hyperlink ref="E48" r:id="rId112"/>
-    <hyperlink ref="E49" r:id="rId113"/>
-    <hyperlink ref="E50" r:id="rId114"/>
-    <hyperlink ref="E54" r:id="rId115"/>
-    <hyperlink ref="E53" r:id="rId116"/>
-    <hyperlink ref="E52" r:id="rId117"/>
-    <hyperlink ref="E55" r:id="rId118"/>
-    <hyperlink ref="E56" r:id="rId119"/>
-    <hyperlink ref="E57" r:id="rId120"/>
-    <hyperlink ref="E58" r:id="rId121"/>
-    <hyperlink ref="E59" r:id="rId122"/>
-    <hyperlink ref="E60" r:id="rId123"/>
-    <hyperlink ref="E61" r:id="rId124"/>
-    <hyperlink ref="E62" r:id="rId125"/>
-    <hyperlink ref="E19" r:id="rId126"/>
-    <hyperlink ref="E65" r:id="rId127"/>
-    <hyperlink ref="E20" r:id="rId128"/>
-    <hyperlink ref="E21" r:id="rId129"/>
-    <hyperlink ref="E116" r:id="rId130"/>
-    <hyperlink ref="E22" r:id="rId131"/>
-    <hyperlink ref="E23" r:id="rId132"/>
-    <hyperlink ref="E66" r:id="rId133"/>
-    <hyperlink ref="E51" r:id="rId134"/>
-    <hyperlink ref="E67" r:id="rId135"/>
-    <hyperlink ref="E68" r:id="rId136"/>
-    <hyperlink ref="E26" r:id="rId137"/>
-    <hyperlink ref="E117" r:id="rId138"/>
-    <hyperlink ref="E69" r:id="rId139"/>
-    <hyperlink ref="E27" r:id="rId140"/>
-    <hyperlink ref="E28" r:id="rId141"/>
-    <hyperlink ref="E70" r:id="rId142"/>
-    <hyperlink ref="E118" r:id="rId143"/>
-    <hyperlink ref="E71" r:id="rId144"/>
-    <hyperlink ref="E24" r:id="rId145"/>
-    <hyperlink ref="E25" r:id="rId146"/>
-    <hyperlink ref="E63" r:id="rId147"/>
-    <hyperlink ref="E64" r:id="rId148"/>
-    <hyperlink ref="F157" r:id="rId149"/>
-    <hyperlink ref="E157" r:id="rId150"/>
-    <hyperlink ref="F156" r:id="rId151"/>
-    <hyperlink ref="E156" r:id="rId152"/>
-    <hyperlink ref="F155" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="F154" r:id="rId155"/>
-    <hyperlink ref="E154" r:id="rId156"/>
-    <hyperlink ref="F153" r:id="rId157"/>
-    <hyperlink ref="E153" r:id="rId158"/>
-    <hyperlink ref="F152" r:id="rId159"/>
-    <hyperlink ref="E152" r:id="rId160"/>
-    <hyperlink ref="F151" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E151" r:id="rId161"/>
-    <hyperlink ref="F150" r:id="rId162"/>
-    <hyperlink ref="E150" r:id="rId163"/>
-    <hyperlink ref="E149" r:id="rId164"/>
-    <hyperlink ref="F149" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F148" r:id="rId166"/>
-    <hyperlink ref="E148" r:id="rId167"/>
-    <hyperlink ref="F147" r:id="rId168"/>
-    <hyperlink ref="E147" r:id="rId169"/>
-    <hyperlink ref="E146" r:id="rId170"/>
-    <hyperlink ref="E145" r:id="rId171"/>
-    <hyperlink ref="E143" r:id="rId172"/>
-    <hyperlink ref="F143" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F142" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E142" r:id="rId174"/>
-    <hyperlink ref="F141" r:id="rId175"/>
-    <hyperlink ref="E141" r:id="rId176"/>
-    <hyperlink ref="F140" r:id="rId177"/>
-    <hyperlink ref="E140" r:id="rId178"/>
-    <hyperlink ref="E139" r:id="rId179"/>
-    <hyperlink ref="F139" r:id="rId180"/>
-    <hyperlink ref="E138" r:id="rId181"/>
-    <hyperlink ref="F138" r:id="rId182"/>
-    <hyperlink ref="E130" r:id="rId183"/>
-    <hyperlink ref="F130" r:id="rId184"/>
-    <hyperlink ref="F137" r:id="rId185"/>
-    <hyperlink ref="E137" r:id="rId186"/>
-    <hyperlink ref="E173" r:id="rId187"/>
-    <hyperlink ref="F97" r:id="rId188"/>
-    <hyperlink ref="E97" r:id="rId189"/>
-    <hyperlink ref="F115" r:id="rId190"/>
-    <hyperlink ref="E115" r:id="rId191"/>
-    <hyperlink ref="F105" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E105" r:id="rId193"/>
-    <hyperlink ref="F108" r:id="rId194"/>
-    <hyperlink ref="E108" r:id="rId195"/>
-    <hyperlink ref="F109" r:id="rId196"/>
-    <hyperlink ref="E109" r:id="rId197"/>
-    <hyperlink ref="E110" r:id="rId198"/>
-    <hyperlink ref="E111" r:id="rId199"/>
-    <hyperlink ref="E112" r:id="rId200"/>
-    <hyperlink ref="F112" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E114" r:id="rId202"/>
-    <hyperlink ref="E113" r:id="rId203"/>
-    <hyperlink ref="E106" r:id="rId204"/>
-    <hyperlink ref="F106" r:id="rId205"/>
-    <hyperlink ref="E107" r:id="rId206"/>
-    <hyperlink ref="F107" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F103" r:id="rId208"/>
-    <hyperlink ref="E103" r:id="rId209"/>
-    <hyperlink ref="E104" r:id="rId210"/>
-    <hyperlink ref="F104" r:id="rId211"/>
-    <hyperlink ref="F99" r:id="rId212"/>
-    <hyperlink ref="E99" r:id="rId213"/>
-    <hyperlink ref="E100" r:id="rId214"/>
-    <hyperlink ref="F100" r:id="rId215"/>
-    <hyperlink ref="F101" r:id="rId216"/>
-    <hyperlink ref="E101" r:id="rId217"/>
-    <hyperlink ref="F102" r:id="rId218"/>
-    <hyperlink ref="E102" r:id="rId219"/>
-    <hyperlink ref="F98" r:id="rId220"/>
-    <hyperlink ref="E98" r:id="rId221"/>
-    <hyperlink ref="E124" r:id="rId222"/>
-    <hyperlink ref="F160" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E160" r:id="rId224"/>
-    <hyperlink ref="F161" r:id="rId225"/>
-    <hyperlink ref="E161" r:id="rId226"/>
-    <hyperlink ref="F162" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E162" r:id="rId228"/>
-    <hyperlink ref="F163" r:id="rId229"/>
-    <hyperlink ref="E163" r:id="rId230"/>
-    <hyperlink ref="F165" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E165" r:id="rId232"/>
-    <hyperlink ref="F167" r:id="rId233"/>
-    <hyperlink ref="E167" r:id="rId234"/>
-    <hyperlink ref="F168" r:id="rId235"/>
-    <hyperlink ref="E168" r:id="rId236"/>
-    <hyperlink ref="F169" r:id="rId237"/>
-    <hyperlink ref="E169" r:id="rId238"/>
-    <hyperlink ref="F170" r:id="rId239"/>
-    <hyperlink ref="E170" r:id="rId240"/>
-    <hyperlink ref="F171" r:id="rId241"/>
-    <hyperlink ref="E171" r:id="rId242"/>
-    <hyperlink ref="F172" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E172" r:id="rId243"/>
-    <hyperlink ref="F164" r:id="rId244"/>
-    <hyperlink ref="F166" r:id="rId245"/>
-    <hyperlink ref="E166" r:id="rId246"/>
-    <hyperlink ref="E164" r:id="rId247"/>
-    <hyperlink ref="F94" r:id="rId248"/>
-    <hyperlink ref="E94" r:id="rId249"/>
-    <hyperlink ref="F159" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E159" r:id="rId251"/>
-    <hyperlink ref="F93" r:id="rId252"/>
-    <hyperlink ref="E93" r:id="rId253"/>
-    <hyperlink ref="F158" r:id="rId254"/>
-    <hyperlink ref="E158" r:id="rId255"/>
-    <hyperlink ref="F76" r:id="rId256"/>
-    <hyperlink ref="E76" r:id="rId257"/>
-    <hyperlink ref="E77" r:id="rId258"/>
-    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F78" r:id="rId260"/>
-    <hyperlink ref="E78" r:id="rId261"/>
-    <hyperlink ref="E80" r:id="rId262"/>
-    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E81" r:id="rId264"/>
-    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E82" r:id="rId265"/>
-    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F83" r:id="rId267"/>
-    <hyperlink ref="E83" r:id="rId268"/>
-    <hyperlink ref="F84" r:id="rId269"/>
-    <hyperlink ref="E84" r:id="rId270"/>
-    <hyperlink ref="E85" r:id="rId271"/>
-    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E86" r:id="rId273"/>
-    <hyperlink ref="E87" r:id="rId274"/>
-    <hyperlink ref="F87" r:id="rId275"/>
-    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E88" r:id="rId276"/>
-    <hyperlink ref="E89" r:id="rId277"/>
-    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E90" r:id="rId280"/>
-    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E91" r:id="rId282"/>
-    <hyperlink ref="F92" r:id="rId283"/>
-    <hyperlink ref="E92" r:id="rId284"/>
-    <hyperlink ref="F75" r:id="rId285"/>
-    <hyperlink ref="E75" r:id="rId286"/>
-    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E79" r:id="rId287"/>
-    <hyperlink ref="F72" r:id="rId288"/>
-    <hyperlink ref="E72" r:id="rId289"/>
-    <hyperlink ref="F73" r:id="rId290"/>
-    <hyperlink ref="E73" r:id="rId291"/>
-    <hyperlink ref="F74" r:id="rId292"/>
-    <hyperlink ref="E74" r:id="rId293"/>
-    <hyperlink ref="F96" r:id="rId294"/>
-    <hyperlink ref="E96" r:id="rId295"/>
-    <hyperlink ref="F95" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E95" r:id="rId297"/>
+    <hyperlink ref="F73" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F120" r:id="rId1"/>
+    <hyperlink ref="F30" r:id="rId2"/>
+    <hyperlink ref="F72" r:id="rId3"/>
+    <hyperlink ref="F29" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F71" r:id="rId4"/>
+    <hyperlink ref="F119" r:id="rId5"/>
+    <hyperlink ref="F28" r:id="rId6"/>
+    <hyperlink ref="F70" r:id="rId7"/>
+    <hyperlink ref="F69" r:id="rId8"/>
+    <hyperlink ref="F68" r:id="rId9"/>
+    <hyperlink ref="F23" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="F25" r:id="rId12"/>
+    <hyperlink ref="F24" r:id="rId13"/>
+    <hyperlink ref="F118" r:id="rId14"/>
+    <hyperlink ref="F67" r:id="rId15"/>
+    <hyperlink ref="F21" r:id="rId16"/>
+    <hyperlink ref="F64" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F63" r:id="rId17"/>
+    <hyperlink ref="F62" r:id="rId18"/>
+    <hyperlink ref="F59" r:id="rId19"/>
+    <hyperlink ref="F58" r:id="rId20"/>
+    <hyperlink ref="F57" r:id="rId21"/>
+    <hyperlink ref="F56" r:id="rId22"/>
+    <hyperlink ref="F53" r:id="rId23"/>
+    <hyperlink ref="F51" r:id="rId24"/>
+    <hyperlink ref="F50" r:id="rId25"/>
+    <hyperlink ref="F49" r:id="rId26"/>
+    <hyperlink ref="F48" r:id="rId27"/>
+    <hyperlink ref="F47" r:id="rId28"/>
+    <hyperlink ref="F46" r:id="rId29"/>
+    <hyperlink ref="F45" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F44" r:id="rId30"/>
+    <hyperlink ref="F43" r:id="rId31"/>
+    <hyperlink ref="F42" r:id="rId32"/>
+    <hyperlink ref="F41" r:id="rId33"/>
+    <hyperlink ref="F39" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F38" r:id="rId34"/>
+    <hyperlink ref="F138" r:id="rId35"/>
+    <hyperlink ref="F137" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F136" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F131" r:id="rId36"/>
+    <hyperlink ref="F133" r:id="rId37"/>
+    <hyperlink ref="F135" r:id="rId38"/>
+    <hyperlink ref="F130" r:id="rId39"/>
+    <hyperlink ref="F20" r:id="rId40"/>
+    <hyperlink ref="F37" r:id="rId41"/>
+    <hyperlink ref="F36" r:id="rId42"/>
+    <hyperlink ref="F19" r:id="rId43"/>
+    <hyperlink ref="F17" r:id="rId44"/>
+    <hyperlink ref="F16" r:id="rId45"/>
+    <hyperlink ref="F32" r:id="rId46"/>
+    <hyperlink ref="F15" r:id="rId47"/>
+    <hyperlink ref="F14" r:id="rId48"/>
+    <hyperlink ref="F13" r:id="rId49"/>
+    <hyperlink ref="F10" r:id="rId50"/>
+    <hyperlink ref="F12" r:id="rId51"/>
+    <hyperlink ref="F9" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F8" r:id="rId52"/>
+    <hyperlink ref="F7" r:id="rId53"/>
+    <hyperlink ref="F34" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F35" r:id="rId54"/>
+    <hyperlink ref="F5" r:id="rId55"/>
+    <hyperlink ref="F6" r:id="rId56"/>
+    <hyperlink ref="F31" r:id="rId57"/>
+    <hyperlink ref="F128" r:id="rId58"/>
+    <hyperlink ref="F127" r:id="rId59"/>
+    <hyperlink ref="F129" r:id="rId60"/>
+    <hyperlink ref="F126" r:id="rId61"/>
+    <hyperlink ref="F125" r:id="rId62"/>
+    <hyperlink ref="F124" r:id="rId63"/>
+    <hyperlink ref="F123" r:id="rId64"/>
+    <hyperlink ref="E123" r:id="rId65"/>
+    <hyperlink ref="E127" r:id="rId66"/>
+    <hyperlink ref="E129" r:id="rId67"/>
+    <hyperlink ref="E31" r:id="rId68"/>
+    <hyperlink ref="E5" r:id="rId69"/>
+    <hyperlink ref="E6" r:id="rId70"/>
+    <hyperlink ref="E34" r:id="rId71"/>
+    <hyperlink ref="E35" r:id="rId72"/>
+    <hyperlink ref="E7" r:id="rId73"/>
+    <hyperlink ref="E8" r:id="rId74"/>
+    <hyperlink ref="E10" r:id="rId75"/>
+    <hyperlink ref="E9" r:id="rId76"/>
+    <hyperlink ref="E11" r:id="rId77"/>
+    <hyperlink ref="E12" r:id="rId78"/>
+    <hyperlink ref="E13" r:id="rId79"/>
+    <hyperlink ref="E14" r:id="rId80"/>
+    <hyperlink ref="E15" r:id="rId81"/>
+    <hyperlink ref="E32" r:id="rId82"/>
+    <hyperlink ref="E16" r:id="rId83"/>
+    <hyperlink ref="E17" r:id="rId84"/>
+    <hyperlink ref="E19" r:id="rId85"/>
+    <hyperlink ref="E36" r:id="rId86"/>
+    <hyperlink ref="E37" r:id="rId87"/>
+    <hyperlink ref="E20" r:id="rId88"/>
+    <hyperlink ref="E130" r:id="rId89"/>
+    <hyperlink ref="E131" r:id="rId90"/>
+    <hyperlink ref="E133" r:id="rId91"/>
+    <hyperlink ref="E134" r:id="rId92"/>
+    <hyperlink ref="E135" r:id="rId93"/>
+    <hyperlink ref="E136" r:id="rId94"/>
+    <hyperlink ref="E137" r:id="rId95"/>
+    <hyperlink ref="E138" r:id="rId96"/>
+    <hyperlink ref="E38" r:id="rId97"/>
+    <hyperlink ref="E39" r:id="rId98"/>
+    <hyperlink ref="E40" r:id="rId99"/>
+    <hyperlink ref="F40" r:id="rId100"/>
+    <hyperlink ref="E41" r:id="rId101"/>
+    <hyperlink ref="E42" r:id="rId102"/>
+    <hyperlink ref="E43" r:id="rId103"/>
+    <hyperlink ref="E121" r:id="rId104"/>
+    <hyperlink ref="E122" r:id="rId105"/>
+    <hyperlink ref="E44" r:id="rId106"/>
+    <hyperlink ref="E45" r:id="rId107"/>
+    <hyperlink ref="E46" r:id="rId108"/>
+    <hyperlink ref="E47" r:id="rId109"/>
+    <hyperlink ref="E48" r:id="rId110"/>
+    <hyperlink ref="E49" r:id="rId111"/>
+    <hyperlink ref="E50" r:id="rId112"/>
+    <hyperlink ref="E51" r:id="rId113"/>
+    <hyperlink ref="E52" r:id="rId114"/>
+    <hyperlink ref="E56" r:id="rId115"/>
+    <hyperlink ref="E55" r:id="rId116"/>
+    <hyperlink ref="E54" r:id="rId117"/>
+    <hyperlink ref="E57" r:id="rId118"/>
+    <hyperlink ref="E58" r:id="rId119"/>
+    <hyperlink ref="E59" r:id="rId120"/>
+    <hyperlink ref="E60" r:id="rId121"/>
+    <hyperlink ref="E61" r:id="rId122"/>
+    <hyperlink ref="E62" r:id="rId123"/>
+    <hyperlink ref="E63" r:id="rId124"/>
+    <hyperlink ref="E64" r:id="rId125"/>
+    <hyperlink ref="E21" r:id="rId126"/>
+    <hyperlink ref="E67" r:id="rId127"/>
+    <hyperlink ref="E22" r:id="rId128"/>
+    <hyperlink ref="E23" r:id="rId129"/>
+    <hyperlink ref="E118" r:id="rId130"/>
+    <hyperlink ref="E24" r:id="rId131"/>
+    <hyperlink ref="E25" r:id="rId132"/>
+    <hyperlink ref="E68" r:id="rId133"/>
+    <hyperlink ref="E53" r:id="rId134"/>
+    <hyperlink ref="E69" r:id="rId135"/>
+    <hyperlink ref="E70" r:id="rId136"/>
+    <hyperlink ref="E28" r:id="rId137"/>
+    <hyperlink ref="E119" r:id="rId138"/>
+    <hyperlink ref="E71" r:id="rId139"/>
+    <hyperlink ref="E29" r:id="rId140"/>
+    <hyperlink ref="E30" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="E120" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="E26" r:id="rId145"/>
+    <hyperlink ref="E27" r:id="rId146"/>
+    <hyperlink ref="E65" r:id="rId147"/>
+    <hyperlink ref="E66" r:id="rId148"/>
+    <hyperlink ref="F159" r:id="rId149"/>
+    <hyperlink ref="E159" r:id="rId150"/>
+    <hyperlink ref="F158" r:id="rId151"/>
+    <hyperlink ref="E158" r:id="rId152"/>
+    <hyperlink ref="F157" r:id="rId153"/>
+    <hyperlink ref="E157" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="E156" r:id="rId156"/>
+    <hyperlink ref="F155" r:id="rId157"/>
+    <hyperlink ref="E155" r:id="rId158"/>
+    <hyperlink ref="F154" r:id="rId159"/>
+    <hyperlink ref="E154" r:id="rId160"/>
+    <hyperlink ref="F153" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E153" r:id="rId161"/>
+    <hyperlink ref="F152" r:id="rId162"/>
+    <hyperlink ref="E152" r:id="rId163"/>
+    <hyperlink ref="E151" r:id="rId164"/>
+    <hyperlink ref="F151" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F150" r:id="rId166"/>
+    <hyperlink ref="E150" r:id="rId167"/>
+    <hyperlink ref="F149" r:id="rId168"/>
+    <hyperlink ref="E149" r:id="rId169"/>
+    <hyperlink ref="E148" r:id="rId170"/>
+    <hyperlink ref="E147" r:id="rId171"/>
+    <hyperlink ref="E145" r:id="rId172"/>
+    <hyperlink ref="F145" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F144" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E144" r:id="rId174"/>
+    <hyperlink ref="F143" r:id="rId175"/>
+    <hyperlink ref="E143" r:id="rId176"/>
+    <hyperlink ref="F142" r:id="rId177"/>
+    <hyperlink ref="E142" r:id="rId178"/>
+    <hyperlink ref="E141" r:id="rId179"/>
+    <hyperlink ref="F141" r:id="rId180"/>
+    <hyperlink ref="E140" r:id="rId181"/>
+    <hyperlink ref="F140" r:id="rId182"/>
+    <hyperlink ref="E132" r:id="rId183"/>
+    <hyperlink ref="F132" r:id="rId184"/>
+    <hyperlink ref="F139" r:id="rId185"/>
+    <hyperlink ref="E139" r:id="rId186"/>
+    <hyperlink ref="E175" r:id="rId187"/>
+    <hyperlink ref="F99" r:id="rId188"/>
+    <hyperlink ref="E99" r:id="rId189"/>
+    <hyperlink ref="F117" r:id="rId190"/>
+    <hyperlink ref="E117" r:id="rId191"/>
+    <hyperlink ref="F107" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E107" r:id="rId193"/>
+    <hyperlink ref="F110" r:id="rId194"/>
+    <hyperlink ref="E110" r:id="rId195"/>
+    <hyperlink ref="F111" r:id="rId196"/>
+    <hyperlink ref="E111" r:id="rId197"/>
+    <hyperlink ref="E112" r:id="rId198"/>
+    <hyperlink ref="E113" r:id="rId199"/>
+    <hyperlink ref="E114" r:id="rId200"/>
+    <hyperlink ref="F114" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E116" r:id="rId202"/>
+    <hyperlink ref="E115" r:id="rId203"/>
+    <hyperlink ref="E108" r:id="rId204"/>
+    <hyperlink ref="F108" r:id="rId205"/>
+    <hyperlink ref="E109" r:id="rId206"/>
+    <hyperlink ref="F109" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F105" r:id="rId208"/>
+    <hyperlink ref="E105" r:id="rId209"/>
+    <hyperlink ref="E106" r:id="rId210"/>
+    <hyperlink ref="F106" r:id="rId211"/>
+    <hyperlink ref="F101" r:id="rId212"/>
+    <hyperlink ref="E101" r:id="rId213"/>
+    <hyperlink ref="E102" r:id="rId214"/>
+    <hyperlink ref="F102" r:id="rId215"/>
+    <hyperlink ref="F103" r:id="rId216"/>
+    <hyperlink ref="E103" r:id="rId217"/>
+    <hyperlink ref="F104" r:id="rId218"/>
+    <hyperlink ref="E104" r:id="rId219"/>
+    <hyperlink ref="F100" r:id="rId220"/>
+    <hyperlink ref="E100" r:id="rId221"/>
+    <hyperlink ref="E126" r:id="rId222"/>
+    <hyperlink ref="F162" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E162" r:id="rId224"/>
+    <hyperlink ref="F163" r:id="rId225"/>
+    <hyperlink ref="E163" r:id="rId226"/>
+    <hyperlink ref="F164" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E164" r:id="rId228"/>
+    <hyperlink ref="F165" r:id="rId229"/>
+    <hyperlink ref="E165" r:id="rId230"/>
+    <hyperlink ref="F167" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E167" r:id="rId232"/>
+    <hyperlink ref="F169" r:id="rId233"/>
+    <hyperlink ref="E169" r:id="rId234"/>
+    <hyperlink ref="F170" r:id="rId235"/>
+    <hyperlink ref="E170" r:id="rId236"/>
+    <hyperlink ref="F171" r:id="rId237"/>
+    <hyperlink ref="E171" r:id="rId238"/>
+    <hyperlink ref="F172" r:id="rId239"/>
+    <hyperlink ref="E172" r:id="rId240"/>
+    <hyperlink ref="F173" r:id="rId241"/>
+    <hyperlink ref="E173" r:id="rId242"/>
+    <hyperlink ref="F174" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E174" r:id="rId243"/>
+    <hyperlink ref="F166" r:id="rId244"/>
+    <hyperlink ref="F168" r:id="rId245"/>
+    <hyperlink ref="E168" r:id="rId246"/>
+    <hyperlink ref="E166" r:id="rId247"/>
+    <hyperlink ref="F96" r:id="rId248"/>
+    <hyperlink ref="E96" r:id="rId249"/>
+    <hyperlink ref="F161" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E161" r:id="rId251"/>
+    <hyperlink ref="F95" r:id="rId252"/>
+    <hyperlink ref="E95" r:id="rId253"/>
+    <hyperlink ref="F160" r:id="rId254"/>
+    <hyperlink ref="E160" r:id="rId255"/>
+    <hyperlink ref="F78" r:id="rId256"/>
+    <hyperlink ref="E78" r:id="rId257"/>
+    <hyperlink ref="E79" r:id="rId258"/>
+    <hyperlink ref="F79" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F80" r:id="rId260"/>
+    <hyperlink ref="E80" r:id="rId261"/>
+    <hyperlink ref="E82" r:id="rId262"/>
+    <hyperlink ref="F82" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E83" r:id="rId264"/>
+    <hyperlink ref="F83" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E84" r:id="rId265"/>
+    <hyperlink ref="F84" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F85" r:id="rId267"/>
+    <hyperlink ref="E85" r:id="rId268"/>
+    <hyperlink ref="F86" r:id="rId269"/>
+    <hyperlink ref="E86" r:id="rId270"/>
+    <hyperlink ref="E87" r:id="rId271"/>
+    <hyperlink ref="F87" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E88" r:id="rId273"/>
+    <hyperlink ref="E89" r:id="rId274"/>
+    <hyperlink ref="F89" r:id="rId275"/>
+    <hyperlink ref="F90" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E90" r:id="rId276"/>
+    <hyperlink ref="E91" r:id="rId277"/>
+    <hyperlink ref="F91" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F92" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E92" r:id="rId280"/>
+    <hyperlink ref="F93" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E93" r:id="rId282"/>
+    <hyperlink ref="F94" r:id="rId283"/>
+    <hyperlink ref="E94" r:id="rId284"/>
+    <hyperlink ref="F77" r:id="rId285"/>
+    <hyperlink ref="E77" r:id="rId286"/>
+    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E81" r:id="rId287"/>
+    <hyperlink ref="F74" r:id="rId288"/>
+    <hyperlink ref="E74" r:id="rId289"/>
+    <hyperlink ref="F75" r:id="rId290"/>
+    <hyperlink ref="E75" r:id="rId291"/>
+    <hyperlink ref="F76" r:id="rId292"/>
+    <hyperlink ref="E76" r:id="rId293"/>
+    <hyperlink ref="F98" r:id="rId294"/>
+    <hyperlink ref="E98" r:id="rId295"/>
+    <hyperlink ref="F97" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E97" r:id="rId297"/>
     <hyperlink ref="E2" r:id="rId298"/>
-    <hyperlink ref="E16" r:id="rId299"/>
+    <hyperlink ref="E18" r:id="rId299"/>
+    <hyperlink ref="F4" r:id="rId300"/>
+    <hyperlink ref="E4" r:id="rId301"/>
+    <hyperlink ref="F3" r:id="rId302"/>
+    <hyperlink ref="E3" r:id="rId303"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId300"/>
+  <pageSetup orientation="portrait" r:id="rId304"/>
   <tableParts count="1">
-    <tablePart r:id="rId301"/>
+    <tablePart r:id="rId305"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="533">
   <si>
     <t>Nombre</t>
   </si>
@@ -1623,6 +1623,9 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_833941-MLU78764933573_082024-O-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col.webp</t>
+  </si>
+  <si>
+    <t>Arma tu caja sorpresa</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2141,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2810,7 @@
         <v>194</v>
       </c>
       <c r="C30" s="4">
-        <v>95.52</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>229</v>
@@ -2870,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>532</v>
       </c>
       <c r="C33" s="4">
         <v>299</v>
@@ -3008,7 +3011,7 @@
         <v>393.2</v>
       </c>
       <c r="D39" s="4">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>185</v>
@@ -3281,7 +3284,10 @@
         <v>194</v>
       </c>
       <c r="C51" s="4">
-        <v>400</v>
+        <v>650</v>
+      </c>
+      <c r="D51" s="4">
+        <v>500</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>201</v>
@@ -3499,7 +3505,10 @@
         <v>194</v>
       </c>
       <c r="C61" s="4">
-        <v>322.36</v>
+        <v>350</v>
+      </c>
+      <c r="D61" s="4">
+        <v>320</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>211</v>
@@ -4049,7 +4058,7 @@
         <v>1500</v>
       </c>
       <c r="D87" s="4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>454</v>
@@ -4889,7 +4898,10 @@
         <v>364</v>
       </c>
       <c r="C125" s="4">
-        <v>470</v>
+        <v>570</v>
+      </c>
+      <c r="D125" s="4">
+        <v>450</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>155</v>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1616,9 +1616,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_840986-MLM72296741425_102023-O-audifonos-inalambricos-pro-3-compatible-con-android-xiaomi.webp</t>
   </si>
   <si>
-    <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-3665538778-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col-_JM?quantity=1&amp;variation_id=187746698935</t>
   </si>
   <si>
@@ -1626,6 +1623,9 @@
   </si>
   <si>
     <t>Arma tu caja sorpresa</t>
+  </si>
+  <si>
+    <t>Audifonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
@@ -2209,10 +2209,10 @@
         <v>300</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G3" s="25"/>
     </row>
@@ -2873,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="4">
         <v>299</v>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -1625,7 +1625,7 @@
     <t>Arma tu caja sorpresa</t>
   </si>
   <si>
-    <t>Audifonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
+    <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2141,7 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$193</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="596">
   <si>
     <t>Nombre</t>
   </si>
@@ -758,9 +758,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_936882-MLA82189424834_022025-F.webp</t>
   </si>
   <si>
-    <t>Mochila Para Laptop 15.6 Inch 35 L Hombres Mochilas Escolar Viaje Antirrobo Y Impermeable Color Negro</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-3576914298-mochila-para-laptop-156-inch-35-l-hombres-mochilas-escolar-viaje-antirrobo-y-impermeable-color-negro-iforu-_JM?quantity=1&amp;variation_id=187061621563</t>
   </si>
   <si>
@@ -1103,9 +1100,6 @@
     <t>https://m.media-amazon.com/images/I/71MTPBFGNGL._AC_SL1500_.jpg</t>
   </si>
   <si>
-    <t>Bloques apilables suaves para bebé Montessori juguetes sensoriales de baño para bebés Toddlee niños pequeños de 6 a 9 meses, 1 a 2 años</t>
-  </si>
-  <si>
     <t>Prismáticos Profesionales De Visión Nocturna Hd 60x60, Binoculares</t>
   </si>
   <si>
@@ -1626,6 +1620,201 @@
   </si>
   <si>
     <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
+  </si>
+  <si>
+    <t>Gato Hidráulico De Patín 2 Toneladas Pórtatil Para Vehículos</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/gato-hidraulico-de-patin-2-toneladas-portatil-para-vehiculos/p/MLM51489550?pdp_filters=item_id:MLM3772103020</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_933911-MLA86166365220_062025-F.webp</t>
+  </si>
+  <si>
+    <t>2 Toneladas</t>
+  </si>
+  <si>
+    <t>Funda Protector De Cargador De Cable De Datos Para Phone</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3737043064-funda-protector-de-cargador-de-cable-de-datos-para-phone-_JM?quantity=1&amp;variation_id=188318365415</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_871123-MLM86048409217_062025-F-funda-protector-de-cargador-de-cable-de-datos-para-phone.webp</t>
+  </si>
+  <si>
+    <t>Juego De Perfume De 3pcs Maiden Anna 110ml Para Mujer</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2239523415-juego-de-perfume-de-3pcs-maiden-anna-110ml-para-mujer-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_616892-CBT82223499128_022025-F-juego-de-perfume-de-3pcs-maiden-anna-110ml-para-mujer.webp</t>
+  </si>
+  <si>
+    <t>Corralito Para Bebe Corral De Gimnasio De Juegos Infantil</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1598309988-corralito-para-bebe-corral-de-gimnasio-de-juegos-infantil-_JM?quantity=1&amp;variation_id=187277116707</t>
+  </si>
+  <si>
+    <t>Dimensiones exteriores: 230*122*105cm</t>
+  </si>
+  <si>
+    <t>3 Perfumes</t>
+  </si>
+  <si>
+    <t>Solamente funda</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_730001-CBT86109270190_062025-F-corralito-para-bebe-corral-de-gimnasio-de-juegos-infantil.webp</t>
+  </si>
+  <si>
+    <t>260 Led Lámpara Solar Exterior Jardín De Pared Sensor Luz</t>
+  </si>
+  <si>
+    <t>228led 100w Solar Lámpara De Pared Interior Exterior Sensor</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1882590697-260-led-lampara-solar-exterior-jardin-de-pared-sensor-luz-_JM?quantity=1&amp;variation_id=177512978824</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_877721-MLM86759191610_072025-O-260-led-lampara-solar-exterior-jardin-de-pared-sensor-luz.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3349129744-228led-100w-solar-lampara-de-pared-interior-exterior-sensor-_JM?quantity=1&amp;variation_id=182314249972</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_614453-MLM81318105451_122024-N.jpg</t>
+  </si>
+  <si>
+    <t>High Temperature Vapor Cleaner, Easy Cleaner</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/high-temperature-vapor-cleaner-easy-cleaner/p/MLM50172896</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_668947-MLA84594363796_052025-F.webp</t>
+  </si>
+  <si>
+    <t>Juego De Utensilios Silicon Cocina Juego De Cuchillo 19 Set</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_646561-MLM83600668529_042025-N.jpg</t>
+  </si>
+  <si>
+    <t>19 Piezas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3581357596-juego-de-utensilios-silicon-cocina-juego-de-cuchillo-19-set-_JM?quantity=1&amp;variation_id=187096058305</t>
+  </si>
+  <si>
+    <t>3pcs Juego De Toallas Baño Completo Grande Lana Coral Suave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Piezas, 140*70cm </t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filters=item_id:MLM3664914628#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_821710-MLA84497296403_052025-F.webp</t>
+  </si>
+  <si>
+    <t>8 En 1 Regleta Multicontacto Pdu Para Rack 19'' 1875w 3m 15a</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3642930870-8-en-1-regleta-multicontacto-pdu-para-rack-19-1875w-3m-15a-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_940214-MLM84657802576_052025-F-8-en-1-regleta-multicontacto-pdu-para-rack-19-1875w-3m-15a.webp</t>
+  </si>
+  <si>
+    <t>Eléctrica Almohadilla Cojín Térmica Con 9ajustes Temperatura</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2074048651-electrica-almohadilla-cojin-termica-con-9ajustes-temperatura-_JM</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_873934-MLM78342624583_082024-F-electrica-almohadilla-cojin-termica-con-9ajustes-temperatura.webp</t>
+  </si>
+  <si>
+    <t>Tabla Lagartijas Portátil Inteligente Y Multifuncional Negro</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3457235570-tabla-lagartijas-portatil-inteligente-y-multifuncional-kits-_JM?quantity=1&amp;variation_id=182184128866</t>
+  </si>
+  <si>
+    <t>Proyector Mini Portátil Android Hy300 Led Wifi Profesional</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_827376-MLM85309339934_062025-F-tabla-lagartijas-portatil-inteligente-y-multifuncional-kits.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3585176758-proyector-4k-mini-portatil-android-tv-hy300-wifi-profesional-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_639244-MLM85756967164_062025-O-proyector-4k-mini-portatil-android-tv-hy300-wifi-profesional.webp</t>
+  </si>
+  <si>
+    <t>Proyector De Estrella Galaxia Astronauta Lampara De Noche</t>
+  </si>
+  <si>
+    <t>Zapatera Organizador Mueblick Closet Zapato 9 Pisos 27 Pares</t>
+  </si>
+  <si>
+    <t>Micrófono Inalámbrico Lavalier Condensado P/ iPhone Android</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/proyector-de-estrella-galaxia-astronauta-lampara-de-noche/p/MLM37085198</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_951206-MLA82798448519_022025-O.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_627909-MLM81986168485_012025-F-zapatera-organizador-mueblick-closet-zapato-9-pisos-27-pares.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3507985018-zapatera-organizador-mueblick-closet-zapato-9-pisos-27-pares-_JM?quantity=1&amp;variation_id=182584454634#&amp;gid=1&amp;pid=4</t>
+  </si>
+  <si>
+    <t>Alto 158 cm x Ancho 57 cm x Largo 28 cm.</t>
+  </si>
+  <si>
+    <t>Bloques apilables suaves para bebé Montessori juguetes sensoriales de baño para bebés</t>
+  </si>
+  <si>
+    <t>Mochila Para Laptop 15.6 Inch 35 L Hombres Mochilas Escolar Viaje Antirrobo Y Impermeable</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2218266927-microfono-inalambrico-lavalier-condensado-p-iphone-android-_JM?quantity=1&amp;variation_id=186674891761</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_841664-MLM83612331651_042025-F-microfono-inalambrico-lavalier-condensado-p-iphone-android.webp</t>
+  </si>
+  <si>
+    <t>Chaqueta Biker Slim Para Hombre Para Rompevientos Moda</t>
+  </si>
+  <si>
+    <t>Talla: 2XL</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3420799008-chaqueta-biker-slim-para-hombre-para-rompevientos-moda-_JM?quantity=1&amp;variation_id=185593709221</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_757019-CBT79847738372_102024-O-chaqueta-biker-slim-para-hombre-para-rompevientos-moda.webp</t>
+  </si>
+  <si>
+    <t>Kit De Cámaras De Seguridad 2k 5mp Con 2 Cámaras</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2261924519-kit-de-camaras-de-seguridad-2k-5mp-con-4-camaras-disco-500gb-_JM?quantity=1&amp;variation_id=183158092680</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_901486-MLM83829552001_042025-F-kit-de-camaras-de-seguridad-2k-5mp-con-4-camaras-disco-500gb.webp</t>
+  </si>
+  <si>
+    <t>No incluye disco duro</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1798,7 +1987,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1810,16 +1998,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1857,17 +2052,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G175" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G175"/>
-  <sortState ref="A2:G173">
-    <sortCondition descending="1" ref="G1:G173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G193" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G193"/>
+  <sortState ref="A2:G193">
+    <sortCondition descending="1" ref="G1:G193"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="0"/>
     <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Precio" dataDxfId="2"/>
-    <tableColumn id="4" name="PrecioRebaja" dataDxfId="1"/>
-    <tableColumn id="5" name="ImagenURL" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" name="Precio" dataDxfId="3"/>
+    <tableColumn id="4" name="PrecioRebaja" dataDxfId="2"/>
+    <tableColumn id="5" name="ImagenURL" dataDxfId="1" dataCellStyle="Hipervínculo"/>
     <tableColumn id="6" name="LinkCompra" dataCellStyle="Hipervínculo"/>
     <tableColumn id="7" name="Caja"/>
   </tableColumns>
@@ -2138,24 +2333,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.7109375" customWidth="1"/>
+    <col min="1" max="1" width="106.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2178,8 +2373,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>505</v>
+      <c r="A2" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -2191,3075 +2386,3079 @@
         <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="4">
+        <v>170.73</v>
+      </c>
+      <c r="D3" s="4">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="4">
+        <v>180</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="4">
+        <v>212</v>
+      </c>
+      <c r="D5" s="4">
+        <v>120</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="4">
+        <v>178.03</v>
+      </c>
+      <c r="D6" s="4">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="4">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4">
+        <v>150</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="4">
-        <v>300</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="4">
-        <v>252</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="4">
+        <v>193.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="4">
+        <v>106</v>
+      </c>
+      <c r="D9" s="4">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="4">
+        <v>220</v>
+      </c>
+      <c r="D10" s="4">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="4">
+        <v>248.02</v>
+      </c>
+      <c r="D11" s="4">
+        <v>150</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="4">
+        <v>120</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="4">
+        <v>269</v>
+      </c>
+      <c r="D13" s="4">
+        <v>120</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="4">
+        <v>270</v>
+      </c>
+      <c r="D14" s="4">
         <v>200</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="4">
-        <v>170.73</v>
-      </c>
-      <c r="D5" s="4">
-        <v>140</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="4">
-        <v>180</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="4">
+        <v>149</v>
+      </c>
+      <c r="D16" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="4">
-        <v>212</v>
-      </c>
-      <c r="D7" s="4">
-        <v>120</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="4">
-        <v>178.03</v>
-      </c>
-      <c r="D8" s="4">
-        <v>80</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E16" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="4">
-        <v>200</v>
-      </c>
-      <c r="D9" s="4">
-        <v>150</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="4">
-        <v>193.7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="4">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4">
-        <v>80</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C12" s="4">
-        <v>220</v>
-      </c>
-      <c r="D12" s="4">
-        <v>120</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B13" t="s">
-        <v>510</v>
-      </c>
-      <c r="C13" s="4">
-        <v>248.02</v>
-      </c>
-      <c r="D13" s="4">
-        <v>150</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>524</v>
-      </c>
-      <c r="C14" s="4">
-        <v>120</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>366</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="4">
-        <v>269</v>
-      </c>
-      <c r="D15" s="4">
-        <v>120</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="4">
-        <v>270</v>
-      </c>
-      <c r="D16" s="4">
-        <v>200</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>506</v>
+      <c r="F16" s="1"/>
+      <c r="G16" s="22" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>523</v>
+      <c r="A17" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="B17" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C17" s="4">
-        <v>119.4</v>
+        <v>149</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>171</v>
+        <v>519</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="4">
+        <v>99</v>
+      </c>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="4">
+        <v>374.7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>150</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="4">
+        <v>499</v>
+      </c>
+      <c r="D20" s="4">
+        <v>150</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>518</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="4">
+        <v>220</v>
+      </c>
+      <c r="D21" s="4">
+        <v>80</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="4">
+        <v>126.85</v>
+      </c>
+      <c r="D22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s">
         <v>510</v>
       </c>
-      <c r="C18" s="4">
-        <v>149</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C23" s="4">
+        <v>250</v>
+      </c>
+      <c r="D23" s="4">
+        <v>150</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="4">
+        <v>175</v>
+      </c>
+      <c r="D24" s="4">
+        <v>120</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="4">
+        <v>219.5</v>
+      </c>
+      <c r="D25" s="4">
         <v>100</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" t="s">
-        <v>510</v>
-      </c>
-      <c r="C19" s="4">
-        <v>149</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="E25" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="4">
+        <v>226.52</v>
+      </c>
+      <c r="D26" s="4">
+        <v>150</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="4">
+        <v>299.01</v>
+      </c>
+      <c r="D27" s="4">
+        <v>150</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="4">
         <v>100</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="4">
-        <v>99</v>
-      </c>
-      <c r="D20" s="4">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="4">
-        <v>374.7</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="E28" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="4">
+        <v>665</v>
+      </c>
+      <c r="D29" s="4">
+        <v>450</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="4">
+        <v>315</v>
+      </c>
+      <c r="D30" s="4">
+        <v>250</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C31" s="4">
+        <v>299</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="4">
+        <v>259</v>
+      </c>
+      <c r="D32" s="4">
         <v>150</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="4">
-        <v>499</v>
-      </c>
-      <c r="D22" s="4">
-        <v>150</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="4">
-        <v>220</v>
-      </c>
-      <c r="D23" s="4">
-        <v>80</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="4">
-        <v>126.85</v>
-      </c>
-      <c r="D24" s="4">
-        <v>100</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>368</v>
-      </c>
-      <c r="B25" t="s">
-        <v>512</v>
-      </c>
-      <c r="C25" s="4">
-        <v>250</v>
-      </c>
-      <c r="D25" s="4">
-        <v>150</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="4">
-        <v>175</v>
-      </c>
-      <c r="D26" s="4">
-        <v>120</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="4">
-        <v>219.5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>100</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="4">
-        <v>226.52</v>
-      </c>
-      <c r="D28" s="4">
-        <v>150</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="4">
-        <v>299.01</v>
-      </c>
-      <c r="D29" s="4">
-        <v>150</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="4">
-        <v>100</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="4">
-        <v>665</v>
-      </c>
-      <c r="D31" s="4">
-        <v>450</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>514</v>
-      </c>
-      <c r="B32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C32" s="4">
-        <v>315</v>
-      </c>
-      <c r="D32" s="4">
-        <v>250</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>169</v>
+      <c r="E32" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>515</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>12</v>
+      <c r="A33" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>531</v>
+        <v>194</v>
       </c>
       <c r="C33" s="4">
-        <v>299</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>145</v>
+        <v>279</v>
+      </c>
+      <c r="D33" s="4">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G33" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>194</v>
       </c>
       <c r="C34" s="4">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4">
         <v>150</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>159</v>
+      <c r="E34" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
+      <c r="A35" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="4">
-        <v>279</v>
+        <v>166.93</v>
       </c>
       <c r="D35" s="4">
-        <v>180</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>21</v>
+      <c r="A36" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>194</v>
       </c>
       <c r="C36" s="4">
-        <v>210</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D36" s="4">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
+      <c r="A37" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>194</v>
       </c>
       <c r="C37" s="4">
-        <v>166.93</v>
+        <v>393.2</v>
       </c>
       <c r="D37" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
+      <c r="A38" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="4">
-        <v>1072.6500000000001</v>
+        <v>342.66</v>
       </c>
       <c r="D38" s="4">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
+      <c r="A39" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="4">
-        <v>393.2</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D39" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G39" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>31</v>
+      <c r="A40" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B40" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="4">
-        <v>342.66</v>
+        <v>237.76</v>
       </c>
       <c r="D40" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
+      <c r="A41" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>194</v>
       </c>
       <c r="C41" s="4">
-        <v>323.66000000000003</v>
+        <v>359</v>
       </c>
       <c r="D41" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>310</v>
+      <c r="A42" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="4">
-        <v>237.76</v>
+        <v>210</v>
       </c>
       <c r="D42" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
+      <c r="A43" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>194</v>
       </c>
       <c r="C43" s="4">
-        <v>359</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G43" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
+      <c r="A44" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>194</v>
       </c>
       <c r="C44" s="4">
-        <v>210</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D44" s="4">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
+      <c r="A45" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="4">
-        <v>120</v>
+        <v>495.99</v>
       </c>
       <c r="D45" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>38</v>
+      <c r="A46" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>194</v>
       </c>
       <c r="C46" s="4">
-        <v>266.95999999999998</v>
+        <v>633.91</v>
       </c>
       <c r="D46" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>39</v>
+      <c r="A47" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>194</v>
       </c>
       <c r="C47" s="4">
-        <v>495.99</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D47" s="4">
-        <v>350</v>
+        <v>1025</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>40</v>
+      <c r="A48" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B48" t="s">
         <v>194</v>
       </c>
       <c r="C48" s="4">
-        <v>633.91</v>
+        <v>758.9</v>
       </c>
       <c r="D48" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G48" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>41</v>
+      <c r="A49" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="4">
-        <v>1064.8800000000001</v>
+        <v>650</v>
       </c>
       <c r="D49" s="4">
-        <v>1025</v>
+        <v>500</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>42</v>
+      <c r="A50" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B50" t="s">
         <v>194</v>
       </c>
       <c r="C50" s="4">
-        <v>758.9</v>
+        <v>268</v>
       </c>
       <c r="D50" s="4">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>116</v>
+        <v>202</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
       </c>
       <c r="G50" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
+      <c r="A51" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="4">
-        <v>650</v>
+        <v>1899</v>
       </c>
       <c r="D51" s="4">
-        <v>500</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>201</v>
+        <v>1500</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>44</v>
+      <c r="A52" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>194</v>
       </c>
       <c r="C52" s="4">
-        <v>268</v>
+        <v>166.88</v>
       </c>
       <c r="D52" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F52" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="G52" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>45</v>
+      <c r="A53" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B53" t="s">
         <v>194</v>
       </c>
       <c r="C53" s="4">
-        <v>1899</v>
+        <v>149.99</v>
       </c>
       <c r="D53" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="G53" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>46</v>
+      <c r="A54" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>194</v>
       </c>
       <c r="C54" s="4">
-        <v>166.88</v>
+        <v>2100</v>
       </c>
       <c r="D54" s="4">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G54" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>47</v>
+      <c r="A55" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>194</v>
       </c>
       <c r="C55" s="4">
-        <v>149.99</v>
+        <v>325.32</v>
       </c>
       <c r="D55" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="G55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>48</v>
+      <c r="A56" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>194</v>
       </c>
       <c r="C56" s="4">
-        <v>2100</v>
+        <v>589.4</v>
       </c>
       <c r="D56" s="4">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>49</v>
+      <c r="A57" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>194</v>
       </c>
       <c r="C57" s="4">
-        <v>325.32</v>
-      </c>
-      <c r="D57" s="4">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>50</v>
+      <c r="A58" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>194</v>
       </c>
       <c r="C58" s="4">
-        <v>589.4</v>
+        <v>411.67</v>
       </c>
       <c r="D58" s="4">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
       </c>
       <c r="G58" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>51</v>
+      <c r="A59" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="B59" t="s">
         <v>194</v>
       </c>
       <c r="C59" s="4">
-        <v>289</v>
+        <v>350</v>
+      </c>
+      <c r="D59" s="4">
+        <v>320</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>52</v>
+      <c r="A60" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B60" t="s">
         <v>194</v>
       </c>
       <c r="C60" s="4">
-        <v>411.67</v>
+        <v>689.2</v>
       </c>
       <c r="D60" s="4">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G60" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>369</v>
+      <c r="A61" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="B61" t="s">
         <v>194</v>
       </c>
       <c r="C61" s="4">
-        <v>350</v>
-      </c>
-      <c r="D61" s="4">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="G61" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>53</v>
+      <c r="A62" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>194</v>
       </c>
       <c r="C62" s="4">
-        <v>689.2</v>
-      </c>
-      <c r="D62" s="4">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G62" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>498</v>
+      <c r="A63" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>194</v>
       </c>
       <c r="C63" s="4">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="G63" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>54</v>
+      <c r="A64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B64" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="4">
-        <v>250</v>
+        <v>399</v>
+      </c>
+      <c r="D65" s="4">
+        <v>200</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="G65" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>194</v>
       </c>
       <c r="C66" s="4">
+        <v>238.9</v>
+      </c>
+      <c r="D66" s="4">
+        <v>100</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="4">
         <v>200</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="4">
-        <v>399</v>
-      </c>
-      <c r="D67" s="4">
-        <v>200</v>
-      </c>
       <c r="E67" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G67" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="19" t="s">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D68" s="4">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G68" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>367</v>
+      <c r="A69" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>194</v>
       </c>
       <c r="C69" s="4">
-        <v>200</v>
+        <v>98.26</v>
+      </c>
+      <c r="D69" s="4">
+        <v>50</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G69" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>64</v>
+      <c r="A70" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>194</v>
       </c>
       <c r="C70" s="4">
+        <v>899</v>
+      </c>
+      <c r="D70" s="4">
+        <v>400</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="F70" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G70" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>67</v>
+      <c r="A71" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>194</v>
       </c>
       <c r="C71" s="4">
-        <v>98.26</v>
+        <v>142</v>
       </c>
       <c r="D71" s="4">
         <v>50</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G71" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B72" s="18" t="s">
         <v>194</v>
       </c>
       <c r="C72" s="4">
-        <v>899</v>
-      </c>
-      <c r="D72" s="4">
+        <v>250</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="4">
+        <v>200</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="4">
+        <v>200</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G74" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" t="s">
+        <v>482</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2600</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G75" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B76" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="4">
+        <v>390</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G76" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B77" t="s">
+        <v>436</v>
+      </c>
+      <c r="C77" s="4">
+        <v>220</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G77" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B78" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="4">
+        <v>170</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G78" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="4">
+        <v>200</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G79" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="4">
+        <v>352</v>
+      </c>
+      <c r="D80" s="4">
+        <v>250</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G80" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="4">
+        <v>389</v>
+      </c>
+      <c r="D81" s="4">
+        <v>260</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G81" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="4">
+        <v>999</v>
+      </c>
+      <c r="D82" s="4">
+        <v>500</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G82" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1552</v>
+      </c>
+      <c r="D83" s="4">
+        <v>650</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G83" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="4">
+        <v>292</v>
+      </c>
+      <c r="D84" s="4">
+        <v>150</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G84" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D85" s="4">
+        <v>500</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G85" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B86" t="s">
+        <v>456</v>
+      </c>
+      <c r="C86" s="4">
+        <v>445</v>
+      </c>
+      <c r="D86" s="4">
+        <v>200</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" t="s">
+        <v>455</v>
+      </c>
+      <c r="C87" s="4">
+        <v>144</v>
+      </c>
+      <c r="D87" s="4">
+        <v>100</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G87" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B88" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88" s="4">
+        <v>350</v>
+      </c>
+      <c r="D88" s="4">
+        <v>180</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B89" t="s">
+        <v>466</v>
+      </c>
+      <c r="C89" s="4">
+        <v>325</v>
+      </c>
+      <c r="D89" s="4">
+        <v>180</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" t="s">
+        <v>475</v>
+      </c>
+      <c r="C90" s="4">
+        <v>270</v>
+      </c>
+      <c r="D90" s="4">
+        <v>150</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G90" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B91" t="s">
+        <v>475</v>
+      </c>
+      <c r="C91" s="4">
+        <v>250</v>
+      </c>
+      <c r="D91" s="4">
+        <v>150</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G91" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="4">
+        <v>250</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G92" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" t="s">
+        <v>419</v>
+      </c>
+      <c r="C93" s="4">
+        <v>11200</v>
+      </c>
+      <c r="D93" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G93" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B94" t="s">
+        <v>411</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9700</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G94" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="4">
+        <v>385</v>
+      </c>
+      <c r="D95" s="4">
+        <v>250</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G95" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="4">
+        <v>670</v>
+      </c>
+      <c r="D96" s="4">
+        <v>500</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G96" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="12">
+        <v>375</v>
+      </c>
+      <c r="D97" s="12">
+        <v>260</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G97" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="12">
+        <v>200</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="12">
+        <v>295</v>
+      </c>
+      <c r="D99" s="12">
+        <v>150</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G99" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="12">
+        <v>279</v>
+      </c>
+      <c r="D100" s="12">
+        <v>150</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G100" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="12">
+        <v>249</v>
+      </c>
+      <c r="D101" s="12">
+        <v>150</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G101" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="12">
+        <v>300</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G102" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="12">
+        <v>250</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G103" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="12">
+        <v>150</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G104" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="12">
         <v>400</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="4">
-        <v>142</v>
-      </c>
-      <c r="D73" s="4">
-        <v>50</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G73" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>496</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="D105" s="12">
         <v>250</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G74" s="20">
+      <c r="E105" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G105" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="12">
+        <v>250</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G106" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" s="12">
+        <v>250</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="12">
+        <v>270</v>
+      </c>
+      <c r="D108" s="12">
+        <v>200</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G108" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="12">
+        <v>455</v>
+      </c>
+      <c r="D109" s="12">
+        <v>290</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G109" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" s="12">
+        <v>150</v>
+      </c>
+      <c r="D110" s="12">
+        <v>100</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="12">
+        <v>150</v>
+      </c>
+      <c r="D111" s="12">
+        <v>100</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" s="12">
+        <v>375</v>
+      </c>
+      <c r="D112" s="12">
+        <v>250</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G112" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="12">
+        <v>150</v>
+      </c>
+      <c r="D113" s="12">
+        <v>100</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="12">
+        <v>250</v>
+      </c>
+      <c r="D114" s="12">
+        <v>200</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="12">
+        <v>260</v>
+      </c>
+      <c r="D115" s="12">
+        <v>250</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G115" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" s="4">
+        <v>322</v>
+      </c>
+      <c r="D116" s="4">
+        <v>270</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="4">
+        <v>310</v>
+      </c>
+      <c r="D117" s="4">
+        <v>150</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="D118" s="4">
+        <v>85</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G118" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="4">
+        <v>160</v>
+      </c>
+      <c r="D119" s="4">
+        <v>100</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="4">
+        <v>160</v>
+      </c>
+      <c r="D120" s="4">
+        <v>100</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>495</v>
-      </c>
-      <c r="B75" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="4">
-        <v>200</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G75" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>491</v>
-      </c>
-      <c r="B76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="4">
-        <v>200</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G76" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>481</v>
-      </c>
-      <c r="B77" t="s">
-        <v>484</v>
-      </c>
-      <c r="C77" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D77" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G77" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>427</v>
-      </c>
-      <c r="B78" t="s">
-        <v>430</v>
-      </c>
-      <c r="C78" s="4">
-        <v>390</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G78" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>431</v>
-      </c>
-      <c r="B79" t="s">
-        <v>438</v>
-      </c>
-      <c r="C79" s="4">
-        <v>220</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G79" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>434</v>
-      </c>
-      <c r="B80" t="s">
-        <v>437</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" s="3">
+        <v>459.07</v>
+      </c>
+      <c r="D121" s="3">
+        <v>425</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" s="3">
+        <v>419.19</v>
+      </c>
+      <c r="D122" s="3">
+        <v>235</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" s="4">
+        <v>570</v>
+      </c>
+      <c r="D123" s="4">
+        <v>450</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>362</v>
+      </c>
+      <c r="C124" s="4">
         <v>170</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G80" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>485</v>
-      </c>
-      <c r="B81" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="4">
-        <v>200</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G81" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>497</v>
-      </c>
-      <c r="B82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C82" s="4">
-        <v>352</v>
-      </c>
-      <c r="D82" s="4">
-        <v>250</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G82" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>441</v>
-      </c>
-      <c r="B83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="4">
-        <v>389</v>
-      </c>
-      <c r="D83" s="4">
-        <v>260</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G83" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>444</v>
-      </c>
-      <c r="B84" t="s">
-        <v>194</v>
-      </c>
-      <c r="C84" s="4">
-        <v>999</v>
-      </c>
-      <c r="D84" s="4">
-        <v>500</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G84" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>447</v>
-      </c>
-      <c r="B85" t="s">
-        <v>194</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1552</v>
-      </c>
-      <c r="D85" s="4">
-        <v>650</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G85" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>450</v>
-      </c>
-      <c r="B86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="4">
-        <v>292</v>
-      </c>
-      <c r="D86" s="4">
-        <v>150</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G86" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>453</v>
-      </c>
-      <c r="B87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D87" s="4">
-        <v>500</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G87" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>459</v>
-      </c>
-      <c r="B88" t="s">
-        <v>458</v>
-      </c>
-      <c r="C88" s="4">
-        <v>445</v>
-      </c>
-      <c r="D88" s="4">
-        <v>200</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>456</v>
-      </c>
-      <c r="B89" t="s">
-        <v>457</v>
-      </c>
-      <c r="C89" s="4">
-        <v>144</v>
-      </c>
-      <c r="D89" s="4">
-        <v>100</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G89" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>463</v>
-      </c>
-      <c r="B90" t="s">
-        <v>464</v>
-      </c>
-      <c r="C90" s="4">
-        <v>350</v>
-      </c>
-      <c r="D90" s="4">
-        <v>180</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G90" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" t="s">
-        <v>468</v>
-      </c>
-      <c r="C91" s="4">
-        <v>325</v>
-      </c>
-      <c r="D91" s="4">
-        <v>180</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G91" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>472</v>
-      </c>
-      <c r="B92" t="s">
-        <v>477</v>
-      </c>
-      <c r="C92" s="4">
-        <v>270</v>
-      </c>
-      <c r="D92" s="4">
-        <v>150</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G92" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>471</v>
-      </c>
-      <c r="B93" t="s">
-        <v>477</v>
-      </c>
-      <c r="C93" s="4">
-        <v>250</v>
-      </c>
-      <c r="D93" s="4">
-        <v>150</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G93" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>478</v>
-      </c>
-      <c r="B94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C94" s="4">
-        <v>250</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G94" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>420</v>
-      </c>
-      <c r="B95" t="s">
-        <v>421</v>
-      </c>
-      <c r="C95" s="4">
-        <v>11200</v>
-      </c>
-      <c r="D95" s="4">
-        <v>6500</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G95" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>412</v>
-      </c>
-      <c r="B96" t="s">
-        <v>413</v>
-      </c>
-      <c r="C96" s="4">
-        <v>9700</v>
-      </c>
-      <c r="D96" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G96" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>500</v>
-      </c>
-      <c r="B97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="4">
-        <v>385</v>
-      </c>
-      <c r="D97" s="4">
-        <v>250</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G97" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>499</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="4">
-        <v>670</v>
-      </c>
-      <c r="D98" s="4">
-        <v>500</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G98" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="13">
-        <v>375</v>
-      </c>
-      <c r="D99" s="13">
-        <v>260</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G99" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="13">
-        <v>200</v>
-      </c>
-      <c r="D100" s="13"/>
-      <c r="E100" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G100" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="13">
-        <v>295</v>
-      </c>
-      <c r="D101" s="13">
-        <v>150</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G101" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B102" t="s">
-        <v>194</v>
-      </c>
-      <c r="C102" s="13">
-        <v>279</v>
-      </c>
-      <c r="D102" s="13">
-        <v>150</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G102" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="B103" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103" s="13">
-        <v>249</v>
-      </c>
-      <c r="D103" s="13">
-        <v>150</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G103" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="B104" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="13">
-        <v>300</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G104" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="13">
-        <v>250</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G105" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="B106" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" s="13">
-        <v>150</v>
-      </c>
-      <c r="D106" s="13"/>
-      <c r="E106" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G106" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B107" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" s="13">
-        <v>400</v>
-      </c>
-      <c r="D107" s="13">
-        <v>250</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G107" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B108" t="s">
-        <v>194</v>
-      </c>
-      <c r="C108" s="13">
-        <v>250</v>
-      </c>
-      <c r="D108" s="13"/>
-      <c r="E108" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G108" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" s="13">
-        <v>250</v>
-      </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G109" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B110" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" s="13">
-        <v>270</v>
-      </c>
-      <c r="D110" s="13">
-        <v>200</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G110" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="B111" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="13">
-        <v>455</v>
-      </c>
-      <c r="D111" s="13">
-        <v>290</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G111" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C112" s="13">
-        <v>150</v>
-      </c>
-      <c r="D112" s="13">
-        <v>100</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B113" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="13">
-        <v>150</v>
-      </c>
-      <c r="D113" s="13">
-        <v>100</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="B114" t="s">
-        <v>194</v>
-      </c>
-      <c r="C114" s="13">
-        <v>375</v>
-      </c>
-      <c r="D114" s="13">
-        <v>250</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G114" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B115" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="13">
-        <v>150</v>
-      </c>
-      <c r="D115" s="13">
-        <v>100</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="B116" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="13">
-        <v>250</v>
-      </c>
-      <c r="D116" s="13">
-        <v>200</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B117" t="s">
-        <v>194</v>
-      </c>
-      <c r="C117" s="13">
-        <v>260</v>
-      </c>
-      <c r="D117" s="13">
-        <v>250</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G117" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>60</v>
-      </c>
-      <c r="B118" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="4">
-        <v>322</v>
-      </c>
-      <c r="D118" s="4">
-        <v>270</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G118" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>66</v>
-      </c>
-      <c r="B119" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" s="4">
-        <v>310</v>
-      </c>
-      <c r="D119" s="4">
-        <v>150</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="4">
-        <v>103.9</v>
-      </c>
-      <c r="D120" s="4">
-        <v>85</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G120" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" s="4">
-        <v>160</v>
-      </c>
-      <c r="D121" s="4">
-        <v>100</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>36</v>
-      </c>
-      <c r="B122" t="s">
-        <v>194</v>
-      </c>
-      <c r="C122" s="4">
-        <v>160</v>
-      </c>
-      <c r="D122" s="4">
-        <v>100</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" s="3">
-        <v>459.07</v>
-      </c>
-      <c r="D123" s="3">
-        <v>425</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G123" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C124" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D124" s="3">
-        <v>235</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>7</v>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C125" s="4">
-        <v>570</v>
-      </c>
-      <c r="D125" s="4">
-        <v>450</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G125" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>8</v>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C126" s="4">
-        <v>170</v>
+        <v>298</v>
+      </c>
+      <c r="D126" s="4">
+        <v>180</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="G126" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>297</v>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>364</v>
+        <v>194</v>
       </c>
       <c r="C127" s="4">
-        <v>185</v>
+        <v>194.36</v>
+      </c>
+      <c r="D127" s="4">
+        <v>150</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>298</v>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C128" s="4">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="D128" s="4">
-        <v>180</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G128" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>9</v>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B129" t="s">
         <v>194</v>
       </c>
       <c r="C129" s="4">
-        <v>194.36</v>
-      </c>
-      <c r="D129" s="4">
-        <v>150</v>
+        <v>183.99</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G129" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>194</v>
       </c>
       <c r="C130" s="4">
-        <v>439</v>
+        <v>230</v>
       </c>
       <c r="D130" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="G130" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="B131" t="s">
         <v>194</v>
       </c>
       <c r="C131" s="4">
-        <v>183.99</v>
+        <v>189.99</v>
+      </c>
+      <c r="D131" s="4">
+        <v>170</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G131" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
         <v>194</v>
       </c>
       <c r="C132" s="4">
-        <v>230</v>
-      </c>
-      <c r="D132" s="4">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>303</v>
+        <v>179</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="G132" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>301</v>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B133" t="s">
         <v>194</v>
       </c>
       <c r="C133" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D133" s="4">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G133" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>25</v>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C134" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="G134" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>26</v>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B135" t="s">
         <v>194</v>
       </c>
       <c r="C135" s="4">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G135" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>299</v>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="C136" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G136" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>27</v>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B137" t="s">
         <v>194</v>
       </c>
       <c r="C137" s="4">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="D137" s="4">
+        <v>90</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>103</v>
+        <v>305</v>
       </c>
       <c r="G137" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>28</v>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B138" t="s">
         <v>194</v>
       </c>
       <c r="C138" s="4">
-        <v>200</v>
+        <v>389</v>
+      </c>
+      <c r="D138" s="4">
+        <v>280</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G138" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="G138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B139" t="s">
         <v>194</v>
       </c>
       <c r="C139" s="4">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D139" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G139" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="G139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B140" t="s">
         <v>194</v>
       </c>
       <c r="C140" s="4">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="D140" s="4">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>291</v>
+      <c r="A141" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
       </c>
       <c r="C141" s="4">
-        <v>138</v>
-      </c>
-      <c r="D141" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G141" s="7">
+        <v>285</v>
+      </c>
+      <c r="G141" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="B142" t="s">
         <v>194</v>
@@ -5271,10 +5470,10 @@
         <v>100</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -5282,19 +5481,22 @@
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B143" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="C143" s="4">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="D143" s="4">
+        <v>100</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
@@ -5302,128 +5504,128 @@
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="C144" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D144" s="4">
-        <v>100</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>283</v>
+        <v>50</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>279</v>
+      <c r="A145" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="C145" s="4">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="D145" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>278</v>
+      <c r="A146" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="C146" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D146" s="4">
-        <v>50</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>145</v>
+        <v>80</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>276</v>
+      <c r="A147" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B147" t="s">
         <v>194</v>
       </c>
       <c r="C147" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D147" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>273</v>
+      <c r="A148" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B148" t="s">
         <v>194</v>
       </c>
       <c r="C148" s="4">
-        <v>150</v>
+        <v>569</v>
       </c>
       <c r="D148" s="4">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="G148" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>272</v>
+      <c r="A149" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="C149" s="4">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="D149" s="4">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
@@ -5431,22 +5633,22 @@
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
         <v>194</v>
       </c>
       <c r="C150" s="4">
-        <v>569</v>
+        <v>300</v>
       </c>
       <c r="D150" s="4">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
@@ -5454,68 +5656,68 @@
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C151" s="4">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="D151" s="4">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>260</v>
+      <c r="A152" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>194</v>
       </c>
       <c r="C152" s="4">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="D152" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>257</v>
+      <c r="A153" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B153" t="s">
         <v>194</v>
       </c>
       <c r="C153" s="4">
-        <v>498</v>
+        <v>719</v>
       </c>
       <c r="D153" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
@@ -5523,22 +5725,22 @@
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
         <v>194</v>
       </c>
       <c r="C154" s="4">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="D154" s="4">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -5546,22 +5748,22 @@
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>194</v>
       </c>
       <c r="C155" s="4">
-        <v>719</v>
+        <v>347</v>
       </c>
       <c r="D155" s="4">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
@@ -5569,22 +5771,22 @@
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>249</v>
+        <v>585</v>
       </c>
       <c r="B156" t="s">
         <v>194</v>
       </c>
       <c r="C156" s="4">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D156" s="4">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G156" s="7">
         <v>1</v>
@@ -5592,705 +5794,1093 @@
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
         <v>194</v>
       </c>
       <c r="C157" s="4">
-        <v>347</v>
-      </c>
-      <c r="D157" s="4">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G157" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>243</v>
+      <c r="A158" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>595</v>
       </c>
       <c r="C158" s="4">
-        <v>353</v>
+        <v>1100</v>
       </c>
       <c r="D158" s="4">
-        <v>290</v>
+        <v>900</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>245</v>
+        <v>594</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G158" s="7">
-        <v>1</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="G158" s="21"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B159" t="s">
+        <v>589</v>
+      </c>
+      <c r="C159" s="4">
+        <v>400</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G159" s="21"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160" s="4">
+        <v>200</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G160" s="21"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B161" t="s">
+        <v>583</v>
+      </c>
+      <c r="C161" s="4">
+        <v>298</v>
+      </c>
+      <c r="D161" s="4">
+        <v>250</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G161" s="21"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C162" s="4">
+        <v>350</v>
+      </c>
+      <c r="D162" s="4">
+        <v>200</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G162" s="21"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B163" t="s">
+        <v>194</v>
+      </c>
+      <c r="C163" s="4">
+        <v>1250</v>
+      </c>
+      <c r="D163" s="4">
+        <v>800</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G163" s="21"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B164" t="s">
+        <v>194</v>
+      </c>
+      <c r="C164" s="4">
+        <v>300</v>
+      </c>
+      <c r="D164" s="4">
         <v>240</v>
       </c>
-      <c r="B159" t="s">
-        <v>194</v>
-      </c>
-      <c r="C159" s="4">
+      <c r="E164" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G164" s="21"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B165" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" s="4">
+        <v>300</v>
+      </c>
+      <c r="D165" s="4">
+        <v>250</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G165" s="21"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" s="4">
+        <v>450</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G166" s="21"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B167" t="s">
+        <v>561</v>
+      </c>
+      <c r="C167" s="4">
+        <v>300</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G167" s="21"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B168" t="s">
+        <v>558</v>
+      </c>
+      <c r="C168" s="4">
+        <v>450</v>
+      </c>
+      <c r="D168" s="4">
+        <v>400</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G168" s="21"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B169" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" s="4">
+        <v>922</v>
+      </c>
+      <c r="D169" s="4">
+        <v>800</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G169" s="21"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B170" t="s">
+        <v>194</v>
+      </c>
+      <c r="C170" s="4">
+        <v>750</v>
+      </c>
+      <c r="D170" s="4">
+        <v>600</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G170" s="21"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B171" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171" s="4">
+        <v>350</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G171" s="21"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B172" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" s="4">
+        <v>330</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G172" s="21"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B173" t="s">
+        <v>544</v>
+      </c>
+      <c r="C173" s="4">
+        <v>450</v>
+      </c>
+      <c r="D173" s="4">
+        <v>400</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G173" s="21"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B174" t="s">
+        <v>545</v>
+      </c>
+      <c r="C174" s="4">
+        <v>120</v>
+      </c>
+      <c r="D174" s="4">
+        <v>90</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G174" s="21"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B175" t="s">
+        <v>534</v>
+      </c>
+      <c r="C175" s="4">
+        <v>690</v>
+      </c>
+      <c r="D175" s="4">
         <v>500</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G159" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="E175" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G175" s="23"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" s="4">
+        <v>300</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G176" s="23"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" s="4">
+        <v>252</v>
+      </c>
+      <c r="D177" s="4">
+        <v>200</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G177" s="23"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" t="s">
+        <v>423</v>
+      </c>
+      <c r="C178" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D178" s="4">
+        <v>3550</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B179" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="4">
+        <v>5500</v>
+      </c>
+      <c r="D179" s="4">
+        <v>4700</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" t="s">
+        <v>194</v>
+      </c>
+      <c r="C180" s="4">
+        <v>1100</v>
+      </c>
+      <c r="D180" s="4">
+        <v>750</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B181" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" s="4">
+        <v>300</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B182" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" s="4">
+        <v>650</v>
+      </c>
+      <c r="D182" s="4">
+        <v>450</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="4">
+        <v>200</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B184" t="s">
+        <v>194</v>
+      </c>
+      <c r="C184" s="4">
+        <v>250</v>
+      </c>
+      <c r="D184" s="4">
+        <v>150</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B185" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" s="4">
+        <v>550</v>
+      </c>
+      <c r="D185" s="4">
+        <v>350</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C186" s="4">
+        <v>398</v>
+      </c>
+      <c r="D186" s="4">
+        <v>180</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" s="4">
+        <v>220</v>
+      </c>
+      <c r="D187" s="4">
+        <v>175</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" s="4">
+        <v>660</v>
+      </c>
+      <c r="D188" s="4">
+        <v>200</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="4">
+        <v>690</v>
+      </c>
+      <c r="D189" s="4">
+        <v>500</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B190" t="s">
+        <v>397</v>
+      </c>
+      <c r="C190" s="4">
+        <v>637</v>
+      </c>
+      <c r="D190" s="4">
+        <v>300</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" s="4">
+        <v>1775</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="4">
+        <v>499</v>
+      </c>
+      <c r="D192" s="4">
+        <v>350</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B193" t="s">
         <v>424</v>
       </c>
-      <c r="B160" t="s">
-        <v>425</v>
-      </c>
-      <c r="C160" s="4">
-        <v>4500</v>
-      </c>
-      <c r="D160" s="4">
-        <v>3550</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>416</v>
-      </c>
-      <c r="B161" t="s">
-        <v>417</v>
-      </c>
-      <c r="C161" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D161" s="4">
-        <v>4700</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>372</v>
-      </c>
-      <c r="B162" t="s">
-        <v>194</v>
-      </c>
-      <c r="C162" s="4">
-        <v>1100</v>
-      </c>
-      <c r="D162" s="4">
-        <v>750</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>375</v>
-      </c>
-      <c r="B163" t="s">
-        <v>194</v>
-      </c>
-      <c r="C163" s="4">
-        <v>300</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>378</v>
-      </c>
-      <c r="B164" t="s">
-        <v>194</v>
-      </c>
-      <c r="C164" s="4">
-        <v>650</v>
-      </c>
-      <c r="D164" s="4">
-        <v>450</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>381</v>
-      </c>
-      <c r="B165" t="s">
-        <v>194</v>
-      </c>
-      <c r="C165" s="4">
-        <v>200</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>405</v>
-      </c>
-      <c r="B166" t="s">
-        <v>194</v>
-      </c>
-      <c r="C166" s="4">
-        <v>250</v>
-      </c>
-      <c r="D166" s="4">
-        <v>150</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>384</v>
-      </c>
-      <c r="B167" t="s">
-        <v>194</v>
-      </c>
-      <c r="C167" s="4">
-        <v>550</v>
-      </c>
-      <c r="D167" s="4">
-        <v>350</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>407</v>
-      </c>
-      <c r="C168" s="4">
-        <v>398</v>
-      </c>
-      <c r="D168" s="4">
-        <v>180</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>387</v>
-      </c>
-      <c r="B169" t="s">
-        <v>194</v>
-      </c>
-      <c r="C169" s="4">
-        <v>220</v>
-      </c>
-      <c r="D169" s="4">
-        <v>175</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>390</v>
-      </c>
-      <c r="B170" t="s">
-        <v>194</v>
-      </c>
-      <c r="C170" s="4">
-        <v>660</v>
-      </c>
-      <c r="D170" s="4">
-        <v>200</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>393</v>
-      </c>
-      <c r="B171" t="s">
-        <v>194</v>
-      </c>
-      <c r="C171" s="4">
-        <v>690</v>
-      </c>
-      <c r="D171" s="4">
-        <v>500</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>396</v>
-      </c>
-      <c r="B172" t="s">
-        <v>399</v>
-      </c>
-      <c r="C172" s="4">
-        <v>637</v>
-      </c>
-      <c r="D172" s="4">
-        <v>300</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>400</v>
-      </c>
-      <c r="B173" t="s">
-        <v>194</v>
-      </c>
-      <c r="C173" s="4">
-        <v>1775</v>
-      </c>
-      <c r="D173" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>411</v>
-      </c>
-      <c r="B174" t="s">
-        <v>194</v>
-      </c>
-      <c r="C174" s="4">
-        <v>499</v>
-      </c>
-      <c r="D174" s="4">
-        <v>350</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B175" t="s">
-        <v>426</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="C193" s="4">
         <v>2300</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D193" s="4">
         <v>1800</v>
       </c>
-      <c r="E175" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="9"/>
+      <c r="E193" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F73" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F120" r:id="rId1"/>
-    <hyperlink ref="F30" r:id="rId2"/>
-    <hyperlink ref="F72" r:id="rId3"/>
-    <hyperlink ref="F29" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F71" r:id="rId4"/>
-    <hyperlink ref="F119" r:id="rId5"/>
-    <hyperlink ref="F28" r:id="rId6"/>
-    <hyperlink ref="F70" r:id="rId7"/>
-    <hyperlink ref="F69" r:id="rId8"/>
-    <hyperlink ref="F68" r:id="rId9"/>
-    <hyperlink ref="F23" r:id="rId10"/>
-    <hyperlink ref="F22" r:id="rId11"/>
-    <hyperlink ref="F25" r:id="rId12"/>
-    <hyperlink ref="F24" r:id="rId13"/>
-    <hyperlink ref="F118" r:id="rId14"/>
-    <hyperlink ref="F67" r:id="rId15"/>
-    <hyperlink ref="F21" r:id="rId16"/>
-    <hyperlink ref="F64" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F63" r:id="rId17"/>
-    <hyperlink ref="F62" r:id="rId18"/>
-    <hyperlink ref="F59" r:id="rId19"/>
-    <hyperlink ref="F58" r:id="rId20"/>
-    <hyperlink ref="F57" r:id="rId21"/>
-    <hyperlink ref="F56" r:id="rId22"/>
-    <hyperlink ref="F53" r:id="rId23"/>
-    <hyperlink ref="F51" r:id="rId24"/>
-    <hyperlink ref="F50" r:id="rId25"/>
-    <hyperlink ref="F49" r:id="rId26"/>
-    <hyperlink ref="F48" r:id="rId27"/>
-    <hyperlink ref="F47" r:id="rId28"/>
-    <hyperlink ref="F46" r:id="rId29"/>
-    <hyperlink ref="F45" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F44" r:id="rId30"/>
-    <hyperlink ref="F43" r:id="rId31"/>
-    <hyperlink ref="F42" r:id="rId32"/>
-    <hyperlink ref="F41" r:id="rId33"/>
-    <hyperlink ref="F39" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F38" r:id="rId34"/>
-    <hyperlink ref="F138" r:id="rId35"/>
-    <hyperlink ref="F137" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F136" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F131" r:id="rId36"/>
-    <hyperlink ref="F133" r:id="rId37"/>
-    <hyperlink ref="F135" r:id="rId38"/>
-    <hyperlink ref="F130" r:id="rId39"/>
-    <hyperlink ref="F20" r:id="rId40"/>
-    <hyperlink ref="F37" r:id="rId41"/>
-    <hyperlink ref="F36" r:id="rId42"/>
-    <hyperlink ref="F19" r:id="rId43"/>
-    <hyperlink ref="F17" r:id="rId44"/>
-    <hyperlink ref="F16" r:id="rId45"/>
-    <hyperlink ref="F32" r:id="rId46"/>
-    <hyperlink ref="F15" r:id="rId47"/>
-    <hyperlink ref="F14" r:id="rId48"/>
-    <hyperlink ref="F13" r:id="rId49"/>
-    <hyperlink ref="F10" r:id="rId50"/>
-    <hyperlink ref="F12" r:id="rId51"/>
-    <hyperlink ref="F9" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F8" r:id="rId52"/>
-    <hyperlink ref="F7" r:id="rId53"/>
-    <hyperlink ref="F34" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F35" r:id="rId54"/>
-    <hyperlink ref="F5" r:id="rId55"/>
-    <hyperlink ref="F6" r:id="rId56"/>
-    <hyperlink ref="F31" r:id="rId57"/>
-    <hyperlink ref="F128" r:id="rId58"/>
-    <hyperlink ref="F127" r:id="rId59"/>
-    <hyperlink ref="F129" r:id="rId60"/>
-    <hyperlink ref="F126" r:id="rId61"/>
-    <hyperlink ref="F125" r:id="rId62"/>
-    <hyperlink ref="F124" r:id="rId63"/>
-    <hyperlink ref="F123" r:id="rId64"/>
-    <hyperlink ref="E123" r:id="rId65"/>
-    <hyperlink ref="E127" r:id="rId66"/>
-    <hyperlink ref="E129" r:id="rId67"/>
-    <hyperlink ref="E31" r:id="rId68"/>
-    <hyperlink ref="E5" r:id="rId69"/>
-    <hyperlink ref="E6" r:id="rId70"/>
-    <hyperlink ref="E34" r:id="rId71"/>
-    <hyperlink ref="E35" r:id="rId72"/>
-    <hyperlink ref="E7" r:id="rId73"/>
-    <hyperlink ref="E8" r:id="rId74"/>
-    <hyperlink ref="E10" r:id="rId75"/>
-    <hyperlink ref="E9" r:id="rId76"/>
-    <hyperlink ref="E11" r:id="rId77"/>
-    <hyperlink ref="E12" r:id="rId78"/>
-    <hyperlink ref="E13" r:id="rId79"/>
-    <hyperlink ref="E14" r:id="rId80"/>
-    <hyperlink ref="E15" r:id="rId81"/>
-    <hyperlink ref="E32" r:id="rId82"/>
-    <hyperlink ref="E16" r:id="rId83"/>
-    <hyperlink ref="E17" r:id="rId84"/>
-    <hyperlink ref="E19" r:id="rId85"/>
-    <hyperlink ref="E36" r:id="rId86"/>
-    <hyperlink ref="E37" r:id="rId87"/>
-    <hyperlink ref="E20" r:id="rId88"/>
-    <hyperlink ref="E130" r:id="rId89"/>
-    <hyperlink ref="E131" r:id="rId90"/>
-    <hyperlink ref="E133" r:id="rId91"/>
-    <hyperlink ref="E134" r:id="rId92"/>
-    <hyperlink ref="E135" r:id="rId93"/>
-    <hyperlink ref="E136" r:id="rId94"/>
-    <hyperlink ref="E137" r:id="rId95"/>
-    <hyperlink ref="E138" r:id="rId96"/>
-    <hyperlink ref="E38" r:id="rId97"/>
-    <hyperlink ref="E39" r:id="rId98"/>
-    <hyperlink ref="E40" r:id="rId99"/>
-    <hyperlink ref="F40" r:id="rId100"/>
-    <hyperlink ref="E41" r:id="rId101"/>
-    <hyperlink ref="E42" r:id="rId102"/>
-    <hyperlink ref="E43" r:id="rId103"/>
-    <hyperlink ref="E121" r:id="rId104"/>
-    <hyperlink ref="E122" r:id="rId105"/>
-    <hyperlink ref="E44" r:id="rId106"/>
-    <hyperlink ref="E45" r:id="rId107"/>
-    <hyperlink ref="E46" r:id="rId108"/>
-    <hyperlink ref="E47" r:id="rId109"/>
-    <hyperlink ref="E48" r:id="rId110"/>
-    <hyperlink ref="E49" r:id="rId111"/>
-    <hyperlink ref="E50" r:id="rId112"/>
-    <hyperlink ref="E51" r:id="rId113"/>
-    <hyperlink ref="E52" r:id="rId114"/>
-    <hyperlink ref="E56" r:id="rId115"/>
-    <hyperlink ref="E55" r:id="rId116"/>
-    <hyperlink ref="E54" r:id="rId117"/>
-    <hyperlink ref="E57" r:id="rId118"/>
-    <hyperlink ref="E58" r:id="rId119"/>
-    <hyperlink ref="E59" r:id="rId120"/>
-    <hyperlink ref="E60" r:id="rId121"/>
-    <hyperlink ref="E61" r:id="rId122"/>
-    <hyperlink ref="E62" r:id="rId123"/>
-    <hyperlink ref="E63" r:id="rId124"/>
-    <hyperlink ref="E64" r:id="rId125"/>
-    <hyperlink ref="E21" r:id="rId126"/>
-    <hyperlink ref="E67" r:id="rId127"/>
-    <hyperlink ref="E22" r:id="rId128"/>
-    <hyperlink ref="E23" r:id="rId129"/>
-    <hyperlink ref="E118" r:id="rId130"/>
-    <hyperlink ref="E24" r:id="rId131"/>
-    <hyperlink ref="E25" r:id="rId132"/>
-    <hyperlink ref="E68" r:id="rId133"/>
-    <hyperlink ref="E53" r:id="rId134"/>
-    <hyperlink ref="E69" r:id="rId135"/>
-    <hyperlink ref="E70" r:id="rId136"/>
-    <hyperlink ref="E28" r:id="rId137"/>
-    <hyperlink ref="E119" r:id="rId138"/>
-    <hyperlink ref="E71" r:id="rId139"/>
-    <hyperlink ref="E29" r:id="rId140"/>
-    <hyperlink ref="E30" r:id="rId141"/>
-    <hyperlink ref="E72" r:id="rId142"/>
-    <hyperlink ref="E120" r:id="rId143"/>
-    <hyperlink ref="E73" r:id="rId144"/>
-    <hyperlink ref="E26" r:id="rId145"/>
-    <hyperlink ref="E27" r:id="rId146"/>
-    <hyperlink ref="E65" r:id="rId147"/>
-    <hyperlink ref="E66" r:id="rId148"/>
-    <hyperlink ref="F159" r:id="rId149"/>
-    <hyperlink ref="E159" r:id="rId150"/>
-    <hyperlink ref="F158" r:id="rId151"/>
-    <hyperlink ref="E158" r:id="rId152"/>
-    <hyperlink ref="F157" r:id="rId153"/>
-    <hyperlink ref="E157" r:id="rId154"/>
-    <hyperlink ref="F156" r:id="rId155"/>
-    <hyperlink ref="E156" r:id="rId156"/>
-    <hyperlink ref="F155" r:id="rId157"/>
-    <hyperlink ref="E155" r:id="rId158"/>
-    <hyperlink ref="F154" r:id="rId159"/>
-    <hyperlink ref="E154" r:id="rId160"/>
-    <hyperlink ref="F153" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E153" r:id="rId161"/>
-    <hyperlink ref="F152" r:id="rId162"/>
-    <hyperlink ref="E152" r:id="rId163"/>
-    <hyperlink ref="E151" r:id="rId164"/>
-    <hyperlink ref="F151" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F150" r:id="rId166"/>
-    <hyperlink ref="E150" r:id="rId167"/>
-    <hyperlink ref="F149" r:id="rId168"/>
-    <hyperlink ref="E149" r:id="rId169"/>
-    <hyperlink ref="E148" r:id="rId170"/>
-    <hyperlink ref="E147" r:id="rId171"/>
-    <hyperlink ref="E145" r:id="rId172"/>
-    <hyperlink ref="F145" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F144" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E144" r:id="rId174"/>
-    <hyperlink ref="F143" r:id="rId175"/>
-    <hyperlink ref="E143" r:id="rId176"/>
-    <hyperlink ref="F142" r:id="rId177"/>
-    <hyperlink ref="E142" r:id="rId178"/>
-    <hyperlink ref="E141" r:id="rId179"/>
-    <hyperlink ref="F141" r:id="rId180"/>
-    <hyperlink ref="E140" r:id="rId181"/>
-    <hyperlink ref="F140" r:id="rId182"/>
-    <hyperlink ref="E132" r:id="rId183"/>
-    <hyperlink ref="F132" r:id="rId184"/>
-    <hyperlink ref="F139" r:id="rId185"/>
-    <hyperlink ref="E139" r:id="rId186"/>
-    <hyperlink ref="E175" r:id="rId187"/>
-    <hyperlink ref="F99" r:id="rId188"/>
-    <hyperlink ref="E99" r:id="rId189"/>
-    <hyperlink ref="F117" r:id="rId190"/>
-    <hyperlink ref="E117" r:id="rId191"/>
-    <hyperlink ref="F107" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E107" r:id="rId193"/>
-    <hyperlink ref="F110" r:id="rId194"/>
-    <hyperlink ref="E110" r:id="rId195"/>
-    <hyperlink ref="F111" r:id="rId196"/>
-    <hyperlink ref="E111" r:id="rId197"/>
-    <hyperlink ref="E112" r:id="rId198"/>
-    <hyperlink ref="E113" r:id="rId199"/>
-    <hyperlink ref="E114" r:id="rId200"/>
-    <hyperlink ref="F114" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E116" r:id="rId202"/>
-    <hyperlink ref="E115" r:id="rId203"/>
-    <hyperlink ref="E108" r:id="rId204"/>
-    <hyperlink ref="F108" r:id="rId205"/>
-    <hyperlink ref="E109" r:id="rId206"/>
-    <hyperlink ref="F109" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F105" r:id="rId208"/>
-    <hyperlink ref="E105" r:id="rId209"/>
-    <hyperlink ref="E106" r:id="rId210"/>
-    <hyperlink ref="F106" r:id="rId211"/>
-    <hyperlink ref="F101" r:id="rId212"/>
-    <hyperlink ref="E101" r:id="rId213"/>
-    <hyperlink ref="E102" r:id="rId214"/>
-    <hyperlink ref="F102" r:id="rId215"/>
-    <hyperlink ref="F103" r:id="rId216"/>
-    <hyperlink ref="E103" r:id="rId217"/>
-    <hyperlink ref="F104" r:id="rId218"/>
-    <hyperlink ref="E104" r:id="rId219"/>
-    <hyperlink ref="F100" r:id="rId220"/>
-    <hyperlink ref="E100" r:id="rId221"/>
-    <hyperlink ref="E126" r:id="rId222"/>
-    <hyperlink ref="F162" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E162" r:id="rId224"/>
-    <hyperlink ref="F163" r:id="rId225"/>
-    <hyperlink ref="E163" r:id="rId226"/>
-    <hyperlink ref="F164" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E164" r:id="rId228"/>
-    <hyperlink ref="F165" r:id="rId229"/>
-    <hyperlink ref="E165" r:id="rId230"/>
-    <hyperlink ref="F167" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E167" r:id="rId232"/>
-    <hyperlink ref="F169" r:id="rId233"/>
-    <hyperlink ref="E169" r:id="rId234"/>
-    <hyperlink ref="F170" r:id="rId235"/>
-    <hyperlink ref="E170" r:id="rId236"/>
-    <hyperlink ref="F171" r:id="rId237"/>
-    <hyperlink ref="E171" r:id="rId238"/>
-    <hyperlink ref="F172" r:id="rId239"/>
-    <hyperlink ref="E172" r:id="rId240"/>
-    <hyperlink ref="F173" r:id="rId241"/>
-    <hyperlink ref="E173" r:id="rId242"/>
-    <hyperlink ref="F174" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E174" r:id="rId243"/>
-    <hyperlink ref="F166" r:id="rId244"/>
-    <hyperlink ref="F168" r:id="rId245"/>
-    <hyperlink ref="E168" r:id="rId246"/>
-    <hyperlink ref="E166" r:id="rId247"/>
-    <hyperlink ref="F96" r:id="rId248"/>
-    <hyperlink ref="E96" r:id="rId249"/>
-    <hyperlink ref="F161" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E161" r:id="rId251"/>
-    <hyperlink ref="F95" r:id="rId252"/>
-    <hyperlink ref="E95" r:id="rId253"/>
-    <hyperlink ref="F160" r:id="rId254"/>
-    <hyperlink ref="E160" r:id="rId255"/>
-    <hyperlink ref="F78" r:id="rId256"/>
-    <hyperlink ref="E78" r:id="rId257"/>
-    <hyperlink ref="E79" r:id="rId258"/>
-    <hyperlink ref="F79" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F80" r:id="rId260"/>
-    <hyperlink ref="E80" r:id="rId261"/>
-    <hyperlink ref="E82" r:id="rId262"/>
-    <hyperlink ref="F82" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E83" r:id="rId264"/>
-    <hyperlink ref="F83" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E84" r:id="rId265"/>
-    <hyperlink ref="F84" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F85" r:id="rId267"/>
-    <hyperlink ref="E85" r:id="rId268"/>
-    <hyperlink ref="F86" r:id="rId269"/>
-    <hyperlink ref="E86" r:id="rId270"/>
-    <hyperlink ref="E87" r:id="rId271"/>
-    <hyperlink ref="F87" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E88" r:id="rId273"/>
-    <hyperlink ref="E89" r:id="rId274"/>
-    <hyperlink ref="F89" r:id="rId275"/>
-    <hyperlink ref="F90" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E90" r:id="rId276"/>
-    <hyperlink ref="E91" r:id="rId277"/>
-    <hyperlink ref="F91" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F92" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E92" r:id="rId280"/>
-    <hyperlink ref="F93" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E93" r:id="rId282"/>
-    <hyperlink ref="F94" r:id="rId283"/>
-    <hyperlink ref="E94" r:id="rId284"/>
-    <hyperlink ref="F77" r:id="rId285"/>
-    <hyperlink ref="E77" r:id="rId286"/>
-    <hyperlink ref="F81" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E81" r:id="rId287"/>
-    <hyperlink ref="F74" r:id="rId288"/>
-    <hyperlink ref="E74" r:id="rId289"/>
-    <hyperlink ref="F75" r:id="rId290"/>
-    <hyperlink ref="E75" r:id="rId291"/>
-    <hyperlink ref="F76" r:id="rId292"/>
-    <hyperlink ref="E76" r:id="rId293"/>
-    <hyperlink ref="F98" r:id="rId294"/>
-    <hyperlink ref="E98" r:id="rId295"/>
-    <hyperlink ref="F97" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E97" r:id="rId297"/>
+    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F118" r:id="rId1"/>
+    <hyperlink ref="F28" r:id="rId2"/>
+    <hyperlink ref="F70" r:id="rId3"/>
+    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F69" r:id="rId4"/>
+    <hyperlink ref="F117" r:id="rId5"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F68" r:id="rId7"/>
+    <hyperlink ref="F67" r:id="rId8"/>
+    <hyperlink ref="F66" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F20" r:id="rId11"/>
+    <hyperlink ref="F23" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13"/>
+    <hyperlink ref="F116" r:id="rId14"/>
+    <hyperlink ref="F65" r:id="rId15"/>
+    <hyperlink ref="F19" r:id="rId16"/>
+    <hyperlink ref="F62" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F61" r:id="rId17"/>
+    <hyperlink ref="F60" r:id="rId18"/>
+    <hyperlink ref="F57" r:id="rId19"/>
+    <hyperlink ref="F56" r:id="rId20"/>
+    <hyperlink ref="F55" r:id="rId21"/>
+    <hyperlink ref="F54" r:id="rId22"/>
+    <hyperlink ref="F51" r:id="rId23"/>
+    <hyperlink ref="F49" r:id="rId24"/>
+    <hyperlink ref="F48" r:id="rId25"/>
+    <hyperlink ref="F47" r:id="rId26"/>
+    <hyperlink ref="F46" r:id="rId27"/>
+    <hyperlink ref="F45" r:id="rId28"/>
+    <hyperlink ref="F44" r:id="rId29"/>
+    <hyperlink ref="F43" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F42" r:id="rId30"/>
+    <hyperlink ref="F41" r:id="rId31"/>
+    <hyperlink ref="F40" r:id="rId32"/>
+    <hyperlink ref="F39" r:id="rId33"/>
+    <hyperlink ref="F37" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F136" r:id="rId35"/>
+    <hyperlink ref="F135" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F134" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F129" r:id="rId36"/>
+    <hyperlink ref="F131" r:id="rId37"/>
+    <hyperlink ref="F133" r:id="rId38"/>
+    <hyperlink ref="F128" r:id="rId39"/>
+    <hyperlink ref="F18" r:id="rId40"/>
+    <hyperlink ref="F35" r:id="rId41"/>
+    <hyperlink ref="F34" r:id="rId42"/>
+    <hyperlink ref="F17" r:id="rId43"/>
+    <hyperlink ref="F15" r:id="rId44"/>
+    <hyperlink ref="F14" r:id="rId45"/>
+    <hyperlink ref="F30" r:id="rId46"/>
+    <hyperlink ref="F13" r:id="rId47"/>
+    <hyperlink ref="F12" r:id="rId48"/>
+    <hyperlink ref="F11" r:id="rId49"/>
+    <hyperlink ref="F8" r:id="rId50"/>
+    <hyperlink ref="F10" r:id="rId51"/>
+    <hyperlink ref="F7" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F6" r:id="rId52"/>
+    <hyperlink ref="F5" r:id="rId53"/>
+    <hyperlink ref="F32" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F33" r:id="rId54"/>
+    <hyperlink ref="F3" r:id="rId55"/>
+    <hyperlink ref="F4" r:id="rId56"/>
+    <hyperlink ref="F29" r:id="rId57"/>
+    <hyperlink ref="F126" r:id="rId58"/>
+    <hyperlink ref="F125" r:id="rId59"/>
+    <hyperlink ref="F127" r:id="rId60"/>
+    <hyperlink ref="F124" r:id="rId61"/>
+    <hyperlink ref="F123" r:id="rId62"/>
+    <hyperlink ref="F122" r:id="rId63"/>
+    <hyperlink ref="F121" r:id="rId64"/>
+    <hyperlink ref="E121" r:id="rId65"/>
+    <hyperlink ref="E125" r:id="rId66"/>
+    <hyperlink ref="E127" r:id="rId67"/>
+    <hyperlink ref="E29" r:id="rId68"/>
+    <hyperlink ref="E3" r:id="rId69"/>
+    <hyperlink ref="E4" r:id="rId70"/>
+    <hyperlink ref="E32" r:id="rId71"/>
+    <hyperlink ref="E33" r:id="rId72"/>
+    <hyperlink ref="E5" r:id="rId73"/>
+    <hyperlink ref="E6" r:id="rId74"/>
+    <hyperlink ref="E8" r:id="rId75"/>
+    <hyperlink ref="E7" r:id="rId76"/>
+    <hyperlink ref="E9" r:id="rId77"/>
+    <hyperlink ref="E10" r:id="rId78"/>
+    <hyperlink ref="E11" r:id="rId79"/>
+    <hyperlink ref="E12" r:id="rId80"/>
+    <hyperlink ref="E13" r:id="rId81"/>
+    <hyperlink ref="E30" r:id="rId82"/>
+    <hyperlink ref="E14" r:id="rId83"/>
+    <hyperlink ref="E15" r:id="rId84"/>
+    <hyperlink ref="E17" r:id="rId85"/>
+    <hyperlink ref="E34" r:id="rId86"/>
+    <hyperlink ref="E35" r:id="rId87"/>
+    <hyperlink ref="E18" r:id="rId88"/>
+    <hyperlink ref="E128" r:id="rId89"/>
+    <hyperlink ref="E129" r:id="rId90"/>
+    <hyperlink ref="E131" r:id="rId91"/>
+    <hyperlink ref="E132" r:id="rId92"/>
+    <hyperlink ref="E133" r:id="rId93"/>
+    <hyperlink ref="E134" r:id="rId94"/>
+    <hyperlink ref="E135" r:id="rId95"/>
+    <hyperlink ref="E136" r:id="rId96"/>
+    <hyperlink ref="E36" r:id="rId97"/>
+    <hyperlink ref="E37" r:id="rId98"/>
+    <hyperlink ref="E38" r:id="rId99"/>
+    <hyperlink ref="F38" r:id="rId100"/>
+    <hyperlink ref="E39" r:id="rId101"/>
+    <hyperlink ref="E40" r:id="rId102"/>
+    <hyperlink ref="E41" r:id="rId103"/>
+    <hyperlink ref="E119" r:id="rId104"/>
+    <hyperlink ref="E120" r:id="rId105"/>
+    <hyperlink ref="E42" r:id="rId106"/>
+    <hyperlink ref="E43" r:id="rId107"/>
+    <hyperlink ref="E44" r:id="rId108"/>
+    <hyperlink ref="E45" r:id="rId109"/>
+    <hyperlink ref="E46" r:id="rId110"/>
+    <hyperlink ref="E47" r:id="rId111"/>
+    <hyperlink ref="E48" r:id="rId112"/>
+    <hyperlink ref="E49" r:id="rId113"/>
+    <hyperlink ref="E50" r:id="rId114"/>
+    <hyperlink ref="E54" r:id="rId115"/>
+    <hyperlink ref="E53" r:id="rId116"/>
+    <hyperlink ref="E52" r:id="rId117"/>
+    <hyperlink ref="E55" r:id="rId118"/>
+    <hyperlink ref="E56" r:id="rId119"/>
+    <hyperlink ref="E57" r:id="rId120"/>
+    <hyperlink ref="E58" r:id="rId121"/>
+    <hyperlink ref="E59" r:id="rId122"/>
+    <hyperlink ref="E60" r:id="rId123"/>
+    <hyperlink ref="E61" r:id="rId124"/>
+    <hyperlink ref="E62" r:id="rId125"/>
+    <hyperlink ref="E19" r:id="rId126"/>
+    <hyperlink ref="E65" r:id="rId127"/>
+    <hyperlink ref="E20" r:id="rId128"/>
+    <hyperlink ref="E21" r:id="rId129"/>
+    <hyperlink ref="E116" r:id="rId130"/>
+    <hyperlink ref="E22" r:id="rId131"/>
+    <hyperlink ref="E23" r:id="rId132"/>
+    <hyperlink ref="E66" r:id="rId133"/>
+    <hyperlink ref="E51" r:id="rId134"/>
+    <hyperlink ref="E67" r:id="rId135"/>
+    <hyperlink ref="E68" r:id="rId136"/>
+    <hyperlink ref="E26" r:id="rId137"/>
+    <hyperlink ref="E117" r:id="rId138"/>
+    <hyperlink ref="E69" r:id="rId139"/>
+    <hyperlink ref="E27" r:id="rId140"/>
+    <hyperlink ref="E28" r:id="rId141"/>
+    <hyperlink ref="E70" r:id="rId142"/>
+    <hyperlink ref="E118" r:id="rId143"/>
+    <hyperlink ref="E71" r:id="rId144"/>
+    <hyperlink ref="E24" r:id="rId145"/>
+    <hyperlink ref="E25" r:id="rId146"/>
+    <hyperlink ref="E63" r:id="rId147"/>
+    <hyperlink ref="E64" r:id="rId148"/>
+    <hyperlink ref="F157" r:id="rId149"/>
+    <hyperlink ref="E157" r:id="rId150"/>
+    <hyperlink ref="F156" r:id="rId151"/>
+    <hyperlink ref="E156" r:id="rId152"/>
+    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="F154" r:id="rId155"/>
+    <hyperlink ref="E154" r:id="rId156"/>
+    <hyperlink ref="F153" r:id="rId157"/>
+    <hyperlink ref="E153" r:id="rId158"/>
+    <hyperlink ref="F152" r:id="rId159"/>
+    <hyperlink ref="E152" r:id="rId160"/>
+    <hyperlink ref="F151" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E151" r:id="rId161"/>
+    <hyperlink ref="F150" r:id="rId162"/>
+    <hyperlink ref="E150" r:id="rId163"/>
+    <hyperlink ref="E149" r:id="rId164"/>
+    <hyperlink ref="F149" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F148" r:id="rId166"/>
+    <hyperlink ref="E148" r:id="rId167"/>
+    <hyperlink ref="F147" r:id="rId168"/>
+    <hyperlink ref="E147" r:id="rId169"/>
+    <hyperlink ref="E146" r:id="rId170"/>
+    <hyperlink ref="E145" r:id="rId171"/>
+    <hyperlink ref="E143" r:id="rId172"/>
+    <hyperlink ref="F143" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F142" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E142" r:id="rId174"/>
+    <hyperlink ref="F141" r:id="rId175"/>
+    <hyperlink ref="E141" r:id="rId176"/>
+    <hyperlink ref="F140" r:id="rId177"/>
+    <hyperlink ref="E140" r:id="rId178"/>
+    <hyperlink ref="E139" r:id="rId179"/>
+    <hyperlink ref="F139" r:id="rId180"/>
+    <hyperlink ref="E138" r:id="rId181"/>
+    <hyperlink ref="F138" r:id="rId182"/>
+    <hyperlink ref="E130" r:id="rId183"/>
+    <hyperlink ref="F130" r:id="rId184"/>
+    <hyperlink ref="F137" r:id="rId185"/>
+    <hyperlink ref="E137" r:id="rId186"/>
+    <hyperlink ref="E193" r:id="rId187"/>
+    <hyperlink ref="F97" r:id="rId188"/>
+    <hyperlink ref="E97" r:id="rId189"/>
+    <hyperlink ref="F115" r:id="rId190"/>
+    <hyperlink ref="E115" r:id="rId191"/>
+    <hyperlink ref="F105" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E105" r:id="rId193"/>
+    <hyperlink ref="F108" r:id="rId194"/>
+    <hyperlink ref="E108" r:id="rId195"/>
+    <hyperlink ref="F109" r:id="rId196"/>
+    <hyperlink ref="E109" r:id="rId197"/>
+    <hyperlink ref="E110" r:id="rId198"/>
+    <hyperlink ref="E111" r:id="rId199"/>
+    <hyperlink ref="E112" r:id="rId200"/>
+    <hyperlink ref="F112" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E114" r:id="rId202"/>
+    <hyperlink ref="E113" r:id="rId203"/>
+    <hyperlink ref="E106" r:id="rId204"/>
+    <hyperlink ref="F106" r:id="rId205"/>
+    <hyperlink ref="E107" r:id="rId206"/>
+    <hyperlink ref="F107" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F103" r:id="rId208"/>
+    <hyperlink ref="E103" r:id="rId209"/>
+    <hyperlink ref="E104" r:id="rId210"/>
+    <hyperlink ref="F104" r:id="rId211"/>
+    <hyperlink ref="F99" r:id="rId212"/>
+    <hyperlink ref="E99" r:id="rId213"/>
+    <hyperlink ref="E100" r:id="rId214"/>
+    <hyperlink ref="F100" r:id="rId215"/>
+    <hyperlink ref="F101" r:id="rId216"/>
+    <hyperlink ref="E101" r:id="rId217"/>
+    <hyperlink ref="F102" r:id="rId218"/>
+    <hyperlink ref="E102" r:id="rId219"/>
+    <hyperlink ref="F98" r:id="rId220"/>
+    <hyperlink ref="E98" r:id="rId221"/>
+    <hyperlink ref="E124" r:id="rId222"/>
+    <hyperlink ref="F180" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E180" r:id="rId224"/>
+    <hyperlink ref="F181" r:id="rId225"/>
+    <hyperlink ref="E181" r:id="rId226"/>
+    <hyperlink ref="F182" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E182" r:id="rId228"/>
+    <hyperlink ref="F183" r:id="rId229"/>
+    <hyperlink ref="E183" r:id="rId230"/>
+    <hyperlink ref="F185" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E185" r:id="rId232"/>
+    <hyperlink ref="F187" r:id="rId233"/>
+    <hyperlink ref="E187" r:id="rId234"/>
+    <hyperlink ref="F188" r:id="rId235"/>
+    <hyperlink ref="E188" r:id="rId236"/>
+    <hyperlink ref="F189" r:id="rId237"/>
+    <hyperlink ref="E189" r:id="rId238"/>
+    <hyperlink ref="F190" r:id="rId239"/>
+    <hyperlink ref="E190" r:id="rId240"/>
+    <hyperlink ref="F191" r:id="rId241"/>
+    <hyperlink ref="E191" r:id="rId242"/>
+    <hyperlink ref="F192" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E192" r:id="rId243"/>
+    <hyperlink ref="F184" r:id="rId244"/>
+    <hyperlink ref="F186" r:id="rId245"/>
+    <hyperlink ref="E186" r:id="rId246"/>
+    <hyperlink ref="E184" r:id="rId247"/>
+    <hyperlink ref="F94" r:id="rId248"/>
+    <hyperlink ref="E94" r:id="rId249"/>
+    <hyperlink ref="F179" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E179" r:id="rId251"/>
+    <hyperlink ref="F93" r:id="rId252"/>
+    <hyperlink ref="E93" r:id="rId253"/>
+    <hyperlink ref="F178" r:id="rId254"/>
+    <hyperlink ref="E178" r:id="rId255"/>
+    <hyperlink ref="F76" r:id="rId256"/>
+    <hyperlink ref="E76" r:id="rId257"/>
+    <hyperlink ref="E77" r:id="rId258"/>
+    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F78" r:id="rId260"/>
+    <hyperlink ref="E78" r:id="rId261"/>
+    <hyperlink ref="E80" r:id="rId262"/>
+    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E81" r:id="rId264"/>
+    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E82" r:id="rId265"/>
+    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F83" r:id="rId267"/>
+    <hyperlink ref="E83" r:id="rId268"/>
+    <hyperlink ref="F84" r:id="rId269"/>
+    <hyperlink ref="E84" r:id="rId270"/>
+    <hyperlink ref="E85" r:id="rId271"/>
+    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E86" r:id="rId273"/>
+    <hyperlink ref="E87" r:id="rId274"/>
+    <hyperlink ref="F87" r:id="rId275"/>
+    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E88" r:id="rId276"/>
+    <hyperlink ref="E89" r:id="rId277"/>
+    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E90" r:id="rId280"/>
+    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E91" r:id="rId282"/>
+    <hyperlink ref="F92" r:id="rId283"/>
+    <hyperlink ref="E92" r:id="rId284"/>
+    <hyperlink ref="F75" r:id="rId285"/>
+    <hyperlink ref="E75" r:id="rId286"/>
+    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E79" r:id="rId287"/>
+    <hyperlink ref="F72" r:id="rId288"/>
+    <hyperlink ref="E72" r:id="rId289"/>
+    <hyperlink ref="F73" r:id="rId290"/>
+    <hyperlink ref="E73" r:id="rId291"/>
+    <hyperlink ref="F74" r:id="rId292"/>
+    <hyperlink ref="E74" r:id="rId293"/>
+    <hyperlink ref="F96" r:id="rId294"/>
+    <hyperlink ref="E96" r:id="rId295"/>
+    <hyperlink ref="F95" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E95" r:id="rId297"/>
     <hyperlink ref="E2" r:id="rId298"/>
-    <hyperlink ref="E18" r:id="rId299"/>
-    <hyperlink ref="F4" r:id="rId300"/>
-    <hyperlink ref="E4" r:id="rId301"/>
-    <hyperlink ref="F3" r:id="rId302"/>
-    <hyperlink ref="E3" r:id="rId303"/>
+    <hyperlink ref="E16" r:id="rId299"/>
+    <hyperlink ref="F177" r:id="rId300"/>
+    <hyperlink ref="E177" r:id="rId301"/>
+    <hyperlink ref="F176" r:id="rId302"/>
+    <hyperlink ref="E176" r:id="rId303"/>
+    <hyperlink ref="F175" r:id="rId304"/>
+    <hyperlink ref="E175" r:id="rId305"/>
+    <hyperlink ref="F174" r:id="rId306"/>
+    <hyperlink ref="E174" r:id="rId307"/>
+    <hyperlink ref="F173" r:id="rId308"/>
+    <hyperlink ref="E173" r:id="rId309"/>
+    <hyperlink ref="F169" r:id="rId310"/>
+    <hyperlink ref="E169" r:id="rId311"/>
+    <hyperlink ref="F171" r:id="rId312"/>
+    <hyperlink ref="E171" r:id="rId313"/>
+    <hyperlink ref="F172" r:id="rId314"/>
+    <hyperlink ref="E172" r:id="rId315"/>
+    <hyperlink ref="F170" r:id="rId316"/>
+    <hyperlink ref="E170" r:id="rId317"/>
+    <hyperlink ref="E168" r:id="rId318"/>
+    <hyperlink ref="F168" r:id="rId319"/>
+    <hyperlink ref="F167"/>
+    <hyperlink ref="E167" r:id="rId320"/>
+    <hyperlink ref="F166" r:id="rId321"/>
+    <hyperlink ref="E166" r:id="rId322"/>
+    <hyperlink ref="F165" r:id="rId323"/>
+    <hyperlink ref="E165" r:id="rId324"/>
+    <hyperlink ref="F164" r:id="rId325"/>
+    <hyperlink ref="E164" r:id="rId326"/>
+    <hyperlink ref="F163" r:id="rId327"/>
+    <hyperlink ref="E163" r:id="rId328"/>
+    <hyperlink ref="F162" r:id="rId329"/>
+    <hyperlink ref="E162" r:id="rId330"/>
+    <hyperlink ref="E161" r:id="rId331"/>
+    <hyperlink ref="F161" r:id="rId332" location="&amp;gid=1&amp;pid=4"/>
+    <hyperlink ref="F160" r:id="rId333"/>
+    <hyperlink ref="E160" r:id="rId334"/>
+    <hyperlink ref="F159" r:id="rId335"/>
+    <hyperlink ref="E159" r:id="rId336"/>
+    <hyperlink ref="F158" r:id="rId337"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId304"/>
+  <pageSetup orientation="portrait" r:id="rId338"/>
   <tableParts count="1">
-    <tablePart r:id="rId305"/>
+    <tablePart r:id="rId339"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$189</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="585">
   <si>
     <t>Nombre</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Decoración Banderín Multicolor Plástico Colores 100m 2tiras</t>
   </si>
   <si>
-    <t>Caja Sorpresa (Cajas de regalo)</t>
-  </si>
-  <si>
     <t>Máscara Snorkel 180° Panorámica Con Soporte Para Cámara</t>
   </si>
   <si>
@@ -1139,15 +1136,6 @@
     <t>Rodillera Elástica Deportiva De Compresión</t>
   </si>
   <si>
-    <t>Ventilador De Torre Silencioso Con Control Remoto 10m/s</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2309349977-ventilador-de-torre-silencioso-con-control-remoto-10ms-_JM?quantity=1&amp;variation_id=183597862406#&amp;gid=1&amp;pid=1</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_723057-MLM84988950944_052025-F-ventilador-de-torre-silencioso-con-control-remoto-10ms.webp</t>
-  </si>
-  <si>
     <t>Enfriador De Aire Evaporativo Acondicionado Ventilador Frio Portatil Air Cooler Usb Led</t>
   </si>
   <si>
@@ -1184,15 +1172,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_640935-MLM83577269617_042025-F-ventilador-de-torre-climatizadores-6-vel-portatil-silencioso.webp</t>
   </si>
   <si>
-    <t>Lamparas Para Sala Lámpara Ventilador De Techo E27/e26 30w</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-3582886594-lamparas-para-sala-lampara-ventilador-de-techo-e27e26-30w-_JM?quantity=1</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_653255-CBT83609710127_042025-F-lamparas-para-sala-lampara-ventilador-de-techo-e27e26-30w.webp</t>
-  </si>
-  <si>
     <t>Ventilador De Cuello Refrigeración Aire Acondicionado</t>
   </si>
   <si>
@@ -1244,15 +1223,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-1832883903-mini-aire-acondicionado-portatil-enfriador-clima-escritorio-_JM?quantity=1&amp;variation_id=176729350194</t>
   </si>
   <si>
-    <t>Ventilador Cuello Portátil 5 Modos Usb Recargable Silencioso</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2198847593-ventilador-cuello-portatil-5-modos-usb-recargable-silencioso-_JM?quantity=1&amp;variation_id=186278346493</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_685542-MLM83342993232_042025-N.jpg</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_998777-MLM54133192046_032023-F-mini-aire-acondicionado-portatil-enfriador-clima-escritorio.webp</t>
   </si>
   <si>
@@ -1538,15 +1508,9 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_925065-CBT86508122752_062025-F-obd2-scanner-escaner-automotriz-para-autos-de-multimarcas.webp</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mouses Inalámbrico Recargable Con Bluetooth Y Modo 2.4 2U Color Negro</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_978797-MLU76663023994_062024-F.webp</t>
-  </si>
-  <si>
     <t>Facial Masajeador Reductor De Papada Belleza Cuello Antiarrugas.</t>
   </si>
   <si>
@@ -1616,9 +1580,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_833941-MLU78764933573_082024-O-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col.webp</t>
   </si>
   <si>
-    <t>Arma tu caja sorpresa</t>
-  </si>
-  <si>
     <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
   </si>
   <si>
@@ -1815,6 +1776,12 @@
   </si>
   <si>
     <t>No incluye disco duro</t>
+  </si>
+  <si>
+    <t>https://img.ltwebstatic.com/images3_spmp/2024/04/11/4b/171282849309e07a6d6c10d334569461af0001fd9d.webp</t>
+  </si>
+  <si>
+    <t>Control Inalámbrico Gamepad Y Joystick Para NintendoSwitch Con Rgb</t>
   </si>
 </sst>
 </file>
@@ -2013,9 +1980,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2023,6 +1987,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2052,17 +2019,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G193" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G193"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G189" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G189"/>
   <sortState ref="A2:G193">
     <sortCondition descending="1" ref="G1:G193"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="0"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="3"/>
     <tableColumn id="2" name="Descripción"/>
-    <tableColumn id="3" name="Precio" dataDxfId="3"/>
-    <tableColumn id="4" name="PrecioRebaja" dataDxfId="2"/>
-    <tableColumn id="5" name="ImagenURL" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" name="Precio" dataDxfId="2"/>
+    <tableColumn id="4" name="PrecioRebaja" dataDxfId="1"/>
+    <tableColumn id="5" name="ImagenURL" dataDxfId="0" dataCellStyle="Hipervínculo"/>
     <tableColumn id="6" name="LinkCompra" dataCellStyle="Hipervínculo"/>
     <tableColumn id="7" name="Caja"/>
   </tableColumns>
@@ -2333,10 +2300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2369,42 +2336,44 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="4">
-        <v>112</v>
+        <v>170.73</v>
       </c>
       <c r="D2" s="4">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="G2" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>499</v>
       </c>
       <c r="C3" s="4">
-        <v>170.73</v>
+        <v>180</v>
       </c>
       <c r="D3" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>153</v>
@@ -2413,30 +2382,30 @@
         <v>79</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C4" s="4">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D4" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,13 +2413,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C5" s="4">
-        <v>212</v>
+        <v>178.03</v>
       </c>
       <c r="D5" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>160</v>
@@ -2459,76 +2428,73 @@
         <v>83</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>503</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4">
-        <v>178.03</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>504</v>
+      <c r="G6" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="4">
-        <v>200</v>
+        <v>193.7</v>
       </c>
       <c r="D7" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>504</v>
+      <c r="G7" s="21" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>507</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4">
-        <v>193.7</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2536,33 +2502,36 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>497</v>
       </c>
       <c r="C9" s="4">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D9" s="4">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C10" s="4">
-        <v>220</v>
+        <v>248.02</v>
       </c>
       <c r="D10" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>165</v>
@@ -2571,21 +2540,21 @@
         <v>87</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>369</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C11" s="4">
-        <v>248.02</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>166</v>
@@ -2594,21 +2563,21 @@
         <v>88</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4">
+        <v>269</v>
+      </c>
+      <c r="D12" s="4">
         <v>120</v>
-      </c>
-      <c r="D12" s="4">
-        <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>167</v>
@@ -2617,44 +2586,44 @@
         <v>89</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D13" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>508</v>
       </c>
       <c r="C14" s="4">
-        <v>270</v>
+        <v>119.4</v>
       </c>
       <c r="D14" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>170</v>
@@ -2663,38 +2632,36 @@
         <v>92</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C15" s="4">
-        <v>119.4</v>
+        <v>149</v>
       </c>
       <c r="D15" s="4">
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="22" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C16" s="4">
         <v>149</v>
@@ -2703,94 +2670,96 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="22" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B17" t="s">
-        <v>508</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="C17" s="4">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D17" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>519</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>504</v>
+        <v>96</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>194</v>
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
       </c>
       <c r="C18" s="4">
-        <v>99</v>
+        <v>374.7</v>
       </c>
       <c r="D18" s="4">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="4">
-        <v>374.7</v>
+        <v>499</v>
       </c>
       <c r="D19" s="4">
         <v>150</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>494</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="4">
-        <v>499</v>
+        <v>220</v>
       </c>
       <c r="D20" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>217</v>
@@ -2799,154 +2768,151 @@
         <v>129</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>506</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="4">
-        <v>220</v>
+        <v>126.85</v>
       </c>
       <c r="D21" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
       <c r="C22" s="4">
-        <v>126.85</v>
+        <v>250</v>
       </c>
       <c r="D22" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="C23" s="4">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D23" s="4">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="4">
-        <v>175</v>
+        <v>219.5</v>
       </c>
       <c r="D24" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="21" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="4">
-        <v>219.5</v>
+        <v>226.52</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>511</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="4">
-        <v>226.52</v>
+        <v>299.01</v>
       </c>
       <c r="D26" s="4">
         <v>150</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>523</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="4">
-        <v>299.01</v>
-      </c>
-      <c r="D27" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>228</v>
@@ -2955,251 +2921,260 @@
         <v>140</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" s="4">
-        <v>100</v>
+        <v>665</v>
+      </c>
+      <c r="D28" s="4">
+        <v>450</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>504</v>
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>496</v>
       </c>
       <c r="C29" s="4">
-        <v>665</v>
+        <v>315</v>
       </c>
       <c r="D29" s="4">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>512</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="C30" s="4">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="D30" s="4">
-        <v>250</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>169</v>
+        <v>150</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>513</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>529</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4">
-        <v>299</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>145</v>
+        <v>279</v>
+      </c>
+      <c r="D31" s="4">
+        <v>180</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" s="4">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D32" s="4">
         <v>150</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>159</v>
+      <c r="E32" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="4">
-        <v>279</v>
+        <v>166.93</v>
       </c>
       <c r="D33" s="4">
-        <v>180</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" s="4">
-        <v>210</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" s="4">
-        <v>166.93</v>
+        <v>393.2</v>
       </c>
       <c r="D35" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="4">
-        <v>1072.6500000000001</v>
+        <v>342.66</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="4">
-        <v>393.2</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D37" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="4">
-        <v>342.66</v>
+        <v>237.76</v>
       </c>
       <c r="D38" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,484 +3182,476 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="4">
-        <v>323.66000000000003</v>
+        <v>359</v>
       </c>
       <c r="D39" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>309</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" s="4">
-        <v>237.76</v>
+        <v>210</v>
       </c>
       <c r="D40" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="4">
+        <v>120</v>
+      </c>
+      <c r="D41" s="4">
+        <v>100</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="4">
-        <v>359</v>
-      </c>
-      <c r="D41" s="4">
-        <v>200</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="4">
-        <v>210</v>
+        <v>266.95999999999998</v>
       </c>
       <c r="D42" s="4">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="4">
-        <v>120</v>
+        <v>495.99</v>
       </c>
       <c r="D43" s="4">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" t="s">
-        <v>239</v>
+        <v>112</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="4">
-        <v>266.95999999999998</v>
+        <v>633.91</v>
       </c>
       <c r="D44" s="4">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" s="4">
-        <v>495.99</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D45" s="4">
-        <v>350</v>
+        <v>1025</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>239</v>
+        <v>114</v>
+      </c>
+      <c r="G45" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" s="4">
-        <v>633.91</v>
+        <v>758.9</v>
       </c>
       <c r="D46" s="4">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="4">
-        <v>1064.8800000000001</v>
+        <v>650</v>
       </c>
       <c r="D47" s="4">
-        <v>1025</v>
+        <v>500</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="4">
-        <v>758.9</v>
+        <v>268</v>
       </c>
       <c r="D48" s="4">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>116</v>
+        <v>201</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" s="4">
-        <v>650</v>
+        <v>1899</v>
       </c>
       <c r="D49" s="4">
-        <v>500</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>201</v>
+        <v>1500</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" s="4">
-        <v>268</v>
+        <v>166.88</v>
       </c>
       <c r="D50" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" s="4">
-        <v>1899</v>
+        <v>149.99</v>
       </c>
       <c r="D51" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" s="4">
-        <v>166.88</v>
+        <v>2100</v>
       </c>
       <c r="D52" s="4">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="4">
-        <v>149.99</v>
+        <v>325.32</v>
       </c>
       <c r="D53" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>205</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" s="4">
-        <v>2100</v>
+        <v>589.4</v>
       </c>
       <c r="D54" s="4">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" s="4">
-        <v>325.32</v>
-      </c>
-      <c r="D55" s="4">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>584</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" s="4">
-        <v>589.4</v>
+        <v>477</v>
       </c>
       <c r="D56" s="4">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" t="s">
-        <v>239</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="4">
-        <v>289</v>
+        <v>411.67</v>
+      </c>
+      <c r="D57" s="4">
+        <v>350</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>123</v>
+      <c r="F57" t="s">
+        <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>366</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C58" s="4">
-        <v>411.67</v>
+        <v>350</v>
       </c>
       <c r="D58" s="4">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" t="s">
         <v>210</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>367</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="4">
-        <v>350</v>
+        <v>689.2</v>
       </c>
       <c r="D59" s="4">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="F59" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>486</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="4">
-        <v>689.2</v>
-      </c>
-      <c r="D60" s="4">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>212</v>
@@ -3693,18 +3660,18 @@
         <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>496</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C61" s="4">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>213</v>
@@ -3713,7 +3680,7 @@
         <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,19 +3688,16 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C62" s="4">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,90 +3705,93 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G63" t="s">
-        <v>239</v>
+      <c r="G63" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s">
-        <v>194</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="C64" s="4">
+        <v>399</v>
+      </c>
+      <c r="D64" s="4">
         <v>200</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>239</v>
+        <v>215</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="4">
-        <v>399</v>
+        <v>238.9</v>
       </c>
       <c r="D65" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>194</v>
+        <v>364</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
       </c>
       <c r="C66" s="4">
-        <v>238.9</v>
-      </c>
-      <c r="D66" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>365</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C67" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>223</v>
@@ -3833,113 +3800,113 @@
         <v>135</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" s="4">
-        <v>230</v>
+        <v>98.26</v>
+      </c>
+      <c r="D68" s="4">
+        <v>50</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" s="4">
-        <v>98.26</v>
+        <v>899</v>
       </c>
       <c r="D69" s="4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="4">
-        <v>899</v>
+        <v>142</v>
       </c>
       <c r="D70" s="4">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>194</v>
+        <v>484</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="C71" s="4">
-        <v>142</v>
-      </c>
-      <c r="D71" s="4">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>232</v>
+        <v>477</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" t="s">
-        <v>239</v>
+        <v>476</v>
+      </c>
+      <c r="G71" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>194</v>
+        <v>483</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
       </c>
       <c r="C72" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G72" s="19">
         <v>5</v>
@@ -3947,19 +3914,19 @@
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C73" s="4">
         <v>200</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G73" s="19">
         <v>5</v>
@@ -3967,19 +3934,22 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="C74" s="4">
-        <v>200</v>
+        <v>2600</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1800</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="G74" s="19">
         <v>5</v>
@@ -3987,22 +3957,19 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="B75" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="C75" s="4">
-        <v>2600</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1800</v>
+        <v>390</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="G75" s="19">
         <v>5</v>
@@ -4010,19 +3977,19 @@
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B76" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C76" s="4">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G76" s="19">
         <v>5</v>
@@ -4030,19 +3997,19 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C77" s="4">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G77" s="19">
         <v>5</v>
@@ -4050,19 +4017,19 @@
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>193</v>
       </c>
       <c r="C78" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="G78" s="19">
         <v>5</v>
@@ -4070,19 +4037,22 @@
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" s="4">
-        <v>200</v>
+        <v>352</v>
+      </c>
+      <c r="D79" s="4">
+        <v>250</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="G79" s="19">
         <v>5</v>
@@ -4090,22 +4060,22 @@
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" s="4">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="D80" s="4">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G80" s="19">
         <v>5</v>
@@ -4113,22 +4083,22 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" s="4">
-        <v>389</v>
+        <v>999</v>
       </c>
       <c r="D81" s="4">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G81" s="19">
         <v>5</v>
@@ -4136,22 +4106,22 @@
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="4">
-        <v>999</v>
+        <v>1552</v>
       </c>
       <c r="D82" s="4">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G82" s="19">
         <v>5</v>
@@ -4159,22 +4129,22 @@
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" s="4">
-        <v>1552</v>
+        <v>292</v>
       </c>
       <c r="D83" s="4">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G83" s="19">
         <v>5</v>
@@ -4182,22 +4152,22 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B84" t="s">
-        <v>194</v>
+        <v>441</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C84" s="4">
-        <v>292</v>
+        <v>1500</v>
       </c>
       <c r="D84" s="4">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G84" s="19">
         <v>5</v>
@@ -4205,66 +4175,66 @@
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>194</v>
+        <v>447</v>
+      </c>
+      <c r="B85" t="s">
+        <v>446</v>
       </c>
       <c r="C85" s="4">
-        <v>1500</v>
+        <v>445</v>
       </c>
       <c r="D85" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>453</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F85" s="5"/>
       <c r="G85" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B86" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C86" s="4">
-        <v>445</v>
+        <v>144</v>
       </c>
       <c r="D86" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>449</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>450</v>
+      </c>
       <c r="G86" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B87" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="4">
+        <v>350</v>
+      </c>
+      <c r="D87" s="4">
+        <v>180</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B87" t="s">
-        <v>455</v>
-      </c>
-      <c r="C87" s="4">
-        <v>144</v>
-      </c>
-      <c r="D87" s="4">
-        <v>100</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G87" s="19">
         <v>5</v>
@@ -4272,22 +4242,22 @@
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B88" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C88" s="4">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D88" s="4">
         <v>180</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G88" s="19">
         <v>5</v>
@@ -4295,22 +4265,22 @@
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" t="s">
         <v>465</v>
       </c>
-      <c r="B89" t="s">
-        <v>466</v>
-      </c>
       <c r="C89" s="4">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D89" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G89" s="19">
         <v>5</v>
@@ -4318,22 +4288,22 @@
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B90" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C90" s="4">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D90" s="4">
         <v>150</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G90" s="19">
         <v>5</v>
@@ -4341,22 +4311,19 @@
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B91" t="s">
-        <v>475</v>
+        <v>193</v>
       </c>
       <c r="C91" s="4">
         <v>250</v>
       </c>
-      <c r="D91" s="4">
-        <v>150</v>
-      </c>
       <c r="E91" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G91" s="19">
         <v>5</v>
@@ -4364,19 +4331,22 @@
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>409</v>
       </c>
       <c r="C92" s="4">
-        <v>250</v>
+        <v>11200</v>
+      </c>
+      <c r="D92" s="4">
+        <v>6500</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="G92" s="19">
         <v>5</v>
@@ -4384,22 +4354,22 @@
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C93" s="4">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="D93" s="4">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G93" s="19">
         <v>5</v>
@@ -4407,68 +4377,68 @@
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>193</v>
       </c>
       <c r="C94" s="4">
-        <v>9700</v>
+        <v>385</v>
       </c>
       <c r="D94" s="4">
-        <v>5500</v>
+        <v>250</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G94" s="19">
-        <v>5</v>
+        <v>491</v>
+      </c>
+      <c r="G94" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C95" s="4">
-        <v>385</v>
+        <v>670</v>
       </c>
       <c r="D95" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G95" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>497</v>
+      <c r="A96" s="14" t="s">
+        <v>309</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="4">
-        <v>670</v>
-      </c>
-      <c r="D96" s="4">
-        <v>500</v>
+        <v>193</v>
+      </c>
+      <c r="C96" s="12">
+        <v>375</v>
+      </c>
+      <c r="D96" s="12">
+        <v>260</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>500</v>
+        <v>311</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>499</v>
+        <v>310</v>
       </c>
       <c r="G96" s="13">
         <v>4</v>
@@ -4476,22 +4446,20 @@
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C97" s="12">
-        <v>375</v>
-      </c>
-      <c r="D97" s="12">
-        <v>260</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D97" s="12"/>
       <c r="E97" s="6" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="G97" s="13">
         <v>4</v>
@@ -4499,20 +4467,22 @@
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="12">
-        <v>200</v>
-      </c>
-      <c r="D98" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="D98" s="12">
+        <v>150</v>
+      </c>
       <c r="E98" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="G98" s="13">
         <v>4</v>
@@ -4520,22 +4490,22 @@
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C99" s="12">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D99" s="12">
         <v>150</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="G99" s="13">
         <v>4</v>
@@ -4543,22 +4513,22 @@
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C100" s="12">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D100" s="12">
         <v>150</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="G100" s="13">
         <v>4</v>
@@ -4566,22 +4536,20 @@
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="12">
+        <v>300</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B101" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="12">
-        <v>249</v>
-      </c>
-      <c r="D101" s="12">
-        <v>150</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G101" s="13">
         <v>4</v>
@@ -4589,20 +4557,20 @@
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>584</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" s="12">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G102" s="13">
         <v>4</v>
@@ -4613,61 +4581,61 @@
         <v>344</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C103" s="12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G103" s="13">
+        <v>346</v>
+      </c>
+      <c r="G103" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C104" s="12">
-        <v>150</v>
-      </c>
-      <c r="D104" s="12"/>
+        <v>400</v>
+      </c>
+      <c r="D104" s="12">
+        <v>250</v>
+      </c>
       <c r="E104" s="6" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G104" s="20">
+        <v>316</v>
+      </c>
+      <c r="G104" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C105" s="12">
-        <v>400</v>
-      </c>
-      <c r="D105" s="12">
         <v>250</v>
       </c>
+      <c r="D105" s="12"/>
       <c r="E105" s="6" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G105" s="13">
         <v>4</v>
@@ -4675,20 +4643,20 @@
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C106" s="12">
         <v>250</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G106" s="13">
         <v>4</v>
@@ -4696,20 +4664,22 @@
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" s="12">
-        <v>250</v>
-      </c>
-      <c r="D107" s="12"/>
+        <v>270</v>
+      </c>
+      <c r="D107" s="12">
+        <v>200</v>
+      </c>
       <c r="E107" s="6" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="G107" s="13">
         <v>4</v>
@@ -4717,56 +4687,54 @@
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="12">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="D108" s="12">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G108" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C109" s="12">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="D109" s="12">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F109" s="1"/>
       <c r="G109" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C110" s="12">
         <v>150</v>
@@ -4775,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="13">
@@ -4784,63 +4752,63 @@
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C111" s="12">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="D111" s="12">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F111" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="G111" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C112" s="12">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="D112" s="12">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F112" s="1"/>
       <c r="G112" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C113" s="12">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D113" s="12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="13">
@@ -4849,115 +4817,114 @@
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" s="12">
+        <v>260</v>
+      </c>
+      <c r="D114" s="12">
         <v>250</v>
       </c>
-      <c r="D114" s="12">
-        <v>200</v>
-      </c>
       <c r="E114" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F114" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="G114" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
-        <v>313</v>
+      <c r="A115" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="12">
-        <v>260</v>
-      </c>
-      <c r="D115" s="12">
-        <v>250</v>
+        <v>193</v>
+      </c>
+      <c r="C115" s="4">
+        <v>322</v>
+      </c>
+      <c r="D115" s="4">
+        <v>270</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G115" s="13">
+        <v>130</v>
+      </c>
+      <c r="G115" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C116" s="4">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D116" s="4">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="15">
+        <v>137</v>
+      </c>
+      <c r="G116" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="4">
-        <v>310</v>
+        <v>103.9</v>
       </c>
       <c r="D117" s="4">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G117" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="4">
-        <v>103.9</v>
+        <v>160</v>
       </c>
       <c r="D118" s="4">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" s="13">
-        <v>4</v>
+        <v>190</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4965,7 +4932,7 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119" s="4">
         <v>160</v>
@@ -4982,62 +4949,65 @@
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="4">
-        <v>160</v>
-      </c>
-      <c r="D120" s="4">
-        <v>100</v>
+        <v>193</v>
+      </c>
+      <c r="C120" s="3">
+        <v>459.07</v>
+      </c>
+      <c r="D120" s="3">
+        <v>425</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G120">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="25">
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" t="s">
-        <v>194</v>
+        <v>6</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>361</v>
       </c>
       <c r="C121" s="3">
-        <v>459.07</v>
+        <v>419.19</v>
       </c>
       <c r="D121" s="3">
-        <v>425</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>146</v>
+        <v>235</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G121" s="25">
+      <c r="G121" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C122" s="3">
-        <v>419.19</v>
-      </c>
-      <c r="D122" s="3">
-        <v>235</v>
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" s="4">
+        <v>570</v>
+      </c>
+      <c r="D122" s="4">
+        <v>450</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>73</v>
@@ -5048,22 +5018,19 @@
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C123" s="4">
-        <v>570</v>
-      </c>
-      <c r="D123" s="4">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="G123" s="8">
         <v>2</v>
@@ -5071,19 +5038,19 @@
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C124" s="4">
-        <v>170</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="G124" s="8">
         <v>2</v>
@@ -5094,13 +5061,16 @@
         <v>296</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C125" s="4">
-        <v>185</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>150</v>
+        <v>298</v>
+      </c>
+      <c r="D125" s="4">
+        <v>180</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>75</v>
@@ -5111,19 +5081,19 @@
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="C126" s="4">
-        <v>298</v>
+        <v>194.36</v>
       </c>
       <c r="D126" s="4">
-        <v>180</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>76</v>
@@ -5134,22 +5104,22 @@
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>359</v>
       </c>
       <c r="C127" s="4">
-        <v>194.36</v>
+        <v>439</v>
       </c>
       <c r="D127" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G127" s="8">
         <v>2</v>
@@ -5157,16 +5127,13 @@
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>359</v>
+        <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="C128" s="4">
-        <v>439</v>
-      </c>
-      <c r="D128" s="4">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>175</v>
@@ -5180,19 +5147,22 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C129" s="4">
-        <v>183.99</v>
+        <v>230</v>
+      </c>
+      <c r="D129" s="4">
+        <v>210</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="G129" s="8">
         <v>2</v>
@@ -5200,22 +5170,22 @@
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130" s="4">
-        <v>230</v>
+        <v>189.99</v>
       </c>
       <c r="D130" s="4">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="G130" s="8">
         <v>2</v>
@@ -5223,22 +5193,19 @@
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C131" s="4">
-        <v>189.99</v>
-      </c>
-      <c r="D131" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G131" s="8">
         <v>2</v>
@@ -5249,16 +5216,16 @@
         <v>25</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C132" s="4">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>179</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="G132" s="8">
         <v>2</v>
@@ -5266,13 +5233,13 @@
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C133" s="4">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>180</v>
@@ -5286,13 +5253,13 @@
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C134" s="4">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>181</v>
@@ -5309,10 +5276,10 @@
         <v>27</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C135" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>182</v>
@@ -5326,19 +5293,22 @@
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>28</v>
+        <v>303</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C136" s="4">
-        <v>200</v>
+        <v>130</v>
+      </c>
+      <c r="D136" s="4">
+        <v>90</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="G136" s="8">
         <v>2</v>
@@ -5346,45 +5316,45 @@
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" s="4">
-        <v>130</v>
+        <v>389</v>
       </c>
       <c r="D137" s="4">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G137" s="8">
-        <v>2</v>
+        <v>292</v>
+      </c>
+      <c r="G137" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C138" s="4">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="D138" s="4">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G138" s="7">
         <v>1</v>
@@ -5392,76 +5362,76 @@
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" s="4">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D139" s="4">
         <v>100</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G139" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C140" s="4">
-        <v>135</v>
-      </c>
-      <c r="D140" s="4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G140" s="7">
+        <v>284</v>
+      </c>
+      <c r="G140" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" s="4">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="D141" s="4">
+        <v>100</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G141" s="26">
+        <v>281</v>
+      </c>
+      <c r="G141" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="C142" s="4">
         <v>135</v>
@@ -5470,10 +5440,10 @@
         <v>100</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -5481,22 +5451,19 @@
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C143" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D143" s="4">
-        <v>100</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>281</v>
+        <v>50</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="G143" s="7">
         <v>1</v>
@@ -5504,19 +5471,19 @@
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="C144" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D144" s="4">
-        <v>50</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="G144" s="7">
         <v>1</v>
@@ -5524,19 +5491,19 @@
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C145" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D145" s="4">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G145" s="7">
         <v>1</v>
@@ -5544,19 +5511,22 @@
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C146" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D146" s="4">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="G146" s="7">
         <v>1</v>
@@ -5564,22 +5534,22 @@
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B147" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C147" s="4">
-        <v>160</v>
+        <v>569</v>
       </c>
       <c r="D147" s="4">
-        <v>130</v>
+        <v>390</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G147" s="7">
         <v>1</v>
@@ -5587,22 +5557,22 @@
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="C148" s="4">
-        <v>569</v>
+        <v>298</v>
       </c>
       <c r="D148" s="4">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G148" s="7">
         <v>1</v>
@@ -5610,22 +5580,22 @@
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="C149" s="4">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D149" s="4">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
@@ -5633,22 +5603,22 @@
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C150" s="4">
-        <v>300</v>
+        <v>498</v>
       </c>
       <c r="D150" s="4">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
@@ -5656,22 +5626,22 @@
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C151" s="4">
-        <v>498</v>
+        <v>179</v>
       </c>
       <c r="D151" s="4">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
@@ -5679,22 +5649,22 @@
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="B152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C152" s="4">
-        <v>179</v>
+        <v>719</v>
       </c>
       <c r="D152" s="4">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
@@ -5702,22 +5672,22 @@
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C153" s="4">
-        <v>719</v>
+        <v>348</v>
       </c>
       <c r="D153" s="4">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
@@ -5725,22 +5695,22 @@
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C154" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D154" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -5748,22 +5718,22 @@
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>247</v>
+        <v>572</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C155" s="4">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D155" s="4">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
@@ -5771,22 +5741,19 @@
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>585</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C156" s="4">
-        <v>353</v>
-      </c>
-      <c r="D156" s="4">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G156" s="7">
         <v>1</v>
@@ -5794,1093 +5761,1010 @@
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>240</v>
+        <v>579</v>
       </c>
       <c r="B157" t="s">
-        <v>194</v>
+        <v>582</v>
       </c>
       <c r="C157" s="4">
-        <v>500</v>
+        <v>1100</v>
+      </c>
+      <c r="D157" s="4">
+        <v>900</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>242</v>
+        <v>581</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G157" s="7">
-        <v>1</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="G157" s="21"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B158" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C158" s="4">
-        <v>1100</v>
-      </c>
-      <c r="D158" s="4">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="G158" s="21"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="B159" t="s">
-        <v>589</v>
+        <v>193</v>
       </c>
       <c r="C159" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G159" s="21"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B160" t="s">
-        <v>194</v>
+        <v>570</v>
       </c>
       <c r="C160" s="4">
-        <v>200</v>
+        <v>298</v>
+      </c>
+      <c r="D160" s="4">
+        <v>250</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="G160" s="21"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B161" t="s">
-        <v>583</v>
+        <v>193</v>
       </c>
       <c r="C161" s="4">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="D161" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="G161" s="21"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B162" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" s="4">
-        <v>350</v>
+        <v>1250</v>
       </c>
       <c r="D162" s="4">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="G162" s="21"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C163" s="4">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="D163" s="4">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="G163" s="21"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B164" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C164" s="4">
         <v>300</v>
       </c>
       <c r="D164" s="4">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="G164" s="21"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165" s="4">
-        <v>300</v>
-      </c>
-      <c r="D165" s="4">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G165" s="21"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>548</v>
       </c>
       <c r="C166" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="G166" s="21"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B167" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C167" s="4">
-        <v>300</v>
+        <v>450</v>
+      </c>
+      <c r="D167" s="4">
+        <v>400</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G167" s="21"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="B168" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="C168" s="4">
-        <v>450</v>
+        <v>922</v>
       </c>
       <c r="D168" s="4">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="G168" s="21"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B169" t="s">
+        <v>193</v>
+      </c>
+      <c r="C169" s="4">
+        <v>750</v>
+      </c>
+      <c r="D169" s="4">
+        <v>600</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B169" t="s">
-        <v>543</v>
-      </c>
-      <c r="C169" s="4">
-        <v>922</v>
-      </c>
-      <c r="D169" s="4">
-        <v>800</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="G169" s="21"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C170" s="4">
-        <v>750</v>
-      </c>
-      <c r="D170" s="4">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G170" s="21"/>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" s="4">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="G171" s="21"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="B172" t="s">
-        <v>194</v>
+        <v>531</v>
       </c>
       <c r="C172" s="4">
-        <v>330</v>
+        <v>450</v>
+      </c>
+      <c r="D172" s="4">
+        <v>400</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="G172" s="21"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B173" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C173" s="4">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="D173" s="4">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="G173" s="21"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B174" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C174" s="4">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="D174" s="4">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G174" s="21"/>
+        <v>519</v>
+      </c>
+      <c r="G174" s="23"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B175" t="s">
-        <v>534</v>
+        <v>193</v>
       </c>
       <c r="C175" s="4">
-        <v>690</v>
-      </c>
-      <c r="D175" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="G175" s="23"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C176" s="4">
-        <v>300</v>
+        <v>252</v>
+      </c>
+      <c r="D176" s="4">
+        <v>200</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="G176" s="23"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>524</v>
+        <v>412</v>
       </c>
       <c r="B177" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="C177" s="4">
-        <v>252</v>
+        <v>4500</v>
       </c>
       <c r="D177" s="4">
-        <v>200</v>
+        <v>3550</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G177" s="23"/>
+        <v>410</v>
+      </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B178" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C178" s="4">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="D178" s="4">
-        <v>3550</v>
+        <v>4700</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="B179" t="s">
-        <v>415</v>
+        <v>193</v>
       </c>
       <c r="C179" s="4">
-        <v>5500</v>
-      </c>
-      <c r="D179" s="4">
-        <v>4700</v>
+        <v>300</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180" s="4">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="D180" s="4">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B181" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C182" s="4">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="D182" s="4">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B183" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="4">
+        <v>550</v>
+      </c>
+      <c r="D183" s="4">
+        <v>350</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B183" t="s">
-        <v>194</v>
-      </c>
-      <c r="C183" s="4">
-        <v>200</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="B184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C184" s="4">
-        <v>250</v>
+        <v>660</v>
       </c>
       <c r="D184" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="4">
-        <v>550</v>
+        <v>690</v>
       </c>
       <c r="D185" s="4">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
+      </c>
+      <c r="B186" t="s">
+        <v>390</v>
       </c>
       <c r="C186" s="4">
-        <v>398</v>
+        <v>637</v>
       </c>
       <c r="D186" s="4">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C187" s="4">
-        <v>220</v>
+        <v>1775</v>
       </c>
       <c r="D187" s="4">
-        <v>175</v>
+        <v>1200</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C188" s="4">
-        <v>660</v>
+        <v>499</v>
       </c>
       <c r="D188" s="4">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="C189" s="4">
-        <v>690</v>
+        <v>2300</v>
       </c>
       <c r="D189" s="4">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B190" t="s">
-        <v>397</v>
-      </c>
-      <c r="C190" s="4">
-        <v>637</v>
-      </c>
-      <c r="D190" s="4">
-        <v>300</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B191" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" s="4">
-        <v>1775</v>
-      </c>
-      <c r="D191" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B192" t="s">
-        <v>194</v>
-      </c>
-      <c r="C192" s="4">
-        <v>499</v>
-      </c>
-      <c r="D192" s="4">
-        <v>350</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B193" t="s">
-        <v>424</v>
-      </c>
-      <c r="C193" s="4">
-        <v>2300</v>
-      </c>
-      <c r="D193" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F193" s="1"/>
-      <c r="G193" s="9"/>
+        <v>306</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F71" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F118" r:id="rId1"/>
-    <hyperlink ref="F28" r:id="rId2"/>
-    <hyperlink ref="F70" r:id="rId3"/>
-    <hyperlink ref="F27" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F69" r:id="rId4"/>
-    <hyperlink ref="F117" r:id="rId5"/>
-    <hyperlink ref="F26" r:id="rId6"/>
-    <hyperlink ref="F68" r:id="rId7"/>
-    <hyperlink ref="F67" r:id="rId8"/>
-    <hyperlink ref="F66" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F20" r:id="rId11"/>
-    <hyperlink ref="F23" r:id="rId12"/>
-    <hyperlink ref="F22" r:id="rId13"/>
-    <hyperlink ref="F116" r:id="rId14"/>
-    <hyperlink ref="F65" r:id="rId15"/>
-    <hyperlink ref="F19" r:id="rId16"/>
-    <hyperlink ref="F62" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="F61" r:id="rId17"/>
-    <hyperlink ref="F60" r:id="rId18"/>
-    <hyperlink ref="F57" r:id="rId19"/>
-    <hyperlink ref="F56" r:id="rId20"/>
-    <hyperlink ref="F55" r:id="rId21"/>
-    <hyperlink ref="F54" r:id="rId22"/>
-    <hyperlink ref="F51" r:id="rId23"/>
-    <hyperlink ref="F49" r:id="rId24"/>
-    <hyperlink ref="F48" r:id="rId25"/>
-    <hyperlink ref="F47" r:id="rId26"/>
-    <hyperlink ref="F46" r:id="rId27"/>
-    <hyperlink ref="F45" r:id="rId28"/>
-    <hyperlink ref="F44" r:id="rId29"/>
-    <hyperlink ref="F43" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F42" r:id="rId30"/>
-    <hyperlink ref="F41" r:id="rId31"/>
-    <hyperlink ref="F40" r:id="rId32"/>
-    <hyperlink ref="F39" r:id="rId33"/>
-    <hyperlink ref="F37" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F36" r:id="rId34"/>
-    <hyperlink ref="F136" r:id="rId35"/>
-    <hyperlink ref="F135" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F134" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F129" r:id="rId36"/>
-    <hyperlink ref="F131" r:id="rId37"/>
-    <hyperlink ref="F133" r:id="rId38"/>
-    <hyperlink ref="F128" r:id="rId39"/>
-    <hyperlink ref="F18" r:id="rId40"/>
-    <hyperlink ref="F35" r:id="rId41"/>
-    <hyperlink ref="F34" r:id="rId42"/>
-    <hyperlink ref="F17" r:id="rId43"/>
-    <hyperlink ref="F15" r:id="rId44"/>
-    <hyperlink ref="F14" r:id="rId45"/>
-    <hyperlink ref="F30" r:id="rId46"/>
-    <hyperlink ref="F13" r:id="rId47"/>
-    <hyperlink ref="F12" r:id="rId48"/>
-    <hyperlink ref="F11" r:id="rId49"/>
-    <hyperlink ref="F8" r:id="rId50"/>
-    <hyperlink ref="F10" r:id="rId51"/>
-    <hyperlink ref="F7" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F6" r:id="rId52"/>
-    <hyperlink ref="F5" r:id="rId53"/>
-    <hyperlink ref="F32" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F33" r:id="rId54"/>
-    <hyperlink ref="F3" r:id="rId55"/>
-    <hyperlink ref="F4" r:id="rId56"/>
-    <hyperlink ref="F29" r:id="rId57"/>
-    <hyperlink ref="F126" r:id="rId58"/>
-    <hyperlink ref="F125" r:id="rId59"/>
-    <hyperlink ref="F127" r:id="rId60"/>
-    <hyperlink ref="F124" r:id="rId61"/>
-    <hyperlink ref="F123" r:id="rId62"/>
-    <hyperlink ref="F122" r:id="rId63"/>
-    <hyperlink ref="F121" r:id="rId64"/>
-    <hyperlink ref="E121" r:id="rId65"/>
-    <hyperlink ref="E125" r:id="rId66"/>
-    <hyperlink ref="E127" r:id="rId67"/>
-    <hyperlink ref="E29" r:id="rId68"/>
-    <hyperlink ref="E3" r:id="rId69"/>
-    <hyperlink ref="E4" r:id="rId70"/>
-    <hyperlink ref="E32" r:id="rId71"/>
-    <hyperlink ref="E33" r:id="rId72"/>
-    <hyperlink ref="E5" r:id="rId73"/>
-    <hyperlink ref="E6" r:id="rId74"/>
-    <hyperlink ref="E8" r:id="rId75"/>
-    <hyperlink ref="E7" r:id="rId76"/>
-    <hyperlink ref="E9" r:id="rId77"/>
-    <hyperlink ref="E10" r:id="rId78"/>
-    <hyperlink ref="E11" r:id="rId79"/>
-    <hyperlink ref="E12" r:id="rId80"/>
-    <hyperlink ref="E13" r:id="rId81"/>
-    <hyperlink ref="E30" r:id="rId82"/>
-    <hyperlink ref="E14" r:id="rId83"/>
-    <hyperlink ref="E15" r:id="rId84"/>
-    <hyperlink ref="E17" r:id="rId85"/>
-    <hyperlink ref="E34" r:id="rId86"/>
-    <hyperlink ref="E35" r:id="rId87"/>
-    <hyperlink ref="E18" r:id="rId88"/>
-    <hyperlink ref="E128" r:id="rId89"/>
-    <hyperlink ref="E129" r:id="rId90"/>
-    <hyperlink ref="E131" r:id="rId91"/>
-    <hyperlink ref="E132" r:id="rId92"/>
-    <hyperlink ref="E133" r:id="rId93"/>
-    <hyperlink ref="E134" r:id="rId94"/>
-    <hyperlink ref="E135" r:id="rId95"/>
-    <hyperlink ref="E136" r:id="rId96"/>
-    <hyperlink ref="E36" r:id="rId97"/>
-    <hyperlink ref="E37" r:id="rId98"/>
-    <hyperlink ref="E38" r:id="rId99"/>
-    <hyperlink ref="F38" r:id="rId100"/>
-    <hyperlink ref="E39" r:id="rId101"/>
-    <hyperlink ref="E40" r:id="rId102"/>
-    <hyperlink ref="E41" r:id="rId103"/>
-    <hyperlink ref="E119" r:id="rId104"/>
-    <hyperlink ref="E120" r:id="rId105"/>
-    <hyperlink ref="E42" r:id="rId106"/>
-    <hyperlink ref="E43" r:id="rId107"/>
-    <hyperlink ref="E44" r:id="rId108"/>
-    <hyperlink ref="E45" r:id="rId109"/>
-    <hyperlink ref="E46" r:id="rId110"/>
-    <hyperlink ref="E47" r:id="rId111"/>
-    <hyperlink ref="E48" r:id="rId112"/>
-    <hyperlink ref="E49" r:id="rId113"/>
-    <hyperlink ref="E50" r:id="rId114"/>
-    <hyperlink ref="E54" r:id="rId115"/>
-    <hyperlink ref="E53" r:id="rId116"/>
-    <hyperlink ref="E52" r:id="rId117"/>
-    <hyperlink ref="E55" r:id="rId118"/>
-    <hyperlink ref="E56" r:id="rId119"/>
-    <hyperlink ref="E57" r:id="rId120"/>
-    <hyperlink ref="E58" r:id="rId121"/>
-    <hyperlink ref="E59" r:id="rId122"/>
-    <hyperlink ref="E60" r:id="rId123"/>
-    <hyperlink ref="E61" r:id="rId124"/>
-    <hyperlink ref="E62" r:id="rId125"/>
-    <hyperlink ref="E19" r:id="rId126"/>
-    <hyperlink ref="E65" r:id="rId127"/>
-    <hyperlink ref="E20" r:id="rId128"/>
-    <hyperlink ref="E21" r:id="rId129"/>
-    <hyperlink ref="E116" r:id="rId130"/>
-    <hyperlink ref="E22" r:id="rId131"/>
-    <hyperlink ref="E23" r:id="rId132"/>
-    <hyperlink ref="E66" r:id="rId133"/>
-    <hyperlink ref="E51" r:id="rId134"/>
-    <hyperlink ref="E67" r:id="rId135"/>
-    <hyperlink ref="E68" r:id="rId136"/>
-    <hyperlink ref="E26" r:id="rId137"/>
-    <hyperlink ref="E117" r:id="rId138"/>
-    <hyperlink ref="E69" r:id="rId139"/>
-    <hyperlink ref="E27" r:id="rId140"/>
-    <hyperlink ref="E28" r:id="rId141"/>
-    <hyperlink ref="E70" r:id="rId142"/>
-    <hyperlink ref="E118" r:id="rId143"/>
-    <hyperlink ref="E71" r:id="rId144"/>
-    <hyperlink ref="E24" r:id="rId145"/>
-    <hyperlink ref="E25" r:id="rId146"/>
-    <hyperlink ref="E63" r:id="rId147"/>
-    <hyperlink ref="E64" r:id="rId148"/>
-    <hyperlink ref="F157" r:id="rId149"/>
-    <hyperlink ref="E157" r:id="rId150"/>
-    <hyperlink ref="F156" r:id="rId151"/>
-    <hyperlink ref="E156" r:id="rId152"/>
-    <hyperlink ref="F155" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="F154" r:id="rId155"/>
-    <hyperlink ref="E154" r:id="rId156"/>
-    <hyperlink ref="F153" r:id="rId157"/>
-    <hyperlink ref="E153" r:id="rId158"/>
-    <hyperlink ref="F152" r:id="rId159"/>
-    <hyperlink ref="E152" r:id="rId160"/>
-    <hyperlink ref="F151" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E151" r:id="rId161"/>
-    <hyperlink ref="F150" r:id="rId162"/>
-    <hyperlink ref="E150" r:id="rId163"/>
-    <hyperlink ref="E149" r:id="rId164"/>
-    <hyperlink ref="F149" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F148" r:id="rId166"/>
-    <hyperlink ref="E148" r:id="rId167"/>
-    <hyperlink ref="F147" r:id="rId168"/>
-    <hyperlink ref="E147" r:id="rId169"/>
-    <hyperlink ref="E146" r:id="rId170"/>
-    <hyperlink ref="E145" r:id="rId171"/>
-    <hyperlink ref="E143" r:id="rId172"/>
-    <hyperlink ref="F143" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F142" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E142" r:id="rId174"/>
-    <hyperlink ref="F141" r:id="rId175"/>
-    <hyperlink ref="E141" r:id="rId176"/>
-    <hyperlink ref="F140" r:id="rId177"/>
-    <hyperlink ref="E140" r:id="rId178"/>
-    <hyperlink ref="E139" r:id="rId179"/>
-    <hyperlink ref="F139" r:id="rId180"/>
-    <hyperlink ref="E138" r:id="rId181"/>
-    <hyperlink ref="F138" r:id="rId182"/>
-    <hyperlink ref="E130" r:id="rId183"/>
-    <hyperlink ref="F130" r:id="rId184"/>
-    <hyperlink ref="F137" r:id="rId185"/>
-    <hyperlink ref="E137" r:id="rId186"/>
-    <hyperlink ref="E193" r:id="rId187"/>
-    <hyperlink ref="F97" r:id="rId188"/>
-    <hyperlink ref="E97" r:id="rId189"/>
-    <hyperlink ref="F115" r:id="rId190"/>
-    <hyperlink ref="E115" r:id="rId191"/>
-    <hyperlink ref="F105" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E105" r:id="rId193"/>
-    <hyperlink ref="F108" r:id="rId194"/>
-    <hyperlink ref="E108" r:id="rId195"/>
-    <hyperlink ref="F109" r:id="rId196"/>
-    <hyperlink ref="E109" r:id="rId197"/>
-    <hyperlink ref="E110" r:id="rId198"/>
-    <hyperlink ref="E111" r:id="rId199"/>
-    <hyperlink ref="E112" r:id="rId200"/>
-    <hyperlink ref="F112" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E114" r:id="rId202"/>
-    <hyperlink ref="E113" r:id="rId203"/>
-    <hyperlink ref="E106" r:id="rId204"/>
-    <hyperlink ref="F106" r:id="rId205"/>
-    <hyperlink ref="E107" r:id="rId206"/>
-    <hyperlink ref="F107" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F103" r:id="rId208"/>
-    <hyperlink ref="E103" r:id="rId209"/>
-    <hyperlink ref="E104" r:id="rId210"/>
-    <hyperlink ref="F104" r:id="rId211"/>
-    <hyperlink ref="F99" r:id="rId212"/>
-    <hyperlink ref="E99" r:id="rId213"/>
-    <hyperlink ref="E100" r:id="rId214"/>
-    <hyperlink ref="F100" r:id="rId215"/>
-    <hyperlink ref="F101" r:id="rId216"/>
-    <hyperlink ref="E101" r:id="rId217"/>
-    <hyperlink ref="F102" r:id="rId218"/>
-    <hyperlink ref="E102" r:id="rId219"/>
-    <hyperlink ref="F98" r:id="rId220"/>
-    <hyperlink ref="E98" r:id="rId221"/>
-    <hyperlink ref="E124" r:id="rId222"/>
-    <hyperlink ref="F180" r:id="rId223" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E180" r:id="rId224"/>
-    <hyperlink ref="F181" r:id="rId225"/>
-    <hyperlink ref="E181" r:id="rId226"/>
-    <hyperlink ref="F182" r:id="rId227" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E182" r:id="rId228"/>
-    <hyperlink ref="F183" r:id="rId229"/>
+    <hyperlink ref="F70" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F117" r:id="rId1"/>
+    <hyperlink ref="F27" r:id="rId2"/>
+    <hyperlink ref="F69" r:id="rId3"/>
+    <hyperlink ref="F26" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F68" r:id="rId4"/>
+    <hyperlink ref="F116" r:id="rId5"/>
+    <hyperlink ref="F25" r:id="rId6"/>
+    <hyperlink ref="F67" r:id="rId7"/>
+    <hyperlink ref="F66" r:id="rId8"/>
+    <hyperlink ref="F65" r:id="rId9"/>
+    <hyperlink ref="F20" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F22" r:id="rId12"/>
+    <hyperlink ref="F21" r:id="rId13"/>
+    <hyperlink ref="F115" r:id="rId14"/>
+    <hyperlink ref="F64" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F61" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="F60" r:id="rId17"/>
+    <hyperlink ref="F59" r:id="rId18"/>
+    <hyperlink ref="F55" r:id="rId19"/>
+    <hyperlink ref="F54" r:id="rId20"/>
+    <hyperlink ref="F53" r:id="rId21"/>
+    <hyperlink ref="F52" r:id="rId22"/>
+    <hyperlink ref="F49" r:id="rId23"/>
+    <hyperlink ref="F47" r:id="rId24"/>
+    <hyperlink ref="F46" r:id="rId25"/>
+    <hyperlink ref="F45" r:id="rId26"/>
+    <hyperlink ref="F44" r:id="rId27"/>
+    <hyperlink ref="F43" r:id="rId28"/>
+    <hyperlink ref="F42" r:id="rId29"/>
+    <hyperlink ref="F41" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F40" r:id="rId30"/>
+    <hyperlink ref="F39" r:id="rId31"/>
+    <hyperlink ref="F38" r:id="rId32"/>
+    <hyperlink ref="F37" r:id="rId33"/>
+    <hyperlink ref="F35" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F34" r:id="rId34"/>
+    <hyperlink ref="F135" r:id="rId35"/>
+    <hyperlink ref="F134" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F133" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F128" r:id="rId36"/>
+    <hyperlink ref="F130" r:id="rId37"/>
+    <hyperlink ref="F132" r:id="rId38"/>
+    <hyperlink ref="F127" r:id="rId39"/>
+    <hyperlink ref="F17" r:id="rId40"/>
+    <hyperlink ref="F33" r:id="rId41"/>
+    <hyperlink ref="F32" r:id="rId42"/>
+    <hyperlink ref="F16" r:id="rId43"/>
+    <hyperlink ref="F14" r:id="rId44"/>
+    <hyperlink ref="F13" r:id="rId45"/>
+    <hyperlink ref="F29" r:id="rId46"/>
+    <hyperlink ref="F12" r:id="rId47"/>
+    <hyperlink ref="F11" r:id="rId48"/>
+    <hyperlink ref="F10" r:id="rId49"/>
+    <hyperlink ref="F7" r:id="rId50"/>
+    <hyperlink ref="F9" r:id="rId51"/>
+    <hyperlink ref="F6" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F5" r:id="rId52"/>
+    <hyperlink ref="F4" r:id="rId53"/>
+    <hyperlink ref="F30" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F31" r:id="rId54"/>
+    <hyperlink ref="F2" r:id="rId55"/>
+    <hyperlink ref="F3" r:id="rId56"/>
+    <hyperlink ref="F28" r:id="rId57"/>
+    <hyperlink ref="F125" r:id="rId58"/>
+    <hyperlink ref="F124" r:id="rId59"/>
+    <hyperlink ref="F126" r:id="rId60"/>
+    <hyperlink ref="F123" r:id="rId61"/>
+    <hyperlink ref="F122" r:id="rId62"/>
+    <hyperlink ref="F121" r:id="rId63"/>
+    <hyperlink ref="F120" r:id="rId64"/>
+    <hyperlink ref="E120" r:id="rId65"/>
+    <hyperlink ref="E124" r:id="rId66"/>
+    <hyperlink ref="E126" r:id="rId67"/>
+    <hyperlink ref="E28" r:id="rId68"/>
+    <hyperlink ref="E2" r:id="rId69"/>
+    <hyperlink ref="E3" r:id="rId70"/>
+    <hyperlink ref="E30" r:id="rId71"/>
+    <hyperlink ref="E31" r:id="rId72"/>
+    <hyperlink ref="E4" r:id="rId73"/>
+    <hyperlink ref="E5" r:id="rId74"/>
+    <hyperlink ref="E7" r:id="rId75"/>
+    <hyperlink ref="E6" r:id="rId76"/>
+    <hyperlink ref="E8" r:id="rId77"/>
+    <hyperlink ref="E9" r:id="rId78"/>
+    <hyperlink ref="E10" r:id="rId79"/>
+    <hyperlink ref="E11" r:id="rId80"/>
+    <hyperlink ref="E12" r:id="rId81"/>
+    <hyperlink ref="E29" r:id="rId82"/>
+    <hyperlink ref="E13" r:id="rId83"/>
+    <hyperlink ref="E14" r:id="rId84"/>
+    <hyperlink ref="E16" r:id="rId85"/>
+    <hyperlink ref="E32" r:id="rId86"/>
+    <hyperlink ref="E33" r:id="rId87"/>
+    <hyperlink ref="E17" r:id="rId88"/>
+    <hyperlink ref="E127" r:id="rId89"/>
+    <hyperlink ref="E128" r:id="rId90"/>
+    <hyperlink ref="E130" r:id="rId91"/>
+    <hyperlink ref="E131" r:id="rId92"/>
+    <hyperlink ref="E132" r:id="rId93"/>
+    <hyperlink ref="E133" r:id="rId94"/>
+    <hyperlink ref="E134" r:id="rId95"/>
+    <hyperlink ref="E135" r:id="rId96"/>
+    <hyperlink ref="E34" r:id="rId97"/>
+    <hyperlink ref="E35" r:id="rId98"/>
+    <hyperlink ref="E36" r:id="rId99"/>
+    <hyperlink ref="F36" r:id="rId100"/>
+    <hyperlink ref="E37" r:id="rId101"/>
+    <hyperlink ref="E38" r:id="rId102"/>
+    <hyperlink ref="E39" r:id="rId103"/>
+    <hyperlink ref="E118" r:id="rId104"/>
+    <hyperlink ref="E119" r:id="rId105"/>
+    <hyperlink ref="E40" r:id="rId106"/>
+    <hyperlink ref="E41" r:id="rId107"/>
+    <hyperlink ref="E42" r:id="rId108"/>
+    <hyperlink ref="E43" r:id="rId109"/>
+    <hyperlink ref="E44" r:id="rId110"/>
+    <hyperlink ref="E45" r:id="rId111"/>
+    <hyperlink ref="E46" r:id="rId112"/>
+    <hyperlink ref="E47" r:id="rId113"/>
+    <hyperlink ref="E48" r:id="rId114"/>
+    <hyperlink ref="E52" r:id="rId115"/>
+    <hyperlink ref="E51" r:id="rId116"/>
+    <hyperlink ref="E50" r:id="rId117"/>
+    <hyperlink ref="E53" r:id="rId118"/>
+    <hyperlink ref="E54" r:id="rId119"/>
+    <hyperlink ref="E55" r:id="rId120"/>
+    <hyperlink ref="E57" r:id="rId121"/>
+    <hyperlink ref="E58" r:id="rId122"/>
+    <hyperlink ref="E59" r:id="rId123"/>
+    <hyperlink ref="E60" r:id="rId124"/>
+    <hyperlink ref="E61" r:id="rId125"/>
+    <hyperlink ref="E18" r:id="rId126"/>
+    <hyperlink ref="E64" r:id="rId127"/>
+    <hyperlink ref="E19" r:id="rId128"/>
+    <hyperlink ref="E20" r:id="rId129"/>
+    <hyperlink ref="E115" r:id="rId130"/>
+    <hyperlink ref="E21" r:id="rId131"/>
+    <hyperlink ref="E22" r:id="rId132"/>
+    <hyperlink ref="E65" r:id="rId133"/>
+    <hyperlink ref="E49" r:id="rId134"/>
+    <hyperlink ref="E66" r:id="rId135"/>
+    <hyperlink ref="E67" r:id="rId136"/>
+    <hyperlink ref="E25" r:id="rId137"/>
+    <hyperlink ref="E116" r:id="rId138"/>
+    <hyperlink ref="E68" r:id="rId139"/>
+    <hyperlink ref="E26" r:id="rId140"/>
+    <hyperlink ref="E27" r:id="rId141"/>
+    <hyperlink ref="E69" r:id="rId142"/>
+    <hyperlink ref="E117" r:id="rId143"/>
+    <hyperlink ref="E70" r:id="rId144"/>
+    <hyperlink ref="E23" r:id="rId145"/>
+    <hyperlink ref="E24" r:id="rId146"/>
+    <hyperlink ref="E62" r:id="rId147"/>
+    <hyperlink ref="E63" r:id="rId148"/>
+    <hyperlink ref="F156" r:id="rId149"/>
+    <hyperlink ref="E156" r:id="rId150"/>
+    <hyperlink ref="F155" r:id="rId151"/>
+    <hyperlink ref="E155" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="E154" r:id="rId154"/>
+    <hyperlink ref="F153" r:id="rId155"/>
+    <hyperlink ref="E153" r:id="rId156"/>
+    <hyperlink ref="F152" r:id="rId157"/>
+    <hyperlink ref="E152" r:id="rId158"/>
+    <hyperlink ref="F151" r:id="rId159"/>
+    <hyperlink ref="E151" r:id="rId160"/>
+    <hyperlink ref="F150" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
+    <hyperlink ref="E150" r:id="rId161"/>
+    <hyperlink ref="F149" r:id="rId162"/>
+    <hyperlink ref="E149" r:id="rId163"/>
+    <hyperlink ref="E148" r:id="rId164"/>
+    <hyperlink ref="F148" r:id="rId165" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F147" r:id="rId166"/>
+    <hyperlink ref="E147" r:id="rId167"/>
+    <hyperlink ref="F146" r:id="rId168"/>
+    <hyperlink ref="E146" r:id="rId169"/>
+    <hyperlink ref="E145" r:id="rId170"/>
+    <hyperlink ref="E144" r:id="rId171"/>
+    <hyperlink ref="E142" r:id="rId172"/>
+    <hyperlink ref="F142" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
+    <hyperlink ref="F141" r:id="rId173" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E141" r:id="rId174"/>
+    <hyperlink ref="F140" r:id="rId175"/>
+    <hyperlink ref="E140" r:id="rId176"/>
+    <hyperlink ref="F139" r:id="rId177"/>
+    <hyperlink ref="E139" r:id="rId178"/>
+    <hyperlink ref="E138" r:id="rId179"/>
+    <hyperlink ref="F138" r:id="rId180"/>
+    <hyperlink ref="E137" r:id="rId181"/>
+    <hyperlink ref="F137" r:id="rId182"/>
+    <hyperlink ref="E129" r:id="rId183"/>
+    <hyperlink ref="F129" r:id="rId184"/>
+    <hyperlink ref="F136" r:id="rId185"/>
+    <hyperlink ref="E136" r:id="rId186"/>
+    <hyperlink ref="E189" r:id="rId187"/>
+    <hyperlink ref="F96" r:id="rId188"/>
+    <hyperlink ref="E96" r:id="rId189"/>
+    <hyperlink ref="F114" r:id="rId190"/>
+    <hyperlink ref="E114" r:id="rId191"/>
+    <hyperlink ref="F104" r:id="rId192" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E104" r:id="rId193"/>
+    <hyperlink ref="F107" r:id="rId194"/>
+    <hyperlink ref="E107" r:id="rId195"/>
+    <hyperlink ref="F108" r:id="rId196"/>
+    <hyperlink ref="E108" r:id="rId197"/>
+    <hyperlink ref="E109" r:id="rId198"/>
+    <hyperlink ref="E110" r:id="rId199"/>
+    <hyperlink ref="E111" r:id="rId200"/>
+    <hyperlink ref="F111" r:id="rId201" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E113" r:id="rId202"/>
+    <hyperlink ref="E112" r:id="rId203"/>
+    <hyperlink ref="E105" r:id="rId204"/>
+    <hyperlink ref="F105" r:id="rId205"/>
+    <hyperlink ref="E106" r:id="rId206"/>
+    <hyperlink ref="F106" r:id="rId207" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F102" r:id="rId208"/>
+    <hyperlink ref="E102" r:id="rId209"/>
+    <hyperlink ref="E103" r:id="rId210"/>
+    <hyperlink ref="F103" r:id="rId211"/>
+    <hyperlink ref="F98" r:id="rId212"/>
+    <hyperlink ref="E98" r:id="rId213"/>
+    <hyperlink ref="E99" r:id="rId214"/>
+    <hyperlink ref="F99" r:id="rId215"/>
+    <hyperlink ref="F100" r:id="rId216"/>
+    <hyperlink ref="E100" r:id="rId217"/>
+    <hyperlink ref="F101" r:id="rId218"/>
+    <hyperlink ref="E101" r:id="rId219"/>
+    <hyperlink ref="F97" r:id="rId220"/>
+    <hyperlink ref="E97" r:id="rId221"/>
+    <hyperlink ref="E123" r:id="rId222"/>
+    <hyperlink ref="F179" r:id="rId223"/>
+    <hyperlink ref="E179" r:id="rId224"/>
+    <hyperlink ref="F180" r:id="rId225" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E180" r:id="rId226"/>
+    <hyperlink ref="F181" r:id="rId227"/>
+    <hyperlink ref="E181" r:id="rId228"/>
+    <hyperlink ref="F183" r:id="rId229" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E183" r:id="rId230"/>
-    <hyperlink ref="F185" r:id="rId231" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E185" r:id="rId232"/>
-    <hyperlink ref="F187" r:id="rId233"/>
-    <hyperlink ref="E187" r:id="rId234"/>
-    <hyperlink ref="F188" r:id="rId235"/>
-    <hyperlink ref="E188" r:id="rId236"/>
-    <hyperlink ref="F189" r:id="rId237"/>
-    <hyperlink ref="E189" r:id="rId238"/>
-    <hyperlink ref="F190" r:id="rId239"/>
-    <hyperlink ref="E190" r:id="rId240"/>
-    <hyperlink ref="F191" r:id="rId241"/>
-    <hyperlink ref="E191" r:id="rId242"/>
-    <hyperlink ref="F192" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E192" r:id="rId243"/>
-    <hyperlink ref="F184" r:id="rId244"/>
-    <hyperlink ref="F186" r:id="rId245"/>
-    <hyperlink ref="E186" r:id="rId246"/>
-    <hyperlink ref="E184" r:id="rId247"/>
-    <hyperlink ref="F94" r:id="rId248"/>
-    <hyperlink ref="E94" r:id="rId249"/>
-    <hyperlink ref="F179" r:id="rId250" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E179" r:id="rId251"/>
-    <hyperlink ref="F93" r:id="rId252"/>
-    <hyperlink ref="E93" r:id="rId253"/>
-    <hyperlink ref="F178" r:id="rId254"/>
-    <hyperlink ref="E178" r:id="rId255"/>
-    <hyperlink ref="F76" r:id="rId256"/>
-    <hyperlink ref="E76" r:id="rId257"/>
-    <hyperlink ref="E77" r:id="rId258"/>
-    <hyperlink ref="F77" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F78" r:id="rId260"/>
-    <hyperlink ref="E78" r:id="rId261"/>
-    <hyperlink ref="E80" r:id="rId262"/>
-    <hyperlink ref="F80" r:id="rId263" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E81" r:id="rId264"/>
-    <hyperlink ref="F81" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E82" r:id="rId265"/>
-    <hyperlink ref="F82" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F83" r:id="rId267"/>
-    <hyperlink ref="E83" r:id="rId268"/>
-    <hyperlink ref="F84" r:id="rId269"/>
-    <hyperlink ref="E84" r:id="rId270"/>
-    <hyperlink ref="E85" r:id="rId271"/>
-    <hyperlink ref="F85" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E86" r:id="rId273"/>
-    <hyperlink ref="E87" r:id="rId274"/>
-    <hyperlink ref="F87" r:id="rId275"/>
-    <hyperlink ref="F88" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E88" r:id="rId276"/>
-    <hyperlink ref="E89" r:id="rId277"/>
-    <hyperlink ref="F89" r:id="rId278" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F90" r:id="rId279" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E90" r:id="rId280"/>
-    <hyperlink ref="F91" r:id="rId281" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E91" r:id="rId282"/>
-    <hyperlink ref="F92" r:id="rId283"/>
-    <hyperlink ref="E92" r:id="rId284"/>
-    <hyperlink ref="F75" r:id="rId285"/>
-    <hyperlink ref="E75" r:id="rId286"/>
-    <hyperlink ref="F79" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E79" r:id="rId287"/>
-    <hyperlink ref="F72" r:id="rId288"/>
-    <hyperlink ref="E72" r:id="rId289"/>
-    <hyperlink ref="F73" r:id="rId290"/>
-    <hyperlink ref="E73" r:id="rId291"/>
-    <hyperlink ref="F74" r:id="rId292"/>
-    <hyperlink ref="E74" r:id="rId293"/>
-    <hyperlink ref="F96" r:id="rId294"/>
-    <hyperlink ref="E96" r:id="rId295"/>
-    <hyperlink ref="F95" r:id="rId296" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E95" r:id="rId297"/>
-    <hyperlink ref="E2" r:id="rId298"/>
-    <hyperlink ref="E16" r:id="rId299"/>
-    <hyperlink ref="F177" r:id="rId300"/>
-    <hyperlink ref="E177" r:id="rId301"/>
-    <hyperlink ref="F176" r:id="rId302"/>
-    <hyperlink ref="E176" r:id="rId303"/>
-    <hyperlink ref="F175" r:id="rId304"/>
-    <hyperlink ref="E175" r:id="rId305"/>
-    <hyperlink ref="F174" r:id="rId306"/>
-    <hyperlink ref="E174" r:id="rId307"/>
-    <hyperlink ref="F173" r:id="rId308"/>
-    <hyperlink ref="E173" r:id="rId309"/>
-    <hyperlink ref="F169" r:id="rId310"/>
-    <hyperlink ref="E169" r:id="rId311"/>
-    <hyperlink ref="F171" r:id="rId312"/>
-    <hyperlink ref="E171" r:id="rId313"/>
-    <hyperlink ref="F172" r:id="rId314"/>
-    <hyperlink ref="E172" r:id="rId315"/>
-    <hyperlink ref="F170" r:id="rId316"/>
-    <hyperlink ref="E170" r:id="rId317"/>
-    <hyperlink ref="E168" r:id="rId318"/>
-    <hyperlink ref="F168" r:id="rId319"/>
-    <hyperlink ref="F167"/>
-    <hyperlink ref="E167" r:id="rId320"/>
-    <hyperlink ref="F166" r:id="rId321"/>
-    <hyperlink ref="E166" r:id="rId322"/>
-    <hyperlink ref="F165" r:id="rId323"/>
-    <hyperlink ref="E165" r:id="rId324"/>
-    <hyperlink ref="F164" r:id="rId325"/>
-    <hyperlink ref="E164" r:id="rId326"/>
-    <hyperlink ref="F163" r:id="rId327"/>
-    <hyperlink ref="E163" r:id="rId328"/>
-    <hyperlink ref="F162" r:id="rId329"/>
-    <hyperlink ref="E162" r:id="rId330"/>
-    <hyperlink ref="E161" r:id="rId331"/>
-    <hyperlink ref="F161" r:id="rId332" location="&amp;gid=1&amp;pid=4"/>
-    <hyperlink ref="F160" r:id="rId333"/>
-    <hyperlink ref="E160" r:id="rId334"/>
-    <hyperlink ref="F159" r:id="rId335"/>
-    <hyperlink ref="E159" r:id="rId336"/>
-    <hyperlink ref="F158" r:id="rId337"/>
+    <hyperlink ref="F184" r:id="rId231"/>
+    <hyperlink ref="E184" r:id="rId232"/>
+    <hyperlink ref="F185" r:id="rId233"/>
+    <hyperlink ref="E185" r:id="rId234"/>
+    <hyperlink ref="F186" r:id="rId235"/>
+    <hyperlink ref="E186" r:id="rId236"/>
+    <hyperlink ref="F187" r:id="rId237"/>
+    <hyperlink ref="E187" r:id="rId238"/>
+    <hyperlink ref="F188" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E188" r:id="rId239"/>
+    <hyperlink ref="F182" r:id="rId240"/>
+    <hyperlink ref="E182" r:id="rId241"/>
+    <hyperlink ref="F93" r:id="rId242"/>
+    <hyperlink ref="E93" r:id="rId243"/>
+    <hyperlink ref="F178" r:id="rId244" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E178" r:id="rId245"/>
+    <hyperlink ref="F92" r:id="rId246"/>
+    <hyperlink ref="E92" r:id="rId247"/>
+    <hyperlink ref="F177" r:id="rId248"/>
+    <hyperlink ref="E177" r:id="rId249"/>
+    <hyperlink ref="F75" r:id="rId250"/>
+    <hyperlink ref="E75" r:id="rId251"/>
+    <hyperlink ref="E76" r:id="rId252"/>
+    <hyperlink ref="F76" r:id="rId253" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F77" r:id="rId254"/>
+    <hyperlink ref="E77" r:id="rId255"/>
+    <hyperlink ref="E79" r:id="rId256"/>
+    <hyperlink ref="F79" r:id="rId257" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E80" r:id="rId258"/>
+    <hyperlink ref="F80" display="https://www.mercadolibre.com.mx/kuiiyer-auriculares-bluetooth-auriculares-inalambricos-conexion-ultrarrapida-y-estable-a-10-metros-cancelacion-de-ruido-adaptativa-controladores-de-40-mm-65-horas-de-reproduccion-negro/p/MLM43864155?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E81" r:id="rId259"/>
+    <hyperlink ref="F81" r:id="rId260" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F82" r:id="rId261"/>
+    <hyperlink ref="E82" r:id="rId262"/>
+    <hyperlink ref="F83" r:id="rId263"/>
+    <hyperlink ref="E83" r:id="rId264"/>
+    <hyperlink ref="E84" r:id="rId265"/>
+    <hyperlink ref="F84" r:id="rId266" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E85" r:id="rId267"/>
+    <hyperlink ref="E86" r:id="rId268"/>
+    <hyperlink ref="F86" r:id="rId269"/>
+    <hyperlink ref="F87" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E87" r:id="rId270"/>
+    <hyperlink ref="E88" r:id="rId271"/>
+    <hyperlink ref="F88" r:id="rId272" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F89" r:id="rId273" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E89" r:id="rId274"/>
+    <hyperlink ref="F90" r:id="rId275" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E90" r:id="rId276"/>
+    <hyperlink ref="F91" r:id="rId277"/>
+    <hyperlink ref="E91" r:id="rId278"/>
+    <hyperlink ref="F74" r:id="rId279"/>
+    <hyperlink ref="E74" r:id="rId280"/>
+    <hyperlink ref="F78" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E78" r:id="rId281"/>
+    <hyperlink ref="F71" r:id="rId282"/>
+    <hyperlink ref="E71" r:id="rId283"/>
+    <hyperlink ref="F72" r:id="rId284"/>
+    <hyperlink ref="E72" r:id="rId285"/>
+    <hyperlink ref="F73" r:id="rId286"/>
+    <hyperlink ref="E73" r:id="rId287"/>
+    <hyperlink ref="F95" r:id="rId288"/>
+    <hyperlink ref="E95" r:id="rId289"/>
+    <hyperlink ref="F94" r:id="rId290" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E94" r:id="rId291"/>
+    <hyperlink ref="E15" r:id="rId292"/>
+    <hyperlink ref="F176" r:id="rId293"/>
+    <hyperlink ref="E176" r:id="rId294"/>
+    <hyperlink ref="F175" r:id="rId295"/>
+    <hyperlink ref="E175" r:id="rId296"/>
+    <hyperlink ref="F174" r:id="rId297"/>
+    <hyperlink ref="E174" r:id="rId298"/>
+    <hyperlink ref="F173" r:id="rId299"/>
+    <hyperlink ref="E173" r:id="rId300"/>
+    <hyperlink ref="F172" r:id="rId301"/>
+    <hyperlink ref="E172" r:id="rId302"/>
+    <hyperlink ref="F168" r:id="rId303"/>
+    <hyperlink ref="E168" r:id="rId304"/>
+    <hyperlink ref="F170" r:id="rId305"/>
+    <hyperlink ref="E170" r:id="rId306"/>
+    <hyperlink ref="F171" r:id="rId307"/>
+    <hyperlink ref="E171" r:id="rId308"/>
+    <hyperlink ref="F169" r:id="rId309"/>
+    <hyperlink ref="E169" r:id="rId310"/>
+    <hyperlink ref="E167" r:id="rId311"/>
+    <hyperlink ref="F167" r:id="rId312"/>
+    <hyperlink ref="F166" display="https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filter"/>
+    <hyperlink ref="E166" r:id="rId313"/>
+    <hyperlink ref="F165" r:id="rId314"/>
+    <hyperlink ref="E165" r:id="rId315"/>
+    <hyperlink ref="F164" r:id="rId316"/>
+    <hyperlink ref="E164" r:id="rId317"/>
+    <hyperlink ref="F163" r:id="rId318"/>
+    <hyperlink ref="E163" r:id="rId319"/>
+    <hyperlink ref="F162" r:id="rId320"/>
+    <hyperlink ref="E162" r:id="rId321"/>
+    <hyperlink ref="F161" r:id="rId322"/>
+    <hyperlink ref="E161" r:id="rId323"/>
+    <hyperlink ref="E160" r:id="rId324"/>
+    <hyperlink ref="F160" r:id="rId325" location="&amp;gid=1&amp;pid=4"/>
+    <hyperlink ref="F159" r:id="rId326"/>
+    <hyperlink ref="E159" r:id="rId327"/>
+    <hyperlink ref="F158" r:id="rId328"/>
+    <hyperlink ref="E158" r:id="rId329"/>
+    <hyperlink ref="F157" r:id="rId330"/>
+    <hyperlink ref="E56" r:id="rId331"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId338"/>
+  <pageSetup orientation="portrait" r:id="rId332"/>
   <tableParts count="1">
-    <tablePart r:id="rId339"/>
+    <tablePart r:id="rId333"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$209</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="655">
   <si>
     <t>Nombre</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Peluche Sylveon Evolución Eevee Alta Calidad 20 Cm Original</t>
   </si>
   <si>
-    <t>Bt21 Peluche 7 Tipos Grande 25cm Peluches Grandes</t>
-  </si>
-  <si>
     <t>Protecció Caídas Cojín Protector Cabeza Bebes</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-3557076802-4-llaveros-de-capibara-de-felpa-con-tortuga-adornos-para-_JM?quantity=1&amp;variation_id=186884308069</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.mx/iiphgkaj141-liuokrau-tata-agua-tigre-tata/p/MLM45622549?pdp_filters=seller_id%3A1359433527&amp;applied_product_filters=MLM45508824&amp;quantity=1</t>
-  </si>
-  <si>
     <t>https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=555135f4-bfc9-489f-8111-797d3746e773&amp;sid=search</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_737640-MLM81010693635_112024-N.jpg</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_956305-MLA82051383639_012025-O.webp</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_664800-MLM85140243209_052025-O.webp</t>
@@ -2289,24 +2280,6 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2326,6 +2299,24 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2340,19 +2331,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G210" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G210"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G209" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G209"/>
   <sortState ref="A2:G199">
     <sortCondition ref="G1:G199"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Nombre" dataDxfId="8"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="3" name="Precio" dataDxfId="6"/>
-    <tableColumn id="4" name="PrecioRebaja" dataDxfId="5"/>
-    <tableColumn id="5" name="ImagenURL" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="6" name="LinkCompra" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="7" name="Caja" dataDxfId="2"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="6"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="5"/>
+    <tableColumn id="3" name="Precio" dataDxfId="4"/>
+    <tableColumn id="4" name="PrecioRebaja" dataDxfId="3"/>
+    <tableColumn id="5" name="ImagenURL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" name="LinkCompra" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" name="Caja" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2621,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2659,15 +2650,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2">
         <v>389</v>
@@ -2676,10 +2667,10 @@
         <v>280</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G2" s="14">
         <v>1</v>
@@ -2687,10 +2678,10 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2">
         <v>138</v>
@@ -2699,10 +2690,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G3" s="14">
         <v>1</v>
@@ -2710,10 +2701,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2">
         <v>135</v>
@@ -2722,10 +2713,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -2733,19 +2724,19 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2">
         <v>150</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -2753,10 +2744,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2">
         <v>135</v>
@@ -2765,10 +2756,10 @@
         <v>100</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
@@ -2776,10 +2767,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2">
         <v>135</v>
@@ -2788,10 +2779,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -2799,10 +2790,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2">
         <v>120</v>
@@ -2811,7 +2802,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
@@ -2819,10 +2810,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2">
         <v>200</v>
@@ -2831,7 +2822,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -2839,10 +2830,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" s="2">
         <v>150</v>
@@ -2851,7 +2842,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2859,10 +2850,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="2">
         <v>160</v>
@@ -2871,10 +2862,10 @@
         <v>130</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -2882,10 +2873,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2">
         <v>569</v>
@@ -2894,10 +2885,10 @@
         <v>390</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -2905,10 +2896,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C13" s="2">
         <v>298</v>
@@ -2917,10 +2908,10 @@
         <v>235</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -2928,10 +2919,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2">
         <v>300</v>
@@ -2940,10 +2931,10 @@
         <v>150</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -2951,10 +2942,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2">
         <v>498</v>
@@ -2963,10 +2954,10 @@
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -2974,10 +2965,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2">
         <v>179</v>
@@ -2986,10 +2977,10 @@
         <v>140</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
@@ -2997,10 +2988,10 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2">
         <v>719</v>
@@ -3009,10 +3000,10 @@
         <v>230</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -3020,10 +3011,10 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2">
         <v>347</v>
@@ -3032,10 +3023,10 @@
         <v>220</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
@@ -3043,10 +3034,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2">
         <v>353</v>
@@ -3055,10 +3046,10 @@
         <v>290</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -3066,19 +3057,19 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2">
         <v>500</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G20" s="14">
         <v>1</v>
@@ -3089,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2">
         <v>459.07</v>
@@ -3098,10 +3089,10 @@
         <v>425</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="18">
         <v>2</v>
@@ -3112,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C22" s="2">
         <v>419.19</v>
@@ -3121,10 +3112,10 @@
         <v>235</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="20">
         <v>2</v>
@@ -3135,7 +3126,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C23" s="2">
         <v>570</v>
@@ -3144,10 +3135,10 @@
         <v>450</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="20">
         <v>2</v>
@@ -3158,16 +3149,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C24" s="2">
         <v>170</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G24" s="20">
         <v>2</v>
@@ -3175,19 +3166,19 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C25" s="2">
         <v>185</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="20">
         <v>2</v>
@@ -3195,10 +3186,10 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C26" s="2">
         <v>298</v>
@@ -3207,10 +3198,10 @@
         <v>180</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="20">
         <v>2</v>
@@ -3221,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2">
         <v>194.36</v>
@@ -3230,10 +3221,10 @@
         <v>150</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="20">
         <v>2</v>
@@ -3241,10 +3232,10 @@
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C28" s="2">
         <v>439</v>
@@ -3253,10 +3244,10 @@
         <v>200</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="20">
         <v>2</v>
@@ -3267,16 +3258,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2">
         <v>185</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="20">
         <v>2</v>
@@ -3284,10 +3275,10 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C30" s="2">
         <v>230</v>
@@ -3296,10 +3287,10 @@
         <v>210</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G30" s="20">
         <v>2</v>
@@ -3307,10 +3298,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2">
         <v>189.99</v>
@@ -3319,10 +3310,10 @@
         <v>170</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="20">
         <v>2</v>
@@ -3333,16 +3324,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2">
         <v>150</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G32" s="20">
         <v>2</v>
@@ -3350,22 +3341,19 @@
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2">
-        <v>150</v>
-      </c>
-      <c r="D33" s="2">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" s="20">
         <v>2</v>
@@ -3373,19 +3361,19 @@
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="20">
         <v>2</v>
@@ -3396,16 +3384,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G35" s="20">
         <v>2</v>
@@ -3413,19 +3401,22 @@
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C36" s="2">
-        <v>200</v>
+        <v>130</v>
+      </c>
+      <c r="D36" s="2">
+        <v>90</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="G36" s="20">
         <v>2</v>
@@ -3433,25 +3424,22 @@
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C37" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="D37" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="G37" s="20">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="G37" s="34">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,7 +3447,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2">
         <v>160</v>
@@ -3468,75 +3456,78 @@
         <v>100</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G38" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>461</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="D39" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G39" s="34">
+        <v>465</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G39" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" s="2">
-        <v>385</v>
+        <v>670</v>
       </c>
       <c r="D40" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G40" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>463</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" s="2">
-        <v>670</v>
+        <v>342.66</v>
       </c>
       <c r="D41" s="2">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>466</v>
+        <v>169</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="G41" s="35">
+        <v>170</v>
+      </c>
+      <c r="G41" s="34">
         <v>3</v>
       </c>
     </row>
@@ -3545,19 +3536,19 @@
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" s="2">
-        <v>342.66</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D42" s="2">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="G42" s="34">
         <v>3</v>
@@ -3565,22 +3556,22 @@
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="2">
+        <v>237.76</v>
+      </c>
+      <c r="D43" s="2">
         <v>180</v>
       </c>
-      <c r="C43" s="2">
-        <v>323.66000000000003</v>
-      </c>
-      <c r="D43" s="2">
-        <v>270</v>
-      </c>
       <c r="E43" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G43" s="34">
         <v>3</v>
@@ -3588,22 +3579,22 @@
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2">
-        <v>237.76</v>
+        <v>359</v>
       </c>
       <c r="D44" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="34">
         <v>3</v>
@@ -3614,19 +3605,19 @@
         <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C45" s="2">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="D45" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>176</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="34">
         <v>3</v>
@@ -3634,22 +3625,22 @@
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>35</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C46" s="2">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G46" s="34">
         <v>3</v>
@@ -3659,45 +3650,42 @@
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>180</v>
+      <c r="B47" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C47" s="2">
-        <v>120</v>
+        <v>495.99</v>
       </c>
       <c r="D47" s="2">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="34">
+        <v>101</v>
+      </c>
+      <c r="G47" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2">
-        <v>495.99</v>
+        <v>166.88</v>
       </c>
       <c r="D48" s="2">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="36">
+        <v>186</v>
+      </c>
+      <c r="G48" s="34">
         <v>3</v>
       </c>
     </row>
@@ -3706,16 +3694,16 @@
         <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2">
-        <v>166.88</v>
+        <v>149.99</v>
       </c>
       <c r="D49" s="2">
         <v>100</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G49" s="34">
         <v>3</v>
@@ -3723,19 +3711,22 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C50" s="2">
-        <v>149.99</v>
+        <v>1072.6500000000001</v>
       </c>
       <c r="D50" s="2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>190</v>
+        <v>167</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="G50" s="34">
         <v>3</v>
@@ -3745,20 +3736,20 @@
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>180</v>
+      <c r="B51" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C51" s="2">
-        <v>1072.6500000000001</v>
+        <v>393.2</v>
       </c>
       <c r="D51" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G51" s="34">
         <v>3</v>
@@ -3766,22 +3757,22 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2">
-        <v>393.2</v>
+        <v>1064.8800000000001</v>
       </c>
       <c r="D52" s="2">
-        <v>300</v>
+        <v>1025</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G52" s="34">
         <v>3</v>
@@ -3792,19 +3783,19 @@
         <v>39</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C53" s="2">
-        <v>1064.8800000000001</v>
+        <v>758.9</v>
       </c>
       <c r="D53" s="2">
-        <v>1025</v>
+        <v>700</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="34">
         <v>3</v>
@@ -3815,19 +3806,19 @@
         <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" s="2">
-        <v>758.9</v>
+        <v>650</v>
       </c>
       <c r="D54" s="2">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G54" s="34">
         <v>3</v>
@@ -3838,65 +3829,63 @@
         <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2">
-        <v>650</v>
+        <v>268</v>
       </c>
       <c r="D55" s="2">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>107</v>
+        <v>184</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="G55" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
+      <c r="A56" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="2">
-        <v>268</v>
-      </c>
-      <c r="D56" s="2">
-        <v>150</v>
+        <v>177</v>
+      </c>
+      <c r="C56" s="22">
+        <v>375</v>
+      </c>
+      <c r="D56" s="22">
+        <v>260</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="34">
-        <v>3</v>
+        <v>287</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" s="22">
-        <v>375</v>
-      </c>
-      <c r="D57" s="22">
-        <v>260</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D57" s="22"/>
       <c r="E57" s="12" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
       <c r="G57" s="21">
         <v>4</v>
@@ -3904,20 +3893,22 @@
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="22">
-        <v>200</v>
-      </c>
-      <c r="D58" s="22"/>
+        <v>295</v>
+      </c>
+      <c r="D58" s="22">
+        <v>150</v>
+      </c>
       <c r="E58" s="12" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="G58" s="21">
         <v>4</v>
@@ -3928,19 +3919,19 @@
         <v>326</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C59" s="22">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D59" s="22">
         <v>150</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="G59" s="21">
         <v>4</v>
@@ -3951,19 +3942,19 @@
         <v>329</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C60" s="22">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D60" s="22">
         <v>150</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>145</v>
+        <v>328</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="G60" s="21">
         <v>4</v>
@@ -3971,17 +3962,15 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>332</v>
+        <v>543</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C61" s="22">
-        <v>249</v>
-      </c>
-      <c r="D61" s="22">
-        <v>150</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D61" s="22"/>
       <c r="E61" s="12" t="s">
         <v>331</v>
       </c>
@@ -3994,20 +3983,20 @@
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>546</v>
+        <v>319</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" s="22">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="12" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G62" s="21">
         <v>4</v>
@@ -4015,64 +4004,64 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C63" s="22">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="12" t="s">
         <v>321</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G63" s="21">
+        <v>322</v>
+      </c>
+      <c r="G63" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C64" s="22">
-        <v>150</v>
-      </c>
-      <c r="D64" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="D64" s="22">
+        <v>250</v>
+      </c>
       <c r="E64" s="12" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="G64" s="23">
+        <v>292</v>
+      </c>
+      <c r="G64" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C65" s="22">
-        <v>400</v>
-      </c>
-      <c r="D65" s="22">
         <v>250</v>
       </c>
+      <c r="D65" s="22"/>
       <c r="E65" s="12" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G65" s="21">
         <v>4</v>
@@ -4083,7 +4072,7 @@
         <v>314</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C66" s="22">
         <v>250</v>
@@ -4101,20 +4090,22 @@
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C67" s="22">
-        <v>250</v>
-      </c>
-      <c r="D67" s="22"/>
+        <v>270</v>
+      </c>
+      <c r="D67" s="22">
+        <v>200</v>
+      </c>
       <c r="E67" s="12" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="G67" s="21">
         <v>4</v>
@@ -4125,13 +4116,13 @@
         <v>297</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C68" s="22">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="D68" s="22">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>299</v>
@@ -4148,30 +4139,28 @@
         <v>300</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C69" s="22">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="D69" s="22">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="13" t="s">
         <v>301</v>
       </c>
+      <c r="F69" s="13"/>
       <c r="G69" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C70" s="22">
         <v>150</v>
@@ -4180,7 +4169,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="21">
@@ -4189,63 +4178,63 @@
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="22">
+        <v>375</v>
+      </c>
+      <c r="D71" s="22">
+        <v>250</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="22">
-        <v>150</v>
-      </c>
-      <c r="D71" s="22">
-        <v>100</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="F71" s="13"/>
       <c r="G71" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C72" s="22">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="D72" s="22">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>309</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F72" s="13"/>
       <c r="G72" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73" s="22">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D73" s="22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="21">
@@ -4254,109 +4243,108 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C74" s="22">
+        <v>260</v>
+      </c>
+      <c r="D74" s="22">
         <v>250</v>
       </c>
-      <c r="D74" s="22">
-        <v>200</v>
-      </c>
       <c r="E74" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F74" s="13"/>
+        <v>290</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="G74" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>291</v>
+      <c r="A75" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C75" s="22">
-        <v>260</v>
-      </c>
-      <c r="D75" s="22">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="C75" s="2">
+        <v>322</v>
+      </c>
+      <c r="D75" s="2">
+        <v>270</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G75" s="21">
+        <v>118</v>
+      </c>
+      <c r="G75" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C76" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D76" s="2">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G76" s="24">
+        <v>124</v>
+      </c>
+      <c r="G76" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>180</v>
+        <v>457</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C77" s="2">
-        <v>310</v>
-      </c>
-      <c r="D77" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>209</v>
+        <v>450</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" s="21">
-        <v>4</v>
+        <v>449</v>
+      </c>
+      <c r="G77" s="26">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>180</v>
+        <v>456</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C78" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>453</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G78" s="26">
         <v>5</v>
@@ -4364,16 +4352,16 @@
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C79" s="2">
         <v>200</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>454</v>
@@ -4384,19 +4372,22 @@
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>445</v>
       </c>
       <c r="C80" s="2">
-        <v>200</v>
+        <v>2600</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1800</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G80" s="26">
         <v>5</v>
@@ -4404,22 +4395,19 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="C81" s="2">
-        <v>2600</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1800</v>
+        <v>390</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="G81" s="26">
         <v>5</v>
@@ -4427,19 +4415,19 @@
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C82" s="2">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>396</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G82" s="26">
         <v>5</v>
@@ -4450,16 +4438,16 @@
         <v>398</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C83" s="2">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="E83" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>399</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="G83" s="26">
         <v>5</v>
@@ -4467,19 +4455,19 @@
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="C84" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="G84" s="26">
         <v>5</v>
@@ -4487,19 +4475,22 @@
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2">
-        <v>200</v>
+        <v>352</v>
+      </c>
+      <c r="D85" s="2">
+        <v>250</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="G85" s="26">
         <v>5</v>
@@ -4507,16 +4498,16 @@
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2">
-        <v>352</v>
+        <v>999</v>
       </c>
       <c r="D86" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>406</v>
@@ -4533,19 +4524,19 @@
         <v>408</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C87" s="2">
-        <v>999</v>
+        <v>1552</v>
       </c>
       <c r="D87" s="2">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E87" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>409</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>410</v>
       </c>
       <c r="G87" s="26">
         <v>5</v>
@@ -4556,13 +4547,13 @@
         <v>411</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C88" s="2">
-        <v>1552</v>
+        <v>292</v>
       </c>
       <c r="D88" s="2">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>413</v>
@@ -4578,20 +4569,20 @@
       <c r="A89" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>180</v>
+      <c r="B89" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C89" s="2">
-        <v>292</v>
+        <v>1500</v>
       </c>
       <c r="D89" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E89" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>416</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>415</v>
       </c>
       <c r="G89" s="26">
         <v>5</v>
@@ -4599,63 +4590,63 @@
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>180</v>
+        <v>420</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="C90" s="2">
-        <v>1500</v>
+        <v>445</v>
       </c>
       <c r="D90" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>419</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="F90" s="17"/>
       <c r="G90" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C91" s="2">
+        <v>144</v>
+      </c>
+      <c r="D91" s="2">
+        <v>100</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C91" s="2">
-        <v>445</v>
-      </c>
-      <c r="D91" s="2">
-        <v>200</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F91" s="17"/>
       <c r="G91" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C92" s="2">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="D92" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>426</v>
@@ -4666,13 +4657,13 @@
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C93" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="D93" s="2">
         <v>180</v>
@@ -4681,7 +4672,7 @@
         <v>430</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G93" s="26">
         <v>5</v>
@@ -4689,19 +4680,19 @@
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C94" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D94" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>434</v>
@@ -4712,22 +4703,22 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>438</v>
       </c>
       <c r="C95" s="2">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D95" s="2">
         <v>150</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G95" s="26">
         <v>5</v>
@@ -4735,22 +4726,19 @@
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>441</v>
+        <v>439</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C96" s="2">
         <v>250</v>
       </c>
-      <c r="D96" s="2">
-        <v>150</v>
-      </c>
       <c r="E96" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>440</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="G96" s="26">
         <v>5</v>
@@ -4758,19 +4746,22 @@
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="C97" s="2">
-        <v>250</v>
+        <v>11200</v>
+      </c>
+      <c r="D97" s="2">
+        <v>6500</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="G97" s="26">
         <v>5</v>
@@ -4778,22 +4769,22 @@
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C98" s="2">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="D98" s="2">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G98" s="26">
         <v>5</v>
@@ -4801,22 +4792,22 @@
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>379</v>
+        <v>617</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="C99" s="2">
-        <v>9700</v>
+        <v>325.32</v>
       </c>
       <c r="D99" s="2">
-        <v>5500</v>
+        <v>250</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>382</v>
+        <v>188</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="G99" s="26">
         <v>5</v>
@@ -4824,22 +4815,22 @@
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>620</v>
+        <v>46</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C100" s="2">
-        <v>325.32</v>
+        <v>589.4</v>
       </c>
       <c r="D100" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G100" s="26">
         <v>5</v>
@@ -4847,22 +4838,22 @@
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>485</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C101" s="2">
-        <v>589.4</v>
+        <v>252</v>
       </c>
       <c r="D101" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>112</v>
+        <v>486</v>
       </c>
       <c r="G101" s="26">
         <v>5</v>
@@ -4870,163 +4861,160 @@
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C102" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D102" s="2">
-        <v>200</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>490</v>
+        <v>150</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="G102" s="26">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="2">
+        <v>279</v>
+      </c>
+      <c r="D103" s="2">
         <v>180</v>
       </c>
-      <c r="C103" s="2">
-        <v>259</v>
-      </c>
-      <c r="D103" s="2">
-        <v>150</v>
-      </c>
       <c r="E103" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>72</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>20</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C104" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="D104" s="2">
-        <v>180</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C105" s="2">
-        <v>210</v>
+        <v>166.93</v>
       </c>
       <c r="D105" s="2">
         <v>150</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C106" s="2">
-        <v>166.93</v>
+        <v>1899</v>
       </c>
       <c r="D106" s="2">
-        <v>150</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>159</v>
+        <v>1500</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C107" s="2">
-        <v>1899</v>
+        <v>2100</v>
       </c>
       <c r="D107" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>206</v>
+        <v>1600</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C108" s="2">
-        <v>2100</v>
-      </c>
-      <c r="D108" s="2">
-        <v>1600</v>
+        <v>350</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5034,188 +5022,191 @@
         <v>48</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C109" s="2">
+        <v>411.67</v>
+      </c>
+      <c r="D109" s="2">
         <v>350</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>113</v>
+        <v>191</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C110" s="2">
-        <v>411.67</v>
+        <v>420</v>
       </c>
       <c r="D110" s="2">
         <v>350</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>345</v>
+        <v>618</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C111" s="2">
-        <v>420</v>
+        <v>689.2</v>
       </c>
       <c r="D111" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>621</v>
+        <v>459</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C112" s="2">
-        <v>689.2</v>
-      </c>
-      <c r="D112" s="2">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>462</v>
+        <v>49</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C113" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>51</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C114" s="2">
+        <v>399</v>
+      </c>
+      <c r="D114" s="2">
         <v>200</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G114" s="25" t="s">
-        <v>220</v>
+        <v>197</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C115" s="2">
-        <v>399</v>
+        <v>238.9</v>
       </c>
       <c r="D115" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>180</v>
+        <v>340</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C116" s="2">
-        <v>238.9</v>
-      </c>
-      <c r="D116" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>343</v>
+        <v>60</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C117" s="2">
-        <v>200</v>
+        <v>899</v>
+      </c>
+      <c r="D117" s="2">
+        <v>400</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,592 +5214,589 @@
         <v>61</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C118" s="2">
-        <v>899</v>
+        <v>142</v>
       </c>
       <c r="D118" s="2">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="2">
+        <v>633.91</v>
+      </c>
+      <c r="D119" s="2">
+        <v>600</v>
+      </c>
+      <c r="E119" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="2">
-        <v>142</v>
-      </c>
-      <c r="D119" s="2">
-        <v>50</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="F119" s="13" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>220</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>38</v>
+        <v>621</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>180</v>
+        <v>622</v>
       </c>
       <c r="C120" s="2">
-        <v>633.91</v>
+        <v>375</v>
       </c>
       <c r="D120" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>183</v>
+        <v>620</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G120" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C121" s="2">
-        <v>375</v>
-      </c>
-      <c r="D121" s="2">
-        <v>200</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>622</v>
+      <c r="G120" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" s="7">
+        <v>479</v>
+      </c>
+      <c r="D121" s="7">
+        <v>250</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C122" s="7">
-        <v>479</v>
-      </c>
-      <c r="D122" s="7">
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="2">
+        <v>320</v>
+      </c>
+      <c r="D122" s="2">
         <v>250</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>596</v>
+      <c r="E122" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C123" s="2">
-        <v>320</v>
+        <v>660</v>
       </c>
       <c r="D123" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C124" s="2">
-        <v>660</v>
+        <v>399</v>
       </c>
       <c r="D124" s="2">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C125" s="2">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="D125" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>586</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="F125" s="13"/>
       <c r="G125" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>180</v>
+        <v>577</v>
       </c>
       <c r="C126" s="2">
         <v>599</v>
       </c>
       <c r="D126" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="F126" s="13"/>
+        <v>578</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>576</v>
+      </c>
       <c r="G126" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C127" s="2">
-        <v>599</v>
+        <v>189</v>
       </c>
       <c r="D127" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>577</v>
+        <v>177</v>
       </c>
       <c r="C128" s="2">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="D128" s="2">
         <v>150</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C129" s="2">
-        <v>253</v>
+        <v>615</v>
       </c>
       <c r="D129" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>573</v>
+        <v>298</v>
       </c>
       <c r="G129" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>180</v>
+        <v>562</v>
       </c>
       <c r="C130" s="2">
-        <v>615</v>
+        <v>999</v>
       </c>
       <c r="D130" s="2">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>301</v>
+        <v>564</v>
       </c>
       <c r="G130" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>565</v>
+        <v>177</v>
       </c>
       <c r="C131" s="2">
-        <v>999</v>
+        <v>599</v>
       </c>
       <c r="D131" s="2">
-        <v>750</v>
+        <v>455</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>567</v>
+        <v>524</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>526</v>
+        <v>609</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>180</v>
+        <v>611</v>
       </c>
       <c r="C132" s="2">
-        <v>599</v>
+        <v>375</v>
       </c>
       <c r="D132" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G132" s="28" t="s">
-        <v>596</v>
+        <v>610</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>614</v>
+        <v>177</v>
       </c>
       <c r="C133" s="2">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="D133" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>615</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C134" s="2">
+        <v>389</v>
+      </c>
+      <c r="D134" s="2">
         <v>300</v>
       </c>
-      <c r="D134" s="2">
-        <v>200</v>
-      </c>
       <c r="E134" s="12" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C135" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D135" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="C136" s="2">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="D136" s="2">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>545</v>
+        <v>177</v>
       </c>
       <c r="C137" s="2">
-        <v>299</v>
+        <v>1900</v>
       </c>
       <c r="D137" s="2">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C138" s="2">
-        <v>1900</v>
+        <v>899</v>
       </c>
       <c r="D138" s="2">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C139" s="2">
-        <v>899</v>
+        <v>250</v>
       </c>
       <c r="D139" s="2">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>598</v>
+        <v>214</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>180</v>
+        <v>554</v>
       </c>
       <c r="C140" s="2">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="D140" s="2">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>217</v>
+        <v>553</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>552</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>557</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="D141" s="2">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C142" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D142" s="2">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="C143" s="2">
         <v>300</v>
       </c>
-      <c r="D143" s="2">
-        <v>240</v>
-      </c>
       <c r="E143" s="12" t="s">
-        <v>535</v>
+        <v>347</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>568</v>
+        <v>346</v>
+      </c>
+      <c r="G143" s="29" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,10 +5804,13 @@
         <v>348</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C144" s="2">
-        <v>300</v>
+        <v>650</v>
+      </c>
+      <c r="D144" s="2">
+        <v>450</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>350</v>
@@ -5828,7 +5819,7 @@
         <v>349</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,13 +5827,10 @@
         <v>351</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C145" s="2">
-        <v>650</v>
-      </c>
-      <c r="D145" s="2">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>353</v>
@@ -5851,50 +5839,53 @@
         <v>352</v>
       </c>
       <c r="G145" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C146" s="2">
-        <v>200</v>
+        <v>250</v>
+      </c>
+      <c r="D146" s="2">
+        <v>150</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C147" s="2">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D147" s="2">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5902,13 +5893,13 @@
         <v>357</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C148" s="2">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="D148" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>359</v>
@@ -5917,7 +5908,7 @@
         <v>358</v>
       </c>
       <c r="G148" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,13 +5916,13 @@
         <v>360</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C149" s="2">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="D149" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>362</v>
@@ -5940,7 +5931,7 @@
         <v>361</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5948,13 +5939,13 @@
         <v>363</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>563</v>
+        <v>366</v>
       </c>
       <c r="C150" s="2">
-        <v>690</v>
+        <v>637</v>
       </c>
       <c r="D150" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>365</v>
@@ -5963,182 +5954,182 @@
         <v>364</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>369</v>
+        <v>560</v>
       </c>
       <c r="C151" s="2">
-        <v>637</v>
+        <v>499</v>
       </c>
       <c r="D151" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="G151" s="29" t="s">
-        <v>561</v>
+        <v>370</v>
+      </c>
+      <c r="G151" s="37" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>563</v>
+        <v>177</v>
       </c>
       <c r="C152" s="2">
-        <v>499</v>
+        <v>665</v>
       </c>
       <c r="D152" s="2">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="G152" s="37" t="s">
-        <v>561</v>
+        <v>68</v>
+      </c>
+      <c r="G152" s="25" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>10</v>
+        <v>473</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>180</v>
+        <v>469</v>
       </c>
       <c r="C153" s="2">
-        <v>665</v>
+        <v>315</v>
       </c>
       <c r="D153" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G153" s="25" t="s">
-        <v>477</v>
+        <v>81</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>472</v>
+        <v>177</v>
       </c>
       <c r="C154" s="2">
-        <v>315</v>
+        <v>170.73</v>
       </c>
       <c r="D154" s="2">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>477</v>
+        <v>69</v>
+      </c>
+      <c r="G154" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>478</v>
+        <v>11</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C155" s="2">
         <v>180</v>
       </c>
-      <c r="C155" s="2">
-        <v>170.73</v>
-      </c>
       <c r="D155" s="2">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F155" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G155" s="30" t="s">
-        <v>469</v>
+      <c r="G155" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C156" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D156" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G156" s="32" t="s">
-        <v>469</v>
+        <v>73</v>
+      </c>
+      <c r="G156" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C157" s="2">
-        <v>212</v>
+        <v>178.03</v>
       </c>
       <c r="D157" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G157" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>15</v>
+        <v>476</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>472</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2">
-        <v>178.03</v>
+        <v>200</v>
       </c>
       <c r="D158" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>147</v>
@@ -6146,220 +6137,218 @@
       <c r="F158" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G158" s="30" t="s">
-        <v>469</v>
+      <c r="G158" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C159" s="2">
-        <v>200</v>
+        <v>193.7</v>
       </c>
       <c r="D159" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G159" s="32" t="s">
-        <v>469</v>
+      <c r="G159" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>471</v>
+        <v>16</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C160" s="2">
-        <v>193.7</v>
+        <v>106</v>
       </c>
       <c r="D160" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F160" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="G160" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>180</v>
+        <v>470</v>
       </c>
       <c r="C161" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D161" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G161" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C162" s="2">
-        <v>220</v>
+        <v>248.02</v>
       </c>
       <c r="D162" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F162" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G162" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>347</v>
+        <v>18</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C163" s="2">
-        <v>248.02</v>
+        <v>120</v>
       </c>
       <c r="D163" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F163" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>486</v>
+        <v>177</v>
       </c>
       <c r="C164" s="2">
+        <v>269</v>
+      </c>
+      <c r="D164" s="2">
         <v>120</v>
       </c>
-      <c r="D164" s="2">
-        <v>100</v>
-      </c>
       <c r="E164" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F164" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G164" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C165" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D165" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>154</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G165" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>19</v>
+        <v>482</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>180</v>
+        <v>481</v>
       </c>
       <c r="C166" s="2">
-        <v>270</v>
+        <v>119.4</v>
       </c>
       <c r="D166" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G166" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C167" s="2">
-        <v>119.4</v>
+        <v>149</v>
       </c>
       <c r="D167" s="2">
         <v>100</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G167" s="30" t="s">
-        <v>469</v>
+        <v>478</v>
+      </c>
+      <c r="F167" s="13"/>
+      <c r="G167" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C168" s="2">
         <v>149</v>
@@ -6368,193 +6357,192 @@
         <v>100</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="F168" s="13"/>
+        <v>480</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="G168" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>472</v>
+        <v>22</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C169" s="2">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D169" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>483</v>
+        <v>158</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G169" s="32" t="s">
-        <v>469</v>
+        <v>87</v>
+      </c>
+      <c r="G169" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>180</v>
+        <v>50</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C170" s="2">
-        <v>99</v>
+        <v>374.7</v>
       </c>
       <c r="D170" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G170" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C171" s="2">
-        <v>374.7</v>
+        <v>499</v>
       </c>
       <c r="D171" s="2">
         <v>150</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F171" s="13" t="s">
         <v>116</v>
       </c>
       <c r="G171" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>53</v>
+        <v>467</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C172" s="2">
-        <v>499</v>
+        <v>220</v>
       </c>
       <c r="D172" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G172" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>470</v>
+        <v>54</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C173" s="2">
-        <v>220</v>
+        <v>126.85</v>
       </c>
       <c r="D173" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F173" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G173" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>55</v>
+        <v>341</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>180</v>
+        <v>471</v>
       </c>
       <c r="C174" s="2">
-        <v>126.85</v>
+        <v>250</v>
       </c>
       <c r="D174" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G174" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>474</v>
+        <v>177</v>
       </c>
       <c r="C175" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D175" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G175" s="30" t="s">
-        <v>469</v>
+        <v>212</v>
+      </c>
+      <c r="F175" s="13"/>
+      <c r="G175" s="31" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C176" s="2">
-        <v>175</v>
+        <v>219.5</v>
       </c>
       <c r="D176" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F176" s="13"/>
-      <c r="G176" s="31" t="s">
-        <v>469</v>
+        <v>213</v>
+      </c>
+      <c r="G176" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,481 +6550,481 @@
         <v>57</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C177" s="2">
-        <v>219.5</v>
+        <v>226.52</v>
       </c>
       <c r="D177" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G177" s="32" t="s">
-        <v>469</v>
+        <v>205</v>
+      </c>
+      <c r="F177" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G177" s="30" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>58</v>
+        <v>484</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C178" s="2">
-        <v>226.52</v>
+        <v>299.01</v>
       </c>
       <c r="D178" s="2">
         <v>150</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>487</v>
+        <v>59</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C179" s="2">
-        <v>299.01</v>
-      </c>
-      <c r="D179" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G179" s="30" t="s">
-        <v>469</v>
+        <v>126</v>
+      </c>
+      <c r="G179" s="32" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>60</v>
+        <v>556</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C180" s="2">
-        <v>100</v>
+        <v>477</v>
+      </c>
+      <c r="D180" s="2">
+        <v>370</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G180" s="32" t="s">
-        <v>469</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="F180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>180</v>
+        <v>548</v>
       </c>
       <c r="C181" s="2">
-        <v>477</v>
-      </c>
-      <c r="D181" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="F181" s="13"/>
+        <v>550</v>
+      </c>
+      <c r="F181" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="G181" s="30"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>551</v>
+        <v>177</v>
       </c>
       <c r="C182" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G182" s="30"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C183" s="2">
+        <v>298</v>
+      </c>
+      <c r="D183" s="2">
+        <v>250</v>
+      </c>
+      <c r="E183" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="2">
-        <v>200</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>549</v>
-      </c>
       <c r="F183" s="13" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G183" s="30"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>545</v>
+        <v>177</v>
       </c>
       <c r="C184" s="2">
-        <v>298</v>
+        <v>1250</v>
       </c>
       <c r="D184" s="2">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G184" s="30"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C185" s="2">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="D185" s="2">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G185" s="30"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="C186" s="2">
         <v>300</v>
       </c>
-      <c r="D186" s="2">
-        <v>250</v>
-      </c>
       <c r="E186" s="12" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G186" s="30"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C187" s="2">
-        <v>300</v>
+        <v>450</v>
+      </c>
+      <c r="D187" s="2">
+        <v>400</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G187" s="30"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="C188" s="2">
-        <v>450</v>
+        <v>922</v>
       </c>
       <c r="D188" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="G188" s="30"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>504</v>
+        <v>637</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>506</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2">
-        <v>922</v>
+        <v>1050</v>
       </c>
       <c r="D189" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>509</v>
+        <v>639</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>505</v>
+        <v>638</v>
       </c>
       <c r="G189" s="30"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C190" s="2">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="D190" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>642</v>
+        <v>514</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>641</v>
+        <v>513</v>
       </c>
       <c r="G190" s="30"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>639</v>
+        <v>507</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C191" s="2">
-        <v>750</v>
-      </c>
-      <c r="D191" s="2">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G191" s="30"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C192" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G192" s="30"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>180</v>
+        <v>504</v>
       </c>
       <c r="C193" s="2">
-        <v>330</v>
+        <v>450</v>
+      </c>
+      <c r="D193" s="2">
+        <v>400</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G193" s="30"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C194" s="2">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="D194" s="2">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G194" s="30"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C195" s="2">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="D195" s="2">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="G195" s="30"/>
+        <v>492</v>
+      </c>
+      <c r="G195" s="33"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>497</v>
+        <v>177</v>
       </c>
       <c r="C196" s="2">
-        <v>690</v>
-      </c>
-      <c r="D196" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G196" s="33"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>180</v>
+        <v>389</v>
       </c>
       <c r="C197" s="2">
-        <v>300</v>
+        <v>4500</v>
+      </c>
+      <c r="D197" s="2">
+        <v>3550</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="G197" s="33"/>
+        <v>386</v>
+      </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C198" s="2">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="D198" s="2">
-        <v>3550</v>
+        <v>4700</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="C199" s="2">
-        <v>5500</v>
+        <v>1775</v>
       </c>
       <c r="D199" s="2">
-        <v>4700</v>
+        <v>1000</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>370</v>
+        <v>626</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C200" s="2">
-        <v>1775</v>
+        <v>299</v>
       </c>
       <c r="D200" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>372</v>
+        <v>628</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>371</v>
+        <v>627</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7044,13 +7032,13 @@
         <v>629</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C201" s="2">
-        <v>299</v>
+        <v>230</v>
       </c>
       <c r="D201" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E201" s="12" t="s">
         <v>631</v>
@@ -7061,573 +7049,551 @@
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C202" s="2">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="D202" s="2">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C203" s="2">
-        <v>299</v>
+        <v>555</v>
       </c>
       <c r="D203" s="2">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>626</v>
+        <v>643</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C204" s="2">
-        <v>555</v>
-      </c>
-      <c r="D204" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>180</v>
+        <v>635</v>
       </c>
       <c r="C205" s="2">
-        <v>200</v>
+        <v>600</v>
+      </c>
+      <c r="D205" s="2">
+        <v>400</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>635</v>
+        <v>526</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>638</v>
+        <v>177</v>
       </c>
       <c r="C206" s="2">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="D206" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>529</v>
+        <v>651</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>180</v>
+        <v>652</v>
       </c>
       <c r="C207" s="2">
-        <v>512</v>
+        <v>379</v>
       </c>
       <c r="D207" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E207" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F207" s="13" t="s">
         <v>653</v>
-      </c>
-      <c r="F207" s="13" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>655</v>
+        <v>177</v>
       </c>
       <c r="C208" s="2">
-        <v>379</v>
+        <v>799</v>
       </c>
       <c r="D208" s="2">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>649</v>
+        <v>283</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="C209" s="2">
-        <v>799</v>
+        <v>2300</v>
       </c>
       <c r="D209" s="2">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C210" s="2">
-        <v>2300</v>
-      </c>
-      <c r="D210" s="2">
-        <v>1800</v>
-      </c>
-      <c r="E210" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F210" s="13"/>
-      <c r="G210" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="F209" s="13"/>
+      <c r="G209" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F119" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F180" r:id="rId1"/>
-    <hyperlink ref="F118" r:id="rId2"/>
-    <hyperlink ref="F179" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F77" r:id="rId3"/>
-    <hyperlink ref="F178" r:id="rId4"/>
-    <hyperlink ref="F117" r:id="rId5"/>
-    <hyperlink ref="F116" r:id="rId6"/>
-    <hyperlink ref="F173" r:id="rId7"/>
-    <hyperlink ref="F172" r:id="rId8"/>
-    <hyperlink ref="F175" r:id="rId9"/>
-    <hyperlink ref="F174" r:id="rId10"/>
-    <hyperlink ref="F76" r:id="rId11"/>
-    <hyperlink ref="F115" r:id="rId12"/>
-    <hyperlink ref="F171" r:id="rId13"/>
-    <hyperlink ref="F113" r:id="rId14"/>
-    <hyperlink ref="F112" r:id="rId15"/>
-    <hyperlink ref="F109" r:id="rId16"/>
-    <hyperlink ref="F101" r:id="rId17"/>
-    <hyperlink ref="F100" r:id="rId18"/>
-    <hyperlink ref="F108" r:id="rId19"/>
-    <hyperlink ref="F107" r:id="rId20"/>
-    <hyperlink ref="F55" r:id="rId21"/>
-    <hyperlink ref="F54" r:id="rId22"/>
-    <hyperlink ref="F53" r:id="rId23"/>
-    <hyperlink ref="F120" r:id="rId24"/>
-    <hyperlink ref="F48" r:id="rId25"/>
-    <hyperlink ref="F47" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F46" r:id="rId26"/>
-    <hyperlink ref="F45" r:id="rId27"/>
-    <hyperlink ref="F44" r:id="rId28"/>
-    <hyperlink ref="F43" r:id="rId29"/>
-    <hyperlink ref="F52" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F51" r:id="rId30"/>
-    <hyperlink ref="F36" r:id="rId31"/>
-    <hyperlink ref="F35" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F34" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F118" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F179" r:id="rId1"/>
+    <hyperlink ref="F117" r:id="rId2"/>
+    <hyperlink ref="F178" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F76" r:id="rId3"/>
+    <hyperlink ref="F177" r:id="rId4"/>
+    <hyperlink ref="F116" r:id="rId5"/>
+    <hyperlink ref="F115" r:id="rId6"/>
+    <hyperlink ref="F172" r:id="rId7"/>
+    <hyperlink ref="F171" r:id="rId8"/>
+    <hyperlink ref="F174" r:id="rId9"/>
+    <hyperlink ref="F173" r:id="rId10"/>
+    <hyperlink ref="F75" r:id="rId11"/>
+    <hyperlink ref="F114" r:id="rId12"/>
+    <hyperlink ref="F170" r:id="rId13"/>
+    <hyperlink ref="F112" r:id="rId14"/>
+    <hyperlink ref="F111" r:id="rId15"/>
+    <hyperlink ref="F108" r:id="rId16"/>
+    <hyperlink ref="F100" r:id="rId17"/>
+    <hyperlink ref="F99" r:id="rId18"/>
+    <hyperlink ref="F107" r:id="rId19"/>
+    <hyperlink ref="F106" r:id="rId20"/>
+    <hyperlink ref="F54" r:id="rId21"/>
+    <hyperlink ref="F53" r:id="rId22"/>
+    <hyperlink ref="F52" r:id="rId23"/>
+    <hyperlink ref="F119" r:id="rId24"/>
+    <hyperlink ref="F47" r:id="rId25"/>
+    <hyperlink ref="F46" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F45" r:id="rId26"/>
+    <hyperlink ref="F44" r:id="rId27"/>
+    <hyperlink ref="F43" r:id="rId28"/>
+    <hyperlink ref="F42" r:id="rId29"/>
+    <hyperlink ref="F51" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F50" r:id="rId30"/>
+    <hyperlink ref="F35" r:id="rId31"/>
+    <hyperlink ref="F34" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F33" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
     <hyperlink ref="F29" r:id="rId32"/>
     <hyperlink ref="F31" r:id="rId33"/>
-    <hyperlink ref="F33" r:id="rId34"/>
-    <hyperlink ref="F28" r:id="rId35"/>
-    <hyperlink ref="F170" r:id="rId36"/>
-    <hyperlink ref="F106" r:id="rId37"/>
-    <hyperlink ref="F105" r:id="rId38"/>
-    <hyperlink ref="F169" r:id="rId39"/>
-    <hyperlink ref="F167" r:id="rId40"/>
-    <hyperlink ref="F166" r:id="rId41"/>
-    <hyperlink ref="F154" r:id="rId42"/>
-    <hyperlink ref="F165" r:id="rId43"/>
-    <hyperlink ref="F164" r:id="rId44"/>
-    <hyperlink ref="F163" r:id="rId45"/>
-    <hyperlink ref="F160" r:id="rId46"/>
-    <hyperlink ref="F162" r:id="rId47"/>
-    <hyperlink ref="F159" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F158" r:id="rId48"/>
-    <hyperlink ref="F157" r:id="rId49"/>
-    <hyperlink ref="F103" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F104" r:id="rId50"/>
+    <hyperlink ref="F28" r:id="rId34"/>
+    <hyperlink ref="F169" r:id="rId35"/>
+    <hyperlink ref="F105" r:id="rId36"/>
+    <hyperlink ref="F104" r:id="rId37"/>
+    <hyperlink ref="F168" r:id="rId38"/>
+    <hyperlink ref="F166" r:id="rId39"/>
+    <hyperlink ref="F165" r:id="rId40"/>
+    <hyperlink ref="F153" r:id="rId41"/>
+    <hyperlink ref="F164" r:id="rId42"/>
+    <hyperlink ref="F163" r:id="rId43"/>
+    <hyperlink ref="F162" r:id="rId44"/>
+    <hyperlink ref="F159" r:id="rId45"/>
+    <hyperlink ref="F161" r:id="rId46"/>
+    <hyperlink ref="F158" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F157" r:id="rId47"/>
+    <hyperlink ref="F156" r:id="rId48"/>
+    <hyperlink ref="F102" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F103" r:id="rId49"/>
+    <hyperlink ref="F154" r:id="rId50"/>
     <hyperlink ref="F155" r:id="rId51"/>
-    <hyperlink ref="F156" r:id="rId52"/>
-    <hyperlink ref="F153" r:id="rId53"/>
-    <hyperlink ref="F26" r:id="rId54"/>
-    <hyperlink ref="F25" r:id="rId55"/>
-    <hyperlink ref="F27" r:id="rId56"/>
-    <hyperlink ref="F24" r:id="rId57"/>
-    <hyperlink ref="F23" r:id="rId58"/>
-    <hyperlink ref="F22" r:id="rId59"/>
-    <hyperlink ref="F21" r:id="rId60"/>
-    <hyperlink ref="E21" r:id="rId61"/>
-    <hyperlink ref="E25" r:id="rId62"/>
-    <hyperlink ref="E27" r:id="rId63"/>
-    <hyperlink ref="E153" r:id="rId64"/>
+    <hyperlink ref="F152" r:id="rId52"/>
+    <hyperlink ref="F26" r:id="rId53"/>
+    <hyperlink ref="F25" r:id="rId54"/>
+    <hyperlink ref="F27" r:id="rId55"/>
+    <hyperlink ref="F24" r:id="rId56"/>
+    <hyperlink ref="F23" r:id="rId57"/>
+    <hyperlink ref="F22" r:id="rId58"/>
+    <hyperlink ref="F21" r:id="rId59"/>
+    <hyperlink ref="E21" r:id="rId60"/>
+    <hyperlink ref="E25" r:id="rId61"/>
+    <hyperlink ref="E27" r:id="rId62"/>
+    <hyperlink ref="E152" r:id="rId63"/>
+    <hyperlink ref="E154" r:id="rId64"/>
     <hyperlink ref="E155" r:id="rId65"/>
-    <hyperlink ref="E156" r:id="rId66"/>
+    <hyperlink ref="E102" r:id="rId66"/>
     <hyperlink ref="E103" r:id="rId67"/>
-    <hyperlink ref="E104" r:id="rId68"/>
+    <hyperlink ref="E156" r:id="rId68"/>
     <hyperlink ref="E157" r:id="rId69"/>
-    <hyperlink ref="E158" r:id="rId70"/>
-    <hyperlink ref="E160" r:id="rId71"/>
-    <hyperlink ref="E159" r:id="rId72"/>
+    <hyperlink ref="E159" r:id="rId70"/>
+    <hyperlink ref="E158" r:id="rId71"/>
+    <hyperlink ref="E160" r:id="rId72"/>
     <hyperlink ref="E161" r:id="rId73"/>
     <hyperlink ref="E162" r:id="rId74"/>
     <hyperlink ref="E163" r:id="rId75"/>
     <hyperlink ref="E164" r:id="rId76"/>
-    <hyperlink ref="E165" r:id="rId77"/>
-    <hyperlink ref="E154" r:id="rId78"/>
+    <hyperlink ref="E153" r:id="rId77"/>
+    <hyperlink ref="E165" r:id="rId78"/>
     <hyperlink ref="E166" r:id="rId79"/>
-    <hyperlink ref="E167" r:id="rId80"/>
-    <hyperlink ref="E169" r:id="rId81"/>
+    <hyperlink ref="E168" r:id="rId80"/>
+    <hyperlink ref="E104" r:id="rId81"/>
     <hyperlink ref="E105" r:id="rId82"/>
-    <hyperlink ref="E106" r:id="rId83"/>
-    <hyperlink ref="E170" r:id="rId84"/>
-    <hyperlink ref="E28" r:id="rId85"/>
-    <hyperlink ref="E29" r:id="rId86"/>
-    <hyperlink ref="E31" r:id="rId87"/>
-    <hyperlink ref="E32" r:id="rId88"/>
-    <hyperlink ref="E33" r:id="rId89"/>
-    <hyperlink ref="E34" r:id="rId90"/>
-    <hyperlink ref="E35" r:id="rId91"/>
-    <hyperlink ref="E36" r:id="rId92"/>
-    <hyperlink ref="E51" r:id="rId93"/>
-    <hyperlink ref="E52" r:id="rId94"/>
+    <hyperlink ref="E169" r:id="rId83"/>
+    <hyperlink ref="E28" r:id="rId84"/>
+    <hyperlink ref="E29" r:id="rId85"/>
+    <hyperlink ref="E31" r:id="rId86"/>
+    <hyperlink ref="E32" r:id="rId87"/>
+    <hyperlink ref="E33" r:id="rId88"/>
+    <hyperlink ref="E34" r:id="rId89"/>
+    <hyperlink ref="E35" r:id="rId90"/>
+    <hyperlink ref="E50" r:id="rId91"/>
+    <hyperlink ref="E51" r:id="rId92"/>
+    <hyperlink ref="E41" r:id="rId93"/>
+    <hyperlink ref="F41" r:id="rId94"/>
     <hyperlink ref="E42" r:id="rId95"/>
-    <hyperlink ref="F42" r:id="rId96"/>
-    <hyperlink ref="E43" r:id="rId97"/>
-    <hyperlink ref="E44" r:id="rId98"/>
+    <hyperlink ref="E43" r:id="rId96"/>
+    <hyperlink ref="E44" r:id="rId97"/>
+    <hyperlink ref="E38" r:id="rId98"/>
     <hyperlink ref="E45" r:id="rId99"/>
-    <hyperlink ref="E39" r:id="rId100"/>
-    <hyperlink ref="E46" r:id="rId101"/>
-    <hyperlink ref="E47" r:id="rId102"/>
-    <hyperlink ref="E48" r:id="rId103"/>
-    <hyperlink ref="E120" r:id="rId104"/>
-    <hyperlink ref="E53" r:id="rId105"/>
-    <hyperlink ref="E54" r:id="rId106"/>
-    <hyperlink ref="E55" r:id="rId107"/>
-    <hyperlink ref="E56" r:id="rId108"/>
-    <hyperlink ref="E108" r:id="rId109"/>
-    <hyperlink ref="E50" r:id="rId110"/>
-    <hyperlink ref="E49" r:id="rId111"/>
-    <hyperlink ref="E100" r:id="rId112"/>
-    <hyperlink ref="E101" r:id="rId113"/>
-    <hyperlink ref="E109" r:id="rId114"/>
-    <hyperlink ref="E110" r:id="rId115"/>
-    <hyperlink ref="E111" r:id="rId116"/>
-    <hyperlink ref="E112" r:id="rId117"/>
-    <hyperlink ref="E113" r:id="rId118"/>
+    <hyperlink ref="E46" r:id="rId100"/>
+    <hyperlink ref="E47" r:id="rId101"/>
+    <hyperlink ref="E119" r:id="rId102"/>
+    <hyperlink ref="E52" r:id="rId103"/>
+    <hyperlink ref="E53" r:id="rId104"/>
+    <hyperlink ref="E54" r:id="rId105"/>
+    <hyperlink ref="E55" r:id="rId106"/>
+    <hyperlink ref="E107" r:id="rId107"/>
+    <hyperlink ref="E49" r:id="rId108"/>
+    <hyperlink ref="E48" r:id="rId109"/>
+    <hyperlink ref="E99" r:id="rId110"/>
+    <hyperlink ref="E100" r:id="rId111"/>
+    <hyperlink ref="E108" r:id="rId112"/>
+    <hyperlink ref="E109" r:id="rId113"/>
+    <hyperlink ref="E110" r:id="rId114"/>
+    <hyperlink ref="E111" r:id="rId115"/>
+    <hyperlink ref="E112" r:id="rId116"/>
+    <hyperlink ref="E170" r:id="rId117"/>
+    <hyperlink ref="E114" r:id="rId118"/>
     <hyperlink ref="E171" r:id="rId119"/>
-    <hyperlink ref="E115" r:id="rId120"/>
-    <hyperlink ref="E172" r:id="rId121"/>
+    <hyperlink ref="E172" r:id="rId120"/>
+    <hyperlink ref="E75" r:id="rId121"/>
     <hyperlink ref="E173" r:id="rId122"/>
-    <hyperlink ref="E76" r:id="rId123"/>
-    <hyperlink ref="E174" r:id="rId124"/>
-    <hyperlink ref="E175" r:id="rId125"/>
+    <hyperlink ref="E174" r:id="rId123"/>
+    <hyperlink ref="E115" r:id="rId124"/>
+    <hyperlink ref="E106" r:id="rId125"/>
     <hyperlink ref="E116" r:id="rId126"/>
-    <hyperlink ref="E107" r:id="rId127"/>
-    <hyperlink ref="E117" r:id="rId128"/>
+    <hyperlink ref="E177" r:id="rId127"/>
+    <hyperlink ref="E76" r:id="rId128"/>
     <hyperlink ref="E178" r:id="rId129"/>
-    <hyperlink ref="E77" r:id="rId130"/>
-    <hyperlink ref="E179" r:id="rId131"/>
-    <hyperlink ref="E180" r:id="rId132"/>
-    <hyperlink ref="E118" r:id="rId133"/>
-    <hyperlink ref="E119" r:id="rId134"/>
-    <hyperlink ref="E176" r:id="rId135"/>
-    <hyperlink ref="E177" r:id="rId136"/>
-    <hyperlink ref="E140" r:id="rId137"/>
-    <hyperlink ref="E114" r:id="rId138"/>
-    <hyperlink ref="F20" r:id="rId139"/>
-    <hyperlink ref="E20" r:id="rId140"/>
-    <hyperlink ref="F19" r:id="rId141"/>
-    <hyperlink ref="E19" r:id="rId142"/>
-    <hyperlink ref="F18" r:id="rId143"/>
-    <hyperlink ref="E18" r:id="rId144"/>
-    <hyperlink ref="F17" r:id="rId145"/>
-    <hyperlink ref="E17" r:id="rId146"/>
-    <hyperlink ref="F16" r:id="rId147"/>
-    <hyperlink ref="E16" r:id="rId148"/>
+    <hyperlink ref="E179" r:id="rId130"/>
+    <hyperlink ref="E117" r:id="rId131"/>
+    <hyperlink ref="E118" r:id="rId132"/>
+    <hyperlink ref="E175" r:id="rId133"/>
+    <hyperlink ref="E176" r:id="rId134"/>
+    <hyperlink ref="E139" r:id="rId135"/>
+    <hyperlink ref="E113" r:id="rId136"/>
+    <hyperlink ref="F20" r:id="rId137"/>
+    <hyperlink ref="E20" r:id="rId138"/>
+    <hyperlink ref="F19" r:id="rId139"/>
+    <hyperlink ref="E19" r:id="rId140"/>
+    <hyperlink ref="F18" r:id="rId141"/>
+    <hyperlink ref="E18" r:id="rId142"/>
+    <hyperlink ref="F17" r:id="rId143"/>
+    <hyperlink ref="E17" r:id="rId144"/>
+    <hyperlink ref="F16" r:id="rId145"/>
+    <hyperlink ref="E16" r:id="rId146"/>
     <hyperlink ref="F15" display="https://articulo.mercadolibre.com.mx/MLM-3278774522--mochila-escolar-para-jovenes-estampada-a-medida-de-distribut-_JM?attributes=FABRIC_DESIGN%3ANDRDTVgyOUNNWDE0Q00%3D%2CCOLOR_SECONDARY_COLOR%3AMDIgUHJlc3MgY29sb3IgY2FyZCBwaWN0dXJl#origin%3Dshare%26sid%3Ds"/>
-    <hyperlink ref="E15" r:id="rId149"/>
-    <hyperlink ref="F14" r:id="rId150"/>
-    <hyperlink ref="E14" r:id="rId151"/>
-    <hyperlink ref="E13" r:id="rId152"/>
-    <hyperlink ref="F13" r:id="rId153" location="origin%3Dshare%26sid%3Dshare"/>
-    <hyperlink ref="F12" r:id="rId154"/>
-    <hyperlink ref="E12" r:id="rId155"/>
-    <hyperlink ref="F11" r:id="rId156"/>
-    <hyperlink ref="E11" r:id="rId157"/>
-    <hyperlink ref="E10" r:id="rId158"/>
-    <hyperlink ref="E9" r:id="rId159"/>
-    <hyperlink ref="E7" r:id="rId160"/>
+    <hyperlink ref="E15" r:id="rId147"/>
+    <hyperlink ref="F14" r:id="rId148"/>
+    <hyperlink ref="E14" r:id="rId149"/>
+    <hyperlink ref="E13" r:id="rId150"/>
+    <hyperlink ref="F13" r:id="rId151" location="origin%3Dshare%26sid%3Dshare"/>
+    <hyperlink ref="F12" r:id="rId152"/>
+    <hyperlink ref="E12" r:id="rId153"/>
+    <hyperlink ref="F11" r:id="rId154"/>
+    <hyperlink ref="E11" r:id="rId155"/>
+    <hyperlink ref="E10" r:id="rId156"/>
+    <hyperlink ref="E9" r:id="rId157"/>
+    <hyperlink ref="E7" r:id="rId158"/>
     <hyperlink ref="F7" display="https://es.aliexpress.com/item/1005006092767267.html?srcSns=sns_WhatsApp&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=21880221407&amp;aff_fcid=1de63afb093b49a7ae8bff2bf111f9cb-1751230488487-04569-_msdN8cx&amp;tt=MG&amp;aff_fsk=_msdN8cx&amp;aff_platform=defa"/>
-    <hyperlink ref="F6" r:id="rId161" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
-    <hyperlink ref="E6" r:id="rId162"/>
-    <hyperlink ref="F5" r:id="rId163"/>
-    <hyperlink ref="E5" r:id="rId164"/>
-    <hyperlink ref="F4" r:id="rId165"/>
-    <hyperlink ref="E4" r:id="rId166"/>
-    <hyperlink ref="E3" r:id="rId167"/>
-    <hyperlink ref="F3" r:id="rId168"/>
-    <hyperlink ref="E2" r:id="rId169"/>
-    <hyperlink ref="F2" r:id="rId170"/>
-    <hyperlink ref="E30" r:id="rId171"/>
-    <hyperlink ref="F30" r:id="rId172"/>
-    <hyperlink ref="F37" r:id="rId173"/>
-    <hyperlink ref="E37" r:id="rId174"/>
-    <hyperlink ref="E210" r:id="rId175"/>
-    <hyperlink ref="F57" r:id="rId176"/>
-    <hyperlink ref="E57" r:id="rId177"/>
-    <hyperlink ref="F75" r:id="rId178"/>
-    <hyperlink ref="E75" r:id="rId179"/>
-    <hyperlink ref="F65" r:id="rId180" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E65" r:id="rId181"/>
+    <hyperlink ref="F6" r:id="rId159" location="origin%3Dshare%26sid%3Dshare%26wid%3DMLM2288939689"/>
+    <hyperlink ref="E6" r:id="rId160"/>
+    <hyperlink ref="F5" r:id="rId161"/>
+    <hyperlink ref="E5" r:id="rId162"/>
+    <hyperlink ref="F4" r:id="rId163"/>
+    <hyperlink ref="E4" r:id="rId164"/>
+    <hyperlink ref="E3" r:id="rId165"/>
+    <hyperlink ref="F3" r:id="rId166"/>
+    <hyperlink ref="E2" r:id="rId167"/>
+    <hyperlink ref="F2" r:id="rId168"/>
+    <hyperlink ref="E30" r:id="rId169"/>
+    <hyperlink ref="F30" r:id="rId170"/>
+    <hyperlink ref="F36" r:id="rId171"/>
+    <hyperlink ref="E36" r:id="rId172"/>
+    <hyperlink ref="E209" r:id="rId173"/>
+    <hyperlink ref="F56" r:id="rId174"/>
+    <hyperlink ref="E56" r:id="rId175"/>
+    <hyperlink ref="F74" r:id="rId176"/>
+    <hyperlink ref="E74" r:id="rId177"/>
+    <hyperlink ref="F64" r:id="rId178" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E64" r:id="rId179"/>
+    <hyperlink ref="F67" r:id="rId180"/>
+    <hyperlink ref="E67" r:id="rId181"/>
     <hyperlink ref="F68" r:id="rId182"/>
     <hyperlink ref="E68" r:id="rId183"/>
-    <hyperlink ref="F69" r:id="rId184"/>
-    <hyperlink ref="E69" r:id="rId185"/>
-    <hyperlink ref="E70" r:id="rId186"/>
-    <hyperlink ref="E71" r:id="rId187"/>
-    <hyperlink ref="E72" r:id="rId188"/>
-    <hyperlink ref="F72" r:id="rId189" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E74" r:id="rId190"/>
-    <hyperlink ref="E73" r:id="rId191"/>
+    <hyperlink ref="E69" r:id="rId184"/>
+    <hyperlink ref="E70" r:id="rId185"/>
+    <hyperlink ref="E71" r:id="rId186"/>
+    <hyperlink ref="F71" r:id="rId187" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E73" r:id="rId188"/>
+    <hyperlink ref="E72" r:id="rId189"/>
+    <hyperlink ref="E65" r:id="rId190"/>
+    <hyperlink ref="F65" r:id="rId191"/>
     <hyperlink ref="E66" r:id="rId192"/>
-    <hyperlink ref="F66" r:id="rId193"/>
-    <hyperlink ref="E67" r:id="rId194"/>
-    <hyperlink ref="F67" r:id="rId195" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F63" r:id="rId196"/>
-    <hyperlink ref="E63" r:id="rId197"/>
-    <hyperlink ref="E64" r:id="rId198"/>
-    <hyperlink ref="F64" r:id="rId199"/>
-    <hyperlink ref="F59" r:id="rId200"/>
-    <hyperlink ref="E59" r:id="rId201"/>
-    <hyperlink ref="E60" r:id="rId202"/>
-    <hyperlink ref="F60" r:id="rId203"/>
+    <hyperlink ref="F66" r:id="rId193" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F62" r:id="rId194"/>
+    <hyperlink ref="E62" r:id="rId195"/>
+    <hyperlink ref="E63" r:id="rId196"/>
+    <hyperlink ref="F63" r:id="rId197"/>
+    <hyperlink ref="F58" r:id="rId198"/>
+    <hyperlink ref="E58" r:id="rId199"/>
+    <hyperlink ref="E59" r:id="rId200"/>
+    <hyperlink ref="F59" r:id="rId201"/>
+    <hyperlink ref="F60" r:id="rId202"/>
+    <hyperlink ref="E60" r:id="rId203"/>
     <hyperlink ref="F61" r:id="rId204"/>
     <hyperlink ref="E61" r:id="rId205"/>
-    <hyperlink ref="F62" r:id="rId206"/>
-    <hyperlink ref="E62" r:id="rId207"/>
-    <hyperlink ref="F58" r:id="rId208"/>
-    <hyperlink ref="E58" r:id="rId209"/>
-    <hyperlink ref="E24" r:id="rId210"/>
-    <hyperlink ref="F144" r:id="rId211"/>
+    <hyperlink ref="F57" r:id="rId206"/>
+    <hyperlink ref="E57" r:id="rId207"/>
+    <hyperlink ref="E24" r:id="rId208"/>
+    <hyperlink ref="F143" r:id="rId209"/>
+    <hyperlink ref="E143" r:id="rId210"/>
+    <hyperlink ref="F144" r:id="rId211" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E144" r:id="rId212"/>
-    <hyperlink ref="F145" r:id="rId213" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F145" r:id="rId213"/>
     <hyperlink ref="E145" r:id="rId214"/>
-    <hyperlink ref="F146" r:id="rId215"/>
-    <hyperlink ref="E146" r:id="rId216"/>
-    <hyperlink ref="F148" r:id="rId217" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F147" r:id="rId215" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E147" r:id="rId216"/>
+    <hyperlink ref="F148" r:id="rId217"/>
     <hyperlink ref="E148" r:id="rId218"/>
     <hyperlink ref="F149" r:id="rId219"/>
     <hyperlink ref="E149" r:id="rId220"/>
     <hyperlink ref="F150" r:id="rId221"/>
     <hyperlink ref="E150" r:id="rId222"/>
-    <hyperlink ref="F151" r:id="rId223"/>
-    <hyperlink ref="E151" r:id="rId224"/>
-    <hyperlink ref="F200" r:id="rId225"/>
-    <hyperlink ref="E200" r:id="rId226"/>
-    <hyperlink ref="F152" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E152" r:id="rId227"/>
-    <hyperlink ref="F147" r:id="rId228"/>
-    <hyperlink ref="E147" r:id="rId229"/>
-    <hyperlink ref="F99" r:id="rId230"/>
-    <hyperlink ref="E99" r:id="rId231"/>
-    <hyperlink ref="F199" r:id="rId232" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E199" r:id="rId233"/>
-    <hyperlink ref="F98" r:id="rId234"/>
-    <hyperlink ref="E98" r:id="rId235"/>
-    <hyperlink ref="F198" r:id="rId236"/>
-    <hyperlink ref="E198" r:id="rId237"/>
-    <hyperlink ref="F82" r:id="rId238"/>
-    <hyperlink ref="E82" r:id="rId239"/>
-    <hyperlink ref="E83" r:id="rId240"/>
-    <hyperlink ref="F83" r:id="rId241" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F84" r:id="rId242"/>
-    <hyperlink ref="E84" r:id="rId243"/>
+    <hyperlink ref="F199" r:id="rId223"/>
+    <hyperlink ref="E199" r:id="rId224"/>
+    <hyperlink ref="F151" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E151" r:id="rId225"/>
+    <hyperlink ref="F146" r:id="rId226"/>
+    <hyperlink ref="E146" r:id="rId227"/>
+    <hyperlink ref="F98" r:id="rId228"/>
+    <hyperlink ref="E98" r:id="rId229"/>
+    <hyperlink ref="F198" r:id="rId230" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E198" r:id="rId231"/>
+    <hyperlink ref="F97" r:id="rId232"/>
+    <hyperlink ref="E97" r:id="rId233"/>
+    <hyperlink ref="F197" r:id="rId234"/>
+    <hyperlink ref="E197" r:id="rId235"/>
+    <hyperlink ref="F81" r:id="rId236"/>
+    <hyperlink ref="E81" r:id="rId237"/>
+    <hyperlink ref="E82" r:id="rId238"/>
+    <hyperlink ref="F82" r:id="rId239" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F83" r:id="rId240"/>
+    <hyperlink ref="E83" r:id="rId241"/>
+    <hyperlink ref="E85" r:id="rId242"/>
+    <hyperlink ref="F85" r:id="rId243" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E86" r:id="rId244"/>
     <hyperlink ref="F86" r:id="rId245" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E87" r:id="rId246"/>
-    <hyperlink ref="F87" r:id="rId247" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F87" r:id="rId246"/>
+    <hyperlink ref="E87" r:id="rId247"/>
     <hyperlink ref="F88" r:id="rId248"/>
     <hyperlink ref="E88" r:id="rId249"/>
-    <hyperlink ref="F89" r:id="rId250"/>
-    <hyperlink ref="E89" r:id="rId251"/>
+    <hyperlink ref="E89" r:id="rId250"/>
+    <hyperlink ref="F89" r:id="rId251" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E90" r:id="rId252"/>
-    <hyperlink ref="F90" r:id="rId253" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E91" r:id="rId254"/>
+    <hyperlink ref="E91" r:id="rId253"/>
+    <hyperlink ref="F91" r:id="rId254"/>
+    <hyperlink ref="F92" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
     <hyperlink ref="E92" r:id="rId255"/>
-    <hyperlink ref="F92" r:id="rId256"/>
-    <hyperlink ref="F93" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E93" r:id="rId257"/>
-    <hyperlink ref="E94" r:id="rId258"/>
-    <hyperlink ref="F94" r:id="rId259" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E93" r:id="rId256"/>
+    <hyperlink ref="F93" r:id="rId257" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F94" r:id="rId258" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E94" r:id="rId259"/>
     <hyperlink ref="F95" r:id="rId260" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E95" r:id="rId261"/>
-    <hyperlink ref="F96" r:id="rId262" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F96" r:id="rId262"/>
     <hyperlink ref="E96" r:id="rId263"/>
-    <hyperlink ref="F97" r:id="rId264"/>
-    <hyperlink ref="E97" r:id="rId265"/>
-    <hyperlink ref="F81" r:id="rId266"/>
-    <hyperlink ref="E81" r:id="rId267"/>
-    <hyperlink ref="F85" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E85" r:id="rId268"/>
+    <hyperlink ref="F80" r:id="rId264"/>
+    <hyperlink ref="E80" r:id="rId265"/>
+    <hyperlink ref="F84" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E84" r:id="rId266"/>
+    <hyperlink ref="F77" r:id="rId267"/>
+    <hyperlink ref="E77" r:id="rId268"/>
     <hyperlink ref="F78" r:id="rId269"/>
     <hyperlink ref="E78" r:id="rId270"/>
     <hyperlink ref="F79" r:id="rId271"/>
     <hyperlink ref="E79" r:id="rId272"/>
-    <hyperlink ref="F80" r:id="rId273"/>
-    <hyperlink ref="E80" r:id="rId274"/>
-    <hyperlink ref="F41" r:id="rId275"/>
-    <hyperlink ref="E41" r:id="rId276"/>
-    <hyperlink ref="F40" r:id="rId277" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E40" r:id="rId278"/>
-    <hyperlink ref="E168" r:id="rId279"/>
-    <hyperlink ref="F102" r:id="rId280"/>
-    <hyperlink ref="E102" r:id="rId281"/>
-    <hyperlink ref="F197" r:id="rId282"/>
-    <hyperlink ref="E197" r:id="rId283"/>
-    <hyperlink ref="F196" r:id="rId284"/>
-    <hyperlink ref="E196" r:id="rId285"/>
-    <hyperlink ref="F195" r:id="rId286"/>
-    <hyperlink ref="E195" r:id="rId287"/>
-    <hyperlink ref="F194" r:id="rId288"/>
-    <hyperlink ref="E194" r:id="rId289"/>
-    <hyperlink ref="F189" r:id="rId290"/>
-    <hyperlink ref="E189" r:id="rId291"/>
+    <hyperlink ref="F40" r:id="rId273"/>
+    <hyperlink ref="E40" r:id="rId274"/>
+    <hyperlink ref="F39" r:id="rId275" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E39" r:id="rId276"/>
+    <hyperlink ref="E167" r:id="rId277"/>
+    <hyperlink ref="F101" r:id="rId278"/>
+    <hyperlink ref="E101" r:id="rId279"/>
+    <hyperlink ref="F196" r:id="rId280"/>
+    <hyperlink ref="E196" r:id="rId281"/>
+    <hyperlink ref="F195" r:id="rId282"/>
+    <hyperlink ref="E195" r:id="rId283"/>
+    <hyperlink ref="F194" r:id="rId284"/>
+    <hyperlink ref="E194" r:id="rId285"/>
+    <hyperlink ref="F193" r:id="rId286"/>
+    <hyperlink ref="E193" r:id="rId287"/>
+    <hyperlink ref="F188" r:id="rId288"/>
+    <hyperlink ref="E188" r:id="rId289"/>
+    <hyperlink ref="F191" r:id="rId290"/>
+    <hyperlink ref="E191" r:id="rId291"/>
     <hyperlink ref="F192" r:id="rId292"/>
     <hyperlink ref="E192" r:id="rId293"/>
-    <hyperlink ref="F193" r:id="rId294"/>
-    <hyperlink ref="E193" r:id="rId295"/>
-    <hyperlink ref="F191" r:id="rId296"/>
-    <hyperlink ref="E191" r:id="rId297"/>
-    <hyperlink ref="E188" r:id="rId298"/>
-    <hyperlink ref="F188" r:id="rId299"/>
-    <hyperlink ref="F187" display="https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filter"/>
-    <hyperlink ref="E187" r:id="rId300"/>
-    <hyperlink ref="F132" r:id="rId301"/>
-    <hyperlink ref="E132" r:id="rId302"/>
-    <hyperlink ref="F186" r:id="rId303"/>
-    <hyperlink ref="E186" r:id="rId304"/>
-    <hyperlink ref="F143" r:id="rId305"/>
-    <hyperlink ref="E143" r:id="rId306"/>
-    <hyperlink ref="F185" r:id="rId307"/>
-    <hyperlink ref="E185" r:id="rId308"/>
-    <hyperlink ref="F142" r:id="rId309"/>
-    <hyperlink ref="E142" r:id="rId310"/>
-    <hyperlink ref="E184" r:id="rId311"/>
-    <hyperlink ref="F184" r:id="rId312" location="&amp;gid=1&amp;pid=4"/>
-    <hyperlink ref="F183" r:id="rId313"/>
-    <hyperlink ref="E183" r:id="rId314"/>
-    <hyperlink ref="F182" r:id="rId315"/>
-    <hyperlink ref="E182" r:id="rId316"/>
-    <hyperlink ref="F141" r:id="rId317"/>
-    <hyperlink ref="E181" r:id="rId318"/>
-    <hyperlink ref="E131" r:id="rId319"/>
-    <hyperlink ref="F131" r:id="rId320"/>
-    <hyperlink ref="F130" r:id="rId321"/>
-    <hyperlink ref="E130" r:id="rId322"/>
-    <hyperlink ref="F129" r:id="rId323"/>
-    <hyperlink ref="E129" r:id="rId324"/>
-    <hyperlink ref="F128" r:id="rId325" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E128" r:id="rId326"/>
-    <hyperlink ref="F127" r:id="rId327"/>
-    <hyperlink ref="E127" r:id="rId328"/>
-    <hyperlink ref="E126" r:id="rId329"/>
-    <hyperlink ref="E125" r:id="rId330"/>
-    <hyperlink ref="F125" r:id="rId331"/>
-    <hyperlink ref="E124" r:id="rId332"/>
-    <hyperlink ref="F124" r:id="rId333" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E123" r:id="rId334"/>
-    <hyperlink ref="F123" r:id="rId335" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E122" r:id="rId336"/>
-    <hyperlink ref="F122" r:id="rId337"/>
-    <hyperlink ref="F139" r:id="rId338"/>
-    <hyperlink ref="E139" r:id="rId339"/>
-    <hyperlink ref="E138" r:id="rId340"/>
-    <hyperlink ref="F138" r:id="rId341" location="&amp;gid=1&amp;pid=10"/>
-    <hyperlink ref="F137" r:id="rId342" location="&amp;gid=1&amp;pid=6"/>
-    <hyperlink ref="E137" r:id="rId343"/>
-    <hyperlink ref="F136"/>
-    <hyperlink ref="E136" r:id="rId344"/>
-    <hyperlink ref="F135" r:id="rId345"/>
-    <hyperlink ref="E135" r:id="rId346"/>
-    <hyperlink ref="F133" r:id="rId347"/>
+    <hyperlink ref="F190" r:id="rId294"/>
+    <hyperlink ref="E190" r:id="rId295"/>
+    <hyperlink ref="E187" r:id="rId296"/>
+    <hyperlink ref="F187" r:id="rId297"/>
+    <hyperlink ref="F186" display="https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filter"/>
+    <hyperlink ref="E186" r:id="rId298"/>
+    <hyperlink ref="F131" r:id="rId299"/>
+    <hyperlink ref="E131" r:id="rId300"/>
+    <hyperlink ref="F185" r:id="rId301"/>
+    <hyperlink ref="E185" r:id="rId302"/>
+    <hyperlink ref="F142" r:id="rId303"/>
+    <hyperlink ref="E142" r:id="rId304"/>
+    <hyperlink ref="F184" r:id="rId305"/>
+    <hyperlink ref="E184" r:id="rId306"/>
+    <hyperlink ref="F141" r:id="rId307"/>
+    <hyperlink ref="E141" r:id="rId308"/>
+    <hyperlink ref="E183" r:id="rId309"/>
+    <hyperlink ref="F183" r:id="rId310" location="&amp;gid=1&amp;pid=4"/>
+    <hyperlink ref="F182" r:id="rId311"/>
+    <hyperlink ref="E182" r:id="rId312"/>
+    <hyperlink ref="F181" r:id="rId313"/>
+    <hyperlink ref="E181" r:id="rId314"/>
+    <hyperlink ref="F140" r:id="rId315"/>
+    <hyperlink ref="E180" r:id="rId316"/>
+    <hyperlink ref="E130" r:id="rId317"/>
+    <hyperlink ref="F130" r:id="rId318"/>
+    <hyperlink ref="F129" r:id="rId319"/>
+    <hyperlink ref="E129" r:id="rId320"/>
+    <hyperlink ref="F128" r:id="rId321"/>
+    <hyperlink ref="E128" r:id="rId322"/>
+    <hyperlink ref="F127" r:id="rId323" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E127" r:id="rId324"/>
+    <hyperlink ref="F126" r:id="rId325"/>
+    <hyperlink ref="E126" r:id="rId326"/>
+    <hyperlink ref="E125" r:id="rId327"/>
+    <hyperlink ref="E124" r:id="rId328"/>
+    <hyperlink ref="F124" r:id="rId329"/>
+    <hyperlink ref="E123" r:id="rId330"/>
+    <hyperlink ref="F123" r:id="rId331" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E122" r:id="rId332"/>
+    <hyperlink ref="F122" r:id="rId333" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E121" r:id="rId334"/>
+    <hyperlink ref="F121" r:id="rId335"/>
+    <hyperlink ref="F138" r:id="rId336"/>
+    <hyperlink ref="E138" r:id="rId337"/>
+    <hyperlink ref="E137" r:id="rId338"/>
+    <hyperlink ref="F137" r:id="rId339" location="&amp;gid=1&amp;pid=10"/>
+    <hyperlink ref="F136" r:id="rId340" location="&amp;gid=1&amp;pid=6"/>
+    <hyperlink ref="E136" r:id="rId341"/>
+    <hyperlink ref="F135" display="https://www.mercadolibre.com.mx/14-piezas-cajas-organizadoras-apilables-para-zapatos-avedistante-bt3-0415/p/MLM26949544?pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVariation=MLM26949544&amp;position=4&amp;search_layout=grid&amp;type=product"/>
+    <hyperlink ref="E135" r:id="rId342"/>
+    <hyperlink ref="F134" r:id="rId343"/>
+    <hyperlink ref="E134" r:id="rId344"/>
+    <hyperlink ref="F132" r:id="rId345"/>
+    <hyperlink ref="E132" r:id="rId346"/>
+    <hyperlink ref="F133" r:id="rId347" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E133" r:id="rId348"/>
-    <hyperlink ref="F134" r:id="rId349" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E134" r:id="rId350"/>
-    <hyperlink ref="F121"/>
-    <hyperlink ref="E121" r:id="rId351"/>
-    <hyperlink ref="F204"/>
-    <hyperlink ref="E204" r:id="rId352"/>
-    <hyperlink ref="F201" r:id="rId353"/>
+    <hyperlink ref="F120" display="https://articulo.mercadolibre.com.mx/MLM-3003876186-carrito-extraible-multiusos-de-plastico-de-4-capas-a-prueba-_JM?searchVariation=182425909459&amp;vip_filters=shipping%3Afulfillment&amp;pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVari"/>
+    <hyperlink ref="E120" r:id="rId349"/>
+    <hyperlink ref="F203" display="https://articulo.mercadolibre.com.mx/MLM-1413265684-organizador-de-escritorio-fancoyard-con-accesorios-_JM#is_advertising=true&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=48e75072-006e-4977-af61-10efcf8f8569&amp;is_advertising=true&amp;ad_domain=VQCATCORE"/>
+    <hyperlink ref="E203" r:id="rId350"/>
+    <hyperlink ref="F200" r:id="rId351"/>
+    <hyperlink ref="E200" r:id="rId352"/>
+    <hyperlink ref="F201" r:id="rId353" location="&amp;gid=1&amp;pid=1"/>
     <hyperlink ref="E201" r:id="rId354"/>
-    <hyperlink ref="F202" r:id="rId355" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E202" r:id="rId356"/>
-    <hyperlink ref="F206" r:id="rId357"/>
-    <hyperlink ref="E206" r:id="rId358"/>
-    <hyperlink ref="F190" r:id="rId359" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E190" r:id="rId360"/>
-    <hyperlink ref="F203" r:id="rId361" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E203" r:id="rId362"/>
-    <hyperlink ref="E205" r:id="rId363"/>
-    <hyperlink ref="F209"/>
-    <hyperlink ref="E209" r:id="rId364"/>
-    <hyperlink ref="F207" r:id="rId365"/>
-    <hyperlink ref="E207" r:id="rId366"/>
-    <hyperlink ref="F208"/>
-    <hyperlink ref="E208" r:id="rId367"/>
+    <hyperlink ref="F205" r:id="rId355"/>
+    <hyperlink ref="E205" r:id="rId356"/>
+    <hyperlink ref="F189" r:id="rId357" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E189" r:id="rId358"/>
+    <hyperlink ref="F202" r:id="rId359" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E202" r:id="rId360"/>
+    <hyperlink ref="E204" r:id="rId361"/>
+    <hyperlink ref="F208" display="https://articulo.mercadolibre.com.mx/MLM-3052783868-neceser-maletin-reforzado-cosmetiquera-belleza-profesional-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-1999898669-neceser-maletin-reforzado-cosmetiquera-belleza-profesional"/>
+    <hyperlink ref="E208" r:id="rId362"/>
+    <hyperlink ref="F206" r:id="rId363"/>
+    <hyperlink ref="E206" r:id="rId364"/>
+    <hyperlink ref="F207" display="https://articulo.mercadolibre.com.mx/MLM-2110792424-soporte-celular-tablet-brazo-flexible-ajustable-con-clip-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=1a03d828-1a89-46c5-b2be-1d5dd9466291&amp;wid=MLM2110792424&amp;sid="/>
+    <hyperlink ref="E207" r:id="rId365"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId368"/>
+  <pageSetup orientation="portrait" r:id="rId366"/>
   <tableParts count="1">
-    <tablePart r:id="rId369"/>
+    <tablePart r:id="rId367"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$217</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="683">
   <si>
     <t>Nombre</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Cargadores De Batería Coche Moto 12v6a Lcd Pantalla Portátil</t>
   </si>
   <si>
-    <t>Focos Led Para Carro Foco Led H7 Sealight H7</t>
-  </si>
-  <si>
     <t>Par Faros Auxiliares Led Para Moto 4 Modos Ojo Estroboscopia</t>
   </si>
   <si>
@@ -164,18 +161,12 @@
     <t>Indicadora Lateral 31 Led Luz Camión 12-24v 5 Funciones 4pz</t>
   </si>
   <si>
-    <t>Barra De Sonido 2.1 Canales Con Subwoofer 120w Home Theatre</t>
-  </si>
-  <si>
     <t>Bocinas Inalámbrico Portátil Con Micrófono Karaoke Bluetooth</t>
   </si>
   <si>
     <t>Control Inalámbrico Joystick Y Gamepad Para Nintendo Switch</t>
   </si>
   <si>
-    <t>Control Inalámbrico Compatible Switch Wireless Transparencia</t>
-  </si>
-  <si>
     <t>Lazyrosy Tiras De Luces Led Rgb Bluetooth 34m Ip20 Cualquiera</t>
   </si>
   <si>
@@ -1019,12 +1010,6 @@
     <t>Natacion Gafas Protección Uv Antivaho Sin Fugas, Adulto 5 en 1</t>
   </si>
   <si>
-    <t>https://www.amazon.com.mx/dp/B0BF96DJJW?ref=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;ref_=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;social_share=cm_sw_r_cso_wa_apan_dp_Y7PT54SCX6YBCA49W0BJ&amp;previewDohEventScheduleTesting=C</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71MTPBFGNGL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
     <t>Prismáticos Profesionales De Visión Nocturna Hd 60x60, Binoculares</t>
   </si>
   <si>
@@ -1271,9 +1256,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_984524-CBT52033749275_102022-F-bocina-bluetooth-portatil-inalambrica-altavoces-recargables.webp</t>
   </si>
   <si>
-    <t>Reproductor De Cd Bluetooth De Música Portátil Reproductor</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_936782-CBT51925751086_102022-F-reproductor-de-cd-bluetooth-de-musica-portatil-reproductor.webp</t>
   </si>
   <si>
@@ -1658,9 +1640,6 @@
     <t>Alto 158 cm x Ancho 57 cm x Largo 28 cm.</t>
   </si>
   <si>
-    <t>Bloques apilables suaves para bebé Montessori juguetes sensoriales de baño para bebés</t>
-  </si>
-  <si>
     <t>Mochila Para Laptop 15.6 Inch 35 L Hombres Mochilas Escolar Viaje Antirrobo Y Impermeable</t>
   </si>
   <si>
@@ -1992,6 +1971,111 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_673645-MLM84526967526_052025-O-soporte-celular-tablet-brazo-flexible-ajustable-con-clip.webp</t>
+  </si>
+  <si>
+    <t>Kit Focos Led Para Coche Lupa Mini Proyector</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3630404186-kit-focos-led-para-coche-h4-lupa-mini-proyector-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_758777-CBT86704171821_062025-F-kit-focos-led-para-coche-h4-lupa-mini-proyector.webp</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focos Led Para Carro Foco Led Sealight </t>
+  </si>
+  <si>
+    <t>Kit De Faros Focos Led 16000lm 60w Baja O Alta</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_710819-CBT77580986773_072024-N.jpg</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1356218379-kit-de-faros-focos-led-h7-16000lm-100w-canbus-ibiza-07-12-_JM?quantity=1&amp;variation_id=174017688016</t>
+  </si>
+  <si>
+    <t>Alta Calidad Un Par Tipo Flexible Plumas Limpiaparabrisas</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/alta-calidad-un-par-tipo-flexible-plumas-limpiaparabrisas/up/MLMU463435654</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_705262-MLM54162231372_032023-O.webp</t>
+  </si>
+  <si>
+    <t>Tamaño: 19" - 475 mm</t>
+  </si>
+  <si>
+    <t>Kit De Faros Auto Luz Led Canbus 300w</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2257545971-kit-de-faros-h4-h11-h7-9005-9006-auto-luz-led-canbus-300w-_JM?quantity=1&amp;variation_id=187199630745</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_752772-CBT84691015147_052025-O-kit-de-faros-h4-h11-h7-9005-9006-auto-luz-led-canbus-300w.webp</t>
+  </si>
+  <si>
+    <t>Kit De Focos Luz Led Csp Canbus 30-300w</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2266114065-kit-de-focos-luz-led-h4-h11-h7-9005-9006-csp-canbus-30-300w-_JM?quantity=1&amp;variation_id=183199770764</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_852912-CBT85152626497_052025-O-kit-de-focos-luz-led-h4-h11-h7-9005-9006-csp-canbus-30-300w.webp</t>
+  </si>
+  <si>
+    <t>Barra De Sonido 2.1 Canales Con Subwoofer 120w Home Theatre, Bocina</t>
+  </si>
+  <si>
+    <t>Reproductor De Cd Bluetooth De Música Portátil Reproductor, Bocina Bluetooth</t>
+  </si>
+  <si>
+    <t>Control Inalámbrico Compatible Switch Wireless Transparencia Para Nintendo Switch</t>
+  </si>
+  <si>
+    <t>Compatible: Nintendo, pc, android</t>
+  </si>
+  <si>
+    <t>Altavoces de computadora envolvente con USB estéreo con cable multimedia para PC/portátiles/teléfono inteligente</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/-/es/DFHBFG-computadora-envolvente-multimedia-inteligente/dp/B0CX3G5HLH</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41DZ5WT-R7L._AC_SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1442824643-guirnalda-de-globos-de-mariposas-para-fiesta-morado-claro-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_793684-CBT75197555369_032024-O-guirnalda-de-globos-de-mariposas-para-fiesta-morado-claro.webp</t>
+  </si>
+  <si>
+    <t>Kit De Globos En Arco Decorativo Para Bodas Y Cumpleaños</t>
+  </si>
+  <si>
+    <t>Kit De Globos Guirnalda De Globos De Mariposas Para Fiesta, Morado Claro</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1317420664-kit-de-globos-en-arco-decorativo-para-bodas-y-cumpleanos-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_813832-CBT75148552477_032024-O-kit-de-globos-en-arco-decorativo-para-bodas-y-cumpleanos.webp</t>
+  </si>
+  <si>
+    <t>Globo Guirnalda Arco Decoración Cumpleaños Para Paw Patrol</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3803747232-paw-patrol-kit-de-decoracion-de-globos-de-cumpleanos-_JM?searchVariation=184133748040&amp;vip_filters=shipping%3Afulfillment&amp;pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVariation=184133748040&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=4f99aa02-f344-4aa9-85cb-64b50dfe92e9</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_881041-MLM87175897963_072025-F-paw-patrol-kit-de-decoracion-de-globos-de-cumpleanos.webp</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2123,6 +2207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2165,7 +2255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2213,9 +2303,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2235,9 +2322,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2270,6 +2354,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2294,7 +2393,7 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2331,10 +2430,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G209" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G209"/>
-  <sortState ref="A2:G199">
-    <sortCondition ref="G1:G199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G217" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G217"/>
+  <sortState ref="A2:G218">
+    <sortCondition ref="G1:G218"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre" dataDxfId="6"/>
@@ -2612,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2650,15 +2749,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>267</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C2" s="2">
         <v>389</v>
@@ -2667,10 +2766,10 @@
         <v>280</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G2" s="14">
         <v>1</v>
@@ -2678,10 +2777,10 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>262</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C3" s="2">
         <v>138</v>
@@ -2690,10 +2789,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G3" s="14">
         <v>1</v>
@@ -2701,10 +2800,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>259</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C4" s="2">
         <v>135</v>
@@ -2713,10 +2812,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -2724,19 +2823,19 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>256</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C5" s="2">
         <v>150</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -2744,10 +2843,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>333</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C6" s="2">
         <v>135</v>
@@ -2756,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
@@ -2767,10 +2866,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="C7" s="2">
         <v>135</v>
@@ -2779,10 +2878,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -2790,10 +2889,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="C8" s="2">
         <v>120</v>
@@ -2802,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
@@ -2810,10 +2909,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>247</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C9" s="2">
         <v>200</v>
@@ -2822,7 +2921,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -2830,10 +2929,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>244</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C10" s="2">
         <v>150</v>
@@ -2842,7 +2941,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2850,10 +2949,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>243</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C11" s="2">
         <v>160</v>
@@ -2862,10 +2961,10 @@
         <v>130</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -2873,10 +2972,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>238</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C12" s="2">
         <v>569</v>
@@ -2885,10 +2984,10 @@
         <v>390</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -2896,10 +2995,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="C13" s="2">
         <v>298</v>
@@ -2908,10 +3007,10 @@
         <v>235</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -2919,10 +3018,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C14" s="2">
         <v>300</v>
@@ -2931,10 +3030,10 @@
         <v>150</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -2942,10 +3041,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C15" s="2">
         <v>498</v>
@@ -2954,10 +3053,10 @@
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -2965,10 +3064,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>225</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C16" s="2">
         <v>179</v>
@@ -2977,10 +3076,10 @@
         <v>140</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
@@ -2988,10 +3087,10 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>338</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C17" s="2">
         <v>719</v>
@@ -3000,21 +3099,21 @@
         <v>230</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="14">
+        <v>223</v>
+      </c>
+      <c r="G17" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>177</v>
+        <v>222</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C18" s="2">
         <v>347</v>
@@ -3023,10 +3122,10 @@
         <v>220</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
@@ -3034,10 +3133,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>537</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C19" s="2">
         <v>353</v>
@@ -3046,10 +3145,10 @@
         <v>290</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -3057,19 +3156,19 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>215</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="2">
         <v>500</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G20" s="14">
         <v>1</v>
@@ -3077,702 +3176,705 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>335</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C21" s="2">
-        <v>459.07</v>
-      </c>
-      <c r="D21" s="2">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="18">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>337</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C22" s="2">
-        <v>419.19</v>
+        <v>459.07</v>
       </c>
       <c r="D22" s="2">
-        <v>235</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>132</v>
+        <v>425</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="20">
+        <v>59</v>
+      </c>
+      <c r="G22" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>337</v>
+        <v>6</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>332</v>
       </c>
       <c r="C23" s="2">
-        <v>570</v>
+        <v>419.19</v>
       </c>
       <c r="D23" s="2">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="20">
+        <v>60</v>
+      </c>
+      <c r="G23" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>337</v>
+        <v>7</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="C24" s="2">
-        <v>170</v>
+        <v>570</v>
+      </c>
+      <c r="D24" s="2">
+        <v>450</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="20">
+        <v>61</v>
+      </c>
+      <c r="G24" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>337</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="C25" s="2">
-        <v>185</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>134</v>
+        <v>170</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="20">
+        <v>130</v>
+      </c>
+      <c r="G25" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>336</v>
+        <v>268</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>332</v>
       </c>
       <c r="C26" s="2">
-        <v>298</v>
-      </c>
-      <c r="D26" s="2">
-        <v>180</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>141</v>
+        <v>185</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="20">
+        <v>62</v>
+      </c>
+      <c r="G26" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>269</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C27" s="2">
-        <v>194.36</v>
+        <v>298</v>
       </c>
       <c r="D27" s="2">
-        <v>150</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>135</v>
+        <v>180</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="20">
+        <v>63</v>
+      </c>
+      <c r="G27" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>335</v>
+        <v>9</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C28" s="2">
-        <v>439</v>
+        <v>194.36</v>
       </c>
       <c r="D28" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="20">
+        <v>64</v>
+      </c>
+      <c r="G28" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>329</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="C29" s="2">
-        <v>185</v>
+        <v>439</v>
+      </c>
+      <c r="D29" s="2">
+        <v>200</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="20">
+        <v>85</v>
+      </c>
+      <c r="G29" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C30" s="2">
-        <v>230</v>
-      </c>
-      <c r="D30" s="2">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G30" s="20">
+        <v>86</v>
+      </c>
+      <c r="G30" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="2">
+        <v>230</v>
+      </c>
+      <c r="D31" s="2">
+        <v>210</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="2">
-        <v>189.99</v>
-      </c>
-      <c r="D31" s="2">
-        <v>170</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>177</v>
+        <v>272</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C32" s="2">
-        <v>150</v>
+        <v>189.99</v>
+      </c>
+      <c r="D32" s="2">
+        <v>170</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="20">
+        <v>87</v>
+      </c>
+      <c r="G32" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>274</v>
+        <v>24</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="20">
+        <v>159</v>
+      </c>
+      <c r="G33" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>270</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="C34" s="2">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="20">
+        <v>88</v>
+      </c>
+      <c r="G34" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>25</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C35" s="2">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="20">
+        <v>89</v>
+      </c>
+      <c r="G35" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>26</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C36" s="2">
-        <v>130</v>
-      </c>
-      <c r="D36" s="2">
+        <v>200</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>276</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C37" s="2">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="34">
-        <v>3</v>
+        <v>278</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>177</v>
+        <v>661</v>
+      </c>
+      <c r="B38" s="17">
+        <v>9006</v>
       </c>
       <c r="C38" s="2">
+        <v>1876</v>
+      </c>
+      <c r="D38" s="2">
+        <v>950</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="G38" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C39" s="2">
+        <v>637</v>
+      </c>
+      <c r="D39" s="2">
+        <v>400</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="G39" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="2">
         <v>160</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>100</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="2">
-        <v>385</v>
-      </c>
-      <c r="D39" s="2">
-        <v>250</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="G39" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="2">
-        <v>670</v>
-      </c>
-      <c r="D40" s="2">
-        <v>500</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="G40" s="35">
+        <v>171</v>
+      </c>
+      <c r="G40" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>177</v>
+        <v>657</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>660</v>
       </c>
       <c r="C41" s="2">
-        <v>342.66</v>
+        <v>250</v>
       </c>
       <c r="D41" s="2">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>169</v>
+        <v>659</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="34">
+        <v>658</v>
+      </c>
+      <c r="G41" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>177</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C42" s="2">
-        <v>323.66000000000003</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="34">
+        <v>172</v>
+      </c>
+      <c r="G42" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>177</v>
+        <v>455</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C43" s="2">
-        <v>237.76</v>
+        <v>385</v>
       </c>
       <c r="D43" s="2">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="34">
+        <v>458</v>
+      </c>
+      <c r="G43" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>454</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C44" s="2">
-        <v>359</v>
+        <v>670</v>
       </c>
       <c r="D44" s="2">
+        <v>500</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="G44" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C45" s="2">
+        <v>469</v>
+      </c>
+      <c r="D45" s="2">
         <v>200</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="2">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2">
-        <v>170</v>
-      </c>
       <c r="E45" s="12" t="s">
-        <v>176</v>
+        <v>655</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="34">
+        <v>656</v>
+      </c>
+      <c r="G45" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>177</v>
+        <v>653</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>652</v>
       </c>
       <c r="C46" s="2">
-        <v>120</v>
+        <v>442.66</v>
       </c>
       <c r="D46" s="2">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="34">
+        <v>167</v>
+      </c>
+      <c r="G46" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>177</v>
+        <v>29</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C47" s="2">
-        <v>495.99</v>
+        <v>323.66000000000003</v>
       </c>
       <c r="D47" s="2">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="36">
+        <v>93</v>
+      </c>
+      <c r="G47" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>281</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C48" s="2">
-        <v>166.88</v>
+        <v>237.76</v>
       </c>
       <c r="D48" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G48" s="34">
+        <v>169</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>30</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C49" s="2">
-        <v>149.99</v>
+        <v>359</v>
       </c>
       <c r="D49" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="34">
+        <v>170</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>177</v>
+        <v>31</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C50" s="2">
-        <v>1072.6500000000001</v>
+        <v>210</v>
       </c>
       <c r="D50" s="2">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="34">
+        <v>96</v>
+      </c>
+      <c r="G50" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C51" s="2">
-        <v>393.2</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="34">
+        <v>97</v>
+      </c>
+      <c r="G51" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>177</v>
+        <v>35</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C52" s="2">
-        <v>1064.8800000000001</v>
+        <v>495.99</v>
       </c>
       <c r="D52" s="2">
-        <v>1025</v>
+        <v>350</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G52" s="34">
         <v>3</v>
@@ -3780,225 +3882,223 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>42</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C53" s="2">
-        <v>758.9</v>
+        <v>166.88</v>
       </c>
       <c r="D53" s="2">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="34">
+        <v>183</v>
+      </c>
+      <c r="G53" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C54" s="2">
-        <v>650</v>
+        <v>149.99</v>
       </c>
       <c r="D54" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="34">
+        <v>184</v>
+      </c>
+      <c r="G54" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C55" s="2">
+        <v>1072.6500000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>900</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="2">
+        <v>393.2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>300</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1064.8800000000001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1025</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="2">
+        <v>758.9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>700</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="2">
+        <v>650</v>
+      </c>
+      <c r="D59" s="2">
+        <v>500</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="2">
         <v>268</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D60" s="2">
         <v>150</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="34">
+      <c r="E60" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="32">
         <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="22">
-        <v>375</v>
-      </c>
-      <c r="D56" s="22">
-        <v>260</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="G56" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="22">
-        <v>200</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="22">
-        <v>295</v>
-      </c>
-      <c r="D58" s="22">
-        <v>150</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="G58" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="22">
-        <v>279</v>
-      </c>
-      <c r="D59" s="22">
-        <v>150</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C60" s="22">
-        <v>249</v>
-      </c>
-      <c r="D60" s="22">
-        <v>150</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G60" s="21">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="22">
-        <v>300</v>
-      </c>
-      <c r="D61" s="22"/>
+        <v>282</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="21">
+        <v>375</v>
+      </c>
+      <c r="D61" s="21">
+        <v>260</v>
+      </c>
       <c r="E61" s="12" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G61" s="21">
+        <v>283</v>
+      </c>
+      <c r="G61" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="22">
-        <v>250</v>
-      </c>
-      <c r="D62" s="22"/>
+        <v>327</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="21">
+        <v>200</v>
+      </c>
+      <c r="D62" s="21"/>
       <c r="E62" s="12" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="G62" s="21">
+        <v>112</v>
+      </c>
+      <c r="G62" s="20">
         <v>4</v>
       </c>
     </row>
@@ -4006,3349 +4106,3531 @@
       <c r="A63" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="22">
+      <c r="B63" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="21">
+        <v>295</v>
+      </c>
+      <c r="D63" s="21">
         <v>150</v>
       </c>
-      <c r="D63" s="22"/>
       <c r="E63" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="G63" s="23">
+      <c r="G63" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="22">
-        <v>400</v>
-      </c>
-      <c r="D64" s="22">
-        <v>250</v>
+        <v>323</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="21">
+        <v>279</v>
+      </c>
+      <c r="D64" s="21">
+        <v>150</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>293</v>
+        <v>140</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G64" s="21">
+        <v>69</v>
+      </c>
+      <c r="G64" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="22">
-        <v>250</v>
-      </c>
-      <c r="D65" s="22"/>
+        <v>326</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="21">
+        <v>249</v>
+      </c>
+      <c r="D65" s="21">
+        <v>150</v>
+      </c>
       <c r="E65" s="12" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="G65" s="21">
+        <v>324</v>
+      </c>
+      <c r="G65" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="22">
+        <v>316</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="21">
         <v>250</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="12" t="s">
         <v>315</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G66" s="21">
+        <v>314</v>
+      </c>
+      <c r="G66" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="22">
-        <v>270</v>
-      </c>
-      <c r="D67" s="22">
-        <v>200</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="21">
+        <v>150</v>
+      </c>
+      <c r="D67" s="21"/>
       <c r="E67" s="12" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G67" s="21">
+        <v>319</v>
+      </c>
+      <c r="G67" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="22">
-        <v>455</v>
-      </c>
-      <c r="D68" s="22">
+        <v>288</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="21">
+        <v>400</v>
+      </c>
+      <c r="D68" s="21">
+        <v>250</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="F68" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G68" s="21">
+        <v>289</v>
+      </c>
+      <c r="G68" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="22">
-        <v>150</v>
-      </c>
-      <c r="D69" s="22">
-        <v>100</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="21">
+        <v>250</v>
+      </c>
+      <c r="D69" s="21"/>
       <c r="E69" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="21">
+        <v>309</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="22">
-        <v>150</v>
-      </c>
-      <c r="D70" s="22">
-        <v>100</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="21">
+        <v>250</v>
+      </c>
+      <c r="D70" s="21"/>
       <c r="E70" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="21">
+        <v>312</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G70" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="22">
-        <v>375</v>
-      </c>
-      <c r="D71" s="22">
-        <v>250</v>
+        <v>291</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="21">
+        <v>270</v>
+      </c>
+      <c r="D71" s="21">
+        <v>200</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G71" s="21">
+        <v>292</v>
+      </c>
+      <c r="G71" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="22">
-        <v>150</v>
-      </c>
-      <c r="D72" s="22">
-        <v>100</v>
+        <v>294</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="21">
+        <v>455</v>
+      </c>
+      <c r="D72" s="21">
+        <v>290</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="21">
+        <v>296</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="22">
-        <v>250</v>
-      </c>
-      <c r="D73" s="22">
-        <v>200</v>
+        <v>297</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="21">
+        <v>150</v>
+      </c>
+      <c r="D73" s="21">
+        <v>100</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="21">
+      <c r="G73" s="20">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="22">
+        <v>299</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="21">
+        <v>150</v>
+      </c>
+      <c r="D74" s="21">
+        <v>100</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="21">
+        <v>375</v>
+      </c>
+      <c r="D75" s="21">
+        <v>250</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="G75" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="21">
+        <v>150</v>
+      </c>
+      <c r="D76" s="21">
+        <v>100</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="21">
+        <v>250</v>
+      </c>
+      <c r="D77" s="21">
+        <v>200</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="21">
         <v>260</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D78" s="21">
         <v>250</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G74" s="21">
+      <c r="E78" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" s="20">
         <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="2">
-        <v>322</v>
-      </c>
-      <c r="D75" s="2">
-        <v>270</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="2">
-        <v>310</v>
-      </c>
-      <c r="D76" s="2">
-        <v>150</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="2">
-        <v>250</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="G77" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="2">
-        <v>200</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="G78" s="26">
-        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>177</v>
+        <v>50</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C79" s="2">
-        <v>200</v>
+        <v>322</v>
+      </c>
+      <c r="D79" s="2">
+        <v>270</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>455</v>
+        <v>197</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="G79" s="26">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="G79" s="23">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>445</v>
+        <v>55</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C80" s="2">
-        <v>2600</v>
+        <v>310</v>
       </c>
       <c r="D80" s="2">
-        <v>1800</v>
+        <v>150</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>444</v>
+        <v>203</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G80" s="26">
-        <v>5</v>
+        <v>121</v>
+      </c>
+      <c r="G80" s="20">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>394</v>
+        <v>451</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C81" s="2">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="G81" s="26">
+        <v>443</v>
+      </c>
+      <c r="G81" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>402</v>
+        <v>450</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C82" s="2">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="G82" s="26">
+        <v>445</v>
+      </c>
+      <c r="G82" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>401</v>
+        <v>446</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C83" s="2">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="G83" s="26">
+        <v>448</v>
+      </c>
+      <c r="G83" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>671</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C84" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>448</v>
+        <v>673</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="G84" s="26">
+        <v>672</v>
+      </c>
+      <c r="G84" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>177</v>
+        <v>436</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>439</v>
       </c>
       <c r="C85" s="2">
-        <v>352</v>
+        <v>2600</v>
       </c>
       <c r="D85" s="2">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="G85" s="26">
+        <v>437</v>
+      </c>
+      <c r="G85" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>177</v>
+        <v>386</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="C86" s="2">
-        <v>999</v>
-      </c>
-      <c r="D86" s="2">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="G86" s="26">
+        <v>387</v>
+      </c>
+      <c r="G86" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>177</v>
+        <v>390</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="C87" s="2">
-        <v>1552</v>
-      </c>
-      <c r="D87" s="2">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="G87" s="26">
+        <v>392</v>
+      </c>
+      <c r="G87" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>177</v>
+        <v>393</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>396</v>
       </c>
       <c r="C88" s="2">
-        <v>292</v>
-      </c>
-      <c r="D88" s="2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="G88" s="26">
+        <v>394</v>
+      </c>
+      <c r="G88" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>177</v>
+        <v>440</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C89" s="2">
-        <v>1500</v>
-      </c>
-      <c r="D89" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="G89" s="26">
+        <v>441</v>
+      </c>
+      <c r="G89" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>419</v>
+        <v>452</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C90" s="2">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="D90" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="26">
+        <v>398</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="G90" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>418</v>
+        <v>400</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C91" s="2">
-        <v>144</v>
+        <v>999</v>
       </c>
       <c r="D91" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="G91" s="26">
+        <v>402</v>
+      </c>
+      <c r="G91" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C92" s="2">
-        <v>350</v>
+        <v>1552</v>
       </c>
       <c r="D92" s="2">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="G92" s="26">
+        <v>404</v>
+      </c>
+      <c r="G92" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C93" s="2">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="D93" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="G93" s="26">
+        <v>407</v>
+      </c>
+      <c r="G93" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>438</v>
+        <v>668</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C94" s="2">
-        <v>270</v>
+        <v>1500</v>
       </c>
       <c r="D94" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="G94" s="26">
+        <v>410</v>
+      </c>
+      <c r="G94" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>438</v>
+        <v>414</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="C95" s="2">
-        <v>250</v>
+        <v>445</v>
       </c>
       <c r="D95" s="2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="G95" s="26">
+        <v>415</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>177</v>
+        <v>411</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="C96" s="2">
-        <v>250</v>
+        <v>144</v>
+      </c>
+      <c r="D96" s="2">
+        <v>100</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="G96" s="26">
+        <v>417</v>
+      </c>
+      <c r="G96" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>385</v>
+        <v>418</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>419</v>
       </c>
       <c r="C97" s="2">
-        <v>11200</v>
+        <v>350</v>
       </c>
       <c r="D97" s="2">
-        <v>6500</v>
+        <v>180</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="G97" s="26">
+        <v>420</v>
+      </c>
+      <c r="G97" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>377</v>
+        <v>422</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="C98" s="2">
-        <v>9700</v>
+        <v>325</v>
       </c>
       <c r="D98" s="2">
-        <v>5500</v>
+        <v>180</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G98" s="26">
+        <v>425</v>
+      </c>
+      <c r="G98" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>427</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="C99" s="2">
-        <v>325.32</v>
+        <v>270</v>
       </c>
       <c r="D99" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>188</v>
+        <v>429</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" s="26">
+        <v>428</v>
+      </c>
+      <c r="G99" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>426</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>432</v>
       </c>
       <c r="C100" s="2">
-        <v>589.4</v>
+        <v>250</v>
       </c>
       <c r="D100" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>189</v>
+        <v>431</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" s="26">
+        <v>430</v>
+      </c>
+      <c r="G100" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>177</v>
+        <v>433</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C101" s="2">
-        <v>252</v>
-      </c>
-      <c r="D101" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="G101" s="26">
+        <v>434</v>
+      </c>
+      <c r="G101" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>177</v>
+        <v>379</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="C102" s="2">
-        <v>259</v>
+        <v>11200</v>
       </c>
       <c r="D102" s="2">
-        <v>150</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>143</v>
+        <v>6500</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>217</v>
+        <v>378</v>
+      </c>
+      <c r="G102" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>177</v>
+        <v>371</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>372</v>
       </c>
       <c r="C103" s="2">
-        <v>279</v>
+        <v>9700</v>
       </c>
       <c r="D103" s="2">
-        <v>180</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>142</v>
+        <v>5500</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>217</v>
+        <v>373</v>
+      </c>
+      <c r="G103" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>177</v>
+        <v>610</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C104" s="2">
-        <v>210</v>
+        <v>325.32</v>
       </c>
       <c r="D104" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>217</v>
+        <v>106</v>
+      </c>
+      <c r="G104" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>177</v>
+        <v>44</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C105" s="2">
-        <v>166.93</v>
+        <v>589.4</v>
       </c>
       <c r="D105" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>217</v>
+        <v>107</v>
+      </c>
+      <c r="G105" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>177</v>
+        <v>479</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C106" s="2">
-        <v>1899</v>
+        <v>252</v>
       </c>
       <c r="D106" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>217</v>
+        <v>480</v>
+      </c>
+      <c r="G106" s="25">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>177</v>
+        <v>680</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C107" s="2">
-        <v>2100</v>
+        <v>248</v>
       </c>
       <c r="D107" s="2">
-        <v>1600</v>
+        <v>150</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>185</v>
+        <v>682</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>217</v>
+        <v>681</v>
+      </c>
+      <c r="G107" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>177</v>
+        <v>676</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C108" s="2">
-        <v>350</v>
+        <v>232</v>
+      </c>
+      <c r="D108" s="2">
+        <v>150</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>190</v>
+        <v>679</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>217</v>
+        <v>678</v>
+      </c>
+      <c r="G108" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>177</v>
+        <v>677</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C109" s="2">
-        <v>411.67</v>
+        <v>245</v>
       </c>
       <c r="D109" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>217</v>
+        <v>675</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="G109" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>177</v>
+        <v>20</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C110" s="2">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="D110" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>217</v>
+        <v>153</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>177</v>
+        <v>21</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C111" s="2">
-        <v>689.2</v>
+        <v>166.93</v>
       </c>
       <c r="D111" s="2">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>217</v>
+        <v>83</v>
+      </c>
+      <c r="G111" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C112" s="2">
-        <v>240</v>
+        <v>665</v>
+      </c>
+      <c r="D112" s="2">
+        <v>450</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>217</v>
+        <v>65</v>
+      </c>
+      <c r="G112" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>177</v>
+        <v>513</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>514</v>
       </c>
       <c r="C113" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G113" s="25" t="s">
-        <v>217</v>
+        <v>516</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G113" s="39">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>177</v>
+        <v>12</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C114" s="2">
-        <v>399</v>
+        <v>259</v>
       </c>
       <c r="D114" s="2">
-        <v>200</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>197</v>
+        <v>150</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>177</v>
+        <v>13</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C115" s="2">
-        <v>238.9</v>
+        <v>279</v>
       </c>
       <c r="D115" s="2">
-        <v>100</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>177</v>
+        <v>41</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C116" s="2">
+        <v>1899</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="F116" s="13" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>177</v>
+        <v>667</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C117" s="2">
-        <v>899</v>
+        <v>2100</v>
       </c>
       <c r="D117" s="2">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>177</v>
+        <v>45</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="C118" s="2">
-        <v>142</v>
-      </c>
-      <c r="D118" s="2">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>177</v>
+        <v>669</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="C119" s="2">
-        <v>633.91</v>
+        <v>411.67</v>
       </c>
       <c r="D119" s="2">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>102</v>
+        <v>188</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>616</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>622</v>
+        <v>337</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C120" s="2">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="D120" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="7">
-        <v>479</v>
-      </c>
-      <c r="D121" s="7">
-        <v>250</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>593</v>
+        <v>190</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="2">
+        <v>689.2</v>
+      </c>
+      <c r="D121" s="2">
+        <v>500</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>177</v>
+        <v>453</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C122" s="2">
-        <v>320</v>
-      </c>
-      <c r="D122" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>588</v>
+        <v>192</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>593</v>
+        <v>110</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C123" s="2">
-        <v>660</v>
-      </c>
-      <c r="D123" s="2">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="G123" s="28" t="s">
-        <v>593</v>
+        <v>212</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>177</v>
+        <v>48</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C124" s="2">
         <v>399</v>
       </c>
       <c r="D124" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>582</v>
+        <v>194</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="G124" s="28" t="s">
-        <v>593</v>
+        <v>112</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>177</v>
+        <v>52</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C125" s="2">
-        <v>599</v>
+        <v>238.9</v>
       </c>
       <c r="D125" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="28" t="s">
-        <v>593</v>
+        <v>199</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>577</v>
+        <v>57</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C126" s="2">
-        <v>599</v>
+        <v>899</v>
       </c>
       <c r="D126" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>578</v>
+        <v>206</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="G126" s="28" t="s">
-        <v>593</v>
+        <v>124</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>574</v>
+        <v>58</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C127" s="2">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D127" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>573</v>
+        <v>207</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="G127" s="28" t="s">
-        <v>593</v>
+        <v>125</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" s="2">
+        <v>633.91</v>
+      </c>
+      <c r="D128" s="2">
+        <v>600</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C129" s="2">
+        <v>375</v>
+      </c>
+      <c r="D129" s="2">
+        <v>200</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="G129" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="7">
+        <v>479</v>
+      </c>
+      <c r="D130" s="7">
+        <v>250</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="2">
+        <v>320</v>
+      </c>
+      <c r="D131" s="2">
+        <v>250</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="2">
+        <v>660</v>
+      </c>
+      <c r="D132" s="2">
+        <v>500</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="G132" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="2">
+        <v>399</v>
+      </c>
+      <c r="D133" s="2">
+        <v>350</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G133" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="2">
+        <v>599</v>
+      </c>
+      <c r="D134" s="2">
+        <v>400</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F134" s="13"/>
+      <c r="G134" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C128" s="2">
-        <v>253</v>
-      </c>
-      <c r="D128" s="2">
+      <c r="B135" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C135" s="2">
+        <v>599</v>
+      </c>
+      <c r="D135" s="2">
+        <v>350</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C136" s="2">
+        <v>189</v>
+      </c>
+      <c r="D136" s="2">
         <v>150</v>
       </c>
-      <c r="E128" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G128" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="E136" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" s="2">
-        <v>615</v>
-      </c>
-      <c r="D129" s="2">
-        <v>400</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G129" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C130" s="2">
-        <v>999</v>
-      </c>
-      <c r="D130" s="2">
-        <v>750</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="G130" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C131" s="2">
-        <v>599</v>
-      </c>
-      <c r="D131" s="2">
-        <v>455</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="G131" s="28" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C132" s="2">
-        <v>375</v>
-      </c>
-      <c r="D132" s="2">
-        <v>190</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="G132" s="15" t="s">
+      <c r="F136" s="13" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C133" s="2">
-        <v>300</v>
-      </c>
-      <c r="D133" s="2">
-        <v>200</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C134" s="2">
-        <v>389</v>
-      </c>
-      <c r="D134" s="2">
-        <v>300</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C135" s="2">
-        <v>399</v>
-      </c>
-      <c r="D135" s="2">
-        <v>250</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C136" s="2">
-        <v>299</v>
-      </c>
-      <c r="D136" s="2">
-        <v>200</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="G136" s="15" t="s">
-        <v>565</v>
+      <c r="G136" s="26" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>177</v>
+        <v>561</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C137" s="2">
-        <v>1900</v>
+        <v>253</v>
       </c>
       <c r="D137" s="2">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
+      </c>
+      <c r="G137" s="26" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>177</v>
+        <v>559</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C138" s="2">
-        <v>899</v>
+        <v>615</v>
       </c>
       <c r="D138" s="2">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="G138" s="15" t="s">
-        <v>565</v>
+        <v>295</v>
+      </c>
+      <c r="G138" s="26" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C139" s="2">
+        <v>999</v>
+      </c>
+      <c r="D139" s="2">
+        <v>750</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="F139" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="2">
-        <v>250</v>
-      </c>
-      <c r="D139" s="2">
-        <v>200</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>565</v>
+      <c r="G139" s="26" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>554</v>
+        <v>517</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C140" s="2">
-        <v>1100</v>
+        <v>599</v>
       </c>
       <c r="D140" s="2">
-        <v>900</v>
+        <v>455</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>565</v>
+        <v>518</v>
+      </c>
+      <c r="G140" s="26" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>177</v>
+        <v>602</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>604</v>
       </c>
       <c r="C141" s="2">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="D141" s="2">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>177</v>
+        <v>606</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C142" s="2">
         <v>300</v>
       </c>
       <c r="D142" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>560</v>
+        <v>596</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C143" s="2">
+        <v>389</v>
+      </c>
+      <c r="D143" s="2">
         <v>300</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>347</v>
+        <v>601</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="G143" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="G143" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>560</v>
+        <v>595</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>599</v>
       </c>
       <c r="C144" s="2">
-        <v>650</v>
+        <v>399</v>
       </c>
       <c r="D144" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>350</v>
+        <v>598</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G144" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G144" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>560</v>
+        <v>530</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="C145" s="2">
+        <v>299</v>
+      </c>
+      <c r="D145" s="2">
         <v>200</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="G145" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="G145" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>560</v>
+        <v>590</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C146" s="2">
-        <v>250</v>
+        <v>1900</v>
       </c>
       <c r="D146" s="2">
-        <v>150</v>
+        <v>950</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>374</v>
+        <v>591</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="G146" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="G146" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>560</v>
+        <v>587</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C147" s="2">
-        <v>550</v>
+        <v>899</v>
       </c>
       <c r="D147" s="2">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>356</v>
+        <v>589</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="G147" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="G147" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C148" s="2">
-        <v>660</v>
+        <v>250</v>
       </c>
       <c r="D148" s="2">
         <v>200</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G148" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G148" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>560</v>
+        <v>544</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="C149" s="2">
-        <v>690</v>
+        <v>1100</v>
       </c>
       <c r="D149" s="2">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>362</v>
+        <v>546</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="G149" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="G149" s="15" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>366</v>
+        <v>529</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C150" s="2">
-        <v>637</v>
+        <v>350</v>
       </c>
       <c r="D150" s="2">
+        <v>200</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="2">
         <v>300</v>
       </c>
-      <c r="E150" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="G150" s="29" t="s">
+      <c r="D151" s="2">
+        <v>240</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G151" s="15" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C151" s="2">
-        <v>499</v>
-      </c>
-      <c r="D151" s="2">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" s="2">
+        <v>300</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C153" s="2">
+        <v>650</v>
+      </c>
+      <c r="D153" s="2">
+        <v>450</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C154" s="2">
+        <v>200</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C155" s="2">
+        <v>250</v>
+      </c>
+      <c r="D155" s="2">
+        <v>150</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G155" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C156" s="2">
+        <v>550</v>
+      </c>
+      <c r="D156" s="2">
         <v>350</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="G151" s="37" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="2">
-        <v>665</v>
-      </c>
-      <c r="D152" s="2">
-        <v>450</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G152" s="25" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C153" s="2">
-        <v>315</v>
-      </c>
-      <c r="D153" s="2">
-        <v>250</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C154" s="2">
-        <v>170.73</v>
-      </c>
-      <c r="D154" s="2">
-        <v>140</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F154" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G154" s="30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C155" s="2">
-        <v>180</v>
-      </c>
-      <c r="D155" s="2">
-        <v>100</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F155" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G155" s="32" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C156" s="2">
-        <v>212</v>
-      </c>
-      <c r="D156" s="2">
-        <v>120</v>
-      </c>
       <c r="E156" s="12" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G156" s="30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="G156" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>469</v>
+        <v>352</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>552</v>
       </c>
       <c r="C157" s="2">
-        <v>178.03</v>
+        <v>660</v>
       </c>
       <c r="D157" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G157" s="30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="G157" s="27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>177</v>
+        <v>355</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="C158" s="2">
-        <v>200</v>
+        <v>690</v>
       </c>
       <c r="D158" s="2">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G158" s="32" t="s">
-        <v>466</v>
+        <v>356</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>177</v>
+        <v>358</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>361</v>
       </c>
       <c r="C159" s="2">
-        <v>193.7</v>
+        <v>637</v>
       </c>
       <c r="D159" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G159" s="30" t="s">
-        <v>466</v>
+        <v>359</v>
+      </c>
+      <c r="G159" s="35" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>177</v>
+        <v>370</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="C160" s="2">
-        <v>106</v>
+        <v>499</v>
       </c>
       <c r="D160" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G160" s="30" t="s">
-        <v>466</v>
+        <v>366</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G160" s="40" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C161" s="2">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="D161" s="2">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G161" s="30" t="s">
-        <v>466</v>
+        <v>78</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B162" s="1" t="s">
         <v>469</v>
       </c>
+      <c r="B162" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="C162" s="2">
-        <v>248.02</v>
+        <v>170.73</v>
       </c>
       <c r="D162" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G162" s="30" t="s">
-        <v>466</v>
+        <v>66</v>
+      </c>
+      <c r="G162" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>483</v>
+        <v>11</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="C163" s="2">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D163" s="2">
         <v>100</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G163" s="30" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>177</v>
+        <v>14</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C164" s="2">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="D164" s="2">
         <v>120</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G164" s="30" t="s">
-        <v>466</v>
+        <v>70</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>177</v>
+        <v>15</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C165" s="2">
-        <v>270</v>
+        <v>178.03</v>
       </c>
       <c r="D165" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G165" s="30" t="s">
-        <v>466</v>
+        <v>71</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C166" s="2">
-        <v>119.4</v>
+        <v>200</v>
       </c>
       <c r="D166" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G166" s="30" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C167" s="2">
-        <v>149</v>
+        <v>193.7</v>
       </c>
       <c r="D167" s="2">
         <v>100</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="F167" s="13"/>
-      <c r="G167" s="32" t="s">
-        <v>466</v>
+        <v>143</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>469</v>
+        <v>16</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C168" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D168" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F168" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G168" s="32" t="s">
-        <v>466</v>
+        <v>145</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>177</v>
+        <v>17</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="C169" s="2">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="D169" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G169" s="30" t="s">
-        <v>466</v>
+        <v>74</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>177</v>
+        <v>339</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C170" s="2">
-        <v>374.7</v>
+        <v>248.02</v>
       </c>
       <c r="D170" s="2">
         <v>150</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G170" s="30" t="s">
-        <v>466</v>
+        <v>75</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>177</v>
+        <v>18</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>477</v>
       </c>
       <c r="C171" s="2">
-        <v>499</v>
+        <v>120</v>
       </c>
       <c r="D171" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G171" s="30" t="s">
-        <v>466</v>
+        <v>76</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>177</v>
+        <v>334</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C172" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="D172" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G172" s="30" t="s">
-        <v>466</v>
+        <v>77</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>177</v>
+        <v>19</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C173" s="2">
-        <v>126.85</v>
+        <v>270</v>
       </c>
       <c r="D173" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G173" s="30" t="s">
-        <v>466</v>
+        <v>79</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>475</v>
       </c>
       <c r="C174" s="2">
-        <v>250</v>
+        <v>119.4</v>
       </c>
       <c r="D174" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G174" s="30" t="s">
-        <v>466</v>
+        <v>80</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>177</v>
+        <v>471</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C175" s="2">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D175" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>212</v>
+        <v>472</v>
       </c>
       <c r="F175" s="13"/>
-      <c r="G175" s="31" t="s">
-        <v>466</v>
+      <c r="G175" s="30" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>177</v>
+        <v>473</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="C176" s="2">
-        <v>219.5</v>
+        <v>149</v>
       </c>
       <c r="D176" s="2">
         <v>100</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G176" s="32" t="s">
-        <v>466</v>
+        <v>474</v>
+      </c>
+      <c r="F176" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G176" s="30" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="B177" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C177" s="2">
-        <v>226.52</v>
+        <v>99</v>
       </c>
       <c r="D177" s="2">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G177" s="30" t="s">
-        <v>466</v>
+        <v>84</v>
+      </c>
+      <c r="G177" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>177</v>
+        <v>47</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C178" s="2">
-        <v>299.01</v>
+        <v>374.7</v>
       </c>
       <c r="D178" s="2">
         <v>150</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G178" s="30" t="s">
-        <v>466</v>
+        <v>111</v>
+      </c>
+      <c r="G178" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>177</v>
+        <v>49</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C179" s="2">
-        <v>100</v>
+        <v>499</v>
+      </c>
+      <c r="D179" s="2">
+        <v>150</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G179" s="32" t="s">
-        <v>466</v>
+        <v>113</v>
+      </c>
+      <c r="G179" s="28" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>177</v>
+        <v>461</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C180" s="2">
-        <v>477</v>
+        <v>220</v>
       </c>
       <c r="D180" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F180" s="13"/>
+        <v>196</v>
+      </c>
+      <c r="F180" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G180" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>548</v>
+        <v>51</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C181" s="2">
-        <v>400</v>
+        <v>126.85</v>
+      </c>
+      <c r="D181" s="2">
+        <v>100</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>550</v>
+        <v>198</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="G181" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="G181" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>177</v>
+        <v>336</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="C182" s="2">
-        <v>200</v>
+        <v>250</v>
+      </c>
+      <c r="D182" s="2">
+        <v>150</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>546</v>
+        <v>198</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="G182" s="30"/>
+        <v>117</v>
+      </c>
+      <c r="G182" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>542</v>
+        <v>208</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C183" s="2">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="D183" s="2">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="G183" s="30"/>
+        <v>209</v>
+      </c>
+      <c r="F183" s="13"/>
+      <c r="G183" s="29" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>177</v>
+        <v>53</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C184" s="2">
-        <v>1250</v>
+        <v>219.5</v>
       </c>
       <c r="D184" s="2">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="G184" s="30"/>
+        <v>210</v>
+      </c>
+      <c r="G184" s="30" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>177</v>
+        <v>54</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C185" s="2">
-        <v>300</v>
+        <v>226.52</v>
       </c>
       <c r="D185" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>528</v>
+        <v>202</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="G185" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="G185" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>520</v>
+        <v>478</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C186" s="2">
-        <v>300</v>
+        <v>299.01</v>
+      </c>
+      <c r="D186" s="2">
+        <v>150</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>522</v>
+        <v>204</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G186" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="G186" s="28" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>517</v>
+        <v>56</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C187" s="2">
-        <v>450</v>
-      </c>
-      <c r="D187" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>516</v>
+        <v>205</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="G187" s="30"/>
+        <v>123</v>
+      </c>
+      <c r="G187" s="30" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>503</v>
+        <v>664</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="C188" s="2">
-        <v>922</v>
+        <v>1916</v>
       </c>
       <c r="D188" s="2">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>506</v>
+        <v>666</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="G188" s="30"/>
+        <v>665</v>
+      </c>
+      <c r="G188" s="19"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>177</v>
+        <v>549</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="C189" s="2">
-        <v>1050</v>
+        <v>477</v>
       </c>
       <c r="D189" s="2">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="G189" s="30"/>
+        <v>548</v>
+      </c>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>177</v>
+        <v>540</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>541</v>
       </c>
       <c r="C190" s="2">
-        <v>750</v>
-      </c>
-      <c r="D190" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="G190" s="30"/>
+        <v>542</v>
+      </c>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>177</v>
+        <v>531</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C191" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="G191" s="30"/>
+        <v>538</v>
+      </c>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>177</v>
+        <v>530</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>536</v>
       </c>
       <c r="C192" s="2">
-        <v>330</v>
+        <v>298</v>
+      </c>
+      <c r="D192" s="2">
+        <v>250</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="G192" s="30"/>
+        <v>535</v>
+      </c>
+      <c r="G192" s="28"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>504</v>
+        <v>525</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C193" s="2">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="D193" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="G193" s="30"/>
+        <v>527</v>
+      </c>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C194" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D194" s="2">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="G194" s="30"/>
+        <v>521</v>
+      </c>
+      <c r="G194" s="28"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>494</v>
+        <v>509</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="C195" s="2">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="D195" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="G195" s="33"/>
+        <v>512</v>
+      </c>
+      <c r="G195" s="28"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>177</v>
+        <v>495</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>497</v>
       </c>
       <c r="C196" s="2">
-        <v>300</v>
+        <v>922</v>
+      </c>
+      <c r="D196" s="2">
+        <v>800</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="G196" s="33"/>
+        <v>496</v>
+      </c>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>389</v>
+        <v>630</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C197" s="2">
-        <v>4500</v>
+        <v>1050</v>
       </c>
       <c r="D197" s="2">
-        <v>3550</v>
+        <v>700</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>387</v>
+        <v>632</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>386</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="G197" s="28"/>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>381</v>
+        <v>629</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C198" s="2">
-        <v>5500</v>
+        <v>750</v>
       </c>
       <c r="D198" s="2">
-        <v>4700</v>
+        <v>600</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>383</v>
+        <v>508</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>382</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G198" s="28"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>177</v>
+        <v>501</v>
+      </c>
+      <c r="B199" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C199" s="2">
-        <v>1775</v>
-      </c>
-      <c r="D199" s="2">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>369</v>
+        <v>504</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>368</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="G199" s="28"/>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>177</v>
+        <v>502</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C200" s="2">
-        <v>299</v>
-      </c>
-      <c r="D200" s="2">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>628</v>
+        <v>506</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>627</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>177</v>
+        <v>492</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>498</v>
       </c>
       <c r="C201" s="2">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="D201" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>631</v>
+        <v>494</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>630</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="G201" s="28"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>177</v>
+        <v>489</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>499</v>
       </c>
       <c r="C202" s="2">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="D202" s="2">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>642</v>
+        <v>491</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>641</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>177</v>
+        <v>485</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>488</v>
       </c>
       <c r="C203" s="2">
-        <v>555</v>
+        <v>690</v>
       </c>
       <c r="D203" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>625</v>
+        <v>487</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>624</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="G203" s="31"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>177</v>
+        <v>484</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C204" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>645</v>
+        <v>483</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>644</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G204" s="31"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>635</v>
+        <v>383</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>384</v>
       </c>
       <c r="C205" s="2">
-        <v>600</v>
+        <v>4500</v>
       </c>
       <c r="D205" s="2">
-        <v>400</v>
+        <v>3550</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>634</v>
+        <v>382</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>633</v>
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>177</v>
+        <v>375</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>376</v>
       </c>
       <c r="C206" s="2">
-        <v>512</v>
+        <v>5500</v>
       </c>
       <c r="D206" s="2">
-        <v>300</v>
+        <v>4700</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>650</v>
+        <v>378</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>649</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>652</v>
+        <v>362</v>
+      </c>
+      <c r="B207" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="C207" s="2">
-        <v>379</v>
+        <v>1775</v>
       </c>
       <c r="D207" s="2">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>654</v>
+        <v>364</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>653</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C208" s="2">
+        <v>299</v>
+      </c>
+      <c r="D208" s="2">
+        <v>250</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="2">
+        <v>230</v>
+      </c>
+      <c r="D209" s="2">
+        <v>150</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C210" s="2">
+        <v>299</v>
+      </c>
+      <c r="D210" s="2">
+        <v>190</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="F210" s="13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B211" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" s="2">
+        <v>555</v>
+      </c>
+      <c r="D211" s="2">
+        <v>350</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="F211" s="13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" s="2">
+        <v>200</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B213" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C213" s="2">
+        <v>600</v>
+      </c>
+      <c r="D213" s="2">
+        <v>400</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" s="2">
+        <v>512</v>
+      </c>
+      <c r="D214" s="2">
+        <v>300</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C215" s="2">
+        <v>379</v>
+      </c>
+      <c r="D215" s="2">
+        <v>150</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F215" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C208" s="2">
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C216" s="2">
         <v>799</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D216" s="2">
         <v>450</v>
       </c>
-      <c r="E208" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="F208" s="13" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C209" s="2">
+      <c r="E216" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B217" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C217" s="2">
         <v>2300</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D217" s="2">
         <v>1800</v>
       </c>
-      <c r="E209" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F209" s="13"/>
-      <c r="G209" s="5"/>
+      <c r="E217" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F217" s="13"/>
+      <c r="G217" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F118" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
-    <hyperlink ref="F179" r:id="rId1"/>
-    <hyperlink ref="F117" r:id="rId2"/>
-    <hyperlink ref="F178" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
-    <hyperlink ref="F76" r:id="rId3"/>
-    <hyperlink ref="F177" r:id="rId4"/>
-    <hyperlink ref="F116" r:id="rId5"/>
-    <hyperlink ref="F115" r:id="rId6"/>
-    <hyperlink ref="F172" r:id="rId7"/>
-    <hyperlink ref="F171" r:id="rId8"/>
-    <hyperlink ref="F174" r:id="rId9"/>
-    <hyperlink ref="F173" r:id="rId10"/>
-    <hyperlink ref="F75" r:id="rId11"/>
-    <hyperlink ref="F114" r:id="rId12"/>
-    <hyperlink ref="F170" r:id="rId13"/>
-    <hyperlink ref="F112" r:id="rId14"/>
-    <hyperlink ref="F111" r:id="rId15"/>
-    <hyperlink ref="F108" r:id="rId16"/>
-    <hyperlink ref="F100" r:id="rId17"/>
-    <hyperlink ref="F99" r:id="rId18"/>
-    <hyperlink ref="F107" r:id="rId19"/>
-    <hyperlink ref="F106" r:id="rId20"/>
-    <hyperlink ref="F54" r:id="rId21"/>
-    <hyperlink ref="F53" r:id="rId22"/>
-    <hyperlink ref="F52" r:id="rId23"/>
-    <hyperlink ref="F119" r:id="rId24"/>
-    <hyperlink ref="F47" r:id="rId25"/>
-    <hyperlink ref="F46" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
-    <hyperlink ref="F45" r:id="rId26"/>
-    <hyperlink ref="F44" r:id="rId27"/>
-    <hyperlink ref="F43" r:id="rId28"/>
-    <hyperlink ref="F42" r:id="rId29"/>
-    <hyperlink ref="F51" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
-    <hyperlink ref="F50" r:id="rId30"/>
-    <hyperlink ref="F35" r:id="rId31"/>
-    <hyperlink ref="F34" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
-    <hyperlink ref="F33" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
-    <hyperlink ref="F29" r:id="rId32"/>
-    <hyperlink ref="F31" r:id="rId33"/>
-    <hyperlink ref="F28" r:id="rId34"/>
-    <hyperlink ref="F169" r:id="rId35"/>
-    <hyperlink ref="F105" r:id="rId36"/>
-    <hyperlink ref="F104" r:id="rId37"/>
-    <hyperlink ref="F168" r:id="rId38"/>
-    <hyperlink ref="F166" r:id="rId39"/>
-    <hyperlink ref="F165" r:id="rId40"/>
-    <hyperlink ref="F153" r:id="rId41"/>
-    <hyperlink ref="F164" r:id="rId42"/>
-    <hyperlink ref="F163" r:id="rId43"/>
-    <hyperlink ref="F162" r:id="rId44"/>
-    <hyperlink ref="F159" r:id="rId45"/>
-    <hyperlink ref="F161" r:id="rId46"/>
-    <hyperlink ref="F158" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
-    <hyperlink ref="F157" r:id="rId47"/>
-    <hyperlink ref="F156" r:id="rId48"/>
-    <hyperlink ref="F102" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
-    <hyperlink ref="F103" r:id="rId49"/>
-    <hyperlink ref="F154" r:id="rId50"/>
-    <hyperlink ref="F155" r:id="rId51"/>
-    <hyperlink ref="F152" r:id="rId52"/>
-    <hyperlink ref="F26" r:id="rId53"/>
-    <hyperlink ref="F25" r:id="rId54"/>
-    <hyperlink ref="F27" r:id="rId55"/>
-    <hyperlink ref="F24" r:id="rId56"/>
-    <hyperlink ref="F23" r:id="rId57"/>
-    <hyperlink ref="F22" r:id="rId58"/>
-    <hyperlink ref="F21" r:id="rId59"/>
-    <hyperlink ref="E21" r:id="rId60"/>
-    <hyperlink ref="E25" r:id="rId61"/>
-    <hyperlink ref="E27" r:id="rId62"/>
-    <hyperlink ref="E152" r:id="rId63"/>
-    <hyperlink ref="E154" r:id="rId64"/>
-    <hyperlink ref="E155" r:id="rId65"/>
-    <hyperlink ref="E102" r:id="rId66"/>
-    <hyperlink ref="E103" r:id="rId67"/>
-    <hyperlink ref="E156" r:id="rId68"/>
-    <hyperlink ref="E157" r:id="rId69"/>
-    <hyperlink ref="E159" r:id="rId70"/>
-    <hyperlink ref="E158" r:id="rId71"/>
-    <hyperlink ref="E160" r:id="rId72"/>
-    <hyperlink ref="E161" r:id="rId73"/>
-    <hyperlink ref="E162" r:id="rId74"/>
-    <hyperlink ref="E163" r:id="rId75"/>
-    <hyperlink ref="E164" r:id="rId76"/>
-    <hyperlink ref="E153" r:id="rId77"/>
-    <hyperlink ref="E165" r:id="rId78"/>
-    <hyperlink ref="E166" r:id="rId79"/>
-    <hyperlink ref="E168" r:id="rId80"/>
-    <hyperlink ref="E104" r:id="rId81"/>
-    <hyperlink ref="E105" r:id="rId82"/>
-    <hyperlink ref="E169" r:id="rId83"/>
-    <hyperlink ref="E28" r:id="rId84"/>
-    <hyperlink ref="E29" r:id="rId85"/>
-    <hyperlink ref="E31" r:id="rId86"/>
-    <hyperlink ref="E32" r:id="rId87"/>
-    <hyperlink ref="E33" r:id="rId88"/>
-    <hyperlink ref="E34" r:id="rId89"/>
-    <hyperlink ref="E35" r:id="rId90"/>
-    <hyperlink ref="E50" r:id="rId91"/>
-    <hyperlink ref="E51" r:id="rId92"/>
-    <hyperlink ref="E41" r:id="rId93"/>
-    <hyperlink ref="F41" r:id="rId94"/>
-    <hyperlink ref="E42" r:id="rId95"/>
-    <hyperlink ref="E43" r:id="rId96"/>
-    <hyperlink ref="E44" r:id="rId97"/>
-    <hyperlink ref="E38" r:id="rId98"/>
-    <hyperlink ref="E45" r:id="rId99"/>
-    <hyperlink ref="E46" r:id="rId100"/>
-    <hyperlink ref="E47" r:id="rId101"/>
-    <hyperlink ref="E119" r:id="rId102"/>
-    <hyperlink ref="E52" r:id="rId103"/>
-    <hyperlink ref="E53" r:id="rId104"/>
-    <hyperlink ref="E54" r:id="rId105"/>
-    <hyperlink ref="E55" r:id="rId106"/>
-    <hyperlink ref="E107" r:id="rId107"/>
-    <hyperlink ref="E49" r:id="rId108"/>
-    <hyperlink ref="E48" r:id="rId109"/>
-    <hyperlink ref="E99" r:id="rId110"/>
-    <hyperlink ref="E100" r:id="rId111"/>
-    <hyperlink ref="E108" r:id="rId112"/>
-    <hyperlink ref="E109" r:id="rId113"/>
-    <hyperlink ref="E110" r:id="rId114"/>
-    <hyperlink ref="E111" r:id="rId115"/>
-    <hyperlink ref="E112" r:id="rId116"/>
-    <hyperlink ref="E170" r:id="rId117"/>
-    <hyperlink ref="E114" r:id="rId118"/>
-    <hyperlink ref="E171" r:id="rId119"/>
-    <hyperlink ref="E172" r:id="rId120"/>
-    <hyperlink ref="E75" r:id="rId121"/>
-    <hyperlink ref="E173" r:id="rId122"/>
-    <hyperlink ref="E174" r:id="rId123"/>
-    <hyperlink ref="E115" r:id="rId124"/>
-    <hyperlink ref="E106" r:id="rId125"/>
-    <hyperlink ref="E116" r:id="rId126"/>
-    <hyperlink ref="E177" r:id="rId127"/>
-    <hyperlink ref="E76" r:id="rId128"/>
-    <hyperlink ref="E178" r:id="rId129"/>
-    <hyperlink ref="E179" r:id="rId130"/>
-    <hyperlink ref="E117" r:id="rId131"/>
-    <hyperlink ref="E118" r:id="rId132"/>
-    <hyperlink ref="E175" r:id="rId133"/>
-    <hyperlink ref="E176" r:id="rId134"/>
-    <hyperlink ref="E139" r:id="rId135"/>
-    <hyperlink ref="E113" r:id="rId136"/>
+    <hyperlink ref="F127" display="https://articulo.mercadolibre.com.mx/MLM-1322975285-masajeador-de-cabeza-anti-estres-aranita-de-acero-inoxidable-_JM#polycard_client=recommendations_pdp-v2p&amp;reco_backend=ranker_retrieval_system_vpp_v2p&amp;reco_model=ranker_entity_v2_retrieval_system_vpp_v2p&amp;"/>
+    <hyperlink ref="F187" r:id="rId1"/>
+    <hyperlink ref="F126" r:id="rId2"/>
+    <hyperlink ref="F186" display="https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr"/>
+    <hyperlink ref="F80" r:id="rId3"/>
+    <hyperlink ref="F185" r:id="rId4"/>
+    <hyperlink ref="F21" r:id="rId5"/>
+    <hyperlink ref="F125" r:id="rId6"/>
+    <hyperlink ref="F180" r:id="rId7"/>
+    <hyperlink ref="F179" r:id="rId8"/>
+    <hyperlink ref="F182" r:id="rId9"/>
+    <hyperlink ref="F181" r:id="rId10"/>
+    <hyperlink ref="F79" r:id="rId11"/>
+    <hyperlink ref="F124" r:id="rId12"/>
+    <hyperlink ref="F178" r:id="rId13"/>
+    <hyperlink ref="F122" r:id="rId14"/>
+    <hyperlink ref="F121" r:id="rId15"/>
+    <hyperlink ref="F118" r:id="rId16"/>
+    <hyperlink ref="F105" r:id="rId17"/>
+    <hyperlink ref="F104" r:id="rId18"/>
+    <hyperlink ref="F117" r:id="rId19"/>
+    <hyperlink ref="F116" r:id="rId20"/>
+    <hyperlink ref="F59" r:id="rId21"/>
+    <hyperlink ref="F58" r:id="rId22"/>
+    <hyperlink ref="F57" r:id="rId23"/>
+    <hyperlink ref="F128" r:id="rId24"/>
+    <hyperlink ref="F52" r:id="rId25"/>
+    <hyperlink ref="F51" display="https://articulo.mercadolibre.com.mx/MLM-1379721355-50pzs-plafones-led-cromado-para-camion-trailer-micro-12v-_JM?highlight=false&amp;headerTopBrand=false#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=23&amp;search_layout=stack&amp;type=item&amp;trac"/>
+    <hyperlink ref="F50" r:id="rId26"/>
+    <hyperlink ref="F49" r:id="rId27"/>
+    <hyperlink ref="F48" r:id="rId28"/>
+    <hyperlink ref="F47" r:id="rId29"/>
+    <hyperlink ref="F56" display="https://www.mercadolibre.com.mx/12v-cargador-rapido-inteligente-cargador-de-bateria-mantenedor-y-desulfatador-de-bateria-con-reparacion-de-pulso-para-automovil-moto-camion-calcium-gel-agm-mf-sla-efb-vrla/p/MLM48935534?pdp_filters=item_id:MLM3665297904#&amp;gi"/>
+    <hyperlink ref="F55" r:id="rId30"/>
+    <hyperlink ref="F36" r:id="rId31"/>
+    <hyperlink ref="F35" display="https://articulo.mercadolibre.com.mx/MLM-2159665686-proteccio-caidas-cojin-protector-cabeza-bebes-_JM?searchVariation=177637167130&amp;highlight=true&amp;headerTopBrand=false#polycard_client=search-nordic&amp;searchVariation=177637167130&amp;position=36&amp;search_layout=gri"/>
+    <hyperlink ref="F34" display="https://www.mercadolibre.com.mx/mz-4pcs-elemental-peluche-crazy-element-city-muneco-de/p/MLM2018883605?highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=MLM2018883605&amp;wid=MLM3708722948&amp;position=4&amp;search_layout=grid&amp;type=pro"/>
+    <hyperlink ref="F30" r:id="rId32"/>
+    <hyperlink ref="F32" r:id="rId33"/>
+    <hyperlink ref="F29" r:id="rId34"/>
+    <hyperlink ref="F177" r:id="rId35"/>
+    <hyperlink ref="F111" r:id="rId36"/>
+    <hyperlink ref="F110" r:id="rId37"/>
+    <hyperlink ref="F176" r:id="rId38"/>
+    <hyperlink ref="F174" r:id="rId39"/>
+    <hyperlink ref="F173" r:id="rId40"/>
+    <hyperlink ref="F161" r:id="rId41"/>
+    <hyperlink ref="F172" r:id="rId42"/>
+    <hyperlink ref="F171" r:id="rId43"/>
+    <hyperlink ref="F170" r:id="rId44"/>
+    <hyperlink ref="F167" r:id="rId45"/>
+    <hyperlink ref="F169" r:id="rId46"/>
+    <hyperlink ref="F166" display="https://articulo.mercadolibre.com.mx/MLM-3600107880-tapete-para-bano-regadera-masaje-antiderrapante-con-ventosas-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-2040896921-estera-de-masaje-antideslizante-de-doble-cara-para-bano-"/>
+    <hyperlink ref="F165" r:id="rId47"/>
+    <hyperlink ref="F164" r:id="rId48"/>
+    <hyperlink ref="F114" display="https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_la"/>
+    <hyperlink ref="F115" r:id="rId49"/>
+    <hyperlink ref="F162" r:id="rId50"/>
+    <hyperlink ref="F163" r:id="rId51"/>
+    <hyperlink ref="F112" r:id="rId52"/>
+    <hyperlink ref="F27" r:id="rId53"/>
+    <hyperlink ref="F26" r:id="rId54"/>
+    <hyperlink ref="F28" r:id="rId55"/>
+    <hyperlink ref="F25" r:id="rId56"/>
+    <hyperlink ref="F24" r:id="rId57"/>
+    <hyperlink ref="F23" r:id="rId58"/>
+    <hyperlink ref="F22" r:id="rId59"/>
+    <hyperlink ref="E22" r:id="rId60"/>
+    <hyperlink ref="E26" r:id="rId61"/>
+    <hyperlink ref="E28" r:id="rId62"/>
+    <hyperlink ref="E112" r:id="rId63"/>
+    <hyperlink ref="E162" r:id="rId64"/>
+    <hyperlink ref="E163" r:id="rId65"/>
+    <hyperlink ref="E114" r:id="rId66"/>
+    <hyperlink ref="E115" r:id="rId67"/>
+    <hyperlink ref="E164" r:id="rId68"/>
+    <hyperlink ref="E165" r:id="rId69"/>
+    <hyperlink ref="E167" r:id="rId70"/>
+    <hyperlink ref="E166" r:id="rId71"/>
+    <hyperlink ref="E168" r:id="rId72"/>
+    <hyperlink ref="E169" r:id="rId73"/>
+    <hyperlink ref="E170" r:id="rId74"/>
+    <hyperlink ref="E171" r:id="rId75"/>
+    <hyperlink ref="E172" r:id="rId76"/>
+    <hyperlink ref="E161" r:id="rId77"/>
+    <hyperlink ref="E173" r:id="rId78"/>
+    <hyperlink ref="E174" r:id="rId79"/>
+    <hyperlink ref="E176" r:id="rId80"/>
+    <hyperlink ref="E110" r:id="rId81"/>
+    <hyperlink ref="E111" r:id="rId82"/>
+    <hyperlink ref="E177" r:id="rId83"/>
+    <hyperlink ref="E29" r:id="rId84"/>
+    <hyperlink ref="E30" r:id="rId85"/>
+    <hyperlink ref="E32" r:id="rId86"/>
+    <hyperlink ref="E33" r:id="rId87"/>
+    <hyperlink ref="E34" r:id="rId88"/>
+    <hyperlink ref="E35" r:id="rId89"/>
+    <hyperlink ref="E36" r:id="rId90"/>
+    <hyperlink ref="E55" r:id="rId91"/>
+    <hyperlink ref="E56" r:id="rId92"/>
+    <hyperlink ref="E46" r:id="rId93"/>
+    <hyperlink ref="F46" r:id="rId94"/>
+    <hyperlink ref="E47" r:id="rId95"/>
+    <hyperlink ref="E48" r:id="rId96"/>
+    <hyperlink ref="E49" r:id="rId97"/>
+    <hyperlink ref="E42" r:id="rId98"/>
+    <hyperlink ref="E50" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="E52" r:id="rId101"/>
+    <hyperlink ref="E128" r:id="rId102"/>
+    <hyperlink ref="E57" r:id="rId103"/>
+    <hyperlink ref="E58" r:id="rId104"/>
+    <hyperlink ref="E59" r:id="rId105"/>
+    <hyperlink ref="E60" r:id="rId106"/>
+    <hyperlink ref="E117" r:id="rId107"/>
+    <hyperlink ref="E54" r:id="rId108"/>
+    <hyperlink ref="E53" r:id="rId109"/>
+    <hyperlink ref="E104" r:id="rId110"/>
+    <hyperlink ref="E105" r:id="rId111"/>
+    <hyperlink ref="E118" r:id="rId112"/>
+    <hyperlink ref="E119" r:id="rId113"/>
+    <hyperlink ref="E120" r:id="rId114"/>
+    <hyperlink ref="E121" r:id="rId115"/>
+    <hyperlink ref="E122" r:id="rId116"/>
+    <hyperlink ref="E178" r:id="rId117"/>
+    <hyperlink ref="E124" r:id="rId118"/>
+    <hyperlink ref="E179" r:id="rId119"/>
+    <hyperlink ref="E180" r:id="rId120"/>
+    <hyperlink ref="E79" r:id="rId121"/>
+    <hyperlink ref="E181" r:id="rId122"/>
+    <hyperlink ref="E182" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E116" r:id="rId125"/>
+    <hyperlink ref="E21" r:id="rId126"/>
+    <hyperlink ref="E185" r:id="rId127"/>
+    <hyperlink ref="E80" r:id="rId128"/>
+    <hyperlink ref="E186" r:id="rId129"/>
+    <hyperlink ref="E187" r:id="rId130"/>
+    <hyperlink ref="E126" r:id="rId131"/>
+    <hyperlink ref="E127" r:id="rId132"/>
+    <hyperlink ref="E183" r:id="rId133"/>
+    <hyperlink ref="E184" r:id="rId134"/>
+    <hyperlink ref="E148" r:id="rId135"/>
+    <hyperlink ref="E123" r:id="rId136"/>
     <hyperlink ref="F20" r:id="rId137"/>
     <hyperlink ref="E20" r:id="rId138"/>
     <hyperlink ref="F19" r:id="rId139"/>
@@ -7383,217 +7665,233 @@
     <hyperlink ref="F3" r:id="rId166"/>
     <hyperlink ref="E2" r:id="rId167"/>
     <hyperlink ref="F2" r:id="rId168"/>
-    <hyperlink ref="E30" r:id="rId169"/>
-    <hyperlink ref="F30" r:id="rId170"/>
-    <hyperlink ref="F36" r:id="rId171"/>
-    <hyperlink ref="E36" r:id="rId172"/>
-    <hyperlink ref="E209" r:id="rId173"/>
-    <hyperlink ref="F56" r:id="rId174"/>
-    <hyperlink ref="E56" r:id="rId175"/>
-    <hyperlink ref="F74" r:id="rId176"/>
-    <hyperlink ref="E74" r:id="rId177"/>
-    <hyperlink ref="F64" r:id="rId178" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E64" r:id="rId179"/>
-    <hyperlink ref="F67" r:id="rId180"/>
-    <hyperlink ref="E67" r:id="rId181"/>
-    <hyperlink ref="F68" r:id="rId182"/>
-    <hyperlink ref="E68" r:id="rId183"/>
-    <hyperlink ref="E69" r:id="rId184"/>
-    <hyperlink ref="E70" r:id="rId185"/>
-    <hyperlink ref="E71" r:id="rId186"/>
-    <hyperlink ref="F71" r:id="rId187" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E73" r:id="rId188"/>
-    <hyperlink ref="E72" r:id="rId189"/>
-    <hyperlink ref="E65" r:id="rId190"/>
-    <hyperlink ref="F65" r:id="rId191"/>
-    <hyperlink ref="E66" r:id="rId192"/>
-    <hyperlink ref="F66" r:id="rId193" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F62" r:id="rId194"/>
-    <hyperlink ref="E62" r:id="rId195"/>
-    <hyperlink ref="E63" r:id="rId196"/>
-    <hyperlink ref="F63" r:id="rId197"/>
-    <hyperlink ref="F58" r:id="rId198"/>
-    <hyperlink ref="E58" r:id="rId199"/>
-    <hyperlink ref="E59" r:id="rId200"/>
-    <hyperlink ref="F59" r:id="rId201"/>
-    <hyperlink ref="F60" r:id="rId202"/>
-    <hyperlink ref="E60" r:id="rId203"/>
-    <hyperlink ref="F61" r:id="rId204"/>
-    <hyperlink ref="E61" r:id="rId205"/>
-    <hyperlink ref="F57" r:id="rId206"/>
-    <hyperlink ref="E57" r:id="rId207"/>
-    <hyperlink ref="E24" r:id="rId208"/>
-    <hyperlink ref="F143" r:id="rId209"/>
-    <hyperlink ref="E143" r:id="rId210"/>
-    <hyperlink ref="F144" r:id="rId211" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E144" r:id="rId212"/>
-    <hyperlink ref="F145" r:id="rId213"/>
-    <hyperlink ref="E145" r:id="rId214"/>
-    <hyperlink ref="F147" r:id="rId215" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E147" r:id="rId216"/>
-    <hyperlink ref="F148" r:id="rId217"/>
-    <hyperlink ref="E148" r:id="rId218"/>
-    <hyperlink ref="F149" r:id="rId219"/>
-    <hyperlink ref="E149" r:id="rId220"/>
-    <hyperlink ref="F150" r:id="rId221"/>
-    <hyperlink ref="E150" r:id="rId222"/>
-    <hyperlink ref="F199" r:id="rId223"/>
-    <hyperlink ref="E199" r:id="rId224"/>
-    <hyperlink ref="F151" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
-    <hyperlink ref="E151" r:id="rId225"/>
-    <hyperlink ref="F146" r:id="rId226"/>
-    <hyperlink ref="E146" r:id="rId227"/>
-    <hyperlink ref="F98" r:id="rId228"/>
-    <hyperlink ref="E98" r:id="rId229"/>
-    <hyperlink ref="F198" r:id="rId230" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E198" r:id="rId231"/>
-    <hyperlink ref="F97" r:id="rId232"/>
-    <hyperlink ref="E97" r:id="rId233"/>
-    <hyperlink ref="F197" r:id="rId234"/>
-    <hyperlink ref="E197" r:id="rId235"/>
-    <hyperlink ref="F81" r:id="rId236"/>
-    <hyperlink ref="E81" r:id="rId237"/>
-    <hyperlink ref="E82" r:id="rId238"/>
-    <hyperlink ref="F82" r:id="rId239" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F83" r:id="rId240"/>
-    <hyperlink ref="E83" r:id="rId241"/>
-    <hyperlink ref="E85" r:id="rId242"/>
-    <hyperlink ref="F85" r:id="rId243" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E86" r:id="rId244"/>
-    <hyperlink ref="F86" r:id="rId245" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F87" r:id="rId246"/>
-    <hyperlink ref="E87" r:id="rId247"/>
-    <hyperlink ref="F88" r:id="rId248"/>
-    <hyperlink ref="E88" r:id="rId249"/>
-    <hyperlink ref="E89" r:id="rId250"/>
-    <hyperlink ref="F89" r:id="rId251" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E90" r:id="rId252"/>
-    <hyperlink ref="E91" r:id="rId253"/>
-    <hyperlink ref="F91" r:id="rId254"/>
-    <hyperlink ref="F92" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
-    <hyperlink ref="E92" r:id="rId255"/>
-    <hyperlink ref="E93" r:id="rId256"/>
-    <hyperlink ref="F93" r:id="rId257" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="F94" r:id="rId258" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E94" r:id="rId259"/>
-    <hyperlink ref="F95" r:id="rId260" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E95" r:id="rId261"/>
-    <hyperlink ref="F96" r:id="rId262"/>
-    <hyperlink ref="E96" r:id="rId263"/>
-    <hyperlink ref="F80" r:id="rId264"/>
-    <hyperlink ref="E80" r:id="rId265"/>
-    <hyperlink ref="F84" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
-    <hyperlink ref="E84" r:id="rId266"/>
-    <hyperlink ref="F77" r:id="rId267"/>
-    <hyperlink ref="E77" r:id="rId268"/>
-    <hyperlink ref="F78" r:id="rId269"/>
-    <hyperlink ref="E78" r:id="rId270"/>
-    <hyperlink ref="F79" r:id="rId271"/>
-    <hyperlink ref="E79" r:id="rId272"/>
-    <hyperlink ref="F40" r:id="rId273"/>
-    <hyperlink ref="E40" r:id="rId274"/>
-    <hyperlink ref="F39" r:id="rId275" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E39" r:id="rId276"/>
-    <hyperlink ref="E167" r:id="rId277"/>
-    <hyperlink ref="F101" r:id="rId278"/>
-    <hyperlink ref="E101" r:id="rId279"/>
-    <hyperlink ref="F196" r:id="rId280"/>
-    <hyperlink ref="E196" r:id="rId281"/>
-    <hyperlink ref="F195" r:id="rId282"/>
-    <hyperlink ref="E195" r:id="rId283"/>
-    <hyperlink ref="F194" r:id="rId284"/>
-    <hyperlink ref="E194" r:id="rId285"/>
-    <hyperlink ref="F193" r:id="rId286"/>
-    <hyperlink ref="E193" r:id="rId287"/>
-    <hyperlink ref="F188" r:id="rId288"/>
-    <hyperlink ref="E188" r:id="rId289"/>
-    <hyperlink ref="F191" r:id="rId290"/>
-    <hyperlink ref="E191" r:id="rId291"/>
-    <hyperlink ref="F192" r:id="rId292"/>
-    <hyperlink ref="E192" r:id="rId293"/>
-    <hyperlink ref="F190" r:id="rId294"/>
-    <hyperlink ref="E190" r:id="rId295"/>
-    <hyperlink ref="E187" r:id="rId296"/>
-    <hyperlink ref="F187" r:id="rId297"/>
-    <hyperlink ref="F186" display="https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filter"/>
-    <hyperlink ref="E186" r:id="rId298"/>
-    <hyperlink ref="F131" r:id="rId299"/>
-    <hyperlink ref="E131" r:id="rId300"/>
-    <hyperlink ref="F185" r:id="rId301"/>
-    <hyperlink ref="E185" r:id="rId302"/>
-    <hyperlink ref="F142" r:id="rId303"/>
-    <hyperlink ref="E142" r:id="rId304"/>
-    <hyperlink ref="F184" r:id="rId305"/>
-    <hyperlink ref="E184" r:id="rId306"/>
-    <hyperlink ref="F141" r:id="rId307"/>
-    <hyperlink ref="E141" r:id="rId308"/>
-    <hyperlink ref="E183" r:id="rId309"/>
-    <hyperlink ref="F183" r:id="rId310" location="&amp;gid=1&amp;pid=4"/>
-    <hyperlink ref="F182" r:id="rId311"/>
-    <hyperlink ref="E182" r:id="rId312"/>
-    <hyperlink ref="F181" r:id="rId313"/>
-    <hyperlink ref="E181" r:id="rId314"/>
-    <hyperlink ref="F140" r:id="rId315"/>
-    <hyperlink ref="E180" r:id="rId316"/>
-    <hyperlink ref="E130" r:id="rId317"/>
-    <hyperlink ref="F130" r:id="rId318"/>
-    <hyperlink ref="F129" r:id="rId319"/>
-    <hyperlink ref="E129" r:id="rId320"/>
-    <hyperlink ref="F128" r:id="rId321"/>
-    <hyperlink ref="E128" r:id="rId322"/>
-    <hyperlink ref="F127" r:id="rId323" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E127" r:id="rId324"/>
-    <hyperlink ref="F126" r:id="rId325"/>
-    <hyperlink ref="E126" r:id="rId326"/>
-    <hyperlink ref="E125" r:id="rId327"/>
-    <hyperlink ref="E124" r:id="rId328"/>
-    <hyperlink ref="F124" r:id="rId329"/>
-    <hyperlink ref="E123" r:id="rId330"/>
-    <hyperlink ref="F123" r:id="rId331" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E122" r:id="rId332"/>
-    <hyperlink ref="F122" r:id="rId333" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E121" r:id="rId334"/>
-    <hyperlink ref="F121" r:id="rId335"/>
-    <hyperlink ref="F138" r:id="rId336"/>
-    <hyperlink ref="E138" r:id="rId337"/>
-    <hyperlink ref="E137" r:id="rId338"/>
-    <hyperlink ref="F137" r:id="rId339" location="&amp;gid=1&amp;pid=10"/>
-    <hyperlink ref="F136" r:id="rId340" location="&amp;gid=1&amp;pid=6"/>
-    <hyperlink ref="E136" r:id="rId341"/>
-    <hyperlink ref="F135" display="https://www.mercadolibre.com.mx/14-piezas-cajas-organizadoras-apilables-para-zapatos-avedistante-bt3-0415/p/MLM26949544?pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVariation=MLM26949544&amp;position=4&amp;search_layout=grid&amp;type=product"/>
-    <hyperlink ref="E135" r:id="rId342"/>
-    <hyperlink ref="F134" r:id="rId343"/>
-    <hyperlink ref="E134" r:id="rId344"/>
-    <hyperlink ref="F132" r:id="rId345"/>
-    <hyperlink ref="E132" r:id="rId346"/>
-    <hyperlink ref="F133" r:id="rId347" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E133" r:id="rId348"/>
-    <hyperlink ref="F120" display="https://articulo.mercadolibre.com.mx/MLM-3003876186-carrito-extraible-multiusos-de-plastico-de-4-capas-a-prueba-_JM?searchVariation=182425909459&amp;vip_filters=shipping%3Afulfillment&amp;pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVari"/>
-    <hyperlink ref="E120" r:id="rId349"/>
-    <hyperlink ref="F203" display="https://articulo.mercadolibre.com.mx/MLM-1413265684-organizador-de-escritorio-fancoyard-con-accesorios-_JM#is_advertising=true&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=48e75072-006e-4977-af61-10efcf8f8569&amp;is_advertising=true&amp;ad_domain=VQCATCORE"/>
-    <hyperlink ref="E203" r:id="rId350"/>
-    <hyperlink ref="F200" r:id="rId351"/>
-    <hyperlink ref="E200" r:id="rId352"/>
-    <hyperlink ref="F201" r:id="rId353" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E201" r:id="rId354"/>
-    <hyperlink ref="F205" r:id="rId355"/>
-    <hyperlink ref="E205" r:id="rId356"/>
-    <hyperlink ref="F189" r:id="rId357" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E189" r:id="rId358"/>
-    <hyperlink ref="F202" r:id="rId359" location="&amp;gid=1&amp;pid=1"/>
-    <hyperlink ref="E202" r:id="rId360"/>
-    <hyperlink ref="E204" r:id="rId361"/>
-    <hyperlink ref="F208" display="https://articulo.mercadolibre.com.mx/MLM-3052783868-neceser-maletin-reforzado-cosmetiquera-belleza-profesional-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-1999898669-neceser-maletin-reforzado-cosmetiquera-belleza-profesional"/>
-    <hyperlink ref="E208" r:id="rId362"/>
-    <hyperlink ref="F206" r:id="rId363"/>
-    <hyperlink ref="E206" r:id="rId364"/>
-    <hyperlink ref="F207" display="https://articulo.mercadolibre.com.mx/MLM-2110792424-soporte-celular-tablet-brazo-flexible-ajustable-con-clip-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=1a03d828-1a89-46c5-b2be-1d5dd9466291&amp;wid=MLM2110792424&amp;sid="/>
-    <hyperlink ref="E207" r:id="rId365"/>
+    <hyperlink ref="E31" r:id="rId169"/>
+    <hyperlink ref="F31" r:id="rId170"/>
+    <hyperlink ref="F37" r:id="rId171"/>
+    <hyperlink ref="E37" r:id="rId172"/>
+    <hyperlink ref="E217" r:id="rId173"/>
+    <hyperlink ref="F61" r:id="rId174"/>
+    <hyperlink ref="E61" r:id="rId175"/>
+    <hyperlink ref="F78" r:id="rId176"/>
+    <hyperlink ref="E78" r:id="rId177"/>
+    <hyperlink ref="F68" r:id="rId178" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E68" r:id="rId179"/>
+    <hyperlink ref="F71" r:id="rId180"/>
+    <hyperlink ref="E71" r:id="rId181"/>
+    <hyperlink ref="F72" r:id="rId182"/>
+    <hyperlink ref="E72" r:id="rId183"/>
+    <hyperlink ref="E73" r:id="rId184"/>
+    <hyperlink ref="E74" r:id="rId185"/>
+    <hyperlink ref="E75" r:id="rId186"/>
+    <hyperlink ref="F75" r:id="rId187" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E77" r:id="rId188"/>
+    <hyperlink ref="E76" r:id="rId189"/>
+    <hyperlink ref="E69" r:id="rId190"/>
+    <hyperlink ref="F69" r:id="rId191"/>
+    <hyperlink ref="E70" r:id="rId192"/>
+    <hyperlink ref="F70" r:id="rId193" location="origin%3Dshare%26sid%3Dshare&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F66" r:id="rId194"/>
+    <hyperlink ref="E66" r:id="rId195"/>
+    <hyperlink ref="E67" r:id="rId196"/>
+    <hyperlink ref="F67" r:id="rId197"/>
+    <hyperlink ref="F63" r:id="rId198"/>
+    <hyperlink ref="E63" r:id="rId199"/>
+    <hyperlink ref="E64" r:id="rId200"/>
+    <hyperlink ref="F64" r:id="rId201"/>
+    <hyperlink ref="F65" r:id="rId202"/>
+    <hyperlink ref="E65" r:id="rId203"/>
+    <hyperlink ref="F62" r:id="rId204"/>
+    <hyperlink ref="E62" r:id="rId205"/>
+    <hyperlink ref="E25" r:id="rId206"/>
+    <hyperlink ref="F152" r:id="rId207"/>
+    <hyperlink ref="E152" r:id="rId208"/>
+    <hyperlink ref="F153" r:id="rId209" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E153" r:id="rId210"/>
+    <hyperlink ref="F154" r:id="rId211"/>
+    <hyperlink ref="E154" r:id="rId212"/>
+    <hyperlink ref="F156" r:id="rId213" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E156" r:id="rId214"/>
+    <hyperlink ref="F157" r:id="rId215"/>
+    <hyperlink ref="E157" r:id="rId216"/>
+    <hyperlink ref="F158" r:id="rId217"/>
+    <hyperlink ref="E158" r:id="rId218"/>
+    <hyperlink ref="F159" r:id="rId219"/>
+    <hyperlink ref="E159" r:id="rId220"/>
+    <hyperlink ref="F207" r:id="rId221"/>
+    <hyperlink ref="E207" r:id="rId222"/>
+    <hyperlink ref="F160" display="https://www.mercadolibre.com.mx/bylifity-lamparas-de-techo-con-ventilador-apto-para-e26e27-40w-con-mando-a-distancia-ventilador-de-techo-con-luz-de-cristal-de-52cm-para-dormitorio-salon-estudio-comedor-oficina-garaje/p/MLM48944073?pdp_filters=item_id:MLM2"/>
+    <hyperlink ref="E160" r:id="rId223"/>
+    <hyperlink ref="F155" r:id="rId224"/>
+    <hyperlink ref="E155" r:id="rId225"/>
+    <hyperlink ref="F103" r:id="rId226"/>
+    <hyperlink ref="E103" r:id="rId227"/>
+    <hyperlink ref="F206" r:id="rId228" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E206" r:id="rId229"/>
+    <hyperlink ref="F102" r:id="rId230"/>
+    <hyperlink ref="E102" r:id="rId231"/>
+    <hyperlink ref="F205" r:id="rId232"/>
+    <hyperlink ref="E205" r:id="rId233"/>
+    <hyperlink ref="F86" r:id="rId234"/>
+    <hyperlink ref="E86" r:id="rId235"/>
+    <hyperlink ref="E87" r:id="rId236"/>
+    <hyperlink ref="F87" r:id="rId237" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F88" r:id="rId238"/>
+    <hyperlink ref="E88" r:id="rId239"/>
+    <hyperlink ref="E90" r:id="rId240"/>
+    <hyperlink ref="F90" r:id="rId241" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E91" r:id="rId242"/>
+    <hyperlink ref="F91" r:id="rId243" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F92" r:id="rId244"/>
+    <hyperlink ref="E92" r:id="rId245"/>
+    <hyperlink ref="F93" r:id="rId246"/>
+    <hyperlink ref="E93" r:id="rId247"/>
+    <hyperlink ref="E94" r:id="rId248"/>
+    <hyperlink ref="F94" r:id="rId249" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E95" r:id="rId250"/>
+    <hyperlink ref="E96" r:id="rId251"/>
+    <hyperlink ref="F96" r:id="rId252"/>
+    <hyperlink ref="F97" display="https://www.mercadolibre.com.mx/lazyrosy-tiras-de-luces-led-rgb-bluetooth-34m-ip20-luz-led-para-cuarto-tvbarhabitacion-gamingfiesta-decoracion-de-interiorfuente-de-ambiente-de-iluminaciosincronizacion-de-musica-diy/p/MLM46221093?pdp_filters=item_id:MLM224"/>
+    <hyperlink ref="E97" r:id="rId253"/>
+    <hyperlink ref="E98" r:id="rId254"/>
+    <hyperlink ref="F98" r:id="rId255" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="F99" r:id="rId256" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E99" r:id="rId257"/>
+    <hyperlink ref="F100" r:id="rId258" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E100" r:id="rId259"/>
+    <hyperlink ref="F101" r:id="rId260"/>
+    <hyperlink ref="E101" r:id="rId261"/>
+    <hyperlink ref="F85" r:id="rId262"/>
+    <hyperlink ref="E85" r:id="rId263"/>
+    <hyperlink ref="F89" display="https://articulo.mercadolibre.com.mx/MLM-2659285034-bocina-bluetooth-portatil-ourlife-g63-recargable-con-luz-rgb-_JM#polycard_client=search-nordic&amp;backend_model=search-backend&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=64f33fc9-fba6-436f-bd32-44"/>
+    <hyperlink ref="E89" r:id="rId264"/>
+    <hyperlink ref="F81" r:id="rId265"/>
+    <hyperlink ref="E81" r:id="rId266"/>
+    <hyperlink ref="F82" r:id="rId267"/>
+    <hyperlink ref="E82" r:id="rId268"/>
+    <hyperlink ref="F83" r:id="rId269"/>
+    <hyperlink ref="E83" r:id="rId270"/>
+    <hyperlink ref="F44" r:id="rId271"/>
+    <hyperlink ref="E44" r:id="rId272"/>
+    <hyperlink ref="F43" r:id="rId273" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E43" r:id="rId274"/>
+    <hyperlink ref="E175" r:id="rId275"/>
+    <hyperlink ref="F106" r:id="rId276"/>
+    <hyperlink ref="E106" r:id="rId277"/>
+    <hyperlink ref="F204" r:id="rId278"/>
+    <hyperlink ref="E204" r:id="rId279"/>
+    <hyperlink ref="F203" r:id="rId280"/>
+    <hyperlink ref="E203" r:id="rId281"/>
+    <hyperlink ref="F202" r:id="rId282"/>
+    <hyperlink ref="E202" r:id="rId283"/>
+    <hyperlink ref="F201" r:id="rId284"/>
+    <hyperlink ref="E201" r:id="rId285"/>
+    <hyperlink ref="F196" r:id="rId286"/>
+    <hyperlink ref="E196" r:id="rId287"/>
+    <hyperlink ref="F199" r:id="rId288"/>
+    <hyperlink ref="E199" r:id="rId289"/>
+    <hyperlink ref="F200" r:id="rId290"/>
+    <hyperlink ref="E200" r:id="rId291"/>
+    <hyperlink ref="F198" r:id="rId292"/>
+    <hyperlink ref="E198" r:id="rId293"/>
+    <hyperlink ref="E195" r:id="rId294"/>
+    <hyperlink ref="F195" r:id="rId295"/>
+    <hyperlink ref="F113" display="https://www.mercadolibre.com.mx/3pcs-juego-de-toallas-bano-completo-grande-lana-coral-suave-de-alta-densidad-14070cm-color-combinacion-1-love-yuriria-grosor-medio-toallas-microfibra-absorbente-tuallas-bano-toalla-para-bano-mayoreo/p/MLM48935305?pdp_filter"/>
+    <hyperlink ref="E113" r:id="rId296"/>
+    <hyperlink ref="F140" r:id="rId297"/>
+    <hyperlink ref="E140" r:id="rId298"/>
+    <hyperlink ref="F194" r:id="rId299"/>
+    <hyperlink ref="E194" r:id="rId300"/>
+    <hyperlink ref="F151" r:id="rId301"/>
+    <hyperlink ref="E151" r:id="rId302"/>
+    <hyperlink ref="F193" r:id="rId303"/>
+    <hyperlink ref="E193" r:id="rId304"/>
+    <hyperlink ref="F150" r:id="rId305"/>
+    <hyperlink ref="E150" r:id="rId306"/>
+    <hyperlink ref="E192" r:id="rId307"/>
+    <hyperlink ref="F192" r:id="rId308" location="&amp;gid=1&amp;pid=4"/>
+    <hyperlink ref="F191" r:id="rId309"/>
+    <hyperlink ref="E191" r:id="rId310"/>
+    <hyperlink ref="F190" r:id="rId311"/>
+    <hyperlink ref="E190" r:id="rId312"/>
+    <hyperlink ref="F149" r:id="rId313"/>
+    <hyperlink ref="E189" r:id="rId314"/>
+    <hyperlink ref="E139" r:id="rId315"/>
+    <hyperlink ref="F139" r:id="rId316"/>
+    <hyperlink ref="F138" r:id="rId317"/>
+    <hyperlink ref="E138" r:id="rId318"/>
+    <hyperlink ref="F137" r:id="rId319"/>
+    <hyperlink ref="E137" r:id="rId320"/>
+    <hyperlink ref="F136" r:id="rId321" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E136" r:id="rId322"/>
+    <hyperlink ref="F135" r:id="rId323"/>
+    <hyperlink ref="E135" r:id="rId324"/>
+    <hyperlink ref="E134" r:id="rId325"/>
+    <hyperlink ref="E133" r:id="rId326"/>
+    <hyperlink ref="F133" r:id="rId327"/>
+    <hyperlink ref="E132" r:id="rId328"/>
+    <hyperlink ref="F132" r:id="rId329" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E131" r:id="rId330"/>
+    <hyperlink ref="F131" r:id="rId331" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E130" r:id="rId332"/>
+    <hyperlink ref="F130" r:id="rId333"/>
+    <hyperlink ref="F147" r:id="rId334"/>
+    <hyperlink ref="E147" r:id="rId335"/>
+    <hyperlink ref="E146" r:id="rId336"/>
+    <hyperlink ref="F146" r:id="rId337" location="&amp;gid=1&amp;pid=10"/>
+    <hyperlink ref="F145" r:id="rId338" location="&amp;gid=1&amp;pid=6"/>
+    <hyperlink ref="E145" r:id="rId339"/>
+    <hyperlink ref="F144" display="https://www.mercadolibre.com.mx/14-piezas-cajas-organizadoras-apilables-para-zapatos-avedistante-bt3-0415/p/MLM26949544?pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVariation=MLM26949544&amp;position=4&amp;search_layout=grid&amp;type=product"/>
+    <hyperlink ref="E144" r:id="rId340"/>
+    <hyperlink ref="F143" r:id="rId341"/>
+    <hyperlink ref="E143" r:id="rId342"/>
+    <hyperlink ref="F141" r:id="rId343"/>
+    <hyperlink ref="E141" r:id="rId344"/>
+    <hyperlink ref="F142" r:id="rId345" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E142" r:id="rId346"/>
+    <hyperlink ref="F129" display="https://articulo.mercadolibre.com.mx/MLM-3003876186-carrito-extraible-multiusos-de-plastico-de-4-capas-a-prueba-_JM?searchVariation=182425909459&amp;vip_filters=shipping%3Afulfillment&amp;pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVari"/>
+    <hyperlink ref="E129" r:id="rId347"/>
+    <hyperlink ref="F211" display="https://articulo.mercadolibre.com.mx/MLM-1413265684-organizador-de-escritorio-fancoyard-con-accesorios-_JM#is_advertising=true&amp;position=1&amp;search_layout=stack&amp;type=pad&amp;tracking_id=48e75072-006e-4977-af61-10efcf8f8569&amp;is_advertising=true&amp;ad_domain=VQCATCORE"/>
+    <hyperlink ref="E211" r:id="rId348"/>
+    <hyperlink ref="F208" r:id="rId349"/>
+    <hyperlink ref="E208" r:id="rId350"/>
+    <hyperlink ref="F209" r:id="rId351" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E209" r:id="rId352"/>
+    <hyperlink ref="F213" r:id="rId353"/>
+    <hyperlink ref="E213" r:id="rId354"/>
+    <hyperlink ref="F197" r:id="rId355" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E197" r:id="rId356"/>
+    <hyperlink ref="F210" r:id="rId357" location="&amp;gid=1&amp;pid=1"/>
+    <hyperlink ref="E210" r:id="rId358"/>
+    <hyperlink ref="E212" r:id="rId359"/>
+    <hyperlink ref="F216" display="https://articulo.mercadolibre.com.mx/MLM-3052783868-neceser-maletin-reforzado-cosmetiquera-belleza-profesional-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-1999898669-neceser-maletin-reforzado-cosmetiquera-belleza-profesional"/>
+    <hyperlink ref="E216" r:id="rId360"/>
+    <hyperlink ref="F214" r:id="rId361"/>
+    <hyperlink ref="E214" r:id="rId362"/>
+    <hyperlink ref="F215" display="https://articulo.mercadolibre.com.mx/MLM-2110792424-soporte-celular-tablet-brazo-flexible-ajustable-con-clip-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=1a03d828-1a89-46c5-b2be-1d5dd9466291&amp;wid=MLM2110792424&amp;sid="/>
+    <hyperlink ref="E215" r:id="rId363"/>
+    <hyperlink ref="F39" r:id="rId364"/>
+    <hyperlink ref="E39" r:id="rId365"/>
+    <hyperlink ref="E45" r:id="rId366"/>
+    <hyperlink ref="F45" r:id="rId367"/>
+    <hyperlink ref="F41" r:id="rId368"/>
+    <hyperlink ref="E41" r:id="rId369"/>
+    <hyperlink ref="F38" r:id="rId370"/>
+    <hyperlink ref="E38" r:id="rId371"/>
+    <hyperlink ref="F188" r:id="rId372"/>
+    <hyperlink ref="E188" r:id="rId373"/>
+    <hyperlink ref="F84" r:id="rId374"/>
+    <hyperlink ref="E84" r:id="rId375"/>
+    <hyperlink ref="F109" r:id="rId376"/>
+    <hyperlink ref="E109" r:id="rId377"/>
+    <hyperlink ref="F108" r:id="rId378"/>
+    <hyperlink ref="E108" r:id="rId379"/>
+    <hyperlink ref="F107" display="https://articulo.mercadolibre.com.mx/MLM-3803747232-paw-patrol-kit-de-decoracion-de-globos-de-cumpleanos-_JM?searchVariation=184133748040&amp;vip_filters=shipping%3Afulfillment&amp;pdp_filters=shipping%3Afulfillment#polycard_client=search-nordic&amp;searchVariation=1"/>
+    <hyperlink ref="E107" r:id="rId380"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId366"/>
+  <pageSetup orientation="portrait" r:id="rId381"/>
   <tableParts count="1">
-    <tablePart r:id="rId367"/>
+    <tablePart r:id="rId382"/>
   </tableParts>
 </worksheet>
 </file>
--- a/productos.xlsx
+++ b/productos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$235</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="741">
   <si>
     <t>Nombre</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Decoración Banderín Multicolor Plástico Colores 100m 2tiras</t>
   </si>
   <si>
-    <t>Máscara Snorkel 180° Panorámica Con Soporte Para Cámara</t>
-  </si>
-  <si>
     <t>Gafas Natación Sin Fugas Protección Uv Antivaho, Adulto 5en1</t>
   </si>
   <si>
@@ -116,21 +113,12 @@
     <t>Cargadores De Batería Coche Moto 12v6a Lcd Pantalla Portátil</t>
   </si>
   <si>
-    <t>Par Faros Auxiliares Led Para Moto 4 Modos Ojo Estroboscopia</t>
-  </si>
-  <si>
     <t>Tiras Trasera Luces Direccionales Secuencial Drl Auto 120cm</t>
   </si>
   <si>
     <t>Kit De Faros Led Csp Canbus H7 caja negra</t>
   </si>
   <si>
-    <t>Luces Decorativas Led Blancas</t>
-  </si>
-  <si>
-    <t>Luces Decorativas Led Amarilla</t>
-  </si>
-  <si>
     <t>10 Plafones led</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Inalámbrica Pistolas Impacto Llave De Trinquete Eléctrica</t>
   </si>
   <si>
-    <t>Pistola De Impacto Inalámbrica Llave Eléctrica Taladro 2pila</t>
-  </si>
-  <si>
     <t>Triangulo Reflejante Lampara Emergencia Recargable Estrobo</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Apuntador Laser Verde Proyector Carga Usb Recargable 5000mw</t>
   </si>
   <si>
-    <t>Convertidor De Audio Digital Óptico/coaxial A Análogo Rca</t>
-  </si>
-  <si>
     <t>Lámpara De Escritorio Con Cargador Inalámbrico Y Despertador</t>
   </si>
   <si>
@@ -233,9 +215,6 @@
     <t>https://www.mercadolibre.com.mx/decoracion-banderin-multicolor-plastico-colores-100m-2tiras/up/MLMU702806632</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1411806491-gafas-de-natacion-para-hombres-mujeres-y-ninos-5-en-1-_JM?searchVariation=174442229968&amp;highlight=false&amp;headerTopBrand=true#polycard_client=search-nordic&amp;searchVariation=174442229968&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=ab23fa2e-150c-43e3-a91d-306384b49af7</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1805289344-mascara-snorkel-180-panoramica-con-soporte-para-camara-_JM?quantity=1&amp;variation_id=176518102373</t>
   </si>
   <si>
@@ -335,9 +314,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-3447072354-inalambrica-pistolas-impacto-llave-de-trinquete-electrica-_JM?quantity=1</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2279714247-pistola-de-impacto-inalambrica-llave-electrica-taladro-2pila-_JM?quantity=1&amp;variation_id=183332928164</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1385608468-triangulo-reflejante-lampara-emergencia-recargable-estrobo-_JM?quantity=1</t>
   </si>
   <si>
@@ -398,9 +374,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-2852178544-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM#redirectedFromSimilar=https%3A%2F%2Farticulo.mercadolibre.com.mx%2FMLM-3025495100-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr-_JM</t>
   </si>
   <si>
-    <t>https://www.mercadolibre.com.mx/convertidor-de-audio-digital-opticocoaxial-a-analogo-rca/p/MLM21297929?pdp_filters=item_id:MLM1837272876</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1421427697-lampara-de-escritorio-con-cargador-inalambrico-y-despertador-_JM?quantity=1&amp;variation_id=174509948501</t>
   </si>
   <si>
@@ -569,9 +542,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_894081-CBT81687533499_122024-O-inalambrica-pistolas-impacto-llave-de-trinquete-electrica.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_774394-MLM83815535610_042025-O-pistola-de-impacto-inalambrica-llave-electrica-taladro-2pila.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_828537-MLM72320835052_102023-O-triangulo-reflejante-lampara-emergencia-recargable-estrobo.webp</t>
   </si>
   <si>
@@ -644,9 +614,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_878265-MLM78612302095_082024-O-bascula-digital-gramera-alta-precision-joyeria-001gr-500gr.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_834736-MPE31371280171_072019-O.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_754248-MLM50529113415_062022-O-lampara-de-escritorio-con-cargador-inalambrico-y-despertador.webp</t>
   </si>
   <si>
@@ -827,9 +794,6 @@
     <t>https://pe.todomoda.com/fichero-classic-72706501.html</t>
   </si>
   <si>
-    <t>https://pe.todomoda.com/media/catalog/product/7/2/72706501_0_1_20210706180216.jpg?quality=75&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=841&amp;width=657&amp;canvas=657:841</t>
-  </si>
-  <si>
     <t>Cartera Monedero, Billetera doble, TodaModa</t>
   </si>
   <si>
@@ -866,12 +830,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_986644-MLM70912410588_082023-O-cangurera-rinonera-deportiva-impermeable-multiusos.webp</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_717183-CBT81230471919_122024-O-pantalla-smart-tv-24-pulgadas-hikers-android-dled-hd-dolby.webp</t>
-  </si>
-  <si>
-    <t>Pantalla Smart Tv 24 Pulgadas Hikers Android Dled Hd Dolby</t>
-  </si>
-  <si>
     <t>Faros De Lupa Led Focos Strobe Ojos De Demonio Rojo 14000lm 100w</t>
   </si>
   <si>
@@ -1001,15 +959,6 @@
     <t>Natacion, Máscara Snorkel 180° Panorámica Con Soporte Para Cámara</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1410050092-gafas-natacion-proteccion-uv-antivaho-sin-fugas-adulto-5en1-_JM?quantity=1&amp;variation_id=174431476590</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_661126-CBT49733859466_042022-F-gafas-natacion-proteccion-uv-antivaho-sin-fugas-adulto-5en1.webp</t>
-  </si>
-  <si>
-    <t>Natacion Gafas Protección Uv Antivaho Sin Fugas, Adulto 5 en 1</t>
-  </si>
-  <si>
     <t>Prismáticos Profesionales De Visión Nocturna Hd 60x60, Binoculares</t>
   </si>
   <si>
@@ -1094,15 +1043,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_910187-CBT77203776553_062024-F-ventilador-de-cuello-refrigeracion-aire-acondicionado.webp</t>
   </si>
   <si>
-    <t>Ventilador De Piso Control Remoto Silencioso 10 Velocidades</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2929802970-ventilador-de-piso-control-remoto-silencioso-10-velocidades-_JM?quantity=1</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_978057-CBT76999004797_062024-F-ventilador-de-piso-control-remoto-silencioso-10-velocidades.webp</t>
-  </si>
-  <si>
     <t>Enfriador Aire Portátil Ventilador Aire Frio 700ml Cooler</t>
   </si>
   <si>
@@ -1142,21 +1082,12 @@
     <t>Lámparas De Techo Con Ventilador, Apto Para E26/e27, 40w Con Mando A Distancia</t>
   </si>
   <si>
-    <t>Smarphone Doogee S Punk Pro, celular Uso Rudo</t>
-  </si>
-  <si>
-    <t>20 GB de RAM (8 GB+hasta 12GB), 512 GB</t>
-  </si>
-  <si>
     <t>https://www.mercadolibre.com.mx/doogee-s-punk-pro-telefonos-moviles-resistentes-66-fhd-ips-90hz-20gb-ram-512gb-rom-con-altavoz-de-128-dbdesbloqueo-facialnfc/p/MLM45646339?pdp_filters=item_id:MLM3576990660</t>
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_766941-MLA81788846980_012025-F.webp</t>
   </si>
   <si>
-    <t>Celular Tecno Spark 20 Pro, Smarphone</t>
-  </si>
-  <si>
     <t>256gb Dual Sim Dorado 8gb Ram</t>
   </si>
   <si>
@@ -1166,12 +1097,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_711619-CBT79533515543_092024-F-celular-tecno-spark-20-pro-256gb-dual-sim-dorado-8gb-ram-camara-108mp-120hz-fhd-de-678-con-isla-dinamica.webp</t>
   </si>
   <si>
-    <t>Smartphone Doogee S200 5G celulares</t>
-  </si>
-  <si>
-    <t>Doble Sim Gris 256 Gb Rom 32 Gb</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_936483-MLA86470942032_062025-F.webp</t>
   </si>
   <si>
@@ -1184,9 +1109,6 @@
     <t>43 Pulgadas, Full HD</t>
   </si>
   <si>
-    <t>24 Pulgadas, Full HD</t>
-  </si>
-  <si>
     <t>Marcadores 168 Colores Plumones Punta Pincel Doble Punta</t>
   </si>
   <si>
@@ -1220,9 +1142,6 @@
     <t>50 pzas</t>
   </si>
   <si>
-    <t>80 pzas</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_884455-MLA84634046481_052025-F.webp</t>
   </si>
   <si>
@@ -1247,15 +1166,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_993599-CBT70506813730_072023-F-reproductor-de-musica-mp3-mp4-wifi-bluetooth-spotify-tactil.webp</t>
   </si>
   <si>
-    <t>Bocina Bluetooth Portátil Inalambrica Altavoces Recargables</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1469564814-bocina-bluetooth-portatil-inalambrica-altavoces-recargables-_JM?quantity=1&amp;variation_id=174913018285</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_984524-CBT52033749275_102022-F-bocina-bluetooth-portatil-inalambrica-altavoces-recargables.webp</t>
-  </si>
-  <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_936782-CBT51925751086_102022-F-reproductor-de-cd-bluetooth-de-musica-portatil-reproductor.webp</t>
   </si>
   <si>
@@ -1328,15 +1238,6 @@
     <t>10 Metros</t>
   </si>
   <si>
-    <t>Bomba Para Inflar Globos Eléctricos Doble Inflador/fiestas</t>
-  </si>
-  <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-1924188831-bomba-para-inflar-globos-electricos-doble-infladorfiestas-_JM?quantity=1</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_904485-MLM81749442742_012025-F-bomba-para-inflar-globos-electricos-doble-infladorfiestas.webp</t>
-  </si>
-  <si>
     <t>Tablet 10''hd Ips Android 14 22+128gb Rom 5gwifi Con Teclado</t>
   </si>
   <si>
@@ -1424,18 +1325,9 @@
     <t>Para niños</t>
   </si>
   <si>
-    <t>45 Piezas</t>
-  </si>
-  <si>
     <t>100 Metros</t>
   </si>
   <si>
-    <t>Body Siluet Fajas Colombianas Levanta Gluteo Moldeadoras Mujer Body Shaper</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>16 Porta Vasos Inflables Alberca Surtidos Piscinas Inflador, alberca</t>
   </si>
   <si>
@@ -1475,15 +1367,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_840986-MLM72296741425_102023-O-audifonos-inalambricos-pro-3-compatible-con-android-xiaomi.webp</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-3665538778-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col-_JM?quantity=1&amp;variation_id=187746698935</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_833941-MLU78764933573_082024-O-audifonos-xiaomi-redmi-buds-6-play-bluetooth-color-black-col.webp</t>
-  </si>
-  <si>
-    <t>Audífonos Xiaomi Redmi Buds 6 Play Bluetooth Color Black</t>
-  </si>
-  <si>
     <t>Gato Hidráulico De Patín 2 Toneladas Pórtatil Para Vehículos</t>
   </si>
   <si>
@@ -1592,12 +1475,6 @@
     <t>Eléctrica Almohadilla Cojín Térmica Con 9ajustes Temperatura</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2074048651-electrica-almohadilla-cojin-termica-con-9ajustes-temperatura-_JM</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_873934-MLM78342624583_082024-F-electrica-almohadilla-cojin-termica-con-9ajustes-temperatura.webp</t>
-  </si>
-  <si>
     <t>Tabla Lagartijas Portátil Inteligente Y Multifuncional Negro</t>
   </si>
   <si>
@@ -1622,9 +1499,6 @@
     <t>Zapatera Organizador Mueblick Closet Zapato 9 Pisos 27 Pares</t>
   </si>
   <si>
-    <t>Micrófono Inalámbrico Lavalier Condensado P/ iPhone Android</t>
-  </si>
-  <si>
     <t>https://www.mercadolibre.com.mx/proyector-de-estrella-galaxia-astronauta-lampara-de-noche/p/MLM37085198</t>
   </si>
   <si>
@@ -1643,12 +1517,6 @@
     <t>Mochila Para Laptop 15.6 Inch 35 L Hombres Mochilas Escolar Viaje Antirrobo Y Impermeable</t>
   </si>
   <si>
-    <t>https://articulo.mercadolibre.com.mx/MLM-2218266927-microfono-inalambrico-lavalier-condensado-p-iphone-android-_JM?quantity=1&amp;variation_id=186674891761</t>
-  </si>
-  <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_2X_841664-MLM83612331651_042025-F-microfono-inalambrico-lavalier-condensado-p-iphone-android.webp</t>
-  </si>
-  <si>
     <t>Chaqueta Biker Slim Para Hombre Para Rompevientos Moda</t>
   </si>
   <si>
@@ -1973,9 +1841,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_673645-MLM84526967526_052025-O-soporte-celular-tablet-brazo-flexible-ajustable-con-clip.webp</t>
   </si>
   <si>
-    <t>Kit Focos Led Para Coche Lupa Mini Proyector</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
@@ -1988,9 +1853,6 @@
     <t>H7</t>
   </si>
   <si>
-    <t xml:space="preserve">Focos Led Para Carro Foco Led Sealight </t>
-  </si>
-  <si>
     <t>Kit De Faros Focos Led 16000lm 60w Baja O Alta</t>
   </si>
   <si>
@@ -2018,12 +1880,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-2257545971-kit-de-faros-h4-h11-h7-9005-9006-auto-luz-led-canbus-300w-_JM?quantity=1&amp;variation_id=187199630745</t>
   </si>
   <si>
-    <t>https://http2.mlstatic.com/D_NQ_NP_752772-CBT84691015147_052025-O-kit-de-faros-h4-h11-h7-9005-9006-auto-luz-led-canbus-300w.webp</t>
-  </si>
-  <si>
-    <t>Kit De Focos Luz Led Csp Canbus 30-300w</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-2266114065-kit-de-focos-luz-led-h4-h11-h7-9005-9006-csp-canbus-30-300w-_JM?quantity=1&amp;variation_id=183199770764</t>
   </si>
   <si>
@@ -2042,9 +1898,6 @@
     <t>Compatible: Nintendo, pc, android</t>
   </si>
   <si>
-    <t>Altavoces de computadora envolvente con USB estéreo con cable multimedia para PC/portátiles/teléfono inteligente</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/-/es/DFHBFG-computadora-envolvente-multimedia-inteligente/dp/B0CX3G5HLH</t>
   </si>
   <si>
@@ -2076,6 +1929,328 @@
   </si>
   <si>
     <t>https://http2.mlstatic.com/D_NQ_NP_2X_881041-MLM87175897963_072025-F-paw-patrol-kit-de-decoracion-de-globos-de-cumpleanos.webp</t>
+  </si>
+  <si>
+    <t>Repisas Flotantes,5 Pisos Flotantes Esquinero</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61FN5G2v-oL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t>https://pe.todomoda.com/media/catalog/product/7/2/72706501_0_1_20210706180216.jpg</t>
+  </si>
+  <si>
+    <t>Mini Drill Herramienta Rotativa, 18W 16000RPM Kit Esmerilar</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61U2kHnX11L._AC_SX522_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/dp/B0D6XNL7KK?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Luces Led Para Autos Kit 24000lm Faros Luz Carro</t>
+  </si>
+  <si>
+    <t>Kit De Faros, Luces Led Para Autos Kit 24000lm Faros Luz Carro</t>
+  </si>
+  <si>
+    <t>Kit De Faros, Kit Focos Led Para Coche Lupa Mini Proyector</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_709867-CBT85991694967_062025-O-luces-led-para-autos-kit-24000lm-faros-luz-carro-h4-h11-9005.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_844550-CBT85680249798_062025-O-luces-led-para-autos-kit-24000lm-faros-luz-carro-h4-h11-9005.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3607770126-luces-led-para-autos-kit-24000lm-faros-luz-carro-h4-h11-9005-_JM?attributes=COLOR_SECONDARY_COLOR%3AUGxhdGVhZG8%3D%2CCAR_LED_BULB_TYPE%3ASDc%3D&amp;quantity=1&amp;picker=true&amp;variation_id=187322446113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit De Faros, Focos Led Para Carro Foco Led Sealight </t>
+  </si>
+  <si>
+    <t>Kit De Faros, Kit De Focos Luz Led Csp Canbus 30-300w</t>
+  </si>
+  <si>
+    <t>Faros, Luces Decorativas Led Blancas</t>
+  </si>
+  <si>
+    <t>Faros, Luces Decorativas Led Amarilla</t>
+  </si>
+  <si>
+    <t>Faros, Par Faros Auxiliares Led Para Moto 4 Modos Ojo Estroboscopia</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_661246-CBT84691015699_052025-O-kit-de-faros-h4-h11-h7-9005-9006-auto-luz-led-canbus-300w.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par De Bocinas Coaxiales Para Automóvil Pioneer 6 Pulgadas </t>
+  </si>
+  <si>
+    <t>400 Watts</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/par-de-bocinas-coaxiales-para-automovil-pioneer-6-pulgadas-400-watts/p/MLM51986920?pdp_filters=item_id:MLM3819302612</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_777969-MLA86877730714_072025-F.webp</t>
+  </si>
+  <si>
+    <t>Celular, Smartphone Doogee Blade 20 Play Irrompible 5G 6,6 pulgadas HD+90 Hz Móvil resistente 10800 mAh (33 W)</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/doogee-blade-20-play-celular-android-15-telefono-movil-irrompible-5g-32-gb256-gb2-tb-66-pulgadas-hd90-hz-movil-resistente-10800-mah-33-w-nfchuella-y-face-id/p/MLM51115028?pdp_filters=item_id:MLM3769270520</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_793465-MLA85571065794_062025-O.webp</t>
+  </si>
+  <si>
+    <t>Celular, Smarphone Doogee S Punk Pro Teléfonos Móviles Resistentes 6,6 Fhd+ Ips 90hz Con Altavoz De 128 Db/desbloqueo Facial/nfc</t>
+  </si>
+  <si>
+    <t>Celular, Smartphone Doogee S200 5G celulares Con Doble Sim Gris Android 14</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/smartphone-doogee-s200-5g-celulares-con-doble-sim-gris-256-gb-de-almacenamiento-32-gb-de-ram-android-14/p/MLM45646603?pdp_filters=official_store%3A69576#polycard_client=search-nordic&amp;searchVariation=MLM45646603&amp;wid=MLM3677768696&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=30ceb79a-5f7c-479c-b07a-c41878b827d1&amp;sid=search</t>
+  </si>
+  <si>
+    <t>Celular Smarphone Tecno Spark 20 Pro, Smarphone</t>
+  </si>
+  <si>
+    <t>Lápices De Dibujo Profesional Kit De Colores Acuarela</t>
+  </si>
+  <si>
+    <t>50pzas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3651281228-lapices-de-dibujo-profesional-kit-de-colores-acuarela-50pzas-_JM?quantity=1&amp;variation_id=187608688935#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_838410-MLM86813278885_062025-F-lapices-de-dibujo-profesional-kit-de-colores-acuarela-50pzas.webp</t>
+  </si>
+  <si>
+    <t>256GB ROM, 32GBRAM (8GB+24GB)</t>
+  </si>
+  <si>
+    <t>256GB ROM, 32GBRAM (12GB+20GB)</t>
+  </si>
+  <si>
+    <t>512GB ROM, 32GBRAM (8GB+24GB)</t>
+  </si>
+  <si>
+    <t>Audifonos Auriculares Inalámbricos Pro4 Compatibles Con Iphone Android Blanco</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/auriculares-inalambricos-pro4-compatibles-con-iphone-android/up/MLMU3130632700#polycard_client=search-nordic&amp;searchVariation=MLMU3130632700&amp;wid=MLM2284089291&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=ce1d2f60-d718-4434-ab9f-6243eeeffeff&amp;sid=search</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_752502-MLM83525128438_042025-O.webp</t>
+  </si>
+  <si>
+    <t>Bocina, Altavoces de computadora envolvente con USB estéreo con cable multimedia para PC/portátiles/teléfono inteligente</t>
+  </si>
+  <si>
+    <t>20 Hojas Grandes De Tatuajes Temporales De Neón Uv Brillante</t>
+  </si>
+  <si>
+    <t>https://scontent.fcul3-1.fna.fbcdn.net/v/t39.30808-6/495087264_4205002359718289_147492653449964658_n.jpg?stp=dst-jpg_s600x600_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=aa7b47&amp;_nc_ohc=18i79qZMaK8Q7kNvwF9H_hs&amp;_nc_oc=AdlUXNtuLg_36iuEcx7rnssaa1RFxiVVl3hkP4aQQIff_192EGyJfc8DqF79zrRXSvg&amp;_nc_zt=23&amp;_nc_ht=scontent.fcul3-1.fna&amp;_nc_gid=2dTPlzk-QZtAOLjOzlWUrQ&amp;oh=00_AfQ2dSi4NW5of0PqO4u7CJ0BE8dnbqbWLTpx3YPOeqfV1Q&amp;oe=68834792</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3415105080-fundas-para-tarjetas-mtg-sleeves-overlord-anime-art-60-unid-_JM?quantity=1&amp;variation_id=185521142391</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_709226-CBT80026850219_102024-O-fundas-para-tarjetas-mtg-sleeves-overlord-anime-art-60-unid.webp</t>
+  </si>
+  <si>
+    <t>, Sobres Fundas Para Tarjetas Mtg Sleeves Overlord Anime Art, 60 Unid</t>
+  </si>
+  <si>
+    <t>Cinta Kinesiológicas Vendaje Neuromuscular Tape 5mx5cm</t>
+  </si>
+  <si>
+    <t>5 pzas</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2057713449-6pcs-cinta-kinesiologicas-vendaje-neuromuscular-tape-5mx5cm-_JM?searchVariation=182612467605#polycard_client=search-nordic&amp;searchVariation=182612467605&amp;backend_model=search-backend&amp;position=24&amp;search_layout=stack&amp;type=item&amp;tracking_id=9e0c4eb0-0968-474e-85a3-98ac3981370d</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_888297-MLM87073863984_072025-O-6pcs-cinta-kinesiologicas-vendaje-neuromuscular-tape-5mx5cm.webp</t>
+  </si>
+  <si>
+    <t>Higrómetro Termómetro Interior Digital Con Retroiluminación</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1450629735-higrometro-termometro-interior-digital-con-retroiluminacion-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_756068-MLM50536922058_072022-O-higrometro-termometro-interior-digital-con-retroiluminacion.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1830670554-termometro-higrometro-digital-ambiental-con-retroiluminacion-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Termometro Higrometro Digital Ambiental Con Retroiluminación</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_805333-MLM54279450905_032023-O-termometro-higrometro-digital-ambiental-con-retroiluminacion.webp</t>
+  </si>
+  <si>
+    <t>Protector De Tenis Antiarrugas Shoe Shield Sneaker Y Zapatos</t>
+  </si>
+  <si>
+    <t>3 pares</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2150954006-protector-de-tenis-antiarrugas-shoe-shield-sneaker-y-zapatos-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_719762-MLM69249530928_052023-O-protector-de-tenis-antiarrugas-shoe-shield-sneaker-y-zapatos.webp</t>
+  </si>
+  <si>
+    <t>Cuchillo Navaja Entrenamiento Tipo Mariposa Táctico</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_769119-MLM51300607736_082022-N.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mica Antilluvia, Película Protectora De La Ventana Lateral Del Espejo Retrov
+, Película Protectora De La Ventana Lateral Del Espejo, </t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_683518-MLM42076795325_062020-O.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/mica-antilluvia/up/MLMU527732022#polycard_client=search-nordic&amp;searchVariation=MLMU527732022&amp;wid=MLM782112233&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=3949bafd-fa8b-4c7d-9b04-c826b10c589b&amp;sid=search</t>
+  </si>
+  <si>
+    <t>Calcetas Con Manitas Imán Parejas Largas Blanco Y Negro</t>
+  </si>
+  <si>
+    <t>6 pares</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_675146-MLM84313657091_052025-F.webp</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/calcetas-con-manitas-iman-4-pares-divertidas-parejas-largas/up/MLMU3155866897?pdp_filters=shipping:fulfillment#wid=MLM2300505211&amp;sid=search&amp;intervention_type=full&amp;position=1&amp;search_layout=grid&amp;type=cart_intervention&amp;tracking_id=4423238d-87da-44ae-a599-fbf933a588b2</t>
+  </si>
+  <si>
+    <t>Pantalón Táctico Militar Impermeable Y Cortavientos</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_914576-MLM85370132885_052025-F-pantalon-tactico-militar-impermeable-y-cortavientos-a.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3339232666-pantalon-tactico-militar-impermeable-y-cortavientos-a-_JM?searchVariation=181520249238#polycard_client=search-nordic&amp;searchVariation=181520249238&amp;position=25&amp;search_layout=grid&amp;type=item&amp;tracking_id=a7975d37-5ebe-4191-8927-74fd311e6432&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Repetidor 1200m Extensor De Señal De Red Inalámbrica 5g</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_895598-MLM70451732237_072023-N.jpg</t>
+  </si>
+  <si>
+    <t>8 En 1 Adaptador Usb C Hub Tipo C, Multipuerto, Usb 3.0, Sd</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_996791-CBT73451662730_122023-F-8-en-1-adaptador-usb-c-hub-tipo-c-multipuerto-usb-30-sd.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2686429310-8-en-1-adaptador-usb-c-hub-tipo-c-multipuerto-usb-30-sd-_JM?quantity=1&amp;variation_id=180738214457#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>Adaptador Ethernet Usb 3.0 A Rj45 Gigabit Lan 1000mbps</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/adaptador-ethernet-c-a-rj45-gigabit-usb31-de-red-de-1000-m/p/MLM2007126288#polycard_client=search-nordic&amp;searchVariation=MLM2007126288&amp;wid=MLM3579917292&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2cc43bb8-6680-4f38-b8be-61607c6c19f0&amp;sid=search</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_815657-CBT82801978549_032025-O.webp</t>
+  </si>
+  <si>
+    <t>Disco Duro Sólido Externo Portátil Mini Ssd 2tb(2000gb)</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>https://www.mercadolibre.com.mx/domoko-2tb-ssd-disco-duro-externo-estado-solido-externo-unidad-externa-portatil-de-alta-velocidad-de-estado-solido-movil-para-pc-portatil-almacenamiento-y-transferencia-de-datos/p/MLM46691653?pdp_filters=shipping:fulfillment#wid=MLM2345919931&amp;sid=search&amp;intervention_type=full&amp;backend_model=search-backend&amp;position=1&amp;search_layout=stack&amp;type=cart_intervention&amp;tracking_id=6c5d57fc-7c22-45ed-b8e0-ac381d8f888b&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_683345-MLA82894843861_032025-F.webp</t>
+  </si>
+  <si>
+    <t>Pluma Stylus Capacitiva Dytimeem Para iPad Y Android Ios</t>
+  </si>
+  <si>
+    <t>Pluma, Lápiz Capacitivo,stylus Pen Lápiz Para Pantalla Táctil</t>
+  </si>
+  <si>
+    <t>Pluma, Stylus Pen Capacitivo Lápiz Óptico Para Pantalla Táctil 2pcs</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-1398812857-pluma-stylus-capacitiva-dytimeem-para-ipad-y-android-ios-_JM?quantity=1#&amp;gid=1&amp;pid=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_903222-CBT49519461846_032022-F-pluma-stylus-capacitiva-dytimeem-para-ipad-y-android-ios.webp</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2288470524-lapiz-capacitivostylus-pen-lapiz-para-pantalla-tactil-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_884017-CBT71227716039_082023-O-lapiz-capacitivostylus-pen-lapiz-para-pantalla-tactil.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_822092-MLM49894453646_052022-N.jpg</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_945761-MLM83038415328_032025-N.jpg</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3455110846-autos-a-escala-carros-de-coleccion-benz-6-ruedas-128-_JM?quantity=1&amp;variation_id=182171720248</t>
+  </si>
+  <si>
+    <t>Coches De Juguete  Autos A Escala Carros De Coleccion Benz 6 Ruedas 1:28</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Soporte Para Monitor Y Laptop Ajustable Para Escritorio H009</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-3624323340-soporte-para-monitor-y-laptop-ajustable-para-escritorio-h009-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_2X_745013-MLM83301381338_042025-F-soporte-para-monitor-y-laptop-ajustable-para-escritorio-h009.webp</t>
+  </si>
+  <si>
+    <t>Plancha De Cabello Profesional Alaciadora Cerámica 2 En 1</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.mx/MLM-2303654917-plancha-de-cabello-profesional-alaciadora-ceramica-2-en-1-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_689430-CBT85594127252_062025-O-plancha-de-cabello-profesional-alaciadora-ceramica-2-en-1.webp</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_NQ_NP_705682-CBT73399657586_122023-O-llavero-de-acrilico-de-fotos-diy-para-bricolaje-regalo-50pcs.webp</t>
+  </si>
+  <si>
+    <t>Siluette Reductoras Fajas Mujer Colombianas Levanta Gluteo</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_943193-MLM54752232345_032023-N.jpg</t>
+  </si>
+  <si>
+    <t>Proximamente Talla M</t>
+  </si>
+  <si>
+    <t>Body Siluet Fajas Moldeadoras Colombianas Mujer Body Shaper</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2174,12 +2349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2255,7 +2424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2275,7 +2444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2291,7 +2460,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,16 +2487,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2339,19 +2505,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,12 +2523,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2430,10 +2591,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G217" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G217"/>
-  <sortState ref="A2:G218">
-    <sortCondition ref="G1:G218"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G235" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G235"/>
+  <sortState ref="A2:G240">
+    <sortCondition ref="G1:G240"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Nombre" dataDxfId="6"/>
@@ -2711,15 +2872,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
@@ -2740,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>4</v>
@@ -2749,15 +2910,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2">
         <v>389</v>
@@ -2766,10 +2927,10 @@
         <v>280</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>266</v>
+        <v>636</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G2" s="14">
         <v>1</v>
@@ -2777,10 +2938,10 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2">
         <v>138</v>
@@ -2789,10 +2950,10 @@
         <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G3" s="14">
         <v>1</v>
@@ -2800,10 +2961,10 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2">
         <v>135</v>
@@ -2812,10 +2973,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
@@ -2823,19 +2984,19 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2">
         <v>150</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -2843,10 +3004,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2">
         <v>135</v>
@@ -2855,10 +3016,10 @@
         <v>100</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
@@ -2866,10 +3027,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2">
         <v>135</v>
@@ -2878,10 +3039,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -2889,10 +3050,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C8" s="2">
         <v>120</v>
@@ -2901,7 +3062,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
@@ -2909,10 +3070,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2">
         <v>200</v>
@@ -2921,7 +3082,7 @@
         <v>150</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
@@ -2929,10 +3090,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2">
         <v>150</v>
@@ -2941,7 +3102,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G10" s="14">
         <v>1</v>
@@ -2949,10 +3110,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2">
         <v>160</v>
@@ -2961,10 +3122,10 @@
         <v>130</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -2972,10 +3133,10 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2">
         <v>569</v>
@@ -2984,10 +3145,10 @@
         <v>390</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -2995,10 +3156,10 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2">
         <v>298</v>
@@ -3007,10 +3168,10 @@
         <v>235</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G13" s="14">
         <v>1</v>
@@ -3018,10 +3179,10 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2">
         <v>300</v>
@@ -3030,10 +3191,10 @@
         <v>150</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14">
         <v>1</v>
@@ -3041,10 +3202,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2">
         <v>498</v>
@@ -3053,10 +3214,10 @@
         <v>240</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G15" s="14">
         <v>1</v>
@@ -3064,10 +3225,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2">
         <v>179</v>
@@ -3076,21 +3237,21 @@
         <v>140</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="14">
+        <v>215</v>
+      </c>
+      <c r="G16" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2">
         <v>719</v>
@@ -3099,10 +3260,10 @@
         <v>230</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G17" s="16">
         <v>1</v>
@@ -3110,10 +3271,10 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2">
         <v>347</v>
@@ -3122,10 +3283,10 @@
         <v>220</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G18" s="14">
         <v>1</v>
@@ -3133,10 +3294,10 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2">
         <v>353</v>
@@ -3145,10 +3306,10 @@
         <v>290</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -3156,19 +3317,19 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2">
         <v>500</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G20" s="14">
         <v>1</v>
@@ -3176,19 +3337,19 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2">
         <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G21" s="14">
         <v>1</v>
@@ -3199,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
         <v>459.07</v>
@@ -3208,10 +3369,10 @@
         <v>425</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G22" s="18">
         <v>2</v>
@@ -3221,8 +3382,8 @@
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>332</v>
+      <c r="B23" s="33" t="s">
+        <v>315</v>
       </c>
       <c r="C23" s="2">
         <v>419.19</v>
@@ -3231,10 +3392,10 @@
         <v>235</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G23" s="19">
         <v>2</v>
@@ -3245,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C24" s="2">
         <v>570</v>
@@ -3254,10 +3415,10 @@
         <v>450</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G24" s="19">
         <v>2</v>
@@ -3268,16 +3429,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C25" s="2">
         <v>170</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G25" s="19">
         <v>2</v>
@@ -3285,19 +3446,19 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C26" s="2">
         <v>185</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G26" s="19">
         <v>2</v>
@@ -3305,10 +3466,10 @@
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C27" s="2">
         <v>298</v>
@@ -3317,10 +3478,10 @@
         <v>180</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G27" s="19">
         <v>2</v>
@@ -3331,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2">
         <v>194.36</v>
@@ -3340,21 +3501,21 @@
         <v>150</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="19">
+        <v>58</v>
+      </c>
+      <c r="G28" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2">
         <v>439</v>
@@ -3363,10 +3524,10 @@
         <v>200</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G29" s="18">
         <v>2</v>
@@ -3374,19 +3535,19 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C30" s="2">
         <v>185</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" s="19">
         <v>2</v>
@@ -3394,10 +3555,10 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2">
         <v>230</v>
@@ -3406,10 +3567,10 @@
         <v>210</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G31" s="19">
         <v>2</v>
@@ -3417,10 +3578,10 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2">
         <v>189.99</v>
@@ -3429,10 +3590,10 @@
         <v>170</